--- a/make_xl/data_xl/comp armchair.xlsx
+++ b/make_xl/data_xl/comp armchair.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C8005D-FDE3-4D2E-8576-974C76A00711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="163">
   <si>
     <t>Id</t>
   </si>
@@ -172,40 +178,43 @@
     <t>Кресло руководителя</t>
   </si>
   <si>
+    <t>Кресло компьютерное</t>
+  </si>
+  <si>
+    <t>Компьютерное крелсо для руководителя</t>
+  </si>
+  <si>
+    <t>Компьютерное крелсо</t>
+  </si>
+  <si>
+    <t>Компьютерное кресло</t>
+  </si>
+  <si>
     <t>Кресло для руководителя</t>
   </si>
   <si>
-    <t>Кресло компьютерное</t>
-  </si>
-  <si>
-    <t>Кресло офисное Бюрократ</t>
+    <t xml:space="preserve">Кресло офисное </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кресло компьютерное </t>
+  </si>
+  <si>
+    <t>Офисное кресло</t>
+  </si>
+  <si>
+    <t>Кресло руководителя кожаное</t>
   </si>
   <si>
     <t>Кресло офисное</t>
   </si>
   <si>
-    <t>Компьютерное крелсо для руководителя</t>
-  </si>
-  <si>
-    <t>Компьютерное крелсо</t>
-  </si>
-  <si>
-    <t>Компьютерное кресло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кресло офисное </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кресло компьютерное </t>
-  </si>
-  <si>
-    <t>Офисное кресло</t>
-  </si>
-  <si>
-    <t>Кресло руководителя кожаное</t>
+    <t>Офисное компьютерное кресло</t>
   </si>
   <si>
     <t xml:space="preserve">Компьютерные кресла </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Офисное компьютерное кресло </t>
   </si>
   <si>
     <t>⚫️Кресло компьютерное
@@ -250,29 +259,6 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Кресло от производителя Flis🇷🇺
-Артикул 10454
-▪️Кресло от российского производителя Flis изготовлено из кожзаменителя высокого качества. Кожзаменитель отличается эстетичным внешним видом, который напоминает натуральную кожу, но обладает большей устойчивостью к истиранию.
-Кресло Flis обладает стильным дизайном, сочетающим в себе элегантность и функциональность. Оно оснащено подлокотниками, удобным сиденьем и эргономичной спинкой, что обеспечивает комфорт и поддержку во время использования. Металлический каркас и надежные механизмы гарантируют долгий срок службы кресла.
-▫️Кресло от Flis в цвете Бордо. Оснащено удобной системой регулировки высоты и механизмом качания.
-▪️Цена 6000
-Количество 1
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-🔥 Система больших скидок действует при опте и в праздничные дни 
-✔ Самовывоз
-✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
     <t>🔴Артикул 10310
 Кресло из кожзаменителя — это стильное и практичное мебельное изделие, созданное для комфорта и эстетики. Кожзаменитель — это современный материал, имитирующий натуральную кожу, но при этом более устойчивый к истиранию, легче в уходе и доступный по цене.
 Такое кресло изготовлено из каркаса ,обтянутого кожзаменителем. Кресла представлены в коричневом,фуксии, черном, салатовом, синим ,белом цвете ,что позволяя выбрать оптимальный вариант под ваш интерьер.
@@ -305,27 +291,6 @@
 🔥 Система больших скидок действует при опте и в праздничные дни 
 ✔ Самовывоз
 ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Кресло Бюрократ 
-Модель CH-799SL, рассчитана на большой вес! 
-Кресла в отличном состоянии.
-Предлагаю самую выгодную цену на рынке ! Похожие модели новых от 6500 т., бу 3500-4000
-Эргономичное офисное кресло Бюрократ c обивкой из ткани и сетки, хромированной крестовиной, подлокотниками, регулировкой кресла по высоте (газлифт) и ограничением по весу: 120 кг. Отличительной особенностью данной модели является пружинно-винтовой механизм качания спинки. 
-В наличии более 80 штук
-Цена: Опт - 2999
-В розницу – 3999
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
@@ -382,25 +347,6 @@
   </si>
   <si>
     <t>Компьютерное кресло
-Артикул 10499
-Представляем вам элегантное офисное кресло Steelcase в черном исполнении с обивкой из высококачественного кожзама, которое станет идеальным компаньоном в вашем рабочем пространстве!
-  Это кресло предлагает роскошный комфорт и функциональность на высшем уровне. С регулируемыми ручками и спинкой вы сможете легко настроить его для идеальной поддержки вашего тела в течение рабочего дня, обеспечивая максимальный комфорт и эффективность.
-Цена 8000
-Количество 1
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Компьютерное кресло
 Артикул 10501
 Описание 🌟 Представляем вам офисное компьютерное кресло "Бюрократ" - идеальное сочетание комфорта, стиля и доступной цены!
 💼 Наше кресло "Бюрократ" не только выглядит элегантно, но и обеспечивает непревзойденный комфорт в течение всего вашего рабочего дня.
@@ -441,27 +387,6 @@
 Количество: 4 шт.
 В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе. Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Артикул 10323
-Описание: Кресло ProLux. кож зам и ткань, хром. 2 регулировки и механизм качания 
-Цена 3500
-Цвет черный Количество 1
-В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе. Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-🔥 Система больших скидок действует при опте и в праздничные дни 
-✔ Самовывоз
-✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
@@ -749,28 +674,6 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Артикул: 10412 
-Описание: König Neurath, кож зам сетка. Регулировка высоты сидения и ручек. Откидная спинка с возможностью фиксации. 
-Цена: 9999
-Цвет: серый
-Наличие: 2
-В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе. Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-🔥 Система больших скидок действует при опте и в праздничные дни 
-✔ Самовывоз
-✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
     <t>Акция - 35% 
 Цена: 1500 за шт. Вместо 2300
 Артикул 10336
@@ -795,28 +698,141 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">Компьютерные кресла 
-Скидка -10%
+    <t>Офисное компьютерное кресло
+Артикул 10522
+Офисное кресло FUTURA — это сочетание современного дизайна и передовых технологий для максимального комфорта и продуктивности. Обивка из прочной ткани придает креслу элегантный и стильный вид, легко вписывающийся в любой офисный интерьер. Модель оснащена механизмом качания, который обеспечивает расслабляющее движение и поддерживает спину в удобном положении.
+Регулируемые подлокотники позволяют настроить кресло под индивидуальные потребности, обеспечивая оптимальную поддержку и удобство. Кресло FUTURA станет отличным решением для тех, кто ценит эргономичность, функциональность и стиль.
+Цвет коричневый
+Цена 5 999 
+Количество 5 (уточняйте)
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            ➕ Наш телеграмм канал – office comfort es
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Кресло компьютерное
+Артикул 10522
+Офисное кресло в бордовой тканевой обивке, специально разработанное для выдерживания большого веса, объединяет современный дизайн и высокие технологии. Прочная конструкция и усиленные элементы обеспечивают долговечность и устойчивость, делая кресло идеальным для длительного использования. Кресло оснащено механизмом качания для комфортного отдыха, а также регулируемыми подлокотниками, которые можно настроить для оптимальной поддержки рук.
+Цвет бордовый
+Цена 5 999
+Количество 8 (уточняйте)
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            ➕ Наш телеграмм канал – office comfort es
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Кресло офисное компьютерное
+Helmut LB от компании ДЭФО - аналог ЛЮКСИ
+Артикул 10532
+Кресло для руководителя Helmut LB — это стильное решение в актуальном стиле хай-тек. Изящная конструкция из инновационных материалов придает модели утонченный вид и создает ощущение легкости в пространстве. Хромированные детали прекрасно гармонируют с обивкой из дышащей сетки, которая обеспечивает комфорт и вентиляцию даже при долгом сидении, подчеркивая современный минимализм кресла.
+Кресло Helmut LB объединяет современный дизайн, практичность и привлекательную цену, делая его отличным выбором для комфортной и продуктивной работы. 
+Механизмы:
+механизм качания с фиксатором в верхнем положении;
+Нагрузка до, кг 120
+Цена 7 999
+Цвет Серый
+Количество 89 (уточняйте)
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            ➕ Наш телеграмм канал – office comfort es
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Компьютерные кресла 
 Артикул 10316
-Описание
+Офисное кресло в черном кожзаме. Прочная конструкция и усиленные элементы обеспечивают долговечность и устойчивость, делая кресло идеальным для длительного использования. Кресло оснащено механизмом качания для комфортного отдыха, а также регулируемыми подлокотниками, которые можно настроить для оптимальной поддержки рук.
 Цвет черный
-Цена 2 999 - ножки пластик, 
-3999 - хром + регулировка подлокотников
+Цена 3 499 - ножки пластик, 
+4 499 - хром + регулировка подлокотников
 Количество
     В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
     Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-                 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-                 ➕ При поиске нас в навигаторе наберите – 
-                 Офис комфорт Одинцово 
-                 ➕ Наш телеграмм канал – office comfort es
-                 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-                 -------------------------------------------------------------------
-                 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-                 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-                 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-                 Можем укомплектовать 100-200 рабочих мест.
-                 </t>
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            ➕ Наш телеграмм канал – office comfort es
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Офисное компьютерное кресло 
+Артикул 10301
+Офисное кресло с сетчатой эргономичной спинкой и механизмом качания.
+Цена 3 499
+Цвет чёрный и серый
+Количество 15
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    ➕ Наш телеграмм канал – office comfort es
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Кресло компьютерное
+Артикул 10031
+Классическое, удобное офисное кресло со встроенным механизмом качания.
+Цвет чёрный
+Цена 7000
+Количество 10
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            ➕ Наш телеграмм канал – office comfort es
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
     <t>https://disk.yandex.ru/i/P7ExkFddqrrs6w | https://disk.yandex.ru/i/qZN1u2V5jAbM3A | https://disk.yandex.ru/i/y3WULywFcXZISA | https://disk.yandex.ru/i/LfQsmS4Rx7v80A | https://disk.yandex.ru/i/4jh9S-zR9kitXw</t>
@@ -825,27 +841,18 @@
     <t>https://disk.yandex.ru/i/apZ0lVsVBKadWA | https://disk.yandex.ru/i/7s1R6DPjhCvXbg | https://disk.yandex.ru/i/Y7CG333ZN0H3BA | https://disk.yandex.ru/i/VgbEbBMc391D3g | https://disk.yandex.ru/i/Pf8cAnkmv7zKIQ | https://disk.yandex.ru/i/_57RFliG2XGVSg | https://disk.yandex.ru/i/mk3gG2sMhQ6Qvg | https://disk.yandex.ru/i/272RfDVgnoGE7A</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/q_L1F3oBDdRNFQ | https://disk.yandex.ru/i/iuvXHaS-PIs2Sg | https://disk.yandex.ru/i/X-eNPPMXGR83rw | https://disk.yandex.ru/i/lefO9LLSHVtNqA | https://disk.yandex.ru/i/dFq3e1EBG_hvWA | https://disk.yandex.ru/i/TdBh8Ruse8vuGw | https://disk.yandex.ru/i/3e_IJNaWRKgTww</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/F_hs2nJX2EvKwA | https://disk.yandex.ru/i/pFJO9_bofMNYcA | https://disk.yandex.ru/i/AV6AkI1kQDbm0w | https://disk.yandex.ru/i/7M7FPMzqnvffuQ | https://disk.yandex.ru/i/QRuT6vW-ThuAhA</t>
   </si>
   <si>
     <t>https://disk.yandex.ru/i/_WI5Haq2tjovYg | https://disk.yandex.ru/i/nVI3_KvCSRao_w | https://disk.yandex.ru/i/r8bJNKX2hD47VA | https://disk.yandex.ru/i/JQ7Z1_xFjqXmYw | https://disk.yandex.ru/i/PO_0nDCmo0ofhQ | https://disk.yandex.ru/i/zNj20sYMUq56Fg</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/P_skiqXfSX9G_Q | https://disk.yandex.ru/i/yVRHshtHwXhEsA | https://disk.yandex.ru/i/gteKbRW0gcsDPA | https://disk.yandex.ru/i/h-EZXPwszq_mFw | https://disk.yandex.ru/i/i-tFPGHIjqFDKQ | https://disk.yandex.ru/i/o3mN8gtl5Hyu-A | https://disk.yandex.ru/i/02ENfqx6Itl0EQ | https://disk.yandex.ru/i/oGMaD876WbhUmQ | https://disk.yandex.ru/i/5SIIB_ViC_n_Vw</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/GByEF9X6EjFxQA | https://disk.yandex.ru/i/OQ5UQ_L633k6zA | https://disk.yandex.ru/i/BrBHACRAQ5Av7w | https://disk.yandex.ru/i/d__zj3ccvxzbag | https://disk.yandex.ru/i/gCvCMH5H4bhoQw | https://disk.yandex.ru/i/QmpPSktWRdkPGQ | https://disk.yandex.ru/i/tAn3q8UKUBF6jQ | https://disk.yandex.ru/i/XSUkyFS4pXoM4A | https://disk.yandex.ru/i/YuZLU3HLTGQ3eg | https://disk.yandex.ru/i/Z4-8d6HY8CjVEw</t>
   </si>
   <si>
     <t>https://disk.yandex.ru/i/tUeN4X8O8C7MyA | https://disk.yandex.ru/i/HkmXA7SX5cJ2WQ | https://disk.yandex.ru/i/w05zi5_7sxA0wA | https://disk.yandex.ru/i/yR2ezuN1RFfIrQ | https://disk.yandex.ru/i/QGnZrUVeQbogVw | https://disk.yandex.ru/i/tEjiBZ1_1UWMrQ | https://disk.yandex.ru/i/zscFVsGhl71wig | https://disk.yandex.ru/i/YC8mo2kUI2Evig | https://disk.yandex.ru/i/hXJwZuOXFqDCCA | https://disk.yandex.ru/i/_fS0O48zcfmCoQ</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/jhxLp6q4-X6CLg | https://disk.yandex.ru/i/vbon1er4-YWj6A | https://disk.yandex.ru/i/p_0BA4JuuAtqJQ | https://disk.yandex.ru/i/eu_HR4PLbGOuTQ | https://disk.yandex.ru/i/18ypgQaQsP7DIw | https://disk.yandex.ru/i/KEeV1VzcW5bxhQ | https://disk.yandex.ru/i/jg_MXSVd_AYOTg | https://disk.yandex.ru/i/G42EnDacaL-_Ug</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/Jk9Pmi3YibEXMA | https://disk.yandex.ru/i/LdOe9M566G7ZJQ | https://disk.yandex.ru/i/vqVznBPIIjidjQ | https://disk.yandex.ru/i/5Vt7aJveU7z2Yw | https://disk.yandex.ru/i/mgECRp-CJBT5ng | https://disk.yandex.ru/i/t2mWPOzGkovfAQ | https://disk.yandex.ru/i/ygqmLhJzxqVxPA | https://disk.yandex.ru/i/QWTTK-NlTTr58w</t>
   </si>
   <si>
@@ -855,9 +862,6 @@
     <t>https://disk.yandex.ru/i/N8zwILGOvVHhPA | https://disk.yandex.ru/i/eB1dCJ63JiQeyA | https://disk.yandex.ru/i/9vUCFwYBlwSIxw | https://disk.yandex.ru/i/wqFIVCX8pKAZCQ | https://disk.yandex.ru/i/qdk3sV1cnYBhdA | https://disk.yandex.ru/i/mh9XpWx7PquEiw | https://disk.yandex.ru/i/6B-GYz1xMqapFg | https://disk.yandex.ru/i/hErgpYG0kNvsOQ</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/kx5Atb0523Zuww | https://disk.yandex.ru/i/9M5K6rGAEwQ9YQ | https://disk.yandex.ru/i/b9efrPD0sfj83g | https://disk.yandex.ru/i/ur6U3c8zWthtSQ | https://disk.yandex.ru/i/3X8vPfdLvevpmw | https://disk.yandex.ru/i/JW8gas_xJC-T4g | https://disk.yandex.ru/i/JYdEJVai3UZnfg</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/shfo7R7mKSKbhQ | https://disk.yandex.ru/i/LWyGm25mTx8jIg | https://disk.yandex.ru/i/WSBKnyMgtlS9Zg | https://disk.yandex.ru/i/68Ahh1UZzb8jfQ | https://disk.yandex.ru/i/HEpXP8ZkYzwXpQ | https://disk.yandex.ru/i/kkjM3SjhpgHV0Q | https://disk.yandex.ru/i/jcHByI7crv-k5Q</t>
   </si>
   <si>
@@ -894,10 +898,22 @@
     <t>https://disk.yandex.ru/i/MuSfrFDjjfWffQ | https://disk.yandex.ru/i/8dzylBNas9E1Rw | https://disk.yandex.ru/i/S_v_7uTKYHkK9g | https://disk.yandex.ru/i/bJzTcRvQdzSlkg | https://disk.yandex.ru/i/0y3D6Kwz3psDBA</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/yIQ70oPRgm-nrQ | https://disk.yandex.ru/i/KHN0jnYC84i2vQ | https://disk.yandex.ru/i/8Yu3rj_HF5Af6Q | https://disk.yandex.ru/i/BQUwJem3jAN0mw | https://disk.yandex.ru/i/URtejuhVtdiG1A | https://disk.yandex.ru/i/POGTtsHFt3udwg | https://disk.yandex.ru/i/tqsqZ-RMn368eQ</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/Uza66xYp4_55Aw | https://disk.yandex.ru/i/WIkqonRCoB53Rg | https://disk.yandex.ru/i/g1VALz9m5C7Ihw | https://disk.yandex.ru/i/3cuAucSUba3xXg | https://disk.yandex.ru/i/Ne4_fNP4h75cTg | https://disk.yandex.ru/i/yLirZL9nUb1k5Q | https://disk.yandex.ru/i/Hhw11rTSUwxQXg | https://disk.yandex.ru/i/AjE-icsY3bYKqw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/6eXEGq2gtAIg0A | https://disk.yandex.ru/i/-YivLak783RYOg | https://disk.yandex.ru/i/YxmQTm9FtOKlUQ | https://disk.yandex.ru/i/H2Vd5PvsBEr41A | https://disk.yandex.ru/i/CnnXdhxj0g5-ww | https://disk.yandex.ru/i/INO4Tb_dlvIEQg | https://disk.yandex.ru/i/MV98uMdBlszb8w | https://disk.yandex.ru/i/lc_Z3tk8PuM_2A | https://disk.yandex.ru/i/pDmeJ70ZRRpR0Q</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/-NDDMu6NowZY6w | https://disk.yandex.ru/i/bDlDGdiGp4vXMA | https://disk.yandex.ru/i/naofRvgm46ZCVg | https://disk.yandex.ru/i/95zbq-3ohjZUuA | https://disk.yandex.ru/i/hAVYFsSeMU0UVg | https://disk.yandex.ru/i/-C9zaQui9nV4AA | https://disk.yandex.ru/i/bIsBGWTGahObbA | https://disk.yandex.ru/i/wmyY9NoVpOnbqA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/TqK0FuUIq66acA | https://disk.yandex.ru/i/VILDcrwkAFLEBg | https://disk.yandex.ru/i/qZtGak6h82HfBA | https://disk.yandex.ru/i/3K68SCX-JOYsSg | https://disk.yandex.ru/i/QLhoKzECizTGHg | https://disk.yandex.ru/i/NtT5TYQ6N88MKA | https://disk.yandex.ru/i/wbvoLiE2kxK8HA | https://disk.yandex.ru/i/7OAY6ktLqT-iYw | https://disk.yandex.ru/i/TIzTjE-z0_tRew</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/mT6xCej03PZkbw | https://disk.yandex.ru/i/C1CXXG7AhN9MVw | https://disk.yandex.ru/i/-C_mHYIHf9w00A | https://disk.yandex.ru/i/lCo9Ms9sBZrlew | https://disk.yandex.ru/i/IQ-HQKRAtysveg | https://disk.yandex.ru/i/qnod5TNmvdAWbQ | https://disk.yandex.ru/i/O_qsCx2-WGv4BQ | https://disk.yandex.ru/i/ytr_7m4JII5tYA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/hn1Mq4SXwe7K7g | https://disk.yandex.ru/i/MhkZ8V0u8Ysknw | https://disk.yandex.ru/i/XrhrNqnBh_Lycw | https://disk.yandex.ru/i/drRJxcGtI8ZbaQ | https://disk.yandex.ru/i/mOokmtTS8dXEIQ | https://disk.yandex.ru/i/NpsbCxEgQJAhyA</t>
   </si>
   <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
@@ -931,27 +947,30 @@
     <t>Белый</t>
   </si>
   <si>
+    <t>Разноцветный</t>
+  </si>
+  <si>
+    <t>Оранжевый</t>
+  </si>
+  <si>
+    <t>Коричневый</t>
+  </si>
+  <si>
+    <t>Синий</t>
+  </si>
+  <si>
+    <t>Серый</t>
+  </si>
+  <si>
     <t>Бордовый</t>
   </si>
   <si>
-    <t>Разноцветный</t>
-  </si>
-  <si>
-    <t>Оранжевый</t>
-  </si>
-  <si>
-    <t>Коричневый</t>
-  </si>
-  <si>
-    <t>Синий</t>
-  </si>
-  <si>
-    <t>Серый</t>
-  </si>
-  <si>
     <t>Другой</t>
   </si>
   <si>
+    <t>Фиолетовый</t>
+  </si>
+  <si>
     <t>Кресла и стулья</t>
   </si>
   <si>
@@ -964,9 +983,6 @@
     <t>Подлокотники | Поясничный упор | Механизм качания | Регулировка высоты</t>
   </si>
   <si>
-    <t>Подлокотники |Механизм качания | Регулировка высоты</t>
-  </si>
-  <si>
     <t>Подлокотники |Механизм качания | Регулировка высоты | Регулировка наклона спинки</t>
   </si>
   <si>
@@ -976,9 +992,6 @@
     <t>Подлокотники |Подголовник | Механизм качания | Регулировка высоты |Регулировка подлокотников | Регулировка глубины сиденья</t>
   </si>
   <si>
-    <t>Подлокотники |Механизм качания | Регулировка высоты |Регулировка подлокотников</t>
-  </si>
-  <si>
     <t>Подлокотники | Подголовник | Механизм качания | Регулировка высоты | Регулировка подлокотников</t>
   </si>
   <si>
@@ -1003,7 +1016,13 @@
     <t>Подлокотники | Механизм качания | Регулировка наклона спинки | Регулировка высоты | Регулировка подлокотников | Регулировка глубины сиденья</t>
   </si>
   <si>
-    <t>Подлокотники | Подголовник | Механизм качания | Регулировка наклона спинки | Регулировка подлокотников | Регулировка глубины сиденья | Поясничный упор</t>
+    <t>Подлокотники | Регулировка наклона спинки | Регулировка высоты | Регулировка подлокотников</t>
+  </si>
+  <si>
+    <t>Подлокотники | Механизм качания | Регулировка наклона спинки | Регулировка высоты | Регулировка подлокотников | Поясничный упор</t>
+  </si>
+  <si>
+    <t>Подлокотники | Подголовник | Механизм качания | Регулировка высоты | Поясничный упор</t>
   </si>
   <si>
     <t>Сетка</t>
@@ -1024,14 +1043,14 @@
     <t>Компьютерное</t>
   </si>
   <si>
-    <t>Искусственная кожа | Ткань | Кожа | Замша | Сетка | Дерево</t>
+    <t>Искусственная кожа</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1102,61 +1121,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="2332.jpeg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9144000" y="5524500"/>
-          <a:ext cx="1625600" cy="1257300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1194,7 +1178,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1228,6 +1212,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1262,9 +1247,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1437,14 +1423,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A30" sqref="A29:XFD30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1590,7 +1578,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -1682,16 +1670,16 @@
         <v>49</v>
       </c>
       <c r="AE2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF2" t="s">
         <v>48</v>
       </c>
       <c r="AG2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AH2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AI2" t="s">
         <v>48</v>
@@ -1736,45 +1724,45 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="L3" t="s">
         <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N3">
         <v>2999</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AD3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AH3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AN3">
         <v>45</v>
@@ -1786,16 +1774,16 @@
         <v>40</v>
       </c>
       <c r="AQ3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AR3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AS3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AT3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AU3">
         <v>30</v>
@@ -1804,45 +1792,45 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="L4" t="s">
         <v>51</v>
       </c>
       <c r="M4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N4">
         <v>10500</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AD4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AH4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AN4">
         <v>55</v>
@@ -1854,16 +1842,16 @@
         <v>50</v>
       </c>
       <c r="AQ4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AR4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AS4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AT4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AU4">
         <v>35</v>
@@ -1872,66 +1860,66 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="L5" t="s">
         <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N5">
-        <v>5999</v>
+        <v>3100</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AD5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AH5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AN5">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO5">
         <v>50</v>
       </c>
       <c r="AP5">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AQ5" t="s">
         <v>140</v>
       </c>
       <c r="AR5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AS5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AT5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AU5">
         <v>30</v>
@@ -1940,403 +1928,403 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="L6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N6">
-        <v>3100</v>
+        <v>3999</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AD6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE6" t="s">
         <v>130</v>
       </c>
       <c r="AG6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AH6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AN6">
+        <v>50</v>
+      </c>
+      <c r="AO6">
+        <v>53</v>
+      </c>
+      <c r="AP6">
         <v>48</v>
       </c>
-      <c r="AO6">
-        <v>50</v>
-      </c>
-      <c r="AP6">
-        <v>45</v>
-      </c>
       <c r="AQ6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AR6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AS6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AT6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AU6">
         <v>30</v>
       </c>
       <c r="AV6">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="L7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N7">
-        <v>3999</v>
+        <v>9999</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AD7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AG7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AH7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AN7">
         <v>50</v>
       </c>
       <c r="AO7">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AP7">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AQ7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AR7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AS7" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT7" t="s">
         <v>159</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>156</v>
       </c>
       <c r="AU7">
         <v>30</v>
       </c>
       <c r="AV7">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="L8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N8">
-        <v>2999</v>
+        <v>7999</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AD8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AH8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AN8">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AO8">
+        <v>53</v>
+      </c>
+      <c r="AP8">
         <v>50</v>
       </c>
-      <c r="AP8">
-        <v>45</v>
-      </c>
       <c r="AQ8" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AR8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AS8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT8" t="s">
         <v>159</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>154</v>
       </c>
       <c r="AU8">
         <v>30</v>
       </c>
       <c r="AV8">
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="L9" t="s">
         <v>53</v>
       </c>
       <c r="M9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N9">
-        <v>9999</v>
+        <v>6999</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AD9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE9" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AG9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AH9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AN9">
         <v>50</v>
       </c>
       <c r="AO9">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AP9">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AQ9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AR9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AS9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AT9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AU9">
         <v>30</v>
       </c>
       <c r="AV9">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="L10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N10">
-        <v>7999</v>
+        <v>9999</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AD10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE10" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AG10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AH10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AN10">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AO10">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AP10">
         <v>50</v>
       </c>
       <c r="AQ10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AR10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AS10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AT10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AU10">
         <v>30</v>
       </c>
       <c r="AV10">
-        <v>180</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="L11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N11">
-        <v>7999</v>
+        <v>9999</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AD11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AH11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AN11">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AO11">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AP11">
         <v>50</v>
       </c>
       <c r="AQ11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AR11" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AS11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AT11" t="s">
         <v>156</v>
@@ -2348,184 +2336,184 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="L12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N12">
-        <v>6999</v>
+        <v>1499</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AD12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AG12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AH12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AN12">
+        <v>45</v>
+      </c>
+      <c r="AO12">
+        <v>43</v>
+      </c>
+      <c r="AP12">
         <v>50</v>
       </c>
-      <c r="AO12">
-        <v>48</v>
-      </c>
-      <c r="AP12">
-        <v>53</v>
-      </c>
       <c r="AQ12" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AR12" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AS12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AT12" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AU12">
         <v>30</v>
       </c>
       <c r="AV12">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="L13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N13">
-        <v>9999</v>
+        <v>3999</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AD13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE13" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AG13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AH13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AN13">
         <v>50</v>
       </c>
       <c r="AO13">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AP13">
         <v>50</v>
       </c>
       <c r="AQ13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AR13" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AS13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AT13" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AU13">
         <v>30</v>
       </c>
       <c r="AV13">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="L14" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N14">
-        <v>9999</v>
+        <v>3999</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AD14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG14" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AH14" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AN14">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AO14">
         <v>45</v>
@@ -2534,81 +2522,81 @@
         <v>50</v>
       </c>
       <c r="AQ14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AR14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AS14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AT14" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AU14">
         <v>30</v>
       </c>
       <c r="AV14">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="L15" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N15">
-        <v>3499</v>
+        <v>9999</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AD15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE15" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AG15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AH15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AN15">
+        <v>50</v>
+      </c>
+      <c r="AO15">
         <v>45</v>
-      </c>
-      <c r="AO15">
-        <v>43</v>
       </c>
       <c r="AP15">
         <v>50</v>
       </c>
       <c r="AQ15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AR15" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AS15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AT15" t="s">
         <v>156</v>
@@ -2617,51 +2605,51 @@
         <v>30</v>
       </c>
       <c r="AV15">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="L16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N16">
-        <v>1499</v>
+        <v>25000</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AD16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE16" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="AG16" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AH16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AN16">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AO16">
         <v>43</v>
@@ -2670,69 +2658,69 @@
         <v>50</v>
       </c>
       <c r="AQ16" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="AR16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AS16" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AT16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AU16">
         <v>30</v>
       </c>
       <c r="AV16">
-        <v>75</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="17" spans="12:48">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="L17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N17">
-        <v>3999</v>
+        <v>5999</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AD17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG17" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AH17" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AN17">
         <v>50</v>
       </c>
       <c r="AO17">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AP17">
         <v>50</v>
@@ -2741,10 +2729,10 @@
         <v>147</v>
       </c>
       <c r="AR17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AS17" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AT17" t="s">
         <v>158</v>
@@ -2756,116 +2744,116 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="12:48">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="L18" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N18">
-        <v>3999</v>
+        <v>7999</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AD18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE18" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="AG18" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AH18" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AN18">
+        <v>50</v>
+      </c>
+      <c r="AO18">
         <v>48</v>
-      </c>
-      <c r="AO18">
-        <v>45</v>
       </c>
       <c r="AP18">
         <v>50</v>
       </c>
       <c r="AQ18" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AR18" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AS18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AT18" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AU18">
         <v>30</v>
       </c>
       <c r="AV18">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="19" spans="12:48">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="L19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N19">
-        <v>9999</v>
+        <v>3499</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AD19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE19" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AG19" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AH19" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AN19">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO19">
         <v>45</v>
@@ -2874,199 +2862,199 @@
         <v>50</v>
       </c>
       <c r="AQ19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AR19" t="s">
         <v>158</v>
       </c>
       <c r="AS19" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AT19" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AU19">
         <v>30</v>
       </c>
       <c r="AV19">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
+        <v>60</v>
+      </c>
+      <c r="M20" t="s">
+        <v>82</v>
+      </c>
+      <c r="N20">
+        <v>7999</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q20" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="20" spans="12:48">
-      <c r="L20" t="s">
-        <v>58</v>
-      </c>
-      <c r="M20" t="s">
-        <v>81</v>
-      </c>
-      <c r="N20">
-        <v>25000</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="S20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AD20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AG20" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AH20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AN20">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO20">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AP20">
         <v>50</v>
       </c>
       <c r="AQ20" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AR20" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AS20" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AT20" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AU20">
         <v>30</v>
       </c>
       <c r="AV20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
+        <v>52</v>
+      </c>
+      <c r="M21" t="s">
+        <v>83</v>
+      </c>
+      <c r="N21">
+        <v>14999</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q21" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="21" spans="12:48">
-      <c r="L21" t="s">
-        <v>51</v>
-      </c>
-      <c r="M21" t="s">
-        <v>82</v>
-      </c>
-      <c r="N21">
-        <v>5999</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="S21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AD21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG21" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AH21" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AN21">
         <v>50</v>
       </c>
       <c r="AO21">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AP21">
         <v>50</v>
       </c>
       <c r="AQ21" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AR21" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AS21" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AT21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AU21">
         <v>30</v>
       </c>
       <c r="AV21">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="L22" t="s">
+        <v>55</v>
+      </c>
+      <c r="M22" t="s">
+        <v>84</v>
+      </c>
+      <c r="N22">
+        <v>5499</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q22" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="22" spans="12:48">
-      <c r="L22" t="s">
-        <v>53</v>
-      </c>
-      <c r="M22" t="s">
-        <v>83</v>
-      </c>
-      <c r="N22">
-        <v>7999</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="S22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AD22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE22" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="AG22" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AH22" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AN22">
         <v>50</v>
@@ -3078,16 +3066,16 @@
         <v>50</v>
       </c>
       <c r="AQ22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AR22" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AS22" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AT22" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AU22">
         <v>30</v>
@@ -3096,48 +3084,48 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="12:48">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
       <c r="L23" t="s">
         <v>61</v>
       </c>
       <c r="M23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N23">
-        <v>3499</v>
+        <v>9999</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AD23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG23" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AH23" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AN23">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AO23">
         <v>45</v>
@@ -3146,13 +3134,13 @@
         <v>50</v>
       </c>
       <c r="AQ23" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AR23" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AS23" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AT23" t="s">
         <v>156</v>
@@ -3161,48 +3149,48 @@
         <v>30</v>
       </c>
       <c r="AV23">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="24" spans="12:48">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="L24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N24">
-        <v>7999</v>
+        <v>2300</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AD24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE24" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="AG24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AH24" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AN24">
         <v>48</v>
@@ -3214,467 +3202,401 @@
         <v>50</v>
       </c>
       <c r="AQ24" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="AR24" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AS24" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AT24" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AU24">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AV24">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="25" spans="12:48">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>10522</v>
+      </c>
       <c r="L25" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="M25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N25">
-        <v>14999</v>
+        <v>5999</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S25" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>153</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>10522</v>
+      </c>
+      <c r="L26" t="s">
+        <v>52</v>
+      </c>
+      <c r="M26" t="s">
+        <v>88</v>
+      </c>
+      <c r="N26">
+        <v>5999</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q26" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="S26" t="s">
         <v>121</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AA26" t="s">
         <v>122</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AB26" t="s">
         <v>124</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AC26" t="s">
         <v>125</v>
       </c>
-      <c r="AE25" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH25" t="s">
+      <c r="AD26" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE26" t="s">
         <v>137</v>
       </c>
-      <c r="AN25">
+      <c r="AG26" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>10532</v>
+      </c>
+      <c r="L27" t="s">
         <v>50</v>
       </c>
-      <c r="AO25">
-        <v>48</v>
-      </c>
-      <c r="AP25">
-        <v>50</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>152</v>
-      </c>
-      <c r="AR25" t="s">
-        <v>155</v>
-      </c>
-      <c r="AS25" t="s">
-        <v>159</v>
-      </c>
-      <c r="AT25" t="s">
-        <v>155</v>
-      </c>
-      <c r="AU25">
-        <v>30</v>
-      </c>
-      <c r="AV25">
-        <v>180</v>
+      <c r="M27" t="s">
+        <v>89</v>
+      </c>
+      <c r="N27">
+        <v>7999</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="S27" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>156</v>
       </c>
     </row>
-    <row r="26" spans="12:48">
-      <c r="L26" t="s">
-        <v>58</v>
-      </c>
-      <c r="M26" t="s">
-        <v>87</v>
-      </c>
-      <c r="N26">
-        <v>5499</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="S26" t="s">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>10316</v>
+      </c>
+      <c r="L28" t="s">
+        <v>63</v>
+      </c>
+      <c r="M28" t="s">
+        <v>90</v>
+      </c>
+      <c r="N28">
+        <v>3499</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q28" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="S28" t="s">
         <v>121</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AA28" t="s">
         <v>122</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AB28" t="s">
         <v>124</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AC28" t="s">
         <v>125</v>
       </c>
-      <c r="AE26" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>137</v>
-      </c>
-      <c r="AN26">
-        <v>50</v>
-      </c>
-      <c r="AO26">
-        <v>48</v>
-      </c>
-      <c r="AP26">
-        <v>50</v>
-      </c>
-      <c r="AQ26" t="s">
-        <v>147</v>
-      </c>
-      <c r="AR26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS26" t="s">
-        <v>159</v>
-      </c>
-      <c r="AT26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AU26">
-        <v>30</v>
-      </c>
-      <c r="AV26">
+      <c r="AD28" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>153</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>10301</v>
+      </c>
+      <c r="L29" t="s">
+        <v>64</v>
+      </c>
+      <c r="M29" t="s">
+        <v>91</v>
+      </c>
+      <c r="N29">
+        <v>3499</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q29" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="27" spans="12:48">
-      <c r="L27" t="s">
-        <v>55</v>
-      </c>
-      <c r="M27" t="s">
-        <v>88</v>
-      </c>
-      <c r="N27">
-        <v>9999</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="S27" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA27" t="s">
+      <c r="S29" t="s">
         <v>121</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AA29" t="s">
         <v>122</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="AB29" t="s">
         <v>124</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AC29" t="s">
         <v>125</v>
       </c>
-      <c r="AE27" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>137</v>
-      </c>
-      <c r="AN27">
-        <v>50</v>
-      </c>
-      <c r="AO27">
-        <v>45</v>
-      </c>
-      <c r="AP27">
-        <v>50</v>
-      </c>
-      <c r="AQ27" t="s">
-        <v>150</v>
-      </c>
-      <c r="AR27" t="s">
-        <v>158</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>159</v>
-      </c>
-      <c r="AT27" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU27">
-        <v>30</v>
-      </c>
-      <c r="AV27">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="12:48">
-      <c r="L28" t="s">
-        <v>53</v>
-      </c>
-      <c r="M28" t="s">
-        <v>89</v>
-      </c>
-      <c r="N28">
-        <v>9999</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="S28" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>134</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>137</v>
-      </c>
-      <c r="AN28">
-        <v>50</v>
-      </c>
-      <c r="AO28">
-        <v>43</v>
-      </c>
-      <c r="AP28">
-        <v>50</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>150</v>
-      </c>
-      <c r="AR28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS28" t="s">
-        <v>159</v>
-      </c>
-      <c r="AT28" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU28">
-        <v>30</v>
-      </c>
-      <c r="AV28">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="12:48">
-      <c r="L29" t="s">
-        <v>55</v>
-      </c>
-      <c r="M29" t="s">
-        <v>90</v>
-      </c>
-      <c r="N29">
-        <v>2300</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="S29" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>124</v>
-      </c>
       <c r="AD29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE29" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="AG29" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AH29" t="s">
-        <v>137</v>
-      </c>
-      <c r="AN29">
-        <v>48</v>
-      </c>
-      <c r="AO29">
-        <v>45</v>
-      </c>
-      <c r="AP29">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="AQ29" t="s">
-        <v>138</v>
-      </c>
-      <c r="AR29" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AS29" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AT29" t="s">
         <v>156</v>
       </c>
-      <c r="AU29">
-        <v>31</v>
-      </c>
-      <c r="AV29">
-        <v>70</v>
-      </c>
     </row>
-    <row r="30" spans="12:48">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>10031</v>
+      </c>
       <c r="L30" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N30">
-        <v>2999</v>
+        <v>7000</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB30" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AC30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AD30" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>128</v>
       </c>
       <c r="AG30" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AH30" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AQ30" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AS30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AT30" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O3" r:id="rId1"/>
-    <hyperlink ref="Q3" r:id="rId2"/>
-    <hyperlink ref="O4" r:id="rId3"/>
-    <hyperlink ref="Q4" r:id="rId4"/>
-    <hyperlink ref="O5" r:id="rId5"/>
-    <hyperlink ref="Q5" r:id="rId6"/>
-    <hyperlink ref="O6" r:id="rId7"/>
-    <hyperlink ref="Q6" r:id="rId8"/>
-    <hyperlink ref="O7" r:id="rId9"/>
-    <hyperlink ref="Q7" r:id="rId10"/>
-    <hyperlink ref="O8" r:id="rId11"/>
-    <hyperlink ref="Q8" r:id="rId12"/>
-    <hyperlink ref="O9" r:id="rId13"/>
-    <hyperlink ref="Q9" r:id="rId14"/>
-    <hyperlink ref="O10" r:id="rId15"/>
-    <hyperlink ref="Q10" r:id="rId16"/>
-    <hyperlink ref="O11" r:id="rId17"/>
-    <hyperlink ref="Q11" r:id="rId18"/>
-    <hyperlink ref="O12" r:id="rId19"/>
-    <hyperlink ref="Q12" r:id="rId20"/>
-    <hyperlink ref="O13" r:id="rId21"/>
-    <hyperlink ref="Q13" r:id="rId22"/>
-    <hyperlink ref="O14" r:id="rId23"/>
-    <hyperlink ref="Q14" r:id="rId24"/>
-    <hyperlink ref="O15" r:id="rId25"/>
-    <hyperlink ref="Q15" r:id="rId26"/>
-    <hyperlink ref="O16" r:id="rId27"/>
-    <hyperlink ref="Q16" r:id="rId28"/>
-    <hyperlink ref="O17" r:id="rId29"/>
-    <hyperlink ref="Q17" r:id="rId30"/>
-    <hyperlink ref="O18" r:id="rId31"/>
-    <hyperlink ref="Q18" r:id="rId32"/>
-    <hyperlink ref="O19" r:id="rId33"/>
-    <hyperlink ref="Q19" r:id="rId34"/>
-    <hyperlink ref="O20" r:id="rId35"/>
-    <hyperlink ref="Q20" r:id="rId36"/>
-    <hyperlink ref="O21" r:id="rId37"/>
-    <hyperlink ref="Q21" r:id="rId38"/>
-    <hyperlink ref="O22" r:id="rId39"/>
-    <hyperlink ref="Q22" r:id="rId40"/>
-    <hyperlink ref="O23" r:id="rId41"/>
-    <hyperlink ref="Q23" r:id="rId42"/>
-    <hyperlink ref="O24" r:id="rId43"/>
-    <hyperlink ref="Q24" r:id="rId44"/>
-    <hyperlink ref="O25" r:id="rId45"/>
-    <hyperlink ref="Q25" r:id="rId46"/>
-    <hyperlink ref="O26" r:id="rId47"/>
-    <hyperlink ref="Q26" r:id="rId48"/>
-    <hyperlink ref="O27" r:id="rId49"/>
-    <hyperlink ref="Q27" r:id="rId50"/>
-    <hyperlink ref="O28" r:id="rId51"/>
-    <hyperlink ref="Q28" r:id="rId52"/>
-    <hyperlink ref="O29" r:id="rId53"/>
-    <hyperlink ref="Q29" r:id="rId54"/>
-    <hyperlink ref="Q30" r:id="rId55"/>
+    <hyperlink ref="O3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="Q3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="O4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="Q4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="O5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="Q5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="O6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Q6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="O7" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="Q7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="O8" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="Q8" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="O9" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="Q9" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="O10" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="Q10" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="O11" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="Q11" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="O12" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="Q12" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="O13" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="Q13" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="O14" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="Q14" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="O15" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="Q15" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="O16" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="Q16" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="O17" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="Q17" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="O18" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="Q18" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="O19" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="Q19" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="O20" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="Q20" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="O21" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="Q21" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="O22" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="Q22" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="O23" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="Q23" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="O24" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="Q24" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="O25" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="Q25" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="O26" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="Q26" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="O27" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="Q27" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="O28" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="Q28" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="O29" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="Q29" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="O30" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="Q30" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId56"/>
 </worksheet>
 </file>
--- a/make_xl/data_xl/comp armchair.xlsx
+++ b/make_xl/data_xl/comp armchair.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C8005D-FDE3-4D2E-8576-974C76A00711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B7BBE9-FB5A-4E15-A98F-23FC3D13F59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="165">
   <si>
     <t>Id</t>
   </si>
@@ -835,6 +835,33 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t>Кресло офисное компьютерное
+Helmut LB от компании ДЭФО - аналог ЛЮКСИ
+Артикул 10532
+Кресло для руководителя Helmut LB — это стильное решение в актуальном стиле хай-тек. Изящная конструкция из инновационных материалов придает модели утонченный вид и создает ощущение легкости в пространстве. Хромированные детали прекрасно гармонируют с обивкой из дышащей сетки, которая обеспечивает комфорт и вентиляцию даже при долгом сидении, подчеркивая современный минимализм кресла.
+Кресло Helmut LB объединяет современный дизайн, практичность и привлекательную цену, делая его отличным выбором для комфортной и продуктивной работы. 
+Механизмы:
+механизм качания с фиксатором в верхнем положении;
+Нагрузка до, кг 120
+Состояние новых кресел
+Цена 7 999
+Цвет Серый
+Количество 89 (уточняйте)
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            ➕ Наш телеграмм канал – office comfort es
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/P7ExkFddqrrs6w | https://disk.yandex.ru/i/qZN1u2V5jAbM3A | https://disk.yandex.ru/i/y3WULywFcXZISA | https://disk.yandex.ru/i/LfQsmS4Rx7v80A | https://disk.yandex.ru/i/4jh9S-zR9kitXw</t>
   </si>
   <si>
@@ -914,6 +941,9 @@
   </si>
   <si>
     <t>https://disk.yandex.ru/i/hn1Mq4SXwe7K7g | https://disk.yandex.ru/i/MhkZ8V0u8Ysknw | https://disk.yandex.ru/i/XrhrNqnBh_Lycw | https://disk.yandex.ru/i/drRJxcGtI8ZbaQ | https://disk.yandex.ru/i/mOokmtTS8dXEIQ | https://disk.yandex.ru/i/NpsbCxEgQJAhyA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/UiSbbITJzTBOqw | https://disk.yandex.ru/i/BSwbfy6jE64Kpw | https://disk.yandex.ru/i/ut-HyMgP6ytXEA | https://disk.yandex.ru/i/P3f-5y7REJLEdg | https://disk.yandex.ru/i/E9s-9RthI59j8A | https://disk.yandex.ru/i/dKX_to5o7-PsSw | https://disk.yandex.ru/i/Rv74BQHjuHKSMg | https://disk.yandex.ru/i/JQfnVykq74XMLw | https://disk.yandex.ru/i/AFuhZxtmexdrmQ</t>
   </si>
   <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
@@ -1424,10 +1454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV30"/>
+  <dimension ref="A1:AV31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A30" sqref="A29:XFD30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="AV28" sqref="AV27:AV28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1670,16 +1700,16 @@
         <v>49</v>
       </c>
       <c r="AE2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AF2" t="s">
         <v>48</v>
       </c>
       <c r="AG2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AH2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AI2" t="s">
         <v>48</v>
@@ -1735,34 +1765,34 @@
         <v>2999</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AA3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AB3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AC3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AD3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AE3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AG3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AH3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AN3">
         <v>45</v>
@@ -1774,16 +1804,16 @@
         <v>40</v>
       </c>
       <c r="AQ3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AR3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AS3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AT3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AU3">
         <v>30</v>
@@ -1803,34 +1833,34 @@
         <v>10500</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AA4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AB4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AC4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AD4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AE4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AG4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AH4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AN4">
         <v>55</v>
@@ -1842,16 +1872,16 @@
         <v>50</v>
       </c>
       <c r="AQ4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AR4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AS4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AT4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AU4">
         <v>35</v>
@@ -1871,34 +1901,34 @@
         <v>3100</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AA5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AB5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AC5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AD5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AE5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AG5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AH5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AN5">
         <v>48</v>
@@ -1910,16 +1940,16 @@
         <v>45</v>
       </c>
       <c r="AQ5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AR5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AS5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AT5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AU5">
         <v>30</v>
@@ -1939,34 +1969,34 @@
         <v>3999</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AA6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AB6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AC6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AD6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AE6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AG6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AH6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AN6">
         <v>50</v>
@@ -1978,16 +2008,16 @@
         <v>48</v>
       </c>
       <c r="AQ6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AR6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AS6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AT6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AU6">
         <v>30</v>
@@ -2007,34 +2037,34 @@
         <v>9999</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AA7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AB7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AC7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AD7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AE7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AG7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AH7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AN7">
         <v>50</v>
@@ -2046,16 +2076,16 @@
         <v>50</v>
       </c>
       <c r="AQ7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AR7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AS7" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT7" t="s">
         <v>161</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>159</v>
       </c>
       <c r="AU7">
         <v>30</v>
@@ -2075,34 +2105,34 @@
         <v>7999</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AA8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AB8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AC8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AD8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AE8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AH8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AN8">
         <v>55</v>
@@ -2114,16 +2144,16 @@
         <v>50</v>
       </c>
       <c r="AQ8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AR8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AS8" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT8" t="s">
         <v>161</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>159</v>
       </c>
       <c r="AU8">
         <v>30</v>
@@ -2143,34 +2173,34 @@
         <v>6999</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AA9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AB9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AC9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AD9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AE9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AG9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AH9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AN9">
         <v>50</v>
@@ -2182,16 +2212,16 @@
         <v>53</v>
       </c>
       <c r="AQ9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AR9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AS9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AT9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AU9">
         <v>30</v>
@@ -2211,34 +2241,34 @@
         <v>9999</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AA10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AB10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AC10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AD10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AE10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AG10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AH10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AN10">
         <v>50</v>
@@ -2250,16 +2280,16 @@
         <v>50</v>
       </c>
       <c r="AQ10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AR10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AS10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AT10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AU10">
         <v>30</v>
@@ -2279,34 +2309,34 @@
         <v>9999</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AA11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AB11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AC11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AD11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AE11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AG11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AH11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AN11">
         <v>45</v>
@@ -2318,16 +2348,16 @@
         <v>50</v>
       </c>
       <c r="AQ11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AR11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AS11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AT11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AU11">
         <v>30</v>
@@ -2347,34 +2377,34 @@
         <v>1499</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AA12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AB12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AC12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AD12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AE12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AG12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AH12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AN12">
         <v>45</v>
@@ -2386,16 +2416,16 @@
         <v>50</v>
       </c>
       <c r="AQ12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AR12" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AS12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AT12" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AU12">
         <v>30</v>
@@ -2415,34 +2445,34 @@
         <v>3999</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AA13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AB13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AC13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AD13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AE13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AG13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AH13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AN13">
         <v>50</v>
@@ -2454,16 +2484,16 @@
         <v>50</v>
       </c>
       <c r="AQ13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AR13" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AS13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AT13" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AU13">
         <v>30</v>
@@ -2483,34 +2513,34 @@
         <v>3999</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AA14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AB14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AC14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AD14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AE14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AG14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AH14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AN14">
         <v>48</v>
@@ -2522,16 +2552,16 @@
         <v>50</v>
       </c>
       <c r="AQ14" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AR14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AS14" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AT14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AU14">
         <v>30</v>
@@ -2551,34 +2581,34 @@
         <v>9999</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AA15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AB15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AC15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AD15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AE15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AG15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AH15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AN15">
         <v>50</v>
@@ -2590,16 +2620,16 @@
         <v>50</v>
       </c>
       <c r="AQ15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AR15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AS15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AT15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AU15">
         <v>30</v>
@@ -2619,34 +2649,34 @@
         <v>25000</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AA16" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AB16" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AC16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AD16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AE16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AG16" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AH16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AN16">
         <v>50</v>
@@ -2658,16 +2688,16 @@
         <v>50</v>
       </c>
       <c r="AQ16" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AR16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AS16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AT16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AU16">
         <v>30</v>
@@ -2687,34 +2717,34 @@
         <v>5999</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AA17" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AB17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AC17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AD17" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AE17" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AG17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AH17" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AN17">
         <v>50</v>
@@ -2726,16 +2756,16 @@
         <v>50</v>
       </c>
       <c r="AQ17" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AR17" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AS17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AT17" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AU17">
         <v>30</v>
@@ -2755,34 +2785,34 @@
         <v>7999</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AA18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AB18" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AC18" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AD18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AE18" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AG18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AH18" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AN18">
         <v>50</v>
@@ -2794,16 +2824,16 @@
         <v>50</v>
       </c>
       <c r="AQ18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AR18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AS18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AT18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AU18">
         <v>30</v>
@@ -2823,34 +2853,34 @@
         <v>3499</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S19" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AA19" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AB19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AC19" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AD19" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AE19" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AG19" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AH19" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AN19">
         <v>48</v>
@@ -2862,16 +2892,16 @@
         <v>50</v>
       </c>
       <c r="AQ19" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AR19" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AS19" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AT19" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AU19">
         <v>30</v>
@@ -2891,34 +2921,34 @@
         <v>7999</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AA20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AB20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AC20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AD20" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AE20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AG20" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AH20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AN20">
         <v>48</v>
@@ -2930,16 +2960,16 @@
         <v>50</v>
       </c>
       <c r="AQ20" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AR20" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AS20" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AT20" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AU20">
         <v>30</v>
@@ -2959,34 +2989,34 @@
         <v>14999</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S21" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AA21" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AB21" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AC21" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AD21" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AE21" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AG21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AH21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AN21">
         <v>50</v>
@@ -2998,16 +3028,16 @@
         <v>50</v>
       </c>
       <c r="AQ21" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AR21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AS21" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AT21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AU21">
         <v>30</v>
@@ -3027,34 +3057,34 @@
         <v>5499</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AA22" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AB22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AC22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AD22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AE22" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AG22" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AH22" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AN22">
         <v>50</v>
@@ -3066,16 +3096,16 @@
         <v>50</v>
       </c>
       <c r="AQ22" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AR22" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AS22" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AT22" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AU22">
         <v>30</v>
@@ -3095,34 +3125,34 @@
         <v>9999</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AA23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AB23" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AC23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AD23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AE23" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AG23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AH23" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AN23">
         <v>50</v>
@@ -3134,16 +3164,16 @@
         <v>50</v>
       </c>
       <c r="AQ23" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AR23" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AS23" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AT23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AU23">
         <v>30</v>
@@ -3163,34 +3193,34 @@
         <v>2300</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S24" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AA24" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AB24" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AC24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AD24" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AE24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AG24" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AH24" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AN24">
         <v>48</v>
@@ -3202,16 +3232,16 @@
         <v>50</v>
       </c>
       <c r="AQ24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AR24" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AS24" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AT24" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AU24">
         <v>31</v>
@@ -3234,43 +3264,58 @@
         <v>5999</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S25" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AA25" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AB25" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AC25" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AD25" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AE25" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AG25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AH25" t="s">
-        <v>139</v>
+        <v>141</v>
+      </c>
+      <c r="AN25">
+        <v>50</v>
+      </c>
+      <c r="AO25">
+        <v>48</v>
+      </c>
+      <c r="AP25">
+        <v>50</v>
       </c>
       <c r="AQ25" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AS25" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AT25" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="AU25">
+        <v>30</v>
+      </c>
+      <c r="AV25">
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:48" x14ac:dyDescent="0.25">
@@ -3287,43 +3332,58 @@
         <v>5999</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S26" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AA26" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AB26" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AC26" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AD26" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AE26" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AG26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AH26" t="s">
-        <v>139</v>
+        <v>141</v>
+      </c>
+      <c r="AN26">
+        <v>48</v>
+      </c>
+      <c r="AO26">
+        <v>45</v>
+      </c>
+      <c r="AP26">
+        <v>50</v>
       </c>
       <c r="AQ26" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AS26" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AT26" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="AU26">
+        <v>30</v>
+      </c>
+      <c r="AV26">
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:48" x14ac:dyDescent="0.25">
@@ -3340,43 +3400,58 @@
         <v>7999</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="S27" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN27">
+        <v>48</v>
+      </c>
+      <c r="AO27">
+        <v>45</v>
+      </c>
+      <c r="AP27">
+        <v>50</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>150</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU27">
+        <v>30</v>
+      </c>
+      <c r="AV27">
         <v>120</v>
-      </c>
-      <c r="S27" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>134</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>138</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>139</v>
-      </c>
-      <c r="AQ27" t="s">
-        <v>148</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>161</v>
-      </c>
-      <c r="AT27" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:48" x14ac:dyDescent="0.25">
@@ -3393,43 +3468,58 @@
         <v>3499</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="S28" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN28">
+        <v>50</v>
+      </c>
+      <c r="AO28">
+        <v>48</v>
+      </c>
+      <c r="AP28">
+        <v>50</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU28">
+        <v>30</v>
+      </c>
+      <c r="AV28">
         <v>120</v>
-      </c>
-      <c r="S28" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>138</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>139</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>153</v>
-      </c>
-      <c r="AS28" t="s">
-        <v>161</v>
-      </c>
-      <c r="AT28" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:48" x14ac:dyDescent="0.25">
@@ -3446,43 +3536,58 @@
         <v>3499</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="S29" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN29">
+        <v>50</v>
+      </c>
+      <c r="AO29">
+        <v>48</v>
+      </c>
+      <c r="AP29">
+        <v>50</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>150</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU29">
+        <v>30</v>
+      </c>
+      <c r="AV29">
         <v>120</v>
-      </c>
-      <c r="S29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>138</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>139</v>
-      </c>
-      <c r="AQ29" t="s">
-        <v>148</v>
-      </c>
-      <c r="AS29" t="s">
-        <v>161</v>
-      </c>
-      <c r="AT29" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:48" x14ac:dyDescent="0.25">
@@ -3499,43 +3604,126 @@
         <v>7000</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q30" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="S30" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN30">
+        <v>50</v>
+      </c>
+      <c r="AO30">
+        <v>45</v>
+      </c>
+      <c r="AP30">
+        <v>50</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU30">
+        <v>31</v>
+      </c>
+      <c r="AV30">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>10532</v>
+      </c>
+      <c r="L31" t="s">
+        <v>50</v>
+      </c>
+      <c r="M31" t="s">
+        <v>93</v>
+      </c>
+      <c r="N31">
+        <v>7999</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="S31" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN31">
+        <v>48</v>
+      </c>
+      <c r="AO31">
+        <v>45</v>
+      </c>
+      <c r="AP31">
+        <v>50</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>150</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU31">
+        <v>30</v>
+      </c>
+      <c r="AV31">
         <v>120</v>
-      </c>
-      <c r="S30" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>138</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>139</v>
-      </c>
-      <c r="AQ30" t="s">
-        <v>155</v>
-      </c>
-      <c r="AS30" t="s">
-        <v>161</v>
-      </c>
-      <c r="AT30" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3596,6 +3784,8 @@
     <hyperlink ref="Q29" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
     <hyperlink ref="O30" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
     <hyperlink ref="Q30" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="O31" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="Q31" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/comp armchair.xlsx
+++ b/make_xl/data_xl/comp armchair.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B7BBE9-FB5A-4E15-A98F-23FC3D13F59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9678104-D7BF-4F24-BA44-67F30CE26B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3195" yWindow="3480" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="159">
   <si>
     <t>Id</t>
   </si>
@@ -164,12 +164,6 @@
   </si>
   <si>
     <t>MaxWeight</t>
-  </si>
-  <si>
-    <t>Обязательный</t>
-  </si>
-  <si>
-    <t>Необязательный</t>
   </si>
   <si>
     <t>Кресло офисное компьютерное</t>
@@ -586,31 +580,6 @@
 🔥 Система больших скидок действует при опте и в праздничные дни 
 ✔ Самовывоз
 ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Кресло кожа, Германия🇩🇪 
-(арт.10000) 
-В дополнение к специальному дизайну, TENSA также обладает необычным механизмом, разработанным специально König + Neurath: механизм DTS следует естественным движениям человеческого тела, обеспечивая динамичную осанку. «Поворотная» спинка также дает поддержку, когда пользователь поворачивается или наклоняется вбок, чтобы снять напряжение со спины.                                      
-Регулировки: 
-Подлокотники и сидение - по высоте и глубине                
-Спинка - по глубине.            
-нагрузка - 180 кг. 
-производитель – Германия
-цвет – черный
-материал – натуральная "ЛАЙКОВАЯ" кожа   
-Количество: 37 штук.
-В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе. Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
@@ -916,9 +885,6 @@
     <t>https://disk.yandex.ru/i/Kar_m1oEtRVT2Q | https://disk.yandex.ru/i/evQVF4X3NU3cSg | https://disk.yandex.ru/i/V0vd0BtVpYai5Q | https://disk.yandex.ru/i/CAb7AkQamKCSzg | https://disk.yandex.ru/i/6xyDIgrM0E5YAg | https://disk.yandex.ru/i/kGoGsBrb7XXkUg | https://disk.yandex.ru/i/IcBRJ_yTr8kw6A</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/M7WaZv5CHwHwxw | https://disk.yandex.ru/i/v2SJw507J_Rfpg | https://disk.yandex.ru/i/uILaDMv3HuM-rA | https://disk.yandex.ru/i/SEu35RdROJFBIQ | https://disk.yandex.ru/i/81Stp-BXkUdg7w | https://disk.yandex.ru/i/nlxtWS2SsZ2a6g | https://disk.yandex.ru/i/sCp62UsC-3P5Lg</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/ZDiUdOWTq7XF1g | https://disk.yandex.ru/i/a_u5CWPrYhAoIA | https://disk.yandex.ru/i/2U4SaFSBylFuSg | https://disk.yandex.ru/i/5xCnmpLS2Ky7dQ | https://disk.yandex.ru/i/ugTACqRM4oAMBA</t>
   </si>
   <si>
@@ -967,10 +933,6 @@
     <t>В наличии</t>
   </si>
   <si>
-    <t>Может быть обязательным_x005F_x000D_
-Подробнее</t>
-  </si>
-  <si>
     <t>Чёрный</t>
   </si>
   <si>
@@ -1041,9 +1003,6 @@
   </si>
   <si>
     <t>Подлокотники | Механизм качания | Регулировка высоты | Регулировка глубины сиденья | Поясничный упор</t>
-  </si>
-  <si>
-    <t>Подлокотники | Механизм качания | Регулировка наклона спинки | Регулировка высоты | Регулировка подлокотников | Регулировка глубины сиденья</t>
   </si>
   <si>
     <t>Подлокотники | Регулировка наклона спинки | Регулировка высоты | Регулировка подлокотников</t>
@@ -1454,10 +1413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV31"/>
+  <dimension ref="A1:AV29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="AV28" sqref="AV27:AV28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1609,669 +1568,618 @@
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" t="s">
-        <v>49</v>
+      <c r="A2">
+        <v>10301</v>
       </c>
       <c r="L2" t="s">
         <v>48</v>
       </c>
       <c r="M2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2">
+        <v>2999</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN2">
+        <v>45</v>
+      </c>
+      <c r="AO2">
         <v>48</v>
       </c>
-      <c r="N2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T2" t="s">
-        <v>49</v>
-      </c>
-      <c r="U2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>48</v>
+      <c r="AP2">
+        <v>40</v>
       </c>
       <c r="AQ2" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="AR2" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="AS2" t="s">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="AT2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>48</v>
+        <v>152</v>
+      </c>
+      <c r="AU2">
+        <v>30</v>
+      </c>
+      <c r="AV2">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10443</v>
+      </c>
       <c r="L3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N3">
-        <v>2999</v>
+        <v>10500</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="S3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC3" t="s">
         <v>123</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AD3" t="s">
         <v>124</v>
       </c>
-      <c r="AB3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>128</v>
-      </c>
       <c r="AE3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AG3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AH3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AN3">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AO3">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AP3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AQ3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AR3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AS3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AT3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AU3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AV3">
-        <v>80</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10310</v>
+      </c>
       <c r="L4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N4">
-        <v>10500</v>
+        <v>3100</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="S4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC4" t="s">
         <v>123</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AD4" t="s">
         <v>124</v>
       </c>
-      <c r="AB4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC4" t="s">
+      <c r="AE4" t="s">
         <v>127</v>
       </c>
-      <c r="AD4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>131</v>
-      </c>
       <c r="AG4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AH4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AN4">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AO4">
         <v>50</v>
       </c>
       <c r="AP4">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AQ4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AR4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AS4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AT4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AU4">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AV4">
-        <v>150</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10317</v>
+      </c>
       <c r="L5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N5">
-        <v>3100</v>
+        <v>3999</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="S5" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC5" t="s">
         <v>123</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AD5" t="s">
         <v>124</v>
       </c>
-      <c r="AB5" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC5" t="s">
+      <c r="AE5" t="s">
         <v>127</v>
       </c>
-      <c r="AD5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>132</v>
-      </c>
       <c r="AG5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AH5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AN5">
+        <v>50</v>
+      </c>
+      <c r="AO5">
+        <v>53</v>
+      </c>
+      <c r="AP5">
         <v>48</v>
       </c>
-      <c r="AO5">
-        <v>50</v>
-      </c>
-      <c r="AP5">
-        <v>45</v>
-      </c>
       <c r="AQ5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AR5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="AS5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AT5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="AU5">
         <v>30</v>
       </c>
       <c r="AV5">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10480</v>
+      </c>
       <c r="L6" t="s">
         <v>50</v>
       </c>
       <c r="M6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N6">
-        <v>3999</v>
+        <v>9999</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="S6" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC6" t="s">
         <v>123</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AD6" t="s">
         <v>124</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AE6" t="s">
         <v>125</v>
       </c>
-      <c r="AC6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>132</v>
-      </c>
       <c r="AG6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN6">
+        <v>50</v>
+      </c>
+      <c r="AO6">
+        <v>55</v>
+      </c>
+      <c r="AP6">
+        <v>50</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>140</v>
       </c>
-      <c r="AH6" t="s">
-        <v>141</v>
-      </c>
-      <c r="AN6">
-        <v>50</v>
-      </c>
-      <c r="AO6">
-        <v>53</v>
-      </c>
-      <c r="AP6">
-        <v>48</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>144</v>
-      </c>
       <c r="AR6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AS6" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AT6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AU6">
         <v>30</v>
       </c>
       <c r="AV6">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10494</v>
+      </c>
       <c r="L7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N7">
-        <v>9999</v>
+        <v>7999</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="S7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC7" t="s">
         <v>123</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AD7" t="s">
         <v>124</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AE7" t="s">
         <v>125</v>
       </c>
-      <c r="AC7" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>130</v>
-      </c>
       <c r="AG7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AH7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN7">
+        <v>55</v>
+      </c>
+      <c r="AO7">
+        <v>53</v>
+      </c>
+      <c r="AP7">
+        <v>50</v>
+      </c>
+      <c r="AQ7" t="s">
         <v>141</v>
       </c>
-      <c r="AN7">
-        <v>50</v>
-      </c>
-      <c r="AO7">
-        <v>55</v>
-      </c>
-      <c r="AP7">
-        <v>50</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>145</v>
-      </c>
       <c r="AR7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="AS7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AT7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="AU7">
         <v>30</v>
       </c>
       <c r="AV7">
-        <v>150</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10501</v>
+      </c>
       <c r="L8" t="s">
         <v>51</v>
       </c>
       <c r="M8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N8">
-        <v>7999</v>
+        <v>6999</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC8" t="s">
         <v>123</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AD8" t="s">
         <v>124</v>
       </c>
-      <c r="AB8" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>128</v>
       </c>
-      <c r="AE8" t="s">
-        <v>130</v>
-      </c>
       <c r="AG8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AH8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AN8">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AO8">
+        <v>48</v>
+      </c>
+      <c r="AP8">
         <v>53</v>
       </c>
-      <c r="AP8">
-        <v>50</v>
-      </c>
       <c r="AQ8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="AR8" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="AS8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AT8" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="AU8">
         <v>30</v>
       </c>
       <c r="AV8">
-        <v>180</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10500</v>
+      </c>
       <c r="L9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N9">
-        <v>6999</v>
+        <v>9999</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="S9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC9" t="s">
         <v>123</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AD9" t="s">
         <v>124</v>
       </c>
-      <c r="AB9" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>128</v>
-      </c>
       <c r="AE9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AG9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AH9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AN9">
         <v>50</v>
       </c>
       <c r="AO9">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AP9">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AQ9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AR9" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="AS9" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AT9" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="AU9">
         <v>30</v>
       </c>
       <c r="AV9">
-        <v>100</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10497</v>
+      </c>
       <c r="L10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N10">
         <v>9999</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="S10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC10" t="s">
         <v>123</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AD10" t="s">
         <v>124</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AE10" t="s">
         <v>125</v>
       </c>
-      <c r="AC10" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>134</v>
-      </c>
       <c r="AG10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AH10" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AN10">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AO10">
         <v>45</v>
@@ -2280,270 +2188,282 @@
         <v>50</v>
       </c>
       <c r="AQ10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AR10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AS10" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AT10" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="AU10">
         <v>30</v>
       </c>
       <c r="AV10">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10302</v>
+      </c>
       <c r="L11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N11">
-        <v>9999</v>
+        <v>1499</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="S11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC11" t="s">
         <v>123</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AD11" t="s">
         <v>124</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AE11" t="s">
         <v>125</v>
       </c>
-      <c r="AC11" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>130</v>
-      </c>
       <c r="AG11" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AH11" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AN11">
         <v>45</v>
       </c>
       <c r="AO11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AP11">
         <v>50</v>
       </c>
       <c r="AQ11" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="AR11" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="AS11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AT11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AU11">
         <v>30</v>
       </c>
       <c r="AV11">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10368</v>
+      </c>
       <c r="L12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N12">
-        <v>1499</v>
+        <v>3999</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="S12" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC12" t="s">
         <v>123</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AD12" t="s">
         <v>124</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AE12" t="s">
         <v>125</v>
       </c>
-      <c r="AC12" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>130</v>
-      </c>
       <c r="AG12" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AH12" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AN12">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AO12">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="AP12">
         <v>50</v>
       </c>
       <c r="AQ12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AR12" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="AS12" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AT12" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="AU12">
         <v>30</v>
       </c>
       <c r="AV12">
-        <v>75</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10301</v>
+      </c>
       <c r="L13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N13">
         <v>3999</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="S13" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC13" t="s">
         <v>123</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AD13" t="s">
         <v>124</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AE13" t="s">
         <v>125</v>
       </c>
-      <c r="AC13" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>130</v>
-      </c>
       <c r="AG13" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AH13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AN13">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO13">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AP13">
         <v>50</v>
       </c>
       <c r="AQ13" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AR13" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="AS13" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AT13" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="AU13">
         <v>30</v>
       </c>
       <c r="AV13">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10464</v>
+      </c>
       <c r="L14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N14">
-        <v>3999</v>
+        <v>9999</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="S14" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC14" t="s">
         <v>123</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AD14" t="s">
         <v>124</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>128</v>
       </c>
       <c r="AE14" t="s">
         <v>130</v>
       </c>
       <c r="AG14" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AH14" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AN14">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AO14">
         <v>45</v>
@@ -2552,84 +2472,87 @@
         <v>50</v>
       </c>
       <c r="AQ14" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AR14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AS14" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AT14" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="AU14">
         <v>30</v>
       </c>
       <c r="AV14">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10438</v>
+      </c>
       <c r="L15" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N15">
-        <v>9999</v>
+        <v>25000</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="S15" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC15" t="s">
         <v>123</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AD15" t="s">
         <v>124</v>
       </c>
-      <c r="AB15" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>128</v>
-      </c>
       <c r="AE15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG15" t="s">
         <v>135</v>
       </c>
-      <c r="AG15" t="s">
-        <v>140</v>
-      </c>
       <c r="AH15" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AN15">
         <v>50</v>
       </c>
       <c r="AO15">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AP15">
         <v>50</v>
       </c>
       <c r="AQ15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AR15" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="AS15" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AT15" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="AU15">
         <v>30</v>
@@ -2639,65 +2562,68 @@
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10371</v>
+      </c>
       <c r="L16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="M16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N16">
-        <v>25000</v>
+        <v>5999</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="S16" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC16" t="s">
         <v>123</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AD16" t="s">
         <v>124</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AE16" t="s">
         <v>125</v>
       </c>
-      <c r="AC16" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE16" t="s">
+      <c r="AG16" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH16" t="s">
         <v>136</v>
       </c>
-      <c r="AG16" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>141</v>
-      </c>
       <c r="AN16">
         <v>50</v>
       </c>
       <c r="AO16">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AP16">
         <v>50</v>
       </c>
       <c r="AQ16" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="AR16" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AS16" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AT16" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AU16">
         <v>30</v>
@@ -2707,65 +2633,68 @@
       </c>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10424</v>
+      </c>
       <c r="L17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N17">
-        <v>5999</v>
+        <v>7999</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="S17" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC17" t="s">
         <v>123</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AD17" t="s">
         <v>124</v>
       </c>
-      <c r="AB17" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>128</v>
-      </c>
       <c r="AE17" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AG17" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AH17" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AN17">
         <v>50</v>
       </c>
       <c r="AO17">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AP17">
         <v>50</v>
       </c>
       <c r="AQ17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AR17" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AS17" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AT17" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="AU17">
         <v>30</v>
@@ -2775,112 +2704,118 @@
       </c>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10316</v>
+      </c>
       <c r="L18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N18">
-        <v>7999</v>
+        <v>3499</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="S18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC18" t="s">
         <v>123</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AD18" t="s">
         <v>124</v>
       </c>
-      <c r="AB18" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>128</v>
-      </c>
       <c r="AE18" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AG18" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AH18" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AN18">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO18">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AP18">
         <v>50</v>
       </c>
       <c r="AQ18" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="AR18" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AS18" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AT18" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AU18">
         <v>30</v>
       </c>
       <c r="AV18">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>10460</v>
+      </c>
       <c r="L19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N19">
-        <v>3499</v>
+        <v>7999</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="S19" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC19" t="s">
         <v>123</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AD19" t="s">
         <v>124</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AE19" t="s">
         <v>125</v>
       </c>
-      <c r="AC19" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>138</v>
-      </c>
       <c r="AG19" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AH19" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AN19">
         <v>48</v>
@@ -2892,335 +2827,347 @@
         <v>50</v>
       </c>
       <c r="AQ19" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AR19" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="AS19" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AT19" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="AU19">
         <v>30</v>
       </c>
       <c r="AV19">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
       <c r="L20" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N20">
-        <v>7999</v>
+        <v>5499</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="S20" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC20" t="s">
         <v>123</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AD20" t="s">
         <v>124</v>
       </c>
-      <c r="AB20" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>128</v>
-      </c>
       <c r="AE20" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AG20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AH20" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AN20">
+        <v>50</v>
+      </c>
+      <c r="AO20">
         <v>48</v>
       </c>
-      <c r="AO20">
-        <v>45</v>
-      </c>
       <c r="AP20">
         <v>50</v>
       </c>
       <c r="AQ20" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AR20" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AS20" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AT20" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AU20">
         <v>30</v>
       </c>
       <c r="AV20">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>10420</v>
+      </c>
       <c r="L21" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="M21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N21">
-        <v>14999</v>
+        <v>9999</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="S21" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC21" t="s">
         <v>123</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AD21" t="s">
         <v>124</v>
       </c>
-      <c r="AB21" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>128</v>
-      </c>
       <c r="AE21" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AG21" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AH21" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AN21">
         <v>50</v>
       </c>
       <c r="AO21">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AP21">
         <v>50</v>
       </c>
       <c r="AQ21" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="AR21" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AS21" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AT21" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="AU21">
         <v>30</v>
       </c>
       <c r="AV21">
-        <v>180</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10336</v>
+      </c>
       <c r="L22" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N22">
-        <v>5499</v>
+        <v>2300</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="S22" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC22" t="s">
         <v>123</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AD22" t="s">
         <v>124</v>
       </c>
-      <c r="AB22" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>128</v>
-      </c>
       <c r="AE22" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="AG22" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AH22" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AN22">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO22">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AP22">
         <v>50</v>
       </c>
       <c r="AQ22" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="AR22" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="AS22" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AT22" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="AU22">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AV22">
-        <v>120</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>10522</v>
+      </c>
       <c r="L23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N23">
-        <v>9999</v>
+        <v>5999</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S23" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB23" t="s">
         <v>122</v>
       </c>
-      <c r="S23" t="s">
+      <c r="AC23" t="s">
         <v>123</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AD23" t="s">
         <v>124</v>
       </c>
-      <c r="AB23" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>128</v>
-      </c>
       <c r="AE23" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="AG23" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AH23" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AN23">
         <v>50</v>
       </c>
       <c r="AO23">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AP23">
         <v>50</v>
       </c>
       <c r="AQ23" t="s">
-        <v>152</v>
-      </c>
-      <c r="AR23" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="AS23" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AT23" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AU23">
         <v>30</v>
       </c>
       <c r="AV23">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>10522</v>
+      </c>
       <c r="L24" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="M24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N24">
-        <v>2300</v>
+        <v>5999</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q24" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB24" t="s">
         <v>122</v>
       </c>
-      <c r="S24" t="s">
+      <c r="AC24" t="s">
         <v>123</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AD24" t="s">
         <v>124</v>
       </c>
-      <c r="AB24" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>128</v>
-      </c>
       <c r="AE24" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AG24" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AH24" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AN24">
         <v>48</v>
@@ -3232,220 +3179,217 @@
         <v>50</v>
       </c>
       <c r="AQ24" t="s">
-        <v>142</v>
-      </c>
-      <c r="AR24" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AS24" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AT24" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AU24">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AV24">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>10522</v>
+        <v>10532</v>
       </c>
       <c r="L25" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="M25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N25">
-        <v>5999</v>
+        <v>7999</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q25" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S25" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB25" t="s">
         <v>122</v>
       </c>
-      <c r="S25" t="s">
+      <c r="AC25" t="s">
         <v>123</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AD25" t="s">
         <v>124</v>
       </c>
-      <c r="AB25" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>128</v>
-      </c>
       <c r="AE25" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AG25" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AH25" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AN25">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO25">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AP25">
         <v>50</v>
       </c>
       <c r="AQ25" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="AS25" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AT25" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="AU25">
         <v>30</v>
       </c>
       <c r="AV25">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>10522</v>
+        <v>10316</v>
       </c>
       <c r="L26" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="M26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N26">
-        <v>5999</v>
+        <v>3499</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S26" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB26" t="s">
         <v>122</v>
       </c>
-      <c r="S26" t="s">
+      <c r="AC26" t="s">
         <v>123</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AD26" t="s">
         <v>124</v>
       </c>
-      <c r="AB26" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>128</v>
-      </c>
       <c r="AE26" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="AG26" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AH26" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AN26">
+        <v>50</v>
+      </c>
+      <c r="AO26">
         <v>48</v>
       </c>
-      <c r="AO26">
-        <v>45</v>
-      </c>
       <c r="AP26">
         <v>50</v>
       </c>
       <c r="AQ26" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="AS26" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AT26" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AU26">
         <v>30</v>
       </c>
       <c r="AV26">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>10532</v>
+        <v>10301</v>
       </c>
       <c r="L27" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="M27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N27">
-        <v>7999</v>
+        <v>3499</v>
       </c>
       <c r="O27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q27" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="Q27" s="2" t="s">
+      <c r="S27" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB27" t="s">
         <v>122</v>
       </c>
-      <c r="S27" t="s">
+      <c r="AC27" t="s">
         <v>123</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="AD27" t="s">
         <v>124</v>
       </c>
-      <c r="AB27" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>128</v>
-      </c>
       <c r="AE27" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH27" t="s">
         <v>136</v>
       </c>
-      <c r="AG27" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>141</v>
-      </c>
       <c r="AN27">
+        <v>50</v>
+      </c>
+      <c r="AO27">
         <v>48</v>
       </c>
-      <c r="AO27">
-        <v>45</v>
-      </c>
       <c r="AP27">
         <v>50</v>
       </c>
       <c r="AQ27" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AS27" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AT27" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="AU27">
         <v>30</v>
@@ -3456,336 +3400,198 @@
     </row>
     <row r="28" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>10316</v>
+        <v>10031</v>
       </c>
       <c r="L28" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="M28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N28">
-        <v>3499</v>
+        <v>7000</v>
       </c>
       <c r="O28" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S28" t="s">
         <v>119</v>
       </c>
-      <c r="Q28" s="2" t="s">
+      <c r="AA28" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB28" t="s">
         <v>122</v>
       </c>
-      <c r="S28" t="s">
+      <c r="AC28" t="s">
         <v>123</v>
       </c>
-      <c r="AA28" t="s">
+      <c r="AD28" t="s">
         <v>124</v>
       </c>
-      <c r="AB28" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>128</v>
-      </c>
       <c r="AE28" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="AG28" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AH28" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AN28">
         <v>50</v>
       </c>
       <c r="AO28">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AP28">
         <v>50</v>
       </c>
       <c r="AQ28" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AS28" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AT28" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="AU28">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AV28">
-        <v>120</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>10301</v>
+        <v>10532</v>
       </c>
       <c r="L29" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="M29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N29">
-        <v>3499</v>
+        <v>7999</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="Q29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S29" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB29" t="s">
         <v>122</v>
       </c>
-      <c r="S29" t="s">
+      <c r="AC29" t="s">
         <v>123</v>
       </c>
-      <c r="AA29" t="s">
+      <c r="AD29" t="s">
         <v>124</v>
       </c>
-      <c r="AB29" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>128</v>
-      </c>
       <c r="AE29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG29" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AH29" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AN29">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO29">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AP29">
         <v>50</v>
       </c>
       <c r="AQ29" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AS29" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AT29" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="AU29">
         <v>30</v>
       </c>
       <c r="AV29">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>10031</v>
-      </c>
-      <c r="L30" t="s">
-        <v>52</v>
-      </c>
-      <c r="M30" t="s">
-        <v>92</v>
-      </c>
-      <c r="N30">
-        <v>7000</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="S30" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>141</v>
-      </c>
-      <c r="AN30">
-        <v>50</v>
-      </c>
-      <c r="AO30">
-        <v>45</v>
-      </c>
-      <c r="AP30">
-        <v>50</v>
-      </c>
-      <c r="AQ30" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS30" t="s">
-        <v>163</v>
-      </c>
-      <c r="AT30" t="s">
-        <v>158</v>
-      </c>
-      <c r="AU30">
-        <v>31</v>
-      </c>
-      <c r="AV30">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>10532</v>
-      </c>
-      <c r="L31" t="s">
-        <v>50</v>
-      </c>
-      <c r="M31" t="s">
-        <v>93</v>
-      </c>
-      <c r="N31">
-        <v>7999</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="S31" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>141</v>
-      </c>
-      <c r="AN31">
-        <v>48</v>
-      </c>
-      <c r="AO31">
-        <v>45</v>
-      </c>
-      <c r="AP31">
-        <v>50</v>
-      </c>
-      <c r="AQ31" t="s">
-        <v>150</v>
-      </c>
-      <c r="AS31" t="s">
-        <v>163</v>
-      </c>
-      <c r="AT31" t="s">
-        <v>158</v>
-      </c>
-      <c r="AU31">
-        <v>30</v>
-      </c>
-      <c r="AV31">
         <v>120</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="Q3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="O4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="Q4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="O5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="Q5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="O6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="Q6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="O7" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="Q7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="O8" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="Q8" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="O9" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="Q9" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="O10" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="Q10" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="O11" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="Q11" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="O12" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="Q12" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="O13" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="Q13" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="O14" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="Q14" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="O15" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="Q15" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="O16" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="Q16" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="O17" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="Q17" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="O18" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="Q18" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="O19" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="Q19" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="O20" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="Q20" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="O21" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="Q21" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="O22" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="Q22" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="O23" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="Q23" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="O24" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="Q24" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="O25" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="Q25" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="O26" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="Q26" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="O27" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="Q27" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="O28" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="Q28" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="O29" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="Q29" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="O30" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="Q30" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="O31" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="Q31" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="O3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="Q3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="O4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="Q4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="O5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Q5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="O6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="Q6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="O7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="Q7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="O8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="Q8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="O9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="Q9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="O10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="Q10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="O11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="Q11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="O12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="Q12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="O13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="Q13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="O14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="Q14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="O15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="Q15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="O16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="Q16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="O17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="Q17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="O18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="Q18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="O19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="Q19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="O20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="Q20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="O21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="Q21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="O22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="Q22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="O23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="Q23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="O24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="Q24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="Q25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="O26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="Q26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="O27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="Q27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="O28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="Q28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="O29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="Q29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/comp armchair.xlsx
+++ b/make_xl/data_xl/comp armchair.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9678104-D7BF-4F24-BA44-67F30CE26B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9480A9EB-5335-498C-81BD-BC4E290865EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="3480" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="154">
   <si>
     <t>Id</t>
   </si>
@@ -188,9 +188,6 @@
   </si>
   <si>
     <t xml:space="preserve">Кресло офисное </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кресло компьютерное </t>
   </si>
   <si>
     <t>Офисное кресло</t>
@@ -447,28 +444,6 @@
 🔥 Система больших скидок действует при опте и в праздничные дни 
 ✔ Самовывоз
 ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Акция -40%
-Цена 5999. Вместо 10 000 руб.
-Кресло компьютерное
-Артикул 10464
-Описание: Кресло от производителя narbutas(Литва) подойдёт, как для обычных работников, так и для руководителей. Множество настроек и сетчатая спинка помогут сделать работу за столом удобнее.
-Цвет синий
-Цена 10000
-Количество 1
-В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе. Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
@@ -867,9 +842,6 @@
     <t>https://disk.yandex.ru/i/JYTNC-cJaLke2A | https://disk.yandex.ru/i/rGYumyHN6mKNnQ | https://disk.yandex.ru/i/pfMCl_a6RPkP3w | https://disk.yandex.ru/i/kPeSa_lgiEOQUA | https://disk.yandex.ru/i/C5aAZe9IHsWIug</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/mFDHEoOFPaWYeg | https://disk.yandex.ru/i/1Fwhuui4aU0-EQ | https://disk.yandex.ru/i/3Cvpa4IOIkS_Ow | https://disk.yandex.ru/i/AV_C6u3mIXc3Cg | https://disk.yandex.ru/i/3m_Jz5aNLv8HQQ | https://disk.yandex.ru/i/l0IZod0BGmfrEg | https://disk.yandex.ru/i/VJHFLxQuEo8LbQ | https://disk.yandex.ru/i/b-4ZeYUleJGWbg</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/jkYYSe82okvj0A | https://disk.yandex.ru/i/wLbLJdEgqXWBYg | https://disk.yandex.ru/i/D02_2s0YgIRSkw | https://disk.yandex.ru/i/bs9U0qsDTuEG_g | https://disk.yandex.ru/i/lfe9Lp8Wt9-X4A | https://disk.yandex.ru/i/954u_1fECGm2ew</t>
   </si>
   <si>
@@ -948,9 +920,6 @@
     <t>Коричневый</t>
   </si>
   <si>
-    <t>Синий</t>
-  </si>
-  <si>
     <t>Серый</t>
   </si>
   <si>
@@ -994,9 +963,6 @@
   </si>
   <si>
     <t>Подлокотники | Механизм качания | Регулировка высоты | Поясничный упор</t>
-  </si>
-  <si>
-    <t>Подлокотники | Механизм качания | Регулировка высоты | Регулировка подлокотников  | Регулировка глубины сиденья | Поясничный упор</t>
   </si>
   <si>
     <t>Подлокотники | Механизм качания | Регулировка наклона спинки | Регулировка высоты | Регулировка подлокотников | Регулировка глубины сиденья | Поясничный упор</t>
@@ -1413,10 +1379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV29"/>
+  <dimension ref="A1:AV28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1575,40 +1541,40 @@
         <v>48</v>
       </c>
       <c r="M2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N2">
         <v>2999</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="S2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB2" t="s">
         <v>118</v>
       </c>
-      <c r="S2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD2" t="s">
         <v>121</v>
       </c>
-      <c r="AC2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>124</v>
-      </c>
       <c r="AE2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AG2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AH2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AN2">
         <v>45</v>
@@ -1620,16 +1586,16 @@
         <v>40</v>
       </c>
       <c r="AQ2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AR2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS2" t="s">
         <v>152</v>
       </c>
-      <c r="AS2" t="s">
-        <v>157</v>
-      </c>
       <c r="AT2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AU2">
         <v>30</v>
@@ -1646,40 +1612,40 @@
         <v>49</v>
       </c>
       <c r="M3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N3">
         <v>10500</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="S3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB3" t="s">
         <v>118</v>
       </c>
-      <c r="S3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD3" t="s">
         <v>121</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AE3" t="s">
         <v>123</v>
       </c>
-      <c r="AD3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>126</v>
-      </c>
       <c r="AG3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AH3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AN3">
         <v>55</v>
@@ -1691,16 +1657,16 @@
         <v>50</v>
       </c>
       <c r="AQ3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AR3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="AS3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AT3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="AU3">
         <v>35</v>
@@ -1717,40 +1683,40 @@
         <v>50</v>
       </c>
       <c r="M4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N4">
         <v>3100</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="S4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB4" t="s">
         <v>118</v>
       </c>
-      <c r="S4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD4" t="s">
         <v>121</v>
       </c>
-      <c r="AC4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>124</v>
       </c>
-      <c r="AE4" t="s">
-        <v>127</v>
-      </c>
       <c r="AG4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AH4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AN4">
         <v>48</v>
@@ -1762,16 +1728,16 @@
         <v>45</v>
       </c>
       <c r="AQ4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AR4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AS4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AT4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AU4">
         <v>30</v>
@@ -1788,40 +1754,40 @@
         <v>48</v>
       </c>
       <c r="M5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N5">
         <v>3999</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="S5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB5" t="s">
         <v>118</v>
       </c>
-      <c r="S5" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD5" t="s">
         <v>121</v>
       </c>
-      <c r="AC5" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>124</v>
       </c>
-      <c r="AE5" t="s">
-        <v>127</v>
-      </c>
       <c r="AG5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AH5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AN5">
         <v>50</v>
@@ -1833,16 +1799,16 @@
         <v>48</v>
       </c>
       <c r="AQ5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AR5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AS5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AT5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AU5">
         <v>30</v>
@@ -1859,40 +1825,40 @@
         <v>50</v>
       </c>
       <c r="M6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N6">
         <v>9999</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="S6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB6" t="s">
         <v>118</v>
       </c>
-      <c r="S6" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD6" t="s">
         <v>121</v>
       </c>
-      <c r="AC6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>124</v>
-      </c>
       <c r="AE6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AG6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AH6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AN6">
         <v>50</v>
@@ -1904,16 +1870,16 @@
         <v>50</v>
       </c>
       <c r="AQ6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AR6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AS6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AT6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AU6">
         <v>30</v>
@@ -1930,40 +1896,40 @@
         <v>49</v>
       </c>
       <c r="M7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N7">
         <v>7999</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="S7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB7" t="s">
         <v>118</v>
       </c>
-      <c r="S7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD7" t="s">
         <v>121</v>
       </c>
-      <c r="AC7" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>124</v>
-      </c>
       <c r="AE7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AH7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AN7">
         <v>55</v>
@@ -1975,16 +1941,16 @@
         <v>50</v>
       </c>
       <c r="AQ7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AR7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AS7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AT7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AU7">
         <v>30</v>
@@ -2001,40 +1967,40 @@
         <v>51</v>
       </c>
       <c r="M8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N8">
         <v>6999</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="S8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB8" t="s">
         <v>118</v>
       </c>
-      <c r="S8" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD8" t="s">
         <v>121</v>
       </c>
-      <c r="AC8" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>124</v>
-      </c>
       <c r="AE8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AH8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AN8">
         <v>50</v>
@@ -2046,16 +2012,16 @@
         <v>53</v>
       </c>
       <c r="AQ8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AR8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AS8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AT8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AU8">
         <v>30</v>
@@ -2072,40 +2038,40 @@
         <v>52</v>
       </c>
       <c r="M9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N9">
         <v>9999</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="S9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB9" t="s">
         <v>118</v>
       </c>
-      <c r="S9" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD9" t="s">
         <v>121</v>
       </c>
-      <c r="AC9" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>124</v>
-      </c>
       <c r="AE9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AH9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AN9">
         <v>50</v>
@@ -2117,16 +2083,16 @@
         <v>50</v>
       </c>
       <c r="AQ9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AR9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AS9" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AT9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AU9">
         <v>30</v>
@@ -2143,40 +2109,40 @@
         <v>50</v>
       </c>
       <c r="M10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N10">
         <v>9999</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="S10" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB10" t="s">
         <v>118</v>
       </c>
-      <c r="S10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD10" t="s">
         <v>121</v>
       </c>
-      <c r="AC10" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>124</v>
-      </c>
       <c r="AE10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AG10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AH10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AN10">
         <v>45</v>
@@ -2188,16 +2154,16 @@
         <v>50</v>
       </c>
       <c r="AQ10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AR10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AS10" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AT10" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AU10">
         <v>30</v>
@@ -2214,40 +2180,40 @@
         <v>53</v>
       </c>
       <c r="M11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N11">
         <v>1499</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="S11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB11" t="s">
         <v>118</v>
       </c>
-      <c r="S11" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD11" t="s">
         <v>121</v>
       </c>
-      <c r="AC11" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>124</v>
-      </c>
       <c r="AE11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AG11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AH11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AN11">
         <v>45</v>
@@ -2259,16 +2225,16 @@
         <v>50</v>
       </c>
       <c r="AQ11" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AR11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AS11" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AT11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AU11">
         <v>30</v>
@@ -2285,40 +2251,40 @@
         <v>54</v>
       </c>
       <c r="M12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N12">
         <v>3999</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="S12" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB12" t="s">
         <v>118</v>
       </c>
-      <c r="S12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD12" t="s">
         <v>121</v>
       </c>
-      <c r="AC12" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>124</v>
-      </c>
       <c r="AE12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AG12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AH12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AN12">
         <v>50</v>
@@ -2330,16 +2296,16 @@
         <v>50</v>
       </c>
       <c r="AQ12" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AR12" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AS12" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AT12" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AU12">
         <v>30</v>
@@ -2356,40 +2322,40 @@
         <v>55</v>
       </c>
       <c r="M13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N13">
         <v>3999</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="S13" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB13" t="s">
         <v>118</v>
       </c>
-      <c r="S13" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD13" t="s">
         <v>121</v>
       </c>
-      <c r="AC13" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>124</v>
-      </c>
       <c r="AE13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AG13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AH13" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AN13">
         <v>48</v>
@@ -2401,16 +2367,16 @@
         <v>50</v>
       </c>
       <c r="AQ13" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AR13" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS13" t="s">
         <v>152</v>
       </c>
-      <c r="AS13" t="s">
-        <v>157</v>
-      </c>
       <c r="AT13" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AU13">
         <v>30</v>
@@ -2421,67 +2387,67 @@
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>10464</v>
+        <v>10438</v>
       </c>
       <c r="L14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N14">
-        <v>9999</v>
+        <v>25000</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="S14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB14" t="s">
         <v>118</v>
       </c>
-      <c r="S14" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD14" t="s">
         <v>121</v>
       </c>
-      <c r="AC14" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>124</v>
-      </c>
       <c r="AE14" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AG14" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AH14" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AN14">
         <v>50</v>
       </c>
       <c r="AO14">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AP14">
         <v>50</v>
       </c>
       <c r="AQ14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="AR14" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="AS14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AT14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AU14">
         <v>30</v>
@@ -2492,67 +2458,67 @@
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>10438</v>
+        <v>10371</v>
       </c>
       <c r="L15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N15">
-        <v>25000</v>
+        <v>5999</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="S15" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB15" t="s">
         <v>118</v>
       </c>
-      <c r="S15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD15" t="s">
         <v>121</v>
       </c>
-      <c r="AC15" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>124</v>
-      </c>
       <c r="AE15" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG15" t="s">
         <v>131</v>
       </c>
-      <c r="AG15" t="s">
-        <v>135</v>
-      </c>
       <c r="AH15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AN15">
         <v>50</v>
       </c>
       <c r="AO15">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AP15">
         <v>50</v>
       </c>
       <c r="AQ15" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="AR15" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS15" t="s">
         <v>152</v>
       </c>
-      <c r="AS15" t="s">
-        <v>157</v>
-      </c>
       <c r="AT15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AU15">
         <v>30</v>
@@ -2563,67 +2529,67 @@
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>10371</v>
+        <v>10424</v>
       </c>
       <c r="L16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N16">
-        <v>5999</v>
+        <v>7999</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="S16" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB16" t="s">
         <v>118</v>
       </c>
-      <c r="S16" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD16" t="s">
         <v>121</v>
       </c>
-      <c r="AC16" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>124</v>
-      </c>
       <c r="AE16" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG16" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AH16" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AN16">
         <v>50</v>
       </c>
       <c r="AO16">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AP16">
         <v>50</v>
       </c>
       <c r="AQ16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AR16" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="AS16" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AT16" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="AU16">
         <v>30</v>
@@ -2634,117 +2600,117 @@
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>10424</v>
+        <v>10316</v>
       </c>
       <c r="L17" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="M17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N17">
-        <v>7999</v>
+        <v>3499</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="S17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB17" t="s">
         <v>118</v>
       </c>
-      <c r="S17" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD17" t="s">
         <v>121</v>
       </c>
-      <c r="AC17" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>124</v>
-      </c>
       <c r="AE17" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH17" t="s">
         <v>132</v>
       </c>
-      <c r="AG17" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>136</v>
-      </c>
       <c r="AN17">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO17">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AP17">
         <v>50</v>
       </c>
       <c r="AQ17" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="AR17" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AS17" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AT17" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AU17">
         <v>30</v>
       </c>
       <c r="AV17">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>10316</v>
+        <v>10460</v>
       </c>
       <c r="L18" t="s">
         <v>57</v>
       </c>
       <c r="M18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N18">
-        <v>3499</v>
+        <v>7999</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="S18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB18" t="s">
         <v>118</v>
       </c>
-      <c r="S18" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB18" t="s">
+      <c r="AC18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD18" t="s">
         <v>121</v>
       </c>
-      <c r="AC18" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>124</v>
-      </c>
       <c r="AE18" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="AG18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AH18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AN18">
         <v>48</v>
@@ -2756,158 +2722,158 @@
         <v>50</v>
       </c>
       <c r="AQ18" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AR18" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="AS18" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AT18" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="AU18">
         <v>30</v>
       </c>
       <c r="AV18">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>10460</v>
+        <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N19">
-        <v>7999</v>
+        <v>5499</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="S19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB19" t="s">
         <v>118</v>
       </c>
-      <c r="S19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB19" t="s">
+      <c r="AC19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD19" t="s">
         <v>121</v>
       </c>
-      <c r="AC19" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>124</v>
-      </c>
       <c r="AE19" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AG19" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AH19" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AN19">
+        <v>50</v>
+      </c>
+      <c r="AO19">
         <v>48</v>
       </c>
-      <c r="AO19">
-        <v>45</v>
-      </c>
       <c r="AP19">
         <v>50</v>
       </c>
       <c r="AQ19" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AR19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AS19" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AT19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AU19">
         <v>30</v>
       </c>
       <c r="AV19">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1</v>
+        <v>10420</v>
       </c>
       <c r="L20" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N20">
-        <v>5499</v>
+        <v>9999</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="S20" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB20" t="s">
         <v>118</v>
       </c>
-      <c r="S20" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD20" t="s">
         <v>121</v>
       </c>
-      <c r="AC20" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>124</v>
-      </c>
       <c r="AE20" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AG20" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AH20" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AN20">
         <v>50</v>
       </c>
       <c r="AO20">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AP20">
         <v>50</v>
       </c>
       <c r="AQ20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AR20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AS20" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AT20" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="AU20">
         <v>30</v>
@@ -2918,49 +2884,49 @@
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>10420</v>
+        <v>10336</v>
       </c>
       <c r="L21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N21">
-        <v>9999</v>
+        <v>2300</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="S21" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB21" t="s">
         <v>118</v>
       </c>
-      <c r="S21" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB21" t="s">
+      <c r="AC21" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD21" t="s">
         <v>121</v>
       </c>
-      <c r="AC21" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>124</v>
-      </c>
       <c r="AE21" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AG21" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AH21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AN21">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO21">
         <v>45</v>
@@ -2969,93 +2935,90 @@
         <v>50</v>
       </c>
       <c r="AQ21" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="AR21" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="AS21" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AT21" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AU21">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AV21">
-        <v>120</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>10336</v>
+        <v>10522</v>
       </c>
       <c r="L22" t="s">
         <v>59</v>
       </c>
       <c r="M22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N22">
-        <v>2300</v>
+        <v>5999</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="S22" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB22" t="s">
         <v>119</v>
       </c>
-      <c r="AA22" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB22" t="s">
+      <c r="AC22" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD22" t="s">
         <v>121</v>
       </c>
-      <c r="AC22" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>124</v>
-      </c>
       <c r="AE22" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AG22" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AH22" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AN22">
+        <v>50</v>
+      </c>
+      <c r="AO22">
         <v>48</v>
       </c>
-      <c r="AO22">
-        <v>45</v>
-      </c>
       <c r="AP22">
         <v>50</v>
       </c>
       <c r="AQ22" t="s">
-        <v>137</v>
-      </c>
-      <c r="AR22" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="AS22" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AT22" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AU22">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AV22">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:48" x14ac:dyDescent="0.25">
@@ -3063,111 +3026,111 @@
         <v>10522</v>
       </c>
       <c r="L23" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="M23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N23">
         <v>5999</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="S23" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB23" t="s">
         <v>119</v>
       </c>
-      <c r="AA23" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>122</v>
-      </c>
       <c r="AC23" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AD23" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AE23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG23" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AH23" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AN23">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO23">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AP23">
         <v>50</v>
       </c>
       <c r="AQ23" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AS23" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AT23" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AU23">
         <v>30</v>
       </c>
       <c r="AV23">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>10522</v>
+        <v>10532</v>
       </c>
       <c r="L24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N24">
-        <v>5999</v>
+        <v>7999</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="S24" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB24" t="s">
         <v>119</v>
       </c>
-      <c r="AA24" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>122</v>
-      </c>
       <c r="AC24" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AD24" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AE24" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="AG24" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AH24" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AN24">
         <v>48</v>
@@ -3179,81 +3142,81 @@
         <v>50</v>
       </c>
       <c r="AQ24" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="AS24" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AT24" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="AU24">
         <v>30</v>
       </c>
       <c r="AV24">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>10532</v>
+        <v>10316</v>
       </c>
       <c r="L25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M25" t="s">
+        <v>85</v>
+      </c>
+      <c r="N25">
+        <v>3499</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="S25" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>132</v>
+      </c>
+      <c r="AN25">
+        <v>50</v>
+      </c>
+      <c r="AO25">
         <v>48</v>
       </c>
-      <c r="M25" t="s">
-        <v>86</v>
-      </c>
-      <c r="N25">
-        <v>7999</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="S25" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN25">
-        <v>48</v>
-      </c>
-      <c r="AO25">
-        <v>45</v>
-      </c>
       <c r="AP25">
         <v>50</v>
       </c>
       <c r="AQ25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AS25" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AT25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AU25">
         <v>30</v>
@@ -3264,46 +3227,46 @@
     </row>
     <row r="26" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>10316</v>
+        <v>10301</v>
       </c>
       <c r="L26" t="s">
         <v>61</v>
       </c>
       <c r="M26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N26">
         <v>3499</v>
       </c>
       <c r="O26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="Q26" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="S26" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB26" t="s">
         <v>119</v>
       </c>
-      <c r="AA26" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB26" t="s">
+      <c r="AC26" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE26" t="s">
         <v>122</v>
       </c>
-      <c r="AC26" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>125</v>
-      </c>
       <c r="AG26" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AH26" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AN26">
         <v>50</v>
@@ -3315,13 +3278,13 @@
         <v>50</v>
       </c>
       <c r="AQ26" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="AS26" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AT26" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="AU26">
         <v>30</v>
@@ -3332,117 +3295,117 @@
     </row>
     <row r="27" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>10301</v>
+        <v>10031</v>
       </c>
       <c r="L27" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="M27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N27">
-        <v>3499</v>
+        <v>7000</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="S27" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB27" t="s">
         <v>119</v>
       </c>
-      <c r="AA27" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB27" t="s">
+      <c r="AC27" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE27" t="s">
         <v>122</v>
       </c>
-      <c r="AC27" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>125</v>
-      </c>
       <c r="AG27" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AH27" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AN27">
         <v>50</v>
       </c>
       <c r="AO27">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AP27">
         <v>50</v>
       </c>
       <c r="AQ27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AS27" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AT27" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AU27">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AV27">
-        <v>120</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>10031</v>
+        <v>10532</v>
       </c>
       <c r="L28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N28">
-        <v>7000</v>
+        <v>7999</v>
       </c>
       <c r="O28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="S28" t="s">
         <v>116</v>
       </c>
-      <c r="Q28" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="S28" t="s">
+      <c r="AA28" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB28" t="s">
         <v>119</v>
       </c>
-      <c r="AA28" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>122</v>
-      </c>
       <c r="AC28" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AD28" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AE28" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AG28" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AH28" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AN28">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO28">
         <v>45</v>
@@ -3451,86 +3414,18 @@
         <v>50</v>
       </c>
       <c r="AQ28" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="AS28" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AT28" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AU28">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AV28">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>10532</v>
-      </c>
-      <c r="L29" t="s">
-        <v>48</v>
-      </c>
-      <c r="M29" t="s">
-        <v>90</v>
-      </c>
-      <c r="N29">
-        <v>7999</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="S29" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN29">
-        <v>48</v>
-      </c>
-      <c r="AO29">
-        <v>45</v>
-      </c>
-      <c r="AP29">
-        <v>50</v>
-      </c>
-      <c r="AQ29" t="s">
-        <v>145</v>
-      </c>
-      <c r="AS29" t="s">
-        <v>157</v>
-      </c>
-      <c r="AT29" t="s">
-        <v>152</v>
-      </c>
-      <c r="AU29">
-        <v>30</v>
-      </c>
-      <c r="AV29">
         <v>120</v>
       </c>
     </row>
@@ -3560,38 +3455,36 @@
     <hyperlink ref="Q12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="O13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="Q13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="O14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="Q14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="O15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="Q15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="O16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="Q16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="O17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="Q17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="O18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="Q18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="O19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="Q19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="O20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="Q20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="O21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="Q21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="O22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="Q22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="O23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="Q23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="O24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="Q24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="Q25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="O26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="Q26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="O27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="Q27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="O28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="Q28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="O29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="Q29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="O14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="Q14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="O15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="Q15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="O16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="Q16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="O17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="Q17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="O18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="Q18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="O19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="Q19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="O20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="Q20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="O21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="Q21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="O22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="Q22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="O23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="Q23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="O24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="Q24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="Q25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="O26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="Q26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="O27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="Q27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="O28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="Q28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/comp armchair.xlsx
+++ b/make_xl/data_xl/comp armchair.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9480A9EB-5335-498C-81BD-BC4E290865EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53ECE019-1501-4CF6-94CA-E95F58B7100C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="151">
   <si>
     <t>Id</t>
   </si>
@@ -176,9 +176,6 @@
   </si>
   <si>
     <t>Компьютерное крелсо для руководителя</t>
-  </si>
-  <si>
-    <t>Компьютерное крелсо</t>
   </si>
   <si>
     <t>Компьютерное кресло</t>
@@ -357,16 +354,6 @@
 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
 Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Компьютерное кресло
-Артикул 10500
-Описание Стильное и очень удобное кресло компьютерное. Оно оснащено множеством регулировок на подлокотники, спинку, сиденье и подголовник с помощью которых его можно настроить под любого человека. И само по себе кресло имеет хорошую эргономику, что создаёт полный комфорт от его использования.
-Режим качания позволит расслабиться и с удовольствием отдохнуть, когда решите сделать паузу при работе.
-Так же на кресле стоят универсальные колёсики повышенной прочности, они горантированно прослужат долго и без отказано.
-Цвет рыжий
-Цена 9 999 руб
-Количество 2</t>
   </si>
   <si>
     <t>Кресло компьютерное
@@ -825,9 +812,6 @@
   </si>
   <si>
     <t>https://disk.yandex.ru/i/Jk9Pmi3YibEXMA | https://disk.yandex.ru/i/LdOe9M566G7ZJQ | https://disk.yandex.ru/i/vqVznBPIIjidjQ | https://disk.yandex.ru/i/5Vt7aJveU7z2Yw | https://disk.yandex.ru/i/mgECRp-CJBT5ng | https://disk.yandex.ru/i/t2mWPOzGkovfAQ | https://disk.yandex.ru/i/ygqmLhJzxqVxPA | https://disk.yandex.ru/i/QWTTK-NlTTr58w</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/xkqsjL9gmuI0Cw | https://disk.yandex.ru/i/AMAnC7SSN6TcHA | https://disk.yandex.ru/i/TZI-61F09fmT6Q | https://disk.yandex.ru/i/Y6mm0ZkdYycMuQ | https://disk.yandex.ru/i/Hkp8gaMWwvaRZw | https://disk.yandex.ru/i/5nogAaA0qP7KYw | https://disk.yandex.ru/i/HdLHxrcG_0nPsw | https://disk.yandex.ru/i/39Bl1r1pwRE_Cg</t>
   </si>
   <si>
     <t>https://disk.yandex.ru/i/N8zwILGOvVHhPA | https://disk.yandex.ru/i/eB1dCJ63JiQeyA | https://disk.yandex.ru/i/9vUCFwYBlwSIxw | https://disk.yandex.ru/i/wqFIVCX8pKAZCQ | https://disk.yandex.ru/i/qdk3sV1cnYBhdA | https://disk.yandex.ru/i/mh9XpWx7PquEiw | https://disk.yandex.ru/i/6B-GYz1xMqapFg | https://disk.yandex.ru/i/hErgpYG0kNvsOQ</t>
@@ -1379,10 +1363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV28"/>
+  <dimension ref="A1:AV27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1541,40 +1525,40 @@
         <v>48</v>
       </c>
       <c r="M2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N2">
         <v>2999</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB2" t="s">
         <v>115</v>
       </c>
-      <c r="S2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>117</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>118</v>
       </c>
-      <c r="AC2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>121</v>
-      </c>
       <c r="AE2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AG2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AH2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AN2">
         <v>45</v>
@@ -1586,16 +1570,16 @@
         <v>40</v>
       </c>
       <c r="AQ2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AR2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AS2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AT2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AU2">
         <v>30</v>
@@ -1612,40 +1596,40 @@
         <v>49</v>
       </c>
       <c r="M3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N3">
         <v>10500</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB3" t="s">
         <v>115</v>
       </c>
-      <c r="S3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA3" t="s">
+      <c r="AC3" t="s">
         <v>117</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AD3" t="s">
         <v>118</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AE3" t="s">
         <v>120</v>
       </c>
-      <c r="AD3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>123</v>
-      </c>
       <c r="AG3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AH3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AN3">
         <v>55</v>
@@ -1657,16 +1641,16 @@
         <v>50</v>
       </c>
       <c r="AQ3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AR3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AS3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AT3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AU3">
         <v>35</v>
@@ -1683,40 +1667,40 @@
         <v>50</v>
       </c>
       <c r="M4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N4">
         <v>3100</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB4" t="s">
         <v>115</v>
       </c>
-      <c r="S4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA4" t="s">
+      <c r="AC4" t="s">
         <v>117</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
         <v>118</v>
       </c>
-      <c r="AC4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>121</v>
       </c>
-      <c r="AE4" t="s">
-        <v>124</v>
-      </c>
       <c r="AG4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AH4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AN4">
         <v>48</v>
@@ -1728,16 +1712,16 @@
         <v>45</v>
       </c>
       <c r="AQ4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AR4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS4" t="s">
         <v>149</v>
       </c>
-      <c r="AS4" t="s">
-        <v>152</v>
-      </c>
       <c r="AT4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AU4">
         <v>30</v>
@@ -1754,40 +1738,40 @@
         <v>48</v>
       </c>
       <c r="M5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N5">
         <v>3999</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB5" t="s">
         <v>115</v>
       </c>
-      <c r="S5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA5" t="s">
+      <c r="AC5" t="s">
         <v>117</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AD5" t="s">
         <v>118</v>
       </c>
-      <c r="AC5" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>121</v>
       </c>
-      <c r="AE5" t="s">
-        <v>124</v>
-      </c>
       <c r="AG5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AH5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AN5">
         <v>50</v>
@@ -1799,16 +1783,16 @@
         <v>48</v>
       </c>
       <c r="AQ5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AR5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS5" t="s">
         <v>149</v>
       </c>
-      <c r="AS5" t="s">
-        <v>152</v>
-      </c>
       <c r="AT5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AU5">
         <v>30</v>
@@ -1825,40 +1809,40 @@
         <v>50</v>
       </c>
       <c r="M6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N6">
         <v>9999</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB6" t="s">
         <v>115</v>
       </c>
-      <c r="S6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA6" t="s">
+      <c r="AC6" t="s">
         <v>117</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AD6" t="s">
         <v>118</v>
       </c>
-      <c r="AC6" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>121</v>
-      </c>
       <c r="AE6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AG6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AH6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AN6">
         <v>50</v>
@@ -1870,16 +1854,16 @@
         <v>50</v>
       </c>
       <c r="AQ6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AR6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AS6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AT6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AU6">
         <v>30</v>
@@ -1896,40 +1880,40 @@
         <v>49</v>
       </c>
       <c r="M7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N7">
         <v>7999</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB7" t="s">
         <v>115</v>
       </c>
-      <c r="S7" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA7" t="s">
+      <c r="AC7" t="s">
         <v>117</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AD7" t="s">
         <v>118</v>
       </c>
-      <c r="AC7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>121</v>
-      </c>
       <c r="AE7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AG7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AH7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AN7">
         <v>55</v>
@@ -1941,16 +1925,16 @@
         <v>50</v>
       </c>
       <c r="AQ7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AR7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AS7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AT7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AU7">
         <v>30</v>
@@ -1967,40 +1951,40 @@
         <v>51</v>
       </c>
       <c r="M8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N8">
         <v>6999</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB8" t="s">
         <v>115</v>
       </c>
-      <c r="S8" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA8" t="s">
+      <c r="AC8" t="s">
         <v>117</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AD8" t="s">
         <v>118</v>
       </c>
-      <c r="AC8" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>121</v>
-      </c>
       <c r="AE8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AG8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AH8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AN8">
         <v>50</v>
@@ -2012,16 +1996,16 @@
         <v>53</v>
       </c>
       <c r="AQ8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AR8" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS8" t="s">
         <v>149</v>
       </c>
-      <c r="AS8" t="s">
-        <v>152</v>
-      </c>
       <c r="AT8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AU8">
         <v>30</v>
@@ -2032,49 +2016,49 @@
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>10500</v>
+        <v>10497</v>
       </c>
       <c r="L9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N9">
         <v>9999</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB9" t="s">
         <v>115</v>
       </c>
-      <c r="S9" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA9" t="s">
+      <c r="AC9" t="s">
         <v>117</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AD9" t="s">
         <v>118</v>
       </c>
-      <c r="AC9" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>121</v>
-      </c>
       <c r="AE9" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="AG9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AH9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AN9">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AO9">
         <v>45</v>
@@ -2083,371 +2067,371 @@
         <v>50</v>
       </c>
       <c r="AQ9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AR9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS9" t="s">
         <v>149</v>
       </c>
-      <c r="AS9" t="s">
-        <v>152</v>
-      </c>
       <c r="AT9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AU9">
         <v>30</v>
       </c>
       <c r="AV9">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10497</v>
+        <v>10302</v>
       </c>
       <c r="L10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N10">
-        <v>9999</v>
+        <v>1499</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB10" t="s">
         <v>115</v>
       </c>
-      <c r="S10" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA10" t="s">
+      <c r="AC10" t="s">
         <v>117</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AD10" t="s">
         <v>118</v>
       </c>
-      <c r="AC10" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>121</v>
-      </c>
       <c r="AE10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AG10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AH10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AN10">
         <v>45</v>
       </c>
       <c r="AO10">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AP10">
         <v>50</v>
       </c>
       <c r="AQ10" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="AR10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AS10" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AT10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AU10">
         <v>30</v>
       </c>
       <c r="AV10">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10302</v>
+        <v>10368</v>
       </c>
       <c r="L11" t="s">
         <v>53</v>
       </c>
       <c r="M11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N11">
-        <v>1499</v>
+        <v>3999</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB11" t="s">
         <v>115</v>
       </c>
-      <c r="S11" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA11" t="s">
+      <c r="AC11" t="s">
         <v>117</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AD11" t="s">
         <v>118</v>
       </c>
-      <c r="AC11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>121</v>
-      </c>
       <c r="AE11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AG11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AH11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AN11">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AO11">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="AP11">
         <v>50</v>
       </c>
       <c r="AQ11" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AR11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AS11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AT11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AU11">
         <v>30</v>
       </c>
       <c r="AV11">
-        <v>75</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10368</v>
+        <v>10301</v>
       </c>
       <c r="L12" t="s">
         <v>54</v>
       </c>
       <c r="M12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N12">
         <v>3999</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q12" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB12" t="s">
         <v>115</v>
       </c>
-      <c r="S12" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA12" t="s">
+      <c r="AC12" t="s">
         <v>117</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AD12" t="s">
         <v>118</v>
       </c>
-      <c r="AC12" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>121</v>
-      </c>
       <c r="AE12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AG12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AH12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AN12">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO12">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AP12">
         <v>50</v>
       </c>
       <c r="AQ12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AR12" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="AS12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AT12" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="AU12">
         <v>30</v>
       </c>
       <c r="AV12">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>10301</v>
+        <v>10438</v>
       </c>
       <c r="L13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N13">
-        <v>3999</v>
+        <v>25000</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S13" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB13" t="s">
         <v>115</v>
       </c>
-      <c r="S13" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA13" t="s">
+      <c r="AC13" t="s">
         <v>117</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AD13" t="s">
         <v>118</v>
       </c>
-      <c r="AC13" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>121</v>
-      </c>
       <c r="AE13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AG13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AH13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AN13">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AO13">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AP13">
         <v>50</v>
       </c>
       <c r="AQ13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AR13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AS13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AT13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AU13">
         <v>30</v>
       </c>
       <c r="AV13">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>10438</v>
+        <v>10371</v>
       </c>
       <c r="L14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N14">
-        <v>25000</v>
+        <v>5999</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB14" t="s">
         <v>115</v>
       </c>
-      <c r="S14" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA14" t="s">
+      <c r="AC14" t="s">
         <v>117</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AD14" t="s">
         <v>118</v>
       </c>
-      <c r="AC14" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>121</v>
-      </c>
       <c r="AE14" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AG14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AH14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AN14">
         <v>50</v>
       </c>
       <c r="AO14">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AP14">
         <v>50</v>
       </c>
       <c r="AQ14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AR14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AS14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AT14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AU14">
         <v>30</v>
@@ -2458,52 +2442,52 @@
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>10371</v>
+        <v>10424</v>
       </c>
       <c r="L15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N15">
-        <v>5999</v>
+        <v>7999</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S15" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB15" t="s">
         <v>115</v>
       </c>
-      <c r="S15" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA15" t="s">
+      <c r="AC15" t="s">
         <v>117</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AD15" t="s">
         <v>118</v>
       </c>
-      <c r="AC15" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>121</v>
-      </c>
       <c r="AE15" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AG15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AH15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AN15">
         <v>50</v>
       </c>
       <c r="AO15">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AP15">
         <v>50</v>
@@ -2512,13 +2496,13 @@
         <v>140</v>
       </c>
       <c r="AR15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AS15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AT15" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AU15">
         <v>30</v>
@@ -2529,117 +2513,117 @@
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>10424</v>
+        <v>10316</v>
       </c>
       <c r="L16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N16">
-        <v>7999</v>
+        <v>3499</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB16" t="s">
         <v>115</v>
       </c>
-      <c r="S16" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA16" t="s">
+      <c r="AC16" t="s">
         <v>117</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AD16" t="s">
         <v>118</v>
       </c>
-      <c r="AC16" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>121</v>
-      </c>
       <c r="AE16" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG16" t="s">
         <v>128</v>
       </c>
-      <c r="AG16" t="s">
-        <v>131</v>
-      </c>
       <c r="AH16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AN16">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO16">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AP16">
         <v>50</v>
       </c>
       <c r="AQ16" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AR16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AS16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AT16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AU16">
         <v>30</v>
       </c>
       <c r="AV16">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>10316</v>
+        <v>10460</v>
       </c>
       <c r="L17" t="s">
         <v>56</v>
       </c>
       <c r="M17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N17">
-        <v>3499</v>
+        <v>7999</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S17" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB17" t="s">
         <v>115</v>
       </c>
-      <c r="S17" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA17" t="s">
+      <c r="AC17" t="s">
         <v>117</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AD17" t="s">
         <v>118</v>
       </c>
-      <c r="AC17" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>121</v>
-      </c>
       <c r="AE17" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH17" t="s">
         <v>129</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>132</v>
       </c>
       <c r="AN17">
         <v>48</v>
@@ -2651,158 +2635,158 @@
         <v>50</v>
       </c>
       <c r="AQ17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AR17" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS17" t="s">
         <v>149</v>
       </c>
-      <c r="AS17" t="s">
-        <v>152</v>
-      </c>
       <c r="AT17" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AU17">
         <v>30</v>
       </c>
       <c r="AV17">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>10460</v>
+        <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="M18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N18">
-        <v>7999</v>
+        <v>5499</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Q18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB18" t="s">
         <v>115</v>
       </c>
-      <c r="S18" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA18" t="s">
+      <c r="AC18" t="s">
         <v>117</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AD18" t="s">
         <v>118</v>
       </c>
-      <c r="AC18" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>121</v>
-      </c>
       <c r="AE18" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AG18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AH18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AN18">
+        <v>50</v>
+      </c>
+      <c r="AO18">
         <v>48</v>
       </c>
-      <c r="AO18">
-        <v>45</v>
-      </c>
       <c r="AP18">
         <v>50</v>
       </c>
       <c r="AQ18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AR18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AS18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AT18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AU18">
         <v>30</v>
       </c>
       <c r="AV18">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1</v>
+        <v>10420</v>
       </c>
       <c r="L19" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N19">
-        <v>5499</v>
+        <v>9999</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S19" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB19" t="s">
         <v>115</v>
       </c>
-      <c r="S19" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA19" t="s">
+      <c r="AC19" t="s">
         <v>117</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AD19" t="s">
         <v>118</v>
       </c>
-      <c r="AC19" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>121</v>
-      </c>
       <c r="AE19" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH19" t="s">
         <v>129</v>
       </c>
-      <c r="AG19" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>132</v>
-      </c>
       <c r="AN19">
         <v>50</v>
       </c>
       <c r="AO19">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AP19">
         <v>50</v>
       </c>
       <c r="AQ19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AR19" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS19" t="s">
         <v>149</v>
       </c>
-      <c r="AS19" t="s">
-        <v>152</v>
-      </c>
       <c r="AT19" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AU19">
         <v>30</v>
@@ -2813,49 +2797,49 @@
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>10420</v>
+        <v>10336</v>
       </c>
       <c r="L20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N20">
-        <v>9999</v>
+        <v>2300</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB20" t="s">
         <v>115</v>
       </c>
-      <c r="S20" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA20" t="s">
+      <c r="AC20" t="s">
         <v>117</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AD20" t="s">
         <v>118</v>
       </c>
-      <c r="AC20" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>121</v>
-      </c>
       <c r="AE20" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH20" t="s">
         <v>129</v>
       </c>
-      <c r="AG20" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>132</v>
-      </c>
       <c r="AN20">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO20">
         <v>45</v>
@@ -2864,93 +2848,90 @@
         <v>50</v>
       </c>
       <c r="AQ20" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="AR20" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="AS20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AT20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AU20">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AV20">
-        <v>120</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>10336</v>
+        <v>10522</v>
       </c>
       <c r="L21" t="s">
         <v>58</v>
       </c>
       <c r="M21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N21">
-        <v>2300</v>
+        <v>5999</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="S21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB21" t="s">
         <v>116</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AC21" t="s">
         <v>117</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AD21" t="s">
         <v>118</v>
       </c>
-      <c r="AC21" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>121</v>
-      </c>
       <c r="AE21" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH21" t="s">
         <v>129</v>
       </c>
-      <c r="AG21" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>132</v>
-      </c>
       <c r="AN21">
+        <v>50</v>
+      </c>
+      <c r="AO21">
         <v>48</v>
       </c>
-      <c r="AO21">
-        <v>45</v>
-      </c>
       <c r="AP21">
         <v>50</v>
       </c>
       <c r="AQ21" t="s">
-        <v>133</v>
-      </c>
-      <c r="AR21" t="s">
+        <v>141</v>
+      </c>
+      <c r="AS21" t="s">
         <v>149</v>
       </c>
-      <c r="AS21" t="s">
-        <v>152</v>
-      </c>
       <c r="AT21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AU21">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AV21">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:48" x14ac:dyDescent="0.25">
@@ -2958,111 +2939,111 @@
         <v>10522</v>
       </c>
       <c r="L22" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="M22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N22">
         <v>5999</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="S22" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB22" t="s">
         <v>116</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AC22" t="s">
         <v>117</v>
       </c>
-      <c r="AB22" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>120</v>
-      </c>
       <c r="AD22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AE22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG22" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AH22" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AN22">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO22">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AP22">
         <v>50</v>
       </c>
       <c r="AQ22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AS22" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AT22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AU22">
         <v>30</v>
       </c>
       <c r="AV22">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>10522</v>
+        <v>10532</v>
       </c>
       <c r="L23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N23">
-        <v>5999</v>
+        <v>7999</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="S23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB23" t="s">
         <v>116</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AC23" t="s">
         <v>117</v>
       </c>
-      <c r="AB23" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>120</v>
-      </c>
       <c r="AD23" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AE23" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="AG23" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AH23" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AN23">
         <v>48</v>
@@ -3074,69 +3055,69 @@
         <v>50</v>
       </c>
       <c r="AQ23" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="AS23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AT23" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="AU23">
         <v>30</v>
       </c>
       <c r="AV23">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>10532</v>
+        <v>10316</v>
       </c>
       <c r="L24" t="s">
+        <v>59</v>
+      </c>
+      <c r="M24" t="s">
+        <v>83</v>
+      </c>
+      <c r="N24">
+        <v>3499</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S24" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN24">
+        <v>50</v>
+      </c>
+      <c r="AO24">
         <v>48</v>
-      </c>
-      <c r="M24" t="s">
-        <v>84</v>
-      </c>
-      <c r="N24">
-        <v>7999</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="S24" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>132</v>
-      </c>
-      <c r="AN24">
-        <v>48</v>
-      </c>
-      <c r="AO24">
-        <v>45</v>
       </c>
       <c r="AP24">
         <v>50</v>
@@ -3145,10 +3126,10 @@
         <v>141</v>
       </c>
       <c r="AS24" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AT24" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AU24">
         <v>30</v>
@@ -3159,46 +3140,46 @@
     </row>
     <row r="25" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>10316</v>
+        <v>10301</v>
       </c>
       <c r="L25" t="s">
         <v>60</v>
       </c>
       <c r="M25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N25">
         <v>3499</v>
       </c>
       <c r="O25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q25" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="Q25" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="S25" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB25" t="s">
         <v>116</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AC25" t="s">
         <v>117</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AD25" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE25" t="s">
         <v>119</v>
       </c>
-      <c r="AC25" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>122</v>
-      </c>
       <c r="AG25" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AH25" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AN25">
         <v>50</v>
@@ -3210,13 +3191,13 @@
         <v>50</v>
       </c>
       <c r="AQ25" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT25" t="s">
         <v>144</v>
-      </c>
-      <c r="AS25" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT25" t="s">
-        <v>153</v>
       </c>
       <c r="AU25">
         <v>30</v>
@@ -3227,117 +3208,117 @@
     </row>
     <row r="26" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>10301</v>
+        <v>10031</v>
       </c>
       <c r="L26" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="M26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N26">
-        <v>3499</v>
+        <v>7000</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="S26" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB26" t="s">
         <v>116</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AC26" t="s">
         <v>117</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AD26" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE26" t="s">
         <v>119</v>
       </c>
-      <c r="AC26" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>122</v>
-      </c>
       <c r="AG26" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AH26" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AN26">
         <v>50</v>
       </c>
       <c r="AO26">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AP26">
         <v>50</v>
       </c>
       <c r="AQ26" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AS26" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AT26" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AU26">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AV26">
-        <v>120</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>10031</v>
+        <v>10532</v>
       </c>
       <c r="L27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N27">
-        <v>7000</v>
+        <v>7999</v>
       </c>
       <c r="O27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S27" t="s">
         <v>113</v>
       </c>
-      <c r="Q27" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="S27" t="s">
+      <c r="AA27" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB27" t="s">
         <v>116</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="AC27" t="s">
         <v>117</v>
       </c>
-      <c r="AB27" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>120</v>
-      </c>
       <c r="AD27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AE27" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AG27" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AH27" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AN27">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO27">
         <v>45</v>
@@ -3346,86 +3327,18 @@
         <v>50</v>
       </c>
       <c r="AQ27" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="AS27" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AT27" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AU27">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AV27">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>10532</v>
-      </c>
-      <c r="L28" t="s">
-        <v>48</v>
-      </c>
-      <c r="M28" t="s">
-        <v>88</v>
-      </c>
-      <c r="N28">
-        <v>7999</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="S28" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>132</v>
-      </c>
-      <c r="AN28">
-        <v>48</v>
-      </c>
-      <c r="AO28">
-        <v>45</v>
-      </c>
-      <c r="AP28">
-        <v>50</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>141</v>
-      </c>
-      <c r="AS28" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT28" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU28">
-        <v>30</v>
-      </c>
-      <c r="AV28">
         <v>120</v>
       </c>
     </row>
@@ -3445,46 +3358,44 @@
     <hyperlink ref="Q7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="O8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="Q8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="O9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="Q9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="O10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="Q10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="O11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="Q11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="O12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="Q12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="O13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="Q13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="O14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="Q14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="O15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="Q15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="O16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="Q16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="O17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="Q17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="O18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="Q18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="O19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="Q19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="O20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="Q20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="O21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="Q21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="O22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="Q22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="O23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="Q23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="O24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="Q24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="Q25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="O26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="Q26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="O27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="Q27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="O28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="Q28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="O9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="Q9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="O10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="Q10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="O11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="Q11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="O12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="Q12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="O13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="Q13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="O14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="Q14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="O15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="Q15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="O16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="Q16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="O17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="Q17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="O18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="Q18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="O19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="Q19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="O20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="Q20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="O21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="Q21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="O22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="Q22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="O23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="Q23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="O24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="Q24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="Q25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="O26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="Q26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="O27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="Q27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/comp armchair.xlsx
+++ b/make_xl/data_xl/comp armchair.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53ECE019-1501-4CF6-94CA-E95F58B7100C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FD6A48-CD79-4740-8CC2-5A917357A699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -166,43 +166,86 @@
     <t>MaxWeight</t>
   </si>
   <si>
+    <t>Компьютерное кресло</t>
+  </si>
+  <si>
+    <t>Кресло компьютерное</t>
+  </si>
+  <si>
     <t>Кресло офисное компьютерное</t>
   </si>
   <si>
+    <t xml:space="preserve">Офисное компьютерное кресло </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кресло офисное </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Компьютерные кресла </t>
+  </si>
+  <si>
+    <t>Офисное кресло</t>
+  </si>
+  <si>
+    <t>Кресло офисное</t>
+  </si>
+  <si>
+    <t>Кресло для руководителя</t>
+  </si>
+  <si>
     <t>Кресло руководителя</t>
   </si>
   <si>
-    <t>Кресло компьютерное</t>
+    <t>Кресло руководителя кожаное</t>
   </si>
   <si>
     <t>Компьютерное крелсо для руководителя</t>
   </si>
   <si>
-    <t>Компьютерное кресло</t>
-  </si>
-  <si>
-    <t>Кресло для руководителя</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кресло офисное </t>
-  </si>
-  <si>
-    <t>Офисное кресло</t>
-  </si>
-  <si>
-    <t>Кресло руководителя кожаное</t>
-  </si>
-  <si>
-    <t>Кресло офисное</t>
-  </si>
-  <si>
     <t>Офисное компьютерное кресло</t>
   </si>
   <si>
-    <t xml:space="preserve">Компьютерные кресла </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Офисное компьютерное кресло </t>
+    <t>Кресло с высокой спинкой (10371) 
+Материал обивки-кожзам.
+Есть режим качания "топган" и регулировка жесткости механизма. 
+Цвет коричневый - 12шт. Чёрный - 8. Белый - 8. Бежевый - 
+Цена: 5500 за 1 шт.
+В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе. Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+🔥 Система больших скидок действует при опте и в праздничные дни 
+✔ Самовывоз
+✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – 
+Офис комфорт Одинцово 
+➕ Наш телеграмм канал – office comfort es
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+-------------------------------------------------------------------
+Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Кресло компьютерное
+Артикул 10031
+Классическое, удобное офисное кресло со встроенным механизмом качания.
+Цвет чёрный
+Цена 7000
+Количество 10
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            ➕ Наш телеграмм канал – office comfort es
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
     <t>⚫️Кресло компьютерное
@@ -225,16 +268,41 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">
-🌟Кресло руководителя Unital D80
-Артикул 10443
-▫️Описание: Изысканный дизайн этого кабинета придаст вашему рабочему пространству неповторимый стиль и элегантность. Коллекция кресел «Чик» от мебельной Отечественной фабрики «Unital» объединяет в себе качество, удобство и доступность. Модели серии выполнены из высококачественных материалов, обеспечивая стойкость и комфорт.
-Кресло «Чик» обладает классической формой и удобством, идеально подходя для кабинета руководителя. Современный дизайн в сочетании с функциональностью делает его неотъемлемым элементом офисного пространства.
-Оснащенное итальянским механизмом качания и регулировкой по высоте, кресло обеспечивает максимальный комфорт при длительном использовании. Эргономичный дизайн и высокое качество материалов делают его незаменимым помощником в вашей рабочей обстановке.
-▫️Цвет белый
-Цена 10 500 руб
-Количество 2 шт 
+    <t xml:space="preserve">Офисное компьютерное кресло 
+Артикул 10301
+Офисное кресло с сетчатой эргономичной спинкой и механизмом качания.
+Цена 3 499
+Цвет чёрный и серый
+Количество 15
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    ➕ Наш телеграмм канал – office comfort es
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Артикул 10301
+Описание Офисное кресло с сетчатой эргономичной спинкой и механизмом качания.
+Цена 3999
+Цвет чёрный и серый, оранжевый
+Количество 15
+В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе. Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+🔥 Система больших скидок действует при опте и в праздничные дни 
+✔ Самовывоз
+✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
@@ -247,12 +315,78 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t>Акция - 35%
+Цена: 999 за шт. Вместо 1500
+Артикул 10302
+Описание ткань. 3 регулировки для спинки и одна на высоту сидения
+Цвет черный
+Наличие 10
+В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе. Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+🔥 Система больших скидок действует при опте и в праздничные дни 
+✔ Самовывоз
+✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – 
+Офис комфорт Одинцово 
+➕ Наш телеграмм канал – office comfort es
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+-------------------------------------------------------------------
+Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
     <t>🔴Артикул 10310
 Кресло из кожзаменителя — это стильное и практичное мебельное изделие, созданное для комфорта и эстетики. Кожзаменитель — это современный материал, имитирующий натуральную кожу, но при этом более устойчивый к истиранию, легче в уходе и доступный по цене.
 Такое кресло изготовлено из каркаса ,обтянутого кожзаменителем. Кресла представлены в коричневом,фуксии, черном, салатовом, синим ,белом цвете ,что позволяя выбрать оптимальный вариант под ваш интерьер.
 ▪️Такое кресло станет уютным акцентом в вашем интерьере, обеспечивая отличное место для отдыха и расслабления.
 ▪️Цена 3100.
 Количество уточняйтеДля того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+🔥 Система больших скидок действует при опте и в праздничные дни 
+✔ Самовывоз
+✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – 
+Офис комфорт Одинцово 
+➕ Наш телеграмм канал – office comfort es
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+-------------------------------------------------------------------
+Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Компьютерные кресла 
+Артикул 10316
+Офисное кресло в черном кожзаме. Прочная конструкция и усиленные элементы обеспечивают долговечность и устойчивость, делая кресло идеальным для длительного использования. Кресло оснащено механизмом качания для комфортного отдыха, а также регулируемыми подлокотниками, которые можно настроить для оптимальной поддержки рук.
+Цвет черный
+Цена 3 499 - ножки пластик, 
+4 499 - хром + регулировка подлокотников
+Количество
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            ➕ Наш телеграмм канал – office comfort es
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Кресло офисное
+Артикул 10316
+Описание кож зам, кресло с откидной спинкой 
+Цена 3500. Наличие уточняйте
+В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе. Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
 🔥 Система больших скидок действует при опте и в праздничные дни 
 ✔ Самовывоз
 ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
@@ -291,98 +425,13 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Кресло компьютерное Haworth Comforto 5581
-Артикул 10480
-Описание   Добро пожаловать в мир роскоши и комфорта с креслом высшего качества Haworth Comforto 5581, изготовленным в Германии!  Кресло заслуженно занимает место среди лучших в своем классе. Произведенное по самым передовым технологиям, оно гарантирует ваше полное удобство и расслабление во время работы. Каждая деталь тщательно продумана для вашего максимального комфорта и эффективности.
-  Механизм фиксации угла наклона, регулировка высоты подлокотников, регулировка спинки по высоте - все эти функции созданы для того, чтобы кресло подстраивалось под ваши индивидуальные потребности и предпочтения. Хромированное основание добавляет изысканности и стиля, делая это кресло неотъемлемой частью вашего офиса или домашнего интерьера.
-Цена 10 000
-Количество ткань - 3 шт., кожа - 1 шт.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Офисное кресло для руководителя
-Артикул 10494
-Производитель: Narbutas
-Модель: Aura
-Описание: Офисное компьютерное кресло руководителя AURA отличается нестареющим современным дизайном, поэтому подойдёт для любого стиля в интерьере. База кресла – из полированного алюминия или чёрного пластика. 
-Регулировка спинки по высоте.
-Регулировка глубины сиденья.
-Синхронный механизм с безопасной функцией возврата в исходное положение, фиксирует сиденье в 5 положениях.
-3D подлокотники из черного пластика. Верхняя часть подлокотников покрыта мягкими черными полиуретановыми накладками. Подлокотники регулируются по высоте и ширине
-Количество кожзам - 3 шт.(10 000 руб. ), 
-ткань - 2 шт. (8 000 руб.)
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Компьютерное кресло
-Артикул 10501
-Описание 🌟 Представляем вам офисное компьютерное кресло "Бюрократ" - идеальное сочетание комфорта, стиля и доступной цены!
-💼 Наше кресло "Бюрократ" не только выглядит элегантно, но и обеспечивает непревзойденный комфорт в течение всего вашего рабочего дня.
-🪑 С регулировками подлокотников, подголовника и механизмом качания вы сможете легко настроить кресло по вашим предпочтениям, создавая оптимальные условия для работы и отдыха.
-💰 Несмотря на свои высокие характеристики, наше кресло "Бюрократ" доступно по невероятно низкой цене, что делает его идеальным выбором для тех, кто ценит качество и экономичность.
-Цена 7000
-Количество рыжих - 2
-В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе. Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Кресло компьютерное
-Артикул 10497
-Описание: Офисное кресло Eva.II от литовского производителя мебели Narbutas. В модели установлена удобная система регулирования, которая приспосабливается к вашим потребностям, а спинка, покрытая воздухопроницаемой сеткой, обеспечивает удобную опору для спины.
-В офисном кресле также интегрирован синхронный механизм с безопасной функцией возврата в исходное положение фиксирует сиденье в 5 положениях.
-Кресло идет с регулируемыми по высоте и наклону подлокотниками 
-Цена: 10 000 р.
-Количество: 4 шт.
-В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе. Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Акция - 35%
-Цена: 999 за шт. Вместо 1500
-Артикул 10302
-Описание ткань. 3 регулировки для спинки и одна на высоту сидения
-Цвет черный
-Наличие 10
+    <t>Акция - 35% 
+Цена: 1500 за шт. Вместо 2300
+Артикул 10336
+Материал: кожзам
+Размер: сидушка - 47х44
+Высота - 37х52
+Количество и цвет  уточняйте.
 В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе. Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
 🔥 Система больших скидок действует при опте и в праздничные дни 
@@ -421,144 +470,11 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Артикул 10301
-Описание Офисное кресло с сетчатой эргономичной спинкой и механизмом качания.
-Цена 3999
-Цвет чёрный и серый, оранжевый
-Количество 15
-В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе. Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-🔥 Система больших скидок действует при опте и в праздничные дни 
-✔ Самовывоз
-✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Универсальное компьютерное кресло
-Артикул 10438
-Описание механизм качания-
-синхро-механизм: спинка и сиденье постоянно следуют за движениями тела, сила противодействия спинки регулируется в зависимости от веса сидящего(50-110)
-механизмы регулировки:
-регулировка поясничной области; регулировка глубины сидения; регулировка высоты спинки, регулировка жесткости пружины под вес сидящего. 
-Регулировки высоты и угол поворота ручек. 
-производитель: Prosedia (Германия) 
-Цена 24999
-Цвет черное
-Наличие 1   
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
     <t>Кресло компьютерное
 Артикул 10371
 Описание: Комфортное кожаное кресло с механизмом качания
 Цвет чёрный
 Цена 5500-6000
-В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе. Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-🔥 Система больших скидок действует при опте и в праздничные дни 
-✔ Самовывоз
-✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Артикул 10424 Кресло по скидке
-Описание Кожаное кресло руководителя, рассчитано на большой вес. Оснащено режимом качания со стопором 
-Цена 10000 -20%=8000
-Цвет бордо
-Наличие 2
-В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе. Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-🔥 Система больших скидок действует при опте и в праздничные дни 
-✔ Самовывоз
-✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Кресло офисное
-Артикул 10316
-Описание кож зам, кресло с откидной спинкой 
-Цена 3500. Наличие уточняйте
-В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе. Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-🔥 Система больших скидок действует при опте и в праздничные дни 
-✔ Самовывоз
-✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Кресло руководителя кожаное
-Артикул 10460
-Описание Современное кожаное кресло с эргономичной высокой спинкой. Имеет механизм зачания с фиксацией в верхнем положении. 
-Цена 7999
-Количество 3
-В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе. Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-🔥 Система больших скидок действует при опте и в праздничные дни 
-✔ Самовывоз
-✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Кресло с высокой спинкой (10371) 
-Материал обивки-кожзам.
-Есть режим качания "топган" и регулировка жесткости механизма. 
-Цвет коричневый - 12шт. Чёрный - 8. Белый - 8. Бежевый - 
-Цена: 5500 за 1 шт.
 В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе. Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
 🔥 Система больших скидок действует при опте и в праздничные дни 
@@ -605,18 +521,170 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Акция - 35% 
-Цена: 1500 за шт. Вместо 2300
-Артикул 10336
-Материал: кожзам
-Размер: сидушка - 47х44
-Высота - 37х52
-Количество и цвет  уточняйте.
+    <t>Артикул 10424 Кресло по скидке
+Описание Кожаное кресло руководителя, рассчитано на большой вес. Оснащено режимом качания со стопором 
+Цена 10000 -20%=8000
+Цвет бордо
+Наличие 2
 В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе. Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
 🔥 Система больших скидок действует при опте и в праздничные дни 
 ✔ Самовывоз
 ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – 
+Офис комфорт Одинцово 
+➕ Наш телеграмм канал – office comfort es
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+-------------------------------------------------------------------
+Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Универсальное компьютерное кресло
+Артикул 10438
+Описание механизм качания-
+синхро-механизм: спинка и сиденье постоянно следуют за движениями тела, сила противодействия спинки регулируется в зависимости от веса сидящего(50-110)
+механизмы регулировки:
+регулировка поясничной области; регулировка глубины сидения; регулировка высоты спинки, регулировка жесткости пружины под вес сидящего. 
+Регулировки высоты и угол поворота ручек. 
+производитель: Prosedia (Германия) 
+Цена 24999
+Цвет черное
+Наличие 1   
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – 
+Офис комфорт Одинцово 
+➕ Наш телеграмм канал – office comfort es
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+-------------------------------------------------------------------
+Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+🌟Кресло руководителя Unital D80
+Артикул 10443
+▫️Описание: Изысканный дизайн этого кабинета придаст вашему рабочему пространству неповторимый стиль и элегантность. Коллекция кресел «Чик» от мебельной Отечественной фабрики «Unital» объединяет в себе качество, удобство и доступность. Модели серии выполнены из высококачественных материалов, обеспечивая стойкость и комфорт.
+Кресло «Чик» обладает классической формой и удобством, идеально подходя для кабинета руководителя. Современный дизайн в сочетании с функциональностью делает его неотъемлемым элементом офисного пространства.
+Оснащенное итальянским механизмом качания и регулировкой по высоте, кресло обеспечивает максимальный комфорт при длительном использовании. Эргономичный дизайн и высокое качество материалов делают его незаменимым помощником в вашей рабочей обстановке.
+▫️Цвет белый
+Цена 10 500 руб
+Количество 2 шт 
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – 
+Офис комфорт Одинцово 
+➕ Наш телеграмм канал – office comfort es
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+-------------------------------------------------------------------
+Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Кресло руководителя кожаное
+Артикул 10460
+Описание Современное кожаное кресло с эргономичной высокой спинкой. Имеет механизм зачания с фиксацией в верхнем положении. 
+Цена 7999
+Количество 3
+В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе. Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+🔥 Система больших скидок действует при опте и в праздничные дни 
+✔ Самовывоз
+✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – 
+Офис комфорт Одинцово 
+➕ Наш телеграмм канал – office comfort es
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+-------------------------------------------------------------------
+Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Кресло компьютерное Haworth Comforto 5581
+Артикул 10480
+Описание   Добро пожаловать в мир роскоши и комфорта с креслом высшего качества Haworth Comforto 5581, изготовленным в Германии!  Кресло заслуженно занимает место среди лучших в своем классе. Произведенное по самым передовым технологиям, оно гарантирует ваше полное удобство и расслабление во время работы. Каждая деталь тщательно продумана для вашего максимального комфорта и эффективности.
+  Механизм фиксации угла наклона, регулировка высоты подлокотников, регулировка спинки по высоте - все эти функции созданы для того, чтобы кресло подстраивалось под ваши индивидуальные потребности и предпочтения. Хромированное основание добавляет изысканности и стиля, делая это кресло неотъемлемой частью вашего офиса или домашнего интерьера.
+Цена 10 000
+Количество ткань - 3 шт., кожа - 1 шт.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – 
+Офис комфорт Одинцово 
+➕ Наш телеграмм канал – office comfort es
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+-------------------------------------------------------------------
+Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Офисное кресло для руководителя
+Артикул 10494
+Производитель: Narbutas
+Модель: Aura
+Описание: Офисное компьютерное кресло руководителя AURA отличается нестареющим современным дизайном, поэтому подойдёт для любого стиля в интерьере. База кресла – из полированного алюминия или чёрного пластика. 
+Регулировка спинки по высоте.
+Регулировка глубины сиденья.
+Синхронный механизм с безопасной функцией возврата в исходное положение, фиксирует сиденье в 5 положениях.
+3D подлокотники из черного пластика. Верхняя часть подлокотников покрыта мягкими черными полиуретановыми накладками. Подлокотники регулируются по высоте и ширине
+Количество кожзам - 3 шт.(10 000 руб. ), 
+ткань - 2 шт. (8 000 руб.)
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – 
+Офис комфорт Одинцово 
+➕ Наш телеграмм канал – office comfort es
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+-------------------------------------------------------------------
+Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Кресло компьютерное
+Артикул 10497
+Описание: Офисное кресло Eva.II от литовского производителя мебели Narbutas. В модели установлена удобная система регулирования, которая приспосабливается к вашим потребностям, а спинка, покрытая воздухопроницаемой сеткой, обеспечивает удобную опору для спины.
+В офисном кресле также интегрирован синхронный механизм с безопасной функцией возврата в исходное положение фиксирует сиденье в 5 положениях.
+Кресло идет с регулируемыми по высоте и наклону подлокотниками 
+Цена: 10 000 р.
+Количество: 4 шт.
+В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе. Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – 
+Офис комфорт Одинцово 
+➕ Наш телеграмм канал – office comfort es
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+-------------------------------------------------------------------
+Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Компьютерное кресло
+Артикул 10501
+Описание 🌟 Представляем вам офисное компьютерное кресло "Бюрократ" - идеальное сочетание комфорта, стиля и доступной цены!
+💼 Наше кресло "Бюрократ" не только выглядит элегантно, но и обеспечивает непревзойденный комфорт в течение всего вашего рабочего дня.
+🪑 С регулировками подлокотников, подголовника и механизмом качания вы сможете легко настроить кресло по вашим предпочтениям, создавая оптимальные условия для работы и отдыха.
+💰 Несмотря на свои высокие характеристики, наше кресло "Бюрократ" доступно по невероятно низкой цене, что делает его идеальным выбором для тех, кто ценит качество и экономичность.
+Цена 7000
+Количество рыжих - 2
+В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе. Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
@@ -683,74 +751,6 @@
 Цена 7 999
 Цвет Серый
 Количество 89 (уточняйте)
-    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
-    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Компьютерные кресла 
-Артикул 10316
-Офисное кресло в черном кожзаме. Прочная конструкция и усиленные элементы обеспечивают долговечность и устойчивость, делая кресло идеальным для длительного использования. Кресло оснащено механизмом качания для комфортного отдыха, а также регулируемыми подлокотниками, которые можно настроить для оптимальной поддержки рук.
-Цвет черный
-Цена 3 499 - ножки пластик, 
-4 499 - хром + регулировка подлокотников
-Количество
-    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
-    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Офисное компьютерное кресло 
-Артикул 10301
-Офисное кресло с сетчатой эргономичной спинкой и механизмом качания.
-Цена 3 499
-Цвет чёрный и серый
-Количество 15
-    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
-    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    ➕ Наш телеграмм канал – office comfort es
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
-  </si>
-  <si>
-    <t>Кресло компьютерное
-Артикул 10031
-Классическое, удобное офисное кресло со встроенным механизмом качания.
-Цвет чёрный
-Цена 7000
-Количество 10
     В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
     Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
@@ -793,16 +793,55 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/ZDiUdOWTq7XF1g | https://disk.yandex.ru/i/a_u5CWPrYhAoIA | https://disk.yandex.ru/i/2U4SaFSBylFuSg | https://disk.yandex.ru/i/5xCnmpLS2Ky7dQ | https://disk.yandex.ru/i/ugTACqRM4oAMBA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/hn1Mq4SXwe7K7g | https://disk.yandex.ru/i/MhkZ8V0u8Ysknw | https://disk.yandex.ru/i/XrhrNqnBh_Lycw | https://disk.yandex.ru/i/drRJxcGtI8ZbaQ | https://disk.yandex.ru/i/mOokmtTS8dXEIQ | https://disk.yandex.ru/i/NpsbCxEgQJAhyA</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/P7ExkFddqrrs6w | https://disk.yandex.ru/i/qZN1u2V5jAbM3A | https://disk.yandex.ru/i/y3WULywFcXZISA | https://disk.yandex.ru/i/LfQsmS4Rx7v80A | https://disk.yandex.ru/i/4jh9S-zR9kitXw</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/JYTNC-cJaLke2A | https://disk.yandex.ru/i/rGYumyHN6mKNnQ | https://disk.yandex.ru/i/pfMCl_a6RPkP3w | https://disk.yandex.ru/i/kPeSa_lgiEOQUA | https://disk.yandex.ru/i/C5aAZe9IHsWIug</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/shfo7R7mKSKbhQ | https://disk.yandex.ru/i/LWyGm25mTx8jIg | https://disk.yandex.ru/i/WSBKnyMgtlS9Zg | https://disk.yandex.ru/i/68Ahh1UZzb8jfQ | https://disk.yandex.ru/i/HEpXP8ZkYzwXpQ | https://disk.yandex.ru/i/kkjM3SjhpgHV0Q | https://disk.yandex.ru/i/jcHByI7crv-k5Q</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/F_hs2nJX2EvKwA | https://disk.yandex.ru/i/pFJO9_bofMNYcA | https://disk.yandex.ru/i/AV6AkI1kQDbm0w | https://disk.yandex.ru/i/7M7FPMzqnvffuQ | https://disk.yandex.ru/i/QRuT6vW-ThuAhA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/mT6xCej03PZkbw | https://disk.yandex.ru/i/C1CXXG7AhN9MVw | https://disk.yandex.ru/i/-C_mHYIHf9w00A | https://disk.yandex.ru/i/lCo9Ms9sBZrlew | https://disk.yandex.ru/i/IQ-HQKRAtysveg | https://disk.yandex.ru/i/qnod5TNmvdAWbQ | https://disk.yandex.ru/i/O_qsCx2-WGv4BQ | https://disk.yandex.ru/i/ytr_7m4JII5tYA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/FyE0JM2r7QSzqg | https://disk.yandex.ru/i/d04R4Xh6CB_9zw | https://disk.yandex.ru/i/zUIjJdn2EXUDaQ | https://disk.yandex.ru/i/s9UosE9ObcKmMQ | https://disk.yandex.ru/i/jatfU3iOnP3DsQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/_WI5Haq2tjovYg | https://disk.yandex.ru/i/nVI3_KvCSRao_w | https://disk.yandex.ru/i/r8bJNKX2hD47VA | https://disk.yandex.ru/i/JQ7Z1_xFjqXmYw | https://disk.yandex.ru/i/PO_0nDCmo0ofhQ | https://disk.yandex.ru/i/zNj20sYMUq56Fg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/Uza66xYp4_55Aw | https://disk.yandex.ru/i/WIkqonRCoB53Rg | https://disk.yandex.ru/i/g1VALz9m5C7Ihw | https://disk.yandex.ru/i/3cuAucSUba3xXg | https://disk.yandex.ru/i/Ne4_fNP4h75cTg | https://disk.yandex.ru/i/yLirZL9nUb1k5Q | https://disk.yandex.ru/i/Hhw11rTSUwxQXg | https://disk.yandex.ru/i/AjE-icsY3bYKqw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/excqQqnbHjQhig | https://disk.yandex.ru/i/T_P2ouP-iaJdhQ | https://disk.yandex.ru/i/3VLSAyJ4EUAfuQ | https://disk.yandex.ru/i/0VniA88a5VJ3_w | https://disk.yandex.ru/i/T4TEtc37cr4gFA | https://disk.yandex.ru/i/3TgHzBbUbV0nqw | https://disk.yandex.ru/i/khoHwRaUnOJvAw | https://disk.yandex.ru/i/jjQTVdLrDQ2ctA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/6PcDFrhEIIaB3g | https://disk.yandex.ru/i/g-QxHhQ_DBG48g | https://disk.yandex.ru/i/IHnaTfPrW-SVvg | https://disk.yandex.ru/i/nBUA7xmLM2nq6Q | https://disk.yandex.ru/i/m6vQ2EGLPoB9ng | https://disk.yandex.ru/i/LOMDdiD4a6Knmw | https://disk.yandex.ru/i/NyvusgMaMxqrmA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/MuSfrFDjjfWffQ | https://disk.yandex.ru/i/8dzylBNas9E1Rw | https://disk.yandex.ru/i/S_v_7uTKYHkK9g | https://disk.yandex.ru/i/bJzTcRvQdzSlkg | https://disk.yandex.ru/i/0y3D6Kwz3psDBA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/eetMWhyxbe7CTQ | https://disk.yandex.ru/i/LAirnTMsDD2CYA | https://disk.yandex.ru/i/0H5PG8QDN0jusQ | https://disk.yandex.ru/i/6_S_dvAHP4jgKQ | https://disk.yandex.ru/i/Hb1FTiwavilN_Q</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/jkYYSe82okvj0A | https://disk.yandex.ru/i/wLbLJdEgqXWBYg | https://disk.yandex.ru/i/D02_2s0YgIRSkw | https://disk.yandex.ru/i/bs9U0qsDTuEG_g | https://disk.yandex.ru/i/lfe9Lp8Wt9-X4A | https://disk.yandex.ru/i/954u_1fECGm2ew</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/apZ0lVsVBKadWA | https://disk.yandex.ru/i/7s1R6DPjhCvXbg | https://disk.yandex.ru/i/Y7CG333ZN0H3BA | https://disk.yandex.ru/i/VgbEbBMc391D3g | https://disk.yandex.ru/i/Pf8cAnkmv7zKIQ | https://disk.yandex.ru/i/_57RFliG2XGVSg | https://disk.yandex.ru/i/mk3gG2sMhQ6Qvg | https://disk.yandex.ru/i/272RfDVgnoGE7A</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/F_hs2nJX2EvKwA | https://disk.yandex.ru/i/pFJO9_bofMNYcA | https://disk.yandex.ru/i/AV6AkI1kQDbm0w | https://disk.yandex.ru/i/7M7FPMzqnvffuQ | https://disk.yandex.ru/i/QRuT6vW-ThuAhA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/_WI5Haq2tjovYg | https://disk.yandex.ru/i/nVI3_KvCSRao_w | https://disk.yandex.ru/i/r8bJNKX2hD47VA | https://disk.yandex.ru/i/JQ7Z1_xFjqXmYw | https://disk.yandex.ru/i/PO_0nDCmo0ofhQ | https://disk.yandex.ru/i/zNj20sYMUq56Fg</t>
+    <t>https://disk.yandex.ru/i/Kar_m1oEtRVT2Q | https://disk.yandex.ru/i/evQVF4X3NU3cSg | https://disk.yandex.ru/i/V0vd0BtVpYai5Q | https://disk.yandex.ru/i/CAb7AkQamKCSzg | https://disk.yandex.ru/i/6xyDIgrM0E5YAg | https://disk.yandex.ru/i/kGoGsBrb7XXkUg | https://disk.yandex.ru/i/IcBRJ_yTr8kw6A</t>
   </si>
   <si>
     <t>https://disk.yandex.ru/i/GByEF9X6EjFxQA | https://disk.yandex.ru/i/OQ5UQ_L633k6zA | https://disk.yandex.ru/i/BrBHACRAQ5Av7w | https://disk.yandex.ru/i/d__zj3ccvxzbag | https://disk.yandex.ru/i/gCvCMH5H4bhoQw | https://disk.yandex.ru/i/QmpPSktWRdkPGQ | https://disk.yandex.ru/i/tAn3q8UKUBF6jQ | https://disk.yandex.ru/i/XSUkyFS4pXoM4A | https://disk.yandex.ru/i/YuZLU3HLTGQ3eg | https://disk.yandex.ru/i/Z4-8d6HY8CjVEw</t>
@@ -811,45 +850,12 @@
     <t>https://disk.yandex.ru/i/tUeN4X8O8C7MyA | https://disk.yandex.ru/i/HkmXA7SX5cJ2WQ | https://disk.yandex.ru/i/w05zi5_7sxA0wA | https://disk.yandex.ru/i/yR2ezuN1RFfIrQ | https://disk.yandex.ru/i/QGnZrUVeQbogVw | https://disk.yandex.ru/i/tEjiBZ1_1UWMrQ | https://disk.yandex.ru/i/zscFVsGhl71wig | https://disk.yandex.ru/i/YC8mo2kUI2Evig | https://disk.yandex.ru/i/hXJwZuOXFqDCCA | https://disk.yandex.ru/i/_fS0O48zcfmCoQ</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/N8zwILGOvVHhPA | https://disk.yandex.ru/i/eB1dCJ63JiQeyA | https://disk.yandex.ru/i/9vUCFwYBlwSIxw | https://disk.yandex.ru/i/wqFIVCX8pKAZCQ | https://disk.yandex.ru/i/qdk3sV1cnYBhdA | https://disk.yandex.ru/i/mh9XpWx7PquEiw | https://disk.yandex.ru/i/6B-GYz1xMqapFg | https://disk.yandex.ru/i/hErgpYG0kNvsOQ</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/Jk9Pmi3YibEXMA | https://disk.yandex.ru/i/LdOe9M566G7ZJQ | https://disk.yandex.ru/i/vqVznBPIIjidjQ | https://disk.yandex.ru/i/5Vt7aJveU7z2Yw | https://disk.yandex.ru/i/mgECRp-CJBT5ng | https://disk.yandex.ru/i/t2mWPOzGkovfAQ | https://disk.yandex.ru/i/ygqmLhJzxqVxPA | https://disk.yandex.ru/i/QWTTK-NlTTr58w</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/N8zwILGOvVHhPA | https://disk.yandex.ru/i/eB1dCJ63JiQeyA | https://disk.yandex.ru/i/9vUCFwYBlwSIxw | https://disk.yandex.ru/i/wqFIVCX8pKAZCQ | https://disk.yandex.ru/i/qdk3sV1cnYBhdA | https://disk.yandex.ru/i/mh9XpWx7PquEiw | https://disk.yandex.ru/i/6B-GYz1xMqapFg | https://disk.yandex.ru/i/hErgpYG0kNvsOQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/shfo7R7mKSKbhQ | https://disk.yandex.ru/i/LWyGm25mTx8jIg | https://disk.yandex.ru/i/WSBKnyMgtlS9Zg | https://disk.yandex.ru/i/68Ahh1UZzb8jfQ | https://disk.yandex.ru/i/HEpXP8ZkYzwXpQ | https://disk.yandex.ru/i/kkjM3SjhpgHV0Q | https://disk.yandex.ru/i/jcHByI7crv-k5Q</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/excqQqnbHjQhig | https://disk.yandex.ru/i/T_P2ouP-iaJdhQ | https://disk.yandex.ru/i/3VLSAyJ4EUAfuQ | https://disk.yandex.ru/i/0VniA88a5VJ3_w | https://disk.yandex.ru/i/T4TEtc37cr4gFA | https://disk.yandex.ru/i/3TgHzBbUbV0nqw | https://disk.yandex.ru/i/khoHwRaUnOJvAw | https://disk.yandex.ru/i/jjQTVdLrDQ2ctA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/JYTNC-cJaLke2A | https://disk.yandex.ru/i/rGYumyHN6mKNnQ | https://disk.yandex.ru/i/pfMCl_a6RPkP3w | https://disk.yandex.ru/i/kPeSa_lgiEOQUA | https://disk.yandex.ru/i/C5aAZe9IHsWIug</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/jkYYSe82okvj0A | https://disk.yandex.ru/i/wLbLJdEgqXWBYg | https://disk.yandex.ru/i/D02_2s0YgIRSkw | https://disk.yandex.ru/i/bs9U0qsDTuEG_g | https://disk.yandex.ru/i/lfe9Lp8Wt9-X4A | https://disk.yandex.ru/i/954u_1fECGm2ew</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/6PcDFrhEIIaB3g | https://disk.yandex.ru/i/g-QxHhQ_DBG48g | https://disk.yandex.ru/i/IHnaTfPrW-SVvg | https://disk.yandex.ru/i/nBUA7xmLM2nq6Q | https://disk.yandex.ru/i/m6vQ2EGLPoB9ng | https://disk.yandex.ru/i/LOMDdiD4a6Knmw | https://disk.yandex.ru/i/NyvusgMaMxqrmA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/eetMWhyxbe7CTQ | https://disk.yandex.ru/i/LAirnTMsDD2CYA | https://disk.yandex.ru/i/0H5PG8QDN0jusQ | https://disk.yandex.ru/i/6_S_dvAHP4jgKQ | https://disk.yandex.ru/i/Hb1FTiwavilN_Q</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/FyE0JM2r7QSzqg | https://disk.yandex.ru/i/d04R4Xh6CB_9zw | https://disk.yandex.ru/i/zUIjJdn2EXUDaQ | https://disk.yandex.ru/i/s9UosE9ObcKmMQ | https://disk.yandex.ru/i/jatfU3iOnP3DsQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/Kar_m1oEtRVT2Q | https://disk.yandex.ru/i/evQVF4X3NU3cSg | https://disk.yandex.ru/i/V0vd0BtVpYai5Q | https://disk.yandex.ru/i/CAb7AkQamKCSzg | https://disk.yandex.ru/i/6xyDIgrM0E5YAg | https://disk.yandex.ru/i/kGoGsBrb7XXkUg | https://disk.yandex.ru/i/IcBRJ_yTr8kw6A</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/ZDiUdOWTq7XF1g | https://disk.yandex.ru/i/a_u5CWPrYhAoIA | https://disk.yandex.ru/i/2U4SaFSBylFuSg | https://disk.yandex.ru/i/5xCnmpLS2Ky7dQ | https://disk.yandex.ru/i/ugTACqRM4oAMBA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/MuSfrFDjjfWffQ | https://disk.yandex.ru/i/8dzylBNas9E1Rw | https://disk.yandex.ru/i/S_v_7uTKYHkK9g | https://disk.yandex.ru/i/bJzTcRvQdzSlkg | https://disk.yandex.ru/i/0y3D6Kwz3psDBA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/Uza66xYp4_55Aw | https://disk.yandex.ru/i/WIkqonRCoB53Rg | https://disk.yandex.ru/i/g1VALz9m5C7Ihw | https://disk.yandex.ru/i/3cuAucSUba3xXg | https://disk.yandex.ru/i/Ne4_fNP4h75cTg | https://disk.yandex.ru/i/yLirZL9nUb1k5Q | https://disk.yandex.ru/i/Hhw11rTSUwxQXg | https://disk.yandex.ru/i/AjE-icsY3bYKqw</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/6eXEGq2gtAIg0A | https://disk.yandex.ru/i/-YivLak783RYOg | https://disk.yandex.ru/i/YxmQTm9FtOKlUQ | https://disk.yandex.ru/i/H2Vd5PvsBEr41A | https://disk.yandex.ru/i/CnnXdhxj0g5-ww | https://disk.yandex.ru/i/INO4Tb_dlvIEQg | https://disk.yandex.ru/i/MV98uMdBlszb8w | https://disk.yandex.ru/i/lc_Z3tk8PuM_2A | https://disk.yandex.ru/i/pDmeJ70ZRRpR0Q</t>
   </si>
   <si>
@@ -859,12 +865,6 @@
     <t>https://disk.yandex.ru/i/TqK0FuUIq66acA | https://disk.yandex.ru/i/VILDcrwkAFLEBg | https://disk.yandex.ru/i/qZtGak6h82HfBA | https://disk.yandex.ru/i/3K68SCX-JOYsSg | https://disk.yandex.ru/i/QLhoKzECizTGHg | https://disk.yandex.ru/i/NtT5TYQ6N88MKA | https://disk.yandex.ru/i/wbvoLiE2kxK8HA | https://disk.yandex.ru/i/7OAY6ktLqT-iYw | https://disk.yandex.ru/i/TIzTjE-z0_tRew</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/mT6xCej03PZkbw | https://disk.yandex.ru/i/C1CXXG7AhN9MVw | https://disk.yandex.ru/i/-C_mHYIHf9w00A | https://disk.yandex.ru/i/lCo9Ms9sBZrlew | https://disk.yandex.ru/i/IQ-HQKRAtysveg | https://disk.yandex.ru/i/qnod5TNmvdAWbQ | https://disk.yandex.ru/i/O_qsCx2-WGv4BQ | https://disk.yandex.ru/i/ytr_7m4JII5tYA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/hn1Mq4SXwe7K7g | https://disk.yandex.ru/i/MhkZ8V0u8Ysknw | https://disk.yandex.ru/i/XrhrNqnBh_Lycw | https://disk.yandex.ru/i/drRJxcGtI8ZbaQ | https://disk.yandex.ru/i/mOokmtTS8dXEIQ | https://disk.yandex.ru/i/NpsbCxEgQJAhyA</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/UiSbbITJzTBOqw | https://disk.yandex.ru/i/BSwbfy6jE64Kpw | https://disk.yandex.ru/i/ut-HyMgP6ytXEA | https://disk.yandex.ru/i/P3f-5y7REJLEdg | https://disk.yandex.ru/i/E9s-9RthI59j8A | https://disk.yandex.ru/i/dKX_to5o7-PsSw | https://disk.yandex.ru/i/Rv74BQHjuHKSMg | https://disk.yandex.ru/i/JQfnVykq74XMLw | https://disk.yandex.ru/i/AFuhZxtmexdrmQ</t>
   </si>
   <si>
@@ -889,30 +889,30 @@
     <t>В наличии</t>
   </si>
   <si>
+    <t>Другой</t>
+  </si>
+  <si>
     <t>Чёрный</t>
   </si>
   <si>
+    <t>Разноцветный</t>
+  </si>
+  <si>
+    <t>Бордовый</t>
+  </si>
+  <si>
+    <t>Серый</t>
+  </si>
+  <si>
     <t>Белый</t>
   </si>
   <si>
-    <t>Разноцветный</t>
-  </si>
-  <si>
     <t>Оранжевый</t>
   </si>
   <si>
     <t>Коричневый</t>
   </si>
   <si>
-    <t>Серый</t>
-  </si>
-  <si>
-    <t>Бордовый</t>
-  </si>
-  <si>
-    <t>Другой</t>
-  </si>
-  <si>
     <t>Фиолетовый</t>
   </si>
   <si>
@@ -922,61 +922,61 @@
     <t>Компьютерные кресла</t>
   </si>
   <si>
+    <t>Подлокотники | Механизм качания | Регулировка высоты</t>
+  </si>
+  <si>
+    <t>Подлокотники | Подголовник | Механизм качания | Регулировка высоты | Поясничный упор</t>
+  </si>
+  <si>
     <t>Подлокотники | Регулировка высоты</t>
   </si>
   <si>
+    <t>Подлокотники | Механизм качания | Регулировка высоты | Поясничный упор</t>
+  </si>
+  <si>
+    <t>Подлокотники | Регулировка наклона спинки | Регулировка высоты | Регулировка подлокотников</t>
+  </si>
+  <si>
+    <t>Подлокотники |Механизм качания | Регулировка высоты | Регулировка наклона спинки</t>
+  </si>
+  <si>
+    <t>Подлокотники | Механизм качания | Регулировка наклона спинки | Регулировка высоты | Регулировка подлокотников | Регулировка глубины сиденья | Поясничный упор</t>
+  </si>
+  <si>
+    <t>Подлокотники | Механизм качания | Регулировка высоты | Регулировка глубины сиденья | Поясничный упор</t>
+  </si>
+  <si>
     <t>Подлокотники | Поясничный упор | Механизм качания | Регулировка высоты</t>
   </si>
   <si>
-    <t>Подлокотники |Механизм качания | Регулировка высоты | Регулировка наклона спинки</t>
-  </si>
-  <si>
     <t>Подлокотники |Механизм качания | Регулировка высоты | Регулировка наклона спинки |Регулировка подлокотников | Регулировка глубины сиденья</t>
   </si>
   <si>
     <t>Подлокотники |Подголовник | Механизм качания | Регулировка высоты |Регулировка подлокотников | Регулировка глубины сиденья</t>
   </si>
   <si>
+    <t>Подлокотники | Механизм качания | Регулировка высоты | Регулировка подлокотников</t>
+  </si>
+  <si>
     <t>Подлокотники | Подголовник | Механизм качания | Регулировка высоты | Регулировка подлокотников</t>
   </si>
   <si>
-    <t>Подлокотники | Механизм качания | Регулировка высоты | Регулировка подлокотников</t>
-  </si>
-  <si>
-    <t>Подлокотники | Механизм качания | Регулировка высоты</t>
-  </si>
-  <si>
-    <t>Подлокотники | Механизм качания | Регулировка высоты | Поясничный упор</t>
-  </si>
-  <si>
-    <t>Подлокотники | Механизм качания | Регулировка наклона спинки | Регулировка высоты | Регулировка подлокотников | Регулировка глубины сиденья | Поясничный упор</t>
-  </si>
-  <si>
-    <t>Подлокотники | Механизм качания | Регулировка высоты | Регулировка глубины сиденья | Поясничный упор</t>
-  </si>
-  <si>
-    <t>Подлокотники | Регулировка наклона спинки | Регулировка высоты | Регулировка подлокотников</t>
-  </si>
-  <si>
     <t>Подлокотники | Механизм качания | Регулировка наклона спинки | Регулировка высоты | Регулировка подлокотников | Поясничный упор</t>
   </si>
   <si>
-    <t>Подлокотники | Подголовник | Механизм качания | Регулировка высоты | Поясничный упор</t>
+    <t>Замша</t>
   </si>
   <si>
     <t>Сетка</t>
   </si>
   <si>
+    <t>Ткань</t>
+  </si>
+  <si>
     <t>Кожа</t>
   </si>
   <si>
-    <t>Замша</t>
-  </si>
-  <si>
     <t>Ткань | Кожа</t>
-  </si>
-  <si>
-    <t>Ткань</t>
   </si>
   <si>
     <t>Компьютерное</t>
@@ -1077,9 +1077,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1117,9 +1117,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1152,9 +1152,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1187,9 +1204,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1365,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1519,7 +1553,7 @@
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>10301</v>
+        <v>1</v>
       </c>
       <c r="L2" t="s">
         <v>48</v>
@@ -1528,7 +1562,7 @@
         <v>61</v>
       </c>
       <c r="N2">
-        <v>2999</v>
+        <v>5499</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>87</v>
@@ -1561,13 +1595,13 @@
         <v>129</v>
       </c>
       <c r="AN2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AO2">
         <v>48</v>
       </c>
       <c r="AP2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AQ2" t="s">
         <v>130</v>
@@ -1585,12 +1619,12 @@
         <v>30</v>
       </c>
       <c r="AV2">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>10443</v>
+        <v>10031</v>
       </c>
       <c r="L3" t="s">
         <v>49</v>
@@ -1599,7 +1633,7 @@
         <v>62</v>
       </c>
       <c r="N3">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>88</v>
@@ -1614,7 +1648,7 @@
         <v>114</v>
       </c>
       <c r="AB3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC3" t="s">
         <v>117</v>
@@ -1632,10 +1666,10 @@
         <v>129</v>
       </c>
       <c r="AN3">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AO3">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AP3">
         <v>50</v>
@@ -1643,9 +1677,6 @@
       <c r="AQ3" t="s">
         <v>131</v>
       </c>
-      <c r="AR3" t="s">
-        <v>145</v>
-      </c>
       <c r="AS3" t="s">
         <v>149</v>
       </c>
@@ -1653,15 +1684,15 @@
         <v>145</v>
       </c>
       <c r="AU3">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AV3">
-        <v>150</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>10310</v>
+        <v>10301</v>
       </c>
       <c r="L4" t="s">
         <v>50</v>
@@ -1670,7 +1701,7 @@
         <v>63</v>
       </c>
       <c r="N4">
-        <v>3100</v>
+        <v>2999</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>89</v>
@@ -1694,7 +1725,7 @@
         <v>118</v>
       </c>
       <c r="AE4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AG4" t="s">
         <v>128</v>
@@ -1703,25 +1734,25 @@
         <v>129</v>
       </c>
       <c r="AN4">
+        <v>45</v>
+      </c>
+      <c r="AO4">
         <v>48</v>
       </c>
-      <c r="AO4">
-        <v>50</v>
-      </c>
       <c r="AP4">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AQ4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AR4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AS4" t="s">
         <v>149</v>
       </c>
       <c r="AT4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AU4">
         <v>30</v>
@@ -1732,16 +1763,16 @@
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>10317</v>
+        <v>10301</v>
       </c>
       <c r="L5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M5" t="s">
         <v>64</v>
       </c>
       <c r="N5">
-        <v>3999</v>
+        <v>3499</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>90</v>
@@ -1756,7 +1787,7 @@
         <v>114</v>
       </c>
       <c r="AB5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC5" t="s">
         <v>117</v>
@@ -1765,7 +1796,7 @@
         <v>118</v>
       </c>
       <c r="AE5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AG5" t="s">
         <v>128</v>
@@ -1777,45 +1808,42 @@
         <v>50</v>
       </c>
       <c r="AO5">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AP5">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AQ5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="AS5" t="s">
         <v>149</v>
       </c>
       <c r="AT5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AU5">
         <v>30</v>
       </c>
       <c r="AV5">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>10480</v>
+        <v>10301</v>
       </c>
       <c r="L6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M6" t="s">
         <v>65</v>
       </c>
       <c r="N6">
-        <v>9999</v>
+        <v>3999</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>112</v>
@@ -1836,7 +1864,7 @@
         <v>118</v>
       </c>
       <c r="AE6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG6" t="s">
         <v>128</v>
@@ -1845,10 +1873,10 @@
         <v>129</v>
       </c>
       <c r="AN6">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO6">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AP6">
         <v>50</v>
@@ -1857,36 +1885,36 @@
         <v>133</v>
       </c>
       <c r="AR6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AS6" t="s">
         <v>149</v>
       </c>
       <c r="AT6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AU6">
         <v>30</v>
       </c>
       <c r="AV6">
-        <v>150</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>10494</v>
+        <v>10302</v>
       </c>
       <c r="L7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M7" t="s">
         <v>66</v>
       </c>
       <c r="N7">
-        <v>7999</v>
+        <v>1499</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>112</v>
@@ -1907,7 +1935,7 @@
         <v>118</v>
       </c>
       <c r="AE7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="s">
         <v>128</v>
@@ -1916,48 +1944,48 @@
         <v>129</v>
       </c>
       <c r="AN7">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AO7">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AP7">
         <v>50</v>
       </c>
       <c r="AQ7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AR7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AS7" t="s">
         <v>149</v>
       </c>
       <c r="AT7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AU7">
         <v>30</v>
       </c>
       <c r="AV7">
-        <v>180</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>10501</v>
+        <v>10310</v>
       </c>
       <c r="L8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M8" t="s">
         <v>67</v>
       </c>
       <c r="N8">
-        <v>6999</v>
+        <v>3100</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>112</v>
@@ -1978,7 +2006,7 @@
         <v>118</v>
       </c>
       <c r="AE8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AG8" t="s">
         <v>128</v>
@@ -1987,48 +2015,48 @@
         <v>129</v>
       </c>
       <c r="AN8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AP8">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AQ8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AR8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AS8" t="s">
         <v>149</v>
       </c>
       <c r="AT8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AU8">
         <v>30</v>
       </c>
       <c r="AV8">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>10497</v>
+        <v>10316</v>
       </c>
       <c r="L9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M9" t="s">
         <v>68</v>
       </c>
       <c r="N9">
-        <v>9999</v>
+        <v>3499</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>112</v>
@@ -2040,7 +2068,7 @@
         <v>114</v>
       </c>
       <c r="AB9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC9" t="s">
         <v>117</v>
@@ -2049,7 +2077,7 @@
         <v>118</v>
       </c>
       <c r="AE9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG9" t="s">
         <v>128</v>
@@ -2058,48 +2086,45 @@
         <v>129</v>
       </c>
       <c r="AN9">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AO9">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AP9">
         <v>50</v>
       </c>
       <c r="AQ9" t="s">
-        <v>136</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="AS9" t="s">
         <v>149</v>
       </c>
       <c r="AT9" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AU9">
         <v>30</v>
       </c>
       <c r="AV9">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10302</v>
+        <v>10316</v>
       </c>
       <c r="L10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M10" t="s">
         <v>69</v>
       </c>
       <c r="N10">
-        <v>1499</v>
+        <v>3499</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>112</v>
@@ -2129,10 +2154,10 @@
         <v>129</v>
       </c>
       <c r="AN10">
+        <v>48</v>
+      </c>
+      <c r="AO10">
         <v>45</v>
-      </c>
-      <c r="AO10">
-        <v>43</v>
       </c>
       <c r="AP10">
         <v>50</v>
@@ -2141,27 +2166,27 @@
         <v>130</v>
       </c>
       <c r="AR10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AS10" t="s">
         <v>149</v>
       </c>
       <c r="AT10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AU10">
         <v>30</v>
       </c>
       <c r="AV10">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10368</v>
+        <v>10317</v>
       </c>
       <c r="L11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M11" t="s">
         <v>70</v>
@@ -2170,7 +2195,7 @@
         <v>3999</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>112</v>
@@ -2191,7 +2216,7 @@
         <v>118</v>
       </c>
       <c r="AE11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AG11" t="s">
         <v>128</v>
@@ -2203,45 +2228,45 @@
         <v>50</v>
       </c>
       <c r="AO11">
+        <v>53</v>
+      </c>
+      <c r="AP11">
         <v>48</v>
       </c>
-      <c r="AP11">
-        <v>50</v>
-      </c>
       <c r="AQ11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AR11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AS11" t="s">
         <v>149</v>
       </c>
       <c r="AT11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AU11">
         <v>30</v>
       </c>
       <c r="AV11">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10301</v>
+        <v>10336</v>
       </c>
       <c r="L12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M12" t="s">
         <v>71</v>
       </c>
       <c r="N12">
-        <v>3999</v>
+        <v>2300</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>112</v>
@@ -2280,7 +2305,7 @@
         <v>50</v>
       </c>
       <c r="AQ12" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AR12" t="s">
         <v>144</v>
@@ -2292,27 +2317,27 @@
         <v>144</v>
       </c>
       <c r="AU12">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AV12">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>10438</v>
+        <v>10368</v>
       </c>
       <c r="L13" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M13" t="s">
         <v>72</v>
       </c>
       <c r="N13">
-        <v>25000</v>
+        <v>3999</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>112</v>
@@ -2333,7 +2358,7 @@
         <v>118</v>
       </c>
       <c r="AE13" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG13" t="s">
         <v>128</v>
@@ -2345,22 +2370,22 @@
         <v>50</v>
       </c>
       <c r="AO13">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="AP13">
         <v>50</v>
       </c>
       <c r="AQ13" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="AR13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AS13" t="s">
         <v>149</v>
       </c>
       <c r="AT13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AU13">
         <v>30</v>
@@ -2374,7 +2399,7 @@
         <v>10371</v>
       </c>
       <c r="L14" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M14" t="s">
         <v>73</v>
@@ -2383,7 +2408,7 @@
         <v>5999</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>112</v>
@@ -2404,7 +2429,7 @@
         <v>118</v>
       </c>
       <c r="AE14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG14" t="s">
         <v>128</v>
@@ -2422,16 +2447,16 @@
         <v>50</v>
       </c>
       <c r="AQ14" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="AR14" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AS14" t="s">
         <v>149</v>
       </c>
       <c r="AT14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AU14">
         <v>30</v>
@@ -2442,19 +2467,19 @@
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>10424</v>
+        <v>10420</v>
       </c>
       <c r="L15" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M15" t="s">
         <v>74</v>
       </c>
       <c r="N15">
-        <v>7999</v>
+        <v>9999</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>112</v>
@@ -2475,7 +2500,7 @@
         <v>118</v>
       </c>
       <c r="AE15" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="AG15" t="s">
         <v>128</v>
@@ -2487,16 +2512,16 @@
         <v>50</v>
       </c>
       <c r="AO15">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AP15">
         <v>50</v>
       </c>
       <c r="AQ15" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AR15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AS15" t="s">
         <v>149</v>
@@ -2513,19 +2538,19 @@
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>10316</v>
+        <v>10424</v>
       </c>
       <c r="L16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="M16" t="s">
         <v>75</v>
       </c>
       <c r="N16">
-        <v>3499</v>
+        <v>7999</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>112</v>
@@ -2546,7 +2571,7 @@
         <v>118</v>
       </c>
       <c r="AE16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AG16" t="s">
         <v>128</v>
@@ -2555,10 +2580,10 @@
         <v>129</v>
       </c>
       <c r="AN16">
+        <v>50</v>
+      </c>
+      <c r="AO16">
         <v>48</v>
-      </c>
-      <c r="AO16">
-        <v>45</v>
       </c>
       <c r="AP16">
         <v>50</v>
@@ -2567,36 +2592,36 @@
         <v>137</v>
       </c>
       <c r="AR16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AS16" t="s">
         <v>149</v>
       </c>
       <c r="AT16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AU16">
         <v>30</v>
       </c>
       <c r="AV16">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>10460</v>
+        <v>10438</v>
       </c>
       <c r="L17" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="M17" t="s">
         <v>76</v>
       </c>
       <c r="N17">
-        <v>7999</v>
+        <v>25000</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>112</v>
@@ -2617,7 +2642,7 @@
         <v>118</v>
       </c>
       <c r="AE17" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AG17" t="s">
         <v>128</v>
@@ -2626,16 +2651,16 @@
         <v>129</v>
       </c>
       <c r="AN17">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AO17">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AP17">
         <v>50</v>
       </c>
       <c r="AQ17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AR17" t="s">
         <v>145</v>
@@ -2650,24 +2675,24 @@
         <v>30</v>
       </c>
       <c r="AV17">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1</v>
+        <v>10443</v>
       </c>
       <c r="L18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M18" t="s">
         <v>77</v>
       </c>
       <c r="N18">
-        <v>5499</v>
+        <v>10500</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>112</v>
@@ -2688,7 +2713,7 @@
         <v>118</v>
       </c>
       <c r="AE18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AG18" t="s">
         <v>128</v>
@@ -2697,48 +2722,48 @@
         <v>129</v>
       </c>
       <c r="AN18">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AO18">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AP18">
         <v>50</v>
       </c>
       <c r="AQ18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AR18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AS18" t="s">
         <v>149</v>
       </c>
       <c r="AT18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AU18">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AV18">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>10420</v>
+        <v>10460</v>
       </c>
       <c r="L19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M19" t="s">
         <v>78</v>
       </c>
       <c r="N19">
-        <v>9999</v>
+        <v>7999</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>112</v>
@@ -2759,7 +2784,7 @@
         <v>118</v>
       </c>
       <c r="AE19" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AG19" t="s">
         <v>128</v>
@@ -2768,7 +2793,7 @@
         <v>129</v>
       </c>
       <c r="AN19">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO19">
         <v>45</v>
@@ -2777,39 +2802,39 @@
         <v>50</v>
       </c>
       <c r="AQ19" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="AR19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AS19" t="s">
         <v>149</v>
       </c>
       <c r="AT19" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AU19">
         <v>30</v>
       </c>
       <c r="AV19">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>10336</v>
+        <v>10480</v>
       </c>
       <c r="L20" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="M20" t="s">
         <v>79</v>
       </c>
       <c r="N20">
-        <v>2300</v>
+        <v>9999</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>112</v>
@@ -2830,7 +2855,7 @@
         <v>118</v>
       </c>
       <c r="AE20" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AG20" t="s">
         <v>128</v>
@@ -2839,48 +2864,48 @@
         <v>129</v>
       </c>
       <c r="AN20">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AO20">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AP20">
         <v>50</v>
       </c>
       <c r="AQ20" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="AR20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AS20" t="s">
         <v>149</v>
       </c>
       <c r="AT20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AU20">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AV20">
-        <v>70</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>10522</v>
+        <v>10494</v>
       </c>
       <c r="L21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M21" t="s">
         <v>80</v>
       </c>
       <c r="N21">
-        <v>5999</v>
+        <v>7999</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>112</v>
@@ -2892,7 +2917,7 @@
         <v>114</v>
       </c>
       <c r="AB21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC21" t="s">
         <v>117</v>
@@ -2901,7 +2926,7 @@
         <v>118</v>
       </c>
       <c r="AE21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AG21" t="s">
         <v>128</v>
@@ -2910,16 +2935,19 @@
         <v>129</v>
       </c>
       <c r="AN21">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AO21">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="AP21">
         <v>50</v>
       </c>
       <c r="AQ21" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>148</v>
       </c>
       <c r="AS21" t="s">
         <v>149</v>
@@ -2931,24 +2959,24 @@
         <v>30</v>
       </c>
       <c r="AV21">
-        <v>80</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>10522</v>
+        <v>10497</v>
       </c>
       <c r="L22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M22" t="s">
         <v>81</v>
       </c>
       <c r="N22">
-        <v>5999</v>
+        <v>9999</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q22" s="2" t="s">
         <v>112</v>
@@ -2960,7 +2988,7 @@
         <v>114</v>
       </c>
       <c r="AB22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC22" t="s">
         <v>117</v>
@@ -2969,7 +2997,7 @@
         <v>118</v>
       </c>
       <c r="AE22" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="AG22" t="s">
         <v>128</v>
@@ -2978,7 +3006,7 @@
         <v>129</v>
       </c>
       <c r="AN22">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AO22">
         <v>45</v>
@@ -2987,13 +3015,16 @@
         <v>50</v>
       </c>
       <c r="AQ22" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>146</v>
       </c>
       <c r="AS22" t="s">
         <v>149</v>
       </c>
       <c r="AT22" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AU22">
         <v>30</v>
@@ -3004,19 +3035,19 @@
     </row>
     <row r="23" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>10532</v>
+        <v>10501</v>
       </c>
       <c r="L23" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="M23" t="s">
         <v>82</v>
       </c>
       <c r="N23">
-        <v>7999</v>
+        <v>6999</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q23" s="2" t="s">
         <v>112</v>
@@ -3028,7 +3059,7 @@
         <v>114</v>
       </c>
       <c r="AB23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC23" t="s">
         <v>117</v>
@@ -3037,7 +3068,7 @@
         <v>118</v>
       </c>
       <c r="AE23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG23" t="s">
         <v>128</v>
@@ -3046,16 +3077,19 @@
         <v>129</v>
       </c>
       <c r="AN23">
+        <v>50</v>
+      </c>
+      <c r="AO23">
         <v>48</v>
       </c>
-      <c r="AO23">
-        <v>45</v>
-      </c>
       <c r="AP23">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AQ23" t="s">
-        <v>138</v>
+        <v>142</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>144</v>
       </c>
       <c r="AS23" t="s">
         <v>149</v>
@@ -3067,24 +3101,24 @@
         <v>30</v>
       </c>
       <c r="AV23">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>10316</v>
+        <v>10522</v>
       </c>
       <c r="L24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M24" t="s">
         <v>83</v>
       </c>
       <c r="N24">
-        <v>3499</v>
+        <v>5999</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q24" s="2" t="s">
         <v>112</v>
@@ -3105,7 +3139,7 @@
         <v>118</v>
       </c>
       <c r="AE24" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AG24" t="s">
         <v>128</v>
@@ -3123,36 +3157,36 @@
         <v>50</v>
       </c>
       <c r="AQ24" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="AS24" t="s">
         <v>149</v>
       </c>
       <c r="AT24" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AU24">
         <v>30</v>
       </c>
       <c r="AV24">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>10301</v>
+        <v>10522</v>
       </c>
       <c r="L25" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="M25" t="s">
         <v>84</v>
       </c>
       <c r="N25">
-        <v>3499</v>
+        <v>5999</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="Q25" s="2" t="s">
         <v>112</v>
@@ -3173,7 +3207,7 @@
         <v>118</v>
       </c>
       <c r="AE25" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="AG25" t="s">
         <v>128</v>
@@ -3182,33 +3216,33 @@
         <v>129</v>
       </c>
       <c r="AN25">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO25">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AP25">
         <v>50</v>
       </c>
       <c r="AQ25" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AS25" t="s">
         <v>149</v>
       </c>
       <c r="AT25" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AU25">
         <v>30</v>
       </c>
       <c r="AV25">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>10031</v>
+        <v>10532</v>
       </c>
       <c r="L26" t="s">
         <v>50</v>
@@ -3217,7 +3251,7 @@
         <v>85</v>
       </c>
       <c r="N26">
-        <v>7000</v>
+        <v>7999</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>110</v>
@@ -3241,7 +3275,7 @@
         <v>118</v>
       </c>
       <c r="AE26" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AG26" t="s">
         <v>128</v>
@@ -3250,7 +3284,7 @@
         <v>129</v>
       </c>
       <c r="AN26">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO26">
         <v>45</v>
@@ -3259,19 +3293,19 @@
         <v>50</v>
       </c>
       <c r="AQ26" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="AS26" t="s">
         <v>149</v>
       </c>
       <c r="AT26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AU26">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AV26">
-        <v>70</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:48" x14ac:dyDescent="0.25">
@@ -3279,7 +3313,7 @@
         <v>10532</v>
       </c>
       <c r="L27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M27" t="s">
         <v>86</v>
@@ -3309,7 +3343,7 @@
         <v>118</v>
       </c>
       <c r="AE27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG27" t="s">
         <v>128</v>
@@ -3327,13 +3361,13 @@
         <v>50</v>
       </c>
       <c r="AQ27" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="AS27" t="s">
         <v>149</v>
       </c>
       <c r="AT27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AU27">
         <v>30</v>
@@ -3358,44 +3392,44 @@
     <hyperlink ref="Q7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="O8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="Q8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="O9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="Q9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="O10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="Q10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="O11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="Q11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="O12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="Q12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="O13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="Q13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="O14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="Q14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="O15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="Q15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="O16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="Q16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="O17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="Q17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="O18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="Q18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="O19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="Q19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="O20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="Q20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="O21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="Q21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="O22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="Q22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="O23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="Q23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="O24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="Q24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="Q25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="O26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="Q26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="O27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="Q27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="O9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="Q9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="O10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="Q10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="O11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="Q11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="O12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="Q12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="O13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="Q13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="O14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="Q14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="O15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="Q15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="O16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="Q16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="O17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="Q17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="O18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="Q18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="O19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="Q19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="O20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="Q20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="O21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="Q21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="O22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="Q22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="O23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="Q23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="O24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="Q24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="Q25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="O26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="Q26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="O27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="Q27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/comp armchair.xlsx
+++ b/make_xl/data_xl/comp armchair.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FD6A48-CD79-4740-8CC2-5A917357A699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -988,8 +982,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1060,26 +1054,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1117,9 +1103,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1151,27 +1137,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1203,27 +1171,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1396,2040 +1346,2116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AW27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:49">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:49">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>48</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>61</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>5499</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>113</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>114</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>115</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>117</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>118</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>119</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>128</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>129</v>
       </c>
-      <c r="AN2">
-        <v>50</v>
-      </c>
       <c r="AO2">
+        <v>50</v>
+      </c>
+      <c r="AP2">
         <v>48</v>
       </c>
-      <c r="AP2">
-        <v>50</v>
-      </c>
-      <c r="AQ2" t="s">
+      <c r="AQ2">
+        <v>50</v>
+      </c>
+      <c r="AR2" t="s">
         <v>130</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>144</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>149</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
         <v>144</v>
       </c>
-      <c r="AU2">
+      <c r="AV2">
         <v>30</v>
       </c>
-      <c r="AV2">
+      <c r="AW2">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:49">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>10031</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>49</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>62</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>7000</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>113</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>114</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>116</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>117</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>118</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>120</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>128</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>129</v>
       </c>
-      <c r="AN3">
-        <v>50</v>
-      </c>
       <c r="AO3">
+        <v>50</v>
+      </c>
+      <c r="AP3">
         <v>45</v>
       </c>
-      <c r="AP3">
-        <v>50</v>
-      </c>
-      <c r="AQ3" t="s">
+      <c r="AQ3">
+        <v>50</v>
+      </c>
+      <c r="AR3" t="s">
         <v>131</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AT3" t="s">
         <v>149</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AU3" t="s">
         <v>145</v>
       </c>
-      <c r="AU3">
+      <c r="AV3">
         <v>31</v>
       </c>
-      <c r="AV3">
+      <c r="AW3">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:49">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>10301</v>
       </c>
-      <c r="L4" t="s">
-        <v>50</v>
-      </c>
       <c r="M4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" t="s">
         <v>63</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>2999</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>113</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>114</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>115</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>117</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>118</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>120</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>128</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>129</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>45</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <v>48</v>
       </c>
-      <c r="AP4">
+      <c r="AQ4">
         <v>40</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AR4" t="s">
         <v>132</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AS4" t="s">
         <v>145</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AT4" t="s">
         <v>149</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AU4" t="s">
         <v>145</v>
       </c>
-      <c r="AU4">
+      <c r="AV4">
         <v>30</v>
       </c>
-      <c r="AV4">
+      <c r="AW4">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:49">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>10301</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>51</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>64</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>3499</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>113</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>114</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>116</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>117</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>118</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>120</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AH5" t="s">
         <v>128</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AI5" t="s">
         <v>129</v>
       </c>
-      <c r="AN5">
-        <v>50</v>
-      </c>
       <c r="AO5">
+        <v>50</v>
+      </c>
+      <c r="AP5">
         <v>48</v>
       </c>
-      <c r="AP5">
-        <v>50</v>
-      </c>
-      <c r="AQ5" t="s">
+      <c r="AQ5">
+        <v>50</v>
+      </c>
+      <c r="AR5" t="s">
         <v>133</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AT5" t="s">
         <v>149</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="AU5" t="s">
         <v>145</v>
       </c>
-      <c r="AU5">
+      <c r="AV5">
         <v>30</v>
       </c>
-      <c r="AV5">
+      <c r="AW5">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:49">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>10301</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>52</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>65</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>3999</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>113</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>114</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>115</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>117</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>118</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>120</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AH6" t="s">
         <v>128</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
         <v>129</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>48</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <v>45</v>
       </c>
-      <c r="AP6">
-        <v>50</v>
-      </c>
-      <c r="AQ6" t="s">
+      <c r="AQ6">
+        <v>50</v>
+      </c>
+      <c r="AR6" t="s">
         <v>133</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AS6" t="s">
         <v>145</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AT6" t="s">
         <v>149</v>
       </c>
-      <c r="AT6" t="s">
+      <c r="AU6" t="s">
         <v>145</v>
       </c>
-      <c r="AU6">
+      <c r="AV6">
         <v>30</v>
       </c>
-      <c r="AV6">
+      <c r="AW6">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:49">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>10302</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>48</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>66</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>1499</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>113</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>114</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>115</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>117</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>118</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>120</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AH7" t="s">
         <v>128</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AI7" t="s">
         <v>129</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>45</v>
       </c>
-      <c r="AO7">
+      <c r="AP7">
         <v>43</v>
       </c>
-      <c r="AP7">
-        <v>50</v>
-      </c>
-      <c r="AQ7" t="s">
+      <c r="AQ7">
+        <v>50</v>
+      </c>
+      <c r="AR7" t="s">
         <v>132</v>
       </c>
-      <c r="AR7" t="s">
+      <c r="AS7" t="s">
         <v>146</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AT7" t="s">
         <v>149</v>
       </c>
-      <c r="AT7" t="s">
+      <c r="AU7" t="s">
         <v>146</v>
       </c>
-      <c r="AU7">
+      <c r="AV7">
         <v>30</v>
       </c>
-      <c r="AV7">
+      <c r="AW7">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:49">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>10310</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>49</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>67</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>3100</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="R8" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>113</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>114</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>115</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>117</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>118</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>121</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AH8" t="s">
         <v>128</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AI8" t="s">
         <v>129</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>48</v>
       </c>
-      <c r="AO8">
-        <v>50</v>
-      </c>
       <c r="AP8">
+        <v>50</v>
+      </c>
+      <c r="AQ8">
         <v>45</v>
       </c>
-      <c r="AQ8" t="s">
+      <c r="AR8" t="s">
         <v>132</v>
       </c>
-      <c r="AR8" t="s">
+      <c r="AS8" t="s">
         <v>144</v>
       </c>
-      <c r="AS8" t="s">
+      <c r="AT8" t="s">
         <v>149</v>
       </c>
-      <c r="AT8" t="s">
+      <c r="AU8" t="s">
         <v>144</v>
       </c>
-      <c r="AU8">
+      <c r="AV8">
         <v>30</v>
       </c>
-      <c r="AV8">
+      <c r="AW8">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:49">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>10316</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>53</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>68</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>3499</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="R9" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>113</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>114</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>116</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>117</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>118</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>120</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AH9" t="s">
         <v>128</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AI9" t="s">
         <v>129</v>
       </c>
-      <c r="AN9">
-        <v>50</v>
-      </c>
       <c r="AO9">
+        <v>50</v>
+      </c>
+      <c r="AP9">
         <v>48</v>
       </c>
-      <c r="AP9">
-        <v>50</v>
-      </c>
-      <c r="AQ9" t="s">
+      <c r="AQ9">
+        <v>50</v>
+      </c>
+      <c r="AR9" t="s">
         <v>134</v>
       </c>
-      <c r="AS9" t="s">
+      <c r="AT9" t="s">
         <v>149</v>
       </c>
-      <c r="AT9" t="s">
+      <c r="AU9" t="s">
         <v>150</v>
       </c>
-      <c r="AU9">
+      <c r="AV9">
         <v>30</v>
       </c>
-      <c r="AV9">
+      <c r="AW9">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:49">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <v>10316</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>54</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>69</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>3499</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="R10" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>113</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>114</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>115</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>117</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>118</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>119</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AH10" t="s">
         <v>128</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AI10" t="s">
         <v>129</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>48</v>
       </c>
-      <c r="AO10">
+      <c r="AP10">
         <v>45</v>
       </c>
-      <c r="AP10">
-        <v>50</v>
-      </c>
-      <c r="AQ10" t="s">
+      <c r="AQ10">
+        <v>50</v>
+      </c>
+      <c r="AR10" t="s">
         <v>130</v>
       </c>
-      <c r="AR10" t="s">
+      <c r="AS10" t="s">
         <v>144</v>
       </c>
-      <c r="AS10" t="s">
+      <c r="AT10" t="s">
         <v>149</v>
       </c>
-      <c r="AT10" t="s">
+      <c r="AU10" t="s">
         <v>144</v>
       </c>
-      <c r="AU10">
+      <c r="AV10">
         <v>30</v>
       </c>
-      <c r="AV10">
+      <c r="AW10">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:49">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
         <v>10317</v>
       </c>
-      <c r="L11" t="s">
-        <v>50</v>
-      </c>
       <c r="M11" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" t="s">
         <v>70</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>3999</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="R11" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>113</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>114</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>115</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>117</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>118</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>121</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AH11" t="s">
         <v>128</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AI11" t="s">
         <v>129</v>
       </c>
-      <c r="AN11">
-        <v>50</v>
-      </c>
       <c r="AO11">
+        <v>50</v>
+      </c>
+      <c r="AP11">
         <v>53</v>
       </c>
-      <c r="AP11">
+      <c r="AQ11">
         <v>48</v>
       </c>
-      <c r="AQ11" t="s">
+      <c r="AR11" t="s">
         <v>135</v>
       </c>
-      <c r="AR11" t="s">
+      <c r="AS11" t="s">
         <v>144</v>
       </c>
-      <c r="AS11" t="s">
+      <c r="AT11" t="s">
         <v>149</v>
       </c>
-      <c r="AT11" t="s">
+      <c r="AU11" t="s">
         <v>144</v>
       </c>
-      <c r="AU11">
+      <c r="AV11">
         <v>30</v>
       </c>
-      <c r="AV11">
+      <c r="AW11">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:49">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>10336</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>55</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>71</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>2300</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="P12" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="R12" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>113</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>114</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>115</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>117</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>118</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>119</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AH12" t="s">
         <v>128</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AI12" t="s">
         <v>129</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>48</v>
       </c>
-      <c r="AO12">
+      <c r="AP12">
         <v>45</v>
       </c>
-      <c r="AP12">
-        <v>50</v>
-      </c>
-      <c r="AQ12" t="s">
+      <c r="AQ12">
+        <v>50</v>
+      </c>
+      <c r="AR12" t="s">
         <v>132</v>
       </c>
-      <c r="AR12" t="s">
+      <c r="AS12" t="s">
         <v>144</v>
       </c>
-      <c r="AS12" t="s">
+      <c r="AT12" t="s">
         <v>149</v>
       </c>
-      <c r="AT12" t="s">
+      <c r="AU12" t="s">
         <v>144</v>
       </c>
-      <c r="AU12">
+      <c r="AV12">
         <v>31</v>
       </c>
-      <c r="AV12">
+      <c r="AW12">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:49">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
         <v>10368</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>56</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>72</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>3999</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="P13" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="R13" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>113</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>114</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>115</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>117</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>118</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>120</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AH13" t="s">
         <v>128</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AI13" t="s">
         <v>129</v>
       </c>
-      <c r="AN13">
-        <v>50</v>
-      </c>
       <c r="AO13">
+        <v>50</v>
+      </c>
+      <c r="AP13">
         <v>48</v>
       </c>
-      <c r="AP13">
-        <v>50</v>
-      </c>
-      <c r="AQ13" t="s">
+      <c r="AQ13">
+        <v>50</v>
+      </c>
+      <c r="AR13" t="s">
         <v>130</v>
       </c>
-      <c r="AR13" t="s">
+      <c r="AS13" t="s">
         <v>146</v>
       </c>
-      <c r="AS13" t="s">
+      <c r="AT13" t="s">
         <v>149</v>
       </c>
-      <c r="AT13" t="s">
+      <c r="AU13" t="s">
         <v>146</v>
       </c>
-      <c r="AU13">
+      <c r="AV13">
         <v>30</v>
       </c>
-      <c r="AV13">
+      <c r="AW13">
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:49">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
         <v>10371</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>57</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>73</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>5999</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="P14" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="R14" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>113</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>114</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>115</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>117</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>118</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>120</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AH14" t="s">
         <v>128</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AI14" t="s">
         <v>129</v>
       </c>
-      <c r="AN14">
-        <v>50</v>
-      </c>
       <c r="AO14">
+        <v>50</v>
+      </c>
+      <c r="AP14">
         <v>45</v>
       </c>
-      <c r="AP14">
-        <v>50</v>
-      </c>
-      <c r="AQ14" t="s">
+      <c r="AQ14">
+        <v>50</v>
+      </c>
+      <c r="AR14" t="s">
         <v>130</v>
       </c>
-      <c r="AR14" t="s">
+      <c r="AS14" t="s">
         <v>147</v>
       </c>
-      <c r="AS14" t="s">
+      <c r="AT14" t="s">
         <v>149</v>
       </c>
-      <c r="AT14" t="s">
+      <c r="AU14" t="s">
         <v>144</v>
       </c>
-      <c r="AU14">
+      <c r="AV14">
         <v>30</v>
       </c>
-      <c r="AV14">
+      <c r="AW14">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:49">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
         <v>10420</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>55</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>74</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>9999</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="P15" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="R15" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>113</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>114</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>115</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>117</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>118</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>119</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AH15" t="s">
         <v>128</v>
       </c>
-      <c r="AH15" t="s">
+      <c r="AI15" t="s">
         <v>129</v>
       </c>
-      <c r="AN15">
-        <v>50</v>
-      </c>
       <c r="AO15">
+        <v>50</v>
+      </c>
+      <c r="AP15">
         <v>45</v>
       </c>
-      <c r="AP15">
-        <v>50</v>
-      </c>
-      <c r="AQ15" t="s">
+      <c r="AQ15">
+        <v>50</v>
+      </c>
+      <c r="AR15" t="s">
         <v>136</v>
       </c>
-      <c r="AR15" t="s">
+      <c r="AS15" t="s">
         <v>146</v>
       </c>
-      <c r="AS15" t="s">
+      <c r="AT15" t="s">
         <v>149</v>
       </c>
-      <c r="AT15" t="s">
+      <c r="AU15" t="s">
         <v>145</v>
       </c>
-      <c r="AU15">
+      <c r="AV15">
         <v>30</v>
       </c>
-      <c r="AV15">
+      <c r="AW15">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:49">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
         <v>10424</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>49</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>75</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>7999</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="P16" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="R16" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>113</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>114</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>115</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>117</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>118</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>122</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AH16" t="s">
         <v>128</v>
       </c>
-      <c r="AH16" t="s">
+      <c r="AI16" t="s">
         <v>129</v>
       </c>
-      <c r="AN16">
-        <v>50</v>
-      </c>
       <c r="AO16">
+        <v>50</v>
+      </c>
+      <c r="AP16">
         <v>48</v>
       </c>
-      <c r="AP16">
-        <v>50</v>
-      </c>
-      <c r="AQ16" t="s">
+      <c r="AQ16">
+        <v>50</v>
+      </c>
+      <c r="AR16" t="s">
         <v>137</v>
       </c>
-      <c r="AR16" t="s">
+      <c r="AS16" t="s">
         <v>147</v>
       </c>
-      <c r="AS16" t="s">
+      <c r="AT16" t="s">
         <v>149</v>
       </c>
-      <c r="AT16" t="s">
+      <c r="AU16" t="s">
         <v>147</v>
       </c>
-      <c r="AU16">
+      <c r="AV16">
         <v>30</v>
       </c>
-      <c r="AV16">
+      <c r="AW16">
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:49">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
         <v>10438</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>48</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>76</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>25000</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="P17" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="R17" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>113</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>114</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>115</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>117</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>118</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>123</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AH17" t="s">
         <v>128</v>
       </c>
-      <c r="AH17" t="s">
+      <c r="AI17" t="s">
         <v>129</v>
       </c>
-      <c r="AN17">
-        <v>50</v>
-      </c>
       <c r="AO17">
+        <v>50</v>
+      </c>
+      <c r="AP17">
         <v>43</v>
       </c>
-      <c r="AP17">
-        <v>50</v>
-      </c>
-      <c r="AQ17" t="s">
+      <c r="AQ17">
+        <v>50</v>
+      </c>
+      <c r="AR17" t="s">
         <v>136</v>
       </c>
-      <c r="AR17" t="s">
+      <c r="AS17" t="s">
         <v>145</v>
       </c>
-      <c r="AS17" t="s">
+      <c r="AT17" t="s">
         <v>149</v>
       </c>
-      <c r="AT17" t="s">
+      <c r="AU17" t="s">
         <v>145</v>
       </c>
-      <c r="AU17">
+      <c r="AV17">
         <v>30</v>
       </c>
-      <c r="AV17">
+      <c r="AW17">
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:49">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
         <v>10443</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>57</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>77</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>10500</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="P18" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="Q18" s="2" t="s">
+      <c r="R18" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>113</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
         <v>114</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AC18" t="s">
         <v>115</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>117</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>118</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>124</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AH18" t="s">
         <v>128</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AI18" t="s">
         <v>129</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>55</v>
       </c>
-      <c r="AO18">
-        <v>50</v>
-      </c>
       <c r="AP18">
         <v>50</v>
       </c>
-      <c r="AQ18" t="s">
+      <c r="AQ18">
+        <v>50</v>
+      </c>
+      <c r="AR18" t="s">
         <v>138</v>
       </c>
-      <c r="AR18" t="s">
+      <c r="AS18" t="s">
         <v>147</v>
       </c>
-      <c r="AS18" t="s">
+      <c r="AT18" t="s">
         <v>149</v>
       </c>
-      <c r="AT18" t="s">
+      <c r="AU18" t="s">
         <v>147</v>
       </c>
-      <c r="AU18">
+      <c r="AV18">
         <v>35</v>
       </c>
-      <c r="AV18">
+      <c r="AW18">
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:49">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
         <v>10460</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>58</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>78</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>7999</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="P19" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="Q19" s="2" t="s">
+      <c r="R19" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>113</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AB19" t="s">
         <v>114</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AC19" t="s">
         <v>115</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>117</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>118</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>120</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AH19" t="s">
         <v>128</v>
       </c>
-      <c r="AH19" t="s">
+      <c r="AI19" t="s">
         <v>129</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>48</v>
       </c>
-      <c r="AO19">
+      <c r="AP19">
         <v>45</v>
       </c>
-      <c r="AP19">
-        <v>50</v>
-      </c>
-      <c r="AQ19" t="s">
+      <c r="AQ19">
+        <v>50</v>
+      </c>
+      <c r="AR19" t="s">
         <v>130</v>
       </c>
-      <c r="AR19" t="s">
+      <c r="AS19" t="s">
         <v>147</v>
       </c>
-      <c r="AS19" t="s">
+      <c r="AT19" t="s">
         <v>149</v>
       </c>
-      <c r="AT19" t="s">
+      <c r="AU19" t="s">
         <v>147</v>
       </c>
-      <c r="AU19">
+      <c r="AV19">
         <v>30</v>
       </c>
-      <c r="AV19">
+      <c r="AW19">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:49">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
         <v>10480</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>49</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>79</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>9999</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="P20" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="Q20" s="2" t="s">
+      <c r="R20" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>113</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AB20" t="s">
         <v>114</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
         <v>115</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>117</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>118</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
         <v>120</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AH20" t="s">
         <v>128</v>
       </c>
-      <c r="AH20" t="s">
+      <c r="AI20" t="s">
         <v>129</v>
       </c>
-      <c r="AN20">
-        <v>50</v>
-      </c>
       <c r="AO20">
+        <v>50</v>
+      </c>
+      <c r="AP20">
         <v>55</v>
       </c>
-      <c r="AP20">
-        <v>50</v>
-      </c>
-      <c r="AQ20" t="s">
+      <c r="AQ20">
+        <v>50</v>
+      </c>
+      <c r="AR20" t="s">
         <v>139</v>
       </c>
-      <c r="AR20" t="s">
+      <c r="AS20" t="s">
         <v>148</v>
       </c>
-      <c r="AS20" t="s">
+      <c r="AT20" t="s">
         <v>149</v>
       </c>
-      <c r="AT20" t="s">
+      <c r="AU20" t="s">
         <v>148</v>
       </c>
-      <c r="AU20">
+      <c r="AV20">
         <v>30</v>
       </c>
-      <c r="AV20">
+      <c r="AW20">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:49">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
         <v>10494</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>57</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>80</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>7999</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="P21" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="R21" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>113</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AB21" t="s">
         <v>114</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AC21" t="s">
         <v>115</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>117</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>118</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AF21" t="s">
         <v>120</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AH21" t="s">
         <v>128</v>
       </c>
-      <c r="AH21" t="s">
+      <c r="AI21" t="s">
         <v>129</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>55</v>
       </c>
-      <c r="AO21">
+      <c r="AP21">
         <v>53</v>
       </c>
-      <c r="AP21">
-        <v>50</v>
-      </c>
-      <c r="AQ21" t="s">
+      <c r="AQ21">
+        <v>50</v>
+      </c>
+      <c r="AR21" t="s">
         <v>140</v>
       </c>
-      <c r="AR21" t="s">
+      <c r="AS21" t="s">
         <v>148</v>
       </c>
-      <c r="AS21" t="s">
+      <c r="AT21" t="s">
         <v>149</v>
       </c>
-      <c r="AT21" t="s">
+      <c r="AU21" t="s">
         <v>148</v>
       </c>
-      <c r="AU21">
+      <c r="AV21">
         <v>30</v>
       </c>
-      <c r="AV21">
+      <c r="AW21">
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:49">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
         <v>10497</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>49</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>81</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>9999</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="P22" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="Q22" s="2" t="s">
+      <c r="R22" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>113</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AB22" t="s">
         <v>114</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AC22" t="s">
         <v>115</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AD22" t="s">
         <v>117</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>118</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AF22" t="s">
         <v>120</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AH22" t="s">
         <v>128</v>
       </c>
-      <c r="AH22" t="s">
+      <c r="AI22" t="s">
         <v>129</v>
-      </c>
-      <c r="AN22">
-        <v>45</v>
       </c>
       <c r="AO22">
         <v>45</v>
       </c>
       <c r="AP22">
-        <v>50</v>
-      </c>
-      <c r="AQ22" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ22">
+        <v>50</v>
+      </c>
+      <c r="AR22" t="s">
         <v>141</v>
       </c>
-      <c r="AR22" t="s">
+      <c r="AS22" t="s">
         <v>146</v>
       </c>
-      <c r="AS22" t="s">
+      <c r="AT22" t="s">
         <v>149</v>
       </c>
-      <c r="AT22" t="s">
+      <c r="AU22" t="s">
         <v>145</v>
       </c>
-      <c r="AU22">
+      <c r="AV22">
         <v>30</v>
       </c>
-      <c r="AV22">
+      <c r="AW22">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="1:49">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
         <v>10501</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>59</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>82</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>6999</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="P23" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="Q23" s="2" t="s">
+      <c r="R23" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>113</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AB23" t="s">
         <v>114</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AC23" t="s">
         <v>115</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AD23" t="s">
         <v>117</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>118</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>125</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AH23" t="s">
         <v>128</v>
       </c>
-      <c r="AH23" t="s">
+      <c r="AI23" t="s">
         <v>129</v>
       </c>
-      <c r="AN23">
-        <v>50</v>
-      </c>
       <c r="AO23">
+        <v>50</v>
+      </c>
+      <c r="AP23">
         <v>48</v>
       </c>
-      <c r="AP23">
+      <c r="AQ23">
         <v>53</v>
       </c>
-      <c r="AQ23" t="s">
+      <c r="AR23" t="s">
         <v>142</v>
       </c>
-      <c r="AR23" t="s">
+      <c r="AS23" t="s">
         <v>144</v>
       </c>
-      <c r="AS23" t="s">
+      <c r="AT23" t="s">
         <v>149</v>
       </c>
-      <c r="AT23" t="s">
+      <c r="AU23" t="s">
         <v>144</v>
       </c>
-      <c r="AU23">
+      <c r="AV23">
         <v>30</v>
       </c>
-      <c r="AV23">
+      <c r="AW23">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:49">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
         <v>10522</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>60</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>83</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>5999</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="P24" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="Q24" s="2" t="s">
+      <c r="R24" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
         <v>113</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AB24" t="s">
         <v>114</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AC24" t="s">
         <v>116</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AD24" t="s">
         <v>117</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>118</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>126</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AH24" t="s">
         <v>128</v>
       </c>
-      <c r="AH24" t="s">
+      <c r="AI24" t="s">
         <v>129</v>
       </c>
-      <c r="AN24">
-        <v>50</v>
-      </c>
       <c r="AO24">
+        <v>50</v>
+      </c>
+      <c r="AP24">
         <v>48</v>
       </c>
-      <c r="AP24">
-        <v>50</v>
-      </c>
-      <c r="AQ24" t="s">
+      <c r="AQ24">
+        <v>50</v>
+      </c>
+      <c r="AR24" t="s">
         <v>134</v>
       </c>
-      <c r="AS24" t="s">
+      <c r="AT24" t="s">
         <v>149</v>
       </c>
-      <c r="AT24" t="s">
+      <c r="AU24" t="s">
         <v>146</v>
       </c>
-      <c r="AU24">
+      <c r="AV24">
         <v>30</v>
       </c>
-      <c r="AV24">
+      <c r="AW24">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="1:49">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
         <v>10522</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>49</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>84</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>5999</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="P25" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="Q25" s="2" t="s">
+      <c r="R25" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>113</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AB25" t="s">
         <v>114</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AC25" t="s">
         <v>116</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AD25" t="s">
         <v>117</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>118</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>127</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AH25" t="s">
         <v>128</v>
       </c>
-      <c r="AH25" t="s">
+      <c r="AI25" t="s">
         <v>129</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>48</v>
       </c>
-      <c r="AO25">
+      <c r="AP25">
         <v>45</v>
       </c>
-      <c r="AP25">
-        <v>50</v>
-      </c>
-      <c r="AQ25" t="s">
+      <c r="AQ25">
+        <v>50</v>
+      </c>
+      <c r="AR25" t="s">
         <v>143</v>
       </c>
-      <c r="AS25" t="s">
+      <c r="AT25" t="s">
         <v>149</v>
       </c>
-      <c r="AT25" t="s">
+      <c r="AU25" t="s">
         <v>146</v>
       </c>
-      <c r="AU25">
+      <c r="AV25">
         <v>30</v>
       </c>
-      <c r="AV25">
+      <c r="AW25">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="1:49">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
         <v>10532</v>
       </c>
-      <c r="L26" t="s">
-        <v>50</v>
-      </c>
       <c r="M26" t="s">
+        <v>50</v>
+      </c>
+      <c r="N26" t="s">
         <v>85</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>7999</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="P26" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="Q26" s="2" t="s">
+      <c r="R26" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>113</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AB26" t="s">
         <v>114</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AC26" t="s">
         <v>116</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AD26" t="s">
         <v>117</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>118</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>123</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AH26" t="s">
         <v>128</v>
       </c>
-      <c r="AH26" t="s">
+      <c r="AI26" t="s">
         <v>129</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>48</v>
       </c>
-      <c r="AO26">
+      <c r="AP26">
         <v>45</v>
       </c>
-      <c r="AP26">
-        <v>50</v>
-      </c>
-      <c r="AQ26" t="s">
+      <c r="AQ26">
+        <v>50</v>
+      </c>
+      <c r="AR26" t="s">
         <v>133</v>
       </c>
-      <c r="AS26" t="s">
+      <c r="AT26" t="s">
         <v>149</v>
       </c>
-      <c r="AT26" t="s">
+      <c r="AU26" t="s">
         <v>145</v>
       </c>
-      <c r="AU26">
+      <c r="AV26">
         <v>30</v>
       </c>
-      <c r="AV26">
+      <c r="AW26">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="1:49">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
         <v>10532</v>
       </c>
-      <c r="L27" t="s">
-        <v>50</v>
-      </c>
       <c r="M27" t="s">
+        <v>50</v>
+      </c>
+      <c r="N27" t="s">
         <v>86</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>7999</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="P27" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="Q27" s="2" t="s">
+      <c r="R27" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="S27" t="s">
+      <c r="T27" t="s">
         <v>113</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="AB27" t="s">
         <v>114</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AC27" t="s">
         <v>116</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="AD27" t="s">
         <v>117</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>118</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
         <v>123</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AH27" t="s">
         <v>128</v>
       </c>
-      <c r="AH27" t="s">
+      <c r="AI27" t="s">
         <v>129</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>48</v>
       </c>
-      <c r="AO27">
+      <c r="AP27">
         <v>45</v>
       </c>
-      <c r="AP27">
-        <v>50</v>
-      </c>
-      <c r="AQ27" t="s">
+      <c r="AQ27">
+        <v>50</v>
+      </c>
+      <c r="AR27" t="s">
         <v>133</v>
       </c>
-      <c r="AS27" t="s">
+      <c r="AT27" t="s">
         <v>149</v>
       </c>
-      <c r="AT27" t="s">
+      <c r="AU27" t="s">
         <v>145</v>
       </c>
-      <c r="AU27">
+      <c r="AV27">
         <v>30</v>
       </c>
-      <c r="AV27">
+      <c r="AW27">
         <v>120</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="O3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="Q3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="O4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="Q4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="O5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="Q5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="O6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="Q6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="O7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="Q7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="O8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="Q8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="O9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="Q9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="O10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="Q10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="O11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="Q11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="O12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="Q12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="O13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="Q13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="O14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="Q14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="O15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="Q15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="O16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="Q16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="O17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="Q17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="O18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="Q18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="O19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="Q19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="O20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="Q20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="O21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="Q21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="O22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="Q22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="O23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="Q23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="O24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="Q24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="Q25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="O26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="Q26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="O27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="Q27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="P2" r:id="rId1"/>
+    <hyperlink ref="R2" r:id="rId2"/>
+    <hyperlink ref="P3" r:id="rId3"/>
+    <hyperlink ref="R3" r:id="rId4"/>
+    <hyperlink ref="P4" r:id="rId5"/>
+    <hyperlink ref="R4" r:id="rId6"/>
+    <hyperlink ref="P5" r:id="rId7"/>
+    <hyperlink ref="R5" r:id="rId8"/>
+    <hyperlink ref="P6" r:id="rId9"/>
+    <hyperlink ref="R6" r:id="rId10"/>
+    <hyperlink ref="P7" r:id="rId11"/>
+    <hyperlink ref="R7" r:id="rId12"/>
+    <hyperlink ref="P8" r:id="rId13"/>
+    <hyperlink ref="R8" r:id="rId14"/>
+    <hyperlink ref="P9" r:id="rId15"/>
+    <hyperlink ref="R9" r:id="rId16"/>
+    <hyperlink ref="P10" r:id="rId17"/>
+    <hyperlink ref="R10" r:id="rId18"/>
+    <hyperlink ref="P11" r:id="rId19"/>
+    <hyperlink ref="R11" r:id="rId20"/>
+    <hyperlink ref="P12" r:id="rId21"/>
+    <hyperlink ref="R12" r:id="rId22"/>
+    <hyperlink ref="P13" r:id="rId23"/>
+    <hyperlink ref="R13" r:id="rId24"/>
+    <hyperlink ref="P14" r:id="rId25"/>
+    <hyperlink ref="R14" r:id="rId26"/>
+    <hyperlink ref="P15" r:id="rId27"/>
+    <hyperlink ref="R15" r:id="rId28"/>
+    <hyperlink ref="P16" r:id="rId29"/>
+    <hyperlink ref="R16" r:id="rId30"/>
+    <hyperlink ref="P17" r:id="rId31"/>
+    <hyperlink ref="R17" r:id="rId32"/>
+    <hyperlink ref="P18" r:id="rId33"/>
+    <hyperlink ref="R18" r:id="rId34"/>
+    <hyperlink ref="P19" r:id="rId35"/>
+    <hyperlink ref="R19" r:id="rId36"/>
+    <hyperlink ref="P20" r:id="rId37"/>
+    <hyperlink ref="R20" r:id="rId38"/>
+    <hyperlink ref="P21" r:id="rId39"/>
+    <hyperlink ref="R21" r:id="rId40"/>
+    <hyperlink ref="P22" r:id="rId41"/>
+    <hyperlink ref="R22" r:id="rId42"/>
+    <hyperlink ref="P23" r:id="rId43"/>
+    <hyperlink ref="R23" r:id="rId44"/>
+    <hyperlink ref="P24" r:id="rId45"/>
+    <hyperlink ref="R24" r:id="rId46"/>
+    <hyperlink ref="P25" r:id="rId47"/>
+    <hyperlink ref="R25" r:id="rId48"/>
+    <hyperlink ref="P26" r:id="rId49"/>
+    <hyperlink ref="R26" r:id="rId50"/>
+    <hyperlink ref="P27" r:id="rId51"/>
+    <hyperlink ref="R27" r:id="rId52"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/comp armchair.xlsx
+++ b/make_xl/data_xl/comp armchair.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="146">
   <si>
     <t>Id</t>
   </si>
@@ -537,30 +537,6 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Универсальное компьютерное кресло
-Артикул 10438
-Описание механизм качания-
-синхро-механизм: спинка и сиденье постоянно следуют за движениями тела, сила противодействия спинки регулируется в зависимости от веса сидящего(50-110)
-механизмы регулировки:
-регулировка поясничной области; регулировка глубины сидения; регулировка высоты спинки, регулировка жесткости пружины под вес сидящего. 
-Регулировки высоты и угол поворота ручек. 
-производитель: Prosedia (Германия) 
-Цена 24999
-Цвет черное
-Наличие 1   
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 🌟Кресло руководителя Unital D80
 Артикул 10443
@@ -635,27 +611,6 @@
 3D подлокотники из черного пластика. Верхняя часть подлокотников покрыта мягкими черными полиуретановыми накладками. Подлокотники регулируются по высоте и ширине
 Количество кожзам - 3 шт.(10 000 руб. ), 
 ткань - 2 шт. (8 000 руб.)
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Кресло компьютерное
-Артикул 10497
-Описание: Офисное кресло Eva.II от литовского производителя мебели Narbutas. В модели установлена удобная система регулирования, которая приспосабливается к вашим потребностям, а спинка, покрытая воздухопроницаемой сеткой, обеспечивает удобную опору для спины.
-В офисном кресле также интегрирован синхронный механизм с безопасной функцией возврата в исходное положение фиксирует сиденье в 5 положениях.
-Кресло идет с регулируемыми по высоте и наклону подлокотниками 
-Цена: 10 000 р.
-Количество: 4 шт.
-В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе. Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
@@ -829,9 +784,6 @@
     <t>https://disk.yandex.ru/i/eetMWhyxbe7CTQ | https://disk.yandex.ru/i/LAirnTMsDD2CYA | https://disk.yandex.ru/i/0H5PG8QDN0jusQ | https://disk.yandex.ru/i/6_S_dvAHP4jgKQ | https://disk.yandex.ru/i/Hb1FTiwavilN_Q</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/jkYYSe82okvj0A | https://disk.yandex.ru/i/wLbLJdEgqXWBYg | https://disk.yandex.ru/i/D02_2s0YgIRSkw | https://disk.yandex.ru/i/bs9U0qsDTuEG_g | https://disk.yandex.ru/i/lfe9Lp8Wt9-X4A | https://disk.yandex.ru/i/954u_1fECGm2ew</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/apZ0lVsVBKadWA | https://disk.yandex.ru/i/7s1R6DPjhCvXbg | https://disk.yandex.ru/i/Y7CG333ZN0H3BA | https://disk.yandex.ru/i/VgbEbBMc391D3g | https://disk.yandex.ru/i/Pf8cAnkmv7zKIQ | https://disk.yandex.ru/i/_57RFliG2XGVSg | https://disk.yandex.ru/i/mk3gG2sMhQ6Qvg | https://disk.yandex.ru/i/272RfDVgnoGE7A</t>
   </si>
   <si>
@@ -844,9 +796,6 @@
     <t>https://disk.yandex.ru/i/tUeN4X8O8C7MyA | https://disk.yandex.ru/i/HkmXA7SX5cJ2WQ | https://disk.yandex.ru/i/w05zi5_7sxA0wA | https://disk.yandex.ru/i/yR2ezuN1RFfIrQ | https://disk.yandex.ru/i/QGnZrUVeQbogVw | https://disk.yandex.ru/i/tEjiBZ1_1UWMrQ | https://disk.yandex.ru/i/zscFVsGhl71wig | https://disk.yandex.ru/i/YC8mo2kUI2Evig | https://disk.yandex.ru/i/hXJwZuOXFqDCCA | https://disk.yandex.ru/i/_fS0O48zcfmCoQ</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/N8zwILGOvVHhPA | https://disk.yandex.ru/i/eB1dCJ63JiQeyA | https://disk.yandex.ru/i/9vUCFwYBlwSIxw | https://disk.yandex.ru/i/wqFIVCX8pKAZCQ | https://disk.yandex.ru/i/qdk3sV1cnYBhdA | https://disk.yandex.ru/i/mh9XpWx7PquEiw | https://disk.yandex.ru/i/6B-GYz1xMqapFg | https://disk.yandex.ru/i/hErgpYG0kNvsOQ</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/Jk9Pmi3YibEXMA | https://disk.yandex.ru/i/LdOe9M566G7ZJQ | https://disk.yandex.ru/i/vqVznBPIIjidjQ | https://disk.yandex.ru/i/5Vt7aJveU7z2Yw | https://disk.yandex.ru/i/mgECRp-CJBT5ng | https://disk.yandex.ru/i/t2mWPOzGkovfAQ | https://disk.yandex.ru/i/ygqmLhJzxqVxPA | https://disk.yandex.ru/i/QWTTK-NlTTr58w</t>
   </si>
   <si>
@@ -895,21 +844,21 @@
     <t>Бордовый</t>
   </si>
   <si>
+    <t>Белый</t>
+  </si>
+  <si>
+    <t>Оранжевый</t>
+  </si>
+  <si>
+    <t>Коричневый</t>
+  </si>
+  <si>
+    <t>Фиолетовый</t>
+  </si>
+  <si>
     <t>Серый</t>
   </si>
   <si>
-    <t>Белый</t>
-  </si>
-  <si>
-    <t>Оранжевый</t>
-  </si>
-  <si>
-    <t>Коричневый</t>
-  </si>
-  <si>
-    <t>Фиолетовый</t>
-  </si>
-  <si>
     <t>Кресла и стулья</t>
   </si>
   <si>
@@ -947,9 +896,6 @@
   </si>
   <si>
     <t>Подлокотники |Подголовник | Механизм качания | Регулировка высоты |Регулировка подлокотников | Регулировка глубины сиденья</t>
-  </si>
-  <si>
-    <t>Подлокотники | Механизм качания | Регулировка высоты | Регулировка подлокотников</t>
   </si>
   <si>
     <t>Подлокотники | Подголовник | Механизм качания | Регулировка высоты | Регулировка подлокотников</t>
@@ -1347,7 +1293,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV27"/>
+  <dimension ref="A1:AV25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1513,34 +1459,34 @@
         <v>5499</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="S2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC2" t="s">
         <v>113</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
         <v>114</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AE2" t="s">
         <v>115</v>
       </c>
-      <c r="AC2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>119</v>
-      </c>
       <c r="AG2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AH2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AN2">
         <v>50</v>
@@ -1552,16 +1498,16 @@
         <v>50</v>
       </c>
       <c r="AQ2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AR2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS2" t="s">
         <v>144</v>
       </c>
-      <c r="AS2" t="s">
-        <v>149</v>
-      </c>
       <c r="AT2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AU2">
         <v>30</v>
@@ -1584,34 +1530,34 @@
         <v>7000</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="S3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB3" t="s">
         <v>112</v>
       </c>
-      <c r="S3" t="s">
+      <c r="AC3" t="s">
         <v>113</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AD3" t="s">
         <v>114</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AE3" t="s">
         <v>116</v>
       </c>
-      <c r="AC3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>120</v>
-      </c>
       <c r="AG3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AH3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AN3">
         <v>50</v>
@@ -1623,13 +1569,13 @@
         <v>50</v>
       </c>
       <c r="AQ3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AS3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AT3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AU3">
         <v>31</v>
@@ -1652,34 +1598,34 @@
         <v>2999</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="S4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC4" t="s">
         <v>113</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AD4" t="s">
         <v>114</v>
       </c>
-      <c r="AB4" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>118</v>
-      </c>
       <c r="AE4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AG4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AH4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AN4">
         <v>45</v>
@@ -1691,16 +1637,16 @@
         <v>40</v>
       </c>
       <c r="AQ4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AR4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AS4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AT4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AU4">
         <v>30</v>
@@ -1723,34 +1669,34 @@
         <v>3999</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="S5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC5" t="s">
         <v>113</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AD5" t="s">
         <v>114</v>
       </c>
-      <c r="AB5" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>118</v>
-      </c>
       <c r="AE5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AG5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AH5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AN5">
         <v>48</v>
@@ -1762,16 +1708,16 @@
         <v>50</v>
       </c>
       <c r="AQ5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AR5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AS5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AT5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AU5">
         <v>30</v>
@@ -1794,34 +1740,34 @@
         <v>3499</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="S6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB6" t="s">
         <v>112</v>
       </c>
-      <c r="S6" t="s">
+      <c r="AC6" t="s">
         <v>113</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AD6" t="s">
         <v>114</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AE6" t="s">
         <v>116</v>
       </c>
-      <c r="AC6" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>120</v>
-      </c>
       <c r="AG6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AH6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AN6">
         <v>50</v>
@@ -1833,13 +1779,13 @@
         <v>50</v>
       </c>
       <c r="AQ6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AS6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AT6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AU6">
         <v>30</v>
@@ -1862,34 +1808,34 @@
         <v>1499</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="S7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC7" t="s">
         <v>113</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AD7" t="s">
         <v>114</v>
       </c>
-      <c r="AB7" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>118</v>
-      </c>
       <c r="AE7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AG7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AH7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AN7">
         <v>45</v>
@@ -1901,16 +1847,16 @@
         <v>50</v>
       </c>
       <c r="AQ7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AR7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AS7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AT7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AU7">
         <v>30</v>
@@ -1933,34 +1879,34 @@
         <v>3100</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="S8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC8" t="s">
         <v>113</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AD8" t="s">
         <v>114</v>
       </c>
-      <c r="AB8" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC8" t="s">
+      <c r="AE8" t="s">
         <v>117</v>
       </c>
-      <c r="AD8" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>121</v>
-      </c>
       <c r="AG8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AH8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AN8">
         <v>48</v>
@@ -1972,16 +1918,16 @@
         <v>45</v>
       </c>
       <c r="AQ8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AR8" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS8" t="s">
         <v>144</v>
       </c>
-      <c r="AS8" t="s">
-        <v>149</v>
-      </c>
       <c r="AT8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AU8">
         <v>30</v>
@@ -2004,34 +1950,34 @@
         <v>3499</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="S9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC9" t="s">
         <v>113</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AD9" t="s">
         <v>114</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AE9" t="s">
         <v>115</v>
       </c>
-      <c r="AC9" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>119</v>
-      </c>
       <c r="AG9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AH9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AN9">
         <v>48</v>
@@ -2043,16 +1989,16 @@
         <v>50</v>
       </c>
       <c r="AQ9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AR9" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS9" t="s">
         <v>144</v>
       </c>
-      <c r="AS9" t="s">
-        <v>149</v>
-      </c>
       <c r="AT9" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AU9">
         <v>30</v>
@@ -2075,34 +2021,34 @@
         <v>3499</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="S10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB10" t="s">
         <v>112</v>
       </c>
-      <c r="S10" t="s">
+      <c r="AC10" t="s">
         <v>113</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AD10" t="s">
         <v>114</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AE10" t="s">
         <v>116</v>
       </c>
-      <c r="AC10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>120</v>
-      </c>
       <c r="AG10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AH10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AN10">
         <v>50</v>
@@ -2114,13 +2060,13 @@
         <v>50</v>
       </c>
       <c r="AQ10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AS10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AT10" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AU10">
         <v>30</v>
@@ -2143,34 +2089,34 @@
         <v>3999</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="S11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC11" t="s">
         <v>113</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AD11" t="s">
         <v>114</v>
       </c>
-      <c r="AB11" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC11" t="s">
+      <c r="AE11" t="s">
         <v>117</v>
       </c>
-      <c r="AD11" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>121</v>
-      </c>
       <c r="AG11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AH11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AN11">
         <v>50</v>
@@ -2182,16 +2128,16 @@
         <v>48</v>
       </c>
       <c r="AQ11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AR11" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS11" t="s">
         <v>144</v>
       </c>
-      <c r="AS11" t="s">
-        <v>149</v>
-      </c>
       <c r="AT11" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AU11">
         <v>30</v>
@@ -2214,34 +2160,34 @@
         <v>2300</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="S12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC12" t="s">
         <v>113</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AD12" t="s">
         <v>114</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AE12" t="s">
         <v>115</v>
       </c>
-      <c r="AC12" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>119</v>
-      </c>
       <c r="AG12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AH12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AN12">
         <v>48</v>
@@ -2253,16 +2199,16 @@
         <v>50</v>
       </c>
       <c r="AQ12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AR12" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS12" t="s">
         <v>144</v>
       </c>
-      <c r="AS12" t="s">
-        <v>149</v>
-      </c>
       <c r="AT12" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AU12">
         <v>31</v>
@@ -2285,34 +2231,34 @@
         <v>3999</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="S13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC13" t="s">
         <v>113</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AD13" t="s">
         <v>114</v>
       </c>
-      <c r="AB13" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>118</v>
-      </c>
       <c r="AE13" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AG13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AH13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AN13">
         <v>50</v>
@@ -2324,16 +2270,16 @@
         <v>50</v>
       </c>
       <c r="AQ13" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AR13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AS13" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AT13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AU13">
         <v>30</v>
@@ -2356,34 +2302,34 @@
         <v>5999</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="S14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC14" t="s">
         <v>113</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AD14" t="s">
         <v>114</v>
       </c>
-      <c r="AB14" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>118</v>
-      </c>
       <c r="AE14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AG14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AH14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AN14">
         <v>50</v>
@@ -2395,16 +2341,16 @@
         <v>50</v>
       </c>
       <c r="AQ14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AR14" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AS14" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AT14" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AU14">
         <v>30</v>
@@ -2427,34 +2373,34 @@
         <v>9999</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="S15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC15" t="s">
         <v>113</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AD15" t="s">
         <v>114</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AE15" t="s">
         <v>115</v>
       </c>
-      <c r="AC15" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>119</v>
-      </c>
       <c r="AG15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AH15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AN15">
         <v>50</v>
@@ -2466,16 +2412,16 @@
         <v>50</v>
       </c>
       <c r="AQ15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AR15" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AS15" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AT15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AU15">
         <v>30</v>
@@ -2498,34 +2444,34 @@
         <v>7999</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="S16" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC16" t="s">
         <v>113</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AD16" t="s">
         <v>114</v>
       </c>
-      <c r="AB16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>118</v>
       </c>
-      <c r="AE16" t="s">
-        <v>122</v>
-      </c>
       <c r="AG16" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AH16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AN16">
         <v>50</v>
@@ -2537,16 +2483,16 @@
         <v>50</v>
       </c>
       <c r="AQ16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AR16" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AS16" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AT16" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AU16">
         <v>30</v>
@@ -2557,493 +2503,487 @@
     </row>
     <row r="17" spans="1:48">
       <c r="A17">
-        <v>10438</v>
+        <v>10443</v>
       </c>
       <c r="L17" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="M17" t="s">
         <v>76</v>
       </c>
       <c r="N17">
-        <v>25000</v>
+        <v>10500</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="S17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC17" t="s">
         <v>113</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AD17" t="s">
         <v>114</v>
       </c>
-      <c r="AB17" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>118</v>
-      </c>
       <c r="AE17" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="AG17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AH17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AN17">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AO17">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AP17">
         <v>50</v>
       </c>
       <c r="AQ17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AR17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AS17" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AT17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AU17">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AV17">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:48">
       <c r="A18">
-        <v>10443</v>
+        <v>10460</v>
       </c>
       <c r="L18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M18" t="s">
         <v>77</v>
       </c>
       <c r="N18">
-        <v>10500</v>
+        <v>7999</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="S18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC18" t="s">
         <v>113</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AD18" t="s">
         <v>114</v>
       </c>
-      <c r="AB18" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>118</v>
-      </c>
       <c r="AE18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG18" t="s">
         <v>124</v>
       </c>
-      <c r="AG18" t="s">
-        <v>128</v>
-      </c>
       <c r="AH18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AN18">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AO18">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AP18">
         <v>50</v>
       </c>
       <c r="AQ18" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="AR18" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AS18" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AT18" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AU18">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AV18">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:48">
       <c r="A19">
-        <v>10460</v>
+        <v>10480</v>
       </c>
       <c r="L19" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="M19" t="s">
         <v>78</v>
       </c>
       <c r="N19">
-        <v>7999</v>
+        <v>9999</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="S19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC19" t="s">
         <v>113</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AD19" t="s">
         <v>114</v>
       </c>
-      <c r="AB19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>118</v>
-      </c>
       <c r="AE19" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AG19" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AH19" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AN19">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AO19">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AP19">
         <v>50</v>
       </c>
       <c r="AQ19" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AR19" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AS19" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AT19" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AU19">
         <v>30</v>
       </c>
       <c r="AV19">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:48">
       <c r="A20">
-        <v>10480</v>
+        <v>10494</v>
       </c>
       <c r="L20" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M20" t="s">
         <v>79</v>
       </c>
       <c r="N20">
-        <v>9999</v>
+        <v>7999</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="S20" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC20" t="s">
         <v>113</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AD20" t="s">
         <v>114</v>
       </c>
-      <c r="AB20" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>118</v>
-      </c>
       <c r="AE20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AG20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AH20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AN20">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AO20">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AP20">
         <v>50</v>
       </c>
       <c r="AQ20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AR20" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AS20" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AT20" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AU20">
         <v>30</v>
       </c>
       <c r="AV20">
-        <v>150</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:48">
       <c r="A21">
-        <v>10494</v>
+        <v>10501</v>
       </c>
       <c r="L21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M21" t="s">
         <v>80</v>
       </c>
       <c r="N21">
-        <v>7999</v>
+        <v>6999</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="S21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC21" t="s">
         <v>113</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AD21" t="s">
         <v>114</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>118</v>
       </c>
       <c r="AE21" t="s">
         <v>120</v>
       </c>
       <c r="AG21" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AH21" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AN21">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AO21">
+        <v>48</v>
+      </c>
+      <c r="AP21">
         <v>53</v>
       </c>
-      <c r="AP21">
-        <v>50</v>
-      </c>
       <c r="AQ21" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AR21" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="AS21" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AT21" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="AU21">
         <v>30</v>
       </c>
       <c r="AV21">
-        <v>180</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:48">
       <c r="A22">
-        <v>10497</v>
+        <v>10522</v>
       </c>
       <c r="L22" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="M22" t="s">
         <v>81</v>
       </c>
       <c r="N22">
-        <v>9999</v>
+        <v>5999</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="S22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB22" t="s">
         <v>112</v>
       </c>
-      <c r="S22" t="s">
+      <c r="AC22" t="s">
         <v>113</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AD22" t="s">
         <v>114</v>
       </c>
-      <c r="AB22" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>118</v>
-      </c>
       <c r="AE22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG22" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AH22" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AN22">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AO22">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AP22">
         <v>50</v>
       </c>
       <c r="AQ22" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>144</v>
+      </c>
+      <c r="AT22" t="s">
         <v>141</v>
-      </c>
-      <c r="AR22" t="s">
-        <v>146</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>149</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>145</v>
       </c>
       <c r="AU22">
         <v>30</v>
       </c>
       <c r="AV22">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:48">
       <c r="A23">
-        <v>10501</v>
+        <v>10522</v>
       </c>
       <c r="L23" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="M23" t="s">
         <v>82</v>
       </c>
       <c r="N23">
-        <v>6999</v>
+        <v>5999</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="S23" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB23" t="s">
         <v>112</v>
       </c>
-      <c r="S23" t="s">
+      <c r="AC23" t="s">
         <v>113</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AD23" t="s">
         <v>114</v>
       </c>
-      <c r="AB23" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>118</v>
-      </c>
       <c r="AE23" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH23" t="s">
         <v>125</v>
       </c>
-      <c r="AG23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>129</v>
-      </c>
       <c r="AN23">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO23">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AP23">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AQ23" t="s">
-        <v>142</v>
-      </c>
-      <c r="AR23" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS23" t="s">
         <v>144</v>
       </c>
-      <c r="AS23" t="s">
-        <v>149</v>
-      </c>
       <c r="AT23" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AU23">
         <v>30</v>
@@ -3054,114 +2994,114 @@
     </row>
     <row r="24" spans="1:48">
       <c r="A24">
-        <v>10522</v>
+        <v>10532</v>
       </c>
       <c r="L24" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="M24" t="s">
         <v>83</v>
       </c>
       <c r="N24">
-        <v>5999</v>
+        <v>7999</v>
       </c>
       <c r="O24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q24" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="Q24" s="2" t="s">
+      <c r="S24" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB24" t="s">
         <v>112</v>
       </c>
-      <c r="S24" t="s">
+      <c r="AC24" t="s">
         <v>113</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AD24" t="s">
         <v>114</v>
       </c>
-      <c r="AB24" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>118</v>
-      </c>
       <c r="AE24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AG24" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AH24" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN24">
+        <v>48</v>
+      </c>
+      <c r="AO24">
+        <v>45</v>
+      </c>
+      <c r="AP24">
+        <v>50</v>
+      </c>
+      <c r="AQ24" t="s">
         <v>129</v>
       </c>
-      <c r="AN24">
-        <v>50</v>
-      </c>
-      <c r="AO24">
-        <v>48</v>
-      </c>
-      <c r="AP24">
-        <v>50</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>134</v>
-      </c>
       <c r="AS24" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AT24" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AU24">
         <v>30</v>
       </c>
       <c r="AV24">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:48">
       <c r="A25">
-        <v>10522</v>
+        <v>10532</v>
       </c>
       <c r="L25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M25" t="s">
         <v>84</v>
       </c>
       <c r="N25">
-        <v>5999</v>
+        <v>7999</v>
       </c>
       <c r="O25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="S25" t="s">
         <v>109</v>
       </c>
-      <c r="Q25" s="2" t="s">
+      <c r="AA25" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB25" t="s">
         <v>112</v>
       </c>
-      <c r="S25" t="s">
+      <c r="AC25" t="s">
         <v>113</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AD25" t="s">
         <v>114</v>
       </c>
-      <c r="AB25" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>118</v>
-      </c>
       <c r="AE25" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AG25" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AH25" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AN25">
         <v>48</v>
@@ -3173,154 +3113,18 @@
         <v>50</v>
       </c>
       <c r="AQ25" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="AS25" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AT25" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AU25">
         <v>30</v>
       </c>
       <c r="AV25">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:48">
-      <c r="A26">
-        <v>10532</v>
-      </c>
-      <c r="L26" t="s">
-        <v>50</v>
-      </c>
-      <c r="M26" t="s">
-        <v>85</v>
-      </c>
-      <c r="N26">
-        <v>7999</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="S26" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>129</v>
-      </c>
-      <c r="AN26">
-        <v>48</v>
-      </c>
-      <c r="AO26">
-        <v>45</v>
-      </c>
-      <c r="AP26">
-        <v>50</v>
-      </c>
-      <c r="AQ26" t="s">
-        <v>133</v>
-      </c>
-      <c r="AS26" t="s">
-        <v>149</v>
-      </c>
-      <c r="AT26" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU26">
-        <v>30</v>
-      </c>
-      <c r="AV26">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:48">
-      <c r="A27">
-        <v>10532</v>
-      </c>
-      <c r="L27" t="s">
-        <v>50</v>
-      </c>
-      <c r="M27" t="s">
-        <v>86</v>
-      </c>
-      <c r="N27">
-        <v>7999</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="S27" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>129</v>
-      </c>
-      <c r="AN27">
-        <v>48</v>
-      </c>
-      <c r="AO27">
-        <v>45</v>
-      </c>
-      <c r="AP27">
-        <v>50</v>
-      </c>
-      <c r="AQ27" t="s">
-        <v>133</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>149</v>
-      </c>
-      <c r="AT27" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU27">
-        <v>30</v>
-      </c>
-      <c r="AV27">
         <v>120</v>
       </c>
     </row>
@@ -3374,10 +3178,6 @@
     <hyperlink ref="Q24" r:id="rId46"/>
     <hyperlink ref="O25" r:id="rId47"/>
     <hyperlink ref="Q25" r:id="rId48"/>
-    <hyperlink ref="O26" r:id="rId49"/>
-    <hyperlink ref="Q26" r:id="rId50"/>
-    <hyperlink ref="O27" r:id="rId51"/>
-    <hyperlink ref="Q27" r:id="rId52"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/comp armchair.xlsx
+++ b/make_xl/data_xl/comp armchair.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="156">
   <si>
     <t>Id</t>
   </si>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t>Офисное компьютерное кресло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кресло компьютерное Chairman </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кресло Бюрократ </t>
   </si>
   <si>
     <t>Кресло с высокой спинкой (10371) 
@@ -742,6 +748,86 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t xml:space="preserve">Кресло компьютерное Chairman 
+Артикул: 10410 
+Количество: 100
+Цена: 12 000 
+Производство: Россия 
+Название: CHAIRMAN ERGO 281 
+Материалы: Натуральная кожа* Сетка*
+Подлокотники: Металлические с кожаными накладками. Регулировка в 2-х направлениях
+Крестовина: Металлическая полированная
+Ролики: Стандарт BIFMA 5,1 (США), диаметр штока 11 мм, покрытие – нейлон
+Набивка: Вспененный полиуретан плотностью 22-25 кг/куб.м
+Каркас Немонолитный
+Механизм качания С синхронным отклонением сидения и спинки 1:3, с фиксацией кресла в нескольких положениях. Регулировка кресла по высоте
+Газпатрон3 класса по стандарту Germany DIN 4550
+Рекомендованная максимальная нагрузка120 кг
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Кресло Бюрократ 
+Артикул 10301
+Модель CH-799SL, рассчитана на большой вес! 
+Кресла в отличном состоянии.
+Предлагаю самую выгодную цену на рынке ! Похожие модели новых от 6500 т., бу 3500-4000
+Эргономичное офисное кресло Бюрократ c обивкой из ткани и сетки, хромированной крестовиной, подлокотниками, регулировкой кресла по высоте (газлифт) и ограничением по весу: 120 кг. Отличительной особенностью данной модели является пружинно-винтовой механизм качания спинки. 
+В наличии более 80 штук
+Цена: 2999
+В розницу - 3999
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кресло для руководителя
+Артикул 10538
+Описание 
+Цвет чёрный 
+Цена 14 999
+Количество 1
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/ZDiUdOWTq7XF1g | https://disk.yandex.ru/i/a_u5CWPrYhAoIA | https://disk.yandex.ru/i/2U4SaFSBylFuSg | https://disk.yandex.ru/i/5xCnmpLS2Ky7dQ | https://disk.yandex.ru/i/ugTACqRM4oAMBA</t>
   </si>
   <si>
@@ -811,6 +897,15 @@
     <t>https://disk.yandex.ru/i/UiSbbITJzTBOqw | https://disk.yandex.ru/i/BSwbfy6jE64Kpw | https://disk.yandex.ru/i/ut-HyMgP6ytXEA | https://disk.yandex.ru/i/P3f-5y7REJLEdg | https://disk.yandex.ru/i/E9s-9RthI59j8A | https://disk.yandex.ru/i/dKX_to5o7-PsSw | https://disk.yandex.ru/i/Rv74BQHjuHKSMg | https://disk.yandex.ru/i/JQfnVykq74XMLw | https://disk.yandex.ru/i/AFuhZxtmexdrmQ</t>
   </si>
   <si>
+    <t>https://yadi.sk/i/bZpvYLgJkQeS5A | https://yadi.sk/i/pQd-PGVs48AaIw | https://yadi.sk/i/suuO6PTkZXJdwg | https://yadi.sk/i/fHcjrSdVZpBP4w | https://yadi.sk/i/JCCBmfu4mVBVKA | https://yadi.sk/i/KSs7yEVXrQvtdg | https://yadi.sk/i/b-JXSfrfJd4nhw | https://yadi.sk/i/MCBY2S-TBrV2-A | https://yadi.sk/i/jyeamFEdpJUNuA | https://yadi.sk/i/OFUMpOc8CQ7mCQ</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/zs1LO9iUDpfvJA | https://yadi.sk/i/4XJto5aU9Pk5Qw | https://yadi.sk/i/RW2frD43bhg6dA | https://yadi.sk/i/i9uwNxDWupMaCg | https://yadi.sk/i/2GcC1EzIDr7XHQ | https://yadi.sk/i/WjREaYhYzBzk1Q | https://yadi.sk/i/MFqy3a-nWEK21g | https://yadi.sk/i/zKc5FfCGsSjQ2g | https://yadi.sk/i/auG_5U6jJCE9OQ | https://yadi.sk/i/flJEu_19ssvBBA</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/rJG_GF3r4N8AmQ | https://yadi.sk/i/mO9zE0LznQaB8Q | https://yadi.sk/i/p8UIxRy-jOuMng | https://yadi.sk/i/2TEYu1-sI1QWQQ | https://yadi.sk/i/rtiJTkhJ4__RNw | https://yadi.sk/i/g7IeZQAmbGDzBQ | https://yadi.sk/i/8KWCRYxO03XtgA</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -904,6 +999,9 @@
     <t>Подлокотники | Механизм качания | Регулировка наклона спинки | Регулировка высоты | Регулировка подлокотников | Поясничный упор</t>
   </si>
   <si>
+    <t>Подлокотники | Подголовник | Механизм качания | Регулировка наклона спинки | Регулировка высоты | Регулировка подлокотников | Поясничный упор</t>
+  </si>
+  <si>
     <t>Замша</t>
   </si>
   <si>
@@ -923,6 +1021,9 @@
   </si>
   <si>
     <t>Искусственная кожа</t>
+  </si>
+  <si>
+    <t>Ткань | Сетка</t>
   </si>
 </sst>
 </file>
@@ -1293,7 +1394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV25"/>
+  <dimension ref="A1:AV28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1453,40 +1554,40 @@
         <v>48</v>
       </c>
       <c r="M2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N2">
         <v>5499</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="S2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="AA2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="AB2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AC2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AD2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AE2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="AG2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="AH2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AN2">
         <v>50</v>
@@ -1498,16 +1599,16 @@
         <v>50</v>
       </c>
       <c r="AQ2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="AR2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="AS2" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AT2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="AU2">
         <v>30</v>
@@ -1524,40 +1625,40 @@
         <v>49</v>
       </c>
       <c r="M3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N3">
         <v>7000</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="S3" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="AA3" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="AB3" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="AC3" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AD3" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AE3" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="AG3" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="AH3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AN3">
         <v>50</v>
@@ -1569,13 +1670,13 @@
         <v>50</v>
       </c>
       <c r="AQ3" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="AS3" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AT3" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AU3">
         <v>31</v>
@@ -1592,40 +1693,40 @@
         <v>50</v>
       </c>
       <c r="M4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N4">
         <v>2999</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="S4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="AA4" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="AB4" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AC4" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AD4" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AE4" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="AG4" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="AH4" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AN4">
         <v>45</v>
@@ -1637,16 +1738,16 @@
         <v>40</v>
       </c>
       <c r="AQ4" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="AR4" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AS4" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AT4" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AU4">
         <v>30</v>
@@ -1663,40 +1764,40 @@
         <v>51</v>
       </c>
       <c r="M5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N5">
         <v>3999</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="S5" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="AA5" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="AB5" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AC5" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AD5" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AE5" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="AG5" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="AH5" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AN5">
         <v>48</v>
@@ -1708,16 +1809,16 @@
         <v>50</v>
       </c>
       <c r="AQ5" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="AR5" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AS5" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AT5" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AU5">
         <v>30</v>
@@ -1734,40 +1835,40 @@
         <v>52</v>
       </c>
       <c r="M6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N6">
         <v>3499</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="S6" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="AA6" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="AB6" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="AC6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AD6" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AE6" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="AG6" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="AH6" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AN6">
         <v>50</v>
@@ -1779,13 +1880,13 @@
         <v>50</v>
       </c>
       <c r="AQ6" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="AS6" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AT6" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AU6">
         <v>30</v>
@@ -1802,40 +1903,40 @@
         <v>48</v>
       </c>
       <c r="M7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N7">
         <v>1499</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="S7" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="AA7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="AB7" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AC7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AD7" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AE7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="AG7" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="AH7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AN7">
         <v>45</v>
@@ -1847,16 +1948,16 @@
         <v>50</v>
       </c>
       <c r="AQ7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="AR7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AS7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AT7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AU7">
         <v>30</v>
@@ -1873,40 +1974,40 @@
         <v>49</v>
       </c>
       <c r="M8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N8">
         <v>3100</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="S8" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="AA8" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="AB8" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AC8" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AD8" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AE8" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="AG8" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="AH8" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AN8">
         <v>48</v>
@@ -1918,16 +2019,16 @@
         <v>45</v>
       </c>
       <c r="AQ8" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="AR8" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="AS8" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AT8" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="AU8">
         <v>30</v>
@@ -1944,40 +2045,40 @@
         <v>53</v>
       </c>
       <c r="M9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N9">
         <v>3499</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="S9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="AA9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="AB9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AC9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AD9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AE9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="AG9" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="AH9" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AN9">
         <v>48</v>
@@ -1989,16 +2090,16 @@
         <v>50</v>
       </c>
       <c r="AQ9" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="AR9" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="AS9" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AT9" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="AU9">
         <v>30</v>
@@ -2015,40 +2116,40 @@
         <v>54</v>
       </c>
       <c r="M10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N10">
         <v>3499</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="S10" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="AA10" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="AB10" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="AC10" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AD10" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AE10" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="AG10" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="AH10" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AN10">
         <v>50</v>
@@ -2060,13 +2161,13 @@
         <v>50</v>
       </c>
       <c r="AQ10" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="AS10" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AT10" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AU10">
         <v>30</v>
@@ -2083,40 +2184,40 @@
         <v>50</v>
       </c>
       <c r="M11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N11">
         <v>3999</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="S11" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="AA11" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="AB11" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AC11" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AD11" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AE11" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="AG11" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="AH11" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AN11">
         <v>50</v>
@@ -2128,16 +2229,16 @@
         <v>48</v>
       </c>
       <c r="AQ11" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="AR11" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="AS11" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AT11" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="AU11">
         <v>30</v>
@@ -2154,40 +2255,40 @@
         <v>55</v>
       </c>
       <c r="M12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N12">
         <v>2300</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="S12" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="AA12" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="AB12" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AC12" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AD12" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AE12" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="AG12" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="AH12" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AN12">
         <v>48</v>
@@ -2199,16 +2300,16 @@
         <v>50</v>
       </c>
       <c r="AQ12" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="AR12" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="AS12" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AT12" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="AU12">
         <v>31</v>
@@ -2225,40 +2326,40 @@
         <v>56</v>
       </c>
       <c r="M13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N13">
         <v>3999</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="S13" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="AA13" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="AB13" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AC13" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AD13" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AE13" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="AG13" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="AH13" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AN13">
         <v>50</v>
@@ -2270,16 +2371,16 @@
         <v>50</v>
       </c>
       <c r="AQ13" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="AR13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AS13" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AT13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AU13">
         <v>30</v>
@@ -2296,40 +2397,40 @@
         <v>57</v>
       </c>
       <c r="M14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N14">
         <v>5999</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="S14" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="AA14" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="AB14" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AC14" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AD14" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AE14" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="AH14" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AN14">
         <v>50</v>
@@ -2341,16 +2442,16 @@
         <v>50</v>
       </c>
       <c r="AQ14" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="AR14" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AS14" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AT14" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="AU14">
         <v>30</v>
@@ -2367,40 +2468,40 @@
         <v>55</v>
       </c>
       <c r="M15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N15">
         <v>9999</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="S15" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="AA15" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="AB15" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AC15" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AD15" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AE15" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="AG15" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="AH15" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AN15">
         <v>50</v>
@@ -2412,16 +2513,16 @@
         <v>50</v>
       </c>
       <c r="AQ15" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="AR15" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AS15" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AT15" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AU15">
         <v>30</v>
@@ -2438,40 +2539,40 @@
         <v>49</v>
       </c>
       <c r="M16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N16">
         <v>7999</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="S16" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="AA16" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="AB16" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AC16" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AD16" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AE16" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AG16" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="AH16" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AN16">
         <v>50</v>
@@ -2483,16 +2584,16 @@
         <v>50</v>
       </c>
       <c r="AQ16" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="AR16" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AS16" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AT16" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AU16">
         <v>30</v>
@@ -2509,40 +2610,40 @@
         <v>57</v>
       </c>
       <c r="M17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N17">
         <v>10500</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="S17" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="AA17" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="AB17" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AC17" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AD17" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AE17" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="AG17" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="AH17" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AN17">
         <v>55</v>
@@ -2554,16 +2655,16 @@
         <v>50</v>
       </c>
       <c r="AQ17" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="AR17" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AS17" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AT17" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AU17">
         <v>35</v>
@@ -2580,40 +2681,40 @@
         <v>58</v>
       </c>
       <c r="M18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N18">
         <v>7999</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="S18" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="AA18" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="AB18" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AC18" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AD18" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AE18" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="AG18" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="AH18" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AN18">
         <v>48</v>
@@ -2625,16 +2726,16 @@
         <v>50</v>
       </c>
       <c r="AQ18" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="AR18" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AS18" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AT18" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AU18">
         <v>30</v>
@@ -2651,40 +2752,40 @@
         <v>49</v>
       </c>
       <c r="M19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N19">
         <v>9999</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="S19" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="AA19" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="AB19" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AC19" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AD19" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AE19" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="AG19" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="AH19" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AN19">
         <v>50</v>
@@ -2696,16 +2797,16 @@
         <v>50</v>
       </c>
       <c r="AQ19" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="AR19" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="AS19" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AT19" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="AU19">
         <v>30</v>
@@ -2722,40 +2823,40 @@
         <v>57</v>
       </c>
       <c r="M20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N20">
         <v>7999</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="S20" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="AA20" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="AB20" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AC20" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AD20" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AE20" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="AG20" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="AH20" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AN20">
         <v>55</v>
@@ -2767,16 +2868,16 @@
         <v>50</v>
       </c>
       <c r="AQ20" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="AR20" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="AS20" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AT20" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="AU20">
         <v>30</v>
@@ -2793,40 +2894,40 @@
         <v>59</v>
       </c>
       <c r="M21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N21">
         <v>6999</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="S21" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="AA21" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="AB21" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AC21" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AD21" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AE21" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="AG21" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="AH21" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AN21">
         <v>50</v>
@@ -2838,16 +2939,16 @@
         <v>53</v>
       </c>
       <c r="AQ21" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="AR21" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="AS21" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AT21" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="AU21">
         <v>30</v>
@@ -2864,40 +2965,40 @@
         <v>60</v>
       </c>
       <c r="M22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N22">
         <v>5999</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="S22" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="AA22" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="AB22" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="AC22" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AD22" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AE22" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="AG22" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="AH22" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AN22">
         <v>50</v>
@@ -2909,13 +3010,13 @@
         <v>50</v>
       </c>
       <c r="AQ22" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="AS22" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AT22" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AU22">
         <v>30</v>
@@ -2932,40 +3033,40 @@
         <v>49</v>
       </c>
       <c r="M23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N23">
         <v>5999</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="S23" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="AA23" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="AB23" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="AC23" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AD23" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AE23" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="AG23" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="AH23" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AN23">
         <v>48</v>
@@ -2977,13 +3078,13 @@
         <v>50</v>
       </c>
       <c r="AQ23" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="AS23" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AT23" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AU23">
         <v>30</v>
@@ -3000,40 +3101,40 @@
         <v>50</v>
       </c>
       <c r="M24" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N24">
         <v>7999</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="S24" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="AA24" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="AB24" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="AC24" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AD24" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AE24" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="AG24" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="AH24" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AN24">
         <v>48</v>
@@ -3045,13 +3146,13 @@
         <v>50</v>
       </c>
       <c r="AQ24" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="AS24" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AT24" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AU24">
         <v>30</v>
@@ -3068,40 +3169,40 @@
         <v>50</v>
       </c>
       <c r="M25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N25">
         <v>7999</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="S25" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="AA25" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="AB25" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="AC25" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AD25" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AE25" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="AG25" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="AH25" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AN25">
         <v>48</v>
@@ -3113,19 +3214,178 @@
         <v>50</v>
       </c>
       <c r="AQ25" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="AS25" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AT25" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AU25">
         <v>30</v>
       </c>
       <c r="AV25">
         <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:48">
+      <c r="A26">
+        <v>10410</v>
+      </c>
+      <c r="L26" t="s">
+        <v>61</v>
+      </c>
+      <c r="M26" t="s">
+        <v>87</v>
+      </c>
+      <c r="N26">
+        <v>12000</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="S26" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:48">
+      <c r="A27">
+        <v>10301</v>
+      </c>
+      <c r="L27" t="s">
+        <v>62</v>
+      </c>
+      <c r="M27" t="s">
+        <v>88</v>
+      </c>
+      <c r="N27">
+        <v>2999</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="S27" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>135</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:48">
+      <c r="A28">
+        <v>10538</v>
+      </c>
+      <c r="L28" t="s">
+        <v>56</v>
+      </c>
+      <c r="M28" t="s">
+        <v>89</v>
+      </c>
+      <c r="N28">
+        <v>14999</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="S28" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>135</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3178,6 +3438,12 @@
     <hyperlink ref="Q24" r:id="rId46"/>
     <hyperlink ref="O25" r:id="rId47"/>
     <hyperlink ref="Q25" r:id="rId48"/>
+    <hyperlink ref="O26" r:id="rId49"/>
+    <hyperlink ref="Q26" r:id="rId50"/>
+    <hyperlink ref="O27" r:id="rId51"/>
+    <hyperlink ref="Q27" r:id="rId52"/>
+    <hyperlink ref="O28" r:id="rId53"/>
+    <hyperlink ref="Q28" r:id="rId54"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/comp armchair.xlsx
+++ b/make_xl/data_xl/comp armchair.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51C3DA8-F7CA-4AAC-A7D1-232A64EA5B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -897,15 +903,6 @@
     <t>https://disk.yandex.ru/i/UiSbbITJzTBOqw | https://disk.yandex.ru/i/BSwbfy6jE64Kpw | https://disk.yandex.ru/i/ut-HyMgP6ytXEA | https://disk.yandex.ru/i/P3f-5y7REJLEdg | https://disk.yandex.ru/i/E9s-9RthI59j8A | https://disk.yandex.ru/i/dKX_to5o7-PsSw | https://disk.yandex.ru/i/Rv74BQHjuHKSMg | https://disk.yandex.ru/i/JQfnVykq74XMLw | https://disk.yandex.ru/i/AFuhZxtmexdrmQ</t>
   </si>
   <si>
-    <t>https://yadi.sk/i/bZpvYLgJkQeS5A | https://yadi.sk/i/pQd-PGVs48AaIw | https://yadi.sk/i/suuO6PTkZXJdwg | https://yadi.sk/i/fHcjrSdVZpBP4w | https://yadi.sk/i/JCCBmfu4mVBVKA | https://yadi.sk/i/KSs7yEVXrQvtdg | https://yadi.sk/i/b-JXSfrfJd4nhw | https://yadi.sk/i/MCBY2S-TBrV2-A | https://yadi.sk/i/jyeamFEdpJUNuA | https://yadi.sk/i/OFUMpOc8CQ7mCQ</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/zs1LO9iUDpfvJA | https://yadi.sk/i/4XJto5aU9Pk5Qw | https://yadi.sk/i/RW2frD43bhg6dA | https://yadi.sk/i/i9uwNxDWupMaCg | https://yadi.sk/i/2GcC1EzIDr7XHQ | https://yadi.sk/i/WjREaYhYzBzk1Q | https://yadi.sk/i/MFqy3a-nWEK21g | https://yadi.sk/i/zKc5FfCGsSjQ2g | https://yadi.sk/i/auG_5U6jJCE9OQ | https://yadi.sk/i/flJEu_19ssvBBA</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/rJG_GF3r4N8AmQ | https://yadi.sk/i/mO9zE0LznQaB8Q | https://yadi.sk/i/p8UIxRy-jOuMng | https://yadi.sk/i/2TEYu1-sI1QWQQ | https://yadi.sk/i/rtiJTkhJ4__RNw | https://yadi.sk/i/g7IeZQAmbGDzBQ | https://yadi.sk/i/8KWCRYxO03XtgA</t>
-  </si>
-  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -1024,13 +1021,22 @@
   </si>
   <si>
     <t>Ткань | Сетка</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/bZpvYLgJkQeS5A | https://disk.yandex.ru/i/pQd-PGVs48AaIw | https://disk.yandex.ru/i/suuO6PTkZXJdwg | https://disk.yandex.ru/i/fHcjrSdVZpBP4w | https://disk.yandex.ru/i/JCCBmfu4mVBVKA | https://disk.yandex.ru/i/KSs7yEVXrQvtdg | https://disk.yandex.ru/i/b-JXSfrfJd4nhw | https://disk.yandex.ru/i/MCBY2S-TBrV2-A | https://disk.yandex.ru/i/jyeamFEdpJUNuA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/zs1LO9iUDpfvJA | https://disk.yandex.ru/i/4XJto5aU9Pk5Qw | https://disk.yandex.ru/i/RW2frD43bhg6dA | https://disk.yandex.ru/i/i9uwNxDWupMaCg | https://disk.yandex.ru/i/2GcC1EzIDr7XHQ | https://disk.yandex.ru/i/WjREaYhYzBzk1Q | https://disk.yandex.ru/i/MFqy3a-nWEK21g | https://disk.yandex.ru/i/zKc5FfCGsSjQ2g | https://disk.yandex.ru/i/auG_5U6jJCE9OQ | https://disk.yandex.ru/i/flJEu_19ssvBBA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/mO9zE0LznQaB8Q | https://disk.yandex.ru/i/rJG_GF3r4N8AmQ | https://disk.yandex.ru/i/p8UIxRy-jOuMng | https://disk.yandex.ru/i/2TEYu1-sI1QWQQ | https://disk.yandex.ru/i/rtiJTkhJ4__RNw | https://disk.yandex.ru/i/g7IeZQAmbGDzBQ | https://disk.yandex.ru/i/8KWCRYxO03XtgA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1101,18 +1107,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1150,9 +1164,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1184,9 +1198,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1218,9 +1250,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1393,14 +1443,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1546,7 +1598,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1563,31 +1615,31 @@
         <v>90</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="S2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB2" t="s">
         <v>116</v>
       </c>
-      <c r="S2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>118</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>119</v>
       </c>
-      <c r="AC2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>122</v>
-      </c>
       <c r="AE2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AG2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AH2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AN2">
         <v>50</v>
@@ -1599,16 +1651,16 @@
         <v>50</v>
       </c>
       <c r="AQ2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AR2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AS2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AT2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AU2">
         <v>30</v>
@@ -1617,7 +1669,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10031</v>
       </c>
@@ -1634,31 +1686,31 @@
         <v>91</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="S3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB3" t="s">
         <v>117</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AC3" t="s">
         <v>118</v>
       </c>
-      <c r="AB3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE3" t="s">
         <v>121</v>
       </c>
-      <c r="AD3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>124</v>
-      </c>
       <c r="AG3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AH3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AN3">
         <v>50</v>
@@ -1670,13 +1722,13 @@
         <v>50</v>
       </c>
       <c r="AQ3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AS3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AT3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AU3">
         <v>31</v>
@@ -1685,7 +1737,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10301</v>
       </c>
@@ -1702,31 +1754,31 @@
         <v>92</v>
       </c>
       <c r="Q4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="S4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB4" t="s">
         <v>116</v>
       </c>
-      <c r="S4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA4" t="s">
+      <c r="AC4" t="s">
         <v>118</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
         <v>119</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AE4" t="s">
         <v>121</v>
       </c>
-      <c r="AD4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>124</v>
-      </c>
       <c r="AG4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AH4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AN4">
         <v>45</v>
@@ -1738,16 +1790,16 @@
         <v>40</v>
       </c>
       <c r="AQ4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AR4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AS4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AT4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AU4">
         <v>30</v>
@@ -1756,7 +1808,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10301</v>
       </c>
@@ -1773,31 +1825,31 @@
         <v>93</v>
       </c>
       <c r="Q5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="S5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB5" t="s">
         <v>116</v>
       </c>
-      <c r="S5" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA5" t="s">
+      <c r="AC5" t="s">
         <v>118</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AD5" t="s">
         <v>119</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AE5" t="s">
         <v>121</v>
       </c>
-      <c r="AD5" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>124</v>
-      </c>
       <c r="AG5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AH5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AN5">
         <v>48</v>
@@ -1809,16 +1861,16 @@
         <v>50</v>
       </c>
       <c r="AQ5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AR5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AS5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AT5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AU5">
         <v>30</v>
@@ -1827,7 +1879,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10301</v>
       </c>
@@ -1844,31 +1896,31 @@
         <v>93</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="S6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB6" t="s">
         <v>117</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AC6" t="s">
         <v>118</v>
       </c>
-      <c r="AB6" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE6" t="s">
         <v>121</v>
       </c>
-      <c r="AD6" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>124</v>
-      </c>
       <c r="AG6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AH6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AN6">
         <v>50</v>
@@ -1880,13 +1932,13 @@
         <v>50</v>
       </c>
       <c r="AQ6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AS6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AT6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AU6">
         <v>30</v>
@@ -1895,7 +1947,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10302</v>
       </c>
@@ -1912,31 +1964,31 @@
         <v>94</v>
       </c>
       <c r="Q7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="S7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB7" t="s">
         <v>116</v>
       </c>
-      <c r="S7" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA7" t="s">
+      <c r="AC7" t="s">
         <v>118</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AD7" t="s">
         <v>119</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AE7" t="s">
         <v>121</v>
       </c>
-      <c r="AD7" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>124</v>
-      </c>
       <c r="AG7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AH7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AN7">
         <v>45</v>
@@ -1948,16 +2000,16 @@
         <v>50</v>
       </c>
       <c r="AQ7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AR7" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS7" t="s">
         <v>150</v>
       </c>
-      <c r="AS7" t="s">
-        <v>153</v>
-      </c>
       <c r="AT7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AU7">
         <v>30</v>
@@ -1966,7 +2018,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10310</v>
       </c>
@@ -1983,31 +2035,31 @@
         <v>95</v>
       </c>
       <c r="Q8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="S8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB8" t="s">
         <v>116</v>
       </c>
-      <c r="S8" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA8" t="s">
+      <c r="AC8" t="s">
         <v>118</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AD8" t="s">
         <v>119</v>
       </c>
-      <c r="AC8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>122</v>
       </c>
-      <c r="AE8" t="s">
-        <v>125</v>
-      </c>
       <c r="AG8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AH8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AN8">
         <v>48</v>
@@ -2019,16 +2071,16 @@
         <v>45</v>
       </c>
       <c r="AQ8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AR8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AS8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AT8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AU8">
         <v>30</v>
@@ -2037,7 +2089,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10316</v>
       </c>
@@ -2054,31 +2106,31 @@
         <v>96</v>
       </c>
       <c r="Q9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="S9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB9" t="s">
         <v>116</v>
       </c>
-      <c r="S9" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA9" t="s">
+      <c r="AC9" t="s">
         <v>118</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AD9" t="s">
         <v>119</v>
       </c>
-      <c r="AC9" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>122</v>
-      </c>
       <c r="AE9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AG9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AH9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AN9">
         <v>48</v>
@@ -2090,16 +2142,16 @@
         <v>50</v>
       </c>
       <c r="AQ9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AR9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AS9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AT9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AU9">
         <v>30</v>
@@ -2108,7 +2160,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10316</v>
       </c>
@@ -2125,31 +2177,31 @@
         <v>97</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="S10" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB10" t="s">
         <v>117</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AC10" t="s">
         <v>118</v>
       </c>
-      <c r="AB10" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE10" t="s">
         <v>121</v>
       </c>
-      <c r="AD10" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>124</v>
-      </c>
       <c r="AG10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AH10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AN10">
         <v>50</v>
@@ -2161,13 +2213,13 @@
         <v>50</v>
       </c>
       <c r="AQ10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AS10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AT10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AU10">
         <v>30</v>
@@ -2176,7 +2228,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10317</v>
       </c>
@@ -2193,31 +2245,31 @@
         <v>98</v>
       </c>
       <c r="Q11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="S11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB11" t="s">
         <v>116</v>
       </c>
-      <c r="S11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA11" t="s">
+      <c r="AC11" t="s">
         <v>118</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AD11" t="s">
         <v>119</v>
       </c>
-      <c r="AC11" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>122</v>
       </c>
-      <c r="AE11" t="s">
-        <v>125</v>
-      </c>
       <c r="AG11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AH11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AN11">
         <v>50</v>
@@ -2229,16 +2281,16 @@
         <v>48</v>
       </c>
       <c r="AQ11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AR11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AS11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AT11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AU11">
         <v>30</v>
@@ -2247,7 +2299,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10336</v>
       </c>
@@ -2264,31 +2316,31 @@
         <v>99</v>
       </c>
       <c r="Q12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="S12" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB12" t="s">
         <v>116</v>
       </c>
-      <c r="S12" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA12" t="s">
+      <c r="AC12" t="s">
         <v>118</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AD12" t="s">
         <v>119</v>
       </c>
-      <c r="AC12" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>122</v>
-      </c>
       <c r="AE12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AG12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AH12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AN12">
         <v>48</v>
@@ -2300,16 +2352,16 @@
         <v>50</v>
       </c>
       <c r="AQ12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AR12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AS12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AT12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AU12">
         <v>31</v>
@@ -2318,7 +2370,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10368</v>
       </c>
@@ -2335,31 +2387,31 @@
         <v>100</v>
       </c>
       <c r="Q13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="S13" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB13" t="s">
         <v>116</v>
       </c>
-      <c r="S13" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA13" t="s">
+      <c r="AC13" t="s">
         <v>118</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AD13" t="s">
         <v>119</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AE13" t="s">
         <v>121</v>
       </c>
-      <c r="AD13" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>124</v>
-      </c>
       <c r="AG13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AH13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AN13">
         <v>50</v>
@@ -2371,16 +2423,16 @@
         <v>50</v>
       </c>
       <c r="AQ13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AR13" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS13" t="s">
         <v>150</v>
       </c>
-      <c r="AS13" t="s">
-        <v>153</v>
-      </c>
       <c r="AT13" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AU13">
         <v>30</v>
@@ -2389,7 +2441,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10371</v>
       </c>
@@ -2406,31 +2458,31 @@
         <v>101</v>
       </c>
       <c r="Q14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="S14" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB14" t="s">
         <v>116</v>
       </c>
-      <c r="S14" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA14" t="s">
+      <c r="AC14" t="s">
         <v>118</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AD14" t="s">
         <v>119</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AE14" t="s">
         <v>121</v>
       </c>
-      <c r="AD14" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>124</v>
-      </c>
       <c r="AG14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AH14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AN14">
         <v>50</v>
@@ -2442,16 +2494,16 @@
         <v>50</v>
       </c>
       <c r="AQ14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AR14" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AS14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AT14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AU14">
         <v>30</v>
@@ -2460,7 +2512,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10420</v>
       </c>
@@ -2477,31 +2529,31 @@
         <v>102</v>
       </c>
       <c r="Q15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="S15" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB15" t="s">
         <v>116</v>
       </c>
-      <c r="S15" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA15" t="s">
+      <c r="AC15" t="s">
         <v>118</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AD15" t="s">
         <v>119</v>
       </c>
-      <c r="AC15" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>122</v>
-      </c>
       <c r="AE15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AG15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AH15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AN15">
         <v>50</v>
@@ -2513,16 +2565,16 @@
         <v>50</v>
       </c>
       <c r="AQ15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AR15" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS15" t="s">
         <v>150</v>
       </c>
-      <c r="AS15" t="s">
-        <v>153</v>
-      </c>
       <c r="AT15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AU15">
         <v>30</v>
@@ -2531,7 +2583,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10424</v>
       </c>
@@ -2548,31 +2600,31 @@
         <v>103</v>
       </c>
       <c r="Q16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="S16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB16" t="s">
         <v>116</v>
       </c>
-      <c r="S16" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA16" t="s">
+      <c r="AC16" t="s">
         <v>118</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AD16" t="s">
         <v>119</v>
       </c>
-      <c r="AC16" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>122</v>
-      </c>
       <c r="AE16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AG16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AH16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AN16">
         <v>50</v>
@@ -2584,16 +2636,16 @@
         <v>50</v>
       </c>
       <c r="AQ16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AR16" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AS16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AT16" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AU16">
         <v>30</v>
@@ -2602,7 +2654,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10443</v>
       </c>
@@ -2619,31 +2671,31 @@
         <v>104</v>
       </c>
       <c r="Q17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="S17" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB17" t="s">
         <v>116</v>
       </c>
-      <c r="S17" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA17" t="s">
+      <c r="AC17" t="s">
         <v>118</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AD17" t="s">
         <v>119</v>
       </c>
-      <c r="AC17" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>122</v>
-      </c>
       <c r="AE17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG17" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AH17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AN17">
         <v>55</v>
@@ -2655,16 +2707,16 @@
         <v>50</v>
       </c>
       <c r="AQ17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AR17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AS17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AT17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AU17">
         <v>35</v>
@@ -2673,7 +2725,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10460</v>
       </c>
@@ -2690,31 +2742,31 @@
         <v>105</v>
       </c>
       <c r="Q18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="S18" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB18" t="s">
         <v>116</v>
       </c>
-      <c r="S18" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA18" t="s">
+      <c r="AC18" t="s">
         <v>118</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AD18" t="s">
         <v>119</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AE18" t="s">
         <v>121</v>
       </c>
-      <c r="AD18" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>124</v>
-      </c>
       <c r="AG18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AH18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AN18">
         <v>48</v>
@@ -2726,16 +2778,16 @@
         <v>50</v>
       </c>
       <c r="AQ18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AR18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AS18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AT18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AU18">
         <v>30</v>
@@ -2744,7 +2796,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10480</v>
       </c>
@@ -2761,31 +2813,31 @@
         <v>106</v>
       </c>
       <c r="Q19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="S19" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB19" t="s">
         <v>116</v>
       </c>
-      <c r="S19" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA19" t="s">
+      <c r="AC19" t="s">
         <v>118</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AD19" t="s">
         <v>119</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AE19" t="s">
         <v>121</v>
       </c>
-      <c r="AD19" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>124</v>
-      </c>
       <c r="AG19" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AH19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AN19">
         <v>50</v>
@@ -2797,16 +2849,16 @@
         <v>50</v>
       </c>
       <c r="AQ19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AR19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AS19" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AT19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AU19">
         <v>30</v>
@@ -2815,7 +2867,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10494</v>
       </c>
@@ -2832,31 +2884,31 @@
         <v>107</v>
       </c>
       <c r="Q20" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="S20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB20" t="s">
         <v>116</v>
       </c>
-      <c r="S20" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA20" t="s">
+      <c r="AC20" t="s">
         <v>118</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AD20" t="s">
         <v>119</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AE20" t="s">
         <v>121</v>
       </c>
-      <c r="AD20" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>124</v>
-      </c>
       <c r="AG20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AH20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AN20">
         <v>55</v>
@@ -2868,16 +2920,16 @@
         <v>50</v>
       </c>
       <c r="AQ20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AR20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AS20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AT20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AU20">
         <v>30</v>
@@ -2886,7 +2938,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10501</v>
       </c>
@@ -2903,31 +2955,31 @@
         <v>108</v>
       </c>
       <c r="Q21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="S21" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB21" t="s">
         <v>116</v>
       </c>
-      <c r="S21" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA21" t="s">
+      <c r="AC21" t="s">
         <v>118</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AD21" t="s">
         <v>119</v>
       </c>
-      <c r="AC21" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>122</v>
-      </c>
       <c r="AE21" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AH21" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AN21">
         <v>50</v>
@@ -2939,16 +2991,16 @@
         <v>53</v>
       </c>
       <c r="AQ21" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR21" t="s">
         <v>145</v>
       </c>
-      <c r="AR21" t="s">
-        <v>148</v>
-      </c>
       <c r="AS21" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AT21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AU21">
         <v>30</v>
@@ -2957,7 +3009,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10522</v>
       </c>
@@ -2974,31 +3026,31 @@
         <v>109</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="S22" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB22" t="s">
         <v>117</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AC22" t="s">
         <v>118</v>
       </c>
-      <c r="AB22" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>121</v>
-      </c>
       <c r="AD22" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AE22" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG22" t="s">
         <v>129</v>
       </c>
-      <c r="AG22" t="s">
-        <v>132</v>
-      </c>
       <c r="AH22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AN22">
         <v>50</v>
@@ -3010,13 +3062,13 @@
         <v>50</v>
       </c>
       <c r="AQ22" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AS22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AT22" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AU22">
         <v>30</v>
@@ -3025,7 +3077,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10522</v>
       </c>
@@ -3042,31 +3094,31 @@
         <v>110</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="S23" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB23" t="s">
         <v>117</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AC23" t="s">
         <v>118</v>
       </c>
-      <c r="AB23" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>121</v>
-      </c>
       <c r="AD23" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AE23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH23" t="s">
         <v>130</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>132</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>133</v>
       </c>
       <c r="AN23">
         <v>48</v>
@@ -3078,13 +3130,13 @@
         <v>50</v>
       </c>
       <c r="AQ23" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AS23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AT23" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AU23">
         <v>30</v>
@@ -3093,7 +3145,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10532</v>
       </c>
@@ -3110,31 +3162,31 @@
         <v>111</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="S24" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB24" t="s">
         <v>117</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AC24" t="s">
         <v>118</v>
       </c>
-      <c r="AB24" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>121</v>
-      </c>
       <c r="AD24" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AE24" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AG24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AH24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AN24">
         <v>48</v>
@@ -3146,13 +3198,13 @@
         <v>50</v>
       </c>
       <c r="AQ24" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AS24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AT24" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AU24">
         <v>30</v>
@@ -3161,7 +3213,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10532</v>
       </c>
@@ -3178,31 +3230,31 @@
         <v>112</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="S25" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB25" t="s">
         <v>117</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AC25" t="s">
         <v>118</v>
       </c>
-      <c r="AB25" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>121</v>
-      </c>
       <c r="AD25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AE25" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AG25" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AH25" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AN25">
         <v>48</v>
@@ -3214,13 +3266,13 @@
         <v>50</v>
       </c>
       <c r="AQ25" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AS25" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AT25" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AU25">
         <v>30</v>
@@ -3229,7 +3281,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10410</v>
       </c>
@@ -3243,46 +3295,46 @@
         <v>12000</v>
       </c>
       <c r="O26" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q26" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="Q26" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="S26" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB26" t="s">
         <v>117</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AC26" t="s">
         <v>118</v>
       </c>
-      <c r="AB26" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC26" t="s">
+      <c r="AD26" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE26" t="s">
         <v>121</v>
       </c>
-      <c r="AD26" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>124</v>
-      </c>
       <c r="AG26" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AH26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AQ26" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AS26" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AT26" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10301</v>
       </c>
@@ -3296,46 +3348,46 @@
         <v>2999</v>
       </c>
       <c r="O27" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="S27" t="s">
         <v>114</v>
       </c>
-      <c r="Q27" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="S27" t="s">
+      <c r="AA27" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB27" t="s">
         <v>117</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="AC27" t="s">
         <v>118</v>
       </c>
-      <c r="AB27" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC27" t="s">
+      <c r="AD27" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE27" t="s">
         <v>121</v>
       </c>
-      <c r="AD27" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>124</v>
-      </c>
       <c r="AG27" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ27" t="s">
         <v>132</v>
       </c>
-      <c r="AH27" t="s">
-        <v>133</v>
-      </c>
-      <c r="AQ27" t="s">
-        <v>135</v>
-      </c>
       <c r="AS27" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AT27" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10538</v>
       </c>
@@ -3349,101 +3401,98 @@
         <v>14999</v>
       </c>
       <c r="O28" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="S28" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA28" t="s">
         <v>115</v>
       </c>
-      <c r="Q28" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="S28" t="s">
+      <c r="AB28" t="s">
         <v>117</v>
       </c>
-      <c r="AA28" t="s">
+      <c r="AC28" t="s">
         <v>118</v>
       </c>
-      <c r="AB28" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC28" t="s">
+      <c r="AD28" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE28" t="s">
         <v>121</v>
       </c>
-      <c r="AD28" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>124</v>
-      </c>
       <c r="AG28" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ28" t="s">
         <v>132</v>
       </c>
-      <c r="AH28" t="s">
-        <v>133</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>135</v>
-      </c>
       <c r="AS28" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AT28" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1"/>
-    <hyperlink ref="Q2" r:id="rId2"/>
-    <hyperlink ref="O3" r:id="rId3"/>
-    <hyperlink ref="Q3" r:id="rId4"/>
-    <hyperlink ref="O4" r:id="rId5"/>
-    <hyperlink ref="Q4" r:id="rId6"/>
-    <hyperlink ref="O5" r:id="rId7"/>
-    <hyperlink ref="Q5" r:id="rId8"/>
-    <hyperlink ref="O6" r:id="rId9"/>
-    <hyperlink ref="Q6" r:id="rId10"/>
-    <hyperlink ref="O7" r:id="rId11"/>
-    <hyperlink ref="Q7" r:id="rId12"/>
-    <hyperlink ref="O8" r:id="rId13"/>
-    <hyperlink ref="Q8" r:id="rId14"/>
-    <hyperlink ref="O9" r:id="rId15"/>
-    <hyperlink ref="Q9" r:id="rId16"/>
-    <hyperlink ref="O10" r:id="rId17"/>
-    <hyperlink ref="Q10" r:id="rId18"/>
-    <hyperlink ref="O11" r:id="rId19"/>
-    <hyperlink ref="Q11" r:id="rId20"/>
-    <hyperlink ref="O12" r:id="rId21"/>
-    <hyperlink ref="Q12" r:id="rId22"/>
-    <hyperlink ref="O13" r:id="rId23"/>
-    <hyperlink ref="Q13" r:id="rId24"/>
-    <hyperlink ref="O14" r:id="rId25"/>
-    <hyperlink ref="Q14" r:id="rId26"/>
-    <hyperlink ref="O15" r:id="rId27"/>
-    <hyperlink ref="Q15" r:id="rId28"/>
-    <hyperlink ref="O16" r:id="rId29"/>
-    <hyperlink ref="Q16" r:id="rId30"/>
-    <hyperlink ref="O17" r:id="rId31"/>
-    <hyperlink ref="Q17" r:id="rId32"/>
-    <hyperlink ref="O18" r:id="rId33"/>
-    <hyperlink ref="Q18" r:id="rId34"/>
-    <hyperlink ref="O19" r:id="rId35"/>
-    <hyperlink ref="Q19" r:id="rId36"/>
-    <hyperlink ref="O20" r:id="rId37"/>
-    <hyperlink ref="Q20" r:id="rId38"/>
-    <hyperlink ref="O21" r:id="rId39"/>
-    <hyperlink ref="Q21" r:id="rId40"/>
-    <hyperlink ref="O22" r:id="rId41"/>
-    <hyperlink ref="Q22" r:id="rId42"/>
-    <hyperlink ref="O23" r:id="rId43"/>
-    <hyperlink ref="Q23" r:id="rId44"/>
-    <hyperlink ref="O24" r:id="rId45"/>
-    <hyperlink ref="Q24" r:id="rId46"/>
-    <hyperlink ref="O25" r:id="rId47"/>
-    <hyperlink ref="Q25" r:id="rId48"/>
-    <hyperlink ref="O26" r:id="rId49"/>
-    <hyperlink ref="Q26" r:id="rId50"/>
-    <hyperlink ref="O27" r:id="rId51"/>
-    <hyperlink ref="Q27" r:id="rId52"/>
-    <hyperlink ref="O28" r:id="rId53"/>
-    <hyperlink ref="Q28" r:id="rId54"/>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="O3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="Q3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="O4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="Q4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="O5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Q5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="O6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="Q6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="O7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="Q7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="O8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="Q8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="O9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="Q9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="O10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="Q10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="O11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="Q11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="O12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="Q12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="O13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="Q13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="O14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="Q14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="O15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="Q15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="O16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="Q16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="O17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="Q17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="O18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="Q18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="O19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="Q19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="O20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="Q20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="O21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="Q21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="O22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="Q22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="O23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="Q23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="O24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="Q24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="Q25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="Q26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="Q27" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="Q28" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/comp armchair.xlsx
+++ b/make_xl/data_xl/comp armchair.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51C3DA8-F7CA-4AAC-A7D1-232A64EA5B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -903,6 +897,15 @@
     <t>https://disk.yandex.ru/i/UiSbbITJzTBOqw | https://disk.yandex.ru/i/BSwbfy6jE64Kpw | https://disk.yandex.ru/i/ut-HyMgP6ytXEA | https://disk.yandex.ru/i/P3f-5y7REJLEdg | https://disk.yandex.ru/i/E9s-9RthI59j8A | https://disk.yandex.ru/i/dKX_to5o7-PsSw | https://disk.yandex.ru/i/Rv74BQHjuHKSMg | https://disk.yandex.ru/i/JQfnVykq74XMLw | https://disk.yandex.ru/i/AFuhZxtmexdrmQ</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/bZpvYLgJkQeS5A | https://disk.yandex.ru/i/pQd-PGVs48AaIw | https://disk.yandex.ru/i/suuO6PTkZXJdwg | https://disk.yandex.ru/i/fHcjrSdVZpBP4w | https://disk.yandex.ru/i/JCCBmfu4mVBVKA | https://disk.yandex.ru/i/KSs7yEVXrQvtdg | https://disk.yandex.ru/i/b-JXSfrfJd4nhw | https://disk.yandex.ru/i/MCBY2S-TBrV2-A | https://disk.yandex.ru/i/jyeamFEdpJUNuA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/zs1LO9iUDpfvJA | https://disk.yandex.ru/i/4XJto5aU9Pk5Qw | https://disk.yandex.ru/i/RW2frD43bhg6dA | https://disk.yandex.ru/i/i9uwNxDWupMaCg | https://disk.yandex.ru/i/2GcC1EzIDr7XHQ | https://disk.yandex.ru/i/WjREaYhYzBzk1Q | https://disk.yandex.ru/i/MFqy3a-nWEK21g | https://disk.yandex.ru/i/zKc5FfCGsSjQ2g | https://disk.yandex.ru/i/auG_5U6jJCE9OQ | https://disk.yandex.ru/i/flJEu_19ssvBBA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/mO9zE0LznQaB8Q | https://disk.yandex.ru/i/rJG_GF3r4N8AmQ | https://disk.yandex.ru/i/p8UIxRy-jOuMng | https://disk.yandex.ru/i/2TEYu1-sI1QWQQ | https://disk.yandex.ru/i/rtiJTkhJ4__RNw | https://disk.yandex.ru/i/g7IeZQAmbGDzBQ | https://disk.yandex.ru/i/8KWCRYxO03XtgA</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -1021,22 +1024,13 @@
   </si>
   <si>
     <t>Ткань | Сетка</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/bZpvYLgJkQeS5A | https://disk.yandex.ru/i/pQd-PGVs48AaIw | https://disk.yandex.ru/i/suuO6PTkZXJdwg | https://disk.yandex.ru/i/fHcjrSdVZpBP4w | https://disk.yandex.ru/i/JCCBmfu4mVBVKA | https://disk.yandex.ru/i/KSs7yEVXrQvtdg | https://disk.yandex.ru/i/b-JXSfrfJd4nhw | https://disk.yandex.ru/i/MCBY2S-TBrV2-A | https://disk.yandex.ru/i/jyeamFEdpJUNuA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/zs1LO9iUDpfvJA | https://disk.yandex.ru/i/4XJto5aU9Pk5Qw | https://disk.yandex.ru/i/RW2frD43bhg6dA | https://disk.yandex.ru/i/i9uwNxDWupMaCg | https://disk.yandex.ru/i/2GcC1EzIDr7XHQ | https://disk.yandex.ru/i/WjREaYhYzBzk1Q | https://disk.yandex.ru/i/MFqy3a-nWEK21g | https://disk.yandex.ru/i/zKc5FfCGsSjQ2g | https://disk.yandex.ru/i/auG_5U6jJCE9OQ | https://disk.yandex.ru/i/flJEu_19ssvBBA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/mO9zE0LznQaB8Q | https://disk.yandex.ru/i/rJG_GF3r4N8AmQ | https://disk.yandex.ru/i/p8UIxRy-jOuMng | https://disk.yandex.ru/i/2TEYu1-sI1QWQQ | https://disk.yandex.ru/i/rtiJTkhJ4__RNw | https://disk.yandex.ru/i/g7IeZQAmbGDzBQ | https://disk.yandex.ru/i/8KWCRYxO03XtgA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1107,26 +1101,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1164,9 +1150,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1198,27 +1184,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1250,27 +1218,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1443,16 +1393,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1598,7 +1546,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1615,31 +1563,31 @@
         <v>90</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AA2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AB2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AC2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AD2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AE2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AG2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AH2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AN2">
         <v>50</v>
@@ -1651,16 +1599,16 @@
         <v>50</v>
       </c>
       <c r="AQ2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AR2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AS2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AT2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AU2">
         <v>30</v>
@@ -1669,7 +1617,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48">
       <c r="A3">
         <v>10031</v>
       </c>
@@ -1686,31 +1634,31 @@
         <v>91</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AA3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AB3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AC3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AD3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AE3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AG3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AH3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AN3">
         <v>50</v>
@@ -1722,13 +1670,13 @@
         <v>50</v>
       </c>
       <c r="AQ3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AS3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AT3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AU3">
         <v>31</v>
@@ -1737,7 +1685,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48">
       <c r="A4">
         <v>10301</v>
       </c>
@@ -1754,31 +1702,31 @@
         <v>92</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AA4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AB4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AC4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AD4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AE4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AG4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AH4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AN4">
         <v>45</v>
@@ -1790,16 +1738,16 @@
         <v>40</v>
       </c>
       <c r="AQ4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AR4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AS4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AT4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AU4">
         <v>30</v>
@@ -1808,7 +1756,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48">
       <c r="A5">
         <v>10301</v>
       </c>
@@ -1825,31 +1773,31 @@
         <v>93</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AA5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AB5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AC5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AD5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AE5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AG5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AH5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AN5">
         <v>48</v>
@@ -1861,16 +1809,16 @@
         <v>50</v>
       </c>
       <c r="AQ5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AR5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AS5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AT5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AU5">
         <v>30</v>
@@ -1879,7 +1827,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48">
       <c r="A6">
         <v>10301</v>
       </c>
@@ -1896,31 +1844,31 @@
         <v>93</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AA6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AB6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AC6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AD6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AE6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AG6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AH6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AN6">
         <v>50</v>
@@ -1932,13 +1880,13 @@
         <v>50</v>
       </c>
       <c r="AQ6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AS6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AT6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AU6">
         <v>30</v>
@@ -1947,7 +1895,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48">
       <c r="A7">
         <v>10302</v>
       </c>
@@ -1964,31 +1912,31 @@
         <v>94</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AA7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AB7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AC7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AD7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AE7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AG7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AH7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AN7">
         <v>45</v>
@@ -2000,16 +1948,16 @@
         <v>50</v>
       </c>
       <c r="AQ7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AR7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AS7" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT7" t="s">
         <v>150</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>147</v>
       </c>
       <c r="AU7">
         <v>30</v>
@@ -2018,7 +1966,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48">
       <c r="A8">
         <v>10310</v>
       </c>
@@ -2035,31 +1983,31 @@
         <v>95</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AA8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AB8" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AC8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AD8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AE8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AG8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AH8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AN8">
         <v>48</v>
@@ -2071,16 +2019,16 @@
         <v>45</v>
       </c>
       <c r="AQ8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AR8" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AS8" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AT8" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AU8">
         <v>30</v>
@@ -2089,7 +2037,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48">
       <c r="A9">
         <v>10316</v>
       </c>
@@ -2106,31 +2054,31 @@
         <v>96</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AA9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AB9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AC9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AD9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AE9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AG9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AH9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AN9">
         <v>48</v>
@@ -2142,16 +2090,16 @@
         <v>50</v>
       </c>
       <c r="AQ9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AR9" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AS9" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AT9" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AU9">
         <v>30</v>
@@ -2160,7 +2108,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48">
       <c r="A10">
         <v>10316</v>
       </c>
@@ -2177,31 +2125,31 @@
         <v>97</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AA10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AB10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AC10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AD10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AE10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AG10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AH10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AN10">
         <v>50</v>
@@ -2213,13 +2161,13 @@
         <v>50</v>
       </c>
       <c r="AQ10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AS10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AT10" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AU10">
         <v>30</v>
@@ -2228,7 +2176,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48">
       <c r="A11">
         <v>10317</v>
       </c>
@@ -2245,31 +2193,31 @@
         <v>98</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AA11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AB11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AC11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AD11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AE11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AG11" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AH11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AN11">
         <v>50</v>
@@ -2281,16 +2229,16 @@
         <v>48</v>
       </c>
       <c r="AQ11" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AR11" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AS11" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AT11" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AU11">
         <v>30</v>
@@ -2299,7 +2247,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48">
       <c r="A12">
         <v>10336</v>
       </c>
@@ -2316,31 +2264,31 @@
         <v>99</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S12" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AA12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AB12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AC12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AD12" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AE12" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AG12" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AH12" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AN12">
         <v>48</v>
@@ -2352,16 +2300,16 @@
         <v>50</v>
       </c>
       <c r="AQ12" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AR12" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AS12" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AT12" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AU12">
         <v>31</v>
@@ -2370,7 +2318,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48">
       <c r="A13">
         <v>10368</v>
       </c>
@@ -2387,31 +2335,31 @@
         <v>100</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S13" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AA13" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AB13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AC13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AD13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AE13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AG13" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AH13" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AN13">
         <v>50</v>
@@ -2423,16 +2371,16 @@
         <v>50</v>
       </c>
       <c r="AQ13" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AR13" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AS13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT13" t="s">
         <v>150</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>147</v>
       </c>
       <c r="AU13">
         <v>30</v>
@@ -2441,7 +2389,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48">
       <c r="A14">
         <v>10371</v>
       </c>
@@ -2458,31 +2406,31 @@
         <v>101</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S14" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AA14" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AB14" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AC14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AD14" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AE14" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AH14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AN14">
         <v>50</v>
@@ -2494,16 +2442,16 @@
         <v>50</v>
       </c>
       <c r="AQ14" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AR14" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT14" t="s">
         <v>148</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>150</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>145</v>
       </c>
       <c r="AU14">
         <v>30</v>
@@ -2512,7 +2460,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48">
       <c r="A15">
         <v>10420</v>
       </c>
@@ -2529,31 +2477,31 @@
         <v>102</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S15" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AA15" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AB15" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AC15" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AD15" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AE15" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AG15" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AH15" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AN15">
         <v>50</v>
@@ -2565,16 +2513,16 @@
         <v>50</v>
       </c>
       <c r="AQ15" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AR15" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AS15" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AT15" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AU15">
         <v>30</v>
@@ -2583,7 +2531,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48">
       <c r="A16">
         <v>10424</v>
       </c>
@@ -2600,31 +2548,31 @@
         <v>103</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S16" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AA16" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AB16" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AC16" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AD16" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AE16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AG16" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AH16" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AN16">
         <v>50</v>
@@ -2636,16 +2584,16 @@
         <v>50</v>
       </c>
       <c r="AQ16" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AR16" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AS16" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AT16" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AU16">
         <v>30</v>
@@ -2654,7 +2602,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48">
       <c r="A17">
         <v>10443</v>
       </c>
@@ -2671,31 +2619,31 @@
         <v>104</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S17" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AA17" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AB17" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AC17" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AD17" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AE17" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG17" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AH17" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AN17">
         <v>55</v>
@@ -2707,16 +2655,16 @@
         <v>50</v>
       </c>
       <c r="AQ17" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AR17" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AS17" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AT17" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AU17">
         <v>35</v>
@@ -2725,7 +2673,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48">
       <c r="A18">
         <v>10460</v>
       </c>
@@ -2742,31 +2690,31 @@
         <v>105</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S18" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AA18" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AB18" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AC18" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AD18" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AE18" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AG18" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AH18" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AN18">
         <v>48</v>
@@ -2778,16 +2726,16 @@
         <v>50</v>
       </c>
       <c r="AQ18" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AR18" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AS18" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AT18" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AU18">
         <v>30</v>
@@ -2796,7 +2744,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48">
       <c r="A19">
         <v>10480</v>
       </c>
@@ -2813,31 +2761,31 @@
         <v>106</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S19" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AA19" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AB19" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AC19" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AD19" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AE19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AG19" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AH19" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AN19">
         <v>50</v>
@@ -2849,16 +2797,16 @@
         <v>50</v>
       </c>
       <c r="AQ19" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AR19" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AS19" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AT19" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AU19">
         <v>30</v>
@@ -2867,7 +2815,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48">
       <c r="A20">
         <v>10494</v>
       </c>
@@ -2884,31 +2832,31 @@
         <v>107</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S20" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AA20" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AB20" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AC20" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AD20" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AE20" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AG20" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AH20" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AN20">
         <v>55</v>
@@ -2920,16 +2868,16 @@
         <v>50</v>
       </c>
       <c r="AQ20" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AR20" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AS20" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AT20" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AU20">
         <v>30</v>
@@ -2938,7 +2886,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48">
       <c r="A21">
         <v>10501</v>
       </c>
@@ -2955,31 +2903,31 @@
         <v>108</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S21" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AA21" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AB21" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AC21" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AD21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AE21" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG21" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AH21" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AN21">
         <v>50</v>
@@ -2991,16 +2939,16 @@
         <v>53</v>
       </c>
       <c r="AQ21" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AR21" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AS21" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AT21" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AU21">
         <v>30</v>
@@ -3009,7 +2957,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48">
       <c r="A22">
         <v>10522</v>
       </c>
@@ -3026,31 +2974,31 @@
         <v>109</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S22" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AA22" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AB22" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AC22" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AD22" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AE22" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG22" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AH22" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AN22">
         <v>50</v>
@@ -3062,13 +3010,13 @@
         <v>50</v>
       </c>
       <c r="AQ22" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AS22" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT22" t="s">
         <v>150</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>147</v>
       </c>
       <c r="AU22">
         <v>30</v>
@@ -3077,7 +3025,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48">
       <c r="A23">
         <v>10522</v>
       </c>
@@ -3094,31 +3042,31 @@
         <v>110</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S23" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AA23" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AB23" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AC23" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AD23" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AE23" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AG23" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AH23" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AN23">
         <v>48</v>
@@ -3130,13 +3078,13 @@
         <v>50</v>
       </c>
       <c r="AQ23" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AS23" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT23" t="s">
         <v>150</v>
-      </c>
-      <c r="AT23" t="s">
-        <v>147</v>
       </c>
       <c r="AU23">
         <v>30</v>
@@ -3145,7 +3093,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48">
       <c r="A24">
         <v>10532</v>
       </c>
@@ -3162,31 +3110,31 @@
         <v>111</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S24" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AA24" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AB24" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AC24" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AD24" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AE24" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AG24" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AH24" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AN24">
         <v>48</v>
@@ -3198,13 +3146,13 @@
         <v>50</v>
       </c>
       <c r="AQ24" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AS24" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AT24" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AU24">
         <v>30</v>
@@ -3213,7 +3161,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48">
       <c r="A25">
         <v>10532</v>
       </c>
@@ -3230,31 +3178,31 @@
         <v>112</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S25" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AA25" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AB25" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AC25" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AD25" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AE25" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AG25" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AH25" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AN25">
         <v>48</v>
@@ -3266,13 +3214,13 @@
         <v>50</v>
       </c>
       <c r="AQ25" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AS25" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AT25" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AU25">
         <v>30</v>
@@ -3281,7 +3229,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48">
       <c r="A26">
         <v>10410</v>
       </c>
@@ -3295,46 +3243,46 @@
         <v>12000</v>
       </c>
       <c r="O26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="S26" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS26" t="s">
         <v>153</v>
       </c>
-      <c r="Q26" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="S26" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>119</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>121</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>130</v>
-      </c>
-      <c r="AQ26" t="s">
-        <v>144</v>
-      </c>
-      <c r="AS26" t="s">
-        <v>150</v>
-      </c>
       <c r="AT26" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48">
       <c r="A27">
         <v>10301</v>
       </c>
@@ -3348,46 +3296,46 @@
         <v>2999</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S27" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AA27" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AB27" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AC27" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AD27" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AE27" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AG27" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AH27" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AQ27" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AS27" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AT27" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48">
       <c r="A28">
         <v>10538</v>
       </c>
@@ -3401,98 +3349,101 @@
         <v>14999</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S28" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AA28" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AB28" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AC28" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AD28" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AE28" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AG28" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AH28" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AQ28" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AS28" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AT28" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="O3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="Q3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="O4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="Q4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="O5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="Q5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="O6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="Q6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="O7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="Q7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="O8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="Q8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="O9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="Q9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="O10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="Q10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="O11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="Q11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="O12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="Q12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="O13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="Q13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="O14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="Q14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="O15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="Q15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="O16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="Q16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="O17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="Q17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="O18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="Q18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="O19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="Q19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="O20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="Q20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="O21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="Q21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="O22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="Q22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="O23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="Q23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="O24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="Q24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="Q25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="Q26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="Q27" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="Q28" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="Q2" r:id="rId2"/>
+    <hyperlink ref="O3" r:id="rId3"/>
+    <hyperlink ref="Q3" r:id="rId4"/>
+    <hyperlink ref="O4" r:id="rId5"/>
+    <hyperlink ref="Q4" r:id="rId6"/>
+    <hyperlink ref="O5" r:id="rId7"/>
+    <hyperlink ref="Q5" r:id="rId8"/>
+    <hyperlink ref="O6" r:id="rId9"/>
+    <hyperlink ref="Q6" r:id="rId10"/>
+    <hyperlink ref="O7" r:id="rId11"/>
+    <hyperlink ref="Q7" r:id="rId12"/>
+    <hyperlink ref="O8" r:id="rId13"/>
+    <hyperlink ref="Q8" r:id="rId14"/>
+    <hyperlink ref="O9" r:id="rId15"/>
+    <hyperlink ref="Q9" r:id="rId16"/>
+    <hyperlink ref="O10" r:id="rId17"/>
+    <hyperlink ref="Q10" r:id="rId18"/>
+    <hyperlink ref="O11" r:id="rId19"/>
+    <hyperlink ref="Q11" r:id="rId20"/>
+    <hyperlink ref="O12" r:id="rId21"/>
+    <hyperlink ref="Q12" r:id="rId22"/>
+    <hyperlink ref="O13" r:id="rId23"/>
+    <hyperlink ref="Q13" r:id="rId24"/>
+    <hyperlink ref="O14" r:id="rId25"/>
+    <hyperlink ref="Q14" r:id="rId26"/>
+    <hyperlink ref="O15" r:id="rId27"/>
+    <hyperlink ref="Q15" r:id="rId28"/>
+    <hyperlink ref="O16" r:id="rId29"/>
+    <hyperlink ref="Q16" r:id="rId30"/>
+    <hyperlink ref="O17" r:id="rId31"/>
+    <hyperlink ref="Q17" r:id="rId32"/>
+    <hyperlink ref="O18" r:id="rId33"/>
+    <hyperlink ref="Q18" r:id="rId34"/>
+    <hyperlink ref="O19" r:id="rId35"/>
+    <hyperlink ref="Q19" r:id="rId36"/>
+    <hyperlink ref="O20" r:id="rId37"/>
+    <hyperlink ref="Q20" r:id="rId38"/>
+    <hyperlink ref="O21" r:id="rId39"/>
+    <hyperlink ref="Q21" r:id="rId40"/>
+    <hyperlink ref="O22" r:id="rId41"/>
+    <hyperlink ref="Q22" r:id="rId42"/>
+    <hyperlink ref="O23" r:id="rId43"/>
+    <hyperlink ref="Q23" r:id="rId44"/>
+    <hyperlink ref="O24" r:id="rId45"/>
+    <hyperlink ref="Q24" r:id="rId46"/>
+    <hyperlink ref="O25" r:id="rId47"/>
+    <hyperlink ref="Q25" r:id="rId48"/>
+    <hyperlink ref="O26" r:id="rId49"/>
+    <hyperlink ref="Q26" r:id="rId50"/>
+    <hyperlink ref="O27" r:id="rId51"/>
+    <hyperlink ref="Q27" r:id="rId52"/>
+    <hyperlink ref="O28" r:id="rId53"/>
+    <hyperlink ref="Q28" r:id="rId54"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/comp armchair.xlsx
+++ b/make_xl/data_xl/comp armchair.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F118E6-BCA5-48A6-A884-F7651B461669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="163">
   <si>
     <t>Id</t>
   </si>
@@ -160,6 +166,9 @@
     <t>MaxWeight</t>
   </si>
   <si>
+    <t>CanBeDisassembled</t>
+  </si>
+  <si>
     <t>Компьютерное кресло</t>
   </si>
   <si>
@@ -203,6 +212,9 @@
   </si>
   <si>
     <t xml:space="preserve">Кресло Бюрократ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кресло компьютерное </t>
   </si>
   <si>
     <t>Кресло с высокой спинкой (10371) 
@@ -828,6 +840,31 @@
     </t>
   </si>
   <si>
+    <t xml:space="preserve">Кресло компьютерное 
+Артикул 10542
+Описание: материал обивки - сетка. 
+5 регулировок для комфортного использования-высота подлокотников, поддержка поясницы, наклон спинки, наклон и высота сидения. 
+Цена 5999р
+Цвет черный 
+Количество 4
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/ZDiUdOWTq7XF1g | https://disk.yandex.ru/i/a_u5CWPrYhAoIA | https://disk.yandex.ru/i/2U4SaFSBylFuSg | https://disk.yandex.ru/i/5xCnmpLS2Ky7dQ | https://disk.yandex.ru/i/ugTACqRM4oAMBA</t>
   </si>
   <si>
@@ -1002,6 +1039,9 @@
     <t>Подлокотники | Подголовник | Механизм качания | Регулировка наклона спинки | Регулировка высоты | Регулировка подлокотников | Поясничный упор</t>
   </si>
   <si>
+    <t>Подлокотники | Механизм качания | Регулировка наклона спинки | Регулировка высоты | Регулировка глубины сиденья | Поясничный упор</t>
+  </si>
+  <si>
     <t>Замша</t>
   </si>
   <si>
@@ -1024,13 +1064,22 @@
   </si>
   <si>
     <t>Ткань | Сетка</t>
+  </si>
+  <si>
+    <t>b''</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/qVd2oEtFX8sUSQ | https://disk.yandex.ru/i/4T7plhzo2CVBEQ | https://disk.yandex.ru/i/pAywipBokO5h2Q | https://disk.yandex.ru/i/ZKMPlYMDjf2Mlg | https://disk.yandex.ru/i/rCrbRKlQJPyk0w | https://disk.yandex.ru/i/AMHxMV_0iqNrRw | https://disk.yandex.ru/i/vRrw34qcqwqgKw | https://disk.yandex.ru/i/sawgFxehejgyXA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1101,18 +1150,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1150,9 +1207,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1184,9 +1241,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1218,9 +1293,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1393,14 +1486,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AW29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1545,49 +1640,52 @@
       <c r="AV1" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N2">
         <v>5499</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="S2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AA2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AB2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AC2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AE2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AG2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AH2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AN2">
         <v>50</v>
@@ -1599,16 +1697,16 @@
         <v>50</v>
       </c>
       <c r="AQ2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AR2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AS2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AT2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AU2">
         <v>30</v>
@@ -1616,49 +1714,52 @@
       <c r="AV2">
         <v>120</v>
       </c>
+      <c r="AW2" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10031</v>
       </c>
       <c r="L3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N3">
         <v>7000</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="S3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AA3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AB3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AC3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AE3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AH3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AN3">
         <v>50</v>
@@ -1670,13 +1771,13 @@
         <v>50</v>
       </c>
       <c r="AQ3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AS3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT3" t="s">
         <v>153</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>149</v>
       </c>
       <c r="AU3">
         <v>31</v>
@@ -1684,49 +1785,52 @@
       <c r="AV3">
         <v>70</v>
       </c>
+      <c r="AW3" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10301</v>
       </c>
       <c r="L4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N4">
         <v>2999</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="S4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AA4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AB4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AC4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AE4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AH4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AN4">
         <v>45</v>
@@ -1738,16 +1842,16 @@
         <v>40</v>
       </c>
       <c r="AQ4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AR4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AS4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT4" t="s">
         <v>153</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>149</v>
       </c>
       <c r="AU4">
         <v>30</v>
@@ -1755,49 +1859,52 @@
       <c r="AV4">
         <v>80</v>
       </c>
+      <c r="AW4" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10301</v>
       </c>
       <c r="L5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N5">
         <v>3999</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="S5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AA5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AB5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AC5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AE5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AH5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AN5">
         <v>48</v>
@@ -1809,16 +1916,16 @@
         <v>50</v>
       </c>
       <c r="AQ5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AR5" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AS5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT5" t="s">
         <v>153</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>149</v>
       </c>
       <c r="AU5">
         <v>30</v>
@@ -1826,49 +1933,52 @@
       <c r="AV5">
         <v>90</v>
       </c>
+      <c r="AW5" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10301</v>
       </c>
       <c r="L6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N6">
         <v>3499</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="S6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AA6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AB6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AC6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AE6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AH6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AN6">
         <v>50</v>
@@ -1880,13 +1990,13 @@
         <v>50</v>
       </c>
       <c r="AQ6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AS6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT6" t="s">
         <v>153</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>149</v>
       </c>
       <c r="AU6">
         <v>30</v>
@@ -1894,49 +2004,52 @@
       <c r="AV6">
         <v>120</v>
       </c>
+      <c r="AW6" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10302</v>
       </c>
       <c r="L7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N7">
         <v>1499</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="S7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AA7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AB7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AC7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AE7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AH7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AN7">
         <v>45</v>
@@ -1948,16 +2061,16 @@
         <v>50</v>
       </c>
       <c r="AQ7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AR7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AS7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AT7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AU7">
         <v>30</v>
@@ -1965,49 +2078,52 @@
       <c r="AV7">
         <v>75</v>
       </c>
+      <c r="AW7" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10310</v>
       </c>
       <c r="L8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N8">
         <v>3100</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="S8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AA8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AB8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AC8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AE8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AH8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AN8">
         <v>48</v>
@@ -2019,16 +2135,16 @@
         <v>45</v>
       </c>
       <c r="AQ8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AR8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AS8" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AT8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AU8">
         <v>30</v>
@@ -2036,49 +2152,52 @@
       <c r="AV8">
         <v>80</v>
       </c>
+      <c r="AW8" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10316</v>
       </c>
       <c r="L9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N9">
         <v>3499</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="S9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AA9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AB9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AC9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AE9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AG9" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AH9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AN9">
         <v>48</v>
@@ -2090,16 +2209,16 @@
         <v>50</v>
       </c>
       <c r="AQ9" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AR9" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AS9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AT9" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AU9">
         <v>30</v>
@@ -2107,49 +2226,52 @@
       <c r="AV9">
         <v>80</v>
       </c>
+      <c r="AW9" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10316</v>
       </c>
       <c r="L10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N10">
         <v>3499</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="S10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AA10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AB10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AC10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD10" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AE10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AH10" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AN10">
         <v>50</v>
@@ -2161,13 +2283,13 @@
         <v>50</v>
       </c>
       <c r="AQ10" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AS10" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AT10" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AU10">
         <v>30</v>
@@ -2175,49 +2297,52 @@
       <c r="AV10">
         <v>120</v>
       </c>
+      <c r="AW10" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10317</v>
       </c>
       <c r="L11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N11">
         <v>3999</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="S11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AA11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AB11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AC11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AE11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AH11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AN11">
         <v>50</v>
@@ -2229,16 +2354,16 @@
         <v>48</v>
       </c>
       <c r="AQ11" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AR11" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AS11" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AT11" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AU11">
         <v>30</v>
@@ -2246,49 +2371,52 @@
       <c r="AV11">
         <v>100</v>
       </c>
+      <c r="AW11" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10336</v>
       </c>
       <c r="L12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N12">
         <v>2300</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="S12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AA12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AB12" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AC12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AE12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AG12" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AH12" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AN12">
         <v>48</v>
@@ -2300,16 +2428,16 @@
         <v>50</v>
       </c>
       <c r="AQ12" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AR12" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AS12" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AT12" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AU12">
         <v>31</v>
@@ -2317,49 +2445,52 @@
       <c r="AV12">
         <v>70</v>
       </c>
+      <c r="AW12" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10368</v>
       </c>
       <c r="L13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N13">
         <v>3999</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="S13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AA13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AB13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AC13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD13" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AE13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AH13" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AN13">
         <v>50</v>
@@ -2371,16 +2502,16 @@
         <v>50</v>
       </c>
       <c r="AQ13" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AR13" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AS13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AT13" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AU13">
         <v>30</v>
@@ -2388,49 +2519,52 @@
       <c r="AV13">
         <v>120</v>
       </c>
+      <c r="AW13" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10371</v>
       </c>
       <c r="L14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N14">
         <v>5999</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="S14" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AA14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AB14" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AC14" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD14" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AE14" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG14" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AH14" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AN14">
         <v>50</v>
@@ -2442,16 +2576,16 @@
         <v>50</v>
       </c>
       <c r="AQ14" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AR14" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AS14" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AT14" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AU14">
         <v>30</v>
@@ -2459,49 +2593,52 @@
       <c r="AV14">
         <v>120</v>
       </c>
+      <c r="AW14" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10420</v>
       </c>
       <c r="L15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N15">
         <v>9999</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="S15" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AA15" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AB15" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AC15" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD15" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AE15" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AG15" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AH15" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AN15">
         <v>50</v>
@@ -2513,16 +2650,16 @@
         <v>50</v>
       </c>
       <c r="AQ15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AR15" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AS15" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT15" t="s">
         <v>153</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>149</v>
       </c>
       <c r="AU15">
         <v>30</v>
@@ -2530,49 +2667,52 @@
       <c r="AV15">
         <v>120</v>
       </c>
+      <c r="AW15" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10424</v>
       </c>
       <c r="L16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N16">
         <v>7999</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="S16" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AA16" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AB16" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AC16" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD16" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AE16" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AH16" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AN16">
         <v>50</v>
@@ -2584,16 +2724,16 @@
         <v>50</v>
       </c>
       <c r="AQ16" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AR16" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AS16" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AT16" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AU16">
         <v>30</v>
@@ -2601,49 +2741,52 @@
       <c r="AV16">
         <v>120</v>
       </c>
+      <c r="AW16" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10443</v>
       </c>
       <c r="L17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N17">
         <v>10500</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="S17" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AA17" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AB17" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AC17" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD17" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AE17" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AG17" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AH17" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AN17">
         <v>55</v>
@@ -2655,16 +2798,16 @@
         <v>50</v>
       </c>
       <c r="AQ17" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AR17" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AS17" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AT17" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AU17">
         <v>35</v>
@@ -2672,49 +2815,52 @@
       <c r="AV17">
         <v>150</v>
       </c>
+      <c r="AW17" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10460</v>
       </c>
       <c r="L18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N18">
         <v>7999</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="S18" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AA18" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AB18" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AC18" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD18" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AE18" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG18" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AH18" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AN18">
         <v>48</v>
@@ -2726,16 +2872,16 @@
         <v>50</v>
       </c>
       <c r="AQ18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AR18" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AS18" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AT18" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AU18">
         <v>30</v>
@@ -2743,49 +2889,52 @@
       <c r="AV18">
         <v>100</v>
       </c>
+      <c r="AW18" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10480</v>
       </c>
       <c r="L19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N19">
         <v>9999</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="S19" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AA19" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AB19" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AC19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD19" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AE19" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG19" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AH19" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AN19">
         <v>50</v>
@@ -2797,16 +2946,16 @@
         <v>50</v>
       </c>
       <c r="AQ19" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AR19" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AS19" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AT19" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU19">
         <v>30</v>
@@ -2814,49 +2963,52 @@
       <c r="AV19">
         <v>150</v>
       </c>
+      <c r="AW19" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10494</v>
       </c>
       <c r="L20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N20">
         <v>7999</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="S20" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AA20" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AB20" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AC20" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD20" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AE20" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG20" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AH20" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AN20">
         <v>55</v>
@@ -2868,16 +3020,16 @@
         <v>50</v>
       </c>
       <c r="AQ20" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AR20" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AS20" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AT20" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU20">
         <v>30</v>
@@ -2885,49 +3037,52 @@
       <c r="AV20">
         <v>180</v>
       </c>
+      <c r="AW20" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10501</v>
       </c>
       <c r="L21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N21">
         <v>6999</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="S21" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AA21" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AB21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AC21" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD21" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AE21" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AG21" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AH21" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AN21">
         <v>50</v>
@@ -2939,16 +3094,16 @@
         <v>53</v>
       </c>
       <c r="AQ21" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AR21" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AS21" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AT21" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AU21">
         <v>30</v>
@@ -2956,49 +3111,52 @@
       <c r="AV21">
         <v>100</v>
       </c>
+      <c r="AW21" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10522</v>
       </c>
       <c r="L22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M22" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N22">
         <v>5999</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="S22" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AA22" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AB22" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AC22" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD22" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AE22" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AG22" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AH22" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AN22">
         <v>50</v>
@@ -3010,13 +3168,13 @@
         <v>50</v>
       </c>
       <c r="AQ22" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AS22" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AT22" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AU22">
         <v>30</v>
@@ -3024,49 +3182,52 @@
       <c r="AV22">
         <v>80</v>
       </c>
+      <c r="AW22" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10522</v>
       </c>
       <c r="L23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N23">
         <v>5999</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="S23" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AA23" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AB23" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AC23" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AE23" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AG23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AH23" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AN23">
         <v>48</v>
@@ -3078,13 +3239,13 @@
         <v>50</v>
       </c>
       <c r="AQ23" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AS23" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AT23" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AU23">
         <v>30</v>
@@ -3092,49 +3253,52 @@
       <c r="AV23">
         <v>100</v>
       </c>
+      <c r="AW23" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10532</v>
       </c>
       <c r="L24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N24">
         <v>7999</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="S24" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AA24" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AB24" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AC24" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD24" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AE24" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AG24" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AH24" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AN24">
         <v>48</v>
@@ -3146,13 +3310,13 @@
         <v>50</v>
       </c>
       <c r="AQ24" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AS24" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT24" t="s">
         <v>153</v>
-      </c>
-      <c r="AT24" t="s">
-        <v>149</v>
       </c>
       <c r="AU24">
         <v>30</v>
@@ -3160,49 +3324,52 @@
       <c r="AV24">
         <v>120</v>
       </c>
+      <c r="AW24" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10532</v>
       </c>
       <c r="L25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N25">
         <v>7999</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="S25" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AA25" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AB25" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AC25" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD25" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AE25" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AG25" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AH25" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AN25">
         <v>48</v>
@@ -3214,13 +3381,13 @@
         <v>50</v>
       </c>
       <c r="AQ25" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AS25" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT25" t="s">
         <v>153</v>
-      </c>
-      <c r="AT25" t="s">
-        <v>149</v>
       </c>
       <c r="AU25">
         <v>30</v>
@@ -3228,222 +3395,291 @@
       <c r="AV25">
         <v>120</v>
       </c>
+      <c r="AW25" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10410</v>
       </c>
       <c r="L26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N26">
         <v>12000</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="S26" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AA26" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AB26" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AC26" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD26" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AE26" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG26" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AH26" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AQ26" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AS26" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AT26" t="s">
-        <v>154</v>
+        <v>158</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10301</v>
       </c>
       <c r="L27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M27" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N27">
         <v>2999</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="S27" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AA27" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AB27" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AC27" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD27" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AE27" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG27" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AH27" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AQ27" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AS27" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AT27" t="s">
-        <v>155</v>
+        <v>159</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10538</v>
       </c>
       <c r="L28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N28">
         <v>14999</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="S28" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AA28" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AB28" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>158</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>10542</v>
+      </c>
+      <c r="L29" t="s">
+        <v>64</v>
+      </c>
+      <c r="M29" t="s">
+        <v>92</v>
+      </c>
+      <c r="N29">
+        <v>5999</v>
+      </c>
+      <c r="O29" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="S29" t="s">
         <v>120</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="AA29" t="s">
         <v>121</v>
       </c>
-      <c r="AD28" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE28" t="s">
+      <c r="AB29" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC29" t="s">
         <v>124</v>
       </c>
-      <c r="AG28" t="s">
-        <v>132</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>133</v>
-      </c>
-      <c r="AQ28" t="s">
+      <c r="AD29" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG29" t="s">
         <v>135</v>
       </c>
-      <c r="AS28" t="s">
+      <c r="AH29" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT29" t="s">
         <v>153</v>
       </c>
-      <c r="AT28" t="s">
-        <v>154</v>
+      <c r="AW29" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1"/>
-    <hyperlink ref="Q2" r:id="rId2"/>
-    <hyperlink ref="O3" r:id="rId3"/>
-    <hyperlink ref="Q3" r:id="rId4"/>
-    <hyperlink ref="O4" r:id="rId5"/>
-    <hyperlink ref="Q4" r:id="rId6"/>
-    <hyperlink ref="O5" r:id="rId7"/>
-    <hyperlink ref="Q5" r:id="rId8"/>
-    <hyperlink ref="O6" r:id="rId9"/>
-    <hyperlink ref="Q6" r:id="rId10"/>
-    <hyperlink ref="O7" r:id="rId11"/>
-    <hyperlink ref="Q7" r:id="rId12"/>
-    <hyperlink ref="O8" r:id="rId13"/>
-    <hyperlink ref="Q8" r:id="rId14"/>
-    <hyperlink ref="O9" r:id="rId15"/>
-    <hyperlink ref="Q9" r:id="rId16"/>
-    <hyperlink ref="O10" r:id="rId17"/>
-    <hyperlink ref="Q10" r:id="rId18"/>
-    <hyperlink ref="O11" r:id="rId19"/>
-    <hyperlink ref="Q11" r:id="rId20"/>
-    <hyperlink ref="O12" r:id="rId21"/>
-    <hyperlink ref="Q12" r:id="rId22"/>
-    <hyperlink ref="O13" r:id="rId23"/>
-    <hyperlink ref="Q13" r:id="rId24"/>
-    <hyperlink ref="O14" r:id="rId25"/>
-    <hyperlink ref="Q14" r:id="rId26"/>
-    <hyperlink ref="O15" r:id="rId27"/>
-    <hyperlink ref="Q15" r:id="rId28"/>
-    <hyperlink ref="O16" r:id="rId29"/>
-    <hyperlink ref="Q16" r:id="rId30"/>
-    <hyperlink ref="O17" r:id="rId31"/>
-    <hyperlink ref="Q17" r:id="rId32"/>
-    <hyperlink ref="O18" r:id="rId33"/>
-    <hyperlink ref="Q18" r:id="rId34"/>
-    <hyperlink ref="O19" r:id="rId35"/>
-    <hyperlink ref="Q19" r:id="rId36"/>
-    <hyperlink ref="O20" r:id="rId37"/>
-    <hyperlink ref="Q20" r:id="rId38"/>
-    <hyperlink ref="O21" r:id="rId39"/>
-    <hyperlink ref="Q21" r:id="rId40"/>
-    <hyperlink ref="O22" r:id="rId41"/>
-    <hyperlink ref="Q22" r:id="rId42"/>
-    <hyperlink ref="O23" r:id="rId43"/>
-    <hyperlink ref="Q23" r:id="rId44"/>
-    <hyperlink ref="O24" r:id="rId45"/>
-    <hyperlink ref="Q24" r:id="rId46"/>
-    <hyperlink ref="O25" r:id="rId47"/>
-    <hyperlink ref="Q25" r:id="rId48"/>
-    <hyperlink ref="O26" r:id="rId49"/>
-    <hyperlink ref="Q26" r:id="rId50"/>
-    <hyperlink ref="O27" r:id="rId51"/>
-    <hyperlink ref="Q27" r:id="rId52"/>
-    <hyperlink ref="O28" r:id="rId53"/>
-    <hyperlink ref="Q28" r:id="rId54"/>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="O3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="Q3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="O4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="Q4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="O5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Q5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="O6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="Q6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="O7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="Q7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="O8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="Q8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="O9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="Q9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="O10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="Q10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="O11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="Q11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="O12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="Q12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="O13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="Q13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="O14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="Q14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="O15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="Q15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="O16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="Q16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="O17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="Q17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="O18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="Q18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="O19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="Q19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="O20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="Q20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="O21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="Q21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="O22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="Q22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="O23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="Q23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="O24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="Q24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="Q25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="O26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="Q26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="O27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="Q27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="O28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="Q28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="Q29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/comp armchair.xlsx
+++ b/make_xl/data_xl/comp armchair.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F118E6-BCA5-48A6-A884-F7651B461669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="159">
   <si>
     <t>Id</t>
   </si>
@@ -587,25 +581,6 @@
 🔥 Система больших скидок действует при опте и в праздничные дни 
 ✔ Самовывоз
 ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Кресло компьютерное Haworth Comforto 5581
-Артикул 10480
-Описание   Добро пожаловать в мир роскоши и комфорта с креслом высшего качества Haworth Comforto 5581, изготовленным в Германии!  Кресло заслуженно занимает место среди лучших в своем классе. Произведенное по самым передовым технологиям, оно гарантирует ваше полное удобство и расслабление во время работы. Каждая деталь тщательно продумана для вашего максимального комфорта и эффективности.
-  Механизм фиксации угла наклона, регулировка высоты подлокотников, регулировка спинки по высоте - все эти функции созданы для того, чтобы кресло подстраивалось под ваши индивидуальные потребности и предпочтения. Хромированное основание добавляет изысканности и стиля, делая это кресло неотъемлемой частью вашего офиса или домашнего интерьера.
-Цена 10 000
-Количество ткань - 3 шт., кожа - 1 шт.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
@@ -913,9 +888,6 @@
     <t>https://disk.yandex.ru/i/Kar_m1oEtRVT2Q | https://disk.yandex.ru/i/evQVF4X3NU3cSg | https://disk.yandex.ru/i/V0vd0BtVpYai5Q | https://disk.yandex.ru/i/CAb7AkQamKCSzg | https://disk.yandex.ru/i/6xyDIgrM0E5YAg | https://disk.yandex.ru/i/kGoGsBrb7XXkUg | https://disk.yandex.ru/i/IcBRJ_yTr8kw6A</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/GByEF9X6EjFxQA | https://disk.yandex.ru/i/OQ5UQ_L633k6zA | https://disk.yandex.ru/i/BrBHACRAQ5Av7w | https://disk.yandex.ru/i/d__zj3ccvxzbag | https://disk.yandex.ru/i/gCvCMH5H4bhoQw | https://disk.yandex.ru/i/QmpPSktWRdkPGQ | https://disk.yandex.ru/i/tAn3q8UKUBF6jQ | https://disk.yandex.ru/i/XSUkyFS4pXoM4A | https://disk.yandex.ru/i/YuZLU3HLTGQ3eg | https://disk.yandex.ru/i/Z4-8d6HY8CjVEw</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/tUeN4X8O8C7MyA | https://disk.yandex.ru/i/HkmXA7SX5cJ2WQ | https://disk.yandex.ru/i/w05zi5_7sxA0wA | https://disk.yandex.ru/i/yR2ezuN1RFfIrQ | https://disk.yandex.ru/i/QGnZrUVeQbogVw | https://disk.yandex.ru/i/tEjiBZ1_1UWMrQ | https://disk.yandex.ru/i/zscFVsGhl71wig | https://disk.yandex.ru/i/YC8mo2kUI2Evig | https://disk.yandex.ru/i/hXJwZuOXFqDCCA | https://disk.yandex.ru/i/_fS0O48zcfmCoQ</t>
   </si>
   <si>
@@ -943,6 +915,9 @@
     <t>https://disk.yandex.ru/i/mO9zE0LznQaB8Q | https://disk.yandex.ru/i/rJG_GF3r4N8AmQ | https://disk.yandex.ru/i/p8UIxRy-jOuMng | https://disk.yandex.ru/i/2TEYu1-sI1QWQQ | https://disk.yandex.ru/i/rtiJTkhJ4__RNw | https://disk.yandex.ru/i/g7IeZQAmbGDzBQ | https://disk.yandex.ru/i/8KWCRYxO03XtgA</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/qVd2oEtFX8sUSQ | https://disk.yandex.ru/i/4T7plhzo2CVBEQ | https://disk.yandex.ru/i/pAywipBokO5h2Q | https://disk.yandex.ru/i/ZKMPlYMDjf2Mlg | https://disk.yandex.ru/i/rCrbRKlQJPyk0w | https://disk.yandex.ru/i/AMHxMV_0iqNrRw | https://disk.yandex.ru/i/vRrw34qcqwqgKw | https://disk.yandex.ru/i/sawgFxehejgyXA</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -1024,9 +999,6 @@
     <t>Подлокотники | Поясничный упор | Механизм качания | Регулировка высоты</t>
   </si>
   <si>
-    <t>Подлокотники |Механизм качания | Регулировка высоты | Регулировка наклона спинки |Регулировка подлокотников | Регулировка глубины сиденья</t>
-  </si>
-  <si>
     <t>Подлокотники |Подголовник | Механизм качания | Регулировка высоты |Регулировка подлокотников | Регулировка глубины сиденья</t>
   </si>
   <si>
@@ -1066,20 +1038,14 @@
     <t>Ткань | Сетка</t>
   </si>
   <si>
-    <t>b''</t>
-  </si>
-  <si>
     <t>Нет</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/qVd2oEtFX8sUSQ | https://disk.yandex.ru/i/4T7plhzo2CVBEQ | https://disk.yandex.ru/i/pAywipBokO5h2Q | https://disk.yandex.ru/i/ZKMPlYMDjf2Mlg | https://disk.yandex.ru/i/rCrbRKlQJPyk0w | https://disk.yandex.ru/i/AMHxMV_0iqNrRw | https://disk.yandex.ru/i/vRrw34qcqwqgKw | https://disk.yandex.ru/i/sawgFxehejgyXA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1150,26 +1116,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1207,9 +1165,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1241,27 +1199,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1293,27 +1233,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1486,16 +1408,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AW28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1644,7 +1564,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1658,34 +1578,34 @@
         <v>5499</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S2" t="s">
         <v>119</v>
       </c>
-      <c r="S2" t="s">
-        <v>120</v>
-      </c>
       <c r="AA2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB2" t="s">
         <v>121</v>
       </c>
-      <c r="AB2" t="s">
-        <v>122</v>
-      </c>
       <c r="AC2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD2" t="s">
         <v>124</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>125</v>
       </c>
-      <c r="AE2" t="s">
-        <v>126</v>
-      </c>
       <c r="AG2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH2" t="s">
         <v>135</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>136</v>
       </c>
       <c r="AN2">
         <v>50</v>
@@ -1697,16 +1617,16 @@
         <v>50</v>
       </c>
       <c r="AQ2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AR2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AS2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AT2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AU2">
         <v>30</v>
@@ -1715,10 +1635,10 @@
         <v>120</v>
       </c>
       <c r="AW2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49">
       <c r="A3">
         <v>10031</v>
       </c>
@@ -1732,34 +1652,34 @@
         <v>7000</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S3" t="s">
         <v>119</v>
       </c>
-      <c r="S3" t="s">
-        <v>120</v>
-      </c>
       <c r="AA3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC3" t="s">
         <v>123</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>124</v>
       </c>
-      <c r="AD3" t="s">
-        <v>125</v>
-      </c>
       <c r="AE3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH3" t="s">
         <v>135</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>136</v>
       </c>
       <c r="AN3">
         <v>50</v>
@@ -1771,13 +1691,13 @@
         <v>50</v>
       </c>
       <c r="AQ3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AS3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AT3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AU3">
         <v>31</v>
@@ -1786,10 +1706,10 @@
         <v>70</v>
       </c>
       <c r="AW3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49">
       <c r="A4">
         <v>10301</v>
       </c>
@@ -1803,34 +1723,34 @@
         <v>2999</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S4" t="s">
         <v>119</v>
       </c>
-      <c r="S4" t="s">
-        <v>120</v>
-      </c>
       <c r="AA4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB4" t="s">
         <v>121</v>
       </c>
-      <c r="AB4" t="s">
-        <v>122</v>
-      </c>
       <c r="AC4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD4" t="s">
         <v>124</v>
       </c>
-      <c r="AD4" t="s">
-        <v>125</v>
-      </c>
       <c r="AE4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH4" t="s">
         <v>135</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>136</v>
       </c>
       <c r="AN4">
         <v>45</v>
@@ -1842,16 +1762,16 @@
         <v>40</v>
       </c>
       <c r="AQ4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AR4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AS4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AT4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AU4">
         <v>30</v>
@@ -1860,10 +1780,10 @@
         <v>80</v>
       </c>
       <c r="AW4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49">
       <c r="A5">
         <v>10301</v>
       </c>
@@ -1877,34 +1797,34 @@
         <v>3999</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S5" t="s">
         <v>119</v>
       </c>
-      <c r="S5" t="s">
-        <v>120</v>
-      </c>
       <c r="AA5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB5" t="s">
         <v>121</v>
       </c>
-      <c r="AB5" t="s">
-        <v>122</v>
-      </c>
       <c r="AC5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD5" t="s">
         <v>124</v>
       </c>
-      <c r="AD5" t="s">
-        <v>125</v>
-      </c>
       <c r="AE5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH5" t="s">
         <v>135</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>136</v>
       </c>
       <c r="AN5">
         <v>48</v>
@@ -1916,16 +1836,16 @@
         <v>50</v>
       </c>
       <c r="AQ5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AR5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AS5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AT5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AU5">
         <v>30</v>
@@ -1934,10 +1854,10 @@
         <v>90</v>
       </c>
       <c r="AW5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49">
       <c r="A6">
         <v>10301</v>
       </c>
@@ -1951,34 +1871,34 @@
         <v>3499</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S6" t="s">
         <v>119</v>
       </c>
-      <c r="S6" t="s">
-        <v>120</v>
-      </c>
       <c r="AA6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC6" t="s">
         <v>123</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>124</v>
       </c>
-      <c r="AD6" t="s">
-        <v>125</v>
-      </c>
       <c r="AE6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH6" t="s">
         <v>135</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>136</v>
       </c>
       <c r="AN6">
         <v>50</v>
@@ -1990,13 +1910,13 @@
         <v>50</v>
       </c>
       <c r="AQ6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AS6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AT6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AU6">
         <v>30</v>
@@ -2005,10 +1925,10 @@
         <v>120</v>
       </c>
       <c r="AW6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49">
       <c r="A7">
         <v>10302</v>
       </c>
@@ -2022,34 +1942,34 @@
         <v>1499</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q7" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S7" t="s">
         <v>119</v>
       </c>
-      <c r="S7" t="s">
-        <v>120</v>
-      </c>
       <c r="AA7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB7" t="s">
         <v>121</v>
       </c>
-      <c r="AB7" t="s">
-        <v>122</v>
-      </c>
       <c r="AC7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD7" t="s">
         <v>124</v>
       </c>
-      <c r="AD7" t="s">
-        <v>125</v>
-      </c>
       <c r="AE7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH7" t="s">
         <v>135</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>136</v>
       </c>
       <c r="AN7">
         <v>45</v>
@@ -2061,16 +1981,16 @@
         <v>50</v>
       </c>
       <c r="AQ7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AR7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AS7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AT7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AU7">
         <v>30</v>
@@ -2079,10 +1999,10 @@
         <v>75</v>
       </c>
       <c r="AW7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49">
       <c r="A8">
         <v>10310</v>
       </c>
@@ -2096,34 +2016,34 @@
         <v>3100</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S8" t="s">
         <v>119</v>
       </c>
-      <c r="S8" t="s">
-        <v>120</v>
-      </c>
       <c r="AA8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB8" t="s">
         <v>121</v>
       </c>
-      <c r="AB8" t="s">
-        <v>122</v>
-      </c>
       <c r="AC8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD8" t="s">
         <v>124</v>
       </c>
-      <c r="AD8" t="s">
-        <v>125</v>
-      </c>
       <c r="AE8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH8" t="s">
         <v>135</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>136</v>
       </c>
       <c r="AN8">
         <v>48</v>
@@ -2135,16 +2055,16 @@
         <v>45</v>
       </c>
       <c r="AQ8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AR8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AS8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AT8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AU8">
         <v>30</v>
@@ -2153,10 +2073,10 @@
         <v>80</v>
       </c>
       <c r="AW8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49">
       <c r="A9">
         <v>10316</v>
       </c>
@@ -2170,34 +2090,34 @@
         <v>3499</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S9" t="s">
         <v>119</v>
       </c>
-      <c r="S9" t="s">
-        <v>120</v>
-      </c>
       <c r="AA9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB9" t="s">
         <v>121</v>
       </c>
-      <c r="AB9" t="s">
-        <v>122</v>
-      </c>
       <c r="AC9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD9" t="s">
         <v>124</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>125</v>
       </c>
-      <c r="AE9" t="s">
-        <v>126</v>
-      </c>
       <c r="AG9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH9" t="s">
         <v>135</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>136</v>
       </c>
       <c r="AN9">
         <v>48</v>
@@ -2209,16 +2129,16 @@
         <v>50</v>
       </c>
       <c r="AQ9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AR9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AS9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AT9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AU9">
         <v>30</v>
@@ -2227,10 +2147,10 @@
         <v>80</v>
       </c>
       <c r="AW9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49">
       <c r="A10">
         <v>10316</v>
       </c>
@@ -2244,34 +2164,34 @@
         <v>3499</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q10" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S10" t="s">
         <v>119</v>
       </c>
-      <c r="S10" t="s">
-        <v>120</v>
-      </c>
       <c r="AA10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC10" t="s">
         <v>123</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>124</v>
       </c>
-      <c r="AD10" t="s">
-        <v>125</v>
-      </c>
       <c r="AE10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG10" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH10" t="s">
         <v>135</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>136</v>
       </c>
       <c r="AN10">
         <v>50</v>
@@ -2283,13 +2203,13 @@
         <v>50</v>
       </c>
       <c r="AQ10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AS10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AT10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AU10">
         <v>30</v>
@@ -2298,10 +2218,10 @@
         <v>120</v>
       </c>
       <c r="AW10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49">
       <c r="A11">
         <v>10317</v>
       </c>
@@ -2315,34 +2235,34 @@
         <v>3999</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S11" t="s">
         <v>119</v>
       </c>
-      <c r="S11" t="s">
-        <v>120</v>
-      </c>
       <c r="AA11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB11" t="s">
         <v>121</v>
       </c>
-      <c r="AB11" t="s">
-        <v>122</v>
-      </c>
       <c r="AC11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD11" t="s">
         <v>124</v>
       </c>
-      <c r="AD11" t="s">
-        <v>125</v>
-      </c>
       <c r="AE11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AG11" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH11" t="s">
         <v>135</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>136</v>
       </c>
       <c r="AN11">
         <v>50</v>
@@ -2354,16 +2274,16 @@
         <v>48</v>
       </c>
       <c r="AQ11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AR11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AS11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AT11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AU11">
         <v>30</v>
@@ -2372,10 +2292,10 @@
         <v>100</v>
       </c>
       <c r="AW11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:49">
       <c r="A12">
         <v>10336</v>
       </c>
@@ -2389,34 +2309,34 @@
         <v>2300</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S12" t="s">
         <v>119</v>
       </c>
-      <c r="S12" t="s">
-        <v>120</v>
-      </c>
       <c r="AA12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB12" t="s">
         <v>121</v>
       </c>
-      <c r="AB12" t="s">
-        <v>122</v>
-      </c>
       <c r="AC12" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD12" t="s">
         <v>124</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>125</v>
       </c>
-      <c r="AE12" t="s">
-        <v>126</v>
-      </c>
       <c r="AG12" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH12" t="s">
         <v>135</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>136</v>
       </c>
       <c r="AN12">
         <v>48</v>
@@ -2428,16 +2348,16 @@
         <v>50</v>
       </c>
       <c r="AQ12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AR12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AS12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AT12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AU12">
         <v>31</v>
@@ -2446,10 +2366,10 @@
         <v>70</v>
       </c>
       <c r="AW12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:49">
       <c r="A13">
         <v>10368</v>
       </c>
@@ -2463,34 +2383,34 @@
         <v>3999</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S13" t="s">
         <v>119</v>
       </c>
-      <c r="S13" t="s">
-        <v>120</v>
-      </c>
       <c r="AA13" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB13" t="s">
         <v>121</v>
       </c>
-      <c r="AB13" t="s">
-        <v>122</v>
-      </c>
       <c r="AC13" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD13" t="s">
         <v>124</v>
       </c>
-      <c r="AD13" t="s">
-        <v>125</v>
-      </c>
       <c r="AE13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH13" t="s">
         <v>135</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>136</v>
       </c>
       <c r="AN13">
         <v>50</v>
@@ -2502,16 +2422,16 @@
         <v>50</v>
       </c>
       <c r="AQ13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AR13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AS13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AT13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AU13">
         <v>30</v>
@@ -2520,10 +2440,10 @@
         <v>120</v>
       </c>
       <c r="AW13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49">
       <c r="A14">
         <v>10371</v>
       </c>
@@ -2537,34 +2457,34 @@
         <v>5999</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S14" t="s">
         <v>119</v>
       </c>
-      <c r="S14" t="s">
-        <v>120</v>
-      </c>
       <c r="AA14" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB14" t="s">
         <v>121</v>
       </c>
-      <c r="AB14" t="s">
-        <v>122</v>
-      </c>
       <c r="AC14" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD14" t="s">
         <v>124</v>
       </c>
-      <c r="AD14" t="s">
-        <v>125</v>
-      </c>
       <c r="AE14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH14" t="s">
         <v>135</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>136</v>
       </c>
       <c r="AN14">
         <v>50</v>
@@ -2576,16 +2496,16 @@
         <v>50</v>
       </c>
       <c r="AQ14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AR14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AS14" t="s">
         <v>155</v>
       </c>
-      <c r="AS14" t="s">
-        <v>157</v>
-      </c>
       <c r="AT14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AU14">
         <v>30</v>
@@ -2594,10 +2514,10 @@
         <v>120</v>
       </c>
       <c r="AW14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49">
       <c r="A15">
         <v>10420</v>
       </c>
@@ -2611,34 +2531,34 @@
         <v>9999</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S15" t="s">
         <v>119</v>
       </c>
-      <c r="S15" t="s">
-        <v>120</v>
-      </c>
       <c r="AA15" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB15" t="s">
         <v>121</v>
       </c>
-      <c r="AB15" t="s">
-        <v>122</v>
-      </c>
       <c r="AC15" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD15" t="s">
         <v>124</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>125</v>
       </c>
-      <c r="AE15" t="s">
-        <v>126</v>
-      </c>
       <c r="AG15" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH15" t="s">
         <v>135</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>136</v>
       </c>
       <c r="AN15">
         <v>50</v>
@@ -2650,16 +2570,16 @@
         <v>50</v>
       </c>
       <c r="AQ15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AR15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AS15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AT15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AU15">
         <v>30</v>
@@ -2668,10 +2588,10 @@
         <v>120</v>
       </c>
       <c r="AW15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:49">
       <c r="A16">
         <v>10424</v>
       </c>
@@ -2685,34 +2605,34 @@
         <v>7999</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S16" t="s">
         <v>119</v>
       </c>
-      <c r="S16" t="s">
-        <v>120</v>
-      </c>
       <c r="AA16" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB16" t="s">
         <v>121</v>
       </c>
-      <c r="AB16" t="s">
-        <v>122</v>
-      </c>
       <c r="AC16" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD16" t="s">
         <v>124</v>
       </c>
-      <c r="AD16" t="s">
-        <v>125</v>
-      </c>
       <c r="AE16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AG16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH16" t="s">
         <v>135</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>136</v>
       </c>
       <c r="AN16">
         <v>50</v>
@@ -2724,16 +2644,16 @@
         <v>50</v>
       </c>
       <c r="AQ16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AR16" t="s">
+        <v>153</v>
+      </c>
+      <c r="AS16" t="s">
         <v>155</v>
       </c>
-      <c r="AS16" t="s">
-        <v>157</v>
-      </c>
       <c r="AT16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AU16">
         <v>30</v>
@@ -2742,10 +2662,10 @@
         <v>120</v>
       </c>
       <c r="AW16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:49">
       <c r="A17">
         <v>10443</v>
       </c>
@@ -2759,34 +2679,34 @@
         <v>10500</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q17" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S17" t="s">
         <v>119</v>
       </c>
-      <c r="S17" t="s">
-        <v>120</v>
-      </c>
       <c r="AA17" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB17" t="s">
         <v>121</v>
       </c>
-      <c r="AB17" t="s">
-        <v>122</v>
-      </c>
       <c r="AC17" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD17" t="s">
         <v>124</v>
       </c>
-      <c r="AD17" t="s">
-        <v>125</v>
-      </c>
       <c r="AE17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AG17" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH17" t="s">
         <v>135</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>136</v>
       </c>
       <c r="AN17">
         <v>55</v>
@@ -2798,16 +2718,16 @@
         <v>50</v>
       </c>
       <c r="AQ17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AR17" t="s">
+        <v>153</v>
+      </c>
+      <c r="AS17" t="s">
         <v>155</v>
       </c>
-      <c r="AS17" t="s">
-        <v>157</v>
-      </c>
       <c r="AT17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AU17">
         <v>35</v>
@@ -2816,10 +2736,10 @@
         <v>150</v>
       </c>
       <c r="AW17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:49">
       <c r="A18">
         <v>10460</v>
       </c>
@@ -2833,34 +2753,34 @@
         <v>7999</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S18" t="s">
         <v>119</v>
       </c>
-      <c r="S18" t="s">
-        <v>120</v>
-      </c>
       <c r="AA18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB18" t="s">
         <v>121</v>
       </c>
-      <c r="AB18" t="s">
-        <v>122</v>
-      </c>
       <c r="AC18" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD18" t="s">
         <v>124</v>
       </c>
-      <c r="AD18" t="s">
-        <v>125</v>
-      </c>
       <c r="AE18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH18" t="s">
         <v>135</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>136</v>
       </c>
       <c r="AN18">
         <v>48</v>
@@ -2872,16 +2792,16 @@
         <v>50</v>
       </c>
       <c r="AQ18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AR18" t="s">
+        <v>153</v>
+      </c>
+      <c r="AS18" t="s">
         <v>155</v>
       </c>
-      <c r="AS18" t="s">
-        <v>157</v>
-      </c>
       <c r="AT18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AU18">
         <v>30</v>
@@ -2890,199 +2810,199 @@
         <v>100</v>
       </c>
       <c r="AW18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:49">
       <c r="A19">
-        <v>10480</v>
+        <v>10494</v>
       </c>
       <c r="L19" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="M19" t="s">
         <v>82</v>
       </c>
       <c r="N19">
-        <v>9999</v>
+        <v>7999</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S19" t="s">
         <v>119</v>
       </c>
-      <c r="S19" t="s">
-        <v>120</v>
-      </c>
       <c r="AA19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB19" t="s">
         <v>121</v>
       </c>
-      <c r="AB19" t="s">
-        <v>122</v>
-      </c>
       <c r="AC19" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD19" t="s">
         <v>124</v>
       </c>
-      <c r="AD19" t="s">
-        <v>125</v>
-      </c>
       <c r="AE19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH19" t="s">
         <v>135</v>
       </c>
-      <c r="AH19" t="s">
-        <v>136</v>
-      </c>
       <c r="AN19">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AO19">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AP19">
         <v>50</v>
       </c>
       <c r="AQ19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AR19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AS19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AT19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AU19">
         <v>30</v>
       </c>
       <c r="AV19">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AW19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:49">
       <c r="A20">
-        <v>10494</v>
+        <v>10501</v>
       </c>
       <c r="L20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M20" t="s">
         <v>83</v>
       </c>
       <c r="N20">
-        <v>7999</v>
+        <v>6999</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S20" t="s">
         <v>119</v>
       </c>
-      <c r="S20" t="s">
-        <v>120</v>
-      </c>
       <c r="AA20" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB20" t="s">
         <v>121</v>
       </c>
-      <c r="AB20" t="s">
-        <v>122</v>
-      </c>
       <c r="AC20" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD20" t="s">
         <v>124</v>
       </c>
-      <c r="AD20" t="s">
-        <v>125</v>
-      </c>
       <c r="AE20" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AG20" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH20" t="s">
         <v>135</v>
       </c>
-      <c r="AH20" t="s">
-        <v>136</v>
-      </c>
       <c r="AN20">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AO20">
+        <v>48</v>
+      </c>
+      <c r="AP20">
         <v>53</v>
       </c>
-      <c r="AP20">
-        <v>50</v>
-      </c>
       <c r="AQ20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AR20" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AS20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AT20" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AU20">
         <v>30</v>
       </c>
       <c r="AV20">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="AW20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:49">
       <c r="A21">
-        <v>10501</v>
+        <v>10522</v>
       </c>
       <c r="L21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M21" t="s">
         <v>84</v>
       </c>
       <c r="N21">
-        <v>6999</v>
+        <v>5999</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S21" t="s">
         <v>119</v>
       </c>
-      <c r="S21" t="s">
-        <v>120</v>
-      </c>
       <c r="AA21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB21" t="s">
         <v>122</v>
       </c>
       <c r="AC21" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD21" t="s">
         <v>124</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>125</v>
       </c>
       <c r="AE21" t="s">
         <v>131</v>
       </c>
       <c r="AG21" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH21" t="s">
         <v>135</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>136</v>
       </c>
       <c r="AN21">
         <v>50</v>
@@ -3091,16 +3011,13 @@
         <v>48</v>
       </c>
       <c r="AP21">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AQ21" t="s">
-        <v>148</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="AS21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AT21" t="s">
         <v>152</v>
@@ -3109,18 +3026,18 @@
         <v>30</v>
       </c>
       <c r="AV21">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AW21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:49">
       <c r="A22">
         <v>10522</v>
       </c>
       <c r="L22" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="M22" t="s">
         <v>85</v>
@@ -3129,105 +3046,105 @@
         <v>5999</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S22" t="s">
         <v>119</v>
       </c>
-      <c r="S22" t="s">
-        <v>120</v>
-      </c>
       <c r="AA22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB22" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC22" t="s">
         <v>123</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AD22" t="s">
         <v>124</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>125</v>
       </c>
       <c r="AE22" t="s">
         <v>132</v>
       </c>
       <c r="AG22" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH22" t="s">
         <v>135</v>
       </c>
-      <c r="AH22" t="s">
-        <v>136</v>
-      </c>
       <c r="AN22">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO22">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AP22">
         <v>50</v>
       </c>
       <c r="AQ22" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AS22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AT22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AU22">
         <v>30</v>
       </c>
       <c r="AV22">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AW22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:49">
       <c r="A23">
-        <v>10522</v>
+        <v>10532</v>
       </c>
       <c r="L23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M23" t="s">
         <v>86</v>
       </c>
       <c r="N23">
-        <v>5999</v>
+        <v>7999</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S23" t="s">
         <v>119</v>
       </c>
-      <c r="S23" t="s">
-        <v>120</v>
-      </c>
       <c r="AA23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB23" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC23" t="s">
         <v>123</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AD23" t="s">
         <v>124</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>125</v>
       </c>
       <c r="AE23" t="s">
         <v>133</v>
       </c>
       <c r="AG23" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH23" t="s">
         <v>135</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>136</v>
       </c>
       <c r="AN23">
         <v>48</v>
@@ -3239,25 +3156,25 @@
         <v>50</v>
       </c>
       <c r="AQ23" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="AS23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AT23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AU23">
         <v>30</v>
       </c>
       <c r="AV23">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AW23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:49">
       <c r="A24">
         <v>10532</v>
       </c>
@@ -3271,34 +3188,34 @@
         <v>7999</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q24" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S24" t="s">
         <v>119</v>
       </c>
-      <c r="S24" t="s">
-        <v>120</v>
-      </c>
       <c r="AA24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC24" t="s">
         <v>123</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AD24" t="s">
         <v>124</v>
       </c>
-      <c r="AD24" t="s">
-        <v>125</v>
-      </c>
       <c r="AE24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG24" t="s">
         <v>134</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AH24" t="s">
         <v>135</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>136</v>
       </c>
       <c r="AN24">
         <v>48</v>
@@ -3310,13 +3227,13 @@
         <v>50</v>
       </c>
       <c r="AQ24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AS24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AT24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AU24">
         <v>30</v>
@@ -3325,51 +3242,51 @@
         <v>120</v>
       </c>
       <c r="AW24" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:49">
       <c r="A25">
-        <v>10532</v>
+        <v>10410</v>
       </c>
       <c r="L25" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="M25" t="s">
         <v>88</v>
       </c>
       <c r="N25">
-        <v>7999</v>
+        <v>12000</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q25" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S25" t="s">
         <v>119</v>
       </c>
-      <c r="S25" t="s">
-        <v>120</v>
-      </c>
       <c r="AA25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB25" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC25" t="s">
         <v>123</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AD25" t="s">
         <v>124</v>
       </c>
-      <c r="AD25" t="s">
-        <v>125</v>
-      </c>
       <c r="AE25" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG25" t="s">
         <v>134</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AH25" t="s">
         <v>135</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>136</v>
       </c>
       <c r="AN25">
         <v>48</v>
@@ -3381,13 +3298,13 @@
         <v>50</v>
       </c>
       <c r="AQ25" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="AS25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AT25" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AU25">
         <v>30</v>
@@ -3396,290 +3313,278 @@
         <v>120</v>
       </c>
       <c r="AW25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:49">
       <c r="A26">
-        <v>10410</v>
+        <v>10301</v>
       </c>
       <c r="L26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M26" t="s">
         <v>89</v>
       </c>
       <c r="N26">
-        <v>12000</v>
+        <v>2999</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S26" t="s">
         <v>119</v>
       </c>
-      <c r="S26" t="s">
-        <v>120</v>
-      </c>
       <c r="AA26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB26" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC26" t="s">
         <v>123</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AD26" t="s">
         <v>124</v>
       </c>
-      <c r="AD26" t="s">
-        <v>125</v>
-      </c>
       <c r="AE26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG26" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH26" t="s">
         <v>135</v>
       </c>
-      <c r="AH26" t="s">
-        <v>136</v>
+      <c r="AN26">
+        <v>48</v>
+      </c>
+      <c r="AO26">
+        <v>45</v>
+      </c>
+      <c r="AP26">
+        <v>50</v>
       </c>
       <c r="AQ26" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AS26" t="s">
+        <v>155</v>
+      </c>
+      <c r="AT26" t="s">
         <v>157</v>
       </c>
-      <c r="AT26" t="s">
+      <c r="AU26">
+        <v>30</v>
+      </c>
+      <c r="AV26">
+        <v>120</v>
+      </c>
+      <c r="AW26" t="s">
         <v>158</v>
       </c>
-      <c r="AW26" t="s">
-        <v>160</v>
-      </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:49">
       <c r="A27">
-        <v>10301</v>
+        <v>10538</v>
       </c>
       <c r="L27" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="M27" t="s">
         <v>90</v>
       </c>
       <c r="N27">
-        <v>2999</v>
+        <v>14999</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q27" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S27" t="s">
         <v>119</v>
       </c>
-      <c r="S27" t="s">
-        <v>120</v>
-      </c>
       <c r="AA27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB27" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC27" t="s">
         <v>123</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="AD27" t="s">
         <v>124</v>
       </c>
-      <c r="AD27" t="s">
-        <v>125</v>
-      </c>
       <c r="AE27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG27" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH27" t="s">
         <v>135</v>
       </c>
-      <c r="AH27" t="s">
-        <v>136</v>
+      <c r="AN27">
+        <v>48</v>
+      </c>
+      <c r="AO27">
+        <v>45</v>
+      </c>
+      <c r="AP27">
+        <v>50</v>
       </c>
       <c r="AQ27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AS27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AT27" t="s">
-        <v>159</v>
+        <v>156</v>
+      </c>
+      <c r="AU27">
+        <v>30</v>
+      </c>
+      <c r="AV27">
+        <v>120</v>
       </c>
       <c r="AW27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:49">
       <c r="A28">
-        <v>10538</v>
+        <v>10542</v>
       </c>
       <c r="L28" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="M28" t="s">
         <v>91</v>
       </c>
       <c r="N28">
-        <v>14999</v>
+        <v>5999</v>
       </c>
       <c r="O28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q28" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="Q28" s="2" t="s">
+      <c r="S28" t="s">
         <v>119</v>
       </c>
-      <c r="S28" t="s">
-        <v>120</v>
-      </c>
       <c r="AA28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB28" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC28" t="s">
         <v>123</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="AD28" t="s">
         <v>124</v>
       </c>
-      <c r="AD28" t="s">
-        <v>125</v>
-      </c>
       <c r="AE28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG28" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH28" t="s">
         <v>135</v>
       </c>
-      <c r="AH28" t="s">
-        <v>136</v>
+      <c r="AN28">
+        <v>48</v>
+      </c>
+      <c r="AO28">
+        <v>45</v>
+      </c>
+      <c r="AP28">
+        <v>50</v>
       </c>
       <c r="AQ28" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="AS28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AT28" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU28">
+        <v>30</v>
+      </c>
+      <c r="AV28">
+        <v>120</v>
+      </c>
+      <c r="AW28" t="s">
         <v>158</v>
-      </c>
-      <c r="AW28" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>10542</v>
-      </c>
-      <c r="L29" t="s">
-        <v>64</v>
-      </c>
-      <c r="M29" t="s">
-        <v>92</v>
-      </c>
-      <c r="N29">
-        <v>5999</v>
-      </c>
-      <c r="O29" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="S29" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>136</v>
-      </c>
-      <c r="AQ29" t="s">
-        <v>151</v>
-      </c>
-      <c r="AS29" t="s">
-        <v>157</v>
-      </c>
-      <c r="AT29" t="s">
-        <v>153</v>
-      </c>
-      <c r="AW29" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="O3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="Q3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="O4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="Q4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="O5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="Q5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="O6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="Q6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="O7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="Q7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="O8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="Q8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="O9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="Q9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="O10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="Q10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="O11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="Q11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="O12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="Q12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="O13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="Q13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="O14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="Q14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="O15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="Q15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="O16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="Q16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="O17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="Q17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="O18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="Q18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="O19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="Q19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="O20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="Q20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="O21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="Q21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="O22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="Q22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="O23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="Q23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="O24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="Q24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="Q25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="O26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="Q26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="O27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="Q27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="O28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="Q28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="Q29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="Q2" r:id="rId2"/>
+    <hyperlink ref="O3" r:id="rId3"/>
+    <hyperlink ref="Q3" r:id="rId4"/>
+    <hyperlink ref="O4" r:id="rId5"/>
+    <hyperlink ref="Q4" r:id="rId6"/>
+    <hyperlink ref="O5" r:id="rId7"/>
+    <hyperlink ref="Q5" r:id="rId8"/>
+    <hyperlink ref="O6" r:id="rId9"/>
+    <hyperlink ref="Q6" r:id="rId10"/>
+    <hyperlink ref="O7" r:id="rId11"/>
+    <hyperlink ref="Q7" r:id="rId12"/>
+    <hyperlink ref="O8" r:id="rId13"/>
+    <hyperlink ref="Q8" r:id="rId14"/>
+    <hyperlink ref="O9" r:id="rId15"/>
+    <hyperlink ref="Q9" r:id="rId16"/>
+    <hyperlink ref="O10" r:id="rId17"/>
+    <hyperlink ref="Q10" r:id="rId18"/>
+    <hyperlink ref="O11" r:id="rId19"/>
+    <hyperlink ref="Q11" r:id="rId20"/>
+    <hyperlink ref="O12" r:id="rId21"/>
+    <hyperlink ref="Q12" r:id="rId22"/>
+    <hyperlink ref="O13" r:id="rId23"/>
+    <hyperlink ref="Q13" r:id="rId24"/>
+    <hyperlink ref="O14" r:id="rId25"/>
+    <hyperlink ref="Q14" r:id="rId26"/>
+    <hyperlink ref="O15" r:id="rId27"/>
+    <hyperlink ref="Q15" r:id="rId28"/>
+    <hyperlink ref="O16" r:id="rId29"/>
+    <hyperlink ref="Q16" r:id="rId30"/>
+    <hyperlink ref="O17" r:id="rId31"/>
+    <hyperlink ref="Q17" r:id="rId32"/>
+    <hyperlink ref="O18" r:id="rId33"/>
+    <hyperlink ref="Q18" r:id="rId34"/>
+    <hyperlink ref="O19" r:id="rId35"/>
+    <hyperlink ref="Q19" r:id="rId36"/>
+    <hyperlink ref="O20" r:id="rId37"/>
+    <hyperlink ref="Q20" r:id="rId38"/>
+    <hyperlink ref="O21" r:id="rId39"/>
+    <hyperlink ref="Q21" r:id="rId40"/>
+    <hyperlink ref="O22" r:id="rId41"/>
+    <hyperlink ref="Q22" r:id="rId42"/>
+    <hyperlink ref="O23" r:id="rId43"/>
+    <hyperlink ref="Q23" r:id="rId44"/>
+    <hyperlink ref="O24" r:id="rId45"/>
+    <hyperlink ref="Q24" r:id="rId46"/>
+    <hyperlink ref="O25" r:id="rId47"/>
+    <hyperlink ref="Q25" r:id="rId48"/>
+    <hyperlink ref="O26" r:id="rId49"/>
+    <hyperlink ref="Q26" r:id="rId50"/>
+    <hyperlink ref="O27" r:id="rId51"/>
+    <hyperlink ref="Q27" r:id="rId52"/>
+    <hyperlink ref="O28" r:id="rId53"/>
+    <hyperlink ref="Q28" r:id="rId54"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/comp armchair.xlsx
+++ b/make_xl/data_xl/comp armchair.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="166">
   <si>
     <t>Id</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t xml:space="preserve">Кресло компьютерное </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кресло директорское </t>
   </si>
   <si>
     <t>Кресло с высокой спинкой (10371) 
@@ -840,6 +843,49 @@
     </t>
   </si>
   <si>
+    <t>Кресло директорское 
+Артикул 10468
+Описание Кожаное кресло для руководителя с механизмом качания со стопором.
+Цена 17 000
+Количество 2
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кресло компьютерное
+Артикул 10506
+Описание
+Цвет чёрный
+Цена 7 999
+Количество 8
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/ZDiUdOWTq7XF1g | https://disk.yandex.ru/i/a_u5CWPrYhAoIA | https://disk.yandex.ru/i/2U4SaFSBylFuSg | https://disk.yandex.ru/i/5xCnmpLS2Ky7dQ | https://disk.yandex.ru/i/ugTACqRM4oAMBA</t>
   </si>
   <si>
@@ -918,6 +964,12 @@
     <t>https://disk.yandex.ru/i/qVd2oEtFX8sUSQ | https://disk.yandex.ru/i/4T7plhzo2CVBEQ | https://disk.yandex.ru/i/pAywipBokO5h2Q | https://disk.yandex.ru/i/ZKMPlYMDjf2Mlg | https://disk.yandex.ru/i/rCrbRKlQJPyk0w | https://disk.yandex.ru/i/AMHxMV_0iqNrRw | https://disk.yandex.ru/i/vRrw34qcqwqgKw | https://disk.yandex.ru/i/sawgFxehejgyXA</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/r2clRELR6CFtPA | https://disk.yandex.ru/i/vbU-4xF3OE36Ug | https://disk.yandex.ru/i/iM8irOB2ZE7pWg | https://disk.yandex.ru/i/JaSfczsAujUuhQ | https://disk.yandex.ru/i/4mblgT9X8d5wXA | https://disk.yandex.ru/i/YOX1DKHY16uUUQ | https://disk.yandex.ru/i/4_CuQGBUBhgfew | https://disk.yandex.ru/i/51IVIGyF7K5i5A</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/ry-vaNuSxOJoWw | https://disk.yandex.ru/i/8HkeV38eVQtzHw | https://disk.yandex.ru/i/mLa4-4QSXVwzXQ | https://disk.yandex.ru/i/MnxtBfNyGMqG8Q | https://disk.yandex.ru/i/FypPeyL-nq92OA | https://disk.yandex.ru/i/CNImNBJCkhNYRA | https://disk.yandex.ru/i/eie-SP84D9FUyg | https://disk.yandex.ru/i/tpKXn4Nq-RSMDg | https://disk.yandex.ru/i/e1gmLrTgrkB0cA</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -1036,6 +1088,12 @@
   </si>
   <si>
     <t>Ткань | Сетка</t>
+  </si>
+  <si>
+    <t>Искусственная кожа | Кожа</t>
+  </si>
+  <si>
+    <t>Искусственная кожа | Сетка</t>
   </si>
   <si>
     <t>Нет</t>
@@ -1409,7 +1467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AW28"/>
+  <dimension ref="A1:AW30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1572,40 +1630,40 @@
         <v>49</v>
       </c>
       <c r="M2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N2">
         <v>5499</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="S2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AA2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AB2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AC2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AD2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AE2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AG2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AH2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AN2">
         <v>50</v>
@@ -1617,16 +1675,16 @@
         <v>50</v>
       </c>
       <c r="AQ2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AR2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AS2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AT2" t="s">
         <v>155</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>150</v>
       </c>
       <c r="AU2">
         <v>30</v>
@@ -1635,7 +1693,7 @@
         <v>120</v>
       </c>
       <c r="AW2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:49">
@@ -1646,40 +1704,40 @@
         <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N3">
         <v>7000</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="S3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AA3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AB3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AC3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AD3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AE3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AG3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AH3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AN3">
         <v>50</v>
@@ -1691,13 +1749,13 @@
         <v>50</v>
       </c>
       <c r="AQ3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AS3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AT3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AU3">
         <v>31</v>
@@ -1706,7 +1764,7 @@
         <v>70</v>
       </c>
       <c r="AW3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:49">
@@ -1717,40 +1775,40 @@
         <v>51</v>
       </c>
       <c r="M4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N4">
         <v>2999</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="S4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AA4" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AB4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AC4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AD4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AE4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AG4" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AH4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AN4">
         <v>45</v>
@@ -1762,16 +1820,16 @@
         <v>40</v>
       </c>
       <c r="AQ4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AR4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AS4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AT4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AU4">
         <v>30</v>
@@ -1780,7 +1838,7 @@
         <v>80</v>
       </c>
       <c r="AW4" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:49">
@@ -1791,40 +1849,40 @@
         <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N5">
         <v>3999</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="S5" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AA5" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AB5" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AC5" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AD5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AE5" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AG5" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AH5" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AN5">
         <v>48</v>
@@ -1836,16 +1894,16 @@
         <v>50</v>
       </c>
       <c r="AQ5" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AR5" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AS5" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AT5" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AU5">
         <v>30</v>
@@ -1854,7 +1912,7 @@
         <v>90</v>
       </c>
       <c r="AW5" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:49">
@@ -1865,40 +1923,40 @@
         <v>53</v>
       </c>
       <c r="M6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N6">
         <v>3499</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="S6" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AA6" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AB6" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AC6" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AD6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AE6" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AG6" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AH6" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AN6">
         <v>50</v>
@@ -1910,13 +1968,13 @@
         <v>50</v>
       </c>
       <c r="AQ6" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AS6" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AT6" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AU6">
         <v>30</v>
@@ -1925,7 +1983,7 @@
         <v>120</v>
       </c>
       <c r="AW6" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:49">
@@ -1936,40 +1994,40 @@
         <v>49</v>
       </c>
       <c r="M7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N7">
         <v>1499</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="S7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AA7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AB7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AC7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AD7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AE7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AG7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AH7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AN7">
         <v>45</v>
@@ -1981,16 +2039,16 @@
         <v>50</v>
       </c>
       <c r="AQ7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AR7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="AS7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AT7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="AU7">
         <v>30</v>
@@ -1999,7 +2057,7 @@
         <v>75</v>
       </c>
       <c r="AW7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:49">
@@ -2010,40 +2068,40 @@
         <v>50</v>
       </c>
       <c r="M8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N8">
         <v>3100</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="S8" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AA8" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AB8" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AC8" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AD8" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AE8" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AH8" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AN8">
         <v>48</v>
@@ -2055,16 +2113,16 @@
         <v>45</v>
       </c>
       <c r="AQ8" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AR8" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AS8" t="s">
+        <v>160</v>
+      </c>
+      <c r="AT8" t="s">
         <v>155</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>150</v>
       </c>
       <c r="AU8">
         <v>30</v>
@@ -2073,7 +2131,7 @@
         <v>80</v>
       </c>
       <c r="AW8" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:49">
@@ -2084,40 +2142,40 @@
         <v>54</v>
       </c>
       <c r="M9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N9">
         <v>3499</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="S9" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AA9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AB9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AC9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AD9" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AE9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AG9" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AH9" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AN9">
         <v>48</v>
@@ -2129,16 +2187,16 @@
         <v>50</v>
       </c>
       <c r="AQ9" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AR9" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AS9" t="s">
+        <v>160</v>
+      </c>
+      <c r="AT9" t="s">
         <v>155</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>150</v>
       </c>
       <c r="AU9">
         <v>30</v>
@@ -2147,7 +2205,7 @@
         <v>80</v>
       </c>
       <c r="AW9" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:49">
@@ -2158,40 +2216,40 @@
         <v>55</v>
       </c>
       <c r="M10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N10">
         <v>3499</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="S10" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AA10" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AB10" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AC10" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AD10" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AE10" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AG10" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AH10" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AN10">
         <v>50</v>
@@ -2203,13 +2261,13 @@
         <v>50</v>
       </c>
       <c r="AQ10" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AS10" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AT10" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU10">
         <v>30</v>
@@ -2218,7 +2276,7 @@
         <v>120</v>
       </c>
       <c r="AW10" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:49">
@@ -2229,40 +2287,40 @@
         <v>51</v>
       </c>
       <c r="M11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N11">
         <v>3999</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="S11" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AA11" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AB11" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AC11" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AD11" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AE11" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AG11" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AH11" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AN11">
         <v>50</v>
@@ -2274,16 +2332,16 @@
         <v>48</v>
       </c>
       <c r="AQ11" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="AR11" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AS11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AT11" t="s">
         <v>155</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>150</v>
       </c>
       <c r="AU11">
         <v>30</v>
@@ -2292,7 +2350,7 @@
         <v>100</v>
       </c>
       <c r="AW11" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:49">
@@ -2303,40 +2361,40 @@
         <v>56</v>
       </c>
       <c r="M12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N12">
         <v>2300</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="S12" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AA12" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AB12" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AC12" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AD12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AE12" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AG12" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AH12" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AN12">
         <v>48</v>
@@ -2348,16 +2406,16 @@
         <v>50</v>
       </c>
       <c r="AQ12" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AR12" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AS12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AT12" t="s">
         <v>155</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>150</v>
       </c>
       <c r="AU12">
         <v>31</v>
@@ -2366,7 +2424,7 @@
         <v>70</v>
       </c>
       <c r="AW12" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:49">
@@ -2377,40 +2435,40 @@
         <v>57</v>
       </c>
       <c r="M13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N13">
         <v>3999</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="S13" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AA13" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AB13" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AC13" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AD13" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AE13" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AG13" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AH13" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AN13">
         <v>50</v>
@@ -2422,16 +2480,16 @@
         <v>50</v>
       </c>
       <c r="AQ13" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AR13" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="AS13" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AT13" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="AU13">
         <v>30</v>
@@ -2440,7 +2498,7 @@
         <v>120</v>
       </c>
       <c r="AW13" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:49">
@@ -2451,40 +2509,40 @@
         <v>58</v>
       </c>
       <c r="M14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N14">
         <v>5999</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="S14" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AA14" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AB14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AC14" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AD14" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AE14" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AG14" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AH14" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AN14">
         <v>50</v>
@@ -2496,16 +2554,16 @@
         <v>50</v>
       </c>
       <c r="AQ14" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AR14" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="AS14" t="s">
+        <v>160</v>
+      </c>
+      <c r="AT14" t="s">
         <v>155</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>150</v>
       </c>
       <c r="AU14">
         <v>30</v>
@@ -2514,7 +2572,7 @@
         <v>120</v>
       </c>
       <c r="AW14" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:49">
@@ -2525,40 +2583,40 @@
         <v>56</v>
       </c>
       <c r="M15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N15">
         <v>9999</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="S15" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AA15" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AB15" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AC15" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AD15" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AE15" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AG15" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AH15" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AN15">
         <v>50</v>
@@ -2570,16 +2628,16 @@
         <v>50</v>
       </c>
       <c r="AQ15" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="AR15" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="AS15" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AT15" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AU15">
         <v>30</v>
@@ -2588,7 +2646,7 @@
         <v>120</v>
       </c>
       <c r="AW15" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:49">
@@ -2599,40 +2657,40 @@
         <v>50</v>
       </c>
       <c r="M16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N16">
         <v>7999</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="S16" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AA16" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AB16" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AC16" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AD16" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AE16" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AG16" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AH16" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AN16">
         <v>50</v>
@@ -2644,16 +2702,16 @@
         <v>50</v>
       </c>
       <c r="AQ16" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AR16" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="AS16" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AT16" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="AU16">
         <v>30</v>
@@ -2662,7 +2720,7 @@
         <v>120</v>
       </c>
       <c r="AW16" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:49">
@@ -2673,40 +2731,40 @@
         <v>58</v>
       </c>
       <c r="M17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N17">
         <v>10500</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="S17" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AA17" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AB17" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AC17" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AD17" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AE17" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AG17" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AH17" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AN17">
         <v>55</v>
@@ -2718,16 +2776,16 @@
         <v>50</v>
       </c>
       <c r="AQ17" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="AR17" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="AS17" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AT17" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="AU17">
         <v>35</v>
@@ -2736,7 +2794,7 @@
         <v>150</v>
       </c>
       <c r="AW17" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:49">
@@ -2747,40 +2805,40 @@
         <v>59</v>
       </c>
       <c r="M18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N18">
         <v>7999</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="S18" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AA18" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AB18" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AC18" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AD18" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AE18" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AG18" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AH18" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AN18">
         <v>48</v>
@@ -2792,16 +2850,16 @@
         <v>50</v>
       </c>
       <c r="AQ18" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AR18" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="AS18" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AT18" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="AU18">
         <v>30</v>
@@ -2810,7 +2868,7 @@
         <v>100</v>
       </c>
       <c r="AW18" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:49">
@@ -2821,40 +2879,40 @@
         <v>58</v>
       </c>
       <c r="M19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N19">
         <v>7999</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="S19" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AA19" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AB19" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AC19" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AD19" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AE19" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AG19" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AH19" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AN19">
         <v>55</v>
@@ -2866,16 +2924,16 @@
         <v>50</v>
       </c>
       <c r="AQ19" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="AR19" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AS19" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AT19" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AU19">
         <v>30</v>
@@ -2884,7 +2942,7 @@
         <v>180</v>
       </c>
       <c r="AW19" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:49">
@@ -2895,40 +2953,40 @@
         <v>60</v>
       </c>
       <c r="M20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N20">
         <v>6999</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="S20" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AA20" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AB20" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AC20" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AD20" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AE20" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AG20" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AH20" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AN20">
         <v>50</v>
@@ -2940,16 +2998,16 @@
         <v>53</v>
       </c>
       <c r="AQ20" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="AR20" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AS20" t="s">
+        <v>160</v>
+      </c>
+      <c r="AT20" t="s">
         <v>155</v>
-      </c>
-      <c r="AT20" t="s">
-        <v>150</v>
       </c>
       <c r="AU20">
         <v>30</v>
@@ -2958,7 +3016,7 @@
         <v>100</v>
       </c>
       <c r="AW20" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:49">
@@ -2969,40 +3027,40 @@
         <v>61</v>
       </c>
       <c r="M21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N21">
         <v>5999</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="S21" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AA21" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AB21" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AC21" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AD21" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AE21" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AG21" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AH21" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AN21">
         <v>50</v>
@@ -3014,13 +3072,13 @@
         <v>50</v>
       </c>
       <c r="AQ21" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AS21" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AT21" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="AU21">
         <v>30</v>
@@ -3029,7 +3087,7 @@
         <v>80</v>
       </c>
       <c r="AW21" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:49">
@@ -3040,40 +3098,40 @@
         <v>50</v>
       </c>
       <c r="M22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N22">
         <v>5999</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="S22" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AA22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AB22" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AC22" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AD22" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AE22" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AG22" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AH22" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AN22">
         <v>48</v>
@@ -3085,13 +3143,13 @@
         <v>50</v>
       </c>
       <c r="AQ22" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AS22" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AT22" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="AU22">
         <v>30</v>
@@ -3100,7 +3158,7 @@
         <v>100</v>
       </c>
       <c r="AW22" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:49">
@@ -3111,40 +3169,40 @@
         <v>51</v>
       </c>
       <c r="M23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N23">
         <v>7999</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="S23" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AA23" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AB23" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AC23" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AD23" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AE23" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AG23" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AH23" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AN23">
         <v>48</v>
@@ -3156,13 +3214,13 @@
         <v>50</v>
       </c>
       <c r="AQ23" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AS23" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AT23" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AU23">
         <v>30</v>
@@ -3171,7 +3229,7 @@
         <v>120</v>
       </c>
       <c r="AW23" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:49">
@@ -3182,40 +3240,40 @@
         <v>51</v>
       </c>
       <c r="M24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N24">
         <v>7999</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="S24" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AA24" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AB24" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AC24" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AD24" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AE24" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AG24" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AH24" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AN24">
         <v>48</v>
@@ -3227,13 +3285,13 @@
         <v>50</v>
       </c>
       <c r="AQ24" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AS24" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AT24" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AU24">
         <v>30</v>
@@ -3242,7 +3300,7 @@
         <v>120</v>
       </c>
       <c r="AW24" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:49">
@@ -3253,40 +3311,40 @@
         <v>62</v>
       </c>
       <c r="M25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N25">
         <v>12000</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="S25" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AA25" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AB25" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AC25" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AD25" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AE25" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AG25" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AH25" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AN25">
         <v>48</v>
@@ -3298,13 +3356,13 @@
         <v>50</v>
       </c>
       <c r="AQ25" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AS25" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AT25" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU25">
         <v>30</v>
@@ -3313,7 +3371,7 @@
         <v>120</v>
       </c>
       <c r="AW25" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:49">
@@ -3324,40 +3382,40 @@
         <v>63</v>
       </c>
       <c r="M26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N26">
         <v>2999</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="S26" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AA26" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AB26" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AC26" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AD26" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AE26" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AG26" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AH26" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AN26">
         <v>48</v>
@@ -3369,13 +3427,13 @@
         <v>50</v>
       </c>
       <c r="AQ26" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AS26" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AT26" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="AU26">
         <v>30</v>
@@ -3384,7 +3442,7 @@
         <v>120</v>
       </c>
       <c r="AW26" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:49">
@@ -3395,40 +3453,40 @@
         <v>57</v>
       </c>
       <c r="M27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N27">
         <v>14999</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="S27" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AA27" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AB27" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AC27" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AD27" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AE27" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AG27" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AH27" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AN27">
         <v>48</v>
@@ -3440,13 +3498,13 @@
         <v>50</v>
       </c>
       <c r="AQ27" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AS27" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AT27" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU27">
         <v>30</v>
@@ -3455,7 +3513,7 @@
         <v>120</v>
       </c>
       <c r="AW27" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:49">
@@ -3466,40 +3524,40 @@
         <v>64</v>
       </c>
       <c r="M28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N28">
         <v>5999</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="S28" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AA28" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AB28" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AC28" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AD28" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AE28" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AG28" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AH28" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AN28">
         <v>48</v>
@@ -3511,13 +3569,13 @@
         <v>50</v>
       </c>
       <c r="AQ28" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="AS28" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AT28" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AU28">
         <v>30</v>
@@ -3526,7 +3584,119 @@
         <v>120</v>
       </c>
       <c r="AW28" t="s">
-        <v>158</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:49">
+      <c r="A29">
+        <v>10468</v>
+      </c>
+      <c r="L29" t="s">
+        <v>65</v>
+      </c>
+      <c r="M29" t="s">
+        <v>93</v>
+      </c>
+      <c r="N29">
+        <v>17000</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="S29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>140</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>142</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>160</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>163</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:49">
+      <c r="A30">
+        <v>10506</v>
+      </c>
+      <c r="L30" t="s">
+        <v>50</v>
+      </c>
+      <c r="M30" t="s">
+        <v>94</v>
+      </c>
+      <c r="N30">
+        <v>7999</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="S30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>140</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>160</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>164</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3585,6 +3755,10 @@
     <hyperlink ref="Q27" r:id="rId52"/>
     <hyperlink ref="O28" r:id="rId53"/>
     <hyperlink ref="Q28" r:id="rId54"/>
+    <hyperlink ref="O29" r:id="rId55"/>
+    <hyperlink ref="Q29" r:id="rId56"/>
+    <hyperlink ref="O30" r:id="rId57"/>
+    <hyperlink ref="Q30" r:id="rId58"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/comp armchair.xlsx
+++ b/make_xl/data_xl/comp armchair.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6D8713-C03D-4418-8829-79550662FA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="163">
   <si>
     <t>Id</t>
   </si>
@@ -649,27 +655,6 @@
 Цвет коричневый
 Цена 5 999 
 Количество 5 (уточняйте)
-    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
-    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Кресло компьютерное
-Артикул 10522
-Офисное кресло в бордовой тканевой обивке, специально разработанное для выдерживания большого веса, объединяет современный дизайн и высокие технологии. Прочная конструкция и усиленные элементы обеспечивают долговечность и устойчивость, делая кресло идеальным для длительного использования. Кресло оснащено механизмом качания для комфортного отдыха, а также регулируемыми подлокотниками, которые можно настроить для оптимальной поддержки рук.
-Цвет бордовый
-Цена 5 999
-Количество 8 (уточняйте)
     В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
     Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
@@ -943,9 +928,6 @@
     <t>https://disk.yandex.ru/i/6eXEGq2gtAIg0A | https://disk.yandex.ru/i/-YivLak783RYOg | https://disk.yandex.ru/i/YxmQTm9FtOKlUQ | https://disk.yandex.ru/i/H2Vd5PvsBEr41A | https://disk.yandex.ru/i/CnnXdhxj0g5-ww | https://disk.yandex.ru/i/INO4Tb_dlvIEQg | https://disk.yandex.ru/i/MV98uMdBlszb8w | https://disk.yandex.ru/i/lc_Z3tk8PuM_2A | https://disk.yandex.ru/i/pDmeJ70ZRRpR0Q</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/-NDDMu6NowZY6w | https://disk.yandex.ru/i/bDlDGdiGp4vXMA | https://disk.yandex.ru/i/naofRvgm46ZCVg | https://disk.yandex.ru/i/95zbq-3ohjZUuA | https://disk.yandex.ru/i/hAVYFsSeMU0UVg | https://disk.yandex.ru/i/-C9zaQui9nV4AA | https://disk.yandex.ru/i/bIsBGWTGahObbA | https://disk.yandex.ru/i/wmyY9NoVpOnbqA</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/TqK0FuUIq66acA | https://disk.yandex.ru/i/VILDcrwkAFLEBg | https://disk.yandex.ru/i/qZtGak6h82HfBA | https://disk.yandex.ru/i/3K68SCX-JOYsSg | https://disk.yandex.ru/i/QLhoKzECizTGHg | https://disk.yandex.ru/i/NtT5TYQ6N88MKA | https://disk.yandex.ru/i/wbvoLiE2kxK8HA | https://disk.yandex.ru/i/7OAY6ktLqT-iYw | https://disk.yandex.ru/i/TIzTjE-z0_tRew</t>
   </si>
   <si>
@@ -1010,9 +992,6 @@
   </si>
   <si>
     <t>Коричневый</t>
-  </si>
-  <si>
-    <t>Фиолетовый</t>
   </si>
   <si>
     <t>Серый</t>
@@ -1102,8 +1081,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1174,18 +1153,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1223,9 +1210,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1257,9 +1244,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1291,9 +1296,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1466,14 +1489,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AW30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AW29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:49">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1622,7 +1647,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:49">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1636,34 +1661,34 @@
         <v>5499</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA2" t="s">
         <v>123</v>
       </c>
-      <c r="S2" t="s">
+      <c r="AB2" t="s">
         <v>124</v>
       </c>
-      <c r="AA2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>126</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE2" t="s">
         <v>128</v>
       </c>
-      <c r="AD2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>130</v>
-      </c>
       <c r="AG2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AH2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AN2">
         <v>50</v>
@@ -1675,16 +1700,16 @@
         <v>50</v>
       </c>
       <c r="AQ2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AR2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AS2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AT2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AU2">
         <v>30</v>
@@ -1693,10 +1718,10 @@
         <v>120</v>
       </c>
       <c r="AW2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:49">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10031</v>
       </c>
@@ -1710,34 +1735,34 @@
         <v>7000</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA3" t="s">
         <v>123</v>
       </c>
-      <c r="S3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>125</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD3" t="s">
         <v>127</v>
       </c>
-      <c r="AC3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>129</v>
       </c>
-      <c r="AE3" t="s">
-        <v>131</v>
-      </c>
       <c r="AG3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AH3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AN3">
         <v>50</v>
@@ -1749,13 +1774,13 @@
         <v>50</v>
       </c>
       <c r="AQ3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AS3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AT3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AU3">
         <v>31</v>
@@ -1764,10 +1789,10 @@
         <v>70</v>
       </c>
       <c r="AW3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:49">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10301</v>
       </c>
@@ -1781,34 +1806,34 @@
         <v>2999</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA4" t="s">
         <v>123</v>
       </c>
-      <c r="S4" t="s">
+      <c r="AB4" t="s">
         <v>124</v>
       </c>
-      <c r="AA4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>126</v>
       </c>
-      <c r="AC4" t="s">
-        <v>128</v>
-      </c>
       <c r="AD4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE4" t="s">
         <v>129</v>
       </c>
-      <c r="AE4" t="s">
-        <v>131</v>
-      </c>
       <c r="AG4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AH4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AN4">
         <v>45</v>
@@ -1820,16 +1845,16 @@
         <v>40</v>
       </c>
       <c r="AQ4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AR4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AS4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AT4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AU4">
         <v>30</v>
@@ -1838,10 +1863,10 @@
         <v>80</v>
       </c>
       <c r="AW4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:49">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10301</v>
       </c>
@@ -1855,34 +1880,34 @@
         <v>3999</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA5" t="s">
         <v>123</v>
       </c>
-      <c r="S5" t="s">
+      <c r="AB5" t="s">
         <v>124</v>
       </c>
-      <c r="AA5" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>126</v>
       </c>
-      <c r="AC5" t="s">
-        <v>128</v>
-      </c>
       <c r="AD5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE5" t="s">
         <v>129</v>
       </c>
-      <c r="AE5" t="s">
-        <v>131</v>
-      </c>
       <c r="AG5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AH5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AN5">
         <v>48</v>
@@ -1894,16 +1919,16 @@
         <v>50</v>
       </c>
       <c r="AQ5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AR5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AS5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AT5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AU5">
         <v>30</v>
@@ -1912,10 +1937,10 @@
         <v>90</v>
       </c>
       <c r="AW5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:49">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10301</v>
       </c>
@@ -1929,34 +1954,34 @@
         <v>3499</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA6" t="s">
         <v>123</v>
       </c>
-      <c r="S6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>125</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD6" t="s">
         <v>127</v>
       </c>
-      <c r="AC6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>129</v>
       </c>
-      <c r="AE6" t="s">
-        <v>131</v>
-      </c>
       <c r="AG6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AH6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AN6">
         <v>50</v>
@@ -1968,13 +1993,13 @@
         <v>50</v>
       </c>
       <c r="AQ6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AS6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AT6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AU6">
         <v>30</v>
@@ -1983,10 +2008,10 @@
         <v>120</v>
       </c>
       <c r="AW6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:49">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10302</v>
       </c>
@@ -2000,34 +2025,34 @@
         <v>1499</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA7" t="s">
         <v>123</v>
       </c>
-      <c r="S7" t="s">
+      <c r="AB7" t="s">
         <v>124</v>
       </c>
-      <c r="AA7" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>126</v>
       </c>
-      <c r="AC7" t="s">
-        <v>128</v>
-      </c>
       <c r="AD7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE7" t="s">
         <v>129</v>
       </c>
-      <c r="AE7" t="s">
-        <v>131</v>
-      </c>
       <c r="AG7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AH7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AN7">
         <v>45</v>
@@ -2039,16 +2064,16 @@
         <v>50</v>
       </c>
       <c r="AQ7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AR7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS7" t="s">
         <v>157</v>
       </c>
-      <c r="AS7" t="s">
-        <v>160</v>
-      </c>
       <c r="AT7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AU7">
         <v>30</v>
@@ -2057,10 +2082,10 @@
         <v>75</v>
       </c>
       <c r="AW7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:49">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10310</v>
       </c>
@@ -2074,34 +2099,34 @@
         <v>3100</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA8" t="s">
         <v>123</v>
       </c>
-      <c r="S8" t="s">
+      <c r="AB8" t="s">
         <v>124</v>
       </c>
-      <c r="AA8" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>126</v>
       </c>
-      <c r="AC8" t="s">
-        <v>128</v>
-      </c>
       <c r="AD8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AE8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AH8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AN8">
         <v>48</v>
@@ -2113,16 +2138,16 @@
         <v>45</v>
       </c>
       <c r="AQ8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AR8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AS8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AT8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AU8">
         <v>30</v>
@@ -2131,10 +2156,10 @@
         <v>80</v>
       </c>
       <c r="AW8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:49">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10316</v>
       </c>
@@ -2148,34 +2173,34 @@
         <v>3499</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA9" t="s">
         <v>123</v>
       </c>
-      <c r="S9" t="s">
+      <c r="AB9" t="s">
         <v>124</v>
       </c>
-      <c r="AA9" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>126</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE9" t="s">
         <v>128</v>
       </c>
-      <c r="AD9" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>130</v>
-      </c>
       <c r="AG9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AH9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AN9">
         <v>48</v>
@@ -2187,16 +2212,16 @@
         <v>50</v>
       </c>
       <c r="AQ9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AR9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AS9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AT9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AU9">
         <v>30</v>
@@ -2205,10 +2230,10 @@
         <v>80</v>
       </c>
       <c r="AW9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:49">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10316</v>
       </c>
@@ -2222,34 +2247,34 @@
         <v>3499</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA10" t="s">
         <v>123</v>
       </c>
-      <c r="S10" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>125</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD10" t="s">
         <v>127</v>
       </c>
-      <c r="AC10" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>129</v>
       </c>
-      <c r="AE10" t="s">
-        <v>131</v>
-      </c>
       <c r="AG10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AH10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AN10">
         <v>50</v>
@@ -2261,13 +2286,13 @@
         <v>50</v>
       </c>
       <c r="AQ10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AS10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AT10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AU10">
         <v>30</v>
@@ -2276,10 +2301,10 @@
         <v>120</v>
       </c>
       <c r="AW10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:49">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10317</v>
       </c>
@@ -2293,34 +2318,34 @@
         <v>3999</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S11" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA11" t="s">
         <v>123</v>
       </c>
-      <c r="S11" t="s">
+      <c r="AB11" t="s">
         <v>124</v>
       </c>
-      <c r="AA11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>126</v>
       </c>
-      <c r="AC11" t="s">
-        <v>128</v>
-      </c>
       <c r="AD11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AE11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AG11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AH11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AN11">
         <v>50</v>
@@ -2332,16 +2357,16 @@
         <v>48</v>
       </c>
       <c r="AQ11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AR11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AS11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AT11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AU11">
         <v>30</v>
@@ -2350,10 +2375,10 @@
         <v>100</v>
       </c>
       <c r="AW11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:49">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10336</v>
       </c>
@@ -2367,34 +2392,34 @@
         <v>2300</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S12" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA12" t="s">
         <v>123</v>
       </c>
-      <c r="S12" t="s">
+      <c r="AB12" t="s">
         <v>124</v>
       </c>
-      <c r="AA12" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>126</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE12" t="s">
         <v>128</v>
       </c>
-      <c r="AD12" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>130</v>
-      </c>
       <c r="AG12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AH12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AN12">
         <v>48</v>
@@ -2406,16 +2431,16 @@
         <v>50</v>
       </c>
       <c r="AQ12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AR12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AS12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AT12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AU12">
         <v>31</v>
@@ -2424,10 +2449,10 @@
         <v>70</v>
       </c>
       <c r="AW12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:49">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10368</v>
       </c>
@@ -2441,34 +2466,34 @@
         <v>3999</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S13" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA13" t="s">
         <v>123</v>
       </c>
-      <c r="S13" t="s">
+      <c r="AB13" t="s">
         <v>124</v>
       </c>
-      <c r="AA13" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>126</v>
       </c>
-      <c r="AC13" t="s">
-        <v>128</v>
-      </c>
       <c r="AD13" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE13" t="s">
         <v>129</v>
       </c>
-      <c r="AE13" t="s">
-        <v>131</v>
-      </c>
       <c r="AG13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AH13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AN13">
         <v>50</v>
@@ -2480,16 +2505,16 @@
         <v>50</v>
       </c>
       <c r="AQ13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AR13" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS13" t="s">
         <v>157</v>
       </c>
-      <c r="AS13" t="s">
-        <v>160</v>
-      </c>
       <c r="AT13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AU13">
         <v>30</v>
@@ -2498,10 +2523,10 @@
         <v>120</v>
       </c>
       <c r="AW13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:49">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10371</v>
       </c>
@@ -2515,34 +2540,34 @@
         <v>5999</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S14" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA14" t="s">
         <v>123</v>
       </c>
-      <c r="S14" t="s">
+      <c r="AB14" t="s">
         <v>124</v>
       </c>
-      <c r="AA14" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>126</v>
       </c>
-      <c r="AC14" t="s">
-        <v>128</v>
-      </c>
       <c r="AD14" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE14" t="s">
         <v>129</v>
       </c>
-      <c r="AE14" t="s">
-        <v>131</v>
-      </c>
       <c r="AG14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AH14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AN14">
         <v>50</v>
@@ -2554,16 +2579,16 @@
         <v>50</v>
       </c>
       <c r="AQ14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AR14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AS14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AT14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AU14">
         <v>30</v>
@@ -2572,10 +2597,10 @@
         <v>120</v>
       </c>
       <c r="AW14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:49">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10420</v>
       </c>
@@ -2589,34 +2614,34 @@
         <v>9999</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q15" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S15" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA15" t="s">
         <v>123</v>
       </c>
-      <c r="S15" t="s">
+      <c r="AB15" t="s">
         <v>124</v>
       </c>
-      <c r="AA15" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>126</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE15" t="s">
         <v>128</v>
       </c>
-      <c r="AD15" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>130</v>
-      </c>
       <c r="AG15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AH15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AN15">
         <v>50</v>
@@ -2628,16 +2653,16 @@
         <v>50</v>
       </c>
       <c r="AQ15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AR15" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS15" t="s">
         <v>157</v>
       </c>
-      <c r="AS15" t="s">
-        <v>160</v>
-      </c>
       <c r="AT15" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AU15">
         <v>30</v>
@@ -2646,10 +2671,10 @@
         <v>120</v>
       </c>
       <c r="AW15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:49">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10424</v>
       </c>
@@ -2663,34 +2688,34 @@
         <v>7999</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S16" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA16" t="s">
         <v>123</v>
       </c>
-      <c r="S16" t="s">
+      <c r="AB16" t="s">
         <v>124</v>
       </c>
-      <c r="AA16" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>126</v>
       </c>
-      <c r="AC16" t="s">
-        <v>128</v>
-      </c>
       <c r="AD16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AE16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AG16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AH16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AN16">
         <v>50</v>
@@ -2702,16 +2727,16 @@
         <v>50</v>
       </c>
       <c r="AQ16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AR16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AS16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AT16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AU16">
         <v>30</v>
@@ -2720,10 +2745,10 @@
         <v>120</v>
       </c>
       <c r="AW16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:49">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10443</v>
       </c>
@@ -2737,34 +2762,34 @@
         <v>10500</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S17" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA17" t="s">
         <v>123</v>
       </c>
-      <c r="S17" t="s">
+      <c r="AB17" t="s">
         <v>124</v>
       </c>
-      <c r="AA17" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>126</v>
       </c>
-      <c r="AC17" t="s">
-        <v>128</v>
-      </c>
       <c r="AD17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AE17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AG17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AH17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AN17">
         <v>55</v>
@@ -2776,16 +2801,16 @@
         <v>50</v>
       </c>
       <c r="AQ17" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AR17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AS17" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AT17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AU17">
         <v>35</v>
@@ -2794,10 +2819,10 @@
         <v>150</v>
       </c>
       <c r="AW17" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:49">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10460</v>
       </c>
@@ -2811,34 +2836,34 @@
         <v>7999</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q18" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S18" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA18" t="s">
         <v>123</v>
       </c>
-      <c r="S18" t="s">
+      <c r="AB18" t="s">
         <v>124</v>
       </c>
-      <c r="AA18" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB18" t="s">
+      <c r="AC18" t="s">
         <v>126</v>
       </c>
-      <c r="AC18" t="s">
-        <v>128</v>
-      </c>
       <c r="AD18" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE18" t="s">
         <v>129</v>
       </c>
-      <c r="AE18" t="s">
-        <v>131</v>
-      </c>
       <c r="AG18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AH18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AN18">
         <v>48</v>
@@ -2850,16 +2875,16 @@
         <v>50</v>
       </c>
       <c r="AQ18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AR18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AS18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AT18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AU18">
         <v>30</v>
@@ -2868,10 +2893,10 @@
         <v>100</v>
       </c>
       <c r="AW18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:49">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10494</v>
       </c>
@@ -2885,34 +2910,34 @@
         <v>7999</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S19" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA19" t="s">
         <v>123</v>
       </c>
-      <c r="S19" t="s">
+      <c r="AB19" t="s">
         <v>124</v>
       </c>
-      <c r="AA19" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB19" t="s">
+      <c r="AC19" t="s">
         <v>126</v>
       </c>
-      <c r="AC19" t="s">
-        <v>128</v>
-      </c>
       <c r="AD19" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE19" t="s">
         <v>129</v>
       </c>
-      <c r="AE19" t="s">
-        <v>131</v>
-      </c>
       <c r="AG19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AH19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AN19">
         <v>55</v>
@@ -2924,16 +2949,16 @@
         <v>50</v>
       </c>
       <c r="AQ19" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AR19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AS19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AT19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AU19">
         <v>30</v>
@@ -2942,10 +2967,10 @@
         <v>180</v>
       </c>
       <c r="AW19" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:49">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10501</v>
       </c>
@@ -2959,34 +2984,34 @@
         <v>6999</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S20" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA20" t="s">
         <v>123</v>
       </c>
-      <c r="S20" t="s">
+      <c r="AB20" t="s">
         <v>124</v>
       </c>
-      <c r="AA20" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
         <v>126</v>
       </c>
-      <c r="AC20" t="s">
-        <v>128</v>
-      </c>
       <c r="AD20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AE20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AG20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AH20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AN20">
         <v>50</v>
@@ -2998,16 +3023,16 @@
         <v>53</v>
       </c>
       <c r="AQ20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AR20" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AS20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AT20" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AU20">
         <v>30</v>
@@ -3016,10 +3041,10 @@
         <v>100</v>
       </c>
       <c r="AW20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:49">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10522</v>
       </c>
@@ -3033,34 +3058,34 @@
         <v>5999</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S21" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA21" t="s">
         <v>123</v>
       </c>
-      <c r="S21" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA21" t="s">
+      <c r="AB21" t="s">
         <v>125</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AC21" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD21" t="s">
         <v>127</v>
       </c>
-      <c r="AC21" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>129</v>
-      </c>
       <c r="AE21" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG21" t="s">
         <v>136</v>
       </c>
-      <c r="AG21" t="s">
-        <v>139</v>
-      </c>
       <c r="AH21" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AN21">
         <v>50</v>
@@ -3072,13 +3097,13 @@
         <v>50</v>
       </c>
       <c r="AQ21" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AS21" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AT21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AU21">
         <v>30</v>
@@ -3087,51 +3112,51 @@
         <v>80</v>
       </c>
       <c r="AW21" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:49">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>10522</v>
+        <v>10532</v>
       </c>
       <c r="L22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M22" t="s">
         <v>86</v>
       </c>
       <c r="N22">
-        <v>5999</v>
+        <v>7999</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q22" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S22" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA22" t="s">
         <v>123</v>
       </c>
-      <c r="S22" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA22" t="s">
+      <c r="AB22" t="s">
         <v>125</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AC22" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD22" t="s">
         <v>127</v>
       </c>
-      <c r="AC22" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>129</v>
-      </c>
       <c r="AE22" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH22" t="s">
         <v>137</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>140</v>
       </c>
       <c r="AN22">
         <v>48</v>
@@ -3143,25 +3168,25 @@
         <v>50</v>
       </c>
       <c r="AQ22" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="AS22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AT22" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AU22">
         <v>30</v>
       </c>
       <c r="AV22">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AW22" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:49">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10532</v>
       </c>
@@ -3175,34 +3200,34 @@
         <v>7999</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S23" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA23" t="s">
         <v>123</v>
       </c>
-      <c r="S23" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA23" t="s">
+      <c r="AB23" t="s">
         <v>125</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AC23" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD23" t="s">
         <v>127</v>
       </c>
-      <c r="AC23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>129</v>
-      </c>
       <c r="AE23" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AG23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AH23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AN23">
         <v>48</v>
@@ -3214,13 +3239,13 @@
         <v>50</v>
       </c>
       <c r="AQ23" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AS23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AT23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AU23">
         <v>30</v>
@@ -3229,51 +3254,51 @@
         <v>120</v>
       </c>
       <c r="AW23" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:49">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>10532</v>
+        <v>10410</v>
       </c>
       <c r="L24" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="M24" t="s">
         <v>88</v>
       </c>
       <c r="N24">
-        <v>7999</v>
+        <v>12000</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q24" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA24" t="s">
         <v>123</v>
       </c>
-      <c r="S24" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA24" t="s">
+      <c r="AB24" t="s">
         <v>125</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AC24" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD24" t="s">
         <v>127</v>
       </c>
-      <c r="AC24" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>129</v>
       </c>
-      <c r="AE24" t="s">
-        <v>138</v>
-      </c>
       <c r="AG24" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AH24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AN24">
         <v>48</v>
@@ -3285,13 +3310,13 @@
         <v>50</v>
       </c>
       <c r="AQ24" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AS24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AT24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AU24">
         <v>30</v>
@@ -3300,51 +3325,51 @@
         <v>120</v>
       </c>
       <c r="AW24" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:49">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>10410</v>
+        <v>10301</v>
       </c>
       <c r="L25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M25" t="s">
         <v>89</v>
       </c>
       <c r="N25">
-        <v>12000</v>
+        <v>2999</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q25" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S25" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA25" t="s">
         <v>123</v>
       </c>
-      <c r="S25" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA25" t="s">
+      <c r="AB25" t="s">
         <v>125</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AC25" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD25" t="s">
         <v>127</v>
       </c>
-      <c r="AC25" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>129</v>
       </c>
-      <c r="AE25" t="s">
-        <v>131</v>
-      </c>
       <c r="AG25" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AH25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AN25">
         <v>48</v>
@@ -3356,13 +3381,13 @@
         <v>50</v>
       </c>
       <c r="AQ25" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="AS25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AT25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AU25">
         <v>30</v>
@@ -3371,51 +3396,51 @@
         <v>120</v>
       </c>
       <c r="AW25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="26" spans="1:49">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>10301</v>
+        <v>10538</v>
       </c>
       <c r="L26" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="M26" t="s">
         <v>90</v>
       </c>
       <c r="N26">
-        <v>2999</v>
+        <v>14999</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S26" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA26" t="s">
         <v>123</v>
       </c>
-      <c r="S26" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA26" t="s">
+      <c r="AB26" t="s">
         <v>125</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AC26" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD26" t="s">
         <v>127</v>
       </c>
-      <c r="AC26" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>129</v>
       </c>
-      <c r="AE26" t="s">
-        <v>131</v>
-      </c>
       <c r="AG26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AH26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AN26">
         <v>48</v>
@@ -3427,13 +3452,13 @@
         <v>50</v>
       </c>
       <c r="AQ26" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AS26" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AT26" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AU26">
         <v>30</v>
@@ -3442,51 +3467,51 @@
         <v>120</v>
       </c>
       <c r="AW26" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:49">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>10538</v>
+        <v>10542</v>
       </c>
       <c r="L27" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="M27" t="s">
         <v>91</v>
       </c>
       <c r="N27">
-        <v>14999</v>
+        <v>5999</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q27" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S27" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA27" t="s">
         <v>123</v>
       </c>
-      <c r="S27" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA27" t="s">
+      <c r="AB27" t="s">
         <v>125</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AC27" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD27" t="s">
         <v>127</v>
       </c>
-      <c r="AC27" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>129</v>
       </c>
-      <c r="AE27" t="s">
-        <v>131</v>
-      </c>
       <c r="AG27" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AH27" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AN27">
         <v>48</v>
@@ -3498,13 +3523,13 @@
         <v>50</v>
       </c>
       <c r="AQ27" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AS27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AT27" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="AU27">
         <v>30</v>
@@ -3513,252 +3538,179 @@
         <v>120</v>
       </c>
       <c r="AW27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:49">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>10542</v>
+        <v>10468</v>
       </c>
       <c r="L28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M28" t="s">
         <v>92</v>
       </c>
       <c r="N28">
-        <v>5999</v>
+        <v>17000</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q28" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S28" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA28" t="s">
         <v>123</v>
       </c>
-      <c r="S28" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA28" t="s">
+      <c r="AB28" t="s">
         <v>125</v>
       </c>
-      <c r="AB28" t="s">
+      <c r="AC28" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD28" t="s">
         <v>127</v>
       </c>
-      <c r="AC28" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD28" t="s">
+      <c r="AE28" t="s">
         <v>129</v>
       </c>
-      <c r="AE28" t="s">
-        <v>131</v>
-      </c>
       <c r="AG28" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ28" t="s">
         <v>139</v>
       </c>
-      <c r="AH28" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN28">
-        <v>48</v>
-      </c>
-      <c r="AO28">
-        <v>45</v>
-      </c>
-      <c r="AP28">
-        <v>50</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>154</v>
-      </c>
       <c r="AS28" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT28" t="s">
         <v>160</v>
       </c>
-      <c r="AT28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AU28">
-        <v>30</v>
-      </c>
-      <c r="AV28">
-        <v>120</v>
-      </c>
       <c r="AW28" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:49">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>10468</v>
+        <v>10506</v>
       </c>
       <c r="L29" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="M29" t="s">
         <v>93</v>
       </c>
       <c r="N29">
-        <v>17000</v>
+        <v>7999</v>
       </c>
       <c r="O29" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q29" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="Q29" s="2" t="s">
+      <c r="S29" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA29" t="s">
         <v>123</v>
       </c>
-      <c r="S29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA29" t="s">
+      <c r="AB29" t="s">
         <v>125</v>
       </c>
-      <c r="AB29" t="s">
+      <c r="AC29" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD29" t="s">
         <v>127</v>
       </c>
-      <c r="AC29" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD29" t="s">
+      <c r="AE29" t="s">
         <v>129</v>
       </c>
-      <c r="AE29" t="s">
-        <v>131</v>
-      </c>
       <c r="AG29" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AH29" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AQ29" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="AS29" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AT29" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AW29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:49">
-      <c r="A30">
-        <v>10506</v>
-      </c>
-      <c r="L30" t="s">
-        <v>50</v>
-      </c>
-      <c r="M30" t="s">
-        <v>94</v>
-      </c>
-      <c r="N30">
-        <v>7999</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="S30" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ30" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS30" t="s">
-        <v>160</v>
-      </c>
-      <c r="AT30" t="s">
-        <v>164</v>
-      </c>
-      <c r="AW30" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1"/>
-    <hyperlink ref="Q2" r:id="rId2"/>
-    <hyperlink ref="O3" r:id="rId3"/>
-    <hyperlink ref="Q3" r:id="rId4"/>
-    <hyperlink ref="O4" r:id="rId5"/>
-    <hyperlink ref="Q4" r:id="rId6"/>
-    <hyperlink ref="O5" r:id="rId7"/>
-    <hyperlink ref="Q5" r:id="rId8"/>
-    <hyperlink ref="O6" r:id="rId9"/>
-    <hyperlink ref="Q6" r:id="rId10"/>
-    <hyperlink ref="O7" r:id="rId11"/>
-    <hyperlink ref="Q7" r:id="rId12"/>
-    <hyperlink ref="O8" r:id="rId13"/>
-    <hyperlink ref="Q8" r:id="rId14"/>
-    <hyperlink ref="O9" r:id="rId15"/>
-    <hyperlink ref="Q9" r:id="rId16"/>
-    <hyperlink ref="O10" r:id="rId17"/>
-    <hyperlink ref="Q10" r:id="rId18"/>
-    <hyperlink ref="O11" r:id="rId19"/>
-    <hyperlink ref="Q11" r:id="rId20"/>
-    <hyperlink ref="O12" r:id="rId21"/>
-    <hyperlink ref="Q12" r:id="rId22"/>
-    <hyperlink ref="O13" r:id="rId23"/>
-    <hyperlink ref="Q13" r:id="rId24"/>
-    <hyperlink ref="O14" r:id="rId25"/>
-    <hyperlink ref="Q14" r:id="rId26"/>
-    <hyperlink ref="O15" r:id="rId27"/>
-    <hyperlink ref="Q15" r:id="rId28"/>
-    <hyperlink ref="O16" r:id="rId29"/>
-    <hyperlink ref="Q16" r:id="rId30"/>
-    <hyperlink ref="O17" r:id="rId31"/>
-    <hyperlink ref="Q17" r:id="rId32"/>
-    <hyperlink ref="O18" r:id="rId33"/>
-    <hyperlink ref="Q18" r:id="rId34"/>
-    <hyperlink ref="O19" r:id="rId35"/>
-    <hyperlink ref="Q19" r:id="rId36"/>
-    <hyperlink ref="O20" r:id="rId37"/>
-    <hyperlink ref="Q20" r:id="rId38"/>
-    <hyperlink ref="O21" r:id="rId39"/>
-    <hyperlink ref="Q21" r:id="rId40"/>
-    <hyperlink ref="O22" r:id="rId41"/>
-    <hyperlink ref="Q22" r:id="rId42"/>
-    <hyperlink ref="O23" r:id="rId43"/>
-    <hyperlink ref="Q23" r:id="rId44"/>
-    <hyperlink ref="O24" r:id="rId45"/>
-    <hyperlink ref="Q24" r:id="rId46"/>
-    <hyperlink ref="O25" r:id="rId47"/>
-    <hyperlink ref="Q25" r:id="rId48"/>
-    <hyperlink ref="O26" r:id="rId49"/>
-    <hyperlink ref="Q26" r:id="rId50"/>
-    <hyperlink ref="O27" r:id="rId51"/>
-    <hyperlink ref="Q27" r:id="rId52"/>
-    <hyperlink ref="O28" r:id="rId53"/>
-    <hyperlink ref="Q28" r:id="rId54"/>
-    <hyperlink ref="O29" r:id="rId55"/>
-    <hyperlink ref="Q29" r:id="rId56"/>
-    <hyperlink ref="O30" r:id="rId57"/>
-    <hyperlink ref="Q30" r:id="rId58"/>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="O3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="Q3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="O4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="Q4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="O5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Q5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="O6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="Q6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="O7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="Q7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="O8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="Q8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="O9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="Q9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="O10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="Q10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="O11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="Q11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="O12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="Q12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="O13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="Q13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="O14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="Q14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="O15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="Q15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="O16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="Q16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="O17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="Q17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="O18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="Q18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="O19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="Q19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="O20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="Q20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="O21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="Q21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="O22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="Q22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="O23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="Q23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="O24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="Q24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="Q25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="O26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="Q26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="O27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="Q27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="O28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="Q28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="O29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="Q29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/comp armchair.xlsx
+++ b/make_xl/data_xl/comp armchair.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6D8713-C03D-4418-8829-79550662FA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -233,7 +227,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -274,7 +267,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -296,7 +288,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -344,7 +335,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -365,7 +355,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -386,7 +375,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -431,7 +419,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -455,7 +442,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -476,7 +462,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -498,7 +483,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -527,7 +511,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -549,7 +532,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -571,7 +553,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -593,7 +574,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -617,7 +597,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -639,7 +618,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -1036,13 +1014,13 @@
     <t>Подлокотники | Подголовник | Механизм качания | Регулировка высоты | Регулировка подлокотников</t>
   </si>
   <si>
+    <t>Подлокотники | Подголовник | Механизм качания | Регулировка наклона спинки | Регулировка высоты | Регулировка подлокотников | Поясничный упор</t>
+  </si>
+  <si>
+    <t>Подлокотники | Механизм качания | Регулировка наклона спинки | Регулировка высоты | Регулировка глубины сиденья | Поясничный упор</t>
+  </si>
+  <si>
     <t>Подлокотники | Механизм качания | Регулировка наклона спинки | Регулировка высоты | Регулировка подлокотников | Поясничный упор</t>
-  </si>
-  <si>
-    <t>Подлокотники | Подголовник | Механизм качания | Регулировка наклона спинки | Регулировка высоты | Регулировка подлокотников | Поясничный упор</t>
-  </si>
-  <si>
-    <t>Подлокотники | Механизм качания | Регулировка наклона спинки | Регулировка высоты | Регулировка глубины сиденья | Поясничный упор</t>
   </si>
   <si>
     <t>Замша</t>
@@ -1081,8 +1059,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1153,26 +1131,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1210,9 +1180,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1244,27 +1214,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1296,27 +1248,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1489,16 +1423,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AW29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1647,7 +1579,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1721,7 +1653,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49">
       <c r="A3">
         <v>10031</v>
       </c>
@@ -1792,7 +1724,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49">
       <c r="A4">
         <v>10301</v>
       </c>
@@ -1866,7 +1798,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49">
       <c r="A5">
         <v>10301</v>
       </c>
@@ -1940,7 +1872,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49">
       <c r="A6">
         <v>10301</v>
       </c>
@@ -2011,7 +1943,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49">
       <c r="A7">
         <v>10302</v>
       </c>
@@ -2085,7 +2017,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49">
       <c r="A8">
         <v>10310</v>
       </c>
@@ -2159,7 +2091,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49">
       <c r="A9">
         <v>10316</v>
       </c>
@@ -2233,7 +2165,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49">
       <c r="A10">
         <v>10316</v>
       </c>
@@ -2304,7 +2236,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49">
       <c r="A11">
         <v>10317</v>
       </c>
@@ -2378,7 +2310,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:49">
       <c r="A12">
         <v>10336</v>
       </c>
@@ -2452,7 +2384,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:49">
       <c r="A13">
         <v>10368</v>
       </c>
@@ -2526,7 +2458,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49">
       <c r="A14">
         <v>10371</v>
       </c>
@@ -2600,7 +2532,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49">
       <c r="A15">
         <v>10420</v>
       </c>
@@ -2674,7 +2606,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:49">
       <c r="A16">
         <v>10424</v>
       </c>
@@ -2748,7 +2680,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:49">
       <c r="A17">
         <v>10443</v>
       </c>
@@ -2822,7 +2754,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:49">
       <c r="A18">
         <v>10460</v>
       </c>
@@ -2896,7 +2828,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:49">
       <c r="A19">
         <v>10494</v>
       </c>
@@ -2970,7 +2902,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:49">
       <c r="A20">
         <v>10501</v>
       </c>
@@ -3044,7 +2976,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:49">
       <c r="A21">
         <v>10522</v>
       </c>
@@ -3115,7 +3047,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:49">
       <c r="A22">
         <v>10532</v>
       </c>
@@ -3186,7 +3118,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:49">
       <c r="A23">
         <v>10532</v>
       </c>
@@ -3257,7 +3189,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:49">
       <c r="A24">
         <v>10410</v>
       </c>
@@ -3310,7 +3242,7 @@
         <v>50</v>
       </c>
       <c r="AQ24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AS24" t="s">
         <v>157</v>
@@ -3328,7 +3260,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:49">
       <c r="A25">
         <v>10301</v>
       </c>
@@ -3399,7 +3331,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:49">
       <c r="A26">
         <v>10538</v>
       </c>
@@ -3470,7 +3402,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:49">
       <c r="A27">
         <v>10542</v>
       </c>
@@ -3523,7 +3455,7 @@
         <v>50</v>
       </c>
       <c r="AQ27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AS27" t="s">
         <v>157</v>
@@ -3541,7 +3473,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:49">
       <c r="A28">
         <v>10468</v>
       </c>
@@ -3597,7 +3529,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:49">
       <c r="A29">
         <v>10506</v>
       </c>
@@ -3641,7 +3573,7 @@
         <v>137</v>
       </c>
       <c r="AQ29" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AS29" t="s">
         <v>157</v>
@@ -3655,62 +3587,62 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="O3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="Q3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="O4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="Q4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="O5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="Q5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="O6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="Q6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="O7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="Q7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="O8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="Q8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="O9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="Q9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="O10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="Q10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="O11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="Q11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="O12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="Q12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="O13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="Q13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="O14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="Q14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="O15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="Q15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="O16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="Q16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="O17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="Q17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="O18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="Q18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="O19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="Q19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="O20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="Q20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="O21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="Q21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="O22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="Q22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="O23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="Q23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="O24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="Q24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="Q25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="O26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="Q26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="O27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="Q27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="O28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="Q28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="O29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="Q29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="Q2" r:id="rId2"/>
+    <hyperlink ref="O3" r:id="rId3"/>
+    <hyperlink ref="Q3" r:id="rId4"/>
+    <hyperlink ref="O4" r:id="rId5"/>
+    <hyperlink ref="Q4" r:id="rId6"/>
+    <hyperlink ref="O5" r:id="rId7"/>
+    <hyperlink ref="Q5" r:id="rId8"/>
+    <hyperlink ref="O6" r:id="rId9"/>
+    <hyperlink ref="Q6" r:id="rId10"/>
+    <hyperlink ref="O7" r:id="rId11"/>
+    <hyperlink ref="Q7" r:id="rId12"/>
+    <hyperlink ref="O8" r:id="rId13"/>
+    <hyperlink ref="Q8" r:id="rId14"/>
+    <hyperlink ref="O9" r:id="rId15"/>
+    <hyperlink ref="Q9" r:id="rId16"/>
+    <hyperlink ref="O10" r:id="rId17"/>
+    <hyperlink ref="Q10" r:id="rId18"/>
+    <hyperlink ref="O11" r:id="rId19"/>
+    <hyperlink ref="Q11" r:id="rId20"/>
+    <hyperlink ref="O12" r:id="rId21"/>
+    <hyperlink ref="Q12" r:id="rId22"/>
+    <hyperlink ref="O13" r:id="rId23"/>
+    <hyperlink ref="Q13" r:id="rId24"/>
+    <hyperlink ref="O14" r:id="rId25"/>
+    <hyperlink ref="Q14" r:id="rId26"/>
+    <hyperlink ref="O15" r:id="rId27"/>
+    <hyperlink ref="Q15" r:id="rId28"/>
+    <hyperlink ref="O16" r:id="rId29"/>
+    <hyperlink ref="Q16" r:id="rId30"/>
+    <hyperlink ref="O17" r:id="rId31"/>
+    <hyperlink ref="Q17" r:id="rId32"/>
+    <hyperlink ref="O18" r:id="rId33"/>
+    <hyperlink ref="Q18" r:id="rId34"/>
+    <hyperlink ref="O19" r:id="rId35"/>
+    <hyperlink ref="Q19" r:id="rId36"/>
+    <hyperlink ref="O20" r:id="rId37"/>
+    <hyperlink ref="Q20" r:id="rId38"/>
+    <hyperlink ref="O21" r:id="rId39"/>
+    <hyperlink ref="Q21" r:id="rId40"/>
+    <hyperlink ref="O22" r:id="rId41"/>
+    <hyperlink ref="Q22" r:id="rId42"/>
+    <hyperlink ref="O23" r:id="rId43"/>
+    <hyperlink ref="Q23" r:id="rId44"/>
+    <hyperlink ref="O24" r:id="rId45"/>
+    <hyperlink ref="Q24" r:id="rId46"/>
+    <hyperlink ref="O25" r:id="rId47"/>
+    <hyperlink ref="Q25" r:id="rId48"/>
+    <hyperlink ref="O26" r:id="rId49"/>
+    <hyperlink ref="Q26" r:id="rId50"/>
+    <hyperlink ref="O27" r:id="rId51"/>
+    <hyperlink ref="Q27" r:id="rId52"/>
+    <hyperlink ref="O28" r:id="rId53"/>
+    <hyperlink ref="Q28" r:id="rId54"/>
+    <hyperlink ref="O29" r:id="rId55"/>
+    <hyperlink ref="Q29" r:id="rId56"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/comp armchair.xlsx
+++ b/make_xl/data_xl/comp armchair.xlsx
@@ -247,7 +247,6 @@
             ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
             ➕ При поиске нас в навигаторе наберите – 
             Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
             🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
             -------------------------------------------------------------------
             Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -311,7 +310,6 @@
     ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
     ➕ При поиске нас в навигаторе наберите – 
     Офис комфорт Одинцово 
-    ➕ Наш телеграмм канал – office comfort es
     🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
     -------------------------------------------------------------------
     Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -396,7 +394,6 @@
             ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
             ➕ При поиске нас в навигаторе наберите – 
             Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
             🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
             -------------------------------------------------------------------
             Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -639,7 +636,6 @@
             ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
             ➕ При поиске нас в навигаторе наберите – 
             Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
             🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
             -------------------------------------------------------------------
             Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -665,7 +661,6 @@
             ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
             ➕ При поиске нас в навигаторе наберите – 
             Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
             🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
             -------------------------------------------------------------------
             Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -692,7 +687,6 @@
             ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
             ➕ При поиске нас в навигаторе наберите – 
             Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
             🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
             -------------------------------------------------------------------
             Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.

--- a/make_xl/data_xl/comp armchair.xlsx
+++ b/make_xl/data_xl/comp armchair.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="189">
   <si>
     <t>Id</t>
   </si>
@@ -212,6 +212,12 @@
   </si>
   <si>
     <t xml:space="preserve">Кресло директорское </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Компьютерное кресло Steelcase </t>
+  </si>
+  <si>
+    <t>Кресло руководителя кожа</t>
   </si>
   <si>
     <t>Кресло с высокой спинкой (10371) 
@@ -843,6 +849,217 @@
     </t>
   </si>
   <si>
+    <t xml:space="preserve">Компьютерное кресло Steelcase 
+Артикул 10498
+Компьютерное кресло от ведущего производителя мебели для офиса Steelcase. 
+Офисное кресло с режимом качания и фиксацией в нескольких положениях, рассчитано на большой вес до 120 кг. Также есть регулировка ручек, глубины спинки и регулировка поддержки поясницы 
+Цвет чёрный
+Цена 9 999
+Количество 10
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кресло руководителя кожа
+Артикул 10550
+Кожаное кресло для руководителя Unital от отечественного производителя мягкой мебели. 
+Кресло выполнено из красного дерева и кожи, что гарантирует долгую службу и комфорт.
+Кресло рассчитано на большой вес до 120 кг. Механизм с режимом качания и фиксацией в нескольких положениях.
+Цвет черный
+Цена 14 999
+Количество 6
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Кресло компьютерное
+Артикул 10533
+Крелсо с эргономичной пластиковой спинкой, рассчитано на большой вес до 120 кг.
+Кресло с режимом качания и фиксацией спинки в нескольких положениях.
+Цвет серый
+Цена 9 999
+Количество 2
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кресло офисное
+Артикул 10461
+Мягкое офисное кресло в кожзам обивке, отлично подойдёт для тех кто много сидит. 
+Компьютерное кресло имеет режим качания с фиксацией в нескольких положениях. 
+Это кресло рассчитано на вес до 100 кг
+Размеры ДхШхВ
+Цвет чёрный
+Цена 11 999 руб. 
+Скидка - 20%. 9 999 руб
+Количество 2 шт.
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Компьютерное кресло
+Артикул 10531
+Отличное офисное кресло, удобство ощущается даже при долгом сидении на этом кресле. Оно имеет регулировку наклона спинки, высоты ручек, спинки и высоты сидения, что позволит вам подстроить под ваши индивидуальные потребности. 
+Кресло рассчитано на вес до 90 кг 
+Цвет серый
+Цена 9 999 руб. 
+Скидка - 55% 4 499 руб
+Количество 4
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кресло компьютерное
+Артикул 10547
+Офисное крелсо с эргономичной спинкой с настраиваемой поддержкой поясницы, рассчитано на большой вес до 120 кг.
+Компьютерное кресло с режимом качания и фиксацией спинки в нескольких положениях. Так же есть регулировка ручек по высоте 
+Цвет серый
+Цена 9 999
+Количество 18 шт.
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кресло офисное компьютерное
+Артикул 10530
+Кресло офисное на колёсиках в обивке из кожзама 
+Цвет белый
+Цена 3 499
+Количество 8 шт
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Кресло офисное
+Артикул 10541
+Кресло компьютерное в обивке из кожзама.
+Цвет чёрный
+Цена 4 999
+Количество 5 (уточняйте)
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Офисное кресло
+Артикул 10319
+Бюджетное компьютерное кресло с регулируемым наклоном спинки.
+Цвет коричневый 
+Цена 2 999
+Количество 80 (уточните)
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/ZDiUdOWTq7XF1g | https://disk.yandex.ru/i/a_u5CWPrYhAoIA | https://disk.yandex.ru/i/2U4SaFSBylFuSg | https://disk.yandex.ru/i/5xCnmpLS2Ky7dQ | https://disk.yandex.ru/i/ugTACqRM4oAMBA</t>
   </si>
   <si>
@@ -924,6 +1141,33 @@
     <t>https://disk.yandex.ru/i/ry-vaNuSxOJoWw | https://disk.yandex.ru/i/8HkeV38eVQtzHw | https://disk.yandex.ru/i/mLa4-4QSXVwzXQ | https://disk.yandex.ru/i/MnxtBfNyGMqG8Q | https://disk.yandex.ru/i/FypPeyL-nq92OA | https://disk.yandex.ru/i/CNImNBJCkhNYRA | https://disk.yandex.ru/i/eie-SP84D9FUyg | https://disk.yandex.ru/i/tpKXn4Nq-RSMDg | https://disk.yandex.ru/i/e1gmLrTgrkB0cA</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/gXsRHWqsUNzvEg | https://disk.yandex.ru/i/uawHR9ATWeRFnA | https://disk.yandex.ru/i/Kif0RQZj3WmyMA | https://disk.yandex.ru/i/5XaJplp0q21RkQ | https://disk.yandex.ru/i/9ukX2Tqqhyvm-Q | https://disk.yandex.ru/i/PWDgZMhJmqWuJQ | https://disk.yandex.ru/i/dG5G2uSd-LCZSw | https://disk.yandex.ru/i/xUt_IFR_Fq_aGQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/DNa0bSVCLnfHDg | https://disk.yandex.ru/i/Fhlc7MqwcKXmlQ | https://disk.yandex.ru/i/49EaxhFQyUG2Ow | https://disk.yandex.ru/i/HNBSUrJ0iEGXrA | https://disk.yandex.ru/i/KkAVqi3YLGjyxg | https://disk.yandex.ru/i/Aj8_aeXh8ILr8Q | https://disk.yandex.ru/i/PRFCrs-H15gyhw | https://disk.yandex.ru/i/oJBVanf-GZZjCg | https://disk.yandex.ru/i/olmGQTmI6GgRJA | https://disk.yandex.ru/i/RBXPHIdr-Bld9A</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/-6A0F6tJJvHjlQ | https://disk.yandex.ru/i/MLGaaeolls9mpw | https://disk.yandex.ru/i/GvSapc_o1r_NPA | https://disk.yandex.ru/i/fYVFYS052qPdVw | https://disk.yandex.ru/i/14w7hVjVhjLrOw | https://disk.yandex.ru/i/BObHLcYTwnUOcw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/FCkP5p-C8tfASA | https://disk.yandex.ru/i/iONpjZJy4prIXg | https://disk.yandex.ru/i/G482LEgYcrOK6w | https://disk.yandex.ru/i/f8jtX61qLh6OHw | https://disk.yandex.ru/i/bjdIr1nSbhU2Jw | https://disk.yandex.ru/i/oTPmvgAvYRhWGw | https://disk.yandex.ru/i/w1eg3XPIQcBsHA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/9c6vX2EOs31Arw | https://disk.yandex.ru/i/gIzUAXww7owVmg | https://disk.yandex.ru/i/jPeCapzdaf8SXQ | https://disk.yandex.ru/i/GmcOZR5VDxDTJA | https://disk.yandex.ru/i/DQ3bmvOY0p7a9g | https://disk.yandex.ru/i/pdd-pwoxmojw0g | https://disk.yandex.ru/i/Y018iSzKl58hpQ | https://disk.yandex.ru/i/beaw07CvsIfYbQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/SQJMKlEV-Dyaug | https://disk.yandex.ru/i/eLkwsZcqiZoscg | https://disk.yandex.ru/i/TlP4li_719w7_A | https://disk.yandex.ru/i/nFYo-Tw4_FBDAA | https://disk.yandex.ru/i/LCAwReZx5SDxAQ | https://disk.yandex.ru/i/0oL-jR88an2HIw | https://disk.yandex.ru/i/q1khjGMbf1jkXA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/ateyY3Ok7dBYZw | https://disk.yandex.ru/i/6R1UK_iBJ3WTDw | https://disk.yandex.ru/i/kjaHXLiNtB3ixw | https://disk.yandex.ru/i/jblyUpMVEvXB8g | https://disk.yandex.ru/i/0ZuSgrynC_duEA | https://disk.yandex.ru/i/7Y_NPOwtIgn9Yg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/R4dl1ZN4Cmb3xg | https://disk.yandex.ru/i/vNCwHrs_wi6GoA | https://disk.yandex.ru/i/_t0rUVAjBScrSQ | https://disk.yandex.ru/i/tfrpo5jiRQ9JLA | https://disk.yandex.ru/i/0SSKVD1IjEPMRA | https://disk.yandex.ru/i/FE873G16x9IvIA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/NKP_TXRNUjL6lA | https://disk.yandex.ru/i/2CmiBcBkzWFc5w | https://disk.yandex.ru/i/z9pNQtrNeWeUTw | https://disk.yandex.ru/i/gp_ZjLUi6fUkUQ | https://disk.yandex.ru/i/AQQtUlTOWsxRtw | https://disk.yandex.ru/i/K3YrQOwDy7SPgw | https://disk.yandex.ru/i/f31MV5WAxKb5Ng</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -1017,6 +1261,21 @@
     <t>Подлокотники | Механизм качания | Регулировка наклона спинки | Регулировка высоты | Регулировка подлокотников | Поясничный упор</t>
   </si>
   <si>
+    <t>Подлокотники | Механизм качания | Поясничный упор</t>
+  </si>
+  <si>
+    <t>Подлокотники | Механизм качания | Регулировка наклона спинки | Регулировка высоты | Поясничный упор</t>
+  </si>
+  <si>
+    <t>Подлокотники | Подголовник | Механизм качания | Регулировка высоты</t>
+  </si>
+  <si>
+    <t>Подлокотники | Регулировка наклона спинки | Регулировка высоты | Регулировка подлокотников | Поясничный упор</t>
+  </si>
+  <si>
+    <t>Подлокотники | Регулировка наклона спинки</t>
+  </si>
+  <si>
     <t>Замша</t>
   </si>
   <si>
@@ -1045,6 +1304,9 @@
   </si>
   <si>
     <t>Искусственная кожа | Сетка</t>
+  </si>
+  <si>
+    <t>Кожа | Дерево</t>
   </si>
   <si>
     <t>Нет</t>
@@ -1418,7 +1680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AW29"/>
+  <dimension ref="A1:AW38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1581,40 +1843,40 @@
         <v>49</v>
       </c>
       <c r="M2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N2">
         <v>5499</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="S2" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="AB2" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="AC2" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="AD2" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="AE2" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="AG2" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="AH2" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="AN2">
         <v>50</v>
@@ -1626,16 +1888,16 @@
         <v>50</v>
       </c>
       <c r="AQ2" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="AR2" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="AS2" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="AT2" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="AU2">
         <v>30</v>
@@ -1644,7 +1906,7 @@
         <v>120</v>
       </c>
       <c r="AW2" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:49">
@@ -1655,40 +1917,40 @@
         <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N3">
         <v>7000</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="S3" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA3" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="AB3" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="AC3" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="AD3" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="AE3" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="AG3" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="AH3" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="AN3">
         <v>50</v>
@@ -1700,13 +1962,13 @@
         <v>50</v>
       </c>
       <c r="AQ3" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="AS3" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="AT3" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="AU3">
         <v>31</v>
@@ -1715,7 +1977,7 @@
         <v>70</v>
       </c>
       <c r="AW3" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:49">
@@ -1726,40 +1988,40 @@
         <v>51</v>
       </c>
       <c r="M4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N4">
         <v>2999</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="S4" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA4" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="AB4" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="AC4" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="AD4" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="AE4" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="AG4" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="AH4" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="AN4">
         <v>45</v>
@@ -1771,16 +2033,16 @@
         <v>40</v>
       </c>
       <c r="AQ4" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AR4" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="AS4" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="AT4" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="AU4">
         <v>30</v>
@@ -1789,7 +2051,7 @@
         <v>80</v>
       </c>
       <c r="AW4" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:49">
@@ -1800,40 +2062,40 @@
         <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N5">
         <v>3999</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="S5" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA5" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="AB5" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="AC5" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="AD5" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="AE5" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="AG5" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="AH5" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="AN5">
         <v>48</v>
@@ -1845,16 +2107,16 @@
         <v>50</v>
       </c>
       <c r="AQ5" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="AR5" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="AS5" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="AT5" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="AU5">
         <v>30</v>
@@ -1863,7 +2125,7 @@
         <v>90</v>
       </c>
       <c r="AW5" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:49">
@@ -1874,40 +2136,40 @@
         <v>53</v>
       </c>
       <c r="M6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N6">
         <v>3499</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="S6" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA6" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="AB6" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="AC6" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="AD6" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="AE6" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="AG6" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="AH6" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="AN6">
         <v>50</v>
@@ -1919,13 +2181,13 @@
         <v>50</v>
       </c>
       <c r="AQ6" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="AS6" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="AT6" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="AU6">
         <v>30</v>
@@ -1934,7 +2196,7 @@
         <v>120</v>
       </c>
       <c r="AW6" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:49">
@@ -1945,40 +2207,40 @@
         <v>49</v>
       </c>
       <c r="M7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N7">
         <v>1499</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="S7" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA7" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="AB7" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="AC7" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="AD7" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="AE7" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="AG7" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="AH7" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="AN7">
         <v>45</v>
@@ -1990,16 +2252,16 @@
         <v>50</v>
       </c>
       <c r="AQ7" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AR7" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="AS7" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="AT7" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="AU7">
         <v>30</v>
@@ -2008,7 +2270,7 @@
         <v>75</v>
       </c>
       <c r="AW7" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:49">
@@ -2019,40 +2281,40 @@
         <v>50</v>
       </c>
       <c r="M8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N8">
         <v>3100</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="S8" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA8" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="AB8" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="AC8" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="AD8" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="AE8" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AG8" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="AH8" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="AN8">
         <v>48</v>
@@ -2064,16 +2326,16 @@
         <v>45</v>
       </c>
       <c r="AQ8" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AR8" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="AS8" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="AT8" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="AU8">
         <v>30</v>
@@ -2082,7 +2344,7 @@
         <v>80</v>
       </c>
       <c r="AW8" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:49">
@@ -2093,40 +2355,40 @@
         <v>54</v>
       </c>
       <c r="M9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N9">
         <v>3499</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="S9" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA9" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="AB9" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="AC9" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="AD9" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="AE9" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="AG9" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="AH9" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="AN9">
         <v>48</v>
@@ -2138,16 +2400,16 @@
         <v>50</v>
       </c>
       <c r="AQ9" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="AR9" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="AS9" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="AT9" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="AU9">
         <v>30</v>
@@ -2156,7 +2418,7 @@
         <v>80</v>
       </c>
       <c r="AW9" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:49">
@@ -2167,40 +2429,40 @@
         <v>55</v>
       </c>
       <c r="M10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N10">
         <v>3499</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="S10" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA10" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="AB10" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="AC10" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="AD10" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="AE10" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="AG10" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="AH10" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="AN10">
         <v>50</v>
@@ -2212,13 +2474,13 @@
         <v>50</v>
       </c>
       <c r="AQ10" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="AS10" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="AT10" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="AU10">
         <v>30</v>
@@ -2227,7 +2489,7 @@
         <v>120</v>
       </c>
       <c r="AW10" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:49">
@@ -2238,40 +2500,40 @@
         <v>51</v>
       </c>
       <c r="M11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N11">
         <v>3999</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="S11" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA11" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="AB11" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="AC11" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="AD11" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="AE11" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AG11" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="AH11" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="AN11">
         <v>50</v>
@@ -2283,16 +2545,16 @@
         <v>48</v>
       </c>
       <c r="AQ11" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="AR11" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="AS11" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="AT11" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="AU11">
         <v>30</v>
@@ -2301,7 +2563,7 @@
         <v>100</v>
       </c>
       <c r="AW11" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:49">
@@ -2312,40 +2574,40 @@
         <v>56</v>
       </c>
       <c r="M12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N12">
         <v>2300</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="S12" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA12" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="AB12" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="AC12" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="AD12" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="AE12" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="AG12" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="AH12" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="AN12">
         <v>48</v>
@@ -2357,16 +2619,16 @@
         <v>50</v>
       </c>
       <c r="AQ12" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AR12" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="AS12" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="AT12" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="AU12">
         <v>31</v>
@@ -2375,7 +2637,7 @@
         <v>70</v>
       </c>
       <c r="AW12" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:49">
@@ -2386,40 +2648,40 @@
         <v>57</v>
       </c>
       <c r="M13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N13">
         <v>3999</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="S13" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA13" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="AB13" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="AC13" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="AD13" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="AE13" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="AG13" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="AH13" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="AN13">
         <v>50</v>
@@ -2431,16 +2693,16 @@
         <v>50</v>
       </c>
       <c r="AQ13" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="AR13" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="AS13" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="AT13" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="AU13">
         <v>30</v>
@@ -2449,7 +2711,7 @@
         <v>120</v>
       </c>
       <c r="AW13" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:49">
@@ -2460,40 +2722,40 @@
         <v>58</v>
       </c>
       <c r="M14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N14">
         <v>5999</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="S14" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA14" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="AB14" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="AC14" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="AD14" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="AE14" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="AG14" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="AH14" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="AN14">
         <v>50</v>
@@ -2505,16 +2767,16 @@
         <v>50</v>
       </c>
       <c r="AQ14" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="AR14" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="AS14" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="AT14" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="AU14">
         <v>30</v>
@@ -2523,7 +2785,7 @@
         <v>120</v>
       </c>
       <c r="AW14" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:49">
@@ -2534,40 +2796,40 @@
         <v>56</v>
       </c>
       <c r="M15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N15">
         <v>9999</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="S15" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA15" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="AB15" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="AC15" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="AD15" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="AE15" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="AG15" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="AH15" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="AN15">
         <v>50</v>
@@ -2579,16 +2841,16 @@
         <v>50</v>
       </c>
       <c r="AQ15" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="AR15" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="AS15" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="AT15" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="AU15">
         <v>30</v>
@@ -2597,7 +2859,7 @@
         <v>120</v>
       </c>
       <c r="AW15" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:49">
@@ -2608,40 +2870,40 @@
         <v>50</v>
       </c>
       <c r="M16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N16">
         <v>7999</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="S16" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA16" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="AB16" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="AC16" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="AD16" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="AE16" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="AG16" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="AH16" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="AN16">
         <v>50</v>
@@ -2653,16 +2915,16 @@
         <v>50</v>
       </c>
       <c r="AQ16" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="AR16" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="AS16" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="AT16" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="AU16">
         <v>30</v>
@@ -2671,7 +2933,7 @@
         <v>120</v>
       </c>
       <c r="AW16" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:49">
@@ -2682,40 +2944,40 @@
         <v>58</v>
       </c>
       <c r="M17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N17">
         <v>10500</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="S17" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA17" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="AB17" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="AC17" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="AD17" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="AE17" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="AG17" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="AH17" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="AN17">
         <v>55</v>
@@ -2727,16 +2989,16 @@
         <v>50</v>
       </c>
       <c r="AQ17" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="AR17" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="AS17" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="AT17" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="AU17">
         <v>35</v>
@@ -2745,7 +3007,7 @@
         <v>150</v>
       </c>
       <c r="AW17" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:49">
@@ -2756,40 +3018,40 @@
         <v>59</v>
       </c>
       <c r="M18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N18">
         <v>7999</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="S18" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA18" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="AB18" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="AC18" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="AD18" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="AE18" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="AG18" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="AH18" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="AN18">
         <v>48</v>
@@ -2801,16 +3063,16 @@
         <v>50</v>
       </c>
       <c r="AQ18" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="AR18" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="AS18" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="AT18" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="AU18">
         <v>30</v>
@@ -2819,7 +3081,7 @@
         <v>100</v>
       </c>
       <c r="AW18" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:49">
@@ -2830,40 +3092,40 @@
         <v>58</v>
       </c>
       <c r="M19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N19">
         <v>7999</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="S19" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA19" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="AB19" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="AC19" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="AD19" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="AE19" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="AG19" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="AH19" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="AN19">
         <v>55</v>
@@ -2875,16 +3137,16 @@
         <v>50</v>
       </c>
       <c r="AQ19" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="AR19" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="AS19" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="AT19" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="AU19">
         <v>30</v>
@@ -2893,7 +3155,7 @@
         <v>180</v>
       </c>
       <c r="AW19" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:49">
@@ -2904,40 +3166,40 @@
         <v>60</v>
       </c>
       <c r="M20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N20">
         <v>6999</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="S20" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA20" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="AB20" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="AC20" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="AD20" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="AE20" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="AG20" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="AH20" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="AN20">
         <v>50</v>
@@ -2949,16 +3211,16 @@
         <v>53</v>
       </c>
       <c r="AQ20" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="AR20" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="AS20" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="AT20" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="AU20">
         <v>30</v>
@@ -2967,7 +3229,7 @@
         <v>100</v>
       </c>
       <c r="AW20" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:49">
@@ -2978,40 +3240,40 @@
         <v>61</v>
       </c>
       <c r="M21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N21">
         <v>5999</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="S21" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA21" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="AB21" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="AC21" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="AD21" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="AE21" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="AG21" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="AH21" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="AN21">
         <v>50</v>
@@ -3023,13 +3285,13 @@
         <v>50</v>
       </c>
       <c r="AQ21" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="AS21" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="AT21" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="AU21">
         <v>30</v>
@@ -3038,7 +3300,7 @@
         <v>80</v>
       </c>
       <c r="AW21" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:49">
@@ -3049,40 +3311,40 @@
         <v>51</v>
       </c>
       <c r="M22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N22">
         <v>7999</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="S22" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA22" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="AB22" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="AC22" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="AD22" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="AE22" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="AG22" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="AH22" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="AN22">
         <v>48</v>
@@ -3094,13 +3356,13 @@
         <v>50</v>
       </c>
       <c r="AQ22" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="AS22" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="AT22" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="AU22">
         <v>30</v>
@@ -3109,7 +3371,7 @@
         <v>120</v>
       </c>
       <c r="AW22" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:49">
@@ -3120,40 +3382,40 @@
         <v>51</v>
       </c>
       <c r="M23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N23">
         <v>7999</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="S23" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA23" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="AB23" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="AC23" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="AD23" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="AE23" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="AG23" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="AH23" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="AN23">
         <v>48</v>
@@ -3165,13 +3427,13 @@
         <v>50</v>
       </c>
       <c r="AQ23" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="AS23" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="AT23" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="AU23">
         <v>30</v>
@@ -3180,7 +3442,7 @@
         <v>120</v>
       </c>
       <c r="AW23" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:49">
@@ -3191,40 +3453,40 @@
         <v>62</v>
       </c>
       <c r="M24" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N24">
         <v>12000</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="S24" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA24" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="AB24" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="AC24" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="AD24" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="AE24" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="AG24" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="AH24" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="AN24">
         <v>48</v>
@@ -3236,13 +3498,13 @@
         <v>50</v>
       </c>
       <c r="AQ24" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="AS24" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="AT24" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="AU24">
         <v>30</v>
@@ -3251,7 +3513,7 @@
         <v>120</v>
       </c>
       <c r="AW24" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:49">
@@ -3262,40 +3524,40 @@
         <v>63</v>
       </c>
       <c r="M25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N25">
         <v>2999</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="S25" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA25" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="AB25" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="AC25" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="AD25" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="AE25" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="AG25" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="AH25" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="AN25">
         <v>48</v>
@@ -3307,13 +3569,13 @@
         <v>50</v>
       </c>
       <c r="AQ25" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="AS25" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="AT25" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="AU25">
         <v>30</v>
@@ -3322,7 +3584,7 @@
         <v>120</v>
       </c>
       <c r="AW25" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:49">
@@ -3333,40 +3595,40 @@
         <v>57</v>
       </c>
       <c r="M26" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N26">
         <v>14999</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="S26" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA26" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="AB26" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="AC26" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="AD26" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="AE26" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="AG26" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="AH26" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="AN26">
         <v>48</v>
@@ -3378,13 +3640,13 @@
         <v>50</v>
       </c>
       <c r="AQ26" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="AS26" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="AT26" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="AU26">
         <v>30</v>
@@ -3393,7 +3655,7 @@
         <v>120</v>
       </c>
       <c r="AW26" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:49">
@@ -3404,40 +3666,40 @@
         <v>64</v>
       </c>
       <c r="M27" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N27">
         <v>5999</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="S27" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA27" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="AB27" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="AC27" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="AD27" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="AE27" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="AG27" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="AH27" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="AN27">
         <v>48</v>
@@ -3449,13 +3711,13 @@
         <v>50</v>
       </c>
       <c r="AQ27" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AS27" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="AT27" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="AU27">
         <v>30</v>
@@ -3464,7 +3726,7 @@
         <v>120</v>
       </c>
       <c r="AW27" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:49">
@@ -3475,52 +3737,52 @@
         <v>65</v>
       </c>
       <c r="M28" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N28">
         <v>17000</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="S28" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA28" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="AB28" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="AC28" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="AD28" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="AE28" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="AG28" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="AH28" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="AQ28" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="AS28" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="AT28" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AW28" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:49">
@@ -3531,52 +3793,556 @@
         <v>50</v>
       </c>
       <c r="M29" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N29">
         <v>7999</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="S29" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA29" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="AB29" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="AC29" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="AD29" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="AE29" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="AG29" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>186</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:49">
+      <c r="A30">
+        <v>10498</v>
+      </c>
+      <c r="L30" t="s">
+        <v>66</v>
+      </c>
+      <c r="M30" t="s">
+        <v>96</v>
+      </c>
+      <c r="N30">
+        <v>9999</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="S30" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>178</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:49">
+      <c r="A31">
+        <v>10550</v>
+      </c>
+      <c r="L31" t="s">
+        <v>67</v>
+      </c>
+      <c r="M31" t="s">
+        <v>97</v>
+      </c>
+      <c r="N31">
+        <v>14999</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="S31" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>187</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:49">
+      <c r="A32">
+        <v>10533</v>
+      </c>
+      <c r="L32" t="s">
+        <v>50</v>
+      </c>
+      <c r="M32" t="s">
+        <v>98</v>
+      </c>
+      <c r="N32">
+        <v>9999</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="S32" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>178</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:49">
+      <c r="A33">
+        <v>10461</v>
+      </c>
+      <c r="L33" t="s">
+        <v>56</v>
+      </c>
+      <c r="M33" t="s">
+        <v>99</v>
+      </c>
+      <c r="N33">
+        <v>11999</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="S33" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>174</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>183</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:49">
+      <c r="A34">
+        <v>10531</v>
+      </c>
+      <c r="L34" t="s">
+        <v>49</v>
+      </c>
+      <c r="M34" t="s">
+        <v>100</v>
+      </c>
+      <c r="N34">
+        <v>9999</v>
+      </c>
+      <c r="O34" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="AH29" t="s">
+      <c r="Q34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="S34" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>178</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:49">
+      <c r="A35">
+        <v>10547</v>
+      </c>
+      <c r="L35" t="s">
+        <v>50</v>
+      </c>
+      <c r="M35" t="s">
+        <v>101</v>
+      </c>
+      <c r="N35">
+        <v>9999</v>
+      </c>
+      <c r="O35" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="AQ29" t="s">
-        <v>151</v>
-      </c>
-      <c r="AS29" t="s">
+      <c r="Q35" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="S35" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH35" t="s">
         <v>157</v>
       </c>
-      <c r="AT29" t="s">
-        <v>161</v>
-      </c>
-      <c r="AW29" t="s">
-        <v>162</v>
+      <c r="AQ35" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>186</v>
+      </c>
+      <c r="AW35" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:49">
+      <c r="A36">
+        <v>10530</v>
+      </c>
+      <c r="L36" t="s">
+        <v>51</v>
+      </c>
+      <c r="M36" t="s">
+        <v>102</v>
+      </c>
+      <c r="N36">
+        <v>3499</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="S36" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>183</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:49">
+      <c r="A37">
+        <v>10541</v>
+      </c>
+      <c r="L37" t="s">
+        <v>56</v>
+      </c>
+      <c r="M37" t="s">
+        <v>103</v>
+      </c>
+      <c r="N37">
+        <v>4999</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="S37" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>183</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:49">
+      <c r="A38">
+        <v>10319</v>
+      </c>
+      <c r="L38" t="s">
+        <v>54</v>
+      </c>
+      <c r="M38" t="s">
+        <v>104</v>
+      </c>
+      <c r="N38">
+        <v>2999</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="S38" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>176</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>179</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3637,6 +4403,24 @@
     <hyperlink ref="Q28" r:id="rId54"/>
     <hyperlink ref="O29" r:id="rId55"/>
     <hyperlink ref="Q29" r:id="rId56"/>
+    <hyperlink ref="O30" r:id="rId57"/>
+    <hyperlink ref="Q30" r:id="rId58"/>
+    <hyperlink ref="O31" r:id="rId59"/>
+    <hyperlink ref="Q31" r:id="rId60"/>
+    <hyperlink ref="O32" r:id="rId61"/>
+    <hyperlink ref="Q32" r:id="rId62"/>
+    <hyperlink ref="O33" r:id="rId63"/>
+    <hyperlink ref="Q33" r:id="rId64"/>
+    <hyperlink ref="O34" r:id="rId65"/>
+    <hyperlink ref="Q34" r:id="rId66"/>
+    <hyperlink ref="O35" r:id="rId67"/>
+    <hyperlink ref="Q35" r:id="rId68"/>
+    <hyperlink ref="O36" r:id="rId69"/>
+    <hyperlink ref="Q36" r:id="rId70"/>
+    <hyperlink ref="O37" r:id="rId71"/>
+    <hyperlink ref="Q37" r:id="rId72"/>
+    <hyperlink ref="O38" r:id="rId73"/>
+    <hyperlink ref="Q38" r:id="rId74"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/comp armchair.xlsx
+++ b/make_xl/data_xl/comp armchair.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD99CC4-F74B-4464-819A-C86B4FDE57C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1315,8 +1321,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1387,18 +1393,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1436,9 +1450,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1470,9 +1484,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1504,9 +1536,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1679,14 +1729,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="Z16" workbookViewId="0">
+      <selection activeCell="AU27" sqref="AU27:AV38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:49">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1835,7 +1887,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:49">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1909,7 +1961,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:49">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10031</v>
       </c>
@@ -1980,7 +2032,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:49">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10301</v>
       </c>
@@ -2054,7 +2106,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:49">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10301</v>
       </c>
@@ -2128,7 +2180,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:49">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10301</v>
       </c>
@@ -2199,7 +2251,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:49">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10302</v>
       </c>
@@ -2273,7 +2325,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:49">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10310</v>
       </c>
@@ -2347,7 +2399,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:49">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10316</v>
       </c>
@@ -2421,7 +2473,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:49">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10316</v>
       </c>
@@ -2492,7 +2544,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:49">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10317</v>
       </c>
@@ -2566,7 +2618,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:49">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10336</v>
       </c>
@@ -2640,7 +2692,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="13" spans="1:49">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10368</v>
       </c>
@@ -2714,7 +2766,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:49">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10371</v>
       </c>
@@ -2788,7 +2840,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:49">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10420</v>
       </c>
@@ -2862,7 +2914,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:49">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10424</v>
       </c>
@@ -2936,7 +2988,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:49">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10443</v>
       </c>
@@ -3010,7 +3062,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:49">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10460</v>
       </c>
@@ -3084,7 +3136,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:49">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10494</v>
       </c>
@@ -3158,7 +3210,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:49">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10501</v>
       </c>
@@ -3232,7 +3284,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="21" spans="1:49">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10522</v>
       </c>
@@ -3303,7 +3355,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="1:49">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10532</v>
       </c>
@@ -3374,7 +3426,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="23" spans="1:49">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10532</v>
       </c>
@@ -3445,7 +3497,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="1:49">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10410</v>
       </c>
@@ -3516,7 +3568,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:49">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10301</v>
       </c>
@@ -3587,7 +3639,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="1:49">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10538</v>
       </c>
@@ -3658,7 +3710,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="27" spans="1:49">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10542</v>
       </c>
@@ -3729,7 +3781,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="1:49">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10468</v>
       </c>
@@ -3772,6 +3824,15 @@
       <c r="AH28" t="s">
         <v>157</v>
       </c>
+      <c r="AN28">
+        <v>48</v>
+      </c>
+      <c r="AO28">
+        <v>45</v>
+      </c>
+      <c r="AP28">
+        <v>50</v>
+      </c>
       <c r="AQ28" t="s">
         <v>159</v>
       </c>
@@ -3781,11 +3842,17 @@
       <c r="AT28" t="s">
         <v>185</v>
       </c>
+      <c r="AU28">
+        <v>30</v>
+      </c>
+      <c r="AV28">
+        <v>120</v>
+      </c>
       <c r="AW28" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="29" spans="1:49">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10506</v>
       </c>
@@ -3828,6 +3895,15 @@
       <c r="AH29" t="s">
         <v>157</v>
       </c>
+      <c r="AN29">
+        <v>48</v>
+      </c>
+      <c r="AO29">
+        <v>45</v>
+      </c>
+      <c r="AP29">
+        <v>50</v>
+      </c>
       <c r="AQ29" t="s">
         <v>171</v>
       </c>
@@ -3837,11 +3913,17 @@
       <c r="AT29" t="s">
         <v>186</v>
       </c>
+      <c r="AU29">
+        <v>30</v>
+      </c>
+      <c r="AV29">
+        <v>120</v>
+      </c>
       <c r="AW29" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:49">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10498</v>
       </c>
@@ -3884,6 +3966,15 @@
       <c r="AH30" t="s">
         <v>157</v>
       </c>
+      <c r="AN30">
+        <v>48</v>
+      </c>
+      <c r="AO30">
+        <v>45</v>
+      </c>
+      <c r="AP30">
+        <v>50</v>
+      </c>
       <c r="AQ30" t="s">
         <v>164</v>
       </c>
@@ -3893,11 +3984,17 @@
       <c r="AT30" t="s">
         <v>178</v>
       </c>
+      <c r="AU30">
+        <v>30</v>
+      </c>
+      <c r="AV30">
+        <v>120</v>
+      </c>
       <c r="AW30" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:49">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10550</v>
       </c>
@@ -3940,6 +4037,15 @@
       <c r="AH31" t="s">
         <v>157</v>
       </c>
+      <c r="AN31">
+        <v>48</v>
+      </c>
+      <c r="AO31">
+        <v>45</v>
+      </c>
+      <c r="AP31">
+        <v>50</v>
+      </c>
       <c r="AQ31" t="s">
         <v>172</v>
       </c>
@@ -3949,11 +4055,17 @@
       <c r="AT31" t="s">
         <v>187</v>
       </c>
+      <c r="AU31">
+        <v>30</v>
+      </c>
+      <c r="AV31">
+        <v>120</v>
+      </c>
       <c r="AW31" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:49">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10533</v>
       </c>
@@ -3996,6 +4108,15 @@
       <c r="AH32" t="s">
         <v>157</v>
       </c>
+      <c r="AN32">
+        <v>48</v>
+      </c>
+      <c r="AO32">
+        <v>45</v>
+      </c>
+      <c r="AP32">
+        <v>50</v>
+      </c>
       <c r="AQ32" t="s">
         <v>173</v>
       </c>
@@ -4005,11 +4126,17 @@
       <c r="AT32" t="s">
         <v>178</v>
       </c>
+      <c r="AU32">
+        <v>30</v>
+      </c>
+      <c r="AV32">
+        <v>120</v>
+      </c>
       <c r="AW32" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="33" spans="1:49">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10461</v>
       </c>
@@ -4052,6 +4179,15 @@
       <c r="AH33" t="s">
         <v>157</v>
       </c>
+      <c r="AN33">
+        <v>48</v>
+      </c>
+      <c r="AO33">
+        <v>45</v>
+      </c>
+      <c r="AP33">
+        <v>50</v>
+      </c>
       <c r="AQ33" t="s">
         <v>174</v>
       </c>
@@ -4061,11 +4197,17 @@
       <c r="AT33" t="s">
         <v>183</v>
       </c>
+      <c r="AU33">
+        <v>30</v>
+      </c>
+      <c r="AV33">
+        <v>120</v>
+      </c>
       <c r="AW33" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="34" spans="1:49">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>10531</v>
       </c>
@@ -4108,6 +4250,15 @@
       <c r="AH34" t="s">
         <v>157</v>
       </c>
+      <c r="AN34">
+        <v>48</v>
+      </c>
+      <c r="AO34">
+        <v>45</v>
+      </c>
+      <c r="AP34">
+        <v>50</v>
+      </c>
       <c r="AQ34" t="s">
         <v>175</v>
       </c>
@@ -4117,11 +4268,17 @@
       <c r="AT34" t="s">
         <v>178</v>
       </c>
+      <c r="AU34">
+        <v>30</v>
+      </c>
+      <c r="AV34">
+        <v>120</v>
+      </c>
       <c r="AW34" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:49">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10547</v>
       </c>
@@ -4164,6 +4321,15 @@
       <c r="AH35" t="s">
         <v>157</v>
       </c>
+      <c r="AN35">
+        <v>48</v>
+      </c>
+      <c r="AO35">
+        <v>45</v>
+      </c>
+      <c r="AP35">
+        <v>50</v>
+      </c>
       <c r="AQ35" t="s">
         <v>171</v>
       </c>
@@ -4173,11 +4339,17 @@
       <c r="AT35" t="s">
         <v>186</v>
       </c>
+      <c r="AU35">
+        <v>30</v>
+      </c>
+      <c r="AV35">
+        <v>120</v>
+      </c>
       <c r="AW35" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:49">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10530</v>
       </c>
@@ -4220,6 +4392,15 @@
       <c r="AH36" t="s">
         <v>157</v>
       </c>
+      <c r="AN36">
+        <v>48</v>
+      </c>
+      <c r="AO36">
+        <v>45</v>
+      </c>
+      <c r="AP36">
+        <v>50</v>
+      </c>
       <c r="AQ36" t="s">
         <v>160</v>
       </c>
@@ -4229,11 +4410,17 @@
       <c r="AT36" t="s">
         <v>183</v>
       </c>
+      <c r="AU36">
+        <v>30</v>
+      </c>
+      <c r="AV36">
+        <v>120</v>
+      </c>
       <c r="AW36" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:49">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10541</v>
       </c>
@@ -4276,6 +4463,15 @@
       <c r="AH37" t="s">
         <v>157</v>
       </c>
+      <c r="AN37">
+        <v>48</v>
+      </c>
+      <c r="AO37">
+        <v>45</v>
+      </c>
+      <c r="AP37">
+        <v>50</v>
+      </c>
       <c r="AQ37" t="s">
         <v>160</v>
       </c>
@@ -4285,11 +4481,17 @@
       <c r="AT37" t="s">
         <v>183</v>
       </c>
+      <c r="AU37">
+        <v>30</v>
+      </c>
+      <c r="AV37">
+        <v>120</v>
+      </c>
       <c r="AW37" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:49">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10319</v>
       </c>
@@ -4332,6 +4534,15 @@
       <c r="AH38" t="s">
         <v>157</v>
       </c>
+      <c r="AN38">
+        <v>48</v>
+      </c>
+      <c r="AO38">
+        <v>45</v>
+      </c>
+      <c r="AP38">
+        <v>50</v>
+      </c>
       <c r="AQ38" t="s">
         <v>176</v>
       </c>
@@ -4340,6 +4551,12 @@
       </c>
       <c r="AT38" t="s">
         <v>179</v>
+      </c>
+      <c r="AU38">
+        <v>30</v>
+      </c>
+      <c r="AV38">
+        <v>120</v>
       </c>
       <c r="AW38" t="s">
         <v>188</v>
@@ -4347,80 +4564,80 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1"/>
-    <hyperlink ref="Q2" r:id="rId2"/>
-    <hyperlink ref="O3" r:id="rId3"/>
-    <hyperlink ref="Q3" r:id="rId4"/>
-    <hyperlink ref="O4" r:id="rId5"/>
-    <hyperlink ref="Q4" r:id="rId6"/>
-    <hyperlink ref="O5" r:id="rId7"/>
-    <hyperlink ref="Q5" r:id="rId8"/>
-    <hyperlink ref="O6" r:id="rId9"/>
-    <hyperlink ref="Q6" r:id="rId10"/>
-    <hyperlink ref="O7" r:id="rId11"/>
-    <hyperlink ref="Q7" r:id="rId12"/>
-    <hyperlink ref="O8" r:id="rId13"/>
-    <hyperlink ref="Q8" r:id="rId14"/>
-    <hyperlink ref="O9" r:id="rId15"/>
-    <hyperlink ref="Q9" r:id="rId16"/>
-    <hyperlink ref="O10" r:id="rId17"/>
-    <hyperlink ref="Q10" r:id="rId18"/>
-    <hyperlink ref="O11" r:id="rId19"/>
-    <hyperlink ref="Q11" r:id="rId20"/>
-    <hyperlink ref="O12" r:id="rId21"/>
-    <hyperlink ref="Q12" r:id="rId22"/>
-    <hyperlink ref="O13" r:id="rId23"/>
-    <hyperlink ref="Q13" r:id="rId24"/>
-    <hyperlink ref="O14" r:id="rId25"/>
-    <hyperlink ref="Q14" r:id="rId26"/>
-    <hyperlink ref="O15" r:id="rId27"/>
-    <hyperlink ref="Q15" r:id="rId28"/>
-    <hyperlink ref="O16" r:id="rId29"/>
-    <hyperlink ref="Q16" r:id="rId30"/>
-    <hyperlink ref="O17" r:id="rId31"/>
-    <hyperlink ref="Q17" r:id="rId32"/>
-    <hyperlink ref="O18" r:id="rId33"/>
-    <hyperlink ref="Q18" r:id="rId34"/>
-    <hyperlink ref="O19" r:id="rId35"/>
-    <hyperlink ref="Q19" r:id="rId36"/>
-    <hyperlink ref="O20" r:id="rId37"/>
-    <hyperlink ref="Q20" r:id="rId38"/>
-    <hyperlink ref="O21" r:id="rId39"/>
-    <hyperlink ref="Q21" r:id="rId40"/>
-    <hyperlink ref="O22" r:id="rId41"/>
-    <hyperlink ref="Q22" r:id="rId42"/>
-    <hyperlink ref="O23" r:id="rId43"/>
-    <hyperlink ref="Q23" r:id="rId44"/>
-    <hyperlink ref="O24" r:id="rId45"/>
-    <hyperlink ref="Q24" r:id="rId46"/>
-    <hyperlink ref="O25" r:id="rId47"/>
-    <hyperlink ref="Q25" r:id="rId48"/>
-    <hyperlink ref="O26" r:id="rId49"/>
-    <hyperlink ref="Q26" r:id="rId50"/>
-    <hyperlink ref="O27" r:id="rId51"/>
-    <hyperlink ref="Q27" r:id="rId52"/>
-    <hyperlink ref="O28" r:id="rId53"/>
-    <hyperlink ref="Q28" r:id="rId54"/>
-    <hyperlink ref="O29" r:id="rId55"/>
-    <hyperlink ref="Q29" r:id="rId56"/>
-    <hyperlink ref="O30" r:id="rId57"/>
-    <hyperlink ref="Q30" r:id="rId58"/>
-    <hyperlink ref="O31" r:id="rId59"/>
-    <hyperlink ref="Q31" r:id="rId60"/>
-    <hyperlink ref="O32" r:id="rId61"/>
-    <hyperlink ref="Q32" r:id="rId62"/>
-    <hyperlink ref="O33" r:id="rId63"/>
-    <hyperlink ref="Q33" r:id="rId64"/>
-    <hyperlink ref="O34" r:id="rId65"/>
-    <hyperlink ref="Q34" r:id="rId66"/>
-    <hyperlink ref="O35" r:id="rId67"/>
-    <hyperlink ref="Q35" r:id="rId68"/>
-    <hyperlink ref="O36" r:id="rId69"/>
-    <hyperlink ref="Q36" r:id="rId70"/>
-    <hyperlink ref="O37" r:id="rId71"/>
-    <hyperlink ref="Q37" r:id="rId72"/>
-    <hyperlink ref="O38" r:id="rId73"/>
-    <hyperlink ref="Q38" r:id="rId74"/>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="O3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="Q3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="O4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="Q4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="O5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Q5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="O6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="Q6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="O7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="Q7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="O8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="Q8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="O9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="Q9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="O10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="Q10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="O11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="Q11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="O12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="Q12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="O13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="Q13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="O14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="Q14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="O15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="Q15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="O16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="Q16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="O17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="Q17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="O18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="Q18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="O19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="Q19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="O20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="Q20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="O21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="Q21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="O22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="Q22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="O23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="Q23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="O24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="Q24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="Q25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="O26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="Q26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="O27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="Q27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="O28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="Q28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="O29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="Q29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="O30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="Q30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="O31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="Q31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="O32" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="Q32" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="O33" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="Q33" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="O34" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="Q34" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="O35" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="Q35" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="O36" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="Q36" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="O37" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="Q37" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="O38" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="Q38" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/comp armchair.xlsx
+++ b/make_xl/data_xl/comp armchair.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD99CC4-F74B-4464-819A-C86B4FDE57C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E094A216-01D7-46DA-98CA-293D09567207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="187">
   <si>
     <t>Id</t>
   </si>
@@ -831,30 +831,6 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">Кресло компьютерное
-Артикул 10506
-Описание
-Цвет чёрный
-Цена 7 999
-Количество 8
-    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
-    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Компьютерное кресло Steelcase 
 Артикул 10498
 Компьютерное кресло от ведущего производителя мебели для офиса Steelcase. 
@@ -1142,9 +1118,6 @@
   </si>
   <si>
     <t>https://disk.yandex.ru/i/r2clRELR6CFtPA | https://disk.yandex.ru/i/vbU-4xF3OE36Ug | https://disk.yandex.ru/i/iM8irOB2ZE7pWg | https://disk.yandex.ru/i/JaSfczsAujUuhQ | https://disk.yandex.ru/i/4mblgT9X8d5wXA | https://disk.yandex.ru/i/YOX1DKHY16uUUQ | https://disk.yandex.ru/i/4_CuQGBUBhgfew | https://disk.yandex.ru/i/51IVIGyF7K5i5A</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/ry-vaNuSxOJoWw | https://disk.yandex.ru/i/8HkeV38eVQtzHw | https://disk.yandex.ru/i/mLa4-4QSXVwzXQ | https://disk.yandex.ru/i/MnxtBfNyGMqG8Q | https://disk.yandex.ru/i/FypPeyL-nq92OA | https://disk.yandex.ru/i/CNImNBJCkhNYRA | https://disk.yandex.ru/i/eie-SP84D9FUyg | https://disk.yandex.ru/i/tpKXn4Nq-RSMDg | https://disk.yandex.ru/i/e1gmLrTgrkB0cA</t>
   </si>
   <si>
     <t>https://disk.yandex.ru/i/gXsRHWqsUNzvEg | https://disk.yandex.ru/i/uawHR9ATWeRFnA | https://disk.yandex.ru/i/Kif0RQZj3WmyMA | https://disk.yandex.ru/i/5XaJplp0q21RkQ | https://disk.yandex.ru/i/9ukX2Tqqhyvm-Q | https://disk.yandex.ru/i/PWDgZMhJmqWuJQ | https://disk.yandex.ru/i/dG5G2uSd-LCZSw | https://disk.yandex.ru/i/xUt_IFR_Fq_aGQ</t>
@@ -1730,10 +1703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW38"/>
+  <dimension ref="A1:AW37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z16" workbookViewId="0">
-      <selection activeCell="AU27" sqref="AU27:AV38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1901,34 +1874,34 @@
         <v>5499</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA2" t="s">
         <v>141</v>
       </c>
-      <c r="S2" t="s">
+      <c r="AB2" t="s">
         <v>142</v>
       </c>
-      <c r="AA2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>144</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE2" t="s">
         <v>146</v>
       </c>
-      <c r="AD2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>148</v>
-      </c>
       <c r="AG2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AH2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AN2">
         <v>50</v>
@@ -1940,16 +1913,16 @@
         <v>50</v>
       </c>
       <c r="AQ2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AR2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AS2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AT2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AU2">
         <v>30</v>
@@ -1958,7 +1931,7 @@
         <v>120</v>
       </c>
       <c r="AW2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.25">
@@ -1975,34 +1948,34 @@
         <v>7000</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA3" t="s">
         <v>141</v>
       </c>
-      <c r="S3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>143</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD3" t="s">
         <v>145</v>
       </c>
-      <c r="AC3" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>147</v>
       </c>
-      <c r="AE3" t="s">
-        <v>149</v>
-      </c>
       <c r="AG3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AH3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AN3">
         <v>50</v>
@@ -2014,13 +1987,13 @@
         <v>50</v>
       </c>
       <c r="AQ3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AS3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AT3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AU3">
         <v>31</v>
@@ -2029,7 +2002,7 @@
         <v>70</v>
       </c>
       <c r="AW3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
@@ -2046,34 +2019,34 @@
         <v>2999</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q4" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA4" t="s">
         <v>141</v>
       </c>
-      <c r="S4" t="s">
+      <c r="AB4" t="s">
         <v>142</v>
       </c>
-      <c r="AA4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>144</v>
       </c>
-      <c r="AC4" t="s">
-        <v>146</v>
-      </c>
       <c r="AD4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE4" t="s">
         <v>147</v>
       </c>
-      <c r="AE4" t="s">
-        <v>149</v>
-      </c>
       <c r="AG4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AH4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AN4">
         <v>45</v>
@@ -2085,16 +2058,16 @@
         <v>40</v>
       </c>
       <c r="AQ4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AR4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AS4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AT4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AU4">
         <v>30</v>
@@ -2103,7 +2076,7 @@
         <v>80</v>
       </c>
       <c r="AW4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
@@ -2120,34 +2093,34 @@
         <v>3999</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA5" t="s">
         <v>141</v>
       </c>
-      <c r="S5" t="s">
+      <c r="AB5" t="s">
         <v>142</v>
       </c>
-      <c r="AA5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>144</v>
       </c>
-      <c r="AC5" t="s">
-        <v>146</v>
-      </c>
       <c r="AD5" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE5" t="s">
         <v>147</v>
       </c>
-      <c r="AE5" t="s">
-        <v>149</v>
-      </c>
       <c r="AG5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AH5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AN5">
         <v>48</v>
@@ -2159,16 +2132,16 @@
         <v>50</v>
       </c>
       <c r="AQ5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AR5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AS5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AT5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AU5">
         <v>30</v>
@@ -2177,7 +2150,7 @@
         <v>90</v>
       </c>
       <c r="AW5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
@@ -2194,34 +2167,34 @@
         <v>3499</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA6" t="s">
         <v>141</v>
       </c>
-      <c r="S6" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>143</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD6" t="s">
         <v>145</v>
       </c>
-      <c r="AC6" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>147</v>
       </c>
-      <c r="AE6" t="s">
-        <v>149</v>
-      </c>
       <c r="AG6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AH6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AN6">
         <v>50</v>
@@ -2233,13 +2206,13 @@
         <v>50</v>
       </c>
       <c r="AQ6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AS6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AT6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AU6">
         <v>30</v>
@@ -2248,7 +2221,7 @@
         <v>120</v>
       </c>
       <c r="AW6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
@@ -2265,34 +2238,34 @@
         <v>1499</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA7" t="s">
         <v>141</v>
       </c>
-      <c r="S7" t="s">
+      <c r="AB7" t="s">
         <v>142</v>
       </c>
-      <c r="AA7" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>144</v>
       </c>
-      <c r="AC7" t="s">
-        <v>146</v>
-      </c>
       <c r="AD7" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE7" t="s">
         <v>147</v>
       </c>
-      <c r="AE7" t="s">
-        <v>149</v>
-      </c>
       <c r="AG7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AH7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AN7">
         <v>45</v>
@@ -2304,16 +2277,16 @@
         <v>50</v>
       </c>
       <c r="AQ7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AR7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AS7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AT7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AU7">
         <v>30</v>
@@ -2322,7 +2295,7 @@
         <v>75</v>
       </c>
       <c r="AW7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
@@ -2339,34 +2312,34 @@
         <v>3100</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q8" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA8" t="s">
         <v>141</v>
       </c>
-      <c r="S8" t="s">
+      <c r="AB8" t="s">
         <v>142</v>
       </c>
-      <c r="AA8" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>144</v>
       </c>
-      <c r="AC8" t="s">
-        <v>146</v>
-      </c>
       <c r="AD8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AE8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AG8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AH8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AN8">
         <v>48</v>
@@ -2378,16 +2351,16 @@
         <v>45</v>
       </c>
       <c r="AQ8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AR8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AS8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AT8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AU8">
         <v>30</v>
@@ -2396,7 +2369,7 @@
         <v>80</v>
       </c>
       <c r="AW8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
@@ -2413,34 +2386,34 @@
         <v>3499</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S9" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA9" t="s">
         <v>141</v>
       </c>
-      <c r="S9" t="s">
+      <c r="AB9" t="s">
         <v>142</v>
       </c>
-      <c r="AA9" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>144</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE9" t="s">
         <v>146</v>
       </c>
-      <c r="AD9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>148</v>
-      </c>
       <c r="AG9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AH9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AN9">
         <v>48</v>
@@ -2452,16 +2425,16 @@
         <v>50</v>
       </c>
       <c r="AQ9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AR9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AS9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AT9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AU9">
         <v>30</v>
@@ -2470,7 +2443,7 @@
         <v>80</v>
       </c>
       <c r="AW9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
@@ -2487,34 +2460,34 @@
         <v>3499</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA10" t="s">
         <v>141</v>
       </c>
-      <c r="S10" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>143</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD10" t="s">
         <v>145</v>
       </c>
-      <c r="AC10" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>147</v>
       </c>
-      <c r="AE10" t="s">
-        <v>149</v>
-      </c>
       <c r="AG10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AH10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AN10">
         <v>50</v>
@@ -2526,13 +2499,13 @@
         <v>50</v>
       </c>
       <c r="AQ10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AS10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AT10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AU10">
         <v>30</v>
@@ -2541,7 +2514,7 @@
         <v>120</v>
       </c>
       <c r="AW10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
@@ -2558,34 +2531,34 @@
         <v>3999</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q11" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA11" t="s">
         <v>141</v>
       </c>
-      <c r="S11" t="s">
+      <c r="AB11" t="s">
         <v>142</v>
       </c>
-      <c r="AA11" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>144</v>
       </c>
-      <c r="AC11" t="s">
-        <v>146</v>
-      </c>
       <c r="AD11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AE11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AG11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AH11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AN11">
         <v>50</v>
@@ -2597,16 +2570,16 @@
         <v>48</v>
       </c>
       <c r="AQ11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AR11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AS11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AT11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AU11">
         <v>30</v>
@@ -2615,7 +2588,7 @@
         <v>100</v>
       </c>
       <c r="AW11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
@@ -2632,34 +2605,34 @@
         <v>2300</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA12" t="s">
         <v>141</v>
       </c>
-      <c r="S12" t="s">
+      <c r="AB12" t="s">
         <v>142</v>
       </c>
-      <c r="AA12" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>144</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE12" t="s">
         <v>146</v>
       </c>
-      <c r="AD12" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>148</v>
-      </c>
       <c r="AG12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AH12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AN12">
         <v>48</v>
@@ -2671,16 +2644,16 @@
         <v>50</v>
       </c>
       <c r="AQ12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AR12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AS12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AT12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AU12">
         <v>31</v>
@@ -2689,7 +2662,7 @@
         <v>70</v>
       </c>
       <c r="AW12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
@@ -2706,34 +2679,34 @@
         <v>3999</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q13" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA13" t="s">
         <v>141</v>
       </c>
-      <c r="S13" t="s">
+      <c r="AB13" t="s">
         <v>142</v>
       </c>
-      <c r="AA13" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>144</v>
       </c>
-      <c r="AC13" t="s">
-        <v>146</v>
-      </c>
       <c r="AD13" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE13" t="s">
         <v>147</v>
       </c>
-      <c r="AE13" t="s">
-        <v>149</v>
-      </c>
       <c r="AG13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AH13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AN13">
         <v>50</v>
@@ -2745,16 +2718,16 @@
         <v>50</v>
       </c>
       <c r="AQ13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AR13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AS13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AT13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AU13">
         <v>30</v>
@@ -2763,7 +2736,7 @@
         <v>120</v>
       </c>
       <c r="AW13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
@@ -2780,34 +2753,34 @@
         <v>5999</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q14" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S14" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA14" t="s">
         <v>141</v>
       </c>
-      <c r="S14" t="s">
+      <c r="AB14" t="s">
         <v>142</v>
       </c>
-      <c r="AA14" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>144</v>
       </c>
-      <c r="AC14" t="s">
-        <v>146</v>
-      </c>
       <c r="AD14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE14" t="s">
         <v>147</v>
       </c>
-      <c r="AE14" t="s">
-        <v>149</v>
-      </c>
       <c r="AG14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AH14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AN14">
         <v>50</v>
@@ -2819,16 +2792,16 @@
         <v>50</v>
       </c>
       <c r="AQ14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AR14" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS14" t="s">
         <v>180</v>
       </c>
-      <c r="AS14" t="s">
-        <v>182</v>
-      </c>
       <c r="AT14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AU14">
         <v>30</v>
@@ -2837,7 +2810,7 @@
         <v>120</v>
       </c>
       <c r="AW14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
@@ -2854,34 +2827,34 @@
         <v>9999</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q15" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S15" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA15" t="s">
         <v>141</v>
       </c>
-      <c r="S15" t="s">
+      <c r="AB15" t="s">
         <v>142</v>
       </c>
-      <c r="AA15" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>144</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE15" t="s">
         <v>146</v>
       </c>
-      <c r="AD15" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>148</v>
-      </c>
       <c r="AG15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AH15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AN15">
         <v>50</v>
@@ -2893,16 +2866,16 @@
         <v>50</v>
       </c>
       <c r="AQ15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AR15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AS15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AT15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AU15">
         <v>30</v>
@@ -2911,7 +2884,7 @@
         <v>120</v>
       </c>
       <c r="AW15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
@@ -2928,34 +2901,34 @@
         <v>7999</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q16" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA16" t="s">
         <v>141</v>
       </c>
-      <c r="S16" t="s">
+      <c r="AB16" t="s">
         <v>142</v>
       </c>
-      <c r="AA16" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>144</v>
       </c>
-      <c r="AC16" t="s">
-        <v>146</v>
-      </c>
       <c r="AD16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AE16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AG16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AH16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AN16">
         <v>50</v>
@@ -2967,16 +2940,16 @@
         <v>50</v>
       </c>
       <c r="AQ16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AR16" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS16" t="s">
         <v>180</v>
       </c>
-      <c r="AS16" t="s">
-        <v>182</v>
-      </c>
       <c r="AT16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AU16">
         <v>30</v>
@@ -2985,7 +2958,7 @@
         <v>120</v>
       </c>
       <c r="AW16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
@@ -3002,34 +2975,34 @@
         <v>10500</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA17" t="s">
         <v>141</v>
       </c>
-      <c r="S17" t="s">
+      <c r="AB17" t="s">
         <v>142</v>
       </c>
-      <c r="AA17" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>144</v>
       </c>
-      <c r="AC17" t="s">
-        <v>146</v>
-      </c>
       <c r="AD17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AE17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AG17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AH17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AN17">
         <v>55</v>
@@ -3041,16 +3014,16 @@
         <v>50</v>
       </c>
       <c r="AQ17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AR17" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS17" t="s">
         <v>180</v>
       </c>
-      <c r="AS17" t="s">
-        <v>182</v>
-      </c>
       <c r="AT17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AU17">
         <v>35</v>
@@ -3059,7 +3032,7 @@
         <v>150</v>
       </c>
       <c r="AW17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
@@ -3076,34 +3049,34 @@
         <v>7999</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q18" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S18" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA18" t="s">
         <v>141</v>
       </c>
-      <c r="S18" t="s">
+      <c r="AB18" t="s">
         <v>142</v>
       </c>
-      <c r="AA18" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB18" t="s">
+      <c r="AC18" t="s">
         <v>144</v>
       </c>
-      <c r="AC18" t="s">
-        <v>146</v>
-      </c>
       <c r="AD18" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE18" t="s">
         <v>147</v>
       </c>
-      <c r="AE18" t="s">
-        <v>149</v>
-      </c>
       <c r="AG18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AH18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AN18">
         <v>48</v>
@@ -3115,16 +3088,16 @@
         <v>50</v>
       </c>
       <c r="AQ18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AR18" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS18" t="s">
         <v>180</v>
       </c>
-      <c r="AS18" t="s">
-        <v>182</v>
-      </c>
       <c r="AT18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AU18">
         <v>30</v>
@@ -3133,7 +3106,7 @@
         <v>100</v>
       </c>
       <c r="AW18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
@@ -3150,34 +3123,34 @@
         <v>7999</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q19" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S19" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA19" t="s">
         <v>141</v>
       </c>
-      <c r="S19" t="s">
+      <c r="AB19" t="s">
         <v>142</v>
       </c>
-      <c r="AA19" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB19" t="s">
+      <c r="AC19" t="s">
         <v>144</v>
       </c>
-      <c r="AC19" t="s">
-        <v>146</v>
-      </c>
       <c r="AD19" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE19" t="s">
         <v>147</v>
       </c>
-      <c r="AE19" t="s">
-        <v>149</v>
-      </c>
       <c r="AG19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AH19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AN19">
         <v>55</v>
@@ -3189,16 +3162,16 @@
         <v>50</v>
       </c>
       <c r="AQ19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AR19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AS19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AT19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AU19">
         <v>30</v>
@@ -3207,7 +3180,7 @@
         <v>180</v>
       </c>
       <c r="AW19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
@@ -3224,34 +3197,34 @@
         <v>6999</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S20" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA20" t="s">
         <v>141</v>
       </c>
-      <c r="S20" t="s">
+      <c r="AB20" t="s">
         <v>142</v>
       </c>
-      <c r="AA20" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
         <v>144</v>
       </c>
-      <c r="AC20" t="s">
-        <v>146</v>
-      </c>
       <c r="AD20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AE20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AG20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AH20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AN20">
         <v>50</v>
@@ -3263,16 +3236,16 @@
         <v>53</v>
       </c>
       <c r="AQ20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AR20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AS20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AT20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AU20">
         <v>30</v>
@@ -3281,7 +3254,7 @@
         <v>100</v>
       </c>
       <c r="AW20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
@@ -3298,34 +3271,34 @@
         <v>5999</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q21" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S21" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA21" t="s">
         <v>141</v>
       </c>
-      <c r="S21" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA21" t="s">
+      <c r="AB21" t="s">
         <v>143</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AC21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD21" t="s">
         <v>145</v>
       </c>
-      <c r="AC21" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>147</v>
-      </c>
       <c r="AE21" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG21" t="s">
         <v>154</v>
       </c>
-      <c r="AG21" t="s">
-        <v>156</v>
-      </c>
       <c r="AH21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AN21">
         <v>50</v>
@@ -3337,13 +3310,13 @@
         <v>50</v>
       </c>
       <c r="AQ21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AS21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AT21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AU21">
         <v>30</v>
@@ -3352,7 +3325,7 @@
         <v>80</v>
       </c>
       <c r="AW21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
@@ -3369,34 +3342,34 @@
         <v>7999</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q22" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S22" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA22" t="s">
         <v>141</v>
       </c>
-      <c r="S22" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA22" t="s">
+      <c r="AB22" t="s">
         <v>143</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AC22" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD22" t="s">
         <v>145</v>
       </c>
-      <c r="AC22" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>147</v>
-      </c>
       <c r="AE22" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH22" t="s">
         <v>155</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>156</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>157</v>
       </c>
       <c r="AN22">
         <v>48</v>
@@ -3408,13 +3381,13 @@
         <v>50</v>
       </c>
       <c r="AQ22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AS22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AT22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AU22">
         <v>30</v>
@@ -3423,7 +3396,7 @@
         <v>120</v>
       </c>
       <c r="AW22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:49" x14ac:dyDescent="0.25">
@@ -3440,34 +3413,34 @@
         <v>7999</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q23" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S23" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA23" t="s">
         <v>141</v>
       </c>
-      <c r="S23" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA23" t="s">
+      <c r="AB23" t="s">
         <v>143</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AC23" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD23" t="s">
         <v>145</v>
       </c>
-      <c r="AC23" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>147</v>
-      </c>
       <c r="AE23" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH23" t="s">
         <v>155</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>156</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>157</v>
       </c>
       <c r="AN23">
         <v>48</v>
@@ -3479,13 +3452,13 @@
         <v>50</v>
       </c>
       <c r="AQ23" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AS23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AT23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AU23">
         <v>30</v>
@@ -3494,7 +3467,7 @@
         <v>120</v>
       </c>
       <c r="AW23" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:49" x14ac:dyDescent="0.25">
@@ -3511,34 +3484,34 @@
         <v>12000</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q24" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S24" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA24" t="s">
         <v>141</v>
       </c>
-      <c r="S24" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA24" t="s">
+      <c r="AB24" t="s">
         <v>143</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AC24" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD24" t="s">
         <v>145</v>
       </c>
-      <c r="AC24" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>147</v>
       </c>
-      <c r="AE24" t="s">
-        <v>149</v>
-      </c>
       <c r="AG24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AH24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AN24">
         <v>48</v>
@@ -3550,13 +3523,13 @@
         <v>50</v>
       </c>
       <c r="AQ24" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AS24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AT24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AU24">
         <v>30</v>
@@ -3565,7 +3538,7 @@
         <v>120</v>
       </c>
       <c r="AW24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:49" x14ac:dyDescent="0.25">
@@ -3582,34 +3555,34 @@
         <v>2999</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q25" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S25" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA25" t="s">
         <v>141</v>
       </c>
-      <c r="S25" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA25" t="s">
+      <c r="AB25" t="s">
         <v>143</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AC25" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD25" t="s">
         <v>145</v>
       </c>
-      <c r="AC25" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>147</v>
       </c>
-      <c r="AE25" t="s">
-        <v>149</v>
-      </c>
       <c r="AG25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AH25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AN25">
         <v>48</v>
@@ -3621,13 +3594,13 @@
         <v>50</v>
       </c>
       <c r="AQ25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AS25" t="s">
+        <v>180</v>
+      </c>
+      <c r="AT25" t="s">
         <v>182</v>
-      </c>
-      <c r="AT25" t="s">
-        <v>184</v>
       </c>
       <c r="AU25">
         <v>30</v>
@@ -3636,7 +3609,7 @@
         <v>120</v>
       </c>
       <c r="AW25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.25">
@@ -3653,34 +3626,34 @@
         <v>14999</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q26" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S26" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA26" t="s">
         <v>141</v>
       </c>
-      <c r="S26" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA26" t="s">
+      <c r="AB26" t="s">
         <v>143</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AC26" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD26" t="s">
         <v>145</v>
       </c>
-      <c r="AC26" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>147</v>
       </c>
-      <c r="AE26" t="s">
-        <v>149</v>
-      </c>
       <c r="AG26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AH26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AN26">
         <v>48</v>
@@ -3692,13 +3665,13 @@
         <v>50</v>
       </c>
       <c r="AQ26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AS26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AT26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AU26">
         <v>30</v>
@@ -3707,7 +3680,7 @@
         <v>120</v>
       </c>
       <c r="AW26" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:49" x14ac:dyDescent="0.25">
@@ -3724,34 +3697,34 @@
         <v>5999</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q27" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S27" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA27" t="s">
         <v>141</v>
       </c>
-      <c r="S27" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA27" t="s">
+      <c r="AB27" t="s">
         <v>143</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AC27" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD27" t="s">
         <v>145</v>
       </c>
-      <c r="AC27" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>147</v>
       </c>
-      <c r="AE27" t="s">
-        <v>149</v>
-      </c>
       <c r="AG27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AH27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AN27">
         <v>48</v>
@@ -3763,13 +3736,13 @@
         <v>50</v>
       </c>
       <c r="AQ27" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AS27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AT27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AU27">
         <v>30</v>
@@ -3778,7 +3751,7 @@
         <v>120</v>
       </c>
       <c r="AW27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.25">
@@ -3795,34 +3768,34 @@
         <v>17000</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S28" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA28" t="s">
         <v>141</v>
       </c>
-      <c r="S28" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA28" t="s">
+      <c r="AB28" t="s">
         <v>143</v>
       </c>
-      <c r="AB28" t="s">
+      <c r="AC28" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD28" t="s">
         <v>145</v>
       </c>
-      <c r="AC28" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD28" t="s">
+      <c r="AE28" t="s">
         <v>147</v>
       </c>
-      <c r="AE28" t="s">
-        <v>149</v>
-      </c>
       <c r="AG28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AH28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AN28">
         <v>48</v>
@@ -3834,13 +3807,13 @@
         <v>50</v>
       </c>
       <c r="AQ28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AS28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AT28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AU28">
         <v>30</v>
@@ -3849,51 +3822,51 @@
         <v>120</v>
       </c>
       <c r="AW28" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>10506</v>
+        <v>10498</v>
       </c>
       <c r="L29" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="M29" t="s">
         <v>95</v>
       </c>
       <c r="N29">
-        <v>7999</v>
+        <v>9999</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S29" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA29" t="s">
         <v>141</v>
       </c>
-      <c r="S29" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA29" t="s">
+      <c r="AB29" t="s">
         <v>143</v>
       </c>
-      <c r="AB29" t="s">
+      <c r="AC29" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD29" t="s">
         <v>145</v>
       </c>
-      <c r="AC29" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD29" t="s">
+      <c r="AE29" t="s">
         <v>147</v>
       </c>
-      <c r="AE29" t="s">
-        <v>149</v>
-      </c>
       <c r="AG29" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AH29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AN29">
         <v>48</v>
@@ -3905,13 +3878,13 @@
         <v>50</v>
       </c>
       <c r="AQ29" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="AS29" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AT29" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="AU29">
         <v>30</v>
@@ -3920,51 +3893,51 @@
         <v>120</v>
       </c>
       <c r="AW29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>10498</v>
+        <v>10550</v>
       </c>
       <c r="L30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M30" t="s">
         <v>96</v>
       </c>
       <c r="N30">
-        <v>9999</v>
+        <v>14999</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q30" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S30" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA30" t="s">
         <v>141</v>
       </c>
-      <c r="S30" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA30" t="s">
+      <c r="AB30" t="s">
         <v>143</v>
       </c>
-      <c r="AB30" t="s">
+      <c r="AC30" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD30" t="s">
         <v>145</v>
       </c>
-      <c r="AC30" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD30" t="s">
+      <c r="AE30" t="s">
         <v>147</v>
       </c>
-      <c r="AE30" t="s">
-        <v>149</v>
-      </c>
       <c r="AG30" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AH30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AN30">
         <v>48</v>
@@ -3976,13 +3949,13 @@
         <v>50</v>
       </c>
       <c r="AQ30" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="AS30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AT30" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AU30">
         <v>30</v>
@@ -3991,51 +3964,51 @@
         <v>120</v>
       </c>
       <c r="AW30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>10550</v>
+        <v>10533</v>
       </c>
       <c r="L31" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="M31" t="s">
         <v>97</v>
       </c>
       <c r="N31">
-        <v>14999</v>
+        <v>9999</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S31" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA31" t="s">
         <v>141</v>
       </c>
-      <c r="S31" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA31" t="s">
+      <c r="AB31" t="s">
         <v>143</v>
       </c>
-      <c r="AB31" t="s">
+      <c r="AC31" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD31" t="s">
         <v>145</v>
       </c>
-      <c r="AC31" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>147</v>
-      </c>
       <c r="AE31" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AG31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AH31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AN31">
         <v>48</v>
@@ -4047,13 +4020,13 @@
         <v>50</v>
       </c>
       <c r="AQ31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AS31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AT31" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="AU31">
         <v>30</v>
@@ -4062,51 +4035,51 @@
         <v>120</v>
       </c>
       <c r="AW31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>10533</v>
+        <v>10461</v>
       </c>
       <c r="L32" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="M32" t="s">
         <v>98</v>
       </c>
       <c r="N32">
-        <v>9999</v>
+        <v>11999</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q32" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S32" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA32" t="s">
         <v>141</v>
       </c>
-      <c r="S32" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA32" t="s">
+      <c r="AB32" t="s">
         <v>143</v>
       </c>
-      <c r="AB32" t="s">
+      <c r="AC32" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD32" t="s">
         <v>145</v>
       </c>
-      <c r="AC32" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD32" t="s">
+      <c r="AE32" t="s">
         <v>147</v>
       </c>
-      <c r="AE32" t="s">
+      <c r="AG32" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH32" t="s">
         <v>155</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>156</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>157</v>
       </c>
       <c r="AN32">
         <v>48</v>
@@ -4118,13 +4091,13 @@
         <v>50</v>
       </c>
       <c r="AQ32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AS32" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AT32" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AU32">
         <v>30</v>
@@ -4133,51 +4106,51 @@
         <v>120</v>
       </c>
       <c r="AW32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>10461</v>
+        <v>10531</v>
       </c>
       <c r="L33" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="M33" t="s">
         <v>99</v>
       </c>
       <c r="N33">
-        <v>11999</v>
+        <v>9999</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S33" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA33" t="s">
         <v>141</v>
       </c>
-      <c r="S33" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA33" t="s">
+      <c r="AB33" t="s">
         <v>143</v>
       </c>
-      <c r="AB33" t="s">
+      <c r="AC33" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD33" t="s">
         <v>145</v>
       </c>
-      <c r="AC33" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>147</v>
-      </c>
       <c r="AE33" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AG33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AH33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AN33">
         <v>48</v>
@@ -4189,13 +4162,13 @@
         <v>50</v>
       </c>
       <c r="AQ33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AS33" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AT33" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="AU33">
         <v>30</v>
@@ -4204,15 +4177,15 @@
         <v>120</v>
       </c>
       <c r="AW33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>10531</v>
+        <v>10547</v>
       </c>
       <c r="L34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M34" t="s">
         <v>100</v>
@@ -4221,34 +4194,34 @@
         <v>9999</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q34" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S34" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA34" t="s">
         <v>141</v>
       </c>
-      <c r="S34" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA34" t="s">
+      <c r="AB34" t="s">
         <v>143</v>
       </c>
-      <c r="AB34" t="s">
+      <c r="AC34" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD34" t="s">
         <v>145</v>
       </c>
-      <c r="AC34" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>147</v>
-      </c>
       <c r="AE34" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH34" t="s">
         <v>155</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>156</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>157</v>
       </c>
       <c r="AN34">
         <v>48</v>
@@ -4260,13 +4233,13 @@
         <v>50</v>
       </c>
       <c r="AQ34" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AS34" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AT34" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AU34">
         <v>30</v>
@@ -4275,51 +4248,51 @@
         <v>120</v>
       </c>
       <c r="AW34" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>10547</v>
+        <v>10530</v>
       </c>
       <c r="L35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M35" t="s">
         <v>101</v>
       </c>
       <c r="N35">
-        <v>9999</v>
+        <v>3499</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q35" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S35" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA35" t="s">
         <v>141</v>
       </c>
-      <c r="S35" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA35" t="s">
+      <c r="AB35" t="s">
         <v>143</v>
       </c>
-      <c r="AB35" t="s">
+      <c r="AC35" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD35" t="s">
         <v>145</v>
       </c>
-      <c r="AC35" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>147</v>
-      </c>
       <c r="AE35" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH35" t="s">
         <v>155</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>156</v>
-      </c>
-      <c r="AH35" t="s">
-        <v>157</v>
       </c>
       <c r="AN35">
         <v>48</v>
@@ -4331,13 +4304,13 @@
         <v>50</v>
       </c>
       <c r="AQ35" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="AS35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AT35" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="AU35">
         <v>30</v>
@@ -4346,51 +4319,51 @@
         <v>120</v>
       </c>
       <c r="AW35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>10530</v>
+        <v>10541</v>
       </c>
       <c r="L36" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M36" t="s">
         <v>102</v>
       </c>
       <c r="N36">
-        <v>3499</v>
+        <v>4999</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q36" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S36" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA36" t="s">
         <v>141</v>
       </c>
-      <c r="S36" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA36" t="s">
+      <c r="AB36" t="s">
         <v>143</v>
       </c>
-      <c r="AB36" t="s">
+      <c r="AC36" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD36" t="s">
         <v>145</v>
       </c>
-      <c r="AC36" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD36" t="s">
+      <c r="AE36" t="s">
         <v>147</v>
       </c>
-      <c r="AE36" t="s">
-        <v>152</v>
-      </c>
       <c r="AG36" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AH36" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AN36">
         <v>48</v>
@@ -4402,13 +4375,13 @@
         <v>50</v>
       </c>
       <c r="AQ36" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AS36" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AT36" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AU36">
         <v>30</v>
@@ -4417,51 +4390,51 @@
         <v>120</v>
       </c>
       <c r="AW36" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>10541</v>
+        <v>10319</v>
       </c>
       <c r="L37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M37" t="s">
         <v>103</v>
       </c>
       <c r="N37">
-        <v>4999</v>
+        <v>2999</v>
       </c>
       <c r="O37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q37" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="Q37" s="2" t="s">
+      <c r="S37" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA37" t="s">
         <v>141</v>
       </c>
-      <c r="S37" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA37" t="s">
+      <c r="AB37" t="s">
         <v>143</v>
       </c>
-      <c r="AB37" t="s">
+      <c r="AC37" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD37" t="s">
         <v>145</v>
       </c>
-      <c r="AC37" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>147</v>
-      </c>
       <c r="AE37" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AG37" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AH37" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AN37">
         <v>48</v>
@@ -4473,13 +4446,13 @@
         <v>50</v>
       </c>
       <c r="AQ37" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="AS37" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AT37" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AU37">
         <v>30</v>
@@ -4488,78 +4461,7 @@
         <v>120</v>
       </c>
       <c r="AW37" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>10319</v>
-      </c>
-      <c r="L38" t="s">
-        <v>54</v>
-      </c>
-      <c r="M38" t="s">
-        <v>104</v>
-      </c>
-      <c r="N38">
-        <v>2999</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="S38" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>154</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>156</v>
-      </c>
-      <c r="AH38" t="s">
-        <v>157</v>
-      </c>
-      <c r="AN38">
-        <v>48</v>
-      </c>
-      <c r="AO38">
-        <v>45</v>
-      </c>
-      <c r="AP38">
-        <v>50</v>
-      </c>
-      <c r="AQ38" t="s">
-        <v>176</v>
-      </c>
-      <c r="AS38" t="s">
-        <v>182</v>
-      </c>
-      <c r="AT38" t="s">
-        <v>179</v>
-      </c>
-      <c r="AU38">
-        <v>30</v>
-      </c>
-      <c r="AV38">
-        <v>120</v>
-      </c>
-      <c r="AW38" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -4618,26 +4520,24 @@
     <hyperlink ref="Q27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
     <hyperlink ref="O28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
     <hyperlink ref="Q28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="O29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="Q29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="O30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="Q30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="O31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="Q31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="O32" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="Q32" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="O33" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="Q33" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="O34" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="Q34" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="O35" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="Q35" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="O36" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="Q36" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="O37" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="Q37" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="O38" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="Q38" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="O29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="Q29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="O30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="Q30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="O31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="Q31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="O32" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="Q32" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="O33" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="Q33" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="O34" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="Q34" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="O35" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="Q35" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="O36" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="Q36" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="O37" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="Q37" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/comp armchair.xlsx
+++ b/make_xl/data_xl/comp armchair.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E094A216-01D7-46DA-98CA-293D09567207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1237,21 +1231,21 @@
     <t>Подлокотники | Механизм качания | Регулировка наклона спинки | Регулировка высоты | Регулировка глубины сиденья | Поясничный упор</t>
   </si>
   <si>
+    <t>Подлокотники | Механизм качания | Поясничный упор</t>
+  </si>
+  <si>
+    <t>Подлокотники | Механизм качания | Регулировка наклона спинки | Регулировка высоты | Поясничный упор</t>
+  </si>
+  <si>
+    <t>Подлокотники | Подголовник | Механизм качания | Регулировка высоты</t>
+  </si>
+  <si>
+    <t>Подлокотники | Регулировка наклона спинки | Регулировка высоты | Регулировка подлокотников | Поясничный упор</t>
+  </si>
+  <si>
     <t>Подлокотники | Механизм качания | Регулировка наклона спинки | Регулировка высоты | Регулировка подлокотников | Поясничный упор</t>
   </si>
   <si>
-    <t>Подлокотники | Механизм качания | Поясничный упор</t>
-  </si>
-  <si>
-    <t>Подлокотники | Механизм качания | Регулировка наклона спинки | Регулировка высоты | Поясничный упор</t>
-  </si>
-  <si>
-    <t>Подлокотники | Подголовник | Механизм качания | Регулировка высоты</t>
-  </si>
-  <si>
-    <t>Подлокотники | Регулировка наклона спинки | Регулировка высоты | Регулировка подлокотников | Поясничный упор</t>
-  </si>
-  <si>
     <t>Подлокотники | Регулировка наклона спинки</t>
   </si>
   <si>
@@ -1282,10 +1276,10 @@
     <t>Искусственная кожа | Кожа</t>
   </si>
   <si>
+    <t>Кожа | Дерево</t>
+  </si>
+  <si>
     <t>Искусственная кожа | Сетка</t>
-  </si>
-  <si>
-    <t>Кожа | Дерево</t>
   </si>
   <si>
     <t>Нет</t>
@@ -1294,8 +1288,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1366,26 +1360,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1423,9 +1409,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1457,27 +1443,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1509,27 +1477,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1702,16 +1652,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AW37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1860,7 +1808,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1934,7 +1882,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49">
       <c r="A3">
         <v>10031</v>
       </c>
@@ -2005,7 +1953,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49">
       <c r="A4">
         <v>10301</v>
       </c>
@@ -2079,7 +2027,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49">
       <c r="A5">
         <v>10301</v>
       </c>
@@ -2153,7 +2101,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49">
       <c r="A6">
         <v>10301</v>
       </c>
@@ -2224,7 +2172,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49">
       <c r="A7">
         <v>10302</v>
       </c>
@@ -2298,7 +2246,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49">
       <c r="A8">
         <v>10310</v>
       </c>
@@ -2372,7 +2320,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49">
       <c r="A9">
         <v>10316</v>
       </c>
@@ -2446,7 +2394,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49">
       <c r="A10">
         <v>10316</v>
       </c>
@@ -2517,7 +2465,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49">
       <c r="A11">
         <v>10317</v>
       </c>
@@ -2591,7 +2539,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:49">
       <c r="A12">
         <v>10336</v>
       </c>
@@ -2665,7 +2613,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:49">
       <c r="A13">
         <v>10368</v>
       </c>
@@ -2739,7 +2687,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49">
       <c r="A14">
         <v>10371</v>
       </c>
@@ -2813,7 +2761,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49">
       <c r="A15">
         <v>10420</v>
       </c>
@@ -2887,7 +2835,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:49">
       <c r="A16">
         <v>10424</v>
       </c>
@@ -2961,7 +2909,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:49">
       <c r="A17">
         <v>10443</v>
       </c>
@@ -3035,7 +2983,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:49">
       <c r="A18">
         <v>10460</v>
       </c>
@@ -3109,7 +3057,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:49">
       <c r="A19">
         <v>10494</v>
       </c>
@@ -3183,7 +3131,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:49">
       <c r="A20">
         <v>10501</v>
       </c>
@@ -3257,7 +3205,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:49">
       <c r="A21">
         <v>10522</v>
       </c>
@@ -3328,7 +3276,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:49">
       <c r="A22">
         <v>10532</v>
       </c>
@@ -3399,7 +3347,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:49">
       <c r="A23">
         <v>10532</v>
       </c>
@@ -3470,7 +3418,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:49">
       <c r="A24">
         <v>10410</v>
       </c>
@@ -3541,7 +3489,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:49">
       <c r="A25">
         <v>10301</v>
       </c>
@@ -3612,7 +3560,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:49">
       <c r="A26">
         <v>10538</v>
       </c>
@@ -3683,7 +3631,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:49">
       <c r="A27">
         <v>10542</v>
       </c>
@@ -3754,7 +3702,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:49">
       <c r="A28">
         <v>10468</v>
       </c>
@@ -3825,7 +3773,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:49">
       <c r="A29">
         <v>10498</v>
       </c>
@@ -3896,7 +3844,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:49">
       <c r="A30">
         <v>10550</v>
       </c>
@@ -3949,13 +3897,13 @@
         <v>50</v>
       </c>
       <c r="AQ30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AS30" t="s">
         <v>180</v>
       </c>
       <c r="AT30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AU30">
         <v>30</v>
@@ -3967,7 +3915,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:49">
       <c r="A31">
         <v>10533</v>
       </c>
@@ -4020,7 +3968,7 @@
         <v>50</v>
       </c>
       <c r="AQ31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AS31" t="s">
         <v>180</v>
@@ -4038,7 +3986,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:49">
       <c r="A32">
         <v>10461</v>
       </c>
@@ -4091,7 +4039,7 @@
         <v>50</v>
       </c>
       <c r="AQ32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AS32" t="s">
         <v>180</v>
@@ -4109,7 +4057,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:49">
       <c r="A33">
         <v>10531</v>
       </c>
@@ -4162,7 +4110,7 @@
         <v>50</v>
       </c>
       <c r="AQ33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AS33" t="s">
         <v>180</v>
@@ -4180,7 +4128,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:49">
       <c r="A34">
         <v>10547</v>
       </c>
@@ -4233,13 +4181,13 @@
         <v>50</v>
       </c>
       <c r="AQ34" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AS34" t="s">
         <v>180</v>
       </c>
       <c r="AT34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AU34">
         <v>30</v>
@@ -4251,7 +4199,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:49">
       <c r="A35">
         <v>10530</v>
       </c>
@@ -4322,7 +4270,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:49">
       <c r="A36">
         <v>10541</v>
       </c>
@@ -4393,7 +4341,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:49">
       <c r="A37">
         <v>10319</v>
       </c>
@@ -4466,78 +4414,78 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="O3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="Q3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="O4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="Q4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="O5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="Q5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="O6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="Q6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="O7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="Q7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="O8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="Q8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="O9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="Q9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="O10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="Q10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="O11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="Q11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="O12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="Q12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="O13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="Q13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="O14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="Q14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="O15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="Q15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="O16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="Q16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="O17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="Q17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="O18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="Q18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="O19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="Q19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="O20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="Q20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="O21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="Q21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="O22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="Q22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="O23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="Q23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="O24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="Q24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="Q25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="O26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="Q26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="O27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="Q27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="O28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="Q28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="O29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="Q29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="O30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="Q30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="O31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="Q31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="O32" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="Q32" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="O33" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="Q33" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="O34" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="Q34" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="O35" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="Q35" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="O36" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="Q36" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="O37" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="Q37" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="Q2" r:id="rId2"/>
+    <hyperlink ref="O3" r:id="rId3"/>
+    <hyperlink ref="Q3" r:id="rId4"/>
+    <hyperlink ref="O4" r:id="rId5"/>
+    <hyperlink ref="Q4" r:id="rId6"/>
+    <hyperlink ref="O5" r:id="rId7"/>
+    <hyperlink ref="Q5" r:id="rId8"/>
+    <hyperlink ref="O6" r:id="rId9"/>
+    <hyperlink ref="Q6" r:id="rId10"/>
+    <hyperlink ref="O7" r:id="rId11"/>
+    <hyperlink ref="Q7" r:id="rId12"/>
+    <hyperlink ref="O8" r:id="rId13"/>
+    <hyperlink ref="Q8" r:id="rId14"/>
+    <hyperlink ref="O9" r:id="rId15"/>
+    <hyperlink ref="Q9" r:id="rId16"/>
+    <hyperlink ref="O10" r:id="rId17"/>
+    <hyperlink ref="Q10" r:id="rId18"/>
+    <hyperlink ref="O11" r:id="rId19"/>
+    <hyperlink ref="Q11" r:id="rId20"/>
+    <hyperlink ref="O12" r:id="rId21"/>
+    <hyperlink ref="Q12" r:id="rId22"/>
+    <hyperlink ref="O13" r:id="rId23"/>
+    <hyperlink ref="Q13" r:id="rId24"/>
+    <hyperlink ref="O14" r:id="rId25"/>
+    <hyperlink ref="Q14" r:id="rId26"/>
+    <hyperlink ref="O15" r:id="rId27"/>
+    <hyperlink ref="Q15" r:id="rId28"/>
+    <hyperlink ref="O16" r:id="rId29"/>
+    <hyperlink ref="Q16" r:id="rId30"/>
+    <hyperlink ref="O17" r:id="rId31"/>
+    <hyperlink ref="Q17" r:id="rId32"/>
+    <hyperlink ref="O18" r:id="rId33"/>
+    <hyperlink ref="Q18" r:id="rId34"/>
+    <hyperlink ref="O19" r:id="rId35"/>
+    <hyperlink ref="Q19" r:id="rId36"/>
+    <hyperlink ref="O20" r:id="rId37"/>
+    <hyperlink ref="Q20" r:id="rId38"/>
+    <hyperlink ref="O21" r:id="rId39"/>
+    <hyperlink ref="Q21" r:id="rId40"/>
+    <hyperlink ref="O22" r:id="rId41"/>
+    <hyperlink ref="Q22" r:id="rId42"/>
+    <hyperlink ref="O23" r:id="rId43"/>
+    <hyperlink ref="Q23" r:id="rId44"/>
+    <hyperlink ref="O24" r:id="rId45"/>
+    <hyperlink ref="Q24" r:id="rId46"/>
+    <hyperlink ref="O25" r:id="rId47"/>
+    <hyperlink ref="Q25" r:id="rId48"/>
+    <hyperlink ref="O26" r:id="rId49"/>
+    <hyperlink ref="Q26" r:id="rId50"/>
+    <hyperlink ref="O27" r:id="rId51"/>
+    <hyperlink ref="Q27" r:id="rId52"/>
+    <hyperlink ref="O28" r:id="rId53"/>
+    <hyperlink ref="Q28" r:id="rId54"/>
+    <hyperlink ref="O29" r:id="rId55"/>
+    <hyperlink ref="Q29" r:id="rId56"/>
+    <hyperlink ref="O30" r:id="rId57"/>
+    <hyperlink ref="Q30" r:id="rId58"/>
+    <hyperlink ref="O31" r:id="rId59"/>
+    <hyperlink ref="Q31" r:id="rId60"/>
+    <hyperlink ref="O32" r:id="rId61"/>
+    <hyperlink ref="Q32" r:id="rId62"/>
+    <hyperlink ref="O33" r:id="rId63"/>
+    <hyperlink ref="Q33" r:id="rId64"/>
+    <hyperlink ref="O34" r:id="rId65"/>
+    <hyperlink ref="Q34" r:id="rId66"/>
+    <hyperlink ref="O35" r:id="rId67"/>
+    <hyperlink ref="Q35" r:id="rId68"/>
+    <hyperlink ref="O36" r:id="rId69"/>
+    <hyperlink ref="Q36" r:id="rId70"/>
+    <hyperlink ref="O37" r:id="rId71"/>
+    <hyperlink ref="Q37" r:id="rId72"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/comp armchair.xlsx
+++ b/make_xl/data_xl/comp armchair.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="182">
   <si>
     <t>Id</t>
   </si>
@@ -757,30 +757,6 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">Кресло для руководителя
-Артикул 10538
-Описание 
-Цвет чёрный 
-Цена 14 999
-Количество 1
-    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
-    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Кресло компьютерное 
 Артикул 10542
 Описание: материал обивки - сетка. 
@@ -925,28 +901,6 @@
     </t>
   </si>
   <si>
-    <t>Компьютерное кресло
-Артикул 10531
-Отличное офисное кресло, удобство ощущается даже при долгом сидении на этом кресле. Оно имеет регулировку наклона спинки, высоты ручек, спинки и высоты сидения, что позволит вам подстроить под ваши индивидуальные потребности. 
-Кресло рассчитано на вес до 90 кг 
-Цвет серый
-Цена 9 999 руб. 
-Скидка - 55% 4 499 руб
-Количество 4
-    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
-    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Кресло компьютерное
 Артикул 10547
 Офисное крелсо с эргономичной спинкой с настраиваемой поддержкой поясницы, рассчитано на большой вес до 120 кг.
@@ -1105,9 +1059,6 @@
     <t>https://disk.yandex.ru/i/zs1LO9iUDpfvJA | https://disk.yandex.ru/i/4XJto5aU9Pk5Qw | https://disk.yandex.ru/i/RW2frD43bhg6dA | https://disk.yandex.ru/i/i9uwNxDWupMaCg | https://disk.yandex.ru/i/2GcC1EzIDr7XHQ | https://disk.yandex.ru/i/WjREaYhYzBzk1Q | https://disk.yandex.ru/i/MFqy3a-nWEK21g | https://disk.yandex.ru/i/zKc5FfCGsSjQ2g | https://disk.yandex.ru/i/auG_5U6jJCE9OQ | https://disk.yandex.ru/i/flJEu_19ssvBBA</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/mO9zE0LznQaB8Q | https://disk.yandex.ru/i/rJG_GF3r4N8AmQ | https://disk.yandex.ru/i/p8UIxRy-jOuMng | https://disk.yandex.ru/i/2TEYu1-sI1QWQQ | https://disk.yandex.ru/i/rtiJTkhJ4__RNw | https://disk.yandex.ru/i/g7IeZQAmbGDzBQ | https://disk.yandex.ru/i/8KWCRYxO03XtgA</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/qVd2oEtFX8sUSQ | https://disk.yandex.ru/i/4T7plhzo2CVBEQ | https://disk.yandex.ru/i/pAywipBokO5h2Q | https://disk.yandex.ru/i/ZKMPlYMDjf2Mlg | https://disk.yandex.ru/i/rCrbRKlQJPyk0w | https://disk.yandex.ru/i/AMHxMV_0iqNrRw | https://disk.yandex.ru/i/vRrw34qcqwqgKw | https://disk.yandex.ru/i/sawgFxehejgyXA</t>
   </si>
   <si>
@@ -1126,9 +1077,6 @@
     <t>https://disk.yandex.ru/i/FCkP5p-C8tfASA | https://disk.yandex.ru/i/iONpjZJy4prIXg | https://disk.yandex.ru/i/G482LEgYcrOK6w | https://disk.yandex.ru/i/f8jtX61qLh6OHw | https://disk.yandex.ru/i/bjdIr1nSbhU2Jw | https://disk.yandex.ru/i/oTPmvgAvYRhWGw | https://disk.yandex.ru/i/w1eg3XPIQcBsHA</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/9c6vX2EOs31Arw | https://disk.yandex.ru/i/gIzUAXww7owVmg | https://disk.yandex.ru/i/jPeCapzdaf8SXQ | https://disk.yandex.ru/i/GmcOZR5VDxDTJA | https://disk.yandex.ru/i/DQ3bmvOY0p7a9g | https://disk.yandex.ru/i/pdd-pwoxmojw0g | https://disk.yandex.ru/i/Y018iSzKl58hpQ | https://disk.yandex.ru/i/beaw07CvsIfYbQ</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/SQJMKlEV-Dyaug | https://disk.yandex.ru/i/eLkwsZcqiZoscg | https://disk.yandex.ru/i/TlP4li_719w7_A | https://disk.yandex.ru/i/nFYo-Tw4_FBDAA | https://disk.yandex.ru/i/LCAwReZx5SDxAQ | https://disk.yandex.ru/i/0oL-jR88an2HIw | https://disk.yandex.ru/i/q1khjGMbf1jkXA</t>
   </si>
   <si>
@@ -1238,9 +1186,6 @@
   </si>
   <si>
     <t>Подлокотники | Подголовник | Механизм качания | Регулировка высоты</t>
-  </si>
-  <si>
-    <t>Подлокотники | Регулировка наклона спинки | Регулировка высоты | Регулировка подлокотников | Поясничный упор</t>
   </si>
   <si>
     <t>Подлокотники | Механизм качания | Регулировка наклона спинки | Регулировка высоты | Регулировка подлокотников | Поясничный упор</t>
@@ -1653,7 +1598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AW37"/>
+  <dimension ref="A1:AW35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1822,34 +1767,34 @@
         <v>5499</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="S2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC2" t="s">
         <v>140</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
         <v>141</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AE2" t="s">
         <v>142</v>
       </c>
-      <c r="AC2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>146</v>
-      </c>
       <c r="AG2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AH2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AN2">
         <v>50</v>
@@ -1861,16 +1806,16 @@
         <v>50</v>
       </c>
       <c r="AQ2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AR2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS2" t="s">
         <v>175</v>
       </c>
-      <c r="AS2" t="s">
-        <v>180</v>
-      </c>
       <c r="AT2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="AU2">
         <v>30</v>
@@ -1879,7 +1824,7 @@
         <v>120</v>
       </c>
       <c r="AW2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:49">
@@ -1896,34 +1841,34 @@
         <v>7000</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Q3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB3" t="s">
         <v>139</v>
       </c>
-      <c r="S3" t="s">
+      <c r="AC3" t="s">
         <v>140</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AD3" t="s">
         <v>141</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AE3" t="s">
         <v>143</v>
       </c>
-      <c r="AC3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>147</v>
-      </c>
       <c r="AG3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AH3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AN3">
         <v>50</v>
@@ -1935,13 +1880,13 @@
         <v>50</v>
       </c>
       <c r="AQ3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AS3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AT3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AU3">
         <v>31</v>
@@ -1950,7 +1895,7 @@
         <v>70</v>
       </c>
       <c r="AW3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:49">
@@ -1967,34 +1912,34 @@
         <v>2999</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="S4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC4" t="s">
         <v>140</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AD4" t="s">
         <v>141</v>
       </c>
-      <c r="AB4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>145</v>
-      </c>
       <c r="AE4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AG4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AH4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AN4">
         <v>45</v>
@@ -2006,16 +1951,16 @@
         <v>40</v>
       </c>
       <c r="AQ4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AR4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AS4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AT4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AU4">
         <v>30</v>
@@ -2024,7 +1969,7 @@
         <v>80</v>
       </c>
       <c r="AW4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:49">
@@ -2041,34 +1986,34 @@
         <v>3999</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="S5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC5" t="s">
         <v>140</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AD5" t="s">
         <v>141</v>
       </c>
-      <c r="AB5" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>145</v>
-      </c>
       <c r="AE5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AG5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AH5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AN5">
         <v>48</v>
@@ -2080,16 +2025,16 @@
         <v>50</v>
       </c>
       <c r="AQ5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AR5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AS5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AT5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AU5">
         <v>30</v>
@@ -2098,7 +2043,7 @@
         <v>90</v>
       </c>
       <c r="AW5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:49">
@@ -2115,34 +2060,34 @@
         <v>3499</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB6" t="s">
         <v>139</v>
       </c>
-      <c r="S6" t="s">
+      <c r="AC6" t="s">
         <v>140</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AD6" t="s">
         <v>141</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AE6" t="s">
         <v>143</v>
       </c>
-      <c r="AC6" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>147</v>
-      </c>
       <c r="AG6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AH6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AN6">
         <v>50</v>
@@ -2154,13 +2099,13 @@
         <v>50</v>
       </c>
       <c r="AQ6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AS6" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AT6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AU6">
         <v>30</v>
@@ -2169,7 +2114,7 @@
         <v>120</v>
       </c>
       <c r="AW6" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:49">
@@ -2186,34 +2131,34 @@
         <v>1499</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="S7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC7" t="s">
         <v>140</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AD7" t="s">
         <v>141</v>
       </c>
-      <c r="AB7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>145</v>
-      </c>
       <c r="AE7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AG7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AH7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AN7">
         <v>45</v>
@@ -2225,16 +2170,16 @@
         <v>50</v>
       </c>
       <c r="AQ7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AR7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AS7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AT7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AU7">
         <v>30</v>
@@ -2243,7 +2188,7 @@
         <v>75</v>
       </c>
       <c r="AW7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:49">
@@ -2260,34 +2205,34 @@
         <v>3100</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="S8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC8" t="s">
         <v>140</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AD8" t="s">
         <v>141</v>
       </c>
-      <c r="AB8" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC8" t="s">
+      <c r="AE8" t="s">
         <v>144</v>
       </c>
-      <c r="AD8" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>148</v>
-      </c>
       <c r="AG8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AH8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AN8">
         <v>48</v>
@@ -2299,16 +2244,16 @@
         <v>45</v>
       </c>
       <c r="AQ8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AR8" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS8" t="s">
         <v>175</v>
       </c>
-      <c r="AS8" t="s">
-        <v>180</v>
-      </c>
       <c r="AT8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="AU8">
         <v>30</v>
@@ -2317,7 +2262,7 @@
         <v>80</v>
       </c>
       <c r="AW8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:49">
@@ -2334,34 +2279,34 @@
         <v>3499</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="S9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC9" t="s">
         <v>140</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AD9" t="s">
         <v>141</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AE9" t="s">
         <v>142</v>
       </c>
-      <c r="AC9" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>146</v>
-      </c>
       <c r="AG9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AH9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AN9">
         <v>48</v>
@@ -2373,16 +2318,16 @@
         <v>50</v>
       </c>
       <c r="AQ9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AR9" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS9" t="s">
         <v>175</v>
       </c>
-      <c r="AS9" t="s">
-        <v>180</v>
-      </c>
       <c r="AT9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="AU9">
         <v>30</v>
@@ -2391,7 +2336,7 @@
         <v>80</v>
       </c>
       <c r="AW9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:49">
@@ -2408,34 +2353,34 @@
         <v>3499</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB10" t="s">
         <v>139</v>
       </c>
-      <c r="S10" t="s">
+      <c r="AC10" t="s">
         <v>140</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AD10" t="s">
         <v>141</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AE10" t="s">
         <v>143</v>
       </c>
-      <c r="AC10" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>147</v>
-      </c>
       <c r="AG10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AH10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AN10">
         <v>50</v>
@@ -2447,13 +2392,13 @@
         <v>50</v>
       </c>
       <c r="AQ10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AS10" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AT10" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AU10">
         <v>30</v>
@@ -2462,7 +2407,7 @@
         <v>120</v>
       </c>
       <c r="AW10" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:49">
@@ -2479,34 +2424,34 @@
         <v>3999</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="S11" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC11" t="s">
         <v>140</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AD11" t="s">
         <v>141</v>
       </c>
-      <c r="AB11" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC11" t="s">
+      <c r="AE11" t="s">
         <v>144</v>
       </c>
-      <c r="AD11" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>148</v>
-      </c>
       <c r="AG11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AH11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AN11">
         <v>50</v>
@@ -2518,16 +2463,16 @@
         <v>48</v>
       </c>
       <c r="AQ11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AR11" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS11" t="s">
         <v>175</v>
       </c>
-      <c r="AS11" t="s">
-        <v>180</v>
-      </c>
       <c r="AT11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="AU11">
         <v>30</v>
@@ -2536,7 +2481,7 @@
         <v>100</v>
       </c>
       <c r="AW11" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:49">
@@ -2553,34 +2498,34 @@
         <v>2300</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="S12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC12" t="s">
         <v>140</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AD12" t="s">
         <v>141</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AE12" t="s">
         <v>142</v>
       </c>
-      <c r="AC12" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>146</v>
-      </c>
       <c r="AG12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AH12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AN12">
         <v>48</v>
@@ -2592,16 +2537,16 @@
         <v>50</v>
       </c>
       <c r="AQ12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AR12" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS12" t="s">
         <v>175</v>
       </c>
-      <c r="AS12" t="s">
-        <v>180</v>
-      </c>
       <c r="AT12" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="AU12">
         <v>31</v>
@@ -2610,7 +2555,7 @@
         <v>70</v>
       </c>
       <c r="AW12" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:49">
@@ -2627,34 +2572,34 @@
         <v>3999</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="S13" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC13" t="s">
         <v>140</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AD13" t="s">
         <v>141</v>
       </c>
-      <c r="AB13" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>145</v>
-      </c>
       <c r="AE13" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AG13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AH13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AN13">
         <v>50</v>
@@ -2666,16 +2611,16 @@
         <v>50</v>
       </c>
       <c r="AQ13" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AR13" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AS13" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AT13" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AU13">
         <v>30</v>
@@ -2684,7 +2629,7 @@
         <v>120</v>
       </c>
       <c r="AW13" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:49">
@@ -2701,34 +2646,34 @@
         <v>5999</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="S14" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC14" t="s">
         <v>140</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AD14" t="s">
         <v>141</v>
       </c>
-      <c r="AB14" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>145</v>
-      </c>
       <c r="AE14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AG14" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AH14" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AN14">
         <v>50</v>
@@ -2740,16 +2685,16 @@
         <v>50</v>
       </c>
       <c r="AQ14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AR14" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AS14" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AT14" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="AU14">
         <v>30</v>
@@ -2758,7 +2703,7 @@
         <v>120</v>
       </c>
       <c r="AW14" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:49">
@@ -2775,34 +2720,34 @@
         <v>9999</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="S15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC15" t="s">
         <v>140</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AD15" t="s">
         <v>141</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AE15" t="s">
         <v>142</v>
       </c>
-      <c r="AC15" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>146</v>
-      </c>
       <c r="AG15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AH15" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AN15">
         <v>50</v>
@@ -2814,16 +2759,16 @@
         <v>50</v>
       </c>
       <c r="AQ15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AR15" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AS15" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AT15" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AU15">
         <v>30</v>
@@ -2832,7 +2777,7 @@
         <v>120</v>
       </c>
       <c r="AW15" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:49">
@@ -2849,34 +2794,34 @@
         <v>7999</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="S16" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC16" t="s">
         <v>140</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AD16" t="s">
         <v>141</v>
       </c>
-      <c r="AB16" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>145</v>
       </c>
-      <c r="AE16" t="s">
-        <v>149</v>
-      </c>
       <c r="AG16" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AH16" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AN16">
         <v>50</v>
@@ -2888,16 +2833,16 @@
         <v>50</v>
       </c>
       <c r="AQ16" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AR16" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AS16" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AT16" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AU16">
         <v>30</v>
@@ -2906,7 +2851,7 @@
         <v>120</v>
       </c>
       <c r="AW16" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:49">
@@ -2923,34 +2868,34 @@
         <v>10500</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="S17" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC17" t="s">
         <v>140</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AD17" t="s">
         <v>141</v>
       </c>
-      <c r="AB17" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>145</v>
-      </c>
       <c r="AE17" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG17" t="s">
         <v>150</v>
       </c>
-      <c r="AG17" t="s">
-        <v>154</v>
-      </c>
       <c r="AH17" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AN17">
         <v>55</v>
@@ -2962,16 +2907,16 @@
         <v>50</v>
       </c>
       <c r="AQ17" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AR17" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AS17" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AT17" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AU17">
         <v>35</v>
@@ -2980,7 +2925,7 @@
         <v>150</v>
       </c>
       <c r="AW17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:49">
@@ -2997,34 +2942,34 @@
         <v>7999</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="S18" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC18" t="s">
         <v>140</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AD18" t="s">
         <v>141</v>
       </c>
-      <c r="AB18" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>145</v>
-      </c>
       <c r="AE18" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AG18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AH18" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AN18">
         <v>48</v>
@@ -3036,16 +2981,16 @@
         <v>50</v>
       </c>
       <c r="AQ18" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AR18" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AS18" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AT18" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AU18">
         <v>30</v>
@@ -3054,7 +2999,7 @@
         <v>100</v>
       </c>
       <c r="AW18" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:49">
@@ -3071,34 +3016,34 @@
         <v>7999</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="S19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC19" t="s">
         <v>140</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AD19" t="s">
         <v>141</v>
       </c>
-      <c r="AB19" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>145</v>
-      </c>
       <c r="AE19" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AG19" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AH19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AN19">
         <v>55</v>
@@ -3110,16 +3055,16 @@
         <v>50</v>
       </c>
       <c r="AQ19" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AR19" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AS19" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AT19" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AU19">
         <v>30</v>
@@ -3128,7 +3073,7 @@
         <v>180</v>
       </c>
       <c r="AW19" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:49">
@@ -3145,34 +3090,34 @@
         <v>6999</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="S20" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC20" t="s">
         <v>140</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AD20" t="s">
         <v>141</v>
       </c>
-      <c r="AB20" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>145</v>
-      </c>
       <c r="AE20" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH20" t="s">
         <v>151</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>154</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>155</v>
       </c>
       <c r="AN20">
         <v>50</v>
@@ -3184,16 +3129,16 @@
         <v>53</v>
       </c>
       <c r="AQ20" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AR20" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS20" t="s">
         <v>175</v>
       </c>
-      <c r="AS20" t="s">
-        <v>180</v>
-      </c>
       <c r="AT20" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="AU20">
         <v>30</v>
@@ -3202,7 +3147,7 @@
         <v>100</v>
       </c>
       <c r="AW20" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:49">
@@ -3219,34 +3164,34 @@
         <v>5999</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q21" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S21" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB21" t="s">
         <v>139</v>
       </c>
-      <c r="S21" t="s">
+      <c r="AC21" t="s">
         <v>140</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AD21" t="s">
         <v>141</v>
       </c>
-      <c r="AB21" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>145</v>
-      </c>
       <c r="AE21" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AG21" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AH21" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AN21">
         <v>50</v>
@@ -3258,13 +3203,13 @@
         <v>50</v>
       </c>
       <c r="AQ21" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AS21" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AT21" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AU21">
         <v>30</v>
@@ -3273,7 +3218,7 @@
         <v>80</v>
       </c>
       <c r="AW21" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:49">
@@ -3290,34 +3235,34 @@
         <v>7999</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q22" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S22" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB22" t="s">
         <v>139</v>
       </c>
-      <c r="S22" t="s">
+      <c r="AC22" t="s">
         <v>140</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AD22" t="s">
         <v>141</v>
       </c>
-      <c r="AB22" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>145</v>
-      </c>
       <c r="AE22" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AG22" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AH22" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AN22">
         <v>48</v>
@@ -3329,13 +3274,13 @@
         <v>50</v>
       </c>
       <c r="AQ22" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AS22" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AT22" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AU22">
         <v>30</v>
@@ -3344,7 +3289,7 @@
         <v>120</v>
       </c>
       <c r="AW22" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:49">
@@ -3361,34 +3306,34 @@
         <v>7999</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q23" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S23" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB23" t="s">
         <v>139</v>
       </c>
-      <c r="S23" t="s">
+      <c r="AC23" t="s">
         <v>140</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AD23" t="s">
         <v>141</v>
       </c>
-      <c r="AB23" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>145</v>
-      </c>
       <c r="AE23" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AG23" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AH23" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AN23">
         <v>48</v>
@@ -3400,13 +3345,13 @@
         <v>50</v>
       </c>
       <c r="AQ23" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AS23" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AT23" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AU23">
         <v>30</v>
@@ -3415,7 +3360,7 @@
         <v>120</v>
       </c>
       <c r="AW23" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:49">
@@ -3432,34 +3377,34 @@
         <v>12000</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q24" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S24" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB24" t="s">
         <v>139</v>
       </c>
-      <c r="S24" t="s">
+      <c r="AC24" t="s">
         <v>140</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AD24" t="s">
         <v>141</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AE24" t="s">
         <v>143</v>
       </c>
-      <c r="AC24" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>147</v>
-      </c>
       <c r="AG24" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AH24" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AN24">
         <v>48</v>
@@ -3471,13 +3416,13 @@
         <v>50</v>
       </c>
       <c r="AQ24" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AS24" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AT24" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AU24">
         <v>30</v>
@@ -3486,7 +3431,7 @@
         <v>120</v>
       </c>
       <c r="AW24" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:49">
@@ -3503,34 +3448,34 @@
         <v>2999</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q25" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S25" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB25" t="s">
         <v>139</v>
       </c>
-      <c r="S25" t="s">
+      <c r="AC25" t="s">
         <v>140</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AD25" t="s">
         <v>141</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AE25" t="s">
         <v>143</v>
       </c>
-      <c r="AC25" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>147</v>
-      </c>
       <c r="AG25" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AH25" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AN25">
         <v>48</v>
@@ -3542,13 +3487,13 @@
         <v>50</v>
       </c>
       <c r="AQ25" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AS25" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AT25" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AU25">
         <v>30</v>
@@ -3557,51 +3502,51 @@
         <v>120</v>
       </c>
       <c r="AW25" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:49">
       <c r="A26">
-        <v>10538</v>
+        <v>10542</v>
       </c>
       <c r="L26" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="M26" t="s">
         <v>92</v>
       </c>
       <c r="N26">
-        <v>14999</v>
+        <v>5999</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Q26" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S26" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB26" t="s">
         <v>139</v>
       </c>
-      <c r="S26" t="s">
+      <c r="AC26" t="s">
         <v>140</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AD26" t="s">
         <v>141</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AE26" t="s">
         <v>143</v>
       </c>
-      <c r="AC26" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>147</v>
-      </c>
       <c r="AG26" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AH26" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AN26">
         <v>48</v>
@@ -3613,13 +3558,13 @@
         <v>50</v>
       </c>
       <c r="AQ26" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AS26" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AT26" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="AU26">
         <v>30</v>
@@ -3628,51 +3573,51 @@
         <v>120</v>
       </c>
       <c r="AW26" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:49">
       <c r="A27">
-        <v>10542</v>
+        <v>10468</v>
       </c>
       <c r="L27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M27" t="s">
         <v>93</v>
       </c>
       <c r="N27">
-        <v>5999</v>
+        <v>17000</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q27" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S27" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB27" t="s">
         <v>139</v>
       </c>
-      <c r="S27" t="s">
+      <c r="AC27" t="s">
         <v>140</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="AD27" t="s">
         <v>141</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AE27" t="s">
         <v>143</v>
       </c>
-      <c r="AC27" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>147</v>
-      </c>
       <c r="AG27" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AH27" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AN27">
         <v>48</v>
@@ -3684,13 +3629,13 @@
         <v>50</v>
       </c>
       <c r="AQ27" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="AS27" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AT27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AU27">
         <v>30</v>
@@ -3699,51 +3644,51 @@
         <v>120</v>
       </c>
       <c r="AW27" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:49">
       <c r="A28">
-        <v>10468</v>
+        <v>10498</v>
       </c>
       <c r="L28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M28" t="s">
         <v>94</v>
       </c>
       <c r="N28">
-        <v>17000</v>
+        <v>9999</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q28" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S28" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB28" t="s">
         <v>139</v>
       </c>
-      <c r="S28" t="s">
+      <c r="AC28" t="s">
         <v>140</v>
       </c>
-      <c r="AA28" t="s">
+      <c r="AD28" t="s">
         <v>141</v>
       </c>
-      <c r="AB28" t="s">
+      <c r="AE28" t="s">
         <v>143</v>
       </c>
-      <c r="AC28" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>147</v>
-      </c>
       <c r="AG28" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AH28" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AN28">
         <v>48</v>
@@ -3755,13 +3700,13 @@
         <v>50</v>
       </c>
       <c r="AQ28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AS28" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AT28" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="AU28">
         <v>30</v>
@@ -3770,51 +3715,51 @@
         <v>120</v>
       </c>
       <c r="AW28" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:49">
       <c r="A29">
-        <v>10498</v>
+        <v>10550</v>
       </c>
       <c r="L29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M29" t="s">
         <v>95</v>
       </c>
       <c r="N29">
-        <v>9999</v>
+        <v>14999</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q29" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S29" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB29" t="s">
         <v>139</v>
       </c>
-      <c r="S29" t="s">
+      <c r="AC29" t="s">
         <v>140</v>
       </c>
-      <c r="AA29" t="s">
+      <c r="AD29" t="s">
         <v>141</v>
       </c>
-      <c r="AB29" t="s">
+      <c r="AE29" t="s">
         <v>143</v>
       </c>
-      <c r="AC29" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>147</v>
-      </c>
       <c r="AG29" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AH29" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AN29">
         <v>48</v>
@@ -3826,13 +3771,13 @@
         <v>50</v>
       </c>
       <c r="AQ29" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AS29" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AT29" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AU29">
         <v>30</v>
@@ -3841,51 +3786,51 @@
         <v>120</v>
       </c>
       <c r="AW29" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:49">
       <c r="A30">
-        <v>10550</v>
+        <v>10533</v>
       </c>
       <c r="L30" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="M30" t="s">
         <v>96</v>
       </c>
       <c r="N30">
-        <v>14999</v>
+        <v>9999</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q30" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S30" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB30" t="s">
         <v>139</v>
       </c>
-      <c r="S30" t="s">
+      <c r="AC30" t="s">
         <v>140</v>
       </c>
-      <c r="AA30" t="s">
+      <c r="AD30" t="s">
         <v>141</v>
       </c>
-      <c r="AB30" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>145</v>
-      </c>
       <c r="AE30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AG30" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AH30" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AN30">
         <v>48</v>
@@ -3897,13 +3842,13 @@
         <v>50</v>
       </c>
       <c r="AQ30" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AS30" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AT30" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="AU30">
         <v>30</v>
@@ -3912,51 +3857,51 @@
         <v>120</v>
       </c>
       <c r="AW30" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:49">
       <c r="A31">
-        <v>10533</v>
+        <v>10461</v>
       </c>
       <c r="L31" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="M31" t="s">
         <v>97</v>
       </c>
       <c r="N31">
-        <v>9999</v>
+        <v>11999</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q31" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S31" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB31" t="s">
         <v>139</v>
       </c>
-      <c r="S31" t="s">
+      <c r="AC31" t="s">
         <v>140</v>
       </c>
-      <c r="AA31" t="s">
+      <c r="AD31" t="s">
         <v>141</v>
       </c>
-      <c r="AB31" t="s">
+      <c r="AE31" t="s">
         <v>143</v>
       </c>
-      <c r="AC31" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>153</v>
-      </c>
       <c r="AG31" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AH31" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AN31">
         <v>48</v>
@@ -3968,10 +3913,10 @@
         <v>50</v>
       </c>
       <c r="AQ31" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AS31" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AT31" t="s">
         <v>176</v>
@@ -3983,51 +3928,51 @@
         <v>120</v>
       </c>
       <c r="AW31" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:49">
       <c r="A32">
-        <v>10461</v>
+        <v>10547</v>
       </c>
       <c r="L32" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M32" t="s">
         <v>98</v>
       </c>
       <c r="N32">
-        <v>11999</v>
+        <v>9999</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q32" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S32" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB32" t="s">
         <v>139</v>
       </c>
-      <c r="S32" t="s">
+      <c r="AC32" t="s">
         <v>140</v>
       </c>
-      <c r="AA32" t="s">
+      <c r="AD32" t="s">
         <v>141</v>
       </c>
-      <c r="AB32" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>145</v>
-      </c>
       <c r="AE32" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AG32" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AH32" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AN32">
         <v>48</v>
@@ -4039,13 +3984,13 @@
         <v>50</v>
       </c>
       <c r="AQ32" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AS32" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT32" t="s">
         <v>180</v>
-      </c>
-      <c r="AT32" t="s">
-        <v>181</v>
       </c>
       <c r="AU32">
         <v>30</v>
@@ -4054,51 +3999,51 @@
         <v>120</v>
       </c>
       <c r="AW32" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:49">
       <c r="A33">
-        <v>10531</v>
+        <v>10530</v>
       </c>
       <c r="L33" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M33" t="s">
         <v>99</v>
       </c>
       <c r="N33">
-        <v>9999</v>
+        <v>3499</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q33" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S33" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB33" t="s">
         <v>139</v>
       </c>
-      <c r="S33" t="s">
+      <c r="AC33" t="s">
         <v>140</v>
       </c>
-      <c r="AA33" t="s">
+      <c r="AD33" t="s">
         <v>141</v>
       </c>
-      <c r="AB33" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>145</v>
-      </c>
       <c r="AE33" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="AG33" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AH33" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AN33">
         <v>48</v>
@@ -4110,10 +4055,10 @@
         <v>50</v>
       </c>
       <c r="AQ33" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="AS33" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AT33" t="s">
         <v>176</v>
@@ -4125,51 +4070,51 @@
         <v>120</v>
       </c>
       <c r="AW33" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:49">
       <c r="A34">
-        <v>10547</v>
+        <v>10541</v>
       </c>
       <c r="L34" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="M34" t="s">
         <v>100</v>
       </c>
       <c r="N34">
-        <v>9999</v>
+        <v>4999</v>
       </c>
       <c r="O34" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q34" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="Q34" s="2" t="s">
+      <c r="S34" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB34" t="s">
         <v>139</v>
       </c>
-      <c r="S34" t="s">
+      <c r="AC34" t="s">
         <v>140</v>
       </c>
-      <c r="AA34" t="s">
+      <c r="AD34" t="s">
         <v>141</v>
       </c>
-      <c r="AB34" t="s">
+      <c r="AE34" t="s">
         <v>143</v>
       </c>
-      <c r="AC34" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>153</v>
-      </c>
       <c r="AG34" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AH34" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AN34">
         <v>48</v>
@@ -4181,13 +4126,13 @@
         <v>50</v>
       </c>
       <c r="AQ34" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="AS34" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AT34" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AU34">
         <v>30</v>
@@ -4196,51 +4141,51 @@
         <v>120</v>
       </c>
       <c r="AW34" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:49">
       <c r="A35">
-        <v>10530</v>
+        <v>10319</v>
       </c>
       <c r="L35" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M35" t="s">
         <v>101</v>
       </c>
       <c r="N35">
-        <v>3499</v>
+        <v>2999</v>
       </c>
       <c r="O35" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S35" t="s">
         <v>136</v>
       </c>
-      <c r="Q35" s="2" t="s">
+      <c r="AA35" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB35" t="s">
         <v>139</v>
       </c>
-      <c r="S35" t="s">
+      <c r="AC35" t="s">
         <v>140</v>
       </c>
-      <c r="AA35" t="s">
+      <c r="AD35" t="s">
         <v>141</v>
       </c>
-      <c r="AB35" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>145</v>
-      </c>
       <c r="AE35" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG35" t="s">
         <v>150</v>
       </c>
-      <c r="AG35" t="s">
-        <v>154</v>
-      </c>
       <c r="AH35" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AN35">
         <v>48</v>
@@ -4252,13 +4197,13 @@
         <v>50</v>
       </c>
       <c r="AQ35" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="AS35" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AT35" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="AU35">
         <v>30</v>
@@ -4267,149 +4212,7 @@
         <v>120</v>
       </c>
       <c r="AW35" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="36" spans="1:49">
-      <c r="A36">
-        <v>10541</v>
-      </c>
-      <c r="L36" t="s">
-        <v>56</v>
-      </c>
-      <c r="M36" t="s">
-        <v>102</v>
-      </c>
-      <c r="N36">
-        <v>4999</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q36" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="S36" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG36" t="s">
-        <v>154</v>
-      </c>
-      <c r="AH36" t="s">
-        <v>155</v>
-      </c>
-      <c r="AN36">
-        <v>48</v>
-      </c>
-      <c r="AO36">
-        <v>45</v>
-      </c>
-      <c r="AP36">
-        <v>50</v>
-      </c>
-      <c r="AQ36" t="s">
-        <v>158</v>
-      </c>
-      <c r="AS36" t="s">
-        <v>180</v>
-      </c>
-      <c r="AT36" t="s">
         <v>181</v>
-      </c>
-      <c r="AU36">
-        <v>30</v>
-      </c>
-      <c r="AV36">
-        <v>120</v>
-      </c>
-      <c r="AW36" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="37" spans="1:49">
-      <c r="A37">
-        <v>10319</v>
-      </c>
-      <c r="L37" t="s">
-        <v>54</v>
-      </c>
-      <c r="M37" t="s">
-        <v>103</v>
-      </c>
-      <c r="N37">
-        <v>2999</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="S37" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>152</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>154</v>
-      </c>
-      <c r="AH37" t="s">
-        <v>155</v>
-      </c>
-      <c r="AN37">
-        <v>48</v>
-      </c>
-      <c r="AO37">
-        <v>45</v>
-      </c>
-      <c r="AP37">
-        <v>50</v>
-      </c>
-      <c r="AQ37" t="s">
-        <v>174</v>
-      </c>
-      <c r="AS37" t="s">
-        <v>180</v>
-      </c>
-      <c r="AT37" t="s">
-        <v>177</v>
-      </c>
-      <c r="AU37">
-        <v>30</v>
-      </c>
-      <c r="AV37">
-        <v>120</v>
-      </c>
-      <c r="AW37" t="s">
-        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -4482,10 +4285,6 @@
     <hyperlink ref="Q34" r:id="rId66"/>
     <hyperlink ref="O35" r:id="rId67"/>
     <hyperlink ref="Q35" r:id="rId68"/>
-    <hyperlink ref="O36" r:id="rId69"/>
-    <hyperlink ref="Q36" r:id="rId70"/>
-    <hyperlink ref="O37" r:id="rId71"/>
-    <hyperlink ref="Q37" r:id="rId72"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/comp armchair.xlsx
+++ b/make_xl/data_xl/comp armchair.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31AE842-F21C-4C99-8F20-6B0250246AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="200">
   <si>
     <t>Id</t>
   </si>
@@ -218,6 +224,15 @@
   </si>
   <si>
     <t>Кресло руководителя кожа</t>
+  </si>
+  <si>
+    <t>Кресло офисное Швейцария Vitra</t>
+  </si>
+  <si>
+    <t>Стул кресло Vitra</t>
+  </si>
+  <si>
+    <t>Кресло компьютерное для руководителя</t>
   </si>
   <si>
     <t>Кресло с высокой спинкой (10371) 
@@ -990,6 +1005,175 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t>Кресло офисное Швейцария Vitra
+Артикул 20474
+Офисное кресло Soft Pad Chairs от Vitra – элегантность и комфорт в каждой детали
+Погрузитесь в мир безупречного стиля и ergonomic-совершенства с офисным креслом Soft Pad Chairs от легендарного швейцарского бренда Vitra. Это кресло – результат творческого союза культовых дизайнеров Charles &amp; Ray Eames и передовых технологий производства.
+--&gt; Премиальные материалы: Кресло сочетает в себе роскошь натуральной кожи и прочность металла. Кожаное покрытие приятно на ощупь, долговечно и подчеркивает статус владельца, а металлическая основа обеспечивает надежность и устойчивость.
+--&gt; Швейцарское качество: Каждое кресло Soft Pad Chairs проходит строгий контроль, чтобы гарантировать долговечность и безупречную функциональность.
+--&gt; Идеальная эргономика: Мягкие подушки и продуманная конструкция обеспечивают оптимальную поддержку спины, снижая нагрузку на позвоночник.
+Цвет
+Цена 59 999
+Количество 2 шт
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Стул кресло Vitra
+Артикул 204741
+Офисное кресло Soft Pad Chairs от Vitra – элегантность и комфорт в каждой детали
+Погрузитесь в мир безупречного стиля и ergonomic-совершенства с офисным креслом Soft Pad Chairs от легендарного швейцарского бренда Vitra. Это кресло – результат творческого союза культовых дизайнеров Charles &amp; Ray Eames и передовых технологий производства.
+--&gt; Премиальные материалы: Кресло сочетает в себе роскошь натуральной кожи и прочность металла. Кожаное покрытие приятно на ощупь, долговечно и подчеркивает статус владельца, а металлическая основа обеспечивает надежность и устойчивость.
+--&gt; Швейцарское качество: Каждое кресло Soft Pad Chairs проходит строгий контроль, чтобы гарантировать долговечность и безупречную функциональность.
+--&gt; Идеальная эргономика: Мягкие подушки и продуманная конструкция обеспечивают оптимальную поддержку спины, снижая нагрузку на позвоночник.
+Цвет чёрный
+Цена 44 999
+Количество 3
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Офисное кресло
+Артикул 105581
+Компьютерное кресло для топ менеджеров и офисных работников.
+Офисное кресло имеет элегантный вид, выполнено из кожзама. Регулировка высоты сидения и режим качания с фиксацией в нескольких положениях. 
+Цвет черный
+Цена 11 999
+Количество 3
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Офисное кресло
+Артикул 10558
+Компьютерное кресло для топ менеджеров и офисных работников.
+Офисное кресло имеет элегантный вид, выполнено из кожзама. Регулировка высоты сидения и режим качания с фиксацией в верхнем положении. 
+Цвет черный
+Цена 11 999
+Количество 4
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Кресло компьютерное
+Артикул 10559
+Офисное компьютерное кресло с 5 регулировками, дышашим, приятным материалом и хорошей эргономикой. 
+Кресло выдерживает вес до 100 кг 
+Цвет чёрный 
+Цена 9 999
+Количество 1
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кресло компьютерное для руководителя
+Артикул 10562
+Компьютерное кресло от известной компании из Беларуси Bels.
+Комфортное кресло выдерживает до 150 кг.
+Регклировки:
+Подголовник - по высоте и наклон
+Ручки - вперёд-назад, право-лево
+Механизм качания с фиксацией в верхнем положении
+Высота сидения
+Цвет
+Цена 14 999
+Количество 3
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кресло компьютерное
+Артикул 10561
+Кресло для офиса и дома из дишашего сетчатого материала и механизмом качания
+Цвет чёрный 
+Цена 7 999
+Количество 5 шт
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/ZDiUdOWTq7XF1g | https://disk.yandex.ru/i/a_u5CWPrYhAoIA | https://disk.yandex.ru/i/2U4SaFSBylFuSg | https://disk.yandex.ru/i/5xCnmpLS2Ky7dQ | https://disk.yandex.ru/i/ugTACqRM4oAMBA</t>
   </si>
   <si>
@@ -1089,6 +1273,27 @@
     <t>https://disk.yandex.ru/i/NKP_TXRNUjL6lA | https://disk.yandex.ru/i/2CmiBcBkzWFc5w | https://disk.yandex.ru/i/z9pNQtrNeWeUTw | https://disk.yandex.ru/i/gp_ZjLUi6fUkUQ | https://disk.yandex.ru/i/AQQtUlTOWsxRtw | https://disk.yandex.ru/i/K3YrQOwDy7SPgw | https://disk.yandex.ru/i/f31MV5WAxKb5Ng</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/XIynD58I7I0oRQ | https://disk.yandex.ru/i/eg7Z6dorDQAHqA | https://disk.yandex.ru/i/iWeq84rUSPYflw | https://disk.yandex.ru/i/XOzo4A2xsz-MmQ | https://disk.yandex.ru/i/dmi0RIH3iRuRxg | https://disk.yandex.ru/i/tT0rm7_VJAEP7g | https://disk.yandex.ru/i/SVc4nFnBghHUYg | https://disk.yandex.ru/i/in2NJeoZ9o36gA | https://disk.yandex.ru/i/YFIWKiRLok5gYA | https://disk.yandex.ru/i/c6QvS66UzHZHGg | https://disk.yandex.ru/i/X-tb1ZiCQ1gF0A | https://disk.yandex.ru/i/WUD2iKwJXRZ6fw | https://disk.yandex.ru/i/PA0sZLjaFyCVbA | https://disk.yandex.ru/i/FVE2frCJr8dR-w | https://disk.yandex.ru/i/7VPj9OExEgr81g | https://disk.yandex.ru/i/LeU9cK36DRf8jg | https://disk.yandex.ru/i/CzkzIiEMx_Amng | https://disk.yandex.ru/i/D6A_UMPcYnu3WA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/YFIWKiRLok5gYA | https://disk.yandex.ru/i/c6QvS66UzHZHGg | https://disk.yandex.ru/i/X-tb1ZiCQ1gF0A | https://disk.yandex.ru/i/WUD2iKwJXRZ6fw | https://disk.yandex.ru/i/PA0sZLjaFyCVbA | https://disk.yandex.ru/i/FVE2frCJr8dR-w | https://disk.yandex.ru/i/7VPj9OExEgr81g | https://disk.yandex.ru/i/LeU9cK36DRf8jg | https://disk.yandex.ru/i/CzkzIiEMx_Amng | https://disk.yandex.ru/i/D6A_UMPcYnu3WA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/GPznqOlAeHpq-A | https://disk.yandex.ru/i/4bPR0nZ3bq_nxw | https://disk.yandex.ru/i/IheE6Jw3spmL8A | https://disk.yandex.ru/i/sRfQPdSk18Butw | https://disk.yandex.ru/i/LagtNZkX8N08FA | https://disk.yandex.ru/i/eciPn31McPlJFw | https://disk.yandex.ru/i/MQYaXGWktL8XWg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/kg0Z443QO_3e7g | https://disk.yandex.ru/i/a3dHNDdYeS1qfw | https://disk.yandex.ru/i/3yFKlMg2J4ui2Q | https://disk.yandex.ru/i/bvKx808uELZWKg | https://disk.yandex.ru/i/rnzGIC_q6Gg-gg | https://disk.yandex.ru/i/_upWJUtgZixdHg | https://disk.yandex.ru/i/CK8tzoSe3Uf0hA | https://disk.yandex.ru/i/2phruQc3ffXSKg | https://disk.yandex.ru/i/GPznqOlAeHpq-A | https://disk.yandex.ru/i/4bPR0nZ3bq_nxw | https://disk.yandex.ru/i/IheE6Jw3spmL8A | https://disk.yandex.ru/i/sRfQPdSk18Butw | https://disk.yandex.ru/i/LagtNZkX8N08FA | https://disk.yandex.ru/i/eciPn31McPlJFw | https://disk.yandex.ru/i/MQYaXGWktL8XWg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/sXNOKWRxkJVNeA | https://disk.yandex.ru/i/vMfCTB-yUv-QYA | https://disk.yandex.ru/i/bQtT2IW6jnwk9g | https://disk.yandex.ru/i/bGxnhtDvT9blLA | https://disk.yandex.ru/i/4jdTAMzGtT-wcA | https://disk.yandex.ru/i/jxLjWcV1_SJpAw | https://disk.yandex.ru/i/Jdlb-6TIDgKUWA | https://disk.yandex.ru/i/rKHJq9k_-JbiMA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/vRvIJAjT03Lcug | https://disk.yandex.ru/i/hbjVU_G5c5h2Hg | https://disk.yandex.ru/i/JUyod2FwPxwrhA | https://disk.yandex.ru/i/Drh5jnAh4JqmbA | https://disk.yandex.ru/i/OB8SaAcEMHsdwQ | https://disk.yandex.ru/i/55Jvvb1NBPWFeA | https://disk.yandex.ru/i/o8DSHzqW1R4B_w | https://disk.yandex.ru/i/OgxDe-dr32YxSA | https://disk.yandex.ru/i/TkXhABu-UCvd4A</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/8s3-pFh4RYkTdg | https://disk.yandex.ru/i/lySUY6T_h_O-MQ | https://disk.yandex.ru/i/bMfw9dCjHPdaSA | https://disk.yandex.ru/i/7FVJSopMwjfMmg | https://disk.yandex.ru/i/VYWqAy_HH6TOZg | https://disk.yandex.ru/i/Bcbw5YBduCbzrA | https://disk.yandex.ru/i/PjU7M6ow1AC8yQ | https://disk.yandex.ru/i/BG_ndGSDMlQpSw | https://disk.yandex.ru/i/zGte8T9b4Fo70g</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -1192,6 +1397,9 @@
   </si>
   <si>
     <t>Подлокотники | Регулировка наклона спинки</t>
+  </si>
+  <si>
+    <t>Подлокотники | Поясничный упор</t>
   </si>
   <si>
     <t>Замша</t>
@@ -1233,8 +1441,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1305,18 +1513,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1354,9 +1570,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1388,9 +1604,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1422,9 +1656,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1597,14 +1849,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AW35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AW42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD42"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:49">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1753,7 +2007,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:49">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1761,40 +2015,40 @@
         <v>49</v>
       </c>
       <c r="M2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N2">
         <v>5499</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="S2" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AA2" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="AB2" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="AC2" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="AD2" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="AE2" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="AG2" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AH2" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="AN2">
         <v>50</v>
@@ -1806,16 +2060,16 @@
         <v>50</v>
       </c>
       <c r="AQ2" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="AR2" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="AS2" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AT2" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="AU2">
         <v>30</v>
@@ -1824,10 +2078,10 @@
         <v>120</v>
       </c>
       <c r="AW2" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:49">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10031</v>
       </c>
@@ -1835,40 +2089,40 @@
         <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N3">
         <v>7000</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="S3" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AA3" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="AB3" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="AC3" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="AD3" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="AE3" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="AG3" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AH3" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="AN3">
         <v>50</v>
@@ -1880,13 +2134,13 @@
         <v>50</v>
       </c>
       <c r="AQ3" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="AS3" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AT3" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="AU3">
         <v>31</v>
@@ -1895,10 +2149,10 @@
         <v>70</v>
       </c>
       <c r="AW3" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:49">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10301</v>
       </c>
@@ -1906,40 +2160,40 @@
         <v>51</v>
       </c>
       <c r="M4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N4">
         <v>2999</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="S4" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AA4" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="AB4" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="AC4" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="AD4" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="AE4" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="AG4" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AH4" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="AN4">
         <v>45</v>
@@ -1951,16 +2205,16 @@
         <v>40</v>
       </c>
       <c r="AQ4" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="AR4" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="AS4" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AT4" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="AU4">
         <v>30</v>
@@ -1969,10 +2223,10 @@
         <v>80</v>
       </c>
       <c r="AW4" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:49">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10301</v>
       </c>
@@ -1980,40 +2234,40 @@
         <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N5">
         <v>3999</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="S5" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AA5" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="AB5" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="AC5" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="AD5" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="AE5" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="AG5" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AH5" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="AN5">
         <v>48</v>
@@ -2025,16 +2279,16 @@
         <v>50</v>
       </c>
       <c r="AQ5" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="AR5" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="AS5" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AT5" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="AU5">
         <v>30</v>
@@ -2043,10 +2297,10 @@
         <v>90</v>
       </c>
       <c r="AW5" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:49">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10301</v>
       </c>
@@ -2054,40 +2308,40 @@
         <v>53</v>
       </c>
       <c r="M6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N6">
         <v>3499</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="S6" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AA6" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="AB6" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="AC6" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="AD6" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="AE6" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="AG6" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AH6" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="AN6">
         <v>50</v>
@@ -2099,13 +2353,13 @@
         <v>50</v>
       </c>
       <c r="AQ6" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="AS6" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AT6" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="AU6">
         <v>30</v>
@@ -2114,10 +2368,10 @@
         <v>120</v>
       </c>
       <c r="AW6" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:49">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10302</v>
       </c>
@@ -2125,40 +2379,40 @@
         <v>49</v>
       </c>
       <c r="M7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="N7">
         <v>1499</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="S7" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AA7" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="AB7" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="AC7" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="AD7" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="AE7" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="AG7" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AH7" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="AN7">
         <v>45</v>
@@ -2170,16 +2424,16 @@
         <v>50</v>
       </c>
       <c r="AQ7" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="AR7" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="AS7" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AT7" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="AU7">
         <v>30</v>
@@ -2188,10 +2442,10 @@
         <v>75</v>
       </c>
       <c r="AW7" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:49">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10310</v>
       </c>
@@ -2199,40 +2453,40 @@
         <v>50</v>
       </c>
       <c r="M8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N8">
         <v>3100</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="S8" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AA8" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="AB8" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="AC8" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="AD8" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="AE8" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="AG8" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AH8" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="AN8">
         <v>48</v>
@@ -2244,16 +2498,16 @@
         <v>45</v>
       </c>
       <c r="AQ8" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="AR8" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="AS8" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AT8" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="AU8">
         <v>30</v>
@@ -2262,10 +2516,10 @@
         <v>80</v>
       </c>
       <c r="AW8" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:49">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10316</v>
       </c>
@@ -2273,40 +2527,40 @@
         <v>54</v>
       </c>
       <c r="M9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N9">
         <v>3499</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="S9" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AA9" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="AB9" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="AC9" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="AD9" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="AE9" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="AG9" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AH9" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="AN9">
         <v>48</v>
@@ -2318,16 +2572,16 @@
         <v>50</v>
       </c>
       <c r="AQ9" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="AR9" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="AS9" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AT9" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="AU9">
         <v>30</v>
@@ -2336,10 +2590,10 @@
         <v>80</v>
       </c>
       <c r="AW9" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:49">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10316</v>
       </c>
@@ -2347,40 +2601,40 @@
         <v>55</v>
       </c>
       <c r="M10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N10">
         <v>3499</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="S10" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AA10" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="AB10" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="AC10" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="AD10" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="AE10" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="AG10" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AH10" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="AN10">
         <v>50</v>
@@ -2392,13 +2646,13 @@
         <v>50</v>
       </c>
       <c r="AQ10" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="AS10" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AT10" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="AU10">
         <v>30</v>
@@ -2407,10 +2661,10 @@
         <v>120</v>
       </c>
       <c r="AW10" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:49">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10317</v>
       </c>
@@ -2418,40 +2672,40 @@
         <v>51</v>
       </c>
       <c r="M11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="N11">
         <v>3999</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="S11" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AA11" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="AB11" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="AC11" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="AD11" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="AE11" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="AG11" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AH11" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="AN11">
         <v>50</v>
@@ -2463,16 +2717,16 @@
         <v>48</v>
       </c>
       <c r="AQ11" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="AR11" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="AS11" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AT11" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="AU11">
         <v>30</v>
@@ -2481,10 +2735,10 @@
         <v>100</v>
       </c>
       <c r="AW11" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:49">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10336</v>
       </c>
@@ -2492,40 +2746,40 @@
         <v>56</v>
       </c>
       <c r="M12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="N12">
         <v>2300</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="S12" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AA12" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="AB12" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="AC12" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="AD12" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="AE12" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="AG12" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AH12" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="AN12">
         <v>48</v>
@@ -2537,16 +2791,16 @@
         <v>50</v>
       </c>
       <c r="AQ12" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="AR12" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="AS12" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AT12" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="AU12">
         <v>31</v>
@@ -2555,10 +2809,10 @@
         <v>70</v>
       </c>
       <c r="AW12" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:49">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10368</v>
       </c>
@@ -2566,40 +2820,40 @@
         <v>57</v>
       </c>
       <c r="M13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N13">
         <v>3999</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="S13" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AA13" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="AB13" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="AC13" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="AD13" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="AE13" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AH13" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="AN13">
         <v>50</v>
@@ -2611,16 +2865,16 @@
         <v>50</v>
       </c>
       <c r="AQ13" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="AR13" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="AS13" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AT13" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="AU13">
         <v>30</v>
@@ -2629,10 +2883,10 @@
         <v>120</v>
       </c>
       <c r="AW13" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:49">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10371</v>
       </c>
@@ -2640,40 +2894,40 @@
         <v>58</v>
       </c>
       <c r="M14" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="N14">
         <v>5999</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="S14" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AA14" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="AB14" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="AC14" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="AD14" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="AE14" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="AG14" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AH14" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="AN14">
         <v>50</v>
@@ -2685,16 +2939,16 @@
         <v>50</v>
       </c>
       <c r="AQ14" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="AR14" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="AS14" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AT14" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="AU14">
         <v>30</v>
@@ -2703,10 +2957,10 @@
         <v>120</v>
       </c>
       <c r="AW14" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:49">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10420</v>
       </c>
@@ -2714,40 +2968,40 @@
         <v>56</v>
       </c>
       <c r="M15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="N15">
         <v>9999</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="S15" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AA15" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="AB15" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="AC15" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="AD15" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="AE15" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="AG15" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AH15" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="AN15">
         <v>50</v>
@@ -2759,16 +3013,16 @@
         <v>50</v>
       </c>
       <c r="AQ15" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="AR15" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="AS15" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AT15" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="AU15">
         <v>30</v>
@@ -2777,10 +3031,10 @@
         <v>120</v>
       </c>
       <c r="AW15" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:49">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10424</v>
       </c>
@@ -2788,40 +3042,40 @@
         <v>50</v>
       </c>
       <c r="M16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N16">
         <v>7999</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="S16" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AA16" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="AB16" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="AC16" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="AD16" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="AE16" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="AG16" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AH16" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="AN16">
         <v>50</v>
@@ -2833,16 +3087,16 @@
         <v>50</v>
       </c>
       <c r="AQ16" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="AR16" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="AS16" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AT16" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="AU16">
         <v>30</v>
@@ -2851,10 +3105,10 @@
         <v>120</v>
       </c>
       <c r="AW16" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:49">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10443</v>
       </c>
@@ -2862,40 +3116,40 @@
         <v>58</v>
       </c>
       <c r="M17" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N17">
         <v>10500</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="S17" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AA17" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="AB17" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="AC17" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="AD17" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="AE17" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="AG17" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AH17" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="AN17">
         <v>55</v>
@@ -2907,16 +3161,16 @@
         <v>50</v>
       </c>
       <c r="AQ17" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="AR17" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="AS17" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AT17" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="AU17">
         <v>35</v>
@@ -2925,10 +3179,10 @@
         <v>150</v>
       </c>
       <c r="AW17" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:49">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10460</v>
       </c>
@@ -2936,40 +3190,40 @@
         <v>59</v>
       </c>
       <c r="M18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N18">
         <v>7999</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="S18" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AA18" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="AB18" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="AC18" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="AD18" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="AE18" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="AG18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AH18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="AN18">
         <v>48</v>
@@ -2981,16 +3235,16 @@
         <v>50</v>
       </c>
       <c r="AQ18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="AR18" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="AS18" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AT18" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="AU18">
         <v>30</v>
@@ -2999,10 +3253,10 @@
         <v>100</v>
       </c>
       <c r="AW18" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:49">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10494</v>
       </c>
@@ -3010,40 +3264,40 @@
         <v>58</v>
       </c>
       <c r="M19" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N19">
         <v>7999</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="S19" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AA19" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="AB19" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="AC19" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="AD19" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="AE19" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AH19" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="AN19">
         <v>55</v>
@@ -3055,16 +3309,16 @@
         <v>50</v>
       </c>
       <c r="AQ19" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="AR19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="AS19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AT19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="AU19">
         <v>30</v>
@@ -3073,10 +3327,10 @@
         <v>180</v>
       </c>
       <c r="AW19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:49">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10501</v>
       </c>
@@ -3084,40 +3338,40 @@
         <v>60</v>
       </c>
       <c r="M20" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="N20">
         <v>6999</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="S20" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AA20" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="AB20" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="AC20" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="AD20" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="AE20" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="AG20" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AH20" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="AN20">
         <v>50</v>
@@ -3129,16 +3383,16 @@
         <v>53</v>
       </c>
       <c r="AQ20" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="AR20" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="AS20" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AT20" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="AU20">
         <v>30</v>
@@ -3147,10 +3401,10 @@
         <v>100</v>
       </c>
       <c r="AW20" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:49">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10522</v>
       </c>
@@ -3158,40 +3412,40 @@
         <v>61</v>
       </c>
       <c r="M21" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N21">
         <v>5999</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="S21" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AA21" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="AB21" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="AC21" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="AD21" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="AE21" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="AG21" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AH21" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="AN21">
         <v>50</v>
@@ -3203,13 +3457,13 @@
         <v>50</v>
       </c>
       <c r="AQ21" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="AS21" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AT21" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="AU21">
         <v>30</v>
@@ -3218,10 +3472,10 @@
         <v>80</v>
       </c>
       <c r="AW21" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:49">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10532</v>
       </c>
@@ -3229,40 +3483,40 @@
         <v>51</v>
       </c>
       <c r="M22" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N22">
         <v>7999</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="S22" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AA22" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="AB22" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="AC22" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="AD22" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="AE22" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="AG22" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AH22" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="AN22">
         <v>48</v>
@@ -3274,13 +3528,13 @@
         <v>50</v>
       </c>
       <c r="AQ22" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="AS22" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AT22" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="AU22">
         <v>30</v>
@@ -3289,10 +3543,10 @@
         <v>120</v>
       </c>
       <c r="AW22" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:49">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10532</v>
       </c>
@@ -3300,40 +3554,40 @@
         <v>51</v>
       </c>
       <c r="M23" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="N23">
         <v>7999</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="S23" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AA23" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="AB23" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="AC23" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="AD23" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="AE23" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="AG23" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AH23" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="AN23">
         <v>48</v>
@@ -3345,13 +3599,13 @@
         <v>50</v>
       </c>
       <c r="AQ23" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="AS23" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AT23" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="AU23">
         <v>30</v>
@@ -3360,10 +3614,10 @@
         <v>120</v>
       </c>
       <c r="AW23" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:49">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10410</v>
       </c>
@@ -3371,40 +3625,40 @@
         <v>62</v>
       </c>
       <c r="M24" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N24">
         <v>12000</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="S24" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AA24" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="AB24" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="AC24" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="AD24" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="AE24" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="AG24" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AH24" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="AN24">
         <v>48</v>
@@ -3416,13 +3670,13 @@
         <v>50</v>
       </c>
       <c r="AQ24" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="AS24" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AT24" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="AU24">
         <v>30</v>
@@ -3431,10 +3685,10 @@
         <v>120</v>
       </c>
       <c r="AW24" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:49">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10301</v>
       </c>
@@ -3442,40 +3696,40 @@
         <v>63</v>
       </c>
       <c r="M25" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N25">
         <v>2999</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="S25" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AA25" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="AB25" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="AC25" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="AD25" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="AE25" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="AG25" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AH25" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="AN25">
         <v>48</v>
@@ -3487,13 +3741,13 @@
         <v>50</v>
       </c>
       <c r="AQ25" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="AS25" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AT25" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="AU25">
         <v>30</v>
@@ -3502,10 +3756,10 @@
         <v>120</v>
       </c>
       <c r="AW25" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="26" spans="1:49">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10542</v>
       </c>
@@ -3513,40 +3767,40 @@
         <v>64</v>
       </c>
       <c r="M26" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N26">
         <v>5999</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="S26" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AA26" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="AB26" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="AC26" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="AD26" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="AE26" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="AG26" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AH26" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="AN26">
         <v>48</v>
@@ -3558,13 +3812,13 @@
         <v>50</v>
       </c>
       <c r="AQ26" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="AS26" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AT26" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="AU26">
         <v>30</v>
@@ -3573,10 +3827,10 @@
         <v>120</v>
       </c>
       <c r="AW26" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="27" spans="1:49">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10468</v>
       </c>
@@ -3584,40 +3838,40 @@
         <v>65</v>
       </c>
       <c r="M27" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="N27">
         <v>17000</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="S27" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AA27" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="AB27" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="AC27" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="AD27" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="AE27" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="AG27" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AH27" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="AN27">
         <v>48</v>
@@ -3629,13 +3883,13 @@
         <v>50</v>
       </c>
       <c r="AQ27" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="AS27" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AT27" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="AU27">
         <v>30</v>
@@ -3644,10 +3898,10 @@
         <v>120</v>
       </c>
       <c r="AW27" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="28" spans="1:49">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10498</v>
       </c>
@@ -3655,40 +3909,40 @@
         <v>66</v>
       </c>
       <c r="M28" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="N28">
         <v>9999</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="S28" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AA28" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="AB28" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="AC28" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="AD28" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="AE28" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="AG28" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AH28" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="AN28">
         <v>48</v>
@@ -3700,13 +3954,13 @@
         <v>50</v>
       </c>
       <c r="AQ28" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="AS28" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AT28" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="AU28">
         <v>30</v>
@@ -3715,10 +3969,10 @@
         <v>120</v>
       </c>
       <c r="AW28" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:49">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10550</v>
       </c>
@@ -3726,40 +3980,40 @@
         <v>67</v>
       </c>
       <c r="M29" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="N29">
         <v>14999</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="S29" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AA29" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="AB29" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="AC29" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="AD29" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="AE29" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="AG29" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AH29" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="AN29">
         <v>48</v>
@@ -3771,13 +4025,13 @@
         <v>50</v>
       </c>
       <c r="AQ29" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="AS29" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AT29" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="AU29">
         <v>30</v>
@@ -3786,10 +4040,10 @@
         <v>120</v>
       </c>
       <c r="AW29" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:49">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10533</v>
       </c>
@@ -3797,40 +4051,40 @@
         <v>50</v>
       </c>
       <c r="M30" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N30">
         <v>9999</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="S30" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AA30" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="AB30" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="AC30" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="AD30" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="AE30" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="AG30" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AH30" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="AN30">
         <v>48</v>
@@ -3842,13 +4096,13 @@
         <v>50</v>
       </c>
       <c r="AQ30" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="AS30" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AT30" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="AU30">
         <v>30</v>
@@ -3857,10 +4111,10 @@
         <v>120</v>
       </c>
       <c r="AW30" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="31" spans="1:49">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10461</v>
       </c>
@@ -3868,40 +4122,40 @@
         <v>56</v>
       </c>
       <c r="M31" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="N31">
         <v>11999</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="S31" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AA31" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="AB31" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="AC31" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="AD31" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="AE31" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="AG31" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AH31" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="AN31">
         <v>48</v>
@@ -3913,13 +4167,13 @@
         <v>50</v>
       </c>
       <c r="AQ31" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="AS31" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AT31" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="AU31">
         <v>30</v>
@@ -3928,10 +4182,10 @@
         <v>120</v>
       </c>
       <c r="AW31" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="32" spans="1:49">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10547</v>
       </c>
@@ -3939,40 +4193,40 @@
         <v>50</v>
       </c>
       <c r="M32" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N32">
         <v>9999</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="S32" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AA32" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="AB32" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="AC32" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="AD32" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="AE32" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="AG32" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AH32" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="AN32">
         <v>48</v>
@@ -3984,13 +4238,13 @@
         <v>50</v>
       </c>
       <c r="AQ32" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AS32" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AT32" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="AU32">
         <v>30</v>
@@ -3999,10 +4253,10 @@
         <v>120</v>
       </c>
       <c r="AW32" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="33" spans="1:49">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10530</v>
       </c>
@@ -4010,40 +4264,40 @@
         <v>51</v>
       </c>
       <c r="M33" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N33">
         <v>3499</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="S33" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AA33" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="AB33" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="AC33" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="AD33" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="AE33" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="AG33" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AH33" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="AN33">
         <v>48</v>
@@ -4055,13 +4309,13 @@
         <v>50</v>
       </c>
       <c r="AQ33" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="AS33" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AT33" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="AU33">
         <v>30</v>
@@ -4070,10 +4324,10 @@
         <v>120</v>
       </c>
       <c r="AW33" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="34" spans="1:49">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>10541</v>
       </c>
@@ -4081,40 +4335,40 @@
         <v>56</v>
       </c>
       <c r="M34" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="N34">
         <v>4999</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="S34" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AA34" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="AB34" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="AC34" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="AD34" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="AE34" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="AG34" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AH34" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="AN34">
         <v>48</v>
@@ -4126,13 +4380,13 @@
         <v>50</v>
       </c>
       <c r="AQ34" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="AS34" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AT34" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="AU34">
         <v>30</v>
@@ -4141,10 +4395,10 @@
         <v>120</v>
       </c>
       <c r="AW34" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:49">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10319</v>
       </c>
@@ -4152,40 +4406,40 @@
         <v>54</v>
       </c>
       <c r="M35" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="N35">
         <v>2999</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="S35" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AA35" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="AB35" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="AC35" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="AD35" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="AE35" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="AG35" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AH35" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="AN35">
         <v>48</v>
@@ -4197,13 +4451,13 @@
         <v>50</v>
       </c>
       <c r="AQ35" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AS35" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AT35" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="AU35">
         <v>30</v>
@@ -4212,79 +4466,590 @@
         <v>120</v>
       </c>
       <c r="AW35" t="s">
-        <v>181</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>20474</v>
+      </c>
+      <c r="L36" t="s">
+        <v>68</v>
+      </c>
+      <c r="M36" t="s">
+        <v>105</v>
+      </c>
+      <c r="N36">
+        <v>59999</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="S36" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN36">
+        <v>48</v>
+      </c>
+      <c r="AO36">
+        <v>45</v>
+      </c>
+      <c r="AP36">
+        <v>50</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>187</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>191</v>
+      </c>
+      <c r="AU36">
+        <v>30</v>
+      </c>
+      <c r="AV36">
+        <v>120</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>204741</v>
+      </c>
+      <c r="L37" t="s">
+        <v>69</v>
+      </c>
+      <c r="M37" t="s">
+        <v>106</v>
+      </c>
+      <c r="N37">
+        <v>44999</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="S37" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN37">
+        <v>48</v>
+      </c>
+      <c r="AO37">
+        <v>45</v>
+      </c>
+      <c r="AP37">
+        <v>50</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>187</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>193</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>191</v>
+      </c>
+      <c r="AU37">
+        <v>30</v>
+      </c>
+      <c r="AV37">
+        <v>120</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>105581</v>
+      </c>
+      <c r="L38" t="s">
+        <v>54</v>
+      </c>
+      <c r="M38" t="s">
+        <v>107</v>
+      </c>
+      <c r="N38">
+        <v>11999</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="S38" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN38">
+        <v>48</v>
+      </c>
+      <c r="AO38">
+        <v>45</v>
+      </c>
+      <c r="AP38">
+        <v>50</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>193</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>194</v>
+      </c>
+      <c r="AU38">
+        <v>30</v>
+      </c>
+      <c r="AV38">
+        <v>120</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>10558</v>
+      </c>
+      <c r="L39" t="s">
+        <v>54</v>
+      </c>
+      <c r="M39" t="s">
+        <v>108</v>
+      </c>
+      <c r="N39">
+        <v>11999</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="S39" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN39">
+        <v>48</v>
+      </c>
+      <c r="AO39">
+        <v>45</v>
+      </c>
+      <c r="AP39">
+        <v>50</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>193</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>194</v>
+      </c>
+      <c r="AU39">
+        <v>30</v>
+      </c>
+      <c r="AV39">
+        <v>120</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>10559</v>
+      </c>
+      <c r="L40" t="s">
+        <v>50</v>
+      </c>
+      <c r="M40" t="s">
+        <v>109</v>
+      </c>
+      <c r="N40">
+        <v>9999</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="S40" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN40">
+        <v>48</v>
+      </c>
+      <c r="AO40">
+        <v>45</v>
+      </c>
+      <c r="AP40">
+        <v>50</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>180</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>193</v>
+      </c>
+      <c r="AT40" t="s">
+        <v>195</v>
+      </c>
+      <c r="AU40">
+        <v>30</v>
+      </c>
+      <c r="AV40">
+        <v>120</v>
+      </c>
+      <c r="AW40" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>10562</v>
+      </c>
+      <c r="L41" t="s">
+        <v>70</v>
+      </c>
+      <c r="M41" t="s">
+        <v>110</v>
+      </c>
+      <c r="N41">
+        <v>14999</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="S41" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN41">
+        <v>48</v>
+      </c>
+      <c r="AO41">
+        <v>45</v>
+      </c>
+      <c r="AP41">
+        <v>50</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>180</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>193</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>195</v>
+      </c>
+      <c r="AU41">
+        <v>30</v>
+      </c>
+      <c r="AV41">
+        <v>120</v>
+      </c>
+      <c r="AW41" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>10561</v>
+      </c>
+      <c r="L42" t="s">
+        <v>50</v>
+      </c>
+      <c r="M42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N42">
+        <v>7999</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="S42" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN42">
+        <v>48</v>
+      </c>
+      <c r="AO42">
+        <v>45</v>
+      </c>
+      <c r="AP42">
+        <v>50</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS42" t="s">
+        <v>193</v>
+      </c>
+      <c r="AT42" t="s">
+        <v>195</v>
+      </c>
+      <c r="AU42">
+        <v>30</v>
+      </c>
+      <c r="AV42">
+        <v>120</v>
+      </c>
+      <c r="AW42" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1"/>
-    <hyperlink ref="Q2" r:id="rId2"/>
-    <hyperlink ref="O3" r:id="rId3"/>
-    <hyperlink ref="Q3" r:id="rId4"/>
-    <hyperlink ref="O4" r:id="rId5"/>
-    <hyperlink ref="Q4" r:id="rId6"/>
-    <hyperlink ref="O5" r:id="rId7"/>
-    <hyperlink ref="Q5" r:id="rId8"/>
-    <hyperlink ref="O6" r:id="rId9"/>
-    <hyperlink ref="Q6" r:id="rId10"/>
-    <hyperlink ref="O7" r:id="rId11"/>
-    <hyperlink ref="Q7" r:id="rId12"/>
-    <hyperlink ref="O8" r:id="rId13"/>
-    <hyperlink ref="Q8" r:id="rId14"/>
-    <hyperlink ref="O9" r:id="rId15"/>
-    <hyperlink ref="Q9" r:id="rId16"/>
-    <hyperlink ref="O10" r:id="rId17"/>
-    <hyperlink ref="Q10" r:id="rId18"/>
-    <hyperlink ref="O11" r:id="rId19"/>
-    <hyperlink ref="Q11" r:id="rId20"/>
-    <hyperlink ref="O12" r:id="rId21"/>
-    <hyperlink ref="Q12" r:id="rId22"/>
-    <hyperlink ref="O13" r:id="rId23"/>
-    <hyperlink ref="Q13" r:id="rId24"/>
-    <hyperlink ref="O14" r:id="rId25"/>
-    <hyperlink ref="Q14" r:id="rId26"/>
-    <hyperlink ref="O15" r:id="rId27"/>
-    <hyperlink ref="Q15" r:id="rId28"/>
-    <hyperlink ref="O16" r:id="rId29"/>
-    <hyperlink ref="Q16" r:id="rId30"/>
-    <hyperlink ref="O17" r:id="rId31"/>
-    <hyperlink ref="Q17" r:id="rId32"/>
-    <hyperlink ref="O18" r:id="rId33"/>
-    <hyperlink ref="Q18" r:id="rId34"/>
-    <hyperlink ref="O19" r:id="rId35"/>
-    <hyperlink ref="Q19" r:id="rId36"/>
-    <hyperlink ref="O20" r:id="rId37"/>
-    <hyperlink ref="Q20" r:id="rId38"/>
-    <hyperlink ref="O21" r:id="rId39"/>
-    <hyperlink ref="Q21" r:id="rId40"/>
-    <hyperlink ref="O22" r:id="rId41"/>
-    <hyperlink ref="Q22" r:id="rId42"/>
-    <hyperlink ref="O23" r:id="rId43"/>
-    <hyperlink ref="Q23" r:id="rId44"/>
-    <hyperlink ref="O24" r:id="rId45"/>
-    <hyperlink ref="Q24" r:id="rId46"/>
-    <hyperlink ref="O25" r:id="rId47"/>
-    <hyperlink ref="Q25" r:id="rId48"/>
-    <hyperlink ref="O26" r:id="rId49"/>
-    <hyperlink ref="Q26" r:id="rId50"/>
-    <hyperlink ref="O27" r:id="rId51"/>
-    <hyperlink ref="Q27" r:id="rId52"/>
-    <hyperlink ref="O28" r:id="rId53"/>
-    <hyperlink ref="Q28" r:id="rId54"/>
-    <hyperlink ref="O29" r:id="rId55"/>
-    <hyperlink ref="Q29" r:id="rId56"/>
-    <hyperlink ref="O30" r:id="rId57"/>
-    <hyperlink ref="Q30" r:id="rId58"/>
-    <hyperlink ref="O31" r:id="rId59"/>
-    <hyperlink ref="Q31" r:id="rId60"/>
-    <hyperlink ref="O32" r:id="rId61"/>
-    <hyperlink ref="Q32" r:id="rId62"/>
-    <hyperlink ref="O33" r:id="rId63"/>
-    <hyperlink ref="Q33" r:id="rId64"/>
-    <hyperlink ref="O34" r:id="rId65"/>
-    <hyperlink ref="Q34" r:id="rId66"/>
-    <hyperlink ref="O35" r:id="rId67"/>
-    <hyperlink ref="Q35" r:id="rId68"/>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="O3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="Q3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="O4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="Q4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="O5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Q5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="O6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="Q6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="O7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="Q7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="O8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="Q8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="O9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="Q9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="O10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="Q10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="O11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="Q11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="O12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="Q12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="O13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="Q13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="O14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="Q14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="O15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="Q15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="O16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="Q16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="O17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="Q17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="O18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="Q18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="O19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="Q19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="O20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="Q20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="O21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="Q21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="O22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="Q22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="O23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="Q23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="O24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="Q24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="Q25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="O26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="Q26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="O27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="Q27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="O28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="Q28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="O29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="Q29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="O30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="Q30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="O31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="Q31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="O32" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="Q32" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="O33" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="Q33" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="O34" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="Q34" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="O35" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="Q35" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="O36" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="Q36" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="O37" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="Q37" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="O38" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="Q38" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="O39" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="Q39" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="O40" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="Q40" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="O41" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="Q41" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="O42" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="Q42" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/comp armchair.xlsx
+++ b/make_xl/data_xl/comp armchair.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31AE842-F21C-4C99-8F20-6B0250246AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECC88D9-9983-4FBA-93C6-4C4CD90C83AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="194">
   <si>
     <t>Id</t>
   </si>
@@ -209,9 +209,6 @@
   </si>
   <si>
     <t xml:space="preserve">Кресло компьютерное Chairman </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кресло Бюрократ </t>
   </si>
   <si>
     <t xml:space="preserve">Кресло компьютерное </t>
@@ -547,27 +544,6 @@
 🔥 Система больших скидок действует при опте и в праздничные дни 
 ✔ Самовывоз
 ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-🌟Кресло руководителя Unital D80
-Артикул 10443
-▫️Описание: Изысканный дизайн этого кабинета придаст вашему рабочему пространству неповторимый стиль и элегантность. Коллекция кресел «Чик» от мебельной Отечественной фабрики «Unital» объединяет в себе качество, удобство и доступность. Модели серии выполнены из высококачественных материалов, обеспечивая стойкость и комфорт.
-Кресло «Чик» обладает классической формой и удобством, идеально подходя для кабинета руководителя. Современный дизайн в сочетании с функциональностью делает его неотъемлемым элементом офисного пространства.
-Оснащенное итальянским механизмом качания и регулировкой по высоте, кресло обеспечивает максимальный комфорт при длительном использовании. Эргономичный дизайн и высокое качество материалов делают его незаменимым помощником в вашей рабочей обстановке.
-▫️Цвет белый
-Цена 10 500 руб
-Количество 2 шт 
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
@@ -749,29 +725,6 @@
     </t>
   </si>
   <si>
-    <t>Кресло Бюрократ 
-Артикул 10301
-Модель CH-799SL, рассчитана на большой вес! 
-Кресла в отличном состоянии.
-Предлагаю самую выгодную цену на рынке ! Похожие модели новых от 6500 т., бу 3500-4000
-Эргономичное офисное кресло Бюрократ c обивкой из ткани и сетки, хромированной крестовиной, подлокотниками, регулировкой кресла по высоте (газлифт) и ограничением по весу: 120 кг. Отличительной особенностью данной модели является пружинно-винтовой механизм качания спинки. 
-В наличии более 80 штук
-Цена: 2999
-В розницу - 3999
-    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
-    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Кресло компьютерное 
 Артикул 10542
 Описание: материал обивки - сетка. 
@@ -1216,9 +1169,6 @@
     <t>https://disk.yandex.ru/i/eetMWhyxbe7CTQ | https://disk.yandex.ru/i/LAirnTMsDD2CYA | https://disk.yandex.ru/i/0H5PG8QDN0jusQ | https://disk.yandex.ru/i/6_S_dvAHP4jgKQ | https://disk.yandex.ru/i/Hb1FTiwavilN_Q</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/apZ0lVsVBKadWA | https://disk.yandex.ru/i/7s1R6DPjhCvXbg | https://disk.yandex.ru/i/Y7CG333ZN0H3BA | https://disk.yandex.ru/i/VgbEbBMc391D3g | https://disk.yandex.ru/i/Pf8cAnkmv7zKIQ | https://disk.yandex.ru/i/_57RFliG2XGVSg | https://disk.yandex.ru/i/mk3gG2sMhQ6Qvg | https://disk.yandex.ru/i/272RfDVgnoGE7A</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/Kar_m1oEtRVT2Q | https://disk.yandex.ru/i/evQVF4X3NU3cSg | https://disk.yandex.ru/i/V0vd0BtVpYai5Q | https://disk.yandex.ru/i/CAb7AkQamKCSzg | https://disk.yandex.ru/i/6xyDIgrM0E5YAg | https://disk.yandex.ru/i/kGoGsBrb7XXkUg | https://disk.yandex.ru/i/IcBRJ_yTr8kw6A</t>
   </si>
   <si>
@@ -1240,9 +1190,6 @@
     <t>https://disk.yandex.ru/i/bZpvYLgJkQeS5A | https://disk.yandex.ru/i/pQd-PGVs48AaIw | https://disk.yandex.ru/i/suuO6PTkZXJdwg | https://disk.yandex.ru/i/fHcjrSdVZpBP4w | https://disk.yandex.ru/i/JCCBmfu4mVBVKA | https://disk.yandex.ru/i/KSs7yEVXrQvtdg | https://disk.yandex.ru/i/b-JXSfrfJd4nhw | https://disk.yandex.ru/i/MCBY2S-TBrV2-A | https://disk.yandex.ru/i/jyeamFEdpJUNuA</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/zs1LO9iUDpfvJA | https://disk.yandex.ru/i/4XJto5aU9Pk5Qw | https://disk.yandex.ru/i/RW2frD43bhg6dA | https://disk.yandex.ru/i/i9uwNxDWupMaCg | https://disk.yandex.ru/i/2GcC1EzIDr7XHQ | https://disk.yandex.ru/i/WjREaYhYzBzk1Q | https://disk.yandex.ru/i/MFqy3a-nWEK21g | https://disk.yandex.ru/i/zKc5FfCGsSjQ2g | https://disk.yandex.ru/i/auG_5U6jJCE9OQ | https://disk.yandex.ru/i/flJEu_19ssvBBA</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/qVd2oEtFX8sUSQ | https://disk.yandex.ru/i/4T7plhzo2CVBEQ | https://disk.yandex.ru/i/pAywipBokO5h2Q | https://disk.yandex.ru/i/ZKMPlYMDjf2Mlg | https://disk.yandex.ru/i/rCrbRKlQJPyk0w | https://disk.yandex.ru/i/AMHxMV_0iqNrRw | https://disk.yandex.ru/i/vRrw34qcqwqgKw | https://disk.yandex.ru/i/sawgFxehejgyXA</t>
   </si>
   <si>
@@ -1327,18 +1274,18 @@
     <t>Бордовый</t>
   </si>
   <si>
+    <t>Оранжевый</t>
+  </si>
+  <si>
+    <t>Коричневый</t>
+  </si>
+  <si>
+    <t>Серый</t>
+  </si>
+  <si>
     <t>Белый</t>
   </si>
   <si>
-    <t>Оранжевый</t>
-  </si>
-  <si>
-    <t>Коричневый</t>
-  </si>
-  <si>
-    <t>Серый</t>
-  </si>
-  <si>
     <t>Кресла и стулья</t>
   </si>
   <si>
@@ -1367,9 +1314,6 @@
   </si>
   <si>
     <t>Подлокотники | Механизм качания | Регулировка высоты | Регулировка глубины сиденья | Поясничный упор</t>
-  </si>
-  <si>
-    <t>Подлокотники | Поясничный упор | Механизм качания | Регулировка высоты</t>
   </si>
   <si>
     <t>Подлокотники |Подголовник | Механизм качания | Регулировка высоты |Регулировка подлокотников | Регулировка глубины сиденья</t>
@@ -1850,10 +1794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW42"/>
+  <dimension ref="A1:AW40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD42"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2015,40 +1959,40 @@
         <v>49</v>
       </c>
       <c r="M2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N2">
         <v>5499</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC2" t="s">
         <v>152</v>
       </c>
-      <c r="S2" t="s">
+      <c r="AD2" t="s">
         <v>153</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AE2" t="s">
         <v>154</v>
       </c>
-      <c r="AB2" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>159</v>
-      </c>
       <c r="AG2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AH2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AN2">
         <v>50</v>
@@ -2060,16 +2004,16 @@
         <v>50</v>
       </c>
       <c r="AQ2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="AR2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AS2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AT2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AU2">
         <v>30</v>
@@ -2078,7 +2022,7 @@
         <v>120</v>
       </c>
       <c r="AW2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.25">
@@ -2089,40 +2033,40 @@
         <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N3">
         <v>7000</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC3" t="s">
         <v>152</v>
       </c>
-      <c r="S3" t="s">
+      <c r="AD3" t="s">
         <v>153</v>
       </c>
-      <c r="AA3" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>158</v>
-      </c>
       <c r="AE3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AG3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AH3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AN3">
         <v>50</v>
@@ -2134,13 +2078,13 @@
         <v>50</v>
       </c>
       <c r="AQ3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AS3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AT3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AU3">
         <v>31</v>
@@ -2149,7 +2093,7 @@
         <v>70</v>
       </c>
       <c r="AW3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
@@ -2160,40 +2104,40 @@
         <v>51</v>
       </c>
       <c r="M4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N4">
         <v>2999</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC4" t="s">
         <v>152</v>
       </c>
-      <c r="S4" t="s">
+      <c r="AD4" t="s">
         <v>153</v>
       </c>
-      <c r="AA4" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB4" t="s">
+      <c r="AE4" t="s">
         <v>155</v>
       </c>
-      <c r="AC4" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>160</v>
-      </c>
       <c r="AG4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AH4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AN4">
         <v>45</v>
@@ -2205,16 +2149,16 @@
         <v>40</v>
       </c>
       <c r="AQ4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AR4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AS4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AT4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AU4">
         <v>30</v>
@@ -2223,7 +2167,7 @@
         <v>80</v>
       </c>
       <c r="AW4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
@@ -2234,40 +2178,40 @@
         <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N5">
         <v>3999</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q5" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC5" t="s">
         <v>152</v>
       </c>
-      <c r="S5" t="s">
+      <c r="AD5" t="s">
         <v>153</v>
       </c>
-      <c r="AA5" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB5" t="s">
+      <c r="AE5" t="s">
         <v>155</v>
       </c>
-      <c r="AC5" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>160</v>
-      </c>
       <c r="AG5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AH5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AN5">
         <v>48</v>
@@ -2279,16 +2223,16 @@
         <v>50</v>
       </c>
       <c r="AQ5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="AR5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AS5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AT5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AU5">
         <v>30</v>
@@ -2297,7 +2241,7 @@
         <v>90</v>
       </c>
       <c r="AW5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
@@ -2308,40 +2252,40 @@
         <v>53</v>
       </c>
       <c r="M6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N6">
         <v>3499</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q6" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S6" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC6" t="s">
         <v>152</v>
       </c>
-      <c r="S6" t="s">
+      <c r="AD6" t="s">
         <v>153</v>
       </c>
-      <c r="AA6" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>158</v>
-      </c>
       <c r="AE6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AG6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AH6" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AN6">
         <v>50</v>
@@ -2353,13 +2297,13 @@
         <v>50</v>
       </c>
       <c r="AQ6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="AS6" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AT6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AU6">
         <v>30</v>
@@ -2368,7 +2312,7 @@
         <v>120</v>
       </c>
       <c r="AW6" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
@@ -2379,40 +2323,40 @@
         <v>49</v>
       </c>
       <c r="M7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N7">
         <v>1499</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q7" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S7" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC7" t="s">
         <v>152</v>
       </c>
-      <c r="S7" t="s">
+      <c r="AD7" t="s">
         <v>153</v>
       </c>
-      <c r="AA7" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB7" t="s">
+      <c r="AE7" t="s">
         <v>155</v>
       </c>
-      <c r="AC7" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>160</v>
-      </c>
       <c r="AG7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AH7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AN7">
         <v>45</v>
@@ -2424,16 +2368,16 @@
         <v>50</v>
       </c>
       <c r="AQ7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AR7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AS7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AT7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AU7">
         <v>30</v>
@@ -2442,7 +2386,7 @@
         <v>75</v>
       </c>
       <c r="AW7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
@@ -2453,40 +2397,40 @@
         <v>50</v>
       </c>
       <c r="M8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N8">
         <v>3100</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Q8" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S8" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC8" t="s">
         <v>152</v>
       </c>
-      <c r="S8" t="s">
+      <c r="AD8" t="s">
         <v>153</v>
       </c>
-      <c r="AA8" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>158</v>
-      </c>
       <c r="AE8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AG8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AH8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AN8">
         <v>48</v>
@@ -2498,16 +2442,16 @@
         <v>45</v>
       </c>
       <c r="AQ8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AR8" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AS8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AT8" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AU8">
         <v>30</v>
@@ -2516,7 +2460,7 @@
         <v>80</v>
       </c>
       <c r="AW8" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
@@ -2527,40 +2471,40 @@
         <v>54</v>
       </c>
       <c r="M9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N9">
         <v>3499</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="Q9" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC9" t="s">
         <v>152</v>
       </c>
-      <c r="S9" t="s">
+      <c r="AD9" t="s">
         <v>153</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AE9" t="s">
         <v>154</v>
       </c>
-      <c r="AB9" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>159</v>
-      </c>
       <c r="AG9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AH9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AN9">
         <v>48</v>
@@ -2572,16 +2516,16 @@
         <v>50</v>
       </c>
       <c r="AQ9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="AR9" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AS9" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AT9" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AU9">
         <v>30</v>
@@ -2590,7 +2534,7 @@
         <v>80</v>
       </c>
       <c r="AW9" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
@@ -2601,40 +2545,40 @@
         <v>55</v>
       </c>
       <c r="M10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N10">
         <v>3499</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Q10" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S10" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC10" t="s">
         <v>152</v>
       </c>
-      <c r="S10" t="s">
+      <c r="AD10" t="s">
         <v>153</v>
       </c>
-      <c r="AA10" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>158</v>
-      </c>
       <c r="AE10" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AG10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AH10" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AN10">
         <v>50</v>
@@ -2646,13 +2590,13 @@
         <v>50</v>
       </c>
       <c r="AQ10" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="AS10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AT10" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="AU10">
         <v>30</v>
@@ -2661,7 +2605,7 @@
         <v>120</v>
       </c>
       <c r="AW10" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
@@ -2672,40 +2616,40 @@
         <v>51</v>
       </c>
       <c r="M11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N11">
         <v>3999</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Q11" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S11" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC11" t="s">
         <v>152</v>
       </c>
-      <c r="S11" t="s">
+      <c r="AD11" t="s">
         <v>153</v>
       </c>
-      <c r="AA11" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>158</v>
-      </c>
       <c r="AE11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AG11" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AH11" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AN11">
         <v>50</v>
@@ -2717,16 +2661,16 @@
         <v>48</v>
       </c>
       <c r="AQ11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AR11" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AS11" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AT11" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AU11">
         <v>30</v>
@@ -2735,7 +2679,7 @@
         <v>100</v>
       </c>
       <c r="AW11" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
@@ -2746,40 +2690,40 @@
         <v>56</v>
       </c>
       <c r="M12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N12">
         <v>2300</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q12" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC12" t="s">
         <v>152</v>
       </c>
-      <c r="S12" t="s">
+      <c r="AD12" t="s">
         <v>153</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AE12" t="s">
         <v>154</v>
       </c>
-      <c r="AB12" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>159</v>
-      </c>
       <c r="AG12" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AH12" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AN12">
         <v>48</v>
@@ -2791,16 +2735,16 @@
         <v>50</v>
       </c>
       <c r="AQ12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AR12" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AS12" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AT12" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AU12">
         <v>31</v>
@@ -2809,7 +2753,7 @@
         <v>70</v>
       </c>
       <c r="AW12" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
@@ -2820,40 +2764,40 @@
         <v>57</v>
       </c>
       <c r="M13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N13">
         <v>3999</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q13" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S13" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC13" t="s">
         <v>152</v>
       </c>
-      <c r="S13" t="s">
+      <c r="AD13" t="s">
         <v>153</v>
       </c>
-      <c r="AA13" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB13" t="s">
+      <c r="AE13" t="s">
         <v>155</v>
       </c>
-      <c r="AC13" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>160</v>
-      </c>
       <c r="AG13" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AH13" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AN13">
         <v>50</v>
@@ -2865,16 +2809,16 @@
         <v>50</v>
       </c>
       <c r="AQ13" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="AR13" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AS13" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AT13" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AU13">
         <v>30</v>
@@ -2883,7 +2827,7 @@
         <v>120</v>
       </c>
       <c r="AW13" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
@@ -2894,40 +2838,40 @@
         <v>58</v>
       </c>
       <c r="M14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N14">
         <v>5999</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q14" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC14" t="s">
         <v>152</v>
       </c>
-      <c r="S14" t="s">
+      <c r="AD14" t="s">
         <v>153</v>
       </c>
-      <c r="AA14" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB14" t="s">
+      <c r="AE14" t="s">
         <v>155</v>
       </c>
-      <c r="AC14" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>160</v>
-      </c>
       <c r="AG14" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AH14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AN14">
         <v>50</v>
@@ -2939,16 +2883,16 @@
         <v>50</v>
       </c>
       <c r="AQ14" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="AR14" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="AS14" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AT14" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AU14">
         <v>30</v>
@@ -2957,7 +2901,7 @@
         <v>120</v>
       </c>
       <c r="AW14" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
@@ -2968,40 +2912,40 @@
         <v>56</v>
       </c>
       <c r="M15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N15">
         <v>9999</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Q15" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S15" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC15" t="s">
         <v>152</v>
       </c>
-      <c r="S15" t="s">
+      <c r="AD15" t="s">
         <v>153</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AE15" t="s">
         <v>154</v>
       </c>
-      <c r="AB15" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>159</v>
-      </c>
       <c r="AG15" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AH15" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AN15">
         <v>50</v>
@@ -3013,16 +2957,16 @@
         <v>50</v>
       </c>
       <c r="AQ15" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="AR15" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AS15" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AT15" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AU15">
         <v>30</v>
@@ -3031,7 +2975,7 @@
         <v>120</v>
       </c>
       <c r="AW15" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
@@ -3042,40 +2986,40 @@
         <v>50</v>
       </c>
       <c r="M16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N16">
         <v>7999</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="Q16" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S16" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC16" t="s">
         <v>152</v>
       </c>
-      <c r="S16" t="s">
+      <c r="AD16" t="s">
         <v>153</v>
       </c>
-      <c r="AA16" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC16" t="s">
+      <c r="AE16" t="s">
         <v>157</v>
       </c>
-      <c r="AD16" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE16" t="s">
+      <c r="AG16" t="s">
         <v>162</v>
       </c>
-      <c r="AG16" t="s">
-        <v>167</v>
-      </c>
       <c r="AH16" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AN16">
         <v>50</v>
@@ -3087,16 +3031,16 @@
         <v>50</v>
       </c>
       <c r="AQ16" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AR16" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="AS16" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AT16" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="AU16">
         <v>30</v>
@@ -3105,273 +3049,273 @@
         <v>120</v>
       </c>
       <c r="AW16" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>10443</v>
+        <v>10460</v>
       </c>
       <c r="L17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N17">
-        <v>10500</v>
+        <v>7999</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S17" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC17" t="s">
         <v>152</v>
       </c>
-      <c r="S17" t="s">
+      <c r="AD17" t="s">
         <v>153</v>
       </c>
-      <c r="AA17" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB17" t="s">
+      <c r="AE17" t="s">
         <v>155</v>
       </c>
-      <c r="AC17" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE17" t="s">
+      <c r="AG17" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH17" t="s">
         <v>163</v>
       </c>
-      <c r="AG17" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>168</v>
-      </c>
       <c r="AN17">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AO17">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AP17">
         <v>50</v>
       </c>
       <c r="AQ17" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="AR17" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="AS17" t="s">
+        <v>187</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>185</v>
+      </c>
+      <c r="AU17">
+        <v>30</v>
+      </c>
+      <c r="AV17">
+        <v>100</v>
+      </c>
+      <c r="AW17" t="s">
         <v>193</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>191</v>
-      </c>
-      <c r="AU17">
-        <v>35</v>
-      </c>
-      <c r="AV17">
-        <v>150</v>
-      </c>
-      <c r="AW17" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>10460</v>
+        <v>10494</v>
       </c>
       <c r="L18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N18">
         <v>7999</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Q18" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S18" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC18" t="s">
         <v>152</v>
       </c>
-      <c r="S18" t="s">
+      <c r="AD18" t="s">
         <v>153</v>
       </c>
-      <c r="AA18" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB18" t="s">
+      <c r="AE18" t="s">
         <v>155</v>
       </c>
-      <c r="AC18" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>160</v>
-      </c>
       <c r="AG18" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AH18" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AN18">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AO18">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AP18">
         <v>50</v>
       </c>
       <c r="AQ18" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AR18" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AS18" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AT18" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AU18">
         <v>30</v>
       </c>
       <c r="AV18">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="AW18" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>10494</v>
+        <v>10501</v>
       </c>
       <c r="L19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N19">
-        <v>7999</v>
+        <v>6999</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q19" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S19" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC19" t="s">
         <v>152</v>
       </c>
-      <c r="S19" t="s">
+      <c r="AD19" t="s">
         <v>153</v>
       </c>
-      <c r="AA19" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>158</v>
       </c>
-      <c r="AE19" t="s">
-        <v>160</v>
-      </c>
       <c r="AG19" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AH19" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AN19">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AO19">
+        <v>48</v>
+      </c>
+      <c r="AP19">
         <v>53</v>
       </c>
-      <c r="AP19">
-        <v>50</v>
-      </c>
       <c r="AQ19" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AR19" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="AS19" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AT19" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="AU19">
         <v>30</v>
       </c>
       <c r="AV19">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="AW19" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>10501</v>
+        <v>10522</v>
       </c>
       <c r="L20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N20">
-        <v>6999</v>
+        <v>5999</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Q20" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S20" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC20" t="s">
         <v>152</v>
       </c>
-      <c r="S20" t="s">
+      <c r="AD20" t="s">
         <v>153</v>
       </c>
-      <c r="AA20" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>158</v>
-      </c>
       <c r="AE20" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AG20" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AH20" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AN20">
         <v>50</v>
@@ -3380,99 +3324,96 @@
         <v>48</v>
       </c>
       <c r="AP20">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AQ20" t="s">
-        <v>179</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="AS20" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AT20" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AU20">
         <v>30</v>
       </c>
       <c r="AV20">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AW20" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>10522</v>
+        <v>10532</v>
       </c>
       <c r="L21" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="M21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N21">
-        <v>5999</v>
+        <v>7999</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Q21" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S21" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC21" t="s">
         <v>152</v>
       </c>
-      <c r="S21" t="s">
+      <c r="AD21" t="s">
         <v>153</v>
       </c>
-      <c r="AA21" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>158</v>
-      </c>
       <c r="AE21" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AG21" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN21">
+        <v>48</v>
+      </c>
+      <c r="AO21">
+        <v>45</v>
+      </c>
+      <c r="AP21">
+        <v>50</v>
+      </c>
+      <c r="AQ21" t="s">
         <v>167</v>
       </c>
-      <c r="AH21" t="s">
-        <v>168</v>
-      </c>
-      <c r="AN21">
-        <v>50</v>
-      </c>
-      <c r="AO21">
-        <v>48</v>
-      </c>
-      <c r="AP21">
-        <v>50</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>173</v>
-      </c>
       <c r="AS21" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AT21" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="AU21">
         <v>30</v>
       </c>
       <c r="AV21">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AW21" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
@@ -3483,40 +3424,40 @@
         <v>51</v>
       </c>
       <c r="M22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N22">
         <v>7999</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Q22" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S22" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC22" t="s">
         <v>152</v>
       </c>
-      <c r="S22" t="s">
+      <c r="AD22" t="s">
         <v>153</v>
       </c>
-      <c r="AA22" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>158</v>
-      </c>
       <c r="AE22" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AG22" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AH22" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AN22">
         <v>48</v>
@@ -3528,13 +3469,13 @@
         <v>50</v>
       </c>
       <c r="AQ22" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="AS22" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AT22" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AU22">
         <v>30</v>
@@ -3543,51 +3484,51 @@
         <v>120</v>
       </c>
       <c r="AW22" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>10532</v>
+        <v>10410</v>
       </c>
       <c r="L23" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="M23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N23">
-        <v>7999</v>
+        <v>12000</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q23" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S23" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC23" t="s">
         <v>152</v>
       </c>
-      <c r="S23" t="s">
+      <c r="AD23" t="s">
         <v>153</v>
       </c>
-      <c r="AA23" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>158</v>
-      </c>
       <c r="AE23" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="AG23" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AH23" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AN23">
         <v>48</v>
@@ -3599,13 +3540,13 @@
         <v>50</v>
       </c>
       <c r="AQ23" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AS23" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AT23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AU23">
         <v>30</v>
@@ -3614,51 +3555,51 @@
         <v>120</v>
       </c>
       <c r="AW23" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>10410</v>
+        <v>10542</v>
       </c>
       <c r="L24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N24">
-        <v>12000</v>
+        <v>5999</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q24" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S24" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC24" t="s">
         <v>152</v>
       </c>
-      <c r="S24" t="s">
+      <c r="AD24" t="s">
         <v>153</v>
       </c>
-      <c r="AA24" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>158</v>
-      </c>
       <c r="AE24" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AG24" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AH24" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AN24">
         <v>48</v>
@@ -3670,13 +3611,13 @@
         <v>50</v>
       </c>
       <c r="AQ24" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AS24" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AT24" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="AU24">
         <v>30</v>
@@ -3685,51 +3626,51 @@
         <v>120</v>
       </c>
       <c r="AW24" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>10301</v>
+        <v>10468</v>
       </c>
       <c r="L25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N25">
-        <v>2999</v>
+        <v>17000</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q25" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S25" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC25" t="s">
         <v>152</v>
       </c>
-      <c r="S25" t="s">
+      <c r="AD25" t="s">
         <v>153</v>
       </c>
-      <c r="AA25" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>158</v>
-      </c>
       <c r="AE25" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AG25" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AH25" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AN25">
         <v>48</v>
@@ -3741,13 +3682,13 @@
         <v>50</v>
       </c>
       <c r="AQ25" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AS25" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AT25" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AU25">
         <v>30</v>
@@ -3756,51 +3697,51 @@
         <v>120</v>
       </c>
       <c r="AW25" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>10542</v>
+        <v>10498</v>
       </c>
       <c r="L26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N26">
-        <v>5999</v>
+        <v>9999</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="Q26" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S26" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC26" t="s">
         <v>152</v>
       </c>
-      <c r="S26" t="s">
+      <c r="AD26" t="s">
         <v>153</v>
       </c>
-      <c r="AA26" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>158</v>
-      </c>
       <c r="AE26" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AG26" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AH26" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AN26">
         <v>48</v>
@@ -3812,13 +3753,13 @@
         <v>50</v>
       </c>
       <c r="AQ26" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="AS26" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AT26" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AU26">
         <v>30</v>
@@ -3827,51 +3768,51 @@
         <v>120</v>
       </c>
       <c r="AW26" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>10468</v>
+        <v>10550</v>
       </c>
       <c r="L27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N27">
-        <v>17000</v>
+        <v>14999</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="Q27" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S27" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC27" t="s">
         <v>152</v>
       </c>
-      <c r="S27" t="s">
+      <c r="AD27" t="s">
         <v>153</v>
       </c>
-      <c r="AA27" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>158</v>
-      </c>
       <c r="AE27" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AG27" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AH27" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AN27">
         <v>48</v>
@@ -3883,13 +3824,13 @@
         <v>50</v>
       </c>
       <c r="AQ27" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AS27" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AT27" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AU27">
         <v>30</v>
@@ -3898,51 +3839,51 @@
         <v>120</v>
       </c>
       <c r="AW27" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>10498</v>
+        <v>10533</v>
       </c>
       <c r="L28" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="M28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N28">
         <v>9999</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q28" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S28" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC28" t="s">
         <v>152</v>
       </c>
-      <c r="S28" t="s">
+      <c r="AD28" t="s">
         <v>153</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>158</v>
       </c>
       <c r="AE28" t="s">
         <v>160</v>
       </c>
       <c r="AG28" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AH28" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AN28">
         <v>48</v>
@@ -3954,13 +3895,13 @@
         <v>50</v>
       </c>
       <c r="AQ28" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AS28" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AT28" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AU28">
         <v>30</v>
@@ -3969,51 +3910,51 @@
         <v>120</v>
       </c>
       <c r="AW28" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>10550</v>
+        <v>10461</v>
       </c>
       <c r="L29" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="M29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N29">
-        <v>14999</v>
+        <v>11999</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Q29" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S29" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC29" t="s">
         <v>152</v>
       </c>
-      <c r="S29" t="s">
+      <c r="AD29" t="s">
         <v>153</v>
       </c>
-      <c r="AA29" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>158</v>
-      </c>
       <c r="AE29" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AG29" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AH29" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AN29">
         <v>48</v>
@@ -4025,13 +3966,13 @@
         <v>50</v>
       </c>
       <c r="AQ29" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AS29" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AT29" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="AU29">
         <v>30</v>
@@ -4040,51 +3981,51 @@
         <v>120</v>
       </c>
       <c r="AW29" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>10533</v>
+        <v>10547</v>
       </c>
       <c r="L30" t="s">
         <v>50</v>
       </c>
       <c r="M30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N30">
         <v>9999</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q30" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S30" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC30" t="s">
         <v>152</v>
       </c>
-      <c r="S30" t="s">
+      <c r="AD30" t="s">
         <v>153</v>
       </c>
-      <c r="AA30" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>158</v>
-      </c>
       <c r="AE30" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AG30" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AH30" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AN30">
         <v>48</v>
@@ -4096,13 +4037,13 @@
         <v>50</v>
       </c>
       <c r="AQ30" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AS30" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AT30" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AU30">
         <v>30</v>
@@ -4111,51 +4052,51 @@
         <v>120</v>
       </c>
       <c r="AW30" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>10461</v>
+        <v>10530</v>
       </c>
       <c r="L31" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="M31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N31">
-        <v>11999</v>
+        <v>3499</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Q31" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S31" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC31" t="s">
         <v>152</v>
       </c>
-      <c r="S31" t="s">
+      <c r="AD31" t="s">
         <v>153</v>
       </c>
-      <c r="AA31" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>158</v>
-      </c>
       <c r="AE31" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG31" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AH31" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AN31">
         <v>48</v>
@@ -4167,13 +4108,13 @@
         <v>50</v>
       </c>
       <c r="AQ31" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="AS31" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AT31" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="AU31">
         <v>30</v>
@@ -4182,51 +4123,51 @@
         <v>120</v>
       </c>
       <c r="AW31" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>10547</v>
+        <v>10541</v>
       </c>
       <c r="L32" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="M32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N32">
-        <v>9999</v>
+        <v>4999</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q32" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S32" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC32" t="s">
         <v>152</v>
       </c>
-      <c r="S32" t="s">
+      <c r="AD32" t="s">
         <v>153</v>
       </c>
-      <c r="AA32" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>158</v>
-      </c>
       <c r="AE32" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="AG32" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AH32" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AN32">
         <v>48</v>
@@ -4238,13 +4179,13 @@
         <v>50</v>
       </c>
       <c r="AQ32" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="AS32" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AT32" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AU32">
         <v>30</v>
@@ -4253,51 +4194,51 @@
         <v>120</v>
       </c>
       <c r="AW32" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>10530</v>
+        <v>10319</v>
       </c>
       <c r="L33" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N33">
-        <v>3499</v>
+        <v>2999</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q33" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S33" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC33" t="s">
         <v>152</v>
       </c>
-      <c r="S33" t="s">
+      <c r="AD33" t="s">
         <v>153</v>
       </c>
-      <c r="AA33" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>158</v>
-      </c>
       <c r="AE33" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH33" t="s">
         <v>163</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>168</v>
       </c>
       <c r="AN33">
         <v>48</v>
@@ -4309,13 +4250,13 @@
         <v>50</v>
       </c>
       <c r="AQ33" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="AS33" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AT33" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="AU33">
         <v>30</v>
@@ -4324,51 +4265,51 @@
         <v>120</v>
       </c>
       <c r="AW33" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>10541</v>
+        <v>20474</v>
       </c>
       <c r="L34" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="M34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N34">
-        <v>4999</v>
+        <v>59999</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Q34" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S34" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC34" t="s">
         <v>152</v>
       </c>
-      <c r="S34" t="s">
+      <c r="AD34" t="s">
         <v>153</v>
       </c>
-      <c r="AA34" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>158</v>
-      </c>
       <c r="AE34" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AG34" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AH34" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AN34">
         <v>48</v>
@@ -4380,13 +4321,13 @@
         <v>50</v>
       </c>
       <c r="AQ34" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="AS34" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AT34" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="AU34">
         <v>30</v>
@@ -4395,51 +4336,51 @@
         <v>120</v>
       </c>
       <c r="AW34" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>10319</v>
+        <v>204741</v>
       </c>
       <c r="L35" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="M35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N35">
-        <v>2999</v>
+        <v>44999</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q35" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S35" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC35" t="s">
         <v>152</v>
       </c>
-      <c r="S35" t="s">
+      <c r="AD35" t="s">
         <v>153</v>
       </c>
-      <c r="AA35" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>158</v>
-      </c>
       <c r="AE35" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="AG35" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AH35" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AN35">
         <v>48</v>
@@ -4451,13 +4392,13 @@
         <v>50</v>
       </c>
       <c r="AQ35" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="AS35" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AT35" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AU35">
         <v>30</v>
@@ -4466,51 +4407,51 @@
         <v>120</v>
       </c>
       <c r="AW35" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>20474</v>
+        <v>105581</v>
       </c>
       <c r="L36" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="M36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N36">
-        <v>59999</v>
+        <v>11999</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q36" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S36" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC36" t="s">
         <v>152</v>
       </c>
-      <c r="S36" t="s">
+      <c r="AD36" t="s">
         <v>153</v>
       </c>
-      <c r="AA36" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>158</v>
-      </c>
       <c r="AE36" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AG36" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AH36" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AN36">
         <v>48</v>
@@ -4522,13 +4463,13 @@
         <v>50</v>
       </c>
       <c r="AQ36" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS36" t="s">
         <v>187</v>
       </c>
-      <c r="AS36" t="s">
-        <v>193</v>
-      </c>
       <c r="AT36" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AU36">
         <v>30</v>
@@ -4537,51 +4478,51 @@
         <v>120</v>
       </c>
       <c r="AW36" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>204741</v>
+        <v>10558</v>
       </c>
       <c r="L37" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N37">
-        <v>44999</v>
+        <v>11999</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Q37" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S37" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC37" t="s">
         <v>152</v>
       </c>
-      <c r="S37" t="s">
+      <c r="AD37" t="s">
         <v>153</v>
       </c>
-      <c r="AA37" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>158</v>
-      </c>
       <c r="AE37" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AG37" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AH37" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AN37">
         <v>48</v>
@@ -4593,13 +4534,13 @@
         <v>50</v>
       </c>
       <c r="AQ37" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS37" t="s">
         <v>187</v>
       </c>
-      <c r="AS37" t="s">
-        <v>193</v>
-      </c>
       <c r="AT37" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AU37">
         <v>30</v>
@@ -4608,51 +4549,51 @@
         <v>120</v>
       </c>
       <c r="AW37" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>105581</v>
+        <v>10559</v>
       </c>
       <c r="L38" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N38">
-        <v>11999</v>
+        <v>9999</v>
       </c>
       <c r="O38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q38" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="Q38" s="2" t="s">
+      <c r="S38" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC38" t="s">
         <v>152</v>
       </c>
-      <c r="S38" t="s">
+      <c r="AD38" t="s">
         <v>153</v>
       </c>
-      <c r="AA38" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>158</v>
-      </c>
       <c r="AE38" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AG38" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AH38" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AN38">
         <v>48</v>
@@ -4664,13 +4605,13 @@
         <v>50</v>
       </c>
       <c r="AQ38" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AS38" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AT38" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="AU38">
         <v>30</v>
@@ -4679,51 +4620,51 @@
         <v>120</v>
       </c>
       <c r="AW38" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>10558</v>
+        <v>10562</v>
       </c>
       <c r="L39" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="M39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N39">
-        <v>11999</v>
+        <v>14999</v>
       </c>
       <c r="O39" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S39" t="s">
         <v>148</v>
       </c>
-      <c r="Q39" s="2" t="s">
+      <c r="AA39" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC39" t="s">
         <v>152</v>
       </c>
-      <c r="S39" t="s">
+      <c r="AD39" t="s">
         <v>153</v>
       </c>
-      <c r="AA39" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>158</v>
-      </c>
       <c r="AE39" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AG39" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AH39" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AN39">
         <v>48</v>
@@ -4735,13 +4676,13 @@
         <v>50</v>
       </c>
       <c r="AQ39" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AS39" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AT39" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="AU39">
         <v>30</v>
@@ -4750,51 +4691,51 @@
         <v>120</v>
       </c>
       <c r="AW39" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>10559</v>
+        <v>10561</v>
       </c>
       <c r="L40" t="s">
         <v>50</v>
       </c>
       <c r="M40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N40">
-        <v>9999</v>
+        <v>7999</v>
       </c>
       <c r="O40" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S40" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA40" t="s">
         <v>149</v>
       </c>
-      <c r="Q40" s="2" t="s">
+      <c r="AB40" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC40" t="s">
         <v>152</v>
       </c>
-      <c r="S40" t="s">
+      <c r="AD40" t="s">
         <v>153</v>
       </c>
-      <c r="AA40" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>158</v>
-      </c>
       <c r="AE40" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AG40" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AH40" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AN40">
         <v>48</v>
@@ -4806,13 +4747,13 @@
         <v>50</v>
       </c>
       <c r="AQ40" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="AS40" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AT40" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="AU40">
         <v>30</v>
@@ -4821,149 +4762,7 @@
         <v>120</v>
       </c>
       <c r="AW40" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>10562</v>
-      </c>
-      <c r="L41" t="s">
-        <v>70</v>
-      </c>
-      <c r="M41" t="s">
-        <v>110</v>
-      </c>
-      <c r="N41">
-        <v>14999</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q41" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="S41" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG41" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH41" t="s">
-        <v>168</v>
-      </c>
-      <c r="AN41">
-        <v>48</v>
-      </c>
-      <c r="AO41">
-        <v>45</v>
-      </c>
-      <c r="AP41">
-        <v>50</v>
-      </c>
-      <c r="AQ41" t="s">
-        <v>180</v>
-      </c>
-      <c r="AS41" t="s">
         <v>193</v>
-      </c>
-      <c r="AT41" t="s">
-        <v>195</v>
-      </c>
-      <c r="AU41">
-        <v>30</v>
-      </c>
-      <c r="AV41">
-        <v>120</v>
-      </c>
-      <c r="AW41" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>10561</v>
-      </c>
-      <c r="L42" t="s">
-        <v>50</v>
-      </c>
-      <c r="M42" t="s">
-        <v>111</v>
-      </c>
-      <c r="N42">
-        <v>7999</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q42" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="S42" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD42" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG42" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH42" t="s">
-        <v>168</v>
-      </c>
-      <c r="AN42">
-        <v>48</v>
-      </c>
-      <c r="AO42">
-        <v>45</v>
-      </c>
-      <c r="AP42">
-        <v>50</v>
-      </c>
-      <c r="AQ42" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS42" t="s">
-        <v>193</v>
-      </c>
-      <c r="AT42" t="s">
-        <v>195</v>
-      </c>
-      <c r="AU42">
-        <v>30</v>
-      </c>
-      <c r="AV42">
-        <v>120</v>
-      </c>
-      <c r="AW42" t="s">
-        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -5012,44 +4811,40 @@
     <hyperlink ref="Q22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
     <hyperlink ref="O23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
     <hyperlink ref="Q23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="O24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="Q24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="Q25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="O26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="Q26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="O27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="Q27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="O28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="Q28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="O29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="Q29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="O30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="Q30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="O31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="Q31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="O32" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="Q32" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="O33" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="Q33" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="O34" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="Q34" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="O35" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="Q35" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="O36" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="Q36" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="O37" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="Q37" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="O38" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="Q38" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="O39" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="Q39" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="O40" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="Q40" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="O41" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="Q41" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="O42" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="Q42" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="O24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="Q24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="Q25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="O26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="Q26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="O27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="Q27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="O28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="Q28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="O29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="Q29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="O30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="Q30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="O31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="Q31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="O32" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="Q32" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="O33" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="Q33" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="O34" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="Q34" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="O35" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="Q35" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="O36" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="Q36" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="O37" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="Q37" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="O38" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="Q38" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="O39" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="Q39" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="O40" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="Q40" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/comp armchair.xlsx
+++ b/make_xl/data_xl/comp armchair.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECC88D9-9983-4FBA-93C6-4C4CD90C83AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FA01C2-81F2-4DB9-A595-F7D9345462FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="177">
   <si>
     <t>Id</t>
   </si>
@@ -196,12 +196,12 @@
     <t>Кресло для руководителя</t>
   </si>
   <si>
+    <t>Кресло руководителя кожаное</t>
+  </si>
+  <si>
     <t>Кресло руководителя</t>
   </si>
   <si>
-    <t>Кресло руководителя кожаное</t>
-  </si>
-  <si>
     <t>Компьютерное крелсо для руководителя</t>
   </si>
   <si>
@@ -218,12 +218,6 @@
   </si>
   <si>
     <t xml:space="preserve">Компьютерное кресло Steelcase </t>
-  </si>
-  <si>
-    <t>Кресло руководителя кожа</t>
-  </si>
-  <si>
-    <t>Кресло офисное Швейцария Vitra</t>
   </si>
   <si>
     <t>Стул кресло Vitra</t>
@@ -379,26 +373,6 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Кресло офисное
-Артикул 10316
-Описание кож зам, кресло с откидной спинкой 
-Цена 3500. Наличие уточняйте
-В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе. Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-🔥 Система больших скидок действует при опте и в праздничные дни 
-✔ Самовывоз
-✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
     <t>Компьютерные кресла 
 Артикул 10316
 Офисное кресло в черном кожзаме. Прочная конструкция и усиленные элементы обеспечивают долговечность и устойчивость, делая кресло идеальным для длительного использования. Кресло оснащено механизмом качания для комфортного отдыха, а также регулируемыми подлокотниками, которые можно настроить для оптимальной поддержки рук.
@@ -418,28 +392,6 @@
             На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
             Работаем уже 6 лет, развиваясь и улучшая сервисный центр
             Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Кресло офисное
-Артикул 10317
-Описание компьютерное кресло с 3 универсальными регулировками. 1 наклон спинки с фиксацией. 2 наклон сидения с фиксацией. 3 высота спинки и сидения. Это одни из самых распродаваемых кресел, потому что имеют большой функционал и отличная цена для такого качества. 
-Цена 4000
-Цвет черный, коричневый , белый, зелёный 
-Количество уточняйте
-В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе. Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-🔥 Система больших скидок действует при опте и в праздничные дни 
-✔ Самовывоз
-✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
     <t>Акция - 35% 
@@ -473,55 +425,6 @@
 В наличии -2 шт. 
 Цена: с низкой спинкой 4000, с высокой 4500
 В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе. Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Кресло компьютерное
-Артикул 10371
-Описание: Комфортное кожаное кресло с механизмом качания
-Цвет чёрный
-Цена 5500-6000
-В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе. Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-🔥 Система больших скидок действует при опте и в праздничные дни 
-✔ Самовывоз
-✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Артикул 10420(2) 
-Материал Ткань или кожза с сеткой
-Бренд ORGSPACE, Модель CHOOSE
-Цена 9999
-Цвет черный
-Наличие уточняйте
-Характеристики
-• синхромеханизм с настройкой на вес от 45 до 130 кг
-• спинка высокая, профилированная с зоной поясничной поддержки
-• сиденье со специальным наполнителем высокой плотности (более 50кг/м3), эффективно распределяющим давление человеческого тела
-• спинка из высококачественной сетки производства Дании
-• подлокотники 2D пластиковые (регулируемые по ширине и высоте)
-• обивочная ткань CAMIRA (Великобритания), невоспламеняемая, с грязе- и водоотталкивающими свойствами
-• 6 регулировок: по высоте (с помощью газлифта), сиденье по глубине, спинка по высоте, синхромеханизм на вес, подлокотники по ширине и высоте
-• колеса с шумоподавлением для мягких или твердых напольных покрытий
-• комплектующие 100% Германия, сборка - Россия
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
@@ -794,32 +697,6 @@
     </t>
   </si>
   <si>
-    <t xml:space="preserve">Кресло руководителя кожа
-Артикул 10550
-Кожаное кресло для руководителя Unital от отечественного производителя мягкой мебели. 
-Кресло выполнено из красного дерева и кожи, что гарантирует долгую службу и комфорт.
-Кресло рассчитано на большой вес до 120 кг. Механизм с режимом качания и фиксацией в нескольких положениях.
-Цвет черный
-Цена 14 999
-Количество 6
-    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
-    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
-  </si>
-  <si>
     <t>Кресло компьютерное
 Артикул 10533
 Крелсо с эргономичной пластиковой спинкой, рассчитано на большой вес до 120 кг.
@@ -944,30 +821,6 @@
 Цвет коричневый 
 Цена 2 999
 Количество 80 (уточните)
-    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
-    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Кресло офисное Швейцария Vitra
-Артикул 20474
-Офисное кресло Soft Pad Chairs от Vitra – элегантность и комфорт в каждой детали
-Погрузитесь в мир безупречного стиля и ergonomic-совершенства с офисным креслом Soft Pad Chairs от легендарного швейцарского бренда Vitra. Это кресло – результат творческого союза культовых дизайнеров Charles &amp; Ray Eames и передовых технологий производства.
---&gt; Премиальные материалы: Кресло сочетает в себе роскошь натуральной кожи и прочность металла. Кожаное покрытие приятно на ощупь, долговечно и подчеркивает статус владельца, а металлическая основа обеспечивает надежность и устойчивость.
---&gt; Швейцарское качество: Каждое кресло Soft Pad Chairs проходит строгий контроль, чтобы гарантировать долговечность и безупречную функциональность.
---&gt; Идеальная эргономика: Мягкие подушки и продуманная конструкция обеспечивают оптимальную поддержку спины, снижая нагрузку на позвоночник.
-Цвет
-Цена 59 999
-Количество 2 шт
     В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
     Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
@@ -1145,27 +998,15 @@
     <t>https://disk.yandex.ru/i/F_hs2nJX2EvKwA | https://disk.yandex.ru/i/pFJO9_bofMNYcA | https://disk.yandex.ru/i/AV6AkI1kQDbm0w | https://disk.yandex.ru/i/7M7FPMzqnvffuQ | https://disk.yandex.ru/i/QRuT6vW-ThuAhA</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/FyE0JM2r7QSzqg | https://disk.yandex.ru/i/d04R4Xh6CB_9zw | https://disk.yandex.ru/i/zUIjJdn2EXUDaQ | https://disk.yandex.ru/i/s9UosE9ObcKmMQ | https://disk.yandex.ru/i/jatfU3iOnP3DsQ</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/mT6xCej03PZkbw | https://disk.yandex.ru/i/C1CXXG7AhN9MVw | https://disk.yandex.ru/i/-C_mHYIHf9w00A | https://disk.yandex.ru/i/lCo9Ms9sBZrlew | https://disk.yandex.ru/i/IQ-HQKRAtysveg | https://disk.yandex.ru/i/qnod5TNmvdAWbQ | https://disk.yandex.ru/i/O_qsCx2-WGv4BQ | https://disk.yandex.ru/i/ytr_7m4JII5tYA</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/_WI5Haq2tjovYg | https://disk.yandex.ru/i/nVI3_KvCSRao_w | https://disk.yandex.ru/i/r8bJNKX2hD47VA | https://disk.yandex.ru/i/JQ7Z1_xFjqXmYw | https://disk.yandex.ru/i/PO_0nDCmo0ofhQ | https://disk.yandex.ru/i/zNj20sYMUq56Fg</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/Uza66xYp4_55Aw | https://disk.yandex.ru/i/WIkqonRCoB53Rg | https://disk.yandex.ru/i/g1VALz9m5C7Ihw | https://disk.yandex.ru/i/3cuAucSUba3xXg | https://disk.yandex.ru/i/Ne4_fNP4h75cTg | https://disk.yandex.ru/i/yLirZL9nUb1k5Q | https://disk.yandex.ru/i/Hhw11rTSUwxQXg | https://disk.yandex.ru/i/AjE-icsY3bYKqw</t>
   </si>
   <si>
     <t>https://disk.yandex.ru/i/excqQqnbHjQhig | https://disk.yandex.ru/i/T_P2ouP-iaJdhQ | https://disk.yandex.ru/i/3VLSAyJ4EUAfuQ | https://disk.yandex.ru/i/0VniA88a5VJ3_w | https://disk.yandex.ru/i/T4TEtc37cr4gFA | https://disk.yandex.ru/i/3TgHzBbUbV0nqw | https://disk.yandex.ru/i/khoHwRaUnOJvAw | https://disk.yandex.ru/i/jjQTVdLrDQ2ctA</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/6PcDFrhEIIaB3g | https://disk.yandex.ru/i/g-QxHhQ_DBG48g | https://disk.yandex.ru/i/IHnaTfPrW-SVvg | https://disk.yandex.ru/i/nBUA7xmLM2nq6Q | https://disk.yandex.ru/i/m6vQ2EGLPoB9ng | https://disk.yandex.ru/i/LOMDdiD4a6Knmw | https://disk.yandex.ru/i/NyvusgMaMxqrmA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/MuSfrFDjjfWffQ | https://disk.yandex.ru/i/8dzylBNas9E1Rw | https://disk.yandex.ru/i/S_v_7uTKYHkK9g | https://disk.yandex.ru/i/bJzTcRvQdzSlkg | https://disk.yandex.ru/i/0y3D6Kwz3psDBA</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/eetMWhyxbe7CTQ | https://disk.yandex.ru/i/LAirnTMsDD2CYA | https://disk.yandex.ru/i/0H5PG8QDN0jusQ | https://disk.yandex.ru/i/6_S_dvAHP4jgKQ | https://disk.yandex.ru/i/Hb1FTiwavilN_Q</t>
   </si>
   <si>
@@ -1199,9 +1040,6 @@
     <t>https://disk.yandex.ru/i/gXsRHWqsUNzvEg | https://disk.yandex.ru/i/uawHR9ATWeRFnA | https://disk.yandex.ru/i/Kif0RQZj3WmyMA | https://disk.yandex.ru/i/5XaJplp0q21RkQ | https://disk.yandex.ru/i/9ukX2Tqqhyvm-Q | https://disk.yandex.ru/i/PWDgZMhJmqWuJQ | https://disk.yandex.ru/i/dG5G2uSd-LCZSw | https://disk.yandex.ru/i/xUt_IFR_Fq_aGQ</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/DNa0bSVCLnfHDg | https://disk.yandex.ru/i/Fhlc7MqwcKXmlQ | https://disk.yandex.ru/i/49EaxhFQyUG2Ow | https://disk.yandex.ru/i/HNBSUrJ0iEGXrA | https://disk.yandex.ru/i/KkAVqi3YLGjyxg | https://disk.yandex.ru/i/Aj8_aeXh8ILr8Q | https://disk.yandex.ru/i/PRFCrs-H15gyhw | https://disk.yandex.ru/i/oJBVanf-GZZjCg | https://disk.yandex.ru/i/olmGQTmI6GgRJA | https://disk.yandex.ru/i/RBXPHIdr-Bld9A</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/-6A0F6tJJvHjlQ | https://disk.yandex.ru/i/MLGaaeolls9mpw | https://disk.yandex.ru/i/GvSapc_o1r_NPA | https://disk.yandex.ru/i/fYVFYS052qPdVw | https://disk.yandex.ru/i/14w7hVjVhjLrOw | https://disk.yandex.ru/i/BObHLcYTwnUOcw</t>
   </si>
   <si>
@@ -1220,9 +1058,6 @@
     <t>https://disk.yandex.ru/i/NKP_TXRNUjL6lA | https://disk.yandex.ru/i/2CmiBcBkzWFc5w | https://disk.yandex.ru/i/z9pNQtrNeWeUTw | https://disk.yandex.ru/i/gp_ZjLUi6fUkUQ | https://disk.yandex.ru/i/AQQtUlTOWsxRtw | https://disk.yandex.ru/i/K3YrQOwDy7SPgw | https://disk.yandex.ru/i/f31MV5WAxKb5Ng</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/XIynD58I7I0oRQ | https://disk.yandex.ru/i/eg7Z6dorDQAHqA | https://disk.yandex.ru/i/iWeq84rUSPYflw | https://disk.yandex.ru/i/XOzo4A2xsz-MmQ | https://disk.yandex.ru/i/dmi0RIH3iRuRxg | https://disk.yandex.ru/i/tT0rm7_VJAEP7g | https://disk.yandex.ru/i/SVc4nFnBghHUYg | https://disk.yandex.ru/i/in2NJeoZ9o36gA | https://disk.yandex.ru/i/YFIWKiRLok5gYA | https://disk.yandex.ru/i/c6QvS66UzHZHGg | https://disk.yandex.ru/i/X-tb1ZiCQ1gF0A | https://disk.yandex.ru/i/WUD2iKwJXRZ6fw | https://disk.yandex.ru/i/PA0sZLjaFyCVbA | https://disk.yandex.ru/i/FVE2frCJr8dR-w | https://disk.yandex.ru/i/7VPj9OExEgr81g | https://disk.yandex.ru/i/LeU9cK36DRf8jg | https://disk.yandex.ru/i/CzkzIiEMx_Amng | https://disk.yandex.ru/i/D6A_UMPcYnu3WA</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/YFIWKiRLok5gYA | https://disk.yandex.ru/i/c6QvS66UzHZHGg | https://disk.yandex.ru/i/X-tb1ZiCQ1gF0A | https://disk.yandex.ru/i/WUD2iKwJXRZ6fw | https://disk.yandex.ru/i/PA0sZLjaFyCVbA | https://disk.yandex.ru/i/FVE2frCJr8dR-w | https://disk.yandex.ru/i/7VPj9OExEgr81g | https://disk.yandex.ru/i/LeU9cK36DRf8jg | https://disk.yandex.ru/i/CzkzIiEMx_Amng | https://disk.yandex.ru/i/D6A_UMPcYnu3WA</t>
   </si>
   <si>
@@ -1307,30 +1142,24 @@
     <t>Подлокотники | Регулировка наклона спинки | Регулировка высоты | Регулировка подлокотников</t>
   </si>
   <si>
-    <t>Подлокотники |Механизм качания | Регулировка высоты | Регулировка наклона спинки</t>
+    <t>Подлокотники | Механизм качания | Регулировка высоты | Регулировка глубины сиденья | Поясничный упор</t>
+  </si>
+  <si>
+    <t>Подлокотники |Подголовник | Механизм качания | Регулировка высоты |Регулировка подлокотников | Регулировка глубины сиденья</t>
+  </si>
+  <si>
+    <t>Подлокотники | Подголовник | Механизм качания | Регулировка высоты | Регулировка подлокотников</t>
+  </si>
+  <si>
+    <t>Подлокотники | Подголовник | Механизм качания | Регулировка наклона спинки | Регулировка высоты | Регулировка подлокотников | Поясничный упор</t>
+  </si>
+  <si>
+    <t>Подлокотники | Механизм качания | Регулировка наклона спинки | Регулировка высоты | Регулировка глубины сиденья | Поясничный упор</t>
   </si>
   <si>
     <t>Подлокотники | Механизм качания | Регулировка наклона спинки | Регулировка высоты | Регулировка подлокотников | Регулировка глубины сиденья | Поясничный упор</t>
   </si>
   <si>
-    <t>Подлокотники | Механизм качания | Регулировка высоты | Регулировка глубины сиденья | Поясничный упор</t>
-  </si>
-  <si>
-    <t>Подлокотники |Подголовник | Механизм качания | Регулировка высоты |Регулировка подлокотников | Регулировка глубины сиденья</t>
-  </si>
-  <si>
-    <t>Подлокотники | Подголовник | Механизм качания | Регулировка высоты | Регулировка подлокотников</t>
-  </si>
-  <si>
-    <t>Подлокотники | Подголовник | Механизм качания | Регулировка наклона спинки | Регулировка высоты | Регулировка подлокотников | Поясничный упор</t>
-  </si>
-  <si>
-    <t>Подлокотники | Механизм качания | Регулировка наклона спинки | Регулировка высоты | Регулировка глубины сиденья | Поясничный упор</t>
-  </si>
-  <si>
-    <t>Подлокотники | Механизм качания | Поясничный упор</t>
-  </si>
-  <si>
     <t>Подлокотники | Механизм качания | Регулировка наклона спинки | Регулировка высоты | Поясничный упор</t>
   </si>
   <si>
@@ -1367,16 +1196,13 @@
     <t>Искусственная кожа</t>
   </si>
   <si>
+    <t>Искусственная кожа | Кожа</t>
+  </si>
+  <si>
+    <t>Искусственная кожа | Сетка</t>
+  </si>
+  <si>
     <t>Ткань | Сетка</t>
-  </si>
-  <si>
-    <t>Искусственная кожа | Кожа</t>
-  </si>
-  <si>
-    <t>Кожа | Дерево</t>
-  </si>
-  <si>
-    <t>Искусственная кожа | Сетка</t>
   </si>
   <si>
     <t>Нет</t>
@@ -1794,10 +1620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW40"/>
+  <dimension ref="A1:AW34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1959,40 +1785,40 @@
         <v>49</v>
       </c>
       <c r="M2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N2">
         <v>5499</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="S2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG2" t="s">
         <v>148</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AH2" t="s">
         <v>149</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>154</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>163</v>
       </c>
       <c r="AN2">
         <v>50</v>
@@ -2004,16 +1830,16 @@
         <v>50</v>
       </c>
       <c r="AQ2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="AR2" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="AS2" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="AT2" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="AU2">
         <v>30</v>
@@ -2022,7 +1848,7 @@
         <v>120</v>
       </c>
       <c r="AW2" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.25">
@@ -2033,40 +1859,40 @@
         <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N3">
         <v>7000</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="S3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG3" t="s">
         <v>148</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AH3" t="s">
         <v>149</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>163</v>
       </c>
       <c r="AN3">
         <v>50</v>
@@ -2078,13 +1904,13 @@
         <v>50</v>
       </c>
       <c r="AQ3" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="AS3" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="AT3" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="AU3">
         <v>31</v>
@@ -2093,7 +1919,7 @@
         <v>70</v>
       </c>
       <c r="AW3" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
@@ -2104,40 +1930,40 @@
         <v>51</v>
       </c>
       <c r="M4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N4">
         <v>2999</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="S4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG4" t="s">
         <v>148</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AH4" t="s">
         <v>149</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>163</v>
       </c>
       <c r="AN4">
         <v>45</v>
@@ -2149,16 +1975,16 @@
         <v>40</v>
       </c>
       <c r="AQ4" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="AR4" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="AS4" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="AT4" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="AU4">
         <v>30</v>
@@ -2167,7 +1993,7 @@
         <v>80</v>
       </c>
       <c r="AW4" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
@@ -2178,40 +2004,40 @@
         <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N5">
         <v>3999</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="S5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG5" t="s">
         <v>148</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AH5" t="s">
         <v>149</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>163</v>
       </c>
       <c r="AN5">
         <v>48</v>
@@ -2223,16 +2049,16 @@
         <v>50</v>
       </c>
       <c r="AQ5" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR5" t="s">
         <v>167</v>
       </c>
-      <c r="AR5" t="s">
-        <v>183</v>
-      </c>
       <c r="AS5" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="AT5" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="AU5">
         <v>30</v>
@@ -2241,7 +2067,7 @@
         <v>90</v>
       </c>
       <c r="AW5" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
@@ -2252,40 +2078,40 @@
         <v>53</v>
       </c>
       <c r="M6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N6">
         <v>3499</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="S6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG6" t="s">
         <v>148</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AH6" t="s">
         <v>149</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>163</v>
       </c>
       <c r="AN6">
         <v>50</v>
@@ -2297,13 +2123,13 @@
         <v>50</v>
       </c>
       <c r="AQ6" t="s">
+        <v>153</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AT6" t="s">
         <v>167</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>187</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>183</v>
       </c>
       <c r="AU6">
         <v>30</v>
@@ -2312,7 +2138,7 @@
         <v>120</v>
       </c>
       <c r="AW6" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
@@ -2323,40 +2149,40 @@
         <v>49</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N7">
         <v>1499</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="S7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG7" t="s">
         <v>148</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AH7" t="s">
         <v>149</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>163</v>
       </c>
       <c r="AN7">
         <v>45</v>
@@ -2368,16 +2194,16 @@
         <v>50</v>
       </c>
       <c r="AQ7" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="AR7" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="AS7" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="AT7" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="AU7">
         <v>30</v>
@@ -2386,7 +2212,7 @@
         <v>75</v>
       </c>
       <c r="AW7" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
@@ -2397,40 +2223,40 @@
         <v>50</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N8">
         <v>3100</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="S8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG8" t="s">
         <v>148</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AH8" t="s">
         <v>149</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>156</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>163</v>
       </c>
       <c r="AN8">
         <v>48</v>
@@ -2442,16 +2268,16 @@
         <v>45</v>
       </c>
       <c r="AQ8" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR8" t="s">
         <v>166</v>
       </c>
-      <c r="AR8" t="s">
-        <v>182</v>
-      </c>
       <c r="AS8" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="AT8" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="AU8">
         <v>30</v>
@@ -2460,7 +2286,7 @@
         <v>80</v>
       </c>
       <c r="AW8" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
@@ -2468,558 +2294,558 @@
         <v>10316</v>
       </c>
       <c r="L9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N9">
         <v>3499</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="S9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG9" t="s">
         <v>148</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AH9" t="s">
         <v>149</v>
       </c>
-      <c r="AB9" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE9" t="s">
+      <c r="AN9">
+        <v>50</v>
+      </c>
+      <c r="AO9">
+        <v>48</v>
+      </c>
+      <c r="AP9">
+        <v>50</v>
+      </c>
+      <c r="AQ9" t="s">
         <v>154</v>
       </c>
-      <c r="AG9" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN9">
-        <v>48</v>
-      </c>
-      <c r="AO9">
-        <v>45</v>
-      </c>
-      <c r="AP9">
-        <v>50</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>182</v>
-      </c>
       <c r="AS9" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="AT9" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="AU9">
         <v>30</v>
       </c>
       <c r="AV9">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AW9" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10316</v>
+        <v>10336</v>
       </c>
       <c r="L10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N10">
-        <v>3499</v>
+        <v>2300</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="S10" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG10" t="s">
         <v>148</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AH10" t="s">
         <v>149</v>
       </c>
-      <c r="AB10" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC10" t="s">
+      <c r="AN10">
+        <v>48</v>
+      </c>
+      <c r="AO10">
+        <v>45</v>
+      </c>
+      <c r="AP10">
+        <v>50</v>
+      </c>
+      <c r="AQ10" t="s">
         <v>152</v>
       </c>
-      <c r="AD10" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN10">
-        <v>50</v>
-      </c>
-      <c r="AO10">
-        <v>48</v>
-      </c>
-      <c r="AP10">
-        <v>50</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>168</v>
+      <c r="AR10" t="s">
+        <v>166</v>
       </c>
       <c r="AS10" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="AT10" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="AU10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AV10">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AW10" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10317</v>
+        <v>10368</v>
       </c>
       <c r="L11" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="M11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N11">
         <v>3999</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="S11" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG11" t="s">
         <v>148</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AH11" t="s">
         <v>149</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AN11">
+        <v>50</v>
+      </c>
+      <c r="AO11">
+        <v>48</v>
+      </c>
+      <c r="AP11">
+        <v>50</v>
+      </c>
+      <c r="AQ11" t="s">
         <v>150</v>
       </c>
-      <c r="AC11" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN11">
-        <v>50</v>
-      </c>
-      <c r="AO11">
-        <v>53</v>
-      </c>
-      <c r="AP11">
-        <v>48</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>169</v>
-      </c>
       <c r="AR11" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="AS11" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="AT11" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="AU11">
         <v>30</v>
       </c>
       <c r="AV11">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AW11" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10336</v>
+        <v>10424</v>
       </c>
       <c r="L12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N12">
-        <v>2300</v>
+        <v>7999</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="S12" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG12" t="s">
         <v>148</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AH12" t="s">
         <v>149</v>
       </c>
-      <c r="AB12" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>154</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>163</v>
-      </c>
       <c r="AN12">
+        <v>50</v>
+      </c>
+      <c r="AO12">
         <v>48</v>
       </c>
-      <c r="AO12">
-        <v>45</v>
-      </c>
       <c r="AP12">
         <v>50</v>
       </c>
       <c r="AQ12" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="AR12" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="AS12" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="AT12" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="AU12">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AV12">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="AW12" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>10368</v>
+        <v>10460</v>
       </c>
       <c r="L13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N13">
-        <v>3999</v>
+        <v>7999</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="S13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG13" t="s">
         <v>148</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AH13" t="s">
         <v>149</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AN13">
+        <v>48</v>
+      </c>
+      <c r="AO13">
+        <v>45</v>
+      </c>
+      <c r="AP13">
+        <v>50</v>
+      </c>
+      <c r="AQ13" t="s">
         <v>150</v>
       </c>
-      <c r="AC13" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN13">
-        <v>50</v>
-      </c>
-      <c r="AO13">
-        <v>48</v>
-      </c>
-      <c r="AP13">
-        <v>50</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>164</v>
-      </c>
       <c r="AR13" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="AS13" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="AT13" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="AU13">
         <v>30</v>
       </c>
       <c r="AV13">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AW13" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>10371</v>
+        <v>10494</v>
       </c>
       <c r="L14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N14">
-        <v>5999</v>
+        <v>7999</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="S14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG14" t="s">
         <v>148</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AH14" t="s">
         <v>149</v>
       </c>
-      <c r="AB14" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>163</v>
-      </c>
       <c r="AN14">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AO14">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AP14">
         <v>50</v>
       </c>
       <c r="AQ14" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="AR14" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="AS14" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="AT14" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="AU14">
         <v>30</v>
       </c>
       <c r="AV14">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AW14" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>10420</v>
+        <v>10501</v>
       </c>
       <c r="L15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N15">
-        <v>9999</v>
+        <v>6999</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="S15" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG15" t="s">
         <v>148</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AH15" t="s">
         <v>149</v>
       </c>
-      <c r="AB15" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>154</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>163</v>
-      </c>
       <c r="AN15">
         <v>50</v>
       </c>
       <c r="AO15">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AP15">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AQ15" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="AR15" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="AS15" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="AT15" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="AU15">
         <v>30</v>
       </c>
       <c r="AV15">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AW15" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>10424</v>
+        <v>10522</v>
       </c>
       <c r="L16" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="M16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N16">
-        <v>7999</v>
+        <v>5999</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="S16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG16" t="s">
         <v>148</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AH16" t="s">
         <v>149</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>157</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>163</v>
       </c>
       <c r="AN16">
         <v>50</v>
@@ -3031,69 +2857,66 @@
         <v>50</v>
       </c>
       <c r="AQ16" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS16" t="s">
         <v>171</v>
       </c>
-      <c r="AR16" t="s">
-        <v>185</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>187</v>
-      </c>
       <c r="AT16" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="AU16">
         <v>30</v>
       </c>
       <c r="AV16">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AW16" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>10460</v>
+        <v>10532</v>
       </c>
       <c r="L17" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="M17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N17">
         <v>7999</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="S17" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG17" t="s">
         <v>148</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AH17" t="s">
         <v>149</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>163</v>
       </c>
       <c r="AN17">
         <v>48</v>
@@ -3105,288 +2928,279 @@
         <v>50</v>
       </c>
       <c r="AQ17" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="AS17" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="AT17" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="AU17">
         <v>30</v>
       </c>
       <c r="AV17">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AW17" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>10494</v>
+        <v>10532</v>
       </c>
       <c r="L18" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N18">
         <v>7999</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="S18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG18" t="s">
         <v>148</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AH18" t="s">
         <v>149</v>
       </c>
-      <c r="AB18" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD18" t="s">
+      <c r="AN18">
+        <v>48</v>
+      </c>
+      <c r="AO18">
+        <v>45</v>
+      </c>
+      <c r="AP18">
+        <v>50</v>
+      </c>
+      <c r="AQ18" t="s">
         <v>153</v>
       </c>
-      <c r="AE18" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN18">
-        <v>55</v>
-      </c>
-      <c r="AO18">
-        <v>53</v>
-      </c>
-      <c r="AP18">
-        <v>50</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>172</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>186</v>
-      </c>
       <c r="AS18" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="AT18" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="AU18">
         <v>30</v>
       </c>
       <c r="AV18">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AW18" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>10501</v>
+        <v>10410</v>
       </c>
       <c r="L19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N19">
-        <v>6999</v>
+        <v>12000</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="S19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG19" t="s">
         <v>148</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AH19" t="s">
         <v>149</v>
       </c>
-      <c r="AB19" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE19" t="s">
+      <c r="AN19">
+        <v>48</v>
+      </c>
+      <c r="AO19">
+        <v>45</v>
+      </c>
+      <c r="AP19">
+        <v>50</v>
+      </c>
+      <c r="AQ19" t="s">
         <v>158</v>
       </c>
-      <c r="AG19" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN19">
-        <v>50</v>
-      </c>
-      <c r="AO19">
-        <v>48</v>
-      </c>
-      <c r="AP19">
-        <v>53</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>173</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>182</v>
-      </c>
       <c r="AS19" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="AT19" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="AU19">
         <v>30</v>
       </c>
       <c r="AV19">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AW19" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>10522</v>
+        <v>10542</v>
       </c>
       <c r="L20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N20">
         <v>5999</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="S20" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG20" t="s">
         <v>148</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AH20" t="s">
         <v>149</v>
       </c>
-      <c r="AB20" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE20" t="s">
+      <c r="AN20">
+        <v>48</v>
+      </c>
+      <c r="AO20">
+        <v>45</v>
+      </c>
+      <c r="AP20">
+        <v>50</v>
+      </c>
+      <c r="AQ20" t="s">
         <v>159</v>
       </c>
-      <c r="AG20" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN20">
-        <v>50</v>
-      </c>
-      <c r="AO20">
-        <v>48</v>
-      </c>
-      <c r="AP20">
-        <v>50</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>168</v>
-      </c>
       <c r="AS20" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="AT20" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="AU20">
         <v>30</v>
       </c>
       <c r="AV20">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AW20" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>10532</v>
+        <v>10468</v>
       </c>
       <c r="L21" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="M21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N21">
-        <v>7999</v>
+        <v>17000</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="S21" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG21" t="s">
         <v>148</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AH21" t="s">
         <v>149</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>163</v>
       </c>
       <c r="AN21">
         <v>48</v>
@@ -3398,13 +3212,13 @@
         <v>50</v>
       </c>
       <c r="AQ21" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="AS21" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="AT21" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="AU21">
         <v>30</v>
@@ -3413,51 +3227,51 @@
         <v>120</v>
       </c>
       <c r="AW21" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>10532</v>
+        <v>10498</v>
       </c>
       <c r="L22" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="M22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N22">
-        <v>7999</v>
+        <v>9999</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="S22" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG22" t="s">
         <v>148</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AH22" t="s">
         <v>149</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>163</v>
       </c>
       <c r="AN22">
         <v>48</v>
@@ -3469,13 +3283,13 @@
         <v>50</v>
       </c>
       <c r="AQ22" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>171</v>
+      </c>
+      <c r="AT22" t="s">
         <v>167</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>187</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>183</v>
       </c>
       <c r="AU22">
         <v>30</v>
@@ -3484,51 +3298,51 @@
         <v>120</v>
       </c>
       <c r="AW22" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>10410</v>
+        <v>10533</v>
       </c>
       <c r="L23" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="M23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N23">
-        <v>12000</v>
+        <v>9999</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="S23" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG23" t="s">
         <v>148</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AH23" t="s">
         <v>149</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>163</v>
       </c>
       <c r="AN23">
         <v>48</v>
@@ -3540,13 +3354,13 @@
         <v>50</v>
       </c>
       <c r="AQ23" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="AS23" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="AT23" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="AU23">
         <v>30</v>
@@ -3555,51 +3369,51 @@
         <v>120</v>
       </c>
       <c r="AW23" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>10542</v>
+        <v>10461</v>
       </c>
       <c r="L24" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="M24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N24">
-        <v>5999</v>
+        <v>11999</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="S24" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG24" t="s">
         <v>148</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AH24" t="s">
         <v>149</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>163</v>
       </c>
       <c r="AN24">
         <v>48</v>
@@ -3611,13 +3425,13 @@
         <v>50</v>
       </c>
       <c r="AQ24" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="AS24" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="AT24" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="AU24">
         <v>30</v>
@@ -3626,51 +3440,51 @@
         <v>120</v>
       </c>
       <c r="AW24" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>10468</v>
+        <v>10547</v>
       </c>
       <c r="L25" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="M25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N25">
-        <v>17000</v>
+        <v>9999</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="S25" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG25" t="s">
         <v>148</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AH25" t="s">
         <v>149</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>163</v>
       </c>
       <c r="AN25">
         <v>48</v>
@@ -3682,13 +3496,13 @@
         <v>50</v>
       </c>
       <c r="AQ25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AS25" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="AT25" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="AU25">
         <v>30</v>
@@ -3697,51 +3511,51 @@
         <v>120</v>
       </c>
       <c r="AW25" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>10498</v>
+        <v>10530</v>
       </c>
       <c r="L26" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="M26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N26">
-        <v>9999</v>
+        <v>3499</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="Q26" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="S26" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE26" t="s">
         <v>147</v>
       </c>
-      <c r="S26" t="s">
+      <c r="AG26" t="s">
         <v>148</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AH26" t="s">
         <v>149</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>163</v>
       </c>
       <c r="AN26">
         <v>48</v>
@@ -3753,13 +3567,13 @@
         <v>50</v>
       </c>
       <c r="AQ26" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="AS26" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="AT26" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="AU26">
         <v>30</v>
@@ -3768,51 +3582,51 @@
         <v>120</v>
       </c>
       <c r="AW26" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>10550</v>
+        <v>10541</v>
       </c>
       <c r="L27" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="M27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N27">
-        <v>14999</v>
+        <v>4999</v>
       </c>
       <c r="O27" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q27" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="Q27" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="S27" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG27" t="s">
         <v>148</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="AH27" t="s">
         <v>149</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>163</v>
       </c>
       <c r="AN27">
         <v>48</v>
@@ -3824,13 +3638,13 @@
         <v>50</v>
       </c>
       <c r="AQ27" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="AS27" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="AT27" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="AU27">
         <v>30</v>
@@ -3839,51 +3653,51 @@
         <v>120</v>
       </c>
       <c r="AW27" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>10533</v>
+        <v>10319</v>
       </c>
       <c r="L28" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N28">
-        <v>9999</v>
+        <v>2999</v>
       </c>
       <c r="O28" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="S28" t="s">
         <v>134</v>
       </c>
-      <c r="Q28" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="S28" t="s">
+      <c r="AA28" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG28" t="s">
         <v>148</v>
       </c>
-      <c r="AA28" t="s">
+      <c r="AH28" t="s">
         <v>149</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>163</v>
       </c>
       <c r="AN28">
         <v>48</v>
@@ -3895,13 +3709,13 @@
         <v>50</v>
       </c>
       <c r="AQ28" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="AS28" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="AT28" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="AU28">
         <v>30</v>
@@ -3910,51 +3724,51 @@
         <v>120</v>
       </c>
       <c r="AW28" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>10461</v>
+        <v>204741</v>
       </c>
       <c r="L29" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="M29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N29">
-        <v>11999</v>
+        <v>44999</v>
       </c>
       <c r="O29" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="S29" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA29" t="s">
         <v>135</v>
       </c>
-      <c r="Q29" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="S29" t="s">
+      <c r="AB29" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG29" t="s">
         <v>148</v>
       </c>
-      <c r="AA29" t="s">
+      <c r="AH29" t="s">
         <v>149</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>163</v>
       </c>
       <c r="AN29">
         <v>48</v>
@@ -3966,13 +3780,13 @@
         <v>50</v>
       </c>
       <c r="AQ29" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="AS29" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="AT29" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="AU29">
         <v>30</v>
@@ -3981,51 +3795,51 @@
         <v>120</v>
       </c>
       <c r="AW29" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>10547</v>
+        <v>105581</v>
       </c>
       <c r="L30" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N30">
-        <v>9999</v>
+        <v>11999</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="S30" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG30" t="s">
         <v>148</v>
       </c>
-      <c r="AA30" t="s">
+      <c r="AH30" t="s">
         <v>149</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>163</v>
       </c>
       <c r="AN30">
         <v>48</v>
@@ -4037,13 +3851,13 @@
         <v>50</v>
       </c>
       <c r="AQ30" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="AS30" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="AT30" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="AU30">
         <v>30</v>
@@ -4052,51 +3866,51 @@
         <v>120</v>
       </c>
       <c r="AW30" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>10530</v>
+        <v>10558</v>
       </c>
       <c r="L31" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N31">
-        <v>3499</v>
+        <v>11999</v>
       </c>
       <c r="O31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="S31" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB31" t="s">
         <v>137</v>
       </c>
-      <c r="Q31" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="S31" t="s">
+      <c r="AC31" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG31" t="s">
         <v>148</v>
       </c>
-      <c r="AA31" t="s">
+      <c r="AH31" t="s">
         <v>149</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>163</v>
       </c>
       <c r="AN31">
         <v>48</v>
@@ -4108,13 +3922,13 @@
         <v>50</v>
       </c>
       <c r="AQ31" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="AS31" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="AT31" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="AU31">
         <v>30</v>
@@ -4123,51 +3937,51 @@
         <v>120</v>
       </c>
       <c r="AW31" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>10541</v>
+        <v>10559</v>
       </c>
       <c r="L32" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N32">
-        <v>4999</v>
+        <v>9999</v>
       </c>
       <c r="O32" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="S32" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC32" t="s">
         <v>138</v>
       </c>
-      <c r="Q32" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="S32" t="s">
+      <c r="AD32" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG32" t="s">
         <v>148</v>
       </c>
-      <c r="AA32" t="s">
+      <c r="AH32" t="s">
         <v>149</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>163</v>
       </c>
       <c r="AN32">
         <v>48</v>
@@ -4179,13 +3993,13 @@
         <v>50</v>
       </c>
       <c r="AQ32" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="AS32" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="AT32" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="AU32">
         <v>30</v>
@@ -4194,51 +4008,51 @@
         <v>120</v>
       </c>
       <c r="AW32" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>10319</v>
+        <v>10562</v>
       </c>
       <c r="L33" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="M33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N33">
-        <v>2999</v>
+        <v>14999</v>
       </c>
       <c r="O33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="S33" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD33" t="s">
         <v>139</v>
       </c>
-      <c r="Q33" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="S33" t="s">
+      <c r="AE33" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG33" t="s">
         <v>148</v>
       </c>
-      <c r="AA33" t="s">
+      <c r="AH33" t="s">
         <v>149</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>163</v>
       </c>
       <c r="AN33">
         <v>48</v>
@@ -4250,13 +4064,13 @@
         <v>50</v>
       </c>
       <c r="AQ33" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="AS33" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="AT33" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="AU33">
         <v>30</v>
@@ -4265,51 +4079,51 @@
         <v>120</v>
       </c>
       <c r="AW33" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>20474</v>
+        <v>10561</v>
       </c>
       <c r="L34" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="M34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N34">
-        <v>59999</v>
+        <v>7999</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="S34" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG34" t="s">
         <v>148</v>
       </c>
-      <c r="AA34" t="s">
+      <c r="AH34" t="s">
         <v>149</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>163</v>
       </c>
       <c r="AN34">
         <v>48</v>
@@ -4321,13 +4135,13 @@
         <v>50</v>
       </c>
       <c r="AQ34" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="AS34" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="AT34" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="AU34">
         <v>30</v>
@@ -4336,433 +4150,7 @@
         <v>120</v>
       </c>
       <c r="AW34" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>204741</v>
-      </c>
-      <c r="L35" t="s">
-        <v>68</v>
-      </c>
-      <c r="M35" t="s">
-        <v>103</v>
-      </c>
-      <c r="N35">
-        <v>44999</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="S35" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH35" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN35">
-        <v>48</v>
-      </c>
-      <c r="AO35">
-        <v>45</v>
-      </c>
-      <c r="AP35">
-        <v>50</v>
-      </c>
-      <c r="AQ35" t="s">
-        <v>181</v>
-      </c>
-      <c r="AS35" t="s">
-        <v>187</v>
-      </c>
-      <c r="AT35" t="s">
-        <v>185</v>
-      </c>
-      <c r="AU35">
-        <v>30</v>
-      </c>
-      <c r="AV35">
-        <v>120</v>
-      </c>
-      <c r="AW35" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>105581</v>
-      </c>
-      <c r="L36" t="s">
-        <v>54</v>
-      </c>
-      <c r="M36" t="s">
-        <v>104</v>
-      </c>
-      <c r="N36">
-        <v>11999</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q36" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="S36" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG36" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH36" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN36">
-        <v>48</v>
-      </c>
-      <c r="AO36">
-        <v>45</v>
-      </c>
-      <c r="AP36">
-        <v>50</v>
-      </c>
-      <c r="AQ36" t="s">
-        <v>167</v>
-      </c>
-      <c r="AS36" t="s">
-        <v>187</v>
-      </c>
-      <c r="AT36" t="s">
-        <v>188</v>
-      </c>
-      <c r="AU36">
-        <v>30</v>
-      </c>
-      <c r="AV36">
-        <v>120</v>
-      </c>
-      <c r="AW36" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>10558</v>
-      </c>
-      <c r="L37" t="s">
-        <v>54</v>
-      </c>
-      <c r="M37" t="s">
-        <v>105</v>
-      </c>
-      <c r="N37">
-        <v>11999</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="S37" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH37" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN37">
-        <v>48</v>
-      </c>
-      <c r="AO37">
-        <v>45</v>
-      </c>
-      <c r="AP37">
-        <v>50</v>
-      </c>
-      <c r="AQ37" t="s">
-        <v>167</v>
-      </c>
-      <c r="AS37" t="s">
-        <v>187</v>
-      </c>
-      <c r="AT37" t="s">
-        <v>188</v>
-      </c>
-      <c r="AU37">
-        <v>30</v>
-      </c>
-      <c r="AV37">
-        <v>120</v>
-      </c>
-      <c r="AW37" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>10559</v>
-      </c>
-      <c r="L38" t="s">
-        <v>50</v>
-      </c>
-      <c r="M38" t="s">
-        <v>106</v>
-      </c>
-      <c r="N38">
-        <v>9999</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="S38" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH38" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN38">
-        <v>48</v>
-      </c>
-      <c r="AO38">
-        <v>45</v>
-      </c>
-      <c r="AP38">
-        <v>50</v>
-      </c>
-      <c r="AQ38" t="s">
-        <v>174</v>
-      </c>
-      <c r="AS38" t="s">
-        <v>187</v>
-      </c>
-      <c r="AT38" t="s">
-        <v>189</v>
-      </c>
-      <c r="AU38">
-        <v>30</v>
-      </c>
-      <c r="AV38">
-        <v>120</v>
-      </c>
-      <c r="AW38" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>10562</v>
-      </c>
-      <c r="L39" t="s">
-        <v>69</v>
-      </c>
-      <c r="M39" t="s">
-        <v>107</v>
-      </c>
-      <c r="N39">
-        <v>14999</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="S39" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG39" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH39" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN39">
-        <v>48</v>
-      </c>
-      <c r="AO39">
-        <v>45</v>
-      </c>
-      <c r="AP39">
-        <v>50</v>
-      </c>
-      <c r="AQ39" t="s">
-        <v>174</v>
-      </c>
-      <c r="AS39" t="s">
-        <v>187</v>
-      </c>
-      <c r="AT39" t="s">
-        <v>189</v>
-      </c>
-      <c r="AU39">
-        <v>30</v>
-      </c>
-      <c r="AV39">
-        <v>120</v>
-      </c>
-      <c r="AW39" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>10561</v>
-      </c>
-      <c r="L40" t="s">
-        <v>50</v>
-      </c>
-      <c r="M40" t="s">
-        <v>108</v>
-      </c>
-      <c r="N40">
-        <v>7999</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="S40" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG40" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH40" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN40">
-        <v>48</v>
-      </c>
-      <c r="AO40">
-        <v>45</v>
-      </c>
-      <c r="AP40">
-        <v>50</v>
-      </c>
-      <c r="AQ40" t="s">
-        <v>165</v>
-      </c>
-      <c r="AS40" t="s">
-        <v>187</v>
-      </c>
-      <c r="AT40" t="s">
-        <v>189</v>
-      </c>
-      <c r="AU40">
-        <v>30</v>
-      </c>
-      <c r="AV40">
-        <v>120</v>
-      </c>
-      <c r="AW40" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -4781,36 +4169,36 @@
     <hyperlink ref="Q7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="O8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="Q8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="O9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="Q9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="O10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="Q10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="O11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="Q11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="O12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="Q12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="O13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="Q13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="O14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="Q14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="O15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="Q15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="O16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="Q16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="O17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="Q17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="O18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="Q18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="O19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="Q19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="O20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="Q20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="O21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="Q21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="O22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="Q22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="O23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="Q23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="O9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="Q9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="O10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="Q10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="O11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="Q11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="O12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="Q12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="O13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="Q13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="O14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="Q14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="O15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="Q15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="O16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="Q16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="O17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="Q17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="O18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="Q18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="O19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="Q19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="O20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="Q20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="O21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="Q21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="O22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="Q22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="O23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="Q23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
     <hyperlink ref="O24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="Q24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
@@ -4833,18 +4221,6 @@
     <hyperlink ref="Q33" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
     <hyperlink ref="O34" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
     <hyperlink ref="Q34" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="O35" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="Q35" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="O36" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="Q36" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="O37" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="Q37" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="O38" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="Q38" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="O39" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="Q39" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="O40" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="Q40" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/comp armchair.xlsx
+++ b/make_xl/data_xl/comp armchair.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FA01C2-81F2-4DB9-A595-F7D9345462FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E50690-5ACE-45C5-BB09-FC5B7BCC25EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="185">
   <si>
     <t>Id</t>
   </si>
@@ -184,46 +184,52 @@
     <t xml:space="preserve">Офисное компьютерное кресло </t>
   </si>
   <si>
+    <t xml:space="preserve">Компьютерные кресла </t>
+  </si>
+  <si>
+    <t>Кресло офисное</t>
+  </si>
+  <si>
+    <t>Кресло для руководителя</t>
+  </si>
+  <si>
+    <t>Кресло руководителя кожаное</t>
+  </si>
+  <si>
+    <t>Кресло руководителя</t>
+  </si>
+  <si>
+    <t>Компьютерное крелсо для руководителя</t>
+  </si>
+  <si>
+    <t>Офисное компьютерное кресло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кресло компьютерное Chairman </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кресло компьютерное </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кресло директорское </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Компьютерное кресло Steelcase </t>
+  </si>
+  <si>
     <t>Офисное кресло</t>
   </si>
   <si>
-    <t xml:space="preserve">Компьютерные кресла </t>
-  </si>
-  <si>
-    <t>Кресло офисное</t>
-  </si>
-  <si>
-    <t>Кресло для руководителя</t>
-  </si>
-  <si>
-    <t>Кресло руководителя кожаное</t>
-  </si>
-  <si>
-    <t>Кресло руководителя</t>
-  </si>
-  <si>
-    <t>Компьютерное крелсо для руководителя</t>
-  </si>
-  <si>
-    <t>Офисное компьютерное кресло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кресло компьютерное Chairman </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кресло компьютерное </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кресло директорское </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Компьютерное кресло Steelcase </t>
-  </si>
-  <si>
     <t>Стул кресло Vitra</t>
   </si>
   <si>
     <t>Кресло компьютерное для руководителя</t>
+  </si>
+  <si>
+    <t>Кресло руководителя кожа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кресло руководителя Chairman </t>
   </si>
   <si>
     <t>Кресло с высокой спинкой (10371) 
@@ -980,6 +986,47 @@
     </t>
   </si>
   <si>
+    <t>Кресло руководителя кожа
+Артикул 10550
+Кожаное кресло для руководителя Unital от отечественного производителя мягкой мебели. 
+Кресло выполнено из красного дерева и кожи, что гарантирует долгую службу и комфорт.
+Кресло рассчитано на большой вес до 120 кг. Механизм с режимом качания и фиксацией в нескольких положениях.
+Цвет черный
+Цена 14 999
+Количество 6
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Кресло руководителя Chairman 
+Артикул 10563
+Цвет белый
+Цена 24 999
+Количество 1
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/ZDiUdOWTq7XF1g | https://disk.yandex.ru/i/a_u5CWPrYhAoIA | https://disk.yandex.ru/i/2U4SaFSBylFuSg | https://disk.yandex.ru/i/5xCnmpLS2Ky7dQ | https://disk.yandex.ru/i/ugTACqRM4oAMBA</t>
   </si>
   <si>
@@ -1076,6 +1123,12 @@
     <t>https://disk.yandex.ru/i/8s3-pFh4RYkTdg | https://disk.yandex.ru/i/lySUY6T_h_O-MQ | https://disk.yandex.ru/i/bMfw9dCjHPdaSA | https://disk.yandex.ru/i/7FVJSopMwjfMmg | https://disk.yandex.ru/i/VYWqAy_HH6TOZg | https://disk.yandex.ru/i/Bcbw5YBduCbzrA | https://disk.yandex.ru/i/PjU7M6ow1AC8yQ | https://disk.yandex.ru/i/BG_ndGSDMlQpSw | https://disk.yandex.ru/i/zGte8T9b4Fo70g</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/DNa0bSVCLnfHDg | https://disk.yandex.ru/i/Fhlc7MqwcKXmlQ | https://disk.yandex.ru/i/49EaxhFQyUG2Ow | https://disk.yandex.ru/i/HNBSUrJ0iEGXrA | https://disk.yandex.ru/i/KkAVqi3YLGjyxg | https://disk.yandex.ru/i/Aj8_aeXh8ILr8Q | https://disk.yandex.ru/i/PRFCrs-H15gyhw | https://disk.yandex.ru/i/oJBVanf-GZZjCg | https://disk.yandex.ru/i/olmGQTmI6GgRJA | https://disk.yandex.ru/i/RBXPHIdr-Bld9A</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/1MpGWinNv10KTg | https://disk.yandex.ru/i/S2tPWtPmE1zvEg | https://disk.yandex.ru/i/OObCphgGAilR_Q | https://disk.yandex.ru/i/s-At7wKmk_9Hxg | https://disk.yandex.ru/i/x8VFw86Atux-oA | https://disk.yandex.ru/i/eUze5V7sHj_Unw | https://disk.yandex.ru/i/s9iCUx4xva14KA | https://disk.yandex.ru/i/0R4KqhcBCfWYSg</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -1175,6 +1228,9 @@
     <t>Подлокотники | Поясничный упор</t>
   </si>
   <si>
+    <t>Подголовник | Механизм качания | Регулировка высоты | Поясничный упор</t>
+  </si>
+  <si>
     <t>Замша</t>
   </si>
   <si>
@@ -1203,6 +1259,9 @@
   </si>
   <si>
     <t>Ткань | Сетка</t>
+  </si>
+  <si>
+    <t>Кожа | Дерево</t>
   </si>
   <si>
     <t>Нет</t>
@@ -1620,10 +1679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW34"/>
+  <dimension ref="A1:AW36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1785,40 +1844,40 @@
         <v>49</v>
       </c>
       <c r="M2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N2">
         <v>5499</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="S2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AA2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AB2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AC2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AD2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AE2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AG2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AH2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AN2">
         <v>50</v>
@@ -1830,16 +1889,16 @@
         <v>50</v>
       </c>
       <c r="AQ2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AR2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AS2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AT2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AU2">
         <v>30</v>
@@ -1848,7 +1907,7 @@
         <v>120</v>
       </c>
       <c r="AW2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.25">
@@ -1859,40 +1918,40 @@
         <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N3">
         <v>7000</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="S3" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AA3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AB3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AC3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AD3" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AE3" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AG3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AH3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AN3">
         <v>50</v>
@@ -1904,13 +1963,13 @@
         <v>50</v>
       </c>
       <c r="AQ3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AS3" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AT3" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AU3">
         <v>31</v>
@@ -1919,7 +1978,7 @@
         <v>70</v>
       </c>
       <c r="AW3" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
@@ -1930,40 +1989,40 @@
         <v>51</v>
       </c>
       <c r="M4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N4">
         <v>2999</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="S4" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AA4" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AB4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AC4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AD4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AE4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AG4" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AH4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AN4">
         <v>45</v>
@@ -1975,16 +2034,16 @@
         <v>40</v>
       </c>
       <c r="AQ4" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AR4" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AS4" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AT4" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AU4">
         <v>30</v>
@@ -1993,7 +2052,7 @@
         <v>80</v>
       </c>
       <c r="AW4" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
@@ -2004,40 +2063,40 @@
         <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N5">
         <v>3999</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="S5" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AA5" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AB5" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AC5" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AD5" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AE5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AG5" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AH5" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AN5">
         <v>48</v>
@@ -2049,16 +2108,16 @@
         <v>50</v>
       </c>
       <c r="AQ5" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AR5" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AS5" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AT5" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AU5">
         <v>30</v>
@@ -2067,7 +2126,7 @@
         <v>90</v>
       </c>
       <c r="AW5" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
@@ -2078,40 +2137,40 @@
         <v>53</v>
       </c>
       <c r="M6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N6">
         <v>3499</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="S6" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AA6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AB6" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AC6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AD6" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AE6" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AG6" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AH6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AN6">
         <v>50</v>
@@ -2123,13 +2182,13 @@
         <v>50</v>
       </c>
       <c r="AQ6" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AS6" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AT6" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AU6">
         <v>30</v>
@@ -2138,7 +2197,7 @@
         <v>120</v>
       </c>
       <c r="AW6" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
@@ -2149,40 +2208,40 @@
         <v>49</v>
       </c>
       <c r="M7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N7">
         <v>1499</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="S7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AA7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AB7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AC7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AD7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AE7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AG7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AH7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AN7">
         <v>45</v>
@@ -2194,16 +2253,16 @@
         <v>50</v>
       </c>
       <c r="AQ7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AR7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="AS7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AT7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="AU7">
         <v>30</v>
@@ -2212,7 +2271,7 @@
         <v>75</v>
       </c>
       <c r="AW7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
@@ -2223,40 +2282,40 @@
         <v>50</v>
       </c>
       <c r="M8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N8">
         <v>3100</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="S8" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AA8" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AB8" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AC8" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AD8" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AE8" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AG8" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AH8" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AN8">
         <v>48</v>
@@ -2268,16 +2327,16 @@
         <v>45</v>
       </c>
       <c r="AQ8" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AR8" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AS8" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AT8" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AU8">
         <v>30</v>
@@ -2286,7 +2345,7 @@
         <v>80</v>
       </c>
       <c r="AW8" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
@@ -2294,43 +2353,43 @@
         <v>10316</v>
       </c>
       <c r="L9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N9">
         <v>3499</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="S9" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AA9" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AB9" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AC9" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AD9" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AE9" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AG9" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AH9" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AN9">
         <v>50</v>
@@ -2342,13 +2401,13 @@
         <v>50</v>
       </c>
       <c r="AQ9" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AS9" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AT9" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AU9">
         <v>30</v>
@@ -2357,7 +2416,7 @@
         <v>120</v>
       </c>
       <c r="AW9" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
@@ -2365,43 +2424,43 @@
         <v>10336</v>
       </c>
       <c r="L10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N10">
         <v>2300</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="S10" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AA10" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AB10" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AC10" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AD10" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AE10" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AG10" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AH10" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AN10">
         <v>48</v>
@@ -2413,16 +2472,16 @@
         <v>50</v>
       </c>
       <c r="AQ10" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AR10" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AS10" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AT10" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AU10">
         <v>31</v>
@@ -2431,7 +2490,7 @@
         <v>70</v>
       </c>
       <c r="AW10" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
@@ -2439,43 +2498,43 @@
         <v>10368</v>
       </c>
       <c r="L11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N11">
         <v>3999</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="S11" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AA11" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AB11" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AC11" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AD11" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AE11" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AG11" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AH11" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AN11">
         <v>50</v>
@@ -2487,16 +2546,16 @@
         <v>50</v>
       </c>
       <c r="AQ11" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AR11" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="AS11" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AT11" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="AU11">
         <v>30</v>
@@ -2505,7 +2564,7 @@
         <v>120</v>
       </c>
       <c r="AW11" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
@@ -2516,40 +2575,40 @@
         <v>50</v>
       </c>
       <c r="M12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N12">
         <v>7999</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="S12" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AA12" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AB12" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AC12" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AD12" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AE12" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AG12" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AH12" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AN12">
         <v>50</v>
@@ -2561,16 +2620,16 @@
         <v>50</v>
       </c>
       <c r="AQ12" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AR12" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="AS12" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AT12" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="AU12">
         <v>30</v>
@@ -2579,7 +2638,7 @@
         <v>120</v>
       </c>
       <c r="AW12" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
@@ -2587,43 +2646,43 @@
         <v>10460</v>
       </c>
       <c r="L13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N13">
         <v>7999</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="S13" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AA13" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AB13" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AC13" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AD13" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AE13" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AG13" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AH13" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AN13">
         <v>48</v>
@@ -2635,16 +2694,16 @@
         <v>50</v>
       </c>
       <c r="AQ13" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AR13" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="AS13" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AT13" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="AU13">
         <v>30</v>
@@ -2653,7 +2712,7 @@
         <v>100</v>
       </c>
       <c r="AW13" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
@@ -2661,43 +2720,43 @@
         <v>10494</v>
       </c>
       <c r="L14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N14">
         <v>7999</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="S14" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AA14" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AB14" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AC14" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AD14" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AE14" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AG14" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AH14" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AN14">
         <v>55</v>
@@ -2709,16 +2768,16 @@
         <v>50</v>
       </c>
       <c r="AQ14" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AR14" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="AS14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AT14" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="AU14">
         <v>30</v>
@@ -2727,7 +2786,7 @@
         <v>180</v>
       </c>
       <c r="AW14" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
@@ -2735,43 +2794,43 @@
         <v>10501</v>
       </c>
       <c r="L15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N15">
         <v>6999</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="S15" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AA15" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AB15" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AC15" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AD15" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AE15" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AG15" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AH15" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AN15">
         <v>50</v>
@@ -2783,16 +2842,16 @@
         <v>53</v>
       </c>
       <c r="AQ15" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AR15" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AS15" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AT15" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AU15">
         <v>30</v>
@@ -2801,7 +2860,7 @@
         <v>100</v>
       </c>
       <c r="AW15" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
@@ -2809,43 +2868,43 @@
         <v>10522</v>
       </c>
       <c r="L16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N16">
         <v>5999</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="S16" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AA16" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AB16" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AC16" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AD16" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AE16" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AG16" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AH16" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AN16">
         <v>50</v>
@@ -2857,13 +2916,13 @@
         <v>50</v>
       </c>
       <c r="AQ16" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AS16" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AT16" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="AU16">
         <v>30</v>
@@ -2872,7 +2931,7 @@
         <v>80</v>
       </c>
       <c r="AW16" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
@@ -2883,40 +2942,40 @@
         <v>51</v>
       </c>
       <c r="M17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N17">
         <v>7999</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="S17" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AA17" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AB17" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AC17" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AD17" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AE17" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AG17" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AH17" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AN17">
         <v>48</v>
@@ -2928,13 +2987,13 @@
         <v>50</v>
       </c>
       <c r="AQ17" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AS17" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AT17" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AU17">
         <v>30</v>
@@ -2943,7 +3002,7 @@
         <v>120</v>
       </c>
       <c r="AW17" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
@@ -2954,40 +3013,40 @@
         <v>51</v>
       </c>
       <c r="M18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N18">
         <v>7999</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="S18" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AA18" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AB18" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AC18" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AD18" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AE18" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AG18" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AH18" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AN18">
         <v>48</v>
@@ -2999,13 +3058,13 @@
         <v>50</v>
       </c>
       <c r="AQ18" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AS18" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AT18" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AU18">
         <v>30</v>
@@ -3014,7 +3073,7 @@
         <v>120</v>
       </c>
       <c r="AW18" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
@@ -3022,43 +3081,43 @@
         <v>10410</v>
       </c>
       <c r="L19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N19">
         <v>12000</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="S19" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AA19" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AB19" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AC19" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AD19" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AE19" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AG19" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AH19" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AN19">
         <v>48</v>
@@ -3070,13 +3129,13 @@
         <v>50</v>
       </c>
       <c r="AQ19" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="AS19" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AT19" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AU19">
         <v>30</v>
@@ -3085,7 +3144,7 @@
         <v>120</v>
       </c>
       <c r="AW19" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
@@ -3093,43 +3152,43 @@
         <v>10542</v>
       </c>
       <c r="L20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N20">
         <v>5999</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="S20" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AA20" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AB20" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AC20" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AD20" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AE20" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AG20" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AH20" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AN20">
         <v>48</v>
@@ -3141,13 +3200,13 @@
         <v>50</v>
       </c>
       <c r="AQ20" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AS20" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AT20" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AU20">
         <v>30</v>
@@ -3156,7 +3215,7 @@
         <v>120</v>
       </c>
       <c r="AW20" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
@@ -3164,43 +3223,43 @@
         <v>10468</v>
       </c>
       <c r="L21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N21">
         <v>17000</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="S21" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AA21" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AB21" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AC21" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AD21" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AE21" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AG21" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AH21" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AN21">
         <v>48</v>
@@ -3212,13 +3271,13 @@
         <v>50</v>
       </c>
       <c r="AQ21" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AS21" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AT21" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AU21">
         <v>30</v>
@@ -3227,7 +3286,7 @@
         <v>120</v>
       </c>
       <c r="AW21" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
@@ -3235,43 +3294,43 @@
         <v>10498</v>
       </c>
       <c r="L22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N22">
         <v>9999</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="S22" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AA22" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AB22" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AC22" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AD22" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AE22" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AG22" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AH22" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AN22">
         <v>48</v>
@@ -3283,13 +3342,13 @@
         <v>50</v>
       </c>
       <c r="AQ22" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AS22" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AT22" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AU22">
         <v>30</v>
@@ -3298,7 +3357,7 @@
         <v>120</v>
       </c>
       <c r="AW22" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:49" x14ac:dyDescent="0.25">
@@ -3309,40 +3368,40 @@
         <v>50</v>
       </c>
       <c r="M23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N23">
         <v>9999</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="S23" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AA23" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AB23" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AC23" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AD23" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AE23" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AG23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AH23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AN23">
         <v>48</v>
@@ -3354,13 +3413,13 @@
         <v>50</v>
       </c>
       <c r="AQ23" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AS23" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AT23" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AU23">
         <v>30</v>
@@ -3369,7 +3428,7 @@
         <v>120</v>
       </c>
       <c r="AW23" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:49" x14ac:dyDescent="0.25">
@@ -3377,43 +3436,43 @@
         <v>10461</v>
       </c>
       <c r="L24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N24">
         <v>11999</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="S24" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AA24" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AB24" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AC24" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AD24" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AE24" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AG24" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AH24" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AN24">
         <v>48</v>
@@ -3425,13 +3484,13 @@
         <v>50</v>
       </c>
       <c r="AQ24" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AS24" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AT24" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AU24">
         <v>30</v>
@@ -3440,7 +3499,7 @@
         <v>120</v>
       </c>
       <c r="AW24" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:49" x14ac:dyDescent="0.25">
@@ -3451,40 +3510,40 @@
         <v>50</v>
       </c>
       <c r="M25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N25">
         <v>9999</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="S25" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AA25" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AB25" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AC25" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AD25" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AE25" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AG25" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AH25" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AN25">
         <v>48</v>
@@ -3496,13 +3555,13 @@
         <v>50</v>
       </c>
       <c r="AQ25" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="AS25" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AT25" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AU25">
         <v>30</v>
@@ -3511,7 +3570,7 @@
         <v>120</v>
       </c>
       <c r="AW25" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.25">
@@ -3522,40 +3581,40 @@
         <v>51</v>
       </c>
       <c r="M26" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N26">
         <v>3499</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="S26" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AA26" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AB26" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AC26" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AD26" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AE26" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AG26" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AH26" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AN26">
         <v>48</v>
@@ -3567,13 +3626,13 @@
         <v>50</v>
       </c>
       <c r="AQ26" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AS26" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AT26" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AU26">
         <v>30</v>
@@ -3582,7 +3641,7 @@
         <v>120</v>
       </c>
       <c r="AW26" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:49" x14ac:dyDescent="0.25">
@@ -3590,43 +3649,43 @@
         <v>10541</v>
       </c>
       <c r="L27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M27" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N27">
         <v>4999</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="S27" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AA27" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AB27" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AC27" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AD27" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AE27" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AG27" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AH27" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AN27">
         <v>48</v>
@@ -3638,13 +3697,13 @@
         <v>50</v>
       </c>
       <c r="AQ27" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AS27" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AT27" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AU27">
         <v>30</v>
@@ -3653,7 +3712,7 @@
         <v>120</v>
       </c>
       <c r="AW27" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.25">
@@ -3661,43 +3720,43 @@
         <v>10319</v>
       </c>
       <c r="L28" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="M28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="N28">
         <v>2999</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="S28" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AA28" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AB28" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AC28" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AD28" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AE28" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AG28" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AH28" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AN28">
         <v>48</v>
@@ -3709,13 +3768,13 @@
         <v>50</v>
       </c>
       <c r="AQ28" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="AS28" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AT28" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="AU28">
         <v>30</v>
@@ -3724,7 +3783,7 @@
         <v>120</v>
       </c>
       <c r="AW28" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.25">
@@ -3735,40 +3794,40 @@
         <v>66</v>
       </c>
       <c r="M29" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="N29">
         <v>44999</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="S29" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AA29" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AB29" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AC29" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AD29" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AE29" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AG29" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AH29" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AN29">
         <v>48</v>
@@ -3780,13 +3839,13 @@
         <v>50</v>
       </c>
       <c r="AQ29" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AS29" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AT29" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="AU29">
         <v>30</v>
@@ -3795,7 +3854,7 @@
         <v>120</v>
       </c>
       <c r="AW29" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.25">
@@ -3803,43 +3862,43 @@
         <v>105581</v>
       </c>
       <c r="L30" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="M30" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N30">
         <v>11999</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="S30" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AA30" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AB30" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AC30" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AD30" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AE30" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AG30" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AH30" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AN30">
         <v>48</v>
@@ -3851,13 +3910,13 @@
         <v>50</v>
       </c>
       <c r="AQ30" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AS30" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AT30" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AU30">
         <v>30</v>
@@ -3866,7 +3925,7 @@
         <v>120</v>
       </c>
       <c r="AW30" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:49" x14ac:dyDescent="0.25">
@@ -3874,43 +3933,43 @@
         <v>10558</v>
       </c>
       <c r="L31" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="M31" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N31">
         <v>11999</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="S31" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AA31" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AB31" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AC31" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AD31" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AE31" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AG31" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AH31" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AN31">
         <v>48</v>
@@ -3922,13 +3981,13 @@
         <v>50</v>
       </c>
       <c r="AQ31" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AS31" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AT31" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AU31">
         <v>30</v>
@@ -3937,7 +3996,7 @@
         <v>120</v>
       </c>
       <c r="AW31" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:49" x14ac:dyDescent="0.25">
@@ -3948,40 +4007,40 @@
         <v>50</v>
       </c>
       <c r="M32" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="N32">
         <v>9999</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="S32" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AA32" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AB32" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AC32" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AD32" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AE32" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AG32" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AH32" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AN32">
         <v>48</v>
@@ -3993,13 +4052,13 @@
         <v>50</v>
       </c>
       <c r="AQ32" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="AS32" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AT32" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="AU32">
         <v>30</v>
@@ -4008,7 +4067,7 @@
         <v>120</v>
       </c>
       <c r="AW32" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:49" x14ac:dyDescent="0.25">
@@ -4019,40 +4078,40 @@
         <v>67</v>
       </c>
       <c r="M33" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N33">
         <v>14999</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="S33" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AA33" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AB33" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AC33" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AD33" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AE33" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AG33" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AH33" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AN33">
         <v>48</v>
@@ -4064,13 +4123,13 @@
         <v>50</v>
       </c>
       <c r="AQ33" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="AS33" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AT33" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="AU33">
         <v>30</v>
@@ -4079,7 +4138,7 @@
         <v>120</v>
       </c>
       <c r="AW33" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:49" x14ac:dyDescent="0.25">
@@ -4090,40 +4149,40 @@
         <v>50</v>
       </c>
       <c r="M34" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N34">
         <v>7999</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="S34" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AA34" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AB34" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AC34" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AD34" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AE34" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AG34" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AH34" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AN34">
         <v>48</v>
@@ -4135,13 +4194,13 @@
         <v>50</v>
       </c>
       <c r="AQ34" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AS34" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AT34" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="AU34">
         <v>30</v>
@@ -4150,7 +4209,149 @@
         <v>120</v>
       </c>
       <c r="AW34" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>10550</v>
+      </c>
+      <c r="L35" t="s">
+        <v>68</v>
+      </c>
+      <c r="M35" t="s">
+        <v>103</v>
+      </c>
+      <c r="N35">
+        <v>14999</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S35" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN35">
+        <v>48</v>
+      </c>
+      <c r="AO35">
+        <v>45</v>
+      </c>
+      <c r="AP35">
+        <v>50</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU35">
+        <v>30</v>
+      </c>
+      <c r="AV35">
+        <v>120</v>
+      </c>
+      <c r="AW35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>10563</v>
+      </c>
+      <c r="L36" t="s">
+        <v>69</v>
+      </c>
+      <c r="M36" t="s">
+        <v>104</v>
+      </c>
+      <c r="N36">
+        <v>24999</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S36" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN36">
+        <v>48</v>
+      </c>
+      <c r="AO36">
+        <v>45</v>
+      </c>
+      <c r="AP36">
+        <v>50</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT36" t="s">
         <v>176</v>
+      </c>
+      <c r="AU36">
+        <v>30</v>
+      </c>
+      <c r="AV36">
+        <v>120</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -4169,58 +4370,62 @@
     <hyperlink ref="Q7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="O8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="Q8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="O9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="Q9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="O10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="Q10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="O11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="Q11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="O12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="Q12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="O13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="Q13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="O14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="Q14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="O15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="Q15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="O16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="Q16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="O17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="Q17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="O18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="Q18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="O19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="Q19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="O20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="Q20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="O21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="Q21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="O22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="Q22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="O23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="Q23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="O24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="Q24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="Q25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="O26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="Q26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="O27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="Q27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="O28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="Q28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="O29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="Q29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="O30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="Q30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="O31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="Q31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="O32" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="Q32" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="O33" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="Q33" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="O34" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="Q34" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="O9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="Q9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="O10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="Q10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="O11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="Q11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="O12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="Q12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="O13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="Q13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="O14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="Q14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="O15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="Q15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="O16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="Q16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="O17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="Q17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="O18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="Q18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="O19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="Q19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="O20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="Q20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="O21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="Q21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="O22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="Q22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="O23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="Q23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="O24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="Q24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="Q25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="O26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="Q26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="O27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="Q27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="O28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="Q28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="O29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="Q29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="O30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="Q30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="O31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="Q31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="O32" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="Q32" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="O33" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="Q33" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="O34" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="Q34" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="O35" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="Q35" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="O36" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="Q36" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/comp armchair.xlsx
+++ b/make_xl/data_xl/comp armchair.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E50690-5ACE-45C5-BB09-FC5B7BCC25EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBC3640-E69D-420A-8006-7CD92C445FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="190">
   <si>
     <t>Id</t>
   </si>
@@ -229,7 +229,7 @@
     <t>Кресло руководителя кожа</t>
   </si>
   <si>
-    <t xml:space="preserve">Кресло руководителя Chairman </t>
+    <t>Кресло директорское офисное</t>
   </si>
   <si>
     <t>Кресло с высокой спинкой (10371) 
@@ -1008,10 +1008,52 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Кресло руководителя Chairman 
-Артикул 10563
+    <t xml:space="preserve">Кресло офисное компьютерное
+Артикул 10567
+Цвет коричневый
+Цена 7999
+Количество 4
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Кресло директорское офисное
+Артикул 10564
 Цвет белый
-Цена 24 999
+Цена 19 999
+Количество 2
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Кресло руководителя
+Артикул 10566
+Цвет чёрный
+Цена 19 999
 Количество 1
     В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
     Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
@@ -1126,7 +1168,13 @@
     <t>https://disk.yandex.ru/i/DNa0bSVCLnfHDg | https://disk.yandex.ru/i/Fhlc7MqwcKXmlQ | https://disk.yandex.ru/i/49EaxhFQyUG2Ow | https://disk.yandex.ru/i/HNBSUrJ0iEGXrA | https://disk.yandex.ru/i/KkAVqi3YLGjyxg | https://disk.yandex.ru/i/Aj8_aeXh8ILr8Q | https://disk.yandex.ru/i/PRFCrs-H15gyhw | https://disk.yandex.ru/i/oJBVanf-GZZjCg | https://disk.yandex.ru/i/olmGQTmI6GgRJA | https://disk.yandex.ru/i/RBXPHIdr-Bld9A</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/1MpGWinNv10KTg | https://disk.yandex.ru/i/S2tPWtPmE1zvEg | https://disk.yandex.ru/i/OObCphgGAilR_Q | https://disk.yandex.ru/i/s-At7wKmk_9Hxg | https://disk.yandex.ru/i/x8VFw86Atux-oA | https://disk.yandex.ru/i/eUze5V7sHj_Unw | https://disk.yandex.ru/i/s9iCUx4xva14KA | https://disk.yandex.ru/i/0R4KqhcBCfWYSg</t>
+    <t>https://disk.yandex.ru/i/ccjCAyMrxND6uQ | https://disk.yandex.ru/i/j1EfVRGwBvlGqw | https://disk.yandex.ru/i/nAUasX7I4RsnCA | https://disk.yandex.ru/i/S9b0gts5MSqoxA | https://disk.yandex.ru/i/IeMXmxwW30SSOA | https://disk.yandex.ru/i/TFh0YMG5ChoSAw | https://disk.yandex.ru/i/751TX1UdIli2SQ | https://disk.yandex.ru/i/pa3ItJflYrxvTw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/QBmMaY_p08Axag | https://disk.yandex.ru/i/Zxyxzlz24NkNlA | https://disk.yandex.ru/i/kgGHK7Y3TT2wGg | https://disk.yandex.ru/i/aENeYZLtRvuHIw | https://disk.yandex.ru/i/kzn7aD4xkRl1IQ | https://disk.yandex.ru/i/H00lGA7AFgi4hA | https://disk.yandex.ru/i/y5piufOUwBkFhQ | https://disk.yandex.ru/i/JuPIyg9b-8iVHw | https://disk.yandex.ru/i/AA2JVtLljzO7Uw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/W20c8nOHRgVWKg | https://disk.yandex.ru/i/wvw-j7k6SgYxHg | https://disk.yandex.ru/i/qBjjlVAuK1Ys0g | https://disk.yandex.ru/i/MrUK3DPaAaayYA | https://disk.yandex.ru/i/XiOUXQJ1OgRBeQ | https://disk.yandex.ru/i/tEHGLWMFZBz9yw | https://disk.yandex.ru/i/UHBLLB7Rzs96oQ | https://disk.yandex.ru/i/LzJl6mZfI0S1rQ | https://disk.yandex.ru/i/l1TbGv2vjlXjvw</t>
   </si>
   <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
@@ -1229,6 +1277,9 @@
   </si>
   <si>
     <t>Подголовник | Механизм качания | Регулировка высоты | Поясничный упор</t>
+  </si>
+  <si>
+    <t>Подлокотники | Механизм качания | Регулировка высоты | Регулировка подлокотников</t>
   </si>
   <si>
     <t>Замша</t>
@@ -1679,10 +1730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW36"/>
+  <dimension ref="A1:AW38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1850,34 +1901,34 @@
         <v>5499</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="S2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AA2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AC2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AD2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AE2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AG2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AH2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AN2">
         <v>50</v>
@@ -1889,16 +1940,16 @@
         <v>50</v>
       </c>
       <c r="AQ2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AR2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AS2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT2" t="s">
         <v>178</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>173</v>
       </c>
       <c r="AU2">
         <v>30</v>
@@ -1907,7 +1958,7 @@
         <v>120</v>
       </c>
       <c r="AW2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.25">
@@ -1924,34 +1975,34 @@
         <v>7000</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="S3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AA3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AC3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AD3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AE3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AG3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AH3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AN3">
         <v>50</v>
@@ -1963,13 +2014,13 @@
         <v>50</v>
       </c>
       <c r="AQ3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AS3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AT3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AU3">
         <v>31</v>
@@ -1978,7 +2029,7 @@
         <v>70</v>
       </c>
       <c r="AW3" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
@@ -1995,34 +2046,34 @@
         <v>2999</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="S4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AA4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AC4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AD4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AE4" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AG4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AH4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AN4">
         <v>45</v>
@@ -2034,16 +2085,16 @@
         <v>40</v>
       </c>
       <c r="AQ4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AR4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AS4" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AT4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AU4">
         <v>30</v>
@@ -2052,7 +2103,7 @@
         <v>80</v>
       </c>
       <c r="AW4" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
@@ -2069,34 +2120,34 @@
         <v>3999</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="S5" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AA5" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AC5" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AD5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AE5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AG5" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AH5" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AN5">
         <v>48</v>
@@ -2108,16 +2159,16 @@
         <v>50</v>
       </c>
       <c r="AQ5" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AR5" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AS5" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AT5" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AU5">
         <v>30</v>
@@ -2126,7 +2177,7 @@
         <v>90</v>
       </c>
       <c r="AW5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
@@ -2143,34 +2194,34 @@
         <v>3499</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="S6" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AA6" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB6" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AC6" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AD6" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AE6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AG6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AH6" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AN6">
         <v>50</v>
@@ -2182,13 +2233,13 @@
         <v>50</v>
       </c>
       <c r="AQ6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AS6" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AT6" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AU6">
         <v>30</v>
@@ -2197,7 +2248,7 @@
         <v>120</v>
       </c>
       <c r="AW6" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
@@ -2214,34 +2265,34 @@
         <v>1499</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="S7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AA7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AC7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AD7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AE7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AG7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AH7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AN7">
         <v>45</v>
@@ -2253,16 +2304,16 @@
         <v>50</v>
       </c>
       <c r="AQ7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AR7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AS7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AT7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AU7">
         <v>30</v>
@@ -2271,7 +2322,7 @@
         <v>75</v>
       </c>
       <c r="AW7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
@@ -2288,34 +2339,34 @@
         <v>3100</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="S8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AA8" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB8" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AC8" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AD8" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AE8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AG8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AH8" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AN8">
         <v>48</v>
@@ -2327,16 +2378,16 @@
         <v>45</v>
       </c>
       <c r="AQ8" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AR8" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AS8" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT8" t="s">
         <v>178</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>173</v>
       </c>
       <c r="AU8">
         <v>30</v>
@@ -2345,7 +2396,7 @@
         <v>80</v>
       </c>
       <c r="AW8" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
@@ -2362,34 +2413,34 @@
         <v>3499</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="S9" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AA9" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB9" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AC9" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AD9" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AE9" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AG9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AH9" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AN9">
         <v>50</v>
@@ -2401,13 +2452,13 @@
         <v>50</v>
       </c>
       <c r="AQ9" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AS9" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AT9" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="AU9">
         <v>30</v>
@@ -2416,7 +2467,7 @@
         <v>120</v>
       </c>
       <c r="AW9" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
@@ -2433,34 +2484,34 @@
         <v>2300</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="S10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AA10" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB10" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AC10" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AD10" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AE10" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AG10" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AH10" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AN10">
         <v>48</v>
@@ -2472,16 +2523,16 @@
         <v>50</v>
       </c>
       <c r="AQ10" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AR10" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AS10" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT10" t="s">
         <v>178</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>173</v>
       </c>
       <c r="AU10">
         <v>31</v>
@@ -2490,7 +2541,7 @@
         <v>70</v>
       </c>
       <c r="AW10" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
@@ -2507,34 +2558,34 @@
         <v>3999</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="S11" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AA11" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB11" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AC11" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AD11" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AE11" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AG11" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AH11" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AN11">
         <v>50</v>
@@ -2546,16 +2597,16 @@
         <v>50</v>
       </c>
       <c r="AQ11" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AR11" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AS11" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AT11" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AU11">
         <v>30</v>
@@ -2564,7 +2615,7 @@
         <v>120</v>
       </c>
       <c r="AW11" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
@@ -2581,34 +2632,34 @@
         <v>7999</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="S12" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AA12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB12" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AC12" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AD12" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AE12" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AH12" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AN12">
         <v>50</v>
@@ -2620,16 +2671,16 @@
         <v>50</v>
       </c>
       <c r="AQ12" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AR12" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AS12" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AT12" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AU12">
         <v>30</v>
@@ -2638,7 +2689,7 @@
         <v>120</v>
       </c>
       <c r="AW12" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
@@ -2655,34 +2706,34 @@
         <v>7999</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="S13" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AA13" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AC13" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AD13" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AE13" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AG13" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AH13" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AN13">
         <v>48</v>
@@ -2694,16 +2745,16 @@
         <v>50</v>
       </c>
       <c r="AQ13" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AR13" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AS13" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AT13" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AU13">
         <v>30</v>
@@ -2712,7 +2763,7 @@
         <v>100</v>
       </c>
       <c r="AW13" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
@@ -2729,34 +2780,34 @@
         <v>7999</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="S14" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AA14" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB14" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AC14" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AD14" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AE14" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AG14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AH14" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AN14">
         <v>55</v>
@@ -2768,16 +2819,16 @@
         <v>50</v>
       </c>
       <c r="AQ14" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AR14" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="AS14" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AT14" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="AU14">
         <v>30</v>
@@ -2786,7 +2837,7 @@
         <v>180</v>
       </c>
       <c r="AW14" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
@@ -2803,34 +2854,34 @@
         <v>6999</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="S15" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AA15" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB15" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AC15" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AD15" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AE15" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AG15" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AH15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AN15">
         <v>50</v>
@@ -2842,16 +2893,16 @@
         <v>53</v>
       </c>
       <c r="AQ15" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AR15" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AS15" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT15" t="s">
         <v>178</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>173</v>
       </c>
       <c r="AU15">
         <v>30</v>
@@ -2860,7 +2911,7 @@
         <v>100</v>
       </c>
       <c r="AW15" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
@@ -2877,34 +2928,34 @@
         <v>5999</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="S16" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AA16" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB16" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AC16" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AD16" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AE16" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AG16" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AH16" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AN16">
         <v>50</v>
@@ -2916,13 +2967,13 @@
         <v>50</v>
       </c>
       <c r="AQ16" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AS16" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AT16" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AU16">
         <v>30</v>
@@ -2931,7 +2982,7 @@
         <v>80</v>
       </c>
       <c r="AW16" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
@@ -2948,34 +2999,34 @@
         <v>7999</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="S17" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AA17" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB17" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AC17" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AD17" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AE17" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG17" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AH17" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AN17">
         <v>48</v>
@@ -2987,13 +3038,13 @@
         <v>50</v>
       </c>
       <c r="AQ17" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AS17" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AT17" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AU17">
         <v>30</v>
@@ -3002,7 +3053,7 @@
         <v>120</v>
       </c>
       <c r="AW17" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
@@ -3019,34 +3070,34 @@
         <v>7999</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="S18" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AA18" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB18" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AC18" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AD18" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AE18" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG18" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AH18" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AN18">
         <v>48</v>
@@ -3058,13 +3109,13 @@
         <v>50</v>
       </c>
       <c r="AQ18" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AS18" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AT18" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AU18">
         <v>30</v>
@@ -3073,7 +3124,7 @@
         <v>120</v>
       </c>
       <c r="AW18" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
@@ -3090,34 +3141,34 @@
         <v>12000</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="S19" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AA19" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB19" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AC19" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AD19" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AE19" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AG19" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AH19" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AN19">
         <v>48</v>
@@ -3129,13 +3180,13 @@
         <v>50</v>
       </c>
       <c r="AQ19" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AS19" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AT19" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="AU19">
         <v>30</v>
@@ -3144,7 +3195,7 @@
         <v>120</v>
       </c>
       <c r="AW19" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
@@ -3161,34 +3212,34 @@
         <v>5999</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="S20" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AA20" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB20" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AC20" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AD20" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AE20" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AG20" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AH20" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AN20">
         <v>48</v>
@@ -3200,13 +3251,13 @@
         <v>50</v>
       </c>
       <c r="AQ20" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="AS20" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AT20" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AU20">
         <v>30</v>
@@ -3215,7 +3266,7 @@
         <v>120</v>
       </c>
       <c r="AW20" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
@@ -3232,34 +3283,34 @@
         <v>17000</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="S21" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AA21" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB21" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AC21" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AD21" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AE21" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AG21" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AH21" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AN21">
         <v>48</v>
@@ -3271,13 +3322,13 @@
         <v>50</v>
       </c>
       <c r="AQ21" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AS21" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AT21" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AU21">
         <v>30</v>
@@ -3286,7 +3337,7 @@
         <v>120</v>
       </c>
       <c r="AW21" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
@@ -3303,34 +3354,34 @@
         <v>9999</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="S22" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AA22" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB22" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AC22" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AD22" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AE22" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AG22" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AH22" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AN22">
         <v>48</v>
@@ -3342,13 +3393,13 @@
         <v>50</v>
       </c>
       <c r="AQ22" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AS22" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AT22" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AU22">
         <v>30</v>
@@ -3357,7 +3408,7 @@
         <v>120</v>
       </c>
       <c r="AW22" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:49" x14ac:dyDescent="0.25">
@@ -3374,34 +3425,34 @@
         <v>9999</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="S23" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AA23" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB23" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AC23" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AD23" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AE23" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG23" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AH23" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AN23">
         <v>48</v>
@@ -3413,13 +3464,13 @@
         <v>50</v>
       </c>
       <c r="AQ23" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AS23" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AT23" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AU23">
         <v>30</v>
@@ -3428,7 +3479,7 @@
         <v>120</v>
       </c>
       <c r="AW23" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:49" x14ac:dyDescent="0.25">
@@ -3445,34 +3496,34 @@
         <v>11999</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="S24" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AA24" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB24" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AC24" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AD24" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AE24" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AG24" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AH24" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AN24">
         <v>48</v>
@@ -3484,13 +3535,13 @@
         <v>50</v>
       </c>
       <c r="AQ24" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AS24" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AT24" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="AU24">
         <v>30</v>
@@ -3499,7 +3550,7 @@
         <v>120</v>
       </c>
       <c r="AW24" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:49" x14ac:dyDescent="0.25">
@@ -3516,34 +3567,34 @@
         <v>9999</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="S25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AA25" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB25" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AC25" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AD25" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AE25" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG25" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AH25" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AN25">
         <v>48</v>
@@ -3555,13 +3606,13 @@
         <v>50</v>
       </c>
       <c r="AQ25" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AS25" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AT25" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="AU25">
         <v>30</v>
@@ -3570,7 +3621,7 @@
         <v>120</v>
       </c>
       <c r="AW25" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.25">
@@ -3587,34 +3638,34 @@
         <v>3499</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="S26" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AA26" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB26" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AC26" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AD26" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AE26" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AG26" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AH26" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AN26">
         <v>48</v>
@@ -3626,13 +3677,13 @@
         <v>50</v>
       </c>
       <c r="AQ26" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AS26" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AT26" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="AU26">
         <v>30</v>
@@ -3641,7 +3692,7 @@
         <v>120</v>
       </c>
       <c r="AW26" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:49" x14ac:dyDescent="0.25">
@@ -3658,34 +3709,34 @@
         <v>4999</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="S27" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AA27" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB27" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AC27" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AD27" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AE27" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AG27" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AH27" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AN27">
         <v>48</v>
@@ -3697,13 +3748,13 @@
         <v>50</v>
       </c>
       <c r="AQ27" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AS27" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AT27" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="AU27">
         <v>30</v>
@@ -3712,7 +3763,7 @@
         <v>120</v>
       </c>
       <c r="AW27" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.25">
@@ -3729,34 +3780,34 @@
         <v>2999</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="S28" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AA28" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB28" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AC28" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AD28" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AE28" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AG28" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AH28" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AN28">
         <v>48</v>
@@ -3768,13 +3819,13 @@
         <v>50</v>
       </c>
       <c r="AQ28" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="AS28" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AT28" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AU28">
         <v>30</v>
@@ -3783,7 +3834,7 @@
         <v>120</v>
       </c>
       <c r="AW28" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.25">
@@ -3800,34 +3851,34 @@
         <v>44999</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="S29" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AA29" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB29" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AC29" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AD29" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AE29" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AG29" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AH29" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AN29">
         <v>48</v>
@@ -3839,13 +3890,13 @@
         <v>50</v>
       </c>
       <c r="AQ29" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AS29" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AT29" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AU29">
         <v>30</v>
@@ -3854,7 +3905,7 @@
         <v>120</v>
       </c>
       <c r="AW29" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.25">
@@ -3871,34 +3922,34 @@
         <v>11999</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="S30" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AA30" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB30" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AC30" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AD30" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AE30" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AG30" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AH30" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AN30">
         <v>48</v>
@@ -3910,13 +3961,13 @@
         <v>50</v>
       </c>
       <c r="AQ30" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AS30" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AT30" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="AU30">
         <v>30</v>
@@ -3925,7 +3976,7 @@
         <v>120</v>
       </c>
       <c r="AW30" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:49" x14ac:dyDescent="0.25">
@@ -3942,34 +3993,34 @@
         <v>11999</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="S31" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AA31" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB31" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AC31" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AD31" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AE31" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AG31" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AH31" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AN31">
         <v>48</v>
@@ -3981,13 +4032,13 @@
         <v>50</v>
       </c>
       <c r="AQ31" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AS31" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AT31" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="AU31">
         <v>30</v>
@@ -3996,7 +4047,7 @@
         <v>120</v>
       </c>
       <c r="AW31" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:49" x14ac:dyDescent="0.25">
@@ -4013,34 +4064,34 @@
         <v>9999</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="S32" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AA32" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB32" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AC32" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AD32" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AE32" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AG32" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AH32" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AN32">
         <v>48</v>
@@ -4052,13 +4103,13 @@
         <v>50</v>
       </c>
       <c r="AQ32" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AS32" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AT32" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AU32">
         <v>30</v>
@@ -4067,7 +4118,7 @@
         <v>120</v>
       </c>
       <c r="AW32" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:49" x14ac:dyDescent="0.25">
@@ -4084,34 +4135,34 @@
         <v>14999</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="S33" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AA33" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB33" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AC33" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AD33" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AE33" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AG33" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AH33" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AN33">
         <v>48</v>
@@ -4123,13 +4174,13 @@
         <v>50</v>
       </c>
       <c r="AQ33" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AS33" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AT33" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AU33">
         <v>30</v>
@@ -4138,7 +4189,7 @@
         <v>120</v>
       </c>
       <c r="AW33" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:49" x14ac:dyDescent="0.25">
@@ -4155,34 +4206,34 @@
         <v>7999</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="S34" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AA34" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB34" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AC34" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AD34" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AE34" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AG34" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AH34" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AN34">
         <v>48</v>
@@ -4194,13 +4245,13 @@
         <v>50</v>
       </c>
       <c r="AQ34" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AS34" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AT34" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AU34">
         <v>30</v>
@@ -4209,7 +4260,7 @@
         <v>120</v>
       </c>
       <c r="AW34" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:49" x14ac:dyDescent="0.25">
@@ -4226,34 +4277,34 @@
         <v>14999</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="S35" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AA35" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB35" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AC35" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AD35" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AE35" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AG35" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AH35" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AN35">
         <v>48</v>
@@ -4265,13 +4316,13 @@
         <v>50</v>
       </c>
       <c r="AQ35" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AS35" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AT35" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="AU35">
         <v>30</v>
@@ -4280,51 +4331,51 @@
         <v>120</v>
       </c>
       <c r="AW35" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>10563</v>
+        <v>10567</v>
       </c>
       <c r="L36" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="M36" t="s">
         <v>104</v>
       </c>
       <c r="N36">
-        <v>24999</v>
+        <v>7999</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="S36" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AA36" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB36" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AC36" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AD36" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AE36" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AG36" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AH36" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AN36">
         <v>48</v>
@@ -4336,13 +4387,13 @@
         <v>50</v>
       </c>
       <c r="AQ36" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="AS36" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AT36" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="AU36">
         <v>30</v>
@@ -4351,7 +4402,149 @@
         <v>120</v>
       </c>
       <c r="AW36" t="s">
-        <v>184</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>10564</v>
+      </c>
+      <c r="L37" t="s">
+        <v>69</v>
+      </c>
+      <c r="M37" t="s">
+        <v>105</v>
+      </c>
+      <c r="N37">
+        <v>19999</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="S37" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN37">
+        <v>48</v>
+      </c>
+      <c r="AO37">
+        <v>45</v>
+      </c>
+      <c r="AP37">
+        <v>50</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>181</v>
+      </c>
+      <c r="AU37">
+        <v>30</v>
+      </c>
+      <c r="AV37">
+        <v>120</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>10566</v>
+      </c>
+      <c r="L38" t="s">
+        <v>58</v>
+      </c>
+      <c r="M38" t="s">
+        <v>106</v>
+      </c>
+      <c r="N38">
+        <v>19999</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="S38" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN38">
+        <v>48</v>
+      </c>
+      <c r="AO38">
+        <v>45</v>
+      </c>
+      <c r="AP38">
+        <v>50</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>181</v>
+      </c>
+      <c r="AU38">
+        <v>30</v>
+      </c>
+      <c r="AV38">
+        <v>120</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4426,6 +4619,10 @@
     <hyperlink ref="Q35" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
     <hyperlink ref="O36" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
     <hyperlink ref="Q36" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="O37" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="Q37" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="Q38" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="O38" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/comp armchair.xlsx
+++ b/make_xl/data_xl/comp armchair.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBC3640-E69D-420A-8006-7CD92C445FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="200">
   <si>
     <t>Id</t>
   </si>
@@ -962,30 +956,6 @@
     </t>
   </si>
   <si>
-    <t xml:space="preserve">Кресло компьютерное
-Артикул 10561
-Кресло для офиса и дома из дишашего сетчатого материала и механизмом качания
-Цвет чёрный 
-Цена 7 999
-Количество 5 шт
-    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
-    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
-  </si>
-  <si>
     <t>Кресло руководителя кожа
 Артикул 10550
 Кожаное кресло для руководителя Unital от отечественного производителя мягкой мебели. 
@@ -1069,6 +1039,124 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t xml:space="preserve">Кресло компьютерное
+Артикул 105472
+Кресло компьютерное для офиса и дома, созданое для вашего комфорта. Кресло от отечественного производителя Юнитекс, модель Aero XSL1D. 
+Это универсальное Крелсо обладает хорошей эргономикой. Имеет множество регулировок, что бы настроить его под ваши личные параметры.
+Кресло рассчитано на вес до 120 кг.
+Регульровки:
+Ручки - поднятие, глубина, поворот.
+Сидение - высота, глубина
+Спинка - наклон с фиксацией.
+Цвет: серый
+Цена: 9 999
+Количество: 10
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Кресло руководителя кожа
+Артикул 10572
+Цвет чёрный
+Цена 19 999
+Количество 1
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кресло для руководителя
+Артикул 10571
+Кожаное кресло для директора обладает мягкой обивкой с эргономичной спинкой и механизмом качания 
+Цвет чёрный
+Цена 14 999
+Количество 1
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Кресло компьютерное
+Артикул 10568
+Кресло для офиса и дома в кожзаме с механизмом качания.
+Цвет чёрный 
+Цена 11 000
+Количество 1
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кресло руководителя
+Артикул 10570
+Кожаное компьютерное кресло для директора с двумя механизмами.
+Слева кресло кожзам с одним механизмом - 11000
+Цвет чёрный
+Цена 19 999
+Количество 1
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/ZDiUdOWTq7XF1g | https://disk.yandex.ru/i/a_u5CWPrYhAoIA | https://disk.yandex.ru/i/2U4SaFSBylFuSg | https://disk.yandex.ru/i/5xCnmpLS2Ky7dQ | https://disk.yandex.ru/i/ugTACqRM4oAMBA</t>
   </si>
   <si>
@@ -1162,9 +1250,6 @@
     <t>https://disk.yandex.ru/i/vRvIJAjT03Lcug | https://disk.yandex.ru/i/hbjVU_G5c5h2Hg | https://disk.yandex.ru/i/JUyod2FwPxwrhA | https://disk.yandex.ru/i/Drh5jnAh4JqmbA | https://disk.yandex.ru/i/OB8SaAcEMHsdwQ | https://disk.yandex.ru/i/55Jvvb1NBPWFeA | https://disk.yandex.ru/i/o8DSHzqW1R4B_w | https://disk.yandex.ru/i/OgxDe-dr32YxSA | https://disk.yandex.ru/i/TkXhABu-UCvd4A</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/8s3-pFh4RYkTdg | https://disk.yandex.ru/i/lySUY6T_h_O-MQ | https://disk.yandex.ru/i/bMfw9dCjHPdaSA | https://disk.yandex.ru/i/7FVJSopMwjfMmg | https://disk.yandex.ru/i/VYWqAy_HH6TOZg | https://disk.yandex.ru/i/Bcbw5YBduCbzrA | https://disk.yandex.ru/i/PjU7M6ow1AC8yQ | https://disk.yandex.ru/i/BG_ndGSDMlQpSw | https://disk.yandex.ru/i/zGte8T9b4Fo70g</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/DNa0bSVCLnfHDg | https://disk.yandex.ru/i/Fhlc7MqwcKXmlQ | https://disk.yandex.ru/i/49EaxhFQyUG2Ow | https://disk.yandex.ru/i/HNBSUrJ0iEGXrA | https://disk.yandex.ru/i/KkAVqi3YLGjyxg | https://disk.yandex.ru/i/Aj8_aeXh8ILr8Q | https://disk.yandex.ru/i/PRFCrs-H15gyhw | https://disk.yandex.ru/i/oJBVanf-GZZjCg | https://disk.yandex.ru/i/olmGQTmI6GgRJA | https://disk.yandex.ru/i/RBXPHIdr-Bld9A</t>
   </si>
   <si>
@@ -1177,6 +1262,21 @@
     <t>https://disk.yandex.ru/i/W20c8nOHRgVWKg | https://disk.yandex.ru/i/wvw-j7k6SgYxHg | https://disk.yandex.ru/i/qBjjlVAuK1Ys0g | https://disk.yandex.ru/i/MrUK3DPaAaayYA | https://disk.yandex.ru/i/XiOUXQJ1OgRBeQ | https://disk.yandex.ru/i/tEHGLWMFZBz9yw | https://disk.yandex.ru/i/UHBLLB7Rzs96oQ | https://disk.yandex.ru/i/LzJl6mZfI0S1rQ | https://disk.yandex.ru/i/l1TbGv2vjlXjvw</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/l8HVG8c1c67dhw | https://disk.yandex.ru/i/EbdiAfWs0n5GGw | https://disk.yandex.ru/i/BgH_3qt1sjSeCg | https://disk.yandex.ru/i/ErV3-ycLVCl_Wg | https://disk.yandex.ru/i/CfuZubV8QHn_bg | https://disk.yandex.ru/i/_8LKcSqpQrGbsw | https://disk.yandex.ru/i/UvXnxvXRUAPsKw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/P18cmgURzIvWPw | https://disk.yandex.ru/i/4pUw0lz8DvMLBw | https://disk.yandex.ru/i/rR4PKF4EYw9XtA | https://disk.yandex.ru/i/j3Bise_vfGjp0w | https://disk.yandex.ru/i/YHJTeSSLUUGuDw | https://disk.yandex.ru/i/u_M7sH0Mj5Y7hQ | https://disk.yandex.ru/i/pBwvP5ljqVbgng | https://disk.yandex.ru/i/sfRFarok__JnpQ | https://disk.yandex.ru/i/IYChaORWRAt6Nw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/Jd2mLSCEERqbLg | https://disk.yandex.ru/i/iWDpYiiYa01PjA | https://disk.yandex.ru/i/p8yW8yGUlC5P-Q | https://disk.yandex.ru/i/8xlnDmEgBHDkRQ | https://disk.yandex.ru/i/v8--JTULUcsLXg | https://disk.yandex.ru/i/iRJVIsw7Nh4uWQ | https://disk.yandex.ru/i/m-CFOuJMTiGJ-Q | https://disk.yandex.ru/i/coAI6WmZ_M77Sg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/Tizzctz3I-hlpg | https://disk.yandex.ru/i/9QPJ2idxs1gSBQ | https://disk.yandex.ru/i/7qFlbSWQHNgT8A | https://disk.yandex.ru/i/ul078h6bV5A0qw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/jQ6bR3h-8jWSGg | https://disk.yandex.ru/i/3OXZKmTygpHN8Q | https://disk.yandex.ru/i/6_xUDmFi1Z0ccg | https://disk.yandex.ru/i/gypkuHU2OCihUg | https://disk.yandex.ru/i/Rg4BzP8iJ-eZVQ | https://disk.yandex.ru/i/EznXeG8AvhIjsw | https://disk.yandex.ru/i/t29SZXILUVbPow | https://disk.yandex.ru/i/yy2_bjR3xfh8cQ</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -1280,6 +1380,12 @@
   </si>
   <si>
     <t>Подлокотники | Механизм качания | Регулировка высоты | Регулировка подлокотников</t>
+  </si>
+  <si>
+    <t>Подлокотники | Подголовник | Механизм качания | Регулировка наклона спинки | Регулировка высоты | Регулировка подлокотников | Регулировка глубины сиденья | Поясничный упор</t>
+  </si>
+  <si>
+    <t>Подлокотники | Подголовник | Механизм качания | Поясничный упор</t>
   </si>
   <si>
     <t>Замша</t>
@@ -1321,8 +1427,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1393,26 +1499,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1450,9 +1548,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1484,27 +1582,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1536,27 +1616,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1729,16 +1791,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AW42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1887,7 +1947,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1901,34 +1961,34 @@
         <v>5499</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="S2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AA2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AB2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="AC2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AD2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AE2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="AG2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AH2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AN2">
         <v>50</v>
@@ -1940,16 +2000,16 @@
         <v>50</v>
       </c>
       <c r="AQ2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="AR2" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="AS2" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AT2" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="AU2">
         <v>30</v>
@@ -1958,10 +2018,10 @@
         <v>120</v>
       </c>
       <c r="AW2" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49">
       <c r="A3">
         <v>10031</v>
       </c>
@@ -1975,34 +2035,34 @@
         <v>7000</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="S3" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AA3" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AB3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="AC3" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AD3" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AE3" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="AG3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AH3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AN3">
         <v>50</v>
@@ -2014,13 +2074,13 @@
         <v>50</v>
       </c>
       <c r="AQ3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="AS3" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AT3" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="AU3">
         <v>31</v>
@@ -2029,10 +2089,10 @@
         <v>70</v>
       </c>
       <c r="AW3" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49">
       <c r="A4">
         <v>10301</v>
       </c>
@@ -2046,34 +2106,34 @@
         <v>2999</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="S4" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AA4" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AB4" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="AC4" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AD4" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AE4" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="AG4" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AH4" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AN4">
         <v>45</v>
@@ -2085,16 +2145,16 @@
         <v>40</v>
       </c>
       <c r="AQ4" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="AR4" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="AS4" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AT4" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="AU4">
         <v>30</v>
@@ -2103,10 +2163,10 @@
         <v>80</v>
       </c>
       <c r="AW4" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49">
       <c r="A5">
         <v>10301</v>
       </c>
@@ -2120,34 +2180,34 @@
         <v>3999</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="S5" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AA5" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AB5" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="AC5" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AD5" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AE5" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="AG5" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AH5" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AN5">
         <v>48</v>
@@ -2159,16 +2219,16 @@
         <v>50</v>
       </c>
       <c r="AQ5" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="AR5" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="AS5" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AT5" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="AU5">
         <v>30</v>
@@ -2177,10 +2237,10 @@
         <v>90</v>
       </c>
       <c r="AW5" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49">
       <c r="A6">
         <v>10301</v>
       </c>
@@ -2194,34 +2254,34 @@
         <v>3499</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="S6" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AA6" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AB6" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="AC6" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AD6" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AE6" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="AG6" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AH6" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AN6">
         <v>50</v>
@@ -2233,13 +2293,13 @@
         <v>50</v>
       </c>
       <c r="AQ6" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="AS6" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AT6" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="AU6">
         <v>30</v>
@@ -2248,10 +2308,10 @@
         <v>120</v>
       </c>
       <c r="AW6" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49">
       <c r="A7">
         <v>10302</v>
       </c>
@@ -2265,34 +2325,34 @@
         <v>1499</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="S7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AA7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AB7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="AC7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AD7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AE7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="AG7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AH7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AN7">
         <v>45</v>
@@ -2304,16 +2364,16 @@
         <v>50</v>
       </c>
       <c r="AQ7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="AR7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AS7" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AT7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AU7">
         <v>30</v>
@@ -2322,10 +2382,10 @@
         <v>75</v>
       </c>
       <c r="AW7" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49">
       <c r="A8">
         <v>10310</v>
       </c>
@@ -2339,34 +2399,34 @@
         <v>3100</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="S8" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AA8" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AB8" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="AC8" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AD8" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AE8" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="AG8" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AH8" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AN8">
         <v>48</v>
@@ -2378,16 +2438,16 @@
         <v>45</v>
       </c>
       <c r="AQ8" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="AR8" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="AS8" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AT8" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="AU8">
         <v>30</v>
@@ -2396,10 +2456,10 @@
         <v>80</v>
       </c>
       <c r="AW8" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49">
       <c r="A9">
         <v>10316</v>
       </c>
@@ -2413,34 +2473,34 @@
         <v>3499</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="S9" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AA9" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AB9" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="AC9" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AD9" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AE9" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="AG9" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AH9" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AN9">
         <v>50</v>
@@ -2452,13 +2512,13 @@
         <v>50</v>
       </c>
       <c r="AQ9" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="AS9" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AT9" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="AU9">
         <v>30</v>
@@ -2467,10 +2527,10 @@
         <v>120</v>
       </c>
       <c r="AW9" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49">
       <c r="A10">
         <v>10336</v>
       </c>
@@ -2484,34 +2544,34 @@
         <v>2300</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="S10" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AA10" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AB10" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="AC10" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AD10" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AE10" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="AG10" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AH10" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AN10">
         <v>48</v>
@@ -2523,16 +2583,16 @@
         <v>50</v>
       </c>
       <c r="AQ10" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="AR10" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="AS10" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AT10" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="AU10">
         <v>31</v>
@@ -2541,10 +2601,10 @@
         <v>70</v>
       </c>
       <c r="AW10" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49">
       <c r="A11">
         <v>10368</v>
       </c>
@@ -2558,34 +2618,34 @@
         <v>3999</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="S11" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AA11" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AB11" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="AC11" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AD11" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AE11" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="AG11" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AH11" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AN11">
         <v>50</v>
@@ -2597,16 +2657,16 @@
         <v>50</v>
       </c>
       <c r="AQ11" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="AR11" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AS11" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AT11" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AU11">
         <v>30</v>
@@ -2615,10 +2675,10 @@
         <v>120</v>
       </c>
       <c r="AW11" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:49">
       <c r="A12">
         <v>10424</v>
       </c>
@@ -2632,34 +2692,34 @@
         <v>7999</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="S12" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AA12" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AB12" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="AC12" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AD12" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AE12" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="AG12" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AH12" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AN12">
         <v>50</v>
@@ -2671,16 +2731,16 @@
         <v>50</v>
       </c>
       <c r="AQ12" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="AR12" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="AS12" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AT12" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="AU12">
         <v>30</v>
@@ -2689,10 +2749,10 @@
         <v>120</v>
       </c>
       <c r="AW12" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:49">
       <c r="A13">
         <v>10460</v>
       </c>
@@ -2706,34 +2766,34 @@
         <v>7999</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="S13" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AA13" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AB13" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="AC13" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AD13" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AE13" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AH13" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AN13">
         <v>48</v>
@@ -2745,16 +2805,16 @@
         <v>50</v>
       </c>
       <c r="AQ13" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="AR13" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="AS13" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AT13" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="AU13">
         <v>30</v>
@@ -2763,10 +2823,10 @@
         <v>100</v>
       </c>
       <c r="AW13" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49">
       <c r="A14">
         <v>10494</v>
       </c>
@@ -2780,34 +2840,34 @@
         <v>7999</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="S14" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AA14" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AB14" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="AC14" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AD14" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AE14" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="AG14" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AH14" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AN14">
         <v>55</v>
@@ -2819,16 +2879,16 @@
         <v>50</v>
       </c>
       <c r="AQ14" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="AR14" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="AS14" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AT14" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="AU14">
         <v>30</v>
@@ -2837,10 +2897,10 @@
         <v>180</v>
       </c>
       <c r="AW14" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49">
       <c r="A15">
         <v>10501</v>
       </c>
@@ -2854,34 +2914,34 @@
         <v>6999</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="S15" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AA15" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AB15" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="AC15" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AD15" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AE15" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="AG15" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AH15" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AN15">
         <v>50</v>
@@ -2893,16 +2953,16 @@
         <v>53</v>
       </c>
       <c r="AQ15" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="AR15" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="AS15" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AT15" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="AU15">
         <v>30</v>
@@ -2911,10 +2971,10 @@
         <v>100</v>
       </c>
       <c r="AW15" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:49">
       <c r="A16">
         <v>10522</v>
       </c>
@@ -2928,34 +2988,34 @@
         <v>5999</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="S16" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AA16" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AB16" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="AC16" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AD16" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AE16" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="AG16" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AH16" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AN16">
         <v>50</v>
@@ -2967,13 +3027,13 @@
         <v>50</v>
       </c>
       <c r="AQ16" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="AS16" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AT16" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AU16">
         <v>30</v>
@@ -2982,10 +3042,10 @@
         <v>80</v>
       </c>
       <c r="AW16" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:49">
       <c r="A17">
         <v>10532</v>
       </c>
@@ -2999,34 +3059,34 @@
         <v>7999</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="S17" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AA17" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AB17" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="AC17" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AD17" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AE17" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="AG17" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AH17" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AN17">
         <v>48</v>
@@ -3038,13 +3098,13 @@
         <v>50</v>
       </c>
       <c r="AQ17" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="AS17" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AT17" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="AU17">
         <v>30</v>
@@ -3053,10 +3113,10 @@
         <v>120</v>
       </c>
       <c r="AW17" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:49">
       <c r="A18">
         <v>10532</v>
       </c>
@@ -3070,34 +3130,34 @@
         <v>7999</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="S18" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AA18" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AB18" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="AC18" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AD18" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AE18" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="AG18" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AH18" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AN18">
         <v>48</v>
@@ -3109,13 +3169,13 @@
         <v>50</v>
       </c>
       <c r="AQ18" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="AS18" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AT18" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="AU18">
         <v>30</v>
@@ -3124,10 +3184,10 @@
         <v>120</v>
       </c>
       <c r="AW18" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:49">
       <c r="A19">
         <v>10410</v>
       </c>
@@ -3141,34 +3201,34 @@
         <v>12000</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="S19" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AA19" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AB19" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="AC19" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AD19" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AE19" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="AG19" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AH19" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AN19">
         <v>48</v>
@@ -3180,13 +3240,13 @@
         <v>50</v>
       </c>
       <c r="AQ19" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="AS19" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AT19" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="AU19">
         <v>30</v>
@@ -3195,10 +3255,10 @@
         <v>120</v>
       </c>
       <c r="AW19" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:49">
       <c r="A20">
         <v>10542</v>
       </c>
@@ -3212,34 +3272,34 @@
         <v>5999</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="S20" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AA20" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AB20" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="AC20" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AD20" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AE20" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="AG20" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AH20" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AN20">
         <v>48</v>
@@ -3251,13 +3311,13 @@
         <v>50</v>
       </c>
       <c r="AQ20" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="AS20" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AT20" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="AU20">
         <v>30</v>
@@ -3266,10 +3326,10 @@
         <v>120</v>
       </c>
       <c r="AW20" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:49">
       <c r="A21">
         <v>10468</v>
       </c>
@@ -3283,34 +3343,34 @@
         <v>17000</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="S21" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AA21" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AB21" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="AC21" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AD21" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AE21" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="AG21" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AH21" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AN21">
         <v>48</v>
@@ -3322,13 +3382,13 @@
         <v>50</v>
       </c>
       <c r="AQ21" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="AS21" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AT21" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="AU21">
         <v>30</v>
@@ -3337,10 +3397,10 @@
         <v>120</v>
       </c>
       <c r="AW21" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:49">
       <c r="A22">
         <v>10498</v>
       </c>
@@ -3354,34 +3414,34 @@
         <v>9999</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="S22" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AA22" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AB22" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="AC22" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AD22" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AE22" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="AG22" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AH22" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AN22">
         <v>48</v>
@@ -3393,13 +3453,13 @@
         <v>50</v>
       </c>
       <c r="AQ22" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="AS22" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AT22" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="AU22">
         <v>30</v>
@@ -3408,10 +3468,10 @@
         <v>120</v>
       </c>
       <c r="AW22" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:49">
       <c r="A23">
         <v>10533</v>
       </c>
@@ -3425,34 +3485,34 @@
         <v>9999</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="S23" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AA23" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AB23" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="AC23" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AD23" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AE23" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="AG23" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AH23" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AN23">
         <v>48</v>
@@ -3464,13 +3524,13 @@
         <v>50</v>
       </c>
       <c r="AQ23" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="AS23" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AT23" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="AU23">
         <v>30</v>
@@ -3479,10 +3539,10 @@
         <v>120</v>
       </c>
       <c r="AW23" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:49">
       <c r="A24">
         <v>10461</v>
       </c>
@@ -3496,34 +3556,34 @@
         <v>11999</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="S24" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AA24" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AB24" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="AC24" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AD24" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AE24" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="AG24" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AH24" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AN24">
         <v>48</v>
@@ -3535,13 +3595,13 @@
         <v>50</v>
       </c>
       <c r="AQ24" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="AS24" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AT24" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="AU24">
         <v>30</v>
@@ -3550,10 +3610,10 @@
         <v>120</v>
       </c>
       <c r="AW24" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:49">
       <c r="A25">
         <v>10547</v>
       </c>
@@ -3567,34 +3627,34 @@
         <v>9999</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="S25" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AA25" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AB25" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="AC25" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AD25" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AE25" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="AG25" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AH25" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AN25">
         <v>48</v>
@@ -3606,13 +3666,13 @@
         <v>50</v>
       </c>
       <c r="AQ25" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="AS25" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AT25" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="AU25">
         <v>30</v>
@@ -3621,10 +3681,10 @@
         <v>120</v>
       </c>
       <c r="AW25" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:49">
       <c r="A26">
         <v>10530</v>
       </c>
@@ -3638,34 +3698,34 @@
         <v>3499</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="S26" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AA26" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AB26" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="AC26" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AD26" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AE26" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="AG26" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AH26" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AN26">
         <v>48</v>
@@ -3677,13 +3737,13 @@
         <v>50</v>
       </c>
       <c r="AQ26" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="AS26" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AT26" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="AU26">
         <v>30</v>
@@ -3692,10 +3752,10 @@
         <v>120</v>
       </c>
       <c r="AW26" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:49">
       <c r="A27">
         <v>10541</v>
       </c>
@@ -3709,34 +3769,34 @@
         <v>4999</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="S27" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AA27" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AB27" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="AC27" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AD27" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AE27" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="AG27" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AH27" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AN27">
         <v>48</v>
@@ -3748,13 +3808,13 @@
         <v>50</v>
       </c>
       <c r="AQ27" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="AS27" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AT27" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="AU27">
         <v>30</v>
@@ -3763,10 +3823,10 @@
         <v>120</v>
       </c>
       <c r="AW27" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:49">
       <c r="A28">
         <v>10319</v>
       </c>
@@ -3780,34 +3840,34 @@
         <v>2999</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="S28" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AA28" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AB28" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="AC28" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AD28" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AE28" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="AG28" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AH28" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AN28">
         <v>48</v>
@@ -3819,13 +3879,13 @@
         <v>50</v>
       </c>
       <c r="AQ28" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="AS28" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AT28" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AU28">
         <v>30</v>
@@ -3834,10 +3894,10 @@
         <v>120</v>
       </c>
       <c r="AW28" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:49">
       <c r="A29">
         <v>204741</v>
       </c>
@@ -3851,34 +3911,34 @@
         <v>44999</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="S29" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AA29" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AB29" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="AC29" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AD29" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AE29" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="AG29" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AH29" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AN29">
         <v>48</v>
@@ -3890,13 +3950,13 @@
         <v>50</v>
       </c>
       <c r="AQ29" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="AS29" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AT29" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="AU29">
         <v>30</v>
@@ -3905,10 +3965,10 @@
         <v>120</v>
       </c>
       <c r="AW29" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:49">
       <c r="A30">
         <v>105581</v>
       </c>
@@ -3922,34 +3982,34 @@
         <v>11999</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="S30" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AA30" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AB30" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="AC30" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AD30" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AE30" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="AG30" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AH30" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AN30">
         <v>48</v>
@@ -3961,13 +4021,13 @@
         <v>50</v>
       </c>
       <c r="AQ30" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="AS30" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AT30" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="AU30">
         <v>30</v>
@@ -3976,10 +4036,10 @@
         <v>120</v>
       </c>
       <c r="AW30" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:49">
       <c r="A31">
         <v>10558</v>
       </c>
@@ -3993,34 +4053,34 @@
         <v>11999</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="S31" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AA31" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AB31" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="AC31" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AD31" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AE31" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="AG31" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AH31" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AN31">
         <v>48</v>
@@ -4032,13 +4092,13 @@
         <v>50</v>
       </c>
       <c r="AQ31" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="AS31" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AT31" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="AU31">
         <v>30</v>
@@ -4047,10 +4107,10 @@
         <v>120</v>
       </c>
       <c r="AW31" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:49">
       <c r="A32">
         <v>10559</v>
       </c>
@@ -4064,34 +4124,34 @@
         <v>9999</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="S32" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AA32" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AB32" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="AC32" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AD32" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AE32" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="AG32" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AH32" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AN32">
         <v>48</v>
@@ -4103,13 +4163,13 @@
         <v>50</v>
       </c>
       <c r="AQ32" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="AS32" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AT32" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="AU32">
         <v>30</v>
@@ -4118,10 +4178,10 @@
         <v>120</v>
       </c>
       <c r="AW32" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:49">
       <c r="A33">
         <v>10562</v>
       </c>
@@ -4135,34 +4195,34 @@
         <v>14999</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="S33" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AA33" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AB33" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="AC33" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AD33" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AE33" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="AG33" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AH33" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AN33">
         <v>48</v>
@@ -4174,13 +4234,13 @@
         <v>50</v>
       </c>
       <c r="AQ33" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="AS33" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AT33" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="AU33">
         <v>30</v>
@@ -4189,51 +4249,51 @@
         <v>120</v>
       </c>
       <c r="AW33" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:49">
       <c r="A34">
-        <v>10561</v>
+        <v>10550</v>
       </c>
       <c r="L34" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="M34" t="s">
         <v>102</v>
       </c>
       <c r="N34">
-        <v>7999</v>
+        <v>14999</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="S34" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AA34" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AB34" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="AC34" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AD34" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AE34" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="AG34" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AH34" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AN34">
         <v>48</v>
@@ -4245,13 +4305,13 @@
         <v>50</v>
       </c>
       <c r="AQ34" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="AS34" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AT34" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="AU34">
         <v>30</v>
@@ -4260,51 +4320,51 @@
         <v>120</v>
       </c>
       <c r="AW34" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:49">
       <c r="A35">
-        <v>10550</v>
+        <v>10567</v>
       </c>
       <c r="L35" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="M35" t="s">
         <v>103</v>
       </c>
       <c r="N35">
-        <v>14999</v>
+        <v>7999</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="S35" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AA35" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AB35" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="AC35" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AD35" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AE35" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="AG35" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AH35" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AN35">
         <v>48</v>
@@ -4316,13 +4376,13 @@
         <v>50</v>
       </c>
       <c r="AQ35" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="AS35" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AT35" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="AU35">
         <v>30</v>
@@ -4331,51 +4391,51 @@
         <v>120</v>
       </c>
       <c r="AW35" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:49">
       <c r="A36">
-        <v>10567</v>
+        <v>10564</v>
       </c>
       <c r="L36" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="M36" t="s">
         <v>104</v>
       </c>
       <c r="N36">
-        <v>7999</v>
+        <v>19999</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="S36" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AA36" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AB36" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="AC36" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AD36" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AE36" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="AG36" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AH36" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AN36">
         <v>48</v>
@@ -4387,13 +4447,13 @@
         <v>50</v>
       </c>
       <c r="AQ36" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AS36" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AT36" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="AU36">
         <v>30</v>
@@ -4402,15 +4462,15 @@
         <v>120</v>
       </c>
       <c r="AW36" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:49">
       <c r="A37">
-        <v>10564</v>
+        <v>10566</v>
       </c>
       <c r="L37" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="M37" t="s">
         <v>105</v>
@@ -4419,34 +4479,34 @@
         <v>19999</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="S37" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AA37" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AB37" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="AC37" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AD37" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AE37" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AG37" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AH37" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AN37">
         <v>48</v>
@@ -4458,13 +4518,13 @@
         <v>50</v>
       </c>
       <c r="AQ37" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="AS37" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AT37" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="AU37">
         <v>30</v>
@@ -4473,156 +4533,373 @@
         <v>120</v>
       </c>
       <c r="AW37" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:49">
       <c r="A38">
-        <v>10566</v>
+        <v>105472</v>
       </c>
       <c r="L38" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="M38" t="s">
         <v>106</v>
       </c>
       <c r="N38">
+        <v>9999</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="S38" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>167</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>186</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>193</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>191</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:49">
+      <c r="A39">
+        <v>10572</v>
+      </c>
+      <c r="L39" t="s">
+        <v>68</v>
+      </c>
+      <c r="M39" t="s">
+        <v>107</v>
+      </c>
+      <c r="N39">
         <v>19999</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="S38" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>145</v>
-      </c>
-      <c r="AB38" t="s">
+      <c r="O39" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="AC38" t="s">
+      <c r="Q39" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="S39" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>193</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>191</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:49">
+      <c r="A40">
+        <v>10571</v>
+      </c>
+      <c r="L40" t="s">
+        <v>56</v>
+      </c>
+      <c r="M40" t="s">
+        <v>108</v>
+      </c>
+      <c r="N40">
+        <v>14999</v>
+      </c>
+      <c r="O40" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AD38" t="s">
+      <c r="Q40" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="S40" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>167</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>193</v>
+      </c>
+      <c r="AT40" t="s">
+        <v>191</v>
+      </c>
+      <c r="AW40" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:49">
+      <c r="A41">
+        <v>10568</v>
+      </c>
+      <c r="L41" t="s">
+        <v>50</v>
+      </c>
+      <c r="M41" t="s">
+        <v>109</v>
+      </c>
+      <c r="N41">
+        <v>11000</v>
+      </c>
+      <c r="O41" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="AE38" t="s">
+      <c r="Q41" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AG38" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH38" t="s">
+      <c r="S41" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE41" t="s">
         <v>159</v>
       </c>
-      <c r="AN38">
-        <v>48</v>
-      </c>
-      <c r="AO38">
-        <v>45</v>
-      </c>
-      <c r="AP38">
-        <v>50</v>
-      </c>
-      <c r="AQ38" t="s">
-        <v>172</v>
-      </c>
-      <c r="AS38" t="s">
-        <v>183</v>
-      </c>
-      <c r="AT38" t="s">
-        <v>181</v>
-      </c>
-      <c r="AU38">
-        <v>30</v>
-      </c>
-      <c r="AV38">
-        <v>120</v>
-      </c>
-      <c r="AW38" t="s">
-        <v>189</v>
+      <c r="AG41" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>167</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>187</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>193</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>194</v>
+      </c>
+      <c r="AW41" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:49">
+      <c r="A42">
+        <v>10570</v>
+      </c>
+      <c r="L42" t="s">
+        <v>58</v>
+      </c>
+      <c r="M42" t="s">
+        <v>110</v>
+      </c>
+      <c r="N42">
+        <v>19999</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="S42" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>167</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>187</v>
+      </c>
+      <c r="AS42" t="s">
+        <v>193</v>
+      </c>
+      <c r="AT42" t="s">
+        <v>191</v>
+      </c>
+      <c r="AW42" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="O3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="Q3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="O4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="Q4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="O5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="Q5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="O6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="Q6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="O7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="Q7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="O8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="Q8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="O9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="Q9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="O10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="Q10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="O11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="Q11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="O12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="Q12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="O13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="Q13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="O14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="Q14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="O15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="Q15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="O16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="Q16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="O17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="Q17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="O18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="Q18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="O19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="Q19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="O20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="Q20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="O21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="Q21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="O22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="Q22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="O23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="Q23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="O24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="Q24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="Q25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="O26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="Q26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="O27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="Q27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="O28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="Q28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="O29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="Q29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="O30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="Q30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="O31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="Q31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="O32" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="Q32" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="O33" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="Q33" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="O34" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="Q34" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="O35" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="Q35" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="O36" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="Q36" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="O37" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="Q37" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="Q38" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="O38" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="Q2" r:id="rId2"/>
+    <hyperlink ref="O3" r:id="rId3"/>
+    <hyperlink ref="Q3" r:id="rId4"/>
+    <hyperlink ref="O4" r:id="rId5"/>
+    <hyperlink ref="Q4" r:id="rId6"/>
+    <hyperlink ref="O5" r:id="rId7"/>
+    <hyperlink ref="Q5" r:id="rId8"/>
+    <hyperlink ref="O6" r:id="rId9"/>
+    <hyperlink ref="Q6" r:id="rId10"/>
+    <hyperlink ref="O7" r:id="rId11"/>
+    <hyperlink ref="Q7" r:id="rId12"/>
+    <hyperlink ref="O8" r:id="rId13"/>
+    <hyperlink ref="Q8" r:id="rId14"/>
+    <hyperlink ref="O9" r:id="rId15"/>
+    <hyperlink ref="Q9" r:id="rId16"/>
+    <hyperlink ref="O10" r:id="rId17"/>
+    <hyperlink ref="Q10" r:id="rId18"/>
+    <hyperlink ref="O11" r:id="rId19"/>
+    <hyperlink ref="Q11" r:id="rId20"/>
+    <hyperlink ref="O12" r:id="rId21"/>
+    <hyperlink ref="Q12" r:id="rId22"/>
+    <hyperlink ref="O13" r:id="rId23"/>
+    <hyperlink ref="Q13" r:id="rId24"/>
+    <hyperlink ref="O14" r:id="rId25"/>
+    <hyperlink ref="Q14" r:id="rId26"/>
+    <hyperlink ref="O15" r:id="rId27"/>
+    <hyperlink ref="Q15" r:id="rId28"/>
+    <hyperlink ref="O16" r:id="rId29"/>
+    <hyperlink ref="Q16" r:id="rId30"/>
+    <hyperlink ref="O17" r:id="rId31"/>
+    <hyperlink ref="Q17" r:id="rId32"/>
+    <hyperlink ref="O18" r:id="rId33"/>
+    <hyperlink ref="Q18" r:id="rId34"/>
+    <hyperlink ref="O19" r:id="rId35"/>
+    <hyperlink ref="Q19" r:id="rId36"/>
+    <hyperlink ref="O20" r:id="rId37"/>
+    <hyperlink ref="Q20" r:id="rId38"/>
+    <hyperlink ref="O21" r:id="rId39"/>
+    <hyperlink ref="Q21" r:id="rId40"/>
+    <hyperlink ref="O22" r:id="rId41"/>
+    <hyperlink ref="Q22" r:id="rId42"/>
+    <hyperlink ref="O23" r:id="rId43"/>
+    <hyperlink ref="Q23" r:id="rId44"/>
+    <hyperlink ref="O24" r:id="rId45"/>
+    <hyperlink ref="Q24" r:id="rId46"/>
+    <hyperlink ref="O25" r:id="rId47"/>
+    <hyperlink ref="Q25" r:id="rId48"/>
+    <hyperlink ref="O26" r:id="rId49"/>
+    <hyperlink ref="Q26" r:id="rId50"/>
+    <hyperlink ref="O27" r:id="rId51"/>
+    <hyperlink ref="Q27" r:id="rId52"/>
+    <hyperlink ref="O28" r:id="rId53"/>
+    <hyperlink ref="Q28" r:id="rId54"/>
+    <hyperlink ref="O29" r:id="rId55"/>
+    <hyperlink ref="Q29" r:id="rId56"/>
+    <hyperlink ref="O30" r:id="rId57"/>
+    <hyperlink ref="Q30" r:id="rId58"/>
+    <hyperlink ref="O31" r:id="rId59"/>
+    <hyperlink ref="Q31" r:id="rId60"/>
+    <hyperlink ref="O32" r:id="rId61"/>
+    <hyperlink ref="Q32" r:id="rId62"/>
+    <hyperlink ref="O33" r:id="rId63"/>
+    <hyperlink ref="Q33" r:id="rId64"/>
+    <hyperlink ref="O34" r:id="rId65"/>
+    <hyperlink ref="Q34" r:id="rId66"/>
+    <hyperlink ref="O35" r:id="rId67"/>
+    <hyperlink ref="Q35" r:id="rId68"/>
+    <hyperlink ref="O36" r:id="rId69"/>
+    <hyperlink ref="Q36" r:id="rId70"/>
+    <hyperlink ref="O37" r:id="rId71"/>
+    <hyperlink ref="Q37" r:id="rId72"/>
+    <hyperlink ref="O38" r:id="rId73"/>
+    <hyperlink ref="Q38" r:id="rId74"/>
+    <hyperlink ref="O39" r:id="rId75"/>
+    <hyperlink ref="Q39" r:id="rId76"/>
+    <hyperlink ref="O40" r:id="rId77"/>
+    <hyperlink ref="Q40" r:id="rId78"/>
+    <hyperlink ref="O41" r:id="rId79"/>
+    <hyperlink ref="Q41" r:id="rId80"/>
+    <hyperlink ref="O42" r:id="rId81"/>
+    <hyperlink ref="Q42" r:id="rId82"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/comp armchair.xlsx
+++ b/make_xl/data_xl/comp armchair.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F01D661-09FF-44C4-A952-4750327BE565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="203">
   <si>
     <t>Id</t>
   </si>
@@ -224,6 +230,12 @@
   </si>
   <si>
     <t>Кресло директорское офисное</t>
+  </si>
+  <si>
+    <t>Кресло офисное для руководителя</t>
+  </si>
+  <si>
+    <t>Кресло компьютерное Konig</t>
   </si>
   <si>
     <t>Кресло с высокой спинкой (10371) 
@@ -488,8 +500,7 @@
 Регулировка глубины сиденья.
 Синхронный механизм с безопасной функцией возврата в исходное положение, фиксирует сиденье в 5 положениях.
 3D подлокотники из черного пластика. Верхняя часть подлокотников покрыта мягкими черными полиуретановыми накладками. Подлокотники регулируются по высоте и ширине
-Количество кожзам - 3 шт.(10 000 руб. ), 
-ткань - 2 шт. (8 000 руб.)
+Количество кожзам - 25 000 руб.
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
@@ -905,27 +916,6 @@
     </t>
   </si>
   <si>
-    <t>Кресло компьютерное
-Артикул 10559
-Офисное компьютерное кресло с 5 регулировками, дышашим, приятным материалом и хорошей эргономикой. 
-Кресло выдерживает вес до 100 кг 
-Цвет чёрный 
-Цена 9 999
-Количество 1
-    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
-    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Кресло компьютерное для руководителя
 Артикул 10562
 Компьютерное кресло от известной компании из Беларуси Bels.
@@ -1020,25 +1010,6 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Кресло руководителя
-Артикул 10566
-Цвет чёрный
-Цена 19 999
-Количество 1
-    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
-    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Кресло компьютерное
 Артикул 105472
 Кресло компьютерное для офиса и дома, созданое для вашего комфорта. Кресло от отечественного производителя Юнитекс, модель Aero XSL1D. 
@@ -1157,6 +1128,57 @@
     </t>
   </si>
   <si>
+    <t>Кресло офисное для руководителя
+Артикул 10569
+Кожаное кресло для директора. С механизмом качания и фиксацией в нескольких положениях
+Цвет чёрный
+Цена 17 999
+Количество 1
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кресло компьютерное Konig
+Артикул 10000
+В дополнение к специальному дизайну, TENSA также обладает необычным механизмом, разработанным специально Kоnig + Neurath: механизм DTS следует естественным движениям человеческого тела, обеспечивая динамичную осанку. «Поворотная» спинка также дает поддержку, когда пользователь поворачивается или наклоняется вбок, чтобы снять напряжение со спины.                                      
+Регулировки: 
+Подлокотники и сидение - по высоте и глубине                
+Спинка - по глубине.            
+нагрузка - 180 кг. 
+производитель – Германия
+цвет – черный
+материал – натуральная "ЛАЙКОВАЯ" кожа
+Цвет: Чёрный
+Цена: 149999
+Количество: 3
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/ZDiUdOWTq7XF1g | https://disk.yandex.ru/i/a_u5CWPrYhAoIA | https://disk.yandex.ru/i/2U4SaFSBylFuSg | https://disk.yandex.ru/i/5xCnmpLS2Ky7dQ | https://disk.yandex.ru/i/ugTACqRM4oAMBA</t>
   </si>
   <si>
@@ -1244,9 +1266,6 @@
     <t>https://disk.yandex.ru/i/kg0Z443QO_3e7g | https://disk.yandex.ru/i/a3dHNDdYeS1qfw | https://disk.yandex.ru/i/3yFKlMg2J4ui2Q | https://disk.yandex.ru/i/bvKx808uELZWKg | https://disk.yandex.ru/i/rnzGIC_q6Gg-gg | https://disk.yandex.ru/i/_upWJUtgZixdHg | https://disk.yandex.ru/i/CK8tzoSe3Uf0hA | https://disk.yandex.ru/i/2phruQc3ffXSKg | https://disk.yandex.ru/i/GPznqOlAeHpq-A | https://disk.yandex.ru/i/4bPR0nZ3bq_nxw | https://disk.yandex.ru/i/IheE6Jw3spmL8A | https://disk.yandex.ru/i/sRfQPdSk18Butw | https://disk.yandex.ru/i/LagtNZkX8N08FA | https://disk.yandex.ru/i/eciPn31McPlJFw | https://disk.yandex.ru/i/MQYaXGWktL8XWg</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/sXNOKWRxkJVNeA | https://disk.yandex.ru/i/vMfCTB-yUv-QYA | https://disk.yandex.ru/i/bQtT2IW6jnwk9g | https://disk.yandex.ru/i/bGxnhtDvT9blLA | https://disk.yandex.ru/i/4jdTAMzGtT-wcA | https://disk.yandex.ru/i/jxLjWcV1_SJpAw | https://disk.yandex.ru/i/Jdlb-6TIDgKUWA | https://disk.yandex.ru/i/rKHJq9k_-JbiMA</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/vRvIJAjT03Lcug | https://disk.yandex.ru/i/hbjVU_G5c5h2Hg | https://disk.yandex.ru/i/JUyod2FwPxwrhA | https://disk.yandex.ru/i/Drh5jnAh4JqmbA | https://disk.yandex.ru/i/OB8SaAcEMHsdwQ | https://disk.yandex.ru/i/55Jvvb1NBPWFeA | https://disk.yandex.ru/i/o8DSHzqW1R4B_w | https://disk.yandex.ru/i/OgxDe-dr32YxSA | https://disk.yandex.ru/i/TkXhABu-UCvd4A</t>
   </si>
   <si>
@@ -1259,9 +1278,6 @@
     <t>https://disk.yandex.ru/i/QBmMaY_p08Axag | https://disk.yandex.ru/i/Zxyxzlz24NkNlA | https://disk.yandex.ru/i/kgGHK7Y3TT2wGg | https://disk.yandex.ru/i/aENeYZLtRvuHIw | https://disk.yandex.ru/i/kzn7aD4xkRl1IQ | https://disk.yandex.ru/i/H00lGA7AFgi4hA | https://disk.yandex.ru/i/y5piufOUwBkFhQ | https://disk.yandex.ru/i/JuPIyg9b-8iVHw | https://disk.yandex.ru/i/AA2JVtLljzO7Uw</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/W20c8nOHRgVWKg | https://disk.yandex.ru/i/wvw-j7k6SgYxHg | https://disk.yandex.ru/i/qBjjlVAuK1Ys0g | https://disk.yandex.ru/i/MrUK3DPaAaayYA | https://disk.yandex.ru/i/XiOUXQJ1OgRBeQ | https://disk.yandex.ru/i/tEHGLWMFZBz9yw | https://disk.yandex.ru/i/UHBLLB7Rzs96oQ | https://disk.yandex.ru/i/LzJl6mZfI0S1rQ | https://disk.yandex.ru/i/l1TbGv2vjlXjvw</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/l8HVG8c1c67dhw | https://disk.yandex.ru/i/EbdiAfWs0n5GGw | https://disk.yandex.ru/i/BgH_3qt1sjSeCg | https://disk.yandex.ru/i/ErV3-ycLVCl_Wg | https://disk.yandex.ru/i/CfuZubV8QHn_bg | https://disk.yandex.ru/i/_8LKcSqpQrGbsw | https://disk.yandex.ru/i/UvXnxvXRUAPsKw</t>
   </si>
   <si>
@@ -1277,6 +1293,12 @@
     <t>https://disk.yandex.ru/i/jQ6bR3h-8jWSGg | https://disk.yandex.ru/i/3OXZKmTygpHN8Q | https://disk.yandex.ru/i/6_xUDmFi1Z0ccg | https://disk.yandex.ru/i/gypkuHU2OCihUg | https://disk.yandex.ru/i/Rg4BzP8iJ-eZVQ | https://disk.yandex.ru/i/EznXeG8AvhIjsw | https://disk.yandex.ru/i/t29SZXILUVbPow | https://disk.yandex.ru/i/yy2_bjR3xfh8cQ</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/v6TJlnO_0ui0SQ | https://disk.yandex.ru/i/y79hnbqL8cCwxA | https://disk.yandex.ru/i/-BckocB7LMSI8w | https://disk.yandex.ru/i/LXasiGtJ3aY6SQ | https://disk.yandex.ru/i/I_IXL2jYVsxm_A | https://disk.yandex.ru/i/G7J0PyOlMje0iQ | https://disk.yandex.ru/i/hKRjcGpJ0RjDwg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/tQhQ_H1S-p3Wng | https://disk.yandex.ru/i/cs2fk3KpcbRR0Q | https://disk.yandex.ru/i/gWWWxr6oBUXHNw | https://disk.yandex.ru/i/qrZ-7JzWfph1MQ | https://disk.yandex.ru/i/9LslFcM3EVrW8w | https://disk.yandex.ru/i/kU65tD7ePaIrjw | https://disk.yandex.ru/i/yyq3zM0K03YGqg | https://disk.yandex.ru/i/ESV7fQym65sxkA | https://disk.yandex.ru/i/iooJBc_xajDmAA | https://disk.yandex.ru/i/d0sW8KlmXapC-w</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -1386,6 +1408,9 @@
   </si>
   <si>
     <t>Подлокотники | Подголовник | Механизм качания | Поясничный упор</t>
+  </si>
+  <si>
+    <t>Подлокотники | Подголовник | Механизм качания | Регулировка наклона спинки | Регулировка высоты | Регулировка подлокотников | Регулировка глубины сиденья</t>
   </si>
   <si>
     <t>Замша</t>
@@ -1427,8 +1452,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1499,18 +1524,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1548,9 +1581,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1582,9 +1615,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1616,9 +1667,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1791,14 +1860,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="Z19" workbookViewId="0">
+      <selection activeCell="AN41" sqref="AN41:AP42"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:49">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1947,7 +2018,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:49">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1955,40 +2026,40 @@
         <v>49</v>
       </c>
       <c r="M2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N2">
         <v>5499</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AA2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AC2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AD2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AE2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AG2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AH2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AN2">
         <v>50</v>
@@ -2000,16 +2071,16 @@
         <v>50</v>
       </c>
       <c r="AQ2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AR2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AS2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AT2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AU2">
         <v>30</v>
@@ -2018,10 +2089,10 @@
         <v>120</v>
       </c>
       <c r="AW2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:49">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10031</v>
       </c>
@@ -2029,40 +2100,40 @@
         <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N3">
         <v>7000</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AA3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AC3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AD3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AE3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AG3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AH3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AN3">
         <v>50</v>
@@ -2074,13 +2145,13 @@
         <v>50</v>
       </c>
       <c r="AQ3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AS3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AT3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AU3">
         <v>31</v>
@@ -2089,10 +2160,10 @@
         <v>70</v>
       </c>
       <c r="AW3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:49">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10301</v>
       </c>
@@ -2100,40 +2171,40 @@
         <v>51</v>
       </c>
       <c r="M4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N4">
         <v>2999</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AA4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AC4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AD4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AE4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AG4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AH4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AN4">
         <v>45</v>
@@ -2145,16 +2216,16 @@
         <v>40</v>
       </c>
       <c r="AQ4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AR4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AS4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AT4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AU4">
         <v>30</v>
@@ -2163,10 +2234,10 @@
         <v>80</v>
       </c>
       <c r="AW4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:49">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10301</v>
       </c>
@@ -2174,40 +2245,40 @@
         <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N5">
         <v>3999</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AA5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AC5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AD5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AE5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AG5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AH5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AN5">
         <v>48</v>
@@ -2219,16 +2290,16 @@
         <v>50</v>
       </c>
       <c r="AQ5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AR5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AS5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AT5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AU5">
         <v>30</v>
@@ -2237,10 +2308,10 @@
         <v>90</v>
       </c>
       <c r="AW5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:49">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10301</v>
       </c>
@@ -2248,40 +2319,40 @@
         <v>53</v>
       </c>
       <c r="M6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N6">
         <v>3499</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AA6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AC6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AD6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AE6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AG6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AH6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AN6">
         <v>50</v>
@@ -2293,13 +2364,13 @@
         <v>50</v>
       </c>
       <c r="AQ6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AS6" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AT6" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AU6">
         <v>30</v>
@@ -2308,10 +2379,10 @@
         <v>120</v>
       </c>
       <c r="AW6" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:49">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10302</v>
       </c>
@@ -2319,40 +2390,40 @@
         <v>49</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N7">
         <v>1499</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AA7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AC7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AD7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AE7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AG7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AH7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AN7">
         <v>45</v>
@@ -2364,16 +2435,16 @@
         <v>50</v>
       </c>
       <c r="AQ7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AR7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AS7" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT7" t="s">
         <v>193</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>190</v>
       </c>
       <c r="AU7">
         <v>30</v>
@@ -2382,10 +2453,10 @@
         <v>75</v>
       </c>
       <c r="AW7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:49">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10310</v>
       </c>
@@ -2393,40 +2464,40 @@
         <v>50</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N8">
         <v>3100</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AA8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AC8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AD8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AE8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AG8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AH8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AN8">
         <v>48</v>
@@ -2438,16 +2509,16 @@
         <v>45</v>
       </c>
       <c r="AQ8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AR8" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AS8" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AT8" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AU8">
         <v>30</v>
@@ -2456,10 +2527,10 @@
         <v>80</v>
       </c>
       <c r="AW8" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:49">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10316</v>
       </c>
@@ -2467,40 +2538,40 @@
         <v>54</v>
       </c>
       <c r="M9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N9">
         <v>3499</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AA9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AC9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AD9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AE9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AG9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AH9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AN9">
         <v>50</v>
@@ -2512,13 +2583,13 @@
         <v>50</v>
       </c>
       <c r="AQ9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AS9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AT9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AU9">
         <v>30</v>
@@ -2527,10 +2598,10 @@
         <v>120</v>
       </c>
       <c r="AW9" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:49">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10336</v>
       </c>
@@ -2538,40 +2609,40 @@
         <v>55</v>
       </c>
       <c r="M10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N10">
         <v>2300</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AA10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AC10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AD10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AE10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AG10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AH10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AN10">
         <v>48</v>
@@ -2583,16 +2654,16 @@
         <v>50</v>
       </c>
       <c r="AQ10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AR10" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AS10" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AT10" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AU10">
         <v>31</v>
@@ -2601,10 +2672,10 @@
         <v>70</v>
       </c>
       <c r="AW10" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:49">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10368</v>
       </c>
@@ -2612,40 +2683,40 @@
         <v>56</v>
       </c>
       <c r="M11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N11">
         <v>3999</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AA11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AC11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AD11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AE11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AG11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AH11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AN11">
         <v>50</v>
@@ -2657,16 +2728,16 @@
         <v>50</v>
       </c>
       <c r="AQ11" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AR11" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AS11" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT11" t="s">
         <v>193</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>190</v>
       </c>
       <c r="AU11">
         <v>30</v>
@@ -2675,10 +2746,10 @@
         <v>120</v>
       </c>
       <c r="AW11" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="12" spans="1:49">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10424</v>
       </c>
@@ -2686,40 +2757,40 @@
         <v>50</v>
       </c>
       <c r="M12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N12">
         <v>7999</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AA12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AC12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AD12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AE12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AG12" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AH12" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AN12">
         <v>50</v>
@@ -2731,16 +2802,16 @@
         <v>50</v>
       </c>
       <c r="AQ12" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AR12" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AS12" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AT12" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AU12">
         <v>30</v>
@@ -2749,10 +2820,10 @@
         <v>120</v>
       </c>
       <c r="AW12" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="13" spans="1:49">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10460</v>
       </c>
@@ -2760,40 +2831,40 @@
         <v>57</v>
       </c>
       <c r="M13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N13">
         <v>7999</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S13" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AA13" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB13" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AC13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AD13" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AE13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AH13" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AN13">
         <v>48</v>
@@ -2805,16 +2876,16 @@
         <v>50</v>
       </c>
       <c r="AQ13" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AR13" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AS13" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AT13" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AU13">
         <v>30</v>
@@ -2823,10 +2894,10 @@
         <v>100</v>
       </c>
       <c r="AW13" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:49">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10494</v>
       </c>
@@ -2834,40 +2905,40 @@
         <v>58</v>
       </c>
       <c r="M14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N14">
-        <v>7999</v>
+        <v>24999</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S14" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AA14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB14" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AC14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AD14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AE14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AG14" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AH14" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AN14">
         <v>55</v>
@@ -2879,16 +2950,16 @@
         <v>50</v>
       </c>
       <c r="AQ14" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AR14" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AS14" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AT14" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AU14">
         <v>30</v>
@@ -2897,10 +2968,10 @@
         <v>180</v>
       </c>
       <c r="AW14" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:49">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10501</v>
       </c>
@@ -2908,40 +2979,40 @@
         <v>59</v>
       </c>
       <c r="M15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N15">
         <v>6999</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AA15" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AC15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AD15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AE15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AG15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AH15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AN15">
         <v>50</v>
@@ -2953,16 +3024,16 @@
         <v>53</v>
       </c>
       <c r="AQ15" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AR15" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AS15" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AT15" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AU15">
         <v>30</v>
@@ -2971,10 +3042,10 @@
         <v>100</v>
       </c>
       <c r="AW15" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:49">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10522</v>
       </c>
@@ -2982,40 +3053,40 @@
         <v>60</v>
       </c>
       <c r="M16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N16">
         <v>5999</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S16" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AA16" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB16" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AC16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AD16" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AE16" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AG16" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AH16" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AN16">
         <v>50</v>
@@ -3027,13 +3098,13 @@
         <v>50</v>
       </c>
       <c r="AQ16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AS16" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT16" t="s">
         <v>193</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>190</v>
       </c>
       <c r="AU16">
         <v>30</v>
@@ -3042,10 +3113,10 @@
         <v>80</v>
       </c>
       <c r="AW16" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:49">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10532</v>
       </c>
@@ -3053,40 +3124,40 @@
         <v>51</v>
       </c>
       <c r="M17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N17">
         <v>7999</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S17" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AA17" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB17" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AC17" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AD17" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AE17" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG17" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AH17" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AN17">
         <v>48</v>
@@ -3098,13 +3169,13 @@
         <v>50</v>
       </c>
       <c r="AQ17" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AS17" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AT17" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AU17">
         <v>30</v>
@@ -3113,10 +3184,10 @@
         <v>120</v>
       </c>
       <c r="AW17" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:49">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10532</v>
       </c>
@@ -3124,40 +3195,40 @@
         <v>51</v>
       </c>
       <c r="M18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N18">
         <v>7999</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AA18" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB18" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AC18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AD18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AE18" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG18" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AH18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AN18">
         <v>48</v>
@@ -3169,13 +3240,13 @@
         <v>50</v>
       </c>
       <c r="AQ18" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AS18" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AT18" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AU18">
         <v>30</v>
@@ -3184,10 +3255,10 @@
         <v>120</v>
       </c>
       <c r="AW18" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:49">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10410</v>
       </c>
@@ -3195,40 +3266,40 @@
         <v>61</v>
       </c>
       <c r="M19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N19">
         <v>12000</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S19" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AA19" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AC19" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AD19" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AE19" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AG19" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AH19" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AN19">
         <v>48</v>
@@ -3240,13 +3311,13 @@
         <v>50</v>
       </c>
       <c r="AQ19" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AS19" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AT19" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AU19">
         <v>30</v>
@@ -3255,10 +3326,10 @@
         <v>120</v>
       </c>
       <c r="AW19" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:49">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10542</v>
       </c>
@@ -3266,40 +3337,40 @@
         <v>62</v>
       </c>
       <c r="M20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N20">
         <v>5999</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S20" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AA20" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB20" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AC20" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AD20" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AE20" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AG20" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AH20" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AN20">
         <v>48</v>
@@ -3311,13 +3382,13 @@
         <v>50</v>
       </c>
       <c r="AQ20" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AS20" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AT20" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AU20">
         <v>30</v>
@@ -3326,10 +3397,10 @@
         <v>120</v>
       </c>
       <c r="AW20" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:49">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10468</v>
       </c>
@@ -3337,40 +3408,40 @@
         <v>63</v>
       </c>
       <c r="M21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N21">
         <v>17000</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S21" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AA21" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB21" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AC21" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AD21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AE21" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AG21" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AH21" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AN21">
         <v>48</v>
@@ -3382,13 +3453,13 @@
         <v>50</v>
       </c>
       <c r="AQ21" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AS21" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AT21" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AU21">
         <v>30</v>
@@ -3397,10 +3468,10 @@
         <v>120</v>
       </c>
       <c r="AW21" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:49">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10498</v>
       </c>
@@ -3408,40 +3479,40 @@
         <v>64</v>
       </c>
       <c r="M22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N22">
         <v>9999</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AA22" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB22" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AC22" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AD22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AE22" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AG22" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AH22" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AN22">
         <v>48</v>
@@ -3453,13 +3524,13 @@
         <v>50</v>
       </c>
       <c r="AQ22" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AS22" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AT22" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AU22">
         <v>30</v>
@@ -3468,10 +3539,10 @@
         <v>120</v>
       </c>
       <c r="AW22" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="23" spans="1:49">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10533</v>
       </c>
@@ -3479,40 +3550,40 @@
         <v>50</v>
       </c>
       <c r="M23" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N23">
         <v>9999</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S23" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AA23" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AC23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AD23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AE23" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG23" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AH23" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AN23">
         <v>48</v>
@@ -3524,13 +3595,13 @@
         <v>50</v>
       </c>
       <c r="AQ23" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AS23" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AT23" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AU23">
         <v>30</v>
@@ -3539,10 +3610,10 @@
         <v>120</v>
       </c>
       <c r="AW23" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="24" spans="1:49">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10461</v>
       </c>
@@ -3550,40 +3621,40 @@
         <v>55</v>
       </c>
       <c r="M24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N24">
         <v>11999</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S24" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AA24" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB24" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AC24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AD24" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AE24" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AG24" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AH24" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AN24">
         <v>48</v>
@@ -3595,13 +3666,13 @@
         <v>50</v>
       </c>
       <c r="AQ24" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AS24" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AT24" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AU24">
         <v>30</v>
@@ -3610,10 +3681,10 @@
         <v>120</v>
       </c>
       <c r="AW24" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="25" spans="1:49">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10547</v>
       </c>
@@ -3621,40 +3692,40 @@
         <v>50</v>
       </c>
       <c r="M25" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N25">
         <v>9999</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S25" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AA25" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB25" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AC25" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AD25" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AE25" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG25" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AH25" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AN25">
         <v>48</v>
@@ -3666,13 +3737,13 @@
         <v>50</v>
       </c>
       <c r="AQ25" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AS25" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AT25" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AU25">
         <v>30</v>
@@ -3681,10 +3752,10 @@
         <v>120</v>
       </c>
       <c r="AW25" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="26" spans="1:49">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10530</v>
       </c>
@@ -3692,40 +3763,40 @@
         <v>51</v>
       </c>
       <c r="M26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="N26">
         <v>3499</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AA26" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB26" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AC26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AD26" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AE26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AG26" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AH26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AN26">
         <v>48</v>
@@ -3737,13 +3808,13 @@
         <v>50</v>
       </c>
       <c r="AQ26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AS26" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AT26" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AU26">
         <v>30</v>
@@ -3752,10 +3823,10 @@
         <v>120</v>
       </c>
       <c r="AW26" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="27" spans="1:49">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10541</v>
       </c>
@@ -3763,40 +3834,40 @@
         <v>55</v>
       </c>
       <c r="M27" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="N27">
         <v>4999</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S27" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AA27" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB27" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AC27" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AD27" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AE27" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AG27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AH27" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AN27">
         <v>48</v>
@@ -3808,13 +3879,13 @@
         <v>50</v>
       </c>
       <c r="AQ27" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AS27" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AT27" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AU27">
         <v>30</v>
@@ -3823,10 +3894,10 @@
         <v>120</v>
       </c>
       <c r="AW27" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="28" spans="1:49">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10319</v>
       </c>
@@ -3834,40 +3905,40 @@
         <v>65</v>
       </c>
       <c r="M28" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N28">
         <v>2999</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S28" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AA28" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB28" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AC28" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AD28" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AE28" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AG28" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AH28" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AN28">
         <v>48</v>
@@ -3879,13 +3950,13 @@
         <v>50</v>
       </c>
       <c r="AQ28" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AS28" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT28" t="s">
         <v>193</v>
-      </c>
-      <c r="AT28" t="s">
-        <v>190</v>
       </c>
       <c r="AU28">
         <v>30</v>
@@ -3894,10 +3965,10 @@
         <v>120</v>
       </c>
       <c r="AW28" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="29" spans="1:49">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>204741</v>
       </c>
@@ -3905,40 +3976,40 @@
         <v>66</v>
       </c>
       <c r="M29" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N29">
         <v>44999</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S29" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AA29" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB29" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AC29" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AD29" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AE29" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AG29" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AH29" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AN29">
         <v>48</v>
@@ -3950,13 +4021,13 @@
         <v>50</v>
       </c>
       <c r="AQ29" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AS29" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AT29" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AU29">
         <v>30</v>
@@ -3965,10 +4036,10 @@
         <v>120</v>
       </c>
       <c r="AW29" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="30" spans="1:49">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>105581</v>
       </c>
@@ -3976,40 +4047,40 @@
         <v>65</v>
       </c>
       <c r="M30" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="N30">
         <v>11999</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S30" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AA30" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB30" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AC30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AD30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AE30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AG30" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AH30" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AN30">
         <v>48</v>
@@ -4021,13 +4092,13 @@
         <v>50</v>
       </c>
       <c r="AQ30" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AS30" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AT30" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AU30">
         <v>30</v>
@@ -4036,10 +4107,10 @@
         <v>120</v>
       </c>
       <c r="AW30" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="31" spans="1:49">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10558</v>
       </c>
@@ -4047,40 +4118,40 @@
         <v>65</v>
       </c>
       <c r="M31" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N31">
         <v>11999</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AA31" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB31" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AC31" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AD31" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AE31" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AG31" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AH31" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AN31">
         <v>48</v>
@@ -4092,13 +4163,13 @@
         <v>50</v>
       </c>
       <c r="AQ31" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AS31" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AT31" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AU31">
         <v>30</v>
@@ -4107,51 +4178,51 @@
         <v>120</v>
       </c>
       <c r="AW31" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="32" spans="1:49">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>10559</v>
+        <v>10562</v>
       </c>
       <c r="L32" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="M32" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N32">
-        <v>9999</v>
+        <v>14999</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S32" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AA32" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB32" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AC32" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AD32" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AE32" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AG32" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AH32" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AN32">
         <v>48</v>
@@ -4163,13 +4234,13 @@
         <v>50</v>
       </c>
       <c r="AQ32" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AS32" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AT32" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AU32">
         <v>30</v>
@@ -4178,51 +4249,51 @@
         <v>120</v>
       </c>
       <c r="AW32" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="33" spans="1:49">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>10562</v>
+        <v>10550</v>
       </c>
       <c r="L33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M33" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N33">
         <v>14999</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S33" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AA33" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB33" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AC33" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AD33" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AE33" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AG33" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AH33" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AN33">
         <v>48</v>
@@ -4234,13 +4305,13 @@
         <v>50</v>
       </c>
       <c r="AQ33" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="AS33" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AT33" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AU33">
         <v>30</v>
@@ -4249,51 +4320,51 @@
         <v>120</v>
       </c>
       <c r="AW33" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:49">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>10550</v>
+        <v>10567</v>
       </c>
       <c r="L34" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="M34" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N34">
-        <v>14999</v>
+        <v>7999</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S34" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AA34" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB34" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AC34" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AD34" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AE34" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AG34" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AH34" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AN34">
         <v>48</v>
@@ -4305,13 +4376,13 @@
         <v>50</v>
       </c>
       <c r="AQ34" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AS34" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AT34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AU34">
         <v>30</v>
@@ -4320,51 +4391,51 @@
         <v>120</v>
       </c>
       <c r="AW34" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="35" spans="1:49">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>10567</v>
+        <v>10564</v>
       </c>
       <c r="L35" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="M35" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N35">
-        <v>7999</v>
+        <v>19999</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S35" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AA35" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB35" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AC35" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AD35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AE35" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AG35" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AH35" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AN35">
         <v>48</v>
@@ -4376,10 +4447,10 @@
         <v>50</v>
       </c>
       <c r="AQ35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AS35" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AT35" t="s">
         <v>194</v>
@@ -4391,51 +4462,51 @@
         <v>120</v>
       </c>
       <c r="AW35" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="36" spans="1:49">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>10564</v>
+        <v>105472</v>
       </c>
       <c r="L36" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="M36" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N36">
-        <v>19999</v>
+        <v>9999</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S36" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AA36" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB36" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AC36" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AD36" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AE36" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG36" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AH36" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AN36">
         <v>48</v>
@@ -4447,13 +4518,13 @@
         <v>50</v>
       </c>
       <c r="AQ36" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="AS36" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AT36" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AU36">
         <v>30</v>
@@ -4462,51 +4533,51 @@
         <v>120</v>
       </c>
       <c r="AW36" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="37" spans="1:49">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>10566</v>
+        <v>10572</v>
       </c>
       <c r="L37" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="M37" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N37">
         <v>19999</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S37" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AA37" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB37" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AC37" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AD37" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AE37" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AG37" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AH37" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AN37">
         <v>48</v>
@@ -4518,13 +4589,13 @@
         <v>50</v>
       </c>
       <c r="AQ37" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="AS37" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AT37" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AU37">
         <v>30</v>
@@ -4533,373 +4604,448 @@
         <v>120</v>
       </c>
       <c r="AW37" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="38" spans="1:49">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>105472</v>
+        <v>10571</v>
       </c>
       <c r="L38" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="M38" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N38">
-        <v>9999</v>
+        <v>14999</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q38" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="S38" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN38">
+        <v>48</v>
+      </c>
+      <c r="AO38">
+        <v>45</v>
+      </c>
+      <c r="AP38">
+        <v>50</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>194</v>
+      </c>
+      <c r="AU38">
+        <v>30</v>
+      </c>
+      <c r="AV38">
+        <v>120</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>10568</v>
+      </c>
+      <c r="L39" t="s">
+        <v>50</v>
+      </c>
+      <c r="M39" t="s">
+        <v>109</v>
+      </c>
+      <c r="N39">
+        <v>11000</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="S39" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN39">
+        <v>48</v>
+      </c>
+      <c r="AO39">
+        <v>45</v>
+      </c>
+      <c r="AP39">
+        <v>50</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>189</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>197</v>
+      </c>
+      <c r="AU39">
+        <v>30</v>
+      </c>
+      <c r="AV39">
+        <v>120</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>10570</v>
+      </c>
+      <c r="L40" t="s">
+        <v>58</v>
+      </c>
+      <c r="M40" t="s">
+        <v>110</v>
+      </c>
+      <c r="N40">
+        <v>19999</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="S40" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN40">
+        <v>48</v>
+      </c>
+      <c r="AO40">
+        <v>45</v>
+      </c>
+      <c r="AP40">
+        <v>50</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>189</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT40" t="s">
+        <v>194</v>
+      </c>
+      <c r="AU40">
+        <v>30</v>
+      </c>
+      <c r="AV40">
+        <v>120</v>
+      </c>
+      <c r="AW40" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>10569</v>
+      </c>
+      <c r="L41" t="s">
+        <v>70</v>
+      </c>
+      <c r="M41" t="s">
+        <v>111</v>
+      </c>
+      <c r="N41">
+        <v>17999</v>
+      </c>
+      <c r="O41" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="S38" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA38" t="s">
+      <c r="Q41" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="AB38" t="s">
+      <c r="S41" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA41" t="s">
         <v>155</v>
       </c>
-      <c r="AC38" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD38" t="s">
+      <c r="AB41" t="s">
         <v>157</v>
       </c>
-      <c r="AE38" t="s">
-        <v>164</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>166</v>
-      </c>
-      <c r="AH38" t="s">
-        <v>167</v>
-      </c>
-      <c r="AQ38" t="s">
-        <v>186</v>
-      </c>
-      <c r="AS38" t="s">
-        <v>193</v>
-      </c>
-      <c r="AT38" t="s">
-        <v>191</v>
-      </c>
-      <c r="AW38" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="39" spans="1:49">
-      <c r="A39">
-        <v>10572</v>
-      </c>
-      <c r="L39" t="s">
-        <v>68</v>
-      </c>
-      <c r="M39" t="s">
-        <v>107</v>
-      </c>
-      <c r="N39">
-        <v>19999</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="S39" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE39" t="s">
+      <c r="AC41" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD41" t="s">
         <v>159</v>
       </c>
-      <c r="AG39" t="s">
-        <v>166</v>
-      </c>
-      <c r="AH39" t="s">
-        <v>167</v>
-      </c>
-      <c r="AQ39" t="s">
+      <c r="AE41" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH41" t="s">
         <v>169</v>
       </c>
-      <c r="AS39" t="s">
-        <v>193</v>
-      </c>
-      <c r="AT39" t="s">
-        <v>191</v>
-      </c>
-      <c r="AW39" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="40" spans="1:49">
-      <c r="A40">
-        <v>10571</v>
-      </c>
-      <c r="L40" t="s">
-        <v>56</v>
-      </c>
-      <c r="M40" t="s">
-        <v>108</v>
-      </c>
-      <c r="N40">
-        <v>14999</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="S40" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG40" t="s">
-        <v>166</v>
-      </c>
-      <c r="AH40" t="s">
-        <v>167</v>
-      </c>
-      <c r="AQ40" t="s">
-        <v>171</v>
-      </c>
-      <c r="AS40" t="s">
-        <v>193</v>
-      </c>
-      <c r="AT40" t="s">
-        <v>191</v>
-      </c>
-      <c r="AW40" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="41" spans="1:49">
-      <c r="A41">
-        <v>10568</v>
-      </c>
-      <c r="L41" t="s">
-        <v>50</v>
-      </c>
-      <c r="M41" t="s">
-        <v>109</v>
-      </c>
-      <c r="N41">
-        <v>11000</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q41" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="S41" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG41" t="s">
-        <v>166</v>
-      </c>
-      <c r="AH41" t="s">
-        <v>167</v>
+      <c r="AN41">
+        <v>48</v>
+      </c>
+      <c r="AO41">
+        <v>45</v>
+      </c>
+      <c r="AP41">
+        <v>50</v>
       </c>
       <c r="AQ41" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AS41" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AT41" t="s">
         <v>194</v>
       </c>
+      <c r="AU41">
+        <v>30</v>
+      </c>
+      <c r="AV41">
+        <v>120</v>
+      </c>
       <c r="AW41" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="42" spans="1:49">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>10570</v>
+        <v>10000</v>
       </c>
       <c r="L42" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="M42" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N42">
-        <v>19999</v>
+        <v>14999</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S42" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AA42" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB42" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AC42" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AD42" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AE42" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AG42" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AH42" t="s">
-        <v>167</v>
+        <v>169</v>
+      </c>
+      <c r="AN42">
+        <v>48</v>
+      </c>
+      <c r="AO42">
+        <v>45</v>
+      </c>
+      <c r="AP42">
+        <v>50</v>
       </c>
       <c r="AQ42" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AS42" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AT42" t="s">
-        <v>191</v>
+        <v>194</v>
+      </c>
+      <c r="AU42">
+        <v>30</v>
+      </c>
+      <c r="AV42">
+        <v>190</v>
       </c>
       <c r="AW42" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1"/>
-    <hyperlink ref="Q2" r:id="rId2"/>
-    <hyperlink ref="O3" r:id="rId3"/>
-    <hyperlink ref="Q3" r:id="rId4"/>
-    <hyperlink ref="O4" r:id="rId5"/>
-    <hyperlink ref="Q4" r:id="rId6"/>
-    <hyperlink ref="O5" r:id="rId7"/>
-    <hyperlink ref="Q5" r:id="rId8"/>
-    <hyperlink ref="O6" r:id="rId9"/>
-    <hyperlink ref="Q6" r:id="rId10"/>
-    <hyperlink ref="O7" r:id="rId11"/>
-    <hyperlink ref="Q7" r:id="rId12"/>
-    <hyperlink ref="O8" r:id="rId13"/>
-    <hyperlink ref="Q8" r:id="rId14"/>
-    <hyperlink ref="O9" r:id="rId15"/>
-    <hyperlink ref="Q9" r:id="rId16"/>
-    <hyperlink ref="O10" r:id="rId17"/>
-    <hyperlink ref="Q10" r:id="rId18"/>
-    <hyperlink ref="O11" r:id="rId19"/>
-    <hyperlink ref="Q11" r:id="rId20"/>
-    <hyperlink ref="O12" r:id="rId21"/>
-    <hyperlink ref="Q12" r:id="rId22"/>
-    <hyperlink ref="O13" r:id="rId23"/>
-    <hyperlink ref="Q13" r:id="rId24"/>
-    <hyperlink ref="O14" r:id="rId25"/>
-    <hyperlink ref="Q14" r:id="rId26"/>
-    <hyperlink ref="O15" r:id="rId27"/>
-    <hyperlink ref="Q15" r:id="rId28"/>
-    <hyperlink ref="O16" r:id="rId29"/>
-    <hyperlink ref="Q16" r:id="rId30"/>
-    <hyperlink ref="O17" r:id="rId31"/>
-    <hyperlink ref="Q17" r:id="rId32"/>
-    <hyperlink ref="O18" r:id="rId33"/>
-    <hyperlink ref="Q18" r:id="rId34"/>
-    <hyperlink ref="O19" r:id="rId35"/>
-    <hyperlink ref="Q19" r:id="rId36"/>
-    <hyperlink ref="O20" r:id="rId37"/>
-    <hyperlink ref="Q20" r:id="rId38"/>
-    <hyperlink ref="O21" r:id="rId39"/>
-    <hyperlink ref="Q21" r:id="rId40"/>
-    <hyperlink ref="O22" r:id="rId41"/>
-    <hyperlink ref="Q22" r:id="rId42"/>
-    <hyperlink ref="O23" r:id="rId43"/>
-    <hyperlink ref="Q23" r:id="rId44"/>
-    <hyperlink ref="O24" r:id="rId45"/>
-    <hyperlink ref="Q24" r:id="rId46"/>
-    <hyperlink ref="O25" r:id="rId47"/>
-    <hyperlink ref="Q25" r:id="rId48"/>
-    <hyperlink ref="O26" r:id="rId49"/>
-    <hyperlink ref="Q26" r:id="rId50"/>
-    <hyperlink ref="O27" r:id="rId51"/>
-    <hyperlink ref="Q27" r:id="rId52"/>
-    <hyperlink ref="O28" r:id="rId53"/>
-    <hyperlink ref="Q28" r:id="rId54"/>
-    <hyperlink ref="O29" r:id="rId55"/>
-    <hyperlink ref="Q29" r:id="rId56"/>
-    <hyperlink ref="O30" r:id="rId57"/>
-    <hyperlink ref="Q30" r:id="rId58"/>
-    <hyperlink ref="O31" r:id="rId59"/>
-    <hyperlink ref="Q31" r:id="rId60"/>
-    <hyperlink ref="O32" r:id="rId61"/>
-    <hyperlink ref="Q32" r:id="rId62"/>
-    <hyperlink ref="O33" r:id="rId63"/>
-    <hyperlink ref="Q33" r:id="rId64"/>
-    <hyperlink ref="O34" r:id="rId65"/>
-    <hyperlink ref="Q34" r:id="rId66"/>
-    <hyperlink ref="O35" r:id="rId67"/>
-    <hyperlink ref="Q35" r:id="rId68"/>
-    <hyperlink ref="O36" r:id="rId69"/>
-    <hyperlink ref="Q36" r:id="rId70"/>
-    <hyperlink ref="O37" r:id="rId71"/>
-    <hyperlink ref="Q37" r:id="rId72"/>
-    <hyperlink ref="O38" r:id="rId73"/>
-    <hyperlink ref="Q38" r:id="rId74"/>
-    <hyperlink ref="O39" r:id="rId75"/>
-    <hyperlink ref="Q39" r:id="rId76"/>
-    <hyperlink ref="O40" r:id="rId77"/>
-    <hyperlink ref="Q40" r:id="rId78"/>
-    <hyperlink ref="O41" r:id="rId79"/>
-    <hyperlink ref="Q41" r:id="rId80"/>
-    <hyperlink ref="O42" r:id="rId81"/>
-    <hyperlink ref="Q42" r:id="rId82"/>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="O3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="Q3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="O4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="Q4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="O5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Q5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="O6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="Q6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="O7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="Q7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="O8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="Q8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="O9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="Q9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="O10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="Q10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="O11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="Q11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="O12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="Q12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="O13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="Q13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="O14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="Q14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="O15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="Q15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="O16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="Q16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="O17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="Q17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="O18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="Q18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="O19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="Q19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="O20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="Q20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="O21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="Q21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="O22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="Q22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="O23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="Q23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="O24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="Q24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="Q25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="O26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="Q26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="O27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="Q27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="O28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="Q28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="O29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="Q29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="O30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="Q30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="O31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="Q31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="O32" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="Q32" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="O33" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="Q33" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="O34" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="Q34" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="O35" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="Q35" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="O36" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="Q36" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="O37" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="Q37" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="O38" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="Q38" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="O39" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="Q39" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="O40" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="Q40" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="O41" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="Q41" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="O42" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="Q42" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/comp armchair.xlsx
+++ b/make_xl/data_xl/comp armchair.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F01D661-09FF-44C4-A952-4750327BE565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9633204-9CDF-4B23-B214-A5B6D6D16789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="221">
   <si>
     <t>Id</t>
   </si>
@@ -236,6 +236,18 @@
   </si>
   <si>
     <t>Кресло компьютерное Konig</t>
+  </si>
+  <si>
+    <t>Кожаное кресло руководителя Chairman</t>
+  </si>
+  <si>
+    <t>Компьютерное кресло Ikea</t>
+  </si>
+  <si>
+    <t>Компьютерное кресло Unitex</t>
+  </si>
+  <si>
+    <t>Компьютерное кресло Vitra</t>
   </si>
   <si>
     <t>Кресло с высокой спинкой (10371) 
@@ -1179,6 +1191,159 @@
     </t>
   </si>
   <si>
+    <t xml:space="preserve">Кожаное кресло руководителя Chairman
+Артикул 10577
+Кожаное кресло руководителя Chairman.
+Комфортное кресло с эргономичной высокой спинкой, обладает режимом качания с фиксацией в нескольких положениях.
+Цвет: Чёрный
+Цена: 34999
+Количество: 3
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кресло для руководителя
+Артикул 10580
+Элитное кожаное кресло для директоров и руководителей с механизмом качания и удобной эргономикой
+Цвет: Чёрный
+Цена: 24999
+Количество: 1
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Компьютерное кресло Ikea
+Артикул 10575
+Элегантное компьютерное кресло из кожи марки Ikea. Кресло подойдет как для работников, так и для посетителей.
+На одном кресле есть небольшой дефект - 8 тыс. 
+Без дефектов стоимость - 10 тыс
+Цвет: Белый
+Цена: 7999
+Количество: 1
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кресло для руководителя
+Артикул 10579
+Офисное кресло для  руководителя
+Цвет: Бежевый
+Цена: 10500
+Количество: 1
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Компьютерное кресло Unitex
+Артикул 10582
+Эргономичное офисное кресло Unitex Jimmy— идеальное сочетание продуманного дизайна, адаптивности и стиля. 
+Преимущества:
+Умный синхромеханизм
+Дышащая сетчатая спинка
+Персонализированный комфорт
+Регулируемый поясничный валик
+Эргономичный подголовник
+3D-подлокотники
+Система «антишок»:  Бесшумная и плавная регулировка высоты сиденья — никаких резких движений или раздражающих звуков.
+Цвет: Чёрный
+Цена: 14999
+Количество: 4
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Компьютерное кресло Vitra
+Артикул 10578
+Офисное компьютерное кресло от Швейцарского первоклассного производителя Vitra.
+Кресло имеет множество регулировок, механизм качания с фиксацией в нескольких положениях.
+Эти выполнены из высококачественных материалов, которые имеют небольшой вес и высокую максимальную нагрузку.
+Цвет: Чёрный
+Цена: 14999
+Количество: 3
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/ZDiUdOWTq7XF1g | https://disk.yandex.ru/i/a_u5CWPrYhAoIA | https://disk.yandex.ru/i/2U4SaFSBylFuSg | https://disk.yandex.ru/i/5xCnmpLS2Ky7dQ | https://disk.yandex.ru/i/ugTACqRM4oAMBA</t>
   </si>
   <si>
@@ -1299,6 +1464,24 @@
     <t>https://disk.yandex.ru/i/tQhQ_H1S-p3Wng | https://disk.yandex.ru/i/cs2fk3KpcbRR0Q | https://disk.yandex.ru/i/gWWWxr6oBUXHNw | https://disk.yandex.ru/i/qrZ-7JzWfph1MQ | https://disk.yandex.ru/i/9LslFcM3EVrW8w | https://disk.yandex.ru/i/kU65tD7ePaIrjw | https://disk.yandex.ru/i/yyq3zM0K03YGqg | https://disk.yandex.ru/i/ESV7fQym65sxkA | https://disk.yandex.ru/i/iooJBc_xajDmAA | https://disk.yandex.ru/i/d0sW8KlmXapC-w</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/rd5Gpfk5mmxmjA | https://disk.yandex.ru/i/rg9H1QjAPUspsQ | https://disk.yandex.ru/i/xHnv5HYJgrketQ | https://disk.yandex.ru/i/Gwwh_tWT6QGtTw | https://disk.yandex.ru/i/YdAKy7ZF5syF6g | https://disk.yandex.ru/i/nyUT7ydn8T7h-Q | https://disk.yandex.ru/i/ufgDu2I6TlKE4A | https://disk.yandex.ru/i/hQItWrWaPYh4CQ | https://disk.yandex.ru/i/fh9oBbX75NFtXg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/68osl1NLRK5SWA | https://disk.yandex.ru/i/y-oGb14H_se-vA | https://disk.yandex.ru/i/8AguBzGtYjA3cA | https://disk.yandex.ru/i/LpiuqvDUkQIuCw | https://disk.yandex.ru/i/qloZPKGUOZJiKg | https://disk.yandex.ru/i/o1smmCl7v19OoA | https://disk.yandex.ru/i/7skZCUTiQlUVsg | https://disk.yandex.ru/i/ihjl2Uc-7nmgAw | https://disk.yandex.ru/i/KsHazT6p5TugfA | https://disk.yandex.ru/i/oPZk3vLEiUcX5g</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/14FTpTanpTeHGw | https://disk.yandex.ru/i/15SZPHP7zgWEPw | https://disk.yandex.ru/i/aZy1dkb57Nu5oA | https://disk.yandex.ru/i/saXxP85htcPxJQ | https://disk.yandex.ru/i/ikup-JqSV9YowQ | https://disk.yandex.ru/i/1EUfBDJgSg1GPw | https://disk.yandex.ru/i/8VPhNAx_a2XpCw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/rPQGiJgudoHhyQ | https://disk.yandex.ru/i/PB1iJAftX-GqHQ | https://disk.yandex.ru/i/a_rffy3wY8PRCg | https://disk.yandex.ru/i/diZzCLsmrL67Jg | https://disk.yandex.ru/i/e9jhg1hb6XbMxQ | https://disk.yandex.ru/i/D_izMioUpVgzOA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/sPq-wpcqvtfALQ | https://disk.yandex.ru/i/LoSlf7naEQ-teQ | https://disk.yandex.ru/i/WredPxHzMFgARg | https://disk.yandex.ru/i/MvMscs4NznXjGw | https://disk.yandex.ru/i/yDg2-HlKCX_W7w | https://disk.yandex.ru/i/jIe-IsPEwEB6PQ | https://disk.yandex.ru/i/nAp8ogYYEPyIlw | https://disk.yandex.ru/i/GY6yE3UWwiCRyQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/aCfrIZX2xrWuNw | https://disk.yandex.ru/i/v1AKgSSHg0CJyQ | https://disk.yandex.ru/i/9mjCariGdb1K0w | https://disk.yandex.ru/i/vb4b7_6EPOEkQA | https://disk.yandex.ru/i/I2aiPWY3_sOagQ | https://disk.yandex.ru/i/fpL-ETPGX0_gPQ | https://disk.yandex.ru/i/CK9sGndpxsRiOQ</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -1344,6 +1527,9 @@
     <t>Белый</t>
   </si>
   <si>
+    <t>Бежевый</t>
+  </si>
+  <si>
     <t>Кресла и стулья</t>
   </si>
   <si>
@@ -1411,6 +1597,9 @@
   </si>
   <si>
     <t>Подлокотники | Подголовник | Механизм качания | Регулировка наклона спинки | Регулировка высоты | Регулировка подлокотников | Регулировка глубины сиденья</t>
+  </si>
+  <si>
+    <t>Подлокотники | Подголовник | Механизм качания | Регулировка высоты | Регулировка подлокотников | Поясничный упор</t>
   </si>
   <si>
     <t>Замша</t>
@@ -1861,10 +2050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW42"/>
+  <dimension ref="A1:AW48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z19" workbookViewId="0">
-      <selection activeCell="AN41" sqref="AN41:AP42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2026,40 +2215,40 @@
         <v>49</v>
       </c>
       <c r="M2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="N2">
         <v>5499</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S2" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AA2" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AB2" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="AC2" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AD2" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AE2" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="AG2" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AH2" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AN2">
         <v>50</v>
@@ -2071,16 +2260,16 @@
         <v>50</v>
       </c>
       <c r="AQ2" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="AR2" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="AS2" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AT2" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="AU2">
         <v>30</v>
@@ -2089,7 +2278,7 @@
         <v>120</v>
       </c>
       <c r="AW2" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.25">
@@ -2100,40 +2289,40 @@
         <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="N3">
         <v>7000</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S3" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AA3" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AB3" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="AC3" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AD3" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AE3" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="AG3" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AH3" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AN3">
         <v>50</v>
@@ -2145,13 +2334,13 @@
         <v>50</v>
       </c>
       <c r="AQ3" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="AS3" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AT3" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="AU3">
         <v>31</v>
@@ -2160,7 +2349,7 @@
         <v>70</v>
       </c>
       <c r="AW3" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
@@ -2171,40 +2360,40 @@
         <v>51</v>
       </c>
       <c r="M4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="N4">
         <v>2999</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S4" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AA4" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AB4" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="AC4" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AD4" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AE4" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="AG4" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AH4" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AN4">
         <v>45</v>
@@ -2216,16 +2405,16 @@
         <v>40</v>
       </c>
       <c r="AQ4" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="AR4" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="AS4" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AT4" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="AU4">
         <v>30</v>
@@ -2234,7 +2423,7 @@
         <v>80</v>
       </c>
       <c r="AW4" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
@@ -2245,40 +2434,40 @@
         <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N5">
         <v>3999</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S5" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AA5" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AB5" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="AC5" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AD5" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AE5" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="AG5" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AH5" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AN5">
         <v>48</v>
@@ -2290,16 +2479,16 @@
         <v>50</v>
       </c>
       <c r="AQ5" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="AR5" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="AS5" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AT5" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="AU5">
         <v>30</v>
@@ -2308,7 +2497,7 @@
         <v>90</v>
       </c>
       <c r="AW5" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
@@ -2319,40 +2508,40 @@
         <v>53</v>
       </c>
       <c r="M6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N6">
         <v>3499</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S6" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AA6" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AB6" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="AC6" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AD6" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AE6" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="AG6" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AH6" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AN6">
         <v>50</v>
@@ -2364,13 +2553,13 @@
         <v>50</v>
       </c>
       <c r="AQ6" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="AS6" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AT6" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="AU6">
         <v>30</v>
@@ -2379,7 +2568,7 @@
         <v>120</v>
       </c>
       <c r="AW6" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
@@ -2390,40 +2579,40 @@
         <v>49</v>
       </c>
       <c r="M7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="N7">
         <v>1499</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S7" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AA7" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AB7" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="AC7" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AD7" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AE7" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="AG7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AH7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AN7">
         <v>45</v>
@@ -2435,16 +2624,16 @@
         <v>50</v>
       </c>
       <c r="AQ7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="AR7" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="AS7" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AT7" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="AU7">
         <v>30</v>
@@ -2453,7 +2642,7 @@
         <v>75</v>
       </c>
       <c r="AW7" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
@@ -2464,40 +2653,40 @@
         <v>50</v>
       </c>
       <c r="M8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="N8">
         <v>3100</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S8" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AA8" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AB8" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="AC8" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AD8" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AE8" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="AG8" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AH8" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AN8">
         <v>48</v>
@@ -2509,16 +2698,16 @@
         <v>45</v>
       </c>
       <c r="AQ8" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="AR8" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="AS8" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AT8" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="AU8">
         <v>30</v>
@@ -2527,7 +2716,7 @@
         <v>80</v>
       </c>
       <c r="AW8" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
@@ -2538,40 +2727,40 @@
         <v>54</v>
       </c>
       <c r="M9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="N9">
         <v>3499</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S9" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AA9" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AB9" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="AC9" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AD9" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AE9" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="AG9" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AH9" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AN9">
         <v>50</v>
@@ -2583,13 +2772,13 @@
         <v>50</v>
       </c>
       <c r="AQ9" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="AS9" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AT9" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="AU9">
         <v>30</v>
@@ -2598,7 +2787,7 @@
         <v>120</v>
       </c>
       <c r="AW9" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
@@ -2609,40 +2798,40 @@
         <v>55</v>
       </c>
       <c r="M10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N10">
         <v>2300</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S10" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AA10" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AB10" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="AC10" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AD10" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AE10" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="AG10" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AH10" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AN10">
         <v>48</v>
@@ -2654,16 +2843,16 @@
         <v>50</v>
       </c>
       <c r="AQ10" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="AR10" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="AS10" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AT10" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="AU10">
         <v>31</v>
@@ -2672,7 +2861,7 @@
         <v>70</v>
       </c>
       <c r="AW10" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
@@ -2683,40 +2872,40 @@
         <v>56</v>
       </c>
       <c r="M11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N11">
         <v>3999</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S11" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AA11" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AB11" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="AC11" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AD11" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AE11" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="AG11" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AH11" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AN11">
         <v>50</v>
@@ -2728,16 +2917,16 @@
         <v>50</v>
       </c>
       <c r="AQ11" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="AR11" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="AS11" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AT11" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="AU11">
         <v>30</v>
@@ -2746,7 +2935,7 @@
         <v>120</v>
       </c>
       <c r="AW11" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
@@ -2757,40 +2946,40 @@
         <v>50</v>
       </c>
       <c r="M12" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N12">
         <v>7999</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S12" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AA12" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AB12" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="AC12" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AD12" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AE12" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="AG12" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AH12" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AN12">
         <v>50</v>
@@ -2802,16 +2991,16 @@
         <v>50</v>
       </c>
       <c r="AQ12" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="AR12" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="AS12" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AT12" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="AU12">
         <v>30</v>
@@ -2820,7 +3009,7 @@
         <v>120</v>
       </c>
       <c r="AW12" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
@@ -2831,40 +3020,40 @@
         <v>57</v>
       </c>
       <c r="M13" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="N13">
         <v>7999</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S13" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AA13" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AB13" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="AC13" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AD13" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AE13" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="AG13" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AH13" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AN13">
         <v>48</v>
@@ -2876,16 +3065,16 @@
         <v>50</v>
       </c>
       <c r="AQ13" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="AR13" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="AS13" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AT13" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="AU13">
         <v>30</v>
@@ -2894,7 +3083,7 @@
         <v>100</v>
       </c>
       <c r="AW13" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
@@ -2905,40 +3094,40 @@
         <v>58</v>
       </c>
       <c r="M14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N14">
         <v>24999</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S14" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AA14" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AB14" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="AC14" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AD14" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AE14" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="AG14" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AH14" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AN14">
         <v>55</v>
@@ -2950,16 +3139,16 @@
         <v>50</v>
       </c>
       <c r="AQ14" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="AR14" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="AS14" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AT14" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="AU14">
         <v>30</v>
@@ -2968,7 +3157,7 @@
         <v>180</v>
       </c>
       <c r="AW14" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
@@ -2979,40 +3168,40 @@
         <v>59</v>
       </c>
       <c r="M15" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="N15">
         <v>6999</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S15" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AA15" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AB15" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="AC15" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AD15" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AE15" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AH15" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AN15">
         <v>50</v>
@@ -3024,16 +3213,16 @@
         <v>53</v>
       </c>
       <c r="AQ15" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="AR15" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="AS15" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AT15" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="AU15">
         <v>30</v>
@@ -3042,7 +3231,7 @@
         <v>100</v>
       </c>
       <c r="AW15" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
@@ -3053,40 +3242,40 @@
         <v>60</v>
       </c>
       <c r="M16" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="N16">
         <v>5999</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S16" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AA16" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AB16" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="AC16" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AD16" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AE16" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="AG16" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AH16" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AN16">
         <v>50</v>
@@ -3098,13 +3287,13 @@
         <v>50</v>
       </c>
       <c r="AQ16" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="AS16" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AT16" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="AU16">
         <v>30</v>
@@ -3113,7 +3302,7 @@
         <v>80</v>
       </c>
       <c r="AW16" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
@@ -3124,40 +3313,40 @@
         <v>51</v>
       </c>
       <c r="M17" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="N17">
         <v>7999</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AA17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AB17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="AC17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AD17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AE17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="AG17" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AH17" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AN17">
         <v>48</v>
@@ -3169,13 +3358,13 @@
         <v>50</v>
       </c>
       <c r="AQ17" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="AS17" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AT17" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="AU17">
         <v>30</v>
@@ -3184,7 +3373,7 @@
         <v>120</v>
       </c>
       <c r="AW17" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
@@ -3195,40 +3384,40 @@
         <v>51</v>
       </c>
       <c r="M18" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="N18">
         <v>7999</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S18" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AA18" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AB18" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="AC18" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AD18" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AE18" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="AG18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AH18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AN18">
         <v>48</v>
@@ -3240,13 +3429,13 @@
         <v>50</v>
       </c>
       <c r="AQ18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="AS18" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AT18" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="AU18">
         <v>30</v>
@@ -3255,7 +3444,7 @@
         <v>120</v>
       </c>
       <c r="AW18" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
@@ -3266,40 +3455,40 @@
         <v>61</v>
       </c>
       <c r="M19" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="N19">
         <v>12000</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S19" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AA19" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AB19" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="AC19" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AD19" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AE19" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="AG19" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AH19" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AN19">
         <v>48</v>
@@ -3311,13 +3500,13 @@
         <v>50</v>
       </c>
       <c r="AQ19" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="AS19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AT19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="AU19">
         <v>30</v>
@@ -3326,7 +3515,7 @@
         <v>120</v>
       </c>
       <c r="AW19" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
@@ -3337,40 +3526,40 @@
         <v>62</v>
       </c>
       <c r="M20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="N20">
         <v>5999</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S20" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AA20" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AB20" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="AC20" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AD20" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AE20" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="AG20" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AH20" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AN20">
         <v>48</v>
@@ -3382,13 +3571,13 @@
         <v>50</v>
       </c>
       <c r="AQ20" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="AS20" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AT20" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="AU20">
         <v>30</v>
@@ -3397,7 +3586,7 @@
         <v>120</v>
       </c>
       <c r="AW20" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
@@ -3408,40 +3597,40 @@
         <v>63</v>
       </c>
       <c r="M21" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N21">
         <v>17000</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S21" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AA21" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AB21" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="AC21" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AD21" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AE21" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="AG21" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AH21" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AN21">
         <v>48</v>
@@ -3453,13 +3642,13 @@
         <v>50</v>
       </c>
       <c r="AQ21" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="AS21" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AT21" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="AU21">
         <v>30</v>
@@ -3468,7 +3657,7 @@
         <v>120</v>
       </c>
       <c r="AW21" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
@@ -3479,40 +3668,40 @@
         <v>64</v>
       </c>
       <c r="M22" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N22">
         <v>9999</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S22" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AA22" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AB22" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="AC22" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AD22" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AE22" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="AG22" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AH22" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AN22">
         <v>48</v>
@@ -3524,13 +3713,13 @@
         <v>50</v>
       </c>
       <c r="AQ22" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="AS22" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AT22" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="AU22">
         <v>30</v>
@@ -3539,7 +3728,7 @@
         <v>120</v>
       </c>
       <c r="AW22" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:49" x14ac:dyDescent="0.25">
@@ -3550,40 +3739,40 @@
         <v>50</v>
       </c>
       <c r="M23" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="N23">
         <v>9999</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S23" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AA23" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AB23" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="AC23" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AD23" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AE23" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="AG23" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AH23" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AN23">
         <v>48</v>
@@ -3595,13 +3784,13 @@
         <v>50</v>
       </c>
       <c r="AQ23" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="AS23" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AT23" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="AU23">
         <v>30</v>
@@ -3610,7 +3799,7 @@
         <v>120</v>
       </c>
       <c r="AW23" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:49" x14ac:dyDescent="0.25">
@@ -3621,40 +3810,40 @@
         <v>55</v>
       </c>
       <c r="M24" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="N24">
         <v>11999</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S24" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AA24" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AB24" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="AC24" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AD24" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AE24" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="AG24" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AH24" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AN24">
         <v>48</v>
@@ -3666,13 +3855,13 @@
         <v>50</v>
       </c>
       <c r="AQ24" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AS24" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AT24" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="AU24">
         <v>30</v>
@@ -3681,7 +3870,7 @@
         <v>120</v>
       </c>
       <c r="AW24" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:49" x14ac:dyDescent="0.25">
@@ -3692,40 +3881,40 @@
         <v>50</v>
       </c>
       <c r="M25" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="N25">
         <v>9999</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S25" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AA25" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AB25" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="AC25" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AD25" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AE25" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="AG25" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AH25" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AN25">
         <v>48</v>
@@ -3737,13 +3926,13 @@
         <v>50</v>
       </c>
       <c r="AQ25" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AS25" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AT25" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="AU25">
         <v>30</v>
@@ -3752,7 +3941,7 @@
         <v>120</v>
       </c>
       <c r="AW25" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.25">
@@ -3763,40 +3952,40 @@
         <v>51</v>
       </c>
       <c r="M26" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="N26">
         <v>3499</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S26" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AA26" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AB26" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="AC26" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AD26" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AE26" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="AG26" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AH26" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AN26">
         <v>48</v>
@@ -3808,13 +3997,13 @@
         <v>50</v>
       </c>
       <c r="AQ26" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="AS26" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AT26" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="AU26">
         <v>30</v>
@@ -3823,7 +4012,7 @@
         <v>120</v>
       </c>
       <c r="AW26" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:49" x14ac:dyDescent="0.25">
@@ -3834,40 +4023,40 @@
         <v>55</v>
       </c>
       <c r="M27" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="N27">
         <v>4999</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S27" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AA27" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AB27" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="AC27" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AD27" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AE27" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="AG27" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AH27" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AN27">
         <v>48</v>
@@ -3879,13 +4068,13 @@
         <v>50</v>
       </c>
       <c r="AQ27" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="AS27" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AT27" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="AU27">
         <v>30</v>
@@ -3894,7 +4083,7 @@
         <v>120</v>
       </c>
       <c r="AW27" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.25">
@@ -3905,40 +4094,40 @@
         <v>65</v>
       </c>
       <c r="M28" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N28">
         <v>2999</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S28" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AA28" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AB28" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="AC28" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AD28" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AE28" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="AG28" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AH28" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AN28">
         <v>48</v>
@@ -3950,13 +4139,13 @@
         <v>50</v>
       </c>
       <c r="AQ28" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="AS28" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AT28" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="AU28">
         <v>30</v>
@@ -3965,7 +4154,7 @@
         <v>120</v>
       </c>
       <c r="AW28" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.25">
@@ -3976,40 +4165,40 @@
         <v>66</v>
       </c>
       <c r="M29" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="N29">
         <v>44999</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S29" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AA29" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AB29" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="AC29" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AD29" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AE29" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="AG29" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AH29" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AN29">
         <v>48</v>
@@ -4021,13 +4210,13 @@
         <v>50</v>
       </c>
       <c r="AQ29" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="AS29" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AT29" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="AU29">
         <v>30</v>
@@ -4036,7 +4225,7 @@
         <v>120</v>
       </c>
       <c r="AW29" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.25">
@@ -4047,40 +4236,40 @@
         <v>65</v>
       </c>
       <c r="M30" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="N30">
         <v>11999</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S30" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AA30" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AB30" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="AC30" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AD30" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AE30" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="AG30" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AH30" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AN30">
         <v>48</v>
@@ -4092,13 +4281,13 @@
         <v>50</v>
       </c>
       <c r="AQ30" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="AS30" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AT30" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="AU30">
         <v>30</v>
@@ -4107,7 +4296,7 @@
         <v>120</v>
       </c>
       <c r="AW30" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:49" x14ac:dyDescent="0.25">
@@ -4118,40 +4307,40 @@
         <v>65</v>
       </c>
       <c r="M31" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="N31">
         <v>11999</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S31" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AA31" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AB31" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="AC31" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AD31" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AE31" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="AG31" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AH31" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AN31">
         <v>48</v>
@@ -4163,13 +4352,13 @@
         <v>50</v>
       </c>
       <c r="AQ31" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="AS31" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AT31" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="AU31">
         <v>30</v>
@@ -4178,7 +4367,7 @@
         <v>120</v>
       </c>
       <c r="AW31" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:49" x14ac:dyDescent="0.25">
@@ -4189,40 +4378,40 @@
         <v>67</v>
       </c>
       <c r="M32" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="N32">
         <v>14999</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S32" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AA32" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AB32" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="AC32" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AD32" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AE32" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="AG32" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AH32" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AN32">
         <v>48</v>
@@ -4234,13 +4423,13 @@
         <v>50</v>
       </c>
       <c r="AQ32" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="AS32" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AT32" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="AU32">
         <v>30</v>
@@ -4249,7 +4438,7 @@
         <v>120</v>
       </c>
       <c r="AW32" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:49" x14ac:dyDescent="0.25">
@@ -4260,40 +4449,40 @@
         <v>68</v>
       </c>
       <c r="M33" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="N33">
         <v>14999</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S33" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AA33" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AB33" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="AC33" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AD33" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AE33" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="AG33" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AH33" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AN33">
         <v>48</v>
@@ -4305,13 +4494,13 @@
         <v>50</v>
       </c>
       <c r="AQ33" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="AS33" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AT33" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="AU33">
         <v>30</v>
@@ -4320,7 +4509,7 @@
         <v>120</v>
       </c>
       <c r="AW33" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:49" x14ac:dyDescent="0.25">
@@ -4331,40 +4520,40 @@
         <v>51</v>
       </c>
       <c r="M34" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="N34">
         <v>7999</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S34" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AA34" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AB34" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="AC34" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AD34" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AE34" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="AG34" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AH34" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AN34">
         <v>48</v>
@@ -4376,13 +4565,13 @@
         <v>50</v>
       </c>
       <c r="AQ34" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="AS34" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AT34" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="AU34">
         <v>30</v>
@@ -4391,7 +4580,7 @@
         <v>120</v>
       </c>
       <c r="AW34" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:49" x14ac:dyDescent="0.25">
@@ -4402,40 +4591,40 @@
         <v>69</v>
       </c>
       <c r="M35" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N35">
         <v>19999</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S35" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AA35" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AB35" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="AC35" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AD35" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AE35" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="AG35" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AH35" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AN35">
         <v>48</v>
@@ -4447,13 +4636,13 @@
         <v>50</v>
       </c>
       <c r="AQ35" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AS35" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AT35" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="AU35">
         <v>30</v>
@@ -4462,7 +4651,7 @@
         <v>120</v>
       </c>
       <c r="AW35" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:49" x14ac:dyDescent="0.25">
@@ -4473,40 +4662,40 @@
         <v>50</v>
       </c>
       <c r="M36" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="N36">
         <v>9999</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S36" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AA36" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AB36" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="AC36" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AD36" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AE36" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="AG36" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AH36" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AN36">
         <v>48</v>
@@ -4518,13 +4707,13 @@
         <v>50</v>
       </c>
       <c r="AQ36" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="AS36" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AT36" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="AU36">
         <v>30</v>
@@ -4533,7 +4722,7 @@
         <v>120</v>
       </c>
       <c r="AW36" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:49" x14ac:dyDescent="0.25">
@@ -4544,40 +4733,40 @@
         <v>68</v>
       </c>
       <c r="M37" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="N37">
         <v>19999</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S37" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AA37" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AB37" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="AC37" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AD37" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AE37" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="AG37" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AH37" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AN37">
         <v>48</v>
@@ -4589,13 +4778,13 @@
         <v>50</v>
       </c>
       <c r="AQ37" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="AS37" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AT37" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="AU37">
         <v>30</v>
@@ -4604,7 +4793,7 @@
         <v>120</v>
       </c>
       <c r="AW37" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:49" x14ac:dyDescent="0.25">
@@ -4615,40 +4804,40 @@
         <v>56</v>
       </c>
       <c r="M38" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N38">
         <v>14999</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S38" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AA38" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AB38" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="AC38" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AD38" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AE38" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="AG38" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AH38" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AN38">
         <v>48</v>
@@ -4660,13 +4849,13 @@
         <v>50</v>
       </c>
       <c r="AQ38" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="AS38" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AT38" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="AU38">
         <v>30</v>
@@ -4675,7 +4864,7 @@
         <v>120</v>
       </c>
       <c r="AW38" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:49" x14ac:dyDescent="0.25">
@@ -4686,40 +4875,40 @@
         <v>50</v>
       </c>
       <c r="M39" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="N39">
         <v>11000</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S39" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AA39" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AB39" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="AC39" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AD39" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AE39" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="AG39" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AH39" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AN39">
         <v>48</v>
@@ -4731,13 +4920,13 @@
         <v>50</v>
       </c>
       <c r="AQ39" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="AS39" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AT39" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="AU39">
         <v>30</v>
@@ -4746,7 +4935,7 @@
         <v>120</v>
       </c>
       <c r="AW39" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:49" x14ac:dyDescent="0.25">
@@ -4757,40 +4946,40 @@
         <v>58</v>
       </c>
       <c r="M40" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="N40">
         <v>19999</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S40" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AA40" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AB40" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="AC40" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AD40" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AE40" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="AG40" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AH40" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AN40">
         <v>48</v>
@@ -4802,13 +4991,13 @@
         <v>50</v>
       </c>
       <c r="AQ40" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="AS40" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AT40" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="AU40">
         <v>30</v>
@@ -4817,7 +5006,7 @@
         <v>120</v>
       </c>
       <c r="AW40" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:49" x14ac:dyDescent="0.25">
@@ -4828,40 +5017,40 @@
         <v>70</v>
       </c>
       <c r="M41" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="N41">
         <v>17999</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S41" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AA41" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AB41" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="AC41" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AD41" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AE41" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="AG41" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AH41" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AN41">
         <v>48</v>
@@ -4873,13 +5062,13 @@
         <v>50</v>
       </c>
       <c r="AQ41" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AS41" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AT41" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="AU41">
         <v>30</v>
@@ -4888,7 +5077,7 @@
         <v>120</v>
       </c>
       <c r="AW41" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.25">
@@ -4899,40 +5088,40 @@
         <v>71</v>
       </c>
       <c r="M42" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="N42">
-        <v>14999</v>
+        <v>17999</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S42" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AA42" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AB42" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="AC42" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AD42" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AE42" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="AG42" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AH42" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AN42">
         <v>48</v>
@@ -4944,13 +5133,13 @@
         <v>50</v>
       </c>
       <c r="AQ42" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="AS42" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AT42" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="AU42">
         <v>30</v>
@@ -4959,7 +5148,433 @@
         <v>190</v>
       </c>
       <c r="AW42" t="s">
-        <v>202</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="43" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>10577</v>
+      </c>
+      <c r="L43" t="s">
+        <v>72</v>
+      </c>
+      <c r="M43" t="s">
+        <v>117</v>
+      </c>
+      <c r="N43">
+        <v>34999</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="S43" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN43">
+        <v>48</v>
+      </c>
+      <c r="AO43">
+        <v>45</v>
+      </c>
+      <c r="AP43">
+        <v>50</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>188</v>
+      </c>
+      <c r="AS43" t="s">
+        <v>214</v>
+      </c>
+      <c r="AT43" t="s">
+        <v>212</v>
+      </c>
+      <c r="AU43">
+        <v>30</v>
+      </c>
+      <c r="AV43">
+        <v>190</v>
+      </c>
+      <c r="AW43" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>10580</v>
+      </c>
+      <c r="L44" t="s">
+        <v>56</v>
+      </c>
+      <c r="M44" t="s">
+        <v>118</v>
+      </c>
+      <c r="N44">
+        <v>24999</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="S44" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN44">
+        <v>48</v>
+      </c>
+      <c r="AO44">
+        <v>45</v>
+      </c>
+      <c r="AP44">
+        <v>50</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>188</v>
+      </c>
+      <c r="AS44" t="s">
+        <v>214</v>
+      </c>
+      <c r="AT44" t="s">
+        <v>212</v>
+      </c>
+      <c r="AU44">
+        <v>30</v>
+      </c>
+      <c r="AV44">
+        <v>190</v>
+      </c>
+      <c r="AW44" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>10575</v>
+      </c>
+      <c r="L45" t="s">
+        <v>73</v>
+      </c>
+      <c r="M45" t="s">
+        <v>119</v>
+      </c>
+      <c r="N45">
+        <v>7999</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="S45" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN45">
+        <v>48</v>
+      </c>
+      <c r="AO45">
+        <v>45</v>
+      </c>
+      <c r="AP45">
+        <v>50</v>
+      </c>
+      <c r="AQ45" t="s">
+        <v>189</v>
+      </c>
+      <c r="AS45" t="s">
+        <v>214</v>
+      </c>
+      <c r="AT45" t="s">
+        <v>212</v>
+      </c>
+      <c r="AU45">
+        <v>30</v>
+      </c>
+      <c r="AV45">
+        <v>190</v>
+      </c>
+      <c r="AW45" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>10579</v>
+      </c>
+      <c r="L46" t="s">
+        <v>56</v>
+      </c>
+      <c r="M46" t="s">
+        <v>120</v>
+      </c>
+      <c r="N46">
+        <v>10500</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="S46" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN46">
+        <v>48</v>
+      </c>
+      <c r="AO46">
+        <v>45</v>
+      </c>
+      <c r="AP46">
+        <v>50</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>188</v>
+      </c>
+      <c r="AS46" t="s">
+        <v>214</v>
+      </c>
+      <c r="AT46" t="s">
+        <v>215</v>
+      </c>
+      <c r="AU46">
+        <v>30</v>
+      </c>
+      <c r="AV46">
+        <v>190</v>
+      </c>
+      <c r="AW46" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>10582</v>
+      </c>
+      <c r="L47" t="s">
+        <v>74</v>
+      </c>
+      <c r="M47" t="s">
+        <v>121</v>
+      </c>
+      <c r="N47">
+        <v>14999</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="S47" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN47">
+        <v>48</v>
+      </c>
+      <c r="AO47">
+        <v>45</v>
+      </c>
+      <c r="AP47">
+        <v>50</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>205</v>
+      </c>
+      <c r="AS47" t="s">
+        <v>214</v>
+      </c>
+      <c r="AT47" t="s">
+        <v>211</v>
+      </c>
+      <c r="AU47">
+        <v>30</v>
+      </c>
+      <c r="AV47">
+        <v>190</v>
+      </c>
+      <c r="AW47" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>10578</v>
+      </c>
+      <c r="L48" t="s">
+        <v>75</v>
+      </c>
+      <c r="M48" t="s">
+        <v>122</v>
+      </c>
+      <c r="N48">
+        <v>14999</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="S48" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN48">
+        <v>48</v>
+      </c>
+      <c r="AO48">
+        <v>45</v>
+      </c>
+      <c r="AP48">
+        <v>50</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS48" t="s">
+        <v>214</v>
+      </c>
+      <c r="AT48" t="s">
+        <v>210</v>
+      </c>
+      <c r="AU48">
+        <v>30</v>
+      </c>
+      <c r="AV48">
+        <v>190</v>
+      </c>
+      <c r="AW48" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -5046,6 +5661,18 @@
     <hyperlink ref="Q41" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
     <hyperlink ref="O42" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
     <hyperlink ref="Q42" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="O43" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="Q43" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="O44" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="Q44" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="O45" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="Q45" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="O46" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="Q46" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="O47" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="Q47" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="O48" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="Q48" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/comp armchair.xlsx
+++ b/make_xl/data_xl/comp armchair.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9633204-9CDF-4B23-B214-A5B6D6D16789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="235">
   <si>
     <t>Id</t>
   </si>
@@ -248,6 +242,15 @@
   </si>
   <si>
     <t>Компьютерное кресло Vitra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Компьютерное кресло Бюрократ </t>
+  </si>
+  <si>
+    <t>Компьютерное кресло Haworth</t>
+  </si>
+  <si>
+    <t>Офисное кресло Haworth</t>
   </si>
   <si>
     <t>Кресло с высокой спинкой (10371) 
@@ -1344,6 +1347,115 @@
     </t>
   </si>
   <si>
+    <t xml:space="preserve">Компьютерное кресло Бюрократ 
+Артикул 105831
+Офисное кресло
+Цвет: Серый
+Цена: 9999
+Количество: 4
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Компьютерное кресло Haworth
+Артикул 104121
+Офисное компьютреное кресло Comforto 29 от амереканского производителя высококачественной мебели для офиса Haworth. Крело с кожаной сидушкой и сетчатой спинкой. Офисное кресло отлично подойдет для долгой работы за столом, так как обладает хорошей органомикой и множеством регулировок
+Цвет: Чёрный
+Цена: 14999
+Количество: 7
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Офисное кресло Haworth
+Артикул 10412
+Компьютреное кресло Comforto 29 от амереканского производителя высококачественной мебели для офиса Haworth. Офисное кресло отлично подойдет для долгой работы за столом, так как обладает хорошей органомикой и множеством регулировок.
+Цвет: Чёрный
+Цена: 9999
+Количество: 1
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Компьютерное кресло Haworth
+Артикул 104122
+Офисное кресло от мирового производителя мебели Haworth. Эта модель отличное сочетание высокого качества, удобства и димократичной цены. Кресло имеет удобную мягкую спинку и режим качания с фиксацией в нескольких положениях.
+Цвет: Чёрный
+Цена: 7999
+Количество: 4
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Компьютерное кресло
+Артикул 10583
+Офисное компьютерное кресло. Это кресло отлично подойдёт для долгой работы за компьютером. 
+Офисное кресло обладает множеством регулировок и хорошей эргономикой
+Цвет: Серый
+Цена: 12999
+Количество: 40 (от 10 штук под заказ)
+    В наличии более 150 разных компьютерных кресел бу для работы дома и в офисе.
+    Вы можете написать нашим менеджерам, что бы подобрать под свои личные параметры и в нужном количестве.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/ZDiUdOWTq7XF1g | https://disk.yandex.ru/i/a_u5CWPrYhAoIA | https://disk.yandex.ru/i/2U4SaFSBylFuSg | https://disk.yandex.ru/i/5xCnmpLS2Ky7dQ | https://disk.yandex.ru/i/ugTACqRM4oAMBA</t>
   </si>
   <si>
@@ -1482,6 +1594,21 @@
     <t>https://disk.yandex.ru/i/aCfrIZX2xrWuNw | https://disk.yandex.ru/i/v1AKgSSHg0CJyQ | https://disk.yandex.ru/i/9mjCariGdb1K0w | https://disk.yandex.ru/i/vb4b7_6EPOEkQA | https://disk.yandex.ru/i/I2aiPWY3_sOagQ | https://disk.yandex.ru/i/fpL-ETPGX0_gPQ | https://disk.yandex.ru/i/CK9sGndpxsRiOQ</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/BpFxNx2uPs0chQ | https://disk.yandex.ru/i/uWzxcA4g9Q9GUg | https://disk.yandex.ru/i/OtxDzkEeP9ixyw | https://disk.yandex.ru/i/H132WQu-w7oDPg | https://disk.yandex.ru/i/cgRTIvYQQq1zNw | https://disk.yandex.ru/i/mc_wxr2Mob9zLg | https://disk.yandex.ru/i/EZyGYk4EvlAifA | https://disk.yandex.ru/i/Zi67hvjY9iZGQA | https://disk.yandex.ru/i/_s09fNAlEqCcIA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/5ywwZ-wYAcbonA | https://disk.yandex.ru/i/s6GGJQXTIkJyrw | https://disk.yandex.ru/i/PmQMF3FCtFUtzA | https://disk.yandex.ru/i/YV8u-4r0aBjwpQ | https://disk.yandex.ru/i/q6qU7z0ZiqfcPw | https://disk.yandex.ru/i/MSsBguV1tmF8ug | https://disk.yandex.ru/i/AgRtr9fP15cV3Q | https://disk.yandex.ru/i/F31cDeMeOC1jIA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/4HvsCsfn0MyWoQ | https://disk.yandex.ru/i/vjd3BB7xKKwA1g | https://disk.yandex.ru/i/-CkNszkHlit-GQ | https://disk.yandex.ru/i/CW7Dyfoo4OLCyQ | https://disk.yandex.ru/i/vc0RCe7jvM3YQA | https://disk.yandex.ru/i/viGZuw6uh5rXvQ | https://disk.yandex.ru/i/sx7YcZIBa7DWeQ | https://disk.yandex.ru/i/JVbY9r3izKnUvQ | https://disk.yandex.ru/i/5ywwZ-wYAcbonA | https://disk.yandex.ru/i/s6GGJQXTIkJyrw | https://disk.yandex.ru/i/PmQMF3FCtFUtzA | https://disk.yandex.ru/i/YV8u-4r0aBjwpQ | https://disk.yandex.ru/i/q6qU7z0ZiqfcPw | https://disk.yandex.ru/i/MSsBguV1tmF8ug | https://disk.yandex.ru/i/AgRtr9fP15cV3Q | https://disk.yandex.ru/i/F31cDeMeOC1jIA | https://disk.yandex.ru/i/abWLi9YgDjKi3w | https://disk.yandex.ru/i/SsficTiRX1kpcg | https://disk.yandex.ru/i/VA9Rxh7Rrwzuyg | https://disk.yandex.ru/i/7As-DQwrHQcWyg | https://disk.yandex.ru/i/qWeNEmw7izopNA | https://disk.yandex.ru/i/9_btZKzeV02rCQ | https://disk.yandex.ru/i/YchZfgmTynhDLw | https://disk.yandex.ru/i/1kzsQHbj-nz2HA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/abWLi9YgDjKi3w | https://disk.yandex.ru/i/SsficTiRX1kpcg | https://disk.yandex.ru/i/VA9Rxh7Rrwzuyg | https://disk.yandex.ru/i/7As-DQwrHQcWyg | https://disk.yandex.ru/i/qWeNEmw7izopNA | https://disk.yandex.ru/i/9_btZKzeV02rCQ | https://disk.yandex.ru/i/YchZfgmTynhDLw | https://disk.yandex.ru/i/1kzsQHbj-nz2HA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/emlv3Fbe1F9nQQ | https://disk.yandex.ru/i/f2W-dn3WbYf2Uw | https://disk.yandex.ru/i/2RPiI56NrBgmCw | https://disk.yandex.ru/i/qoElHIogMpjm7g | https://disk.yandex.ru/i/39rZqFZR7qq5sA | https://disk.yandex.ru/i/poohZypITLsJmQ | https://disk.yandex.ru/i/kXb5Vk6Dba0prw | https://disk.yandex.ru/i/roHFEvEVDDmTLA | https://disk.yandex.ru/i/_h2KTsKmd27HJA | https://disk.yandex.ru/i/BpFxNx2uPs0chQ | https://disk.yandex.ru/i/uWzxcA4g9Q9GUg | https://disk.yandex.ru/i/OtxDzkEeP9ixyw | https://disk.yandex.ru/i/H132WQu-w7oDPg | https://disk.yandex.ru/i/cgRTIvYQQq1zNw | https://disk.yandex.ru/i/mc_wxr2Mob9zLg | https://disk.yandex.ru/i/EZyGYk4EvlAifA | https://disk.yandex.ru/i/Zi67hvjY9iZGQA | https://disk.yandex.ru/i/_s09fNAlEqCcIA</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -1600,6 +1727,9 @@
   </si>
   <si>
     <t>Подлокотники | Подголовник | Механизм качания | Регулировка высоты | Регулировка подлокотников | Поясничный упор</t>
+  </si>
+  <si>
+    <t>Подлокотники | Регулировка наклона спинки | Регулировка высоты</t>
   </si>
   <si>
     <t>Замша</t>
@@ -1641,8 +1771,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1713,26 +1843,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1770,9 +1892,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1804,27 +1926,9 @@
    